--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="2"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="165">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -513,6 +513,12 @@
   </si>
   <si>
     <t>Tháng 11/2020</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Nộp thuế quý 3</t>
   </si>
 </sst>
 </file>
@@ -2036,6 +2042,24 @@
     <xf numFmtId="167" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2066,12 +2090,42 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2081,75 +2135,9 @@
     <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2180,6 +2168,36 @@
     <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2195,6 +2213,30 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2255,48 +2297,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2333,15 +2360,6 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2396,22 +2414,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2726,9 +2732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,16 +2800,16 @@
       <c r="Q2" s="107"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="372" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="366"/>
-      <c r="C3" s="366"/>
-      <c r="D3" s="366"/>
-      <c r="E3" s="366"/>
-      <c r="F3" s="366"/>
-      <c r="G3" s="366"/>
-      <c r="H3" s="366"/>
+      <c r="B3" s="372"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="372"/>
+      <c r="G3" s="372"/>
+      <c r="H3" s="372"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
       <c r="K3" s="108"/>
@@ -2815,32 +2821,32 @@
       <c r="Q3" s="108"/>
     </row>
     <row r="4" spans="1:17" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="367" t="s">
+      <c r="A4" s="373" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="367" t="s">
+      <c r="B4" s="373" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="367" t="s">
+      <c r="C4" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="368" t="s">
+      <c r="D4" s="374" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="369" t="s">
+      <c r="E4" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="369"/>
-      <c r="G4" s="369" t="s">
+      <c r="F4" s="375"/>
+      <c r="G4" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="369"/>
+      <c r="H4" s="375"/>
     </row>
     <row r="5" spans="1:17" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="367"/>
-      <c r="B5" s="367"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="368"/>
+      <c r="A5" s="373"/>
+      <c r="B5" s="373"/>
+      <c r="C5" s="373"/>
+      <c r="D5" s="374"/>
       <c r="E5" s="210" t="s">
         <v>81</v>
       </c>
@@ -2873,13 +2879,21 @@
       <c r="H6" s="209"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
+      <c r="A7" s="92">
+        <v>44137</v>
+      </c>
       <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
+      <c r="C7" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>164</v>
+      </c>
       <c r="E7" s="95"/>
       <c r="F7" s="109"/>
-      <c r="G7" s="95"/>
+      <c r="G7" s="95">
+        <v>14226820</v>
+      </c>
       <c r="H7" s="109"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2903,9 +2917,9 @@
       <c r="H9" s="109"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="480"/>
-      <c r="B10" s="480"/>
-      <c r="C10" s="483"/>
+      <c r="A10" s="360"/>
+      <c r="B10" s="360"/>
+      <c r="C10" s="363"/>
       <c r="D10" s="94"/>
       <c r="E10" s="95"/>
       <c r="F10" s="109"/>
@@ -2913,9 +2927,9 @@
       <c r="H10" s="109"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="481"/>
-      <c r="B11" s="481"/>
-      <c r="C11" s="484"/>
+      <c r="A11" s="361"/>
+      <c r="B11" s="361"/>
+      <c r="C11" s="364"/>
       <c r="D11" s="218"/>
       <c r="E11" s="95"/>
       <c r="F11" s="109"/>
@@ -2923,9 +2937,9 @@
       <c r="H11" s="109"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="481"/>
-      <c r="B12" s="481"/>
-      <c r="C12" s="484"/>
+      <c r="A12" s="361"/>
+      <c r="B12" s="361"/>
+      <c r="C12" s="364"/>
       <c r="D12" s="218"/>
       <c r="E12" s="95"/>
       <c r="F12" s="109"/>
@@ -2933,9 +2947,9 @@
       <c r="H12" s="109"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="481"/>
-      <c r="B13" s="481"/>
-      <c r="C13" s="484"/>
+      <c r="A13" s="361"/>
+      <c r="B13" s="361"/>
+      <c r="C13" s="364"/>
       <c r="D13" s="218"/>
       <c r="E13" s="95"/>
       <c r="F13" s="109"/>
@@ -2943,9 +2957,9 @@
       <c r="H13" s="109"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="481"/>
-      <c r="B14" s="481"/>
-      <c r="C14" s="484"/>
+      <c r="A14" s="361"/>
+      <c r="B14" s="361"/>
+      <c r="C14" s="364"/>
       <c r="D14" s="219"/>
       <c r="E14" s="95"/>
       <c r="F14" s="109"/>
@@ -2953,9 +2967,9 @@
       <c r="H14" s="109"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="481"/>
-      <c r="B15" s="481"/>
-      <c r="C15" s="484"/>
+      <c r="A15" s="361"/>
+      <c r="B15" s="361"/>
+      <c r="C15" s="364"/>
       <c r="D15" s="218"/>
       <c r="E15" s="95"/>
       <c r="F15" s="109"/>
@@ -2963,9 +2977,9 @@
       <c r="H15" s="111"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="482"/>
-      <c r="B16" s="482"/>
-      <c r="C16" s="485"/>
+      <c r="A16" s="362"/>
+      <c r="B16" s="362"/>
+      <c r="C16" s="365"/>
       <c r="D16" s="218"/>
       <c r="E16" s="95"/>
       <c r="F16" s="109"/>
@@ -2983,8 +2997,8 @@
       <c r="F17" s="109"/>
       <c r="G17" s="95"/>
       <c r="H17" s="111"/>
-      <c r="K17" s="360"/>
-      <c r="L17" s="361"/>
+      <c r="K17" s="366"/>
+      <c r="L17" s="367"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="92"/>
@@ -3547,12 +3561,12 @@
       <c r="H73" s="111"/>
     </row>
     <row r="74" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="363" t="s">
+      <c r="A74" s="369" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="364"/>
-      <c r="C74" s="364"/>
-      <c r="D74" s="365"/>
+      <c r="B74" s="370"/>
+      <c r="C74" s="370"/>
+      <c r="D74" s="371"/>
       <c r="E74" s="113">
         <f>SUM(E7:E73)</f>
         <v>0</v>
@@ -3563,7 +3577,7 @@
       </c>
       <c r="G74" s="113">
         <f>SUM(G7:G73)</f>
-        <v>0</v>
+        <v>14226820</v>
       </c>
       <c r="H74" s="113">
         <f>SUM(H7:H73)</f>
@@ -3583,11 +3597,11 @@
       <c r="J75" s="115"/>
     </row>
     <row r="76" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="362" t="s">
+      <c r="A76" s="368" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="362"/>
-      <c r="C76" s="362"/>
+      <c r="B76" s="368"/>
+      <c r="C76" s="368"/>
       <c r="D76" s="116"/>
       <c r="E76" s="117"/>
       <c r="F76" s="117"/>
@@ -3650,7 +3664,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O20" sqref="A8:O20"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3674,13 +3688,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="388" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="372"/>
-      <c r="C1" s="372"/>
-      <c r="D1" s="372"/>
-      <c r="E1" s="372"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
       <c r="H1" s="125"/>
       <c r="I1" s="125"/>
       <c r="J1" s="125"/>
@@ -3710,143 +3724,143 @@
       <c r="P2" s="129"/>
     </row>
     <row r="3" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="373" t="s">
+      <c r="A3" s="389" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="373"/>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
-      <c r="F3" s="373"/>
-      <c r="G3" s="373"/>
-      <c r="H3" s="373"/>
-      <c r="I3" s="373"/>
-      <c r="J3" s="373"/>
-      <c r="K3" s="373"/>
-      <c r="L3" s="373"/>
-      <c r="M3" s="373"/>
-      <c r="N3" s="373"/>
-      <c r="O3" s="373"/>
-      <c r="P3" s="373"/>
+      <c r="B3" s="389"/>
+      <c r="C3" s="389"/>
+      <c r="D3" s="389"/>
+      <c r="E3" s="389"/>
+      <c r="F3" s="389"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="389"/>
+      <c r="I3" s="389"/>
+      <c r="J3" s="389"/>
+      <c r="K3" s="389"/>
+      <c r="L3" s="389"/>
+      <c r="M3" s="389"/>
+      <c r="N3" s="389"/>
+      <c r="O3" s="389"/>
+      <c r="P3" s="389"/>
     </row>
     <row r="4" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="373" t="s">
+      <c r="A4" s="389" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="373"/>
-      <c r="C4" s="373"/>
-      <c r="D4" s="373"/>
-      <c r="E4" s="373"/>
-      <c r="F4" s="373"/>
-      <c r="G4" s="373"/>
-      <c r="H4" s="373"/>
-      <c r="I4" s="373"/>
-      <c r="J4" s="373"/>
-      <c r="K4" s="373"/>
-      <c r="L4" s="373"/>
-      <c r="M4" s="373"/>
-      <c r="N4" s="373"/>
-      <c r="O4" s="373"/>
-      <c r="P4" s="373"/>
+      <c r="B4" s="389"/>
+      <c r="C4" s="389"/>
+      <c r="D4" s="389"/>
+      <c r="E4" s="389"/>
+      <c r="F4" s="389"/>
+      <c r="G4" s="389"/>
+      <c r="H4" s="389"/>
+      <c r="I4" s="389"/>
+      <c r="J4" s="389"/>
+      <c r="K4" s="389"/>
+      <c r="L4" s="389"/>
+      <c r="M4" s="389"/>
+      <c r="N4" s="389"/>
+      <c r="O4" s="389"/>
+      <c r="P4" s="389"/>
     </row>
     <row r="5" spans="1:16" s="124" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="381" t="s">
+      <c r="A5" s="382" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="382" t="s">
+      <c r="B5" s="383" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="381" t="s">
+      <c r="C5" s="382" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="381" t="s">
+      <c r="D5" s="382" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="381"/>
-      <c r="F5" s="375" t="s">
+      <c r="E5" s="382"/>
+      <c r="F5" s="384" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="375"/>
-      <c r="H5" s="375"/>
-      <c r="I5" s="375"/>
-      <c r="J5" s="375"/>
-      <c r="K5" s="375"/>
-      <c r="L5" s="375"/>
-      <c r="M5" s="374"/>
-      <c r="N5" s="374"/>
-      <c r="O5" s="374"/>
-      <c r="P5" s="375" t="s">
+      <c r="G5" s="384"/>
+      <c r="H5" s="384"/>
+      <c r="I5" s="384"/>
+      <c r="J5" s="384"/>
+      <c r="K5" s="384"/>
+      <c r="L5" s="384"/>
+      <c r="M5" s="390"/>
+      <c r="N5" s="390"/>
+      <c r="O5" s="390"/>
+      <c r="P5" s="384" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="124" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="381"/>
-      <c r="B6" s="382"/>
-      <c r="C6" s="381"/>
-      <c r="D6" s="381" t="s">
+      <c r="A6" s="382"/>
+      <c r="B6" s="383"/>
+      <c r="C6" s="382"/>
+      <c r="D6" s="382" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="381" t="s">
+      <c r="E6" s="382" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="381" t="s">
+      <c r="F6" s="382" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="381" t="s">
+      <c r="G6" s="382" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="376" t="s">
+      <c r="H6" s="385" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="376" t="s">
+      <c r="I6" s="385" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="383" t="s">
+      <c r="J6" s="386" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="383"/>
-      <c r="L6" s="376" t="s">
+      <c r="K6" s="386"/>
+      <c r="L6" s="385" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="376" t="s">
+      <c r="M6" s="385" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="376" t="s">
+      <c r="N6" s="385" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="376" t="s">
+      <c r="O6" s="385" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="375"/>
+      <c r="P6" s="384"/>
     </row>
     <row r="7" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="381"/>
-      <c r="B7" s="382"/>
-      <c r="C7" s="381"/>
-      <c r="D7" s="381"/>
-      <c r="E7" s="381"/>
-      <c r="F7" s="381"/>
-      <c r="G7" s="381"/>
-      <c r="H7" s="376"/>
-      <c r="I7" s="376"/>
+      <c r="A7" s="382"/>
+      <c r="B7" s="383"/>
+      <c r="C7" s="382"/>
+      <c r="D7" s="382"/>
+      <c r="E7" s="382"/>
+      <c r="F7" s="382"/>
+      <c r="G7" s="382"/>
+      <c r="H7" s="385"/>
+      <c r="I7" s="385"/>
       <c r="J7" s="211" t="s">
         <v>84</v>
       </c>
       <c r="K7" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="376"/>
-      <c r="M7" s="376"/>
-      <c r="N7" s="376"/>
-      <c r="O7" s="376"/>
-      <c r="P7" s="375"/>
+      <c r="L7" s="385"/>
+      <c r="M7" s="385"/>
+      <c r="N7" s="385"/>
+      <c r="O7" s="385"/>
+      <c r="P7" s="384"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="378"/>
-      <c r="B8" s="385"/>
-      <c r="C8" s="378"/>
-      <c r="D8" s="378"/>
-      <c r="E8" s="378"/>
+      <c r="A8" s="484"/>
+      <c r="B8" s="485"/>
+      <c r="C8" s="484"/>
+      <c r="D8" s="484"/>
+      <c r="E8" s="484"/>
       <c r="F8" s="163"/>
       <c r="G8" s="163"/>
       <c r="H8" s="164"/>
@@ -3860,11 +3874,11 @@
       <c r="P8" s="163"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="384"/>
-      <c r="B9" s="386"/>
-      <c r="C9" s="384"/>
-      <c r="D9" s="384"/>
-      <c r="E9" s="384"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
       <c r="F9" s="176"/>
       <c r="G9" s="176"/>
       <c r="H9" s="177"/>
@@ -3878,11 +3892,11 @@
       <c r="P9" s="176"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="379"/>
-      <c r="B10" s="387"/>
-      <c r="C10" s="379"/>
-      <c r="D10" s="379"/>
-      <c r="E10" s="379"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
       <c r="F10" s="167"/>
       <c r="G10" s="167"/>
       <c r="H10" s="168"/>
@@ -3932,11 +3946,11 @@
       <c r="P12" s="162"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="378"/>
-      <c r="B13" s="385"/>
-      <c r="C13" s="378"/>
-      <c r="D13" s="378"/>
-      <c r="E13" s="378"/>
+      <c r="A13" s="376"/>
+      <c r="B13" s="378"/>
+      <c r="C13" s="376"/>
+      <c r="D13" s="376"/>
+      <c r="E13" s="376"/>
       <c r="F13" s="163"/>
       <c r="G13" s="163"/>
       <c r="H13" s="164"/>
@@ -3950,11 +3964,11 @@
       <c r="P13" s="166"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="379"/>
-      <c r="B14" s="387"/>
-      <c r="C14" s="379"/>
-      <c r="D14" s="379"/>
-      <c r="E14" s="379"/>
+      <c r="A14" s="377"/>
+      <c r="B14" s="379"/>
+      <c r="C14" s="377"/>
+      <c r="D14" s="377"/>
+      <c r="E14" s="377"/>
       <c r="F14" s="167"/>
       <c r="G14" s="167"/>
       <c r="H14" s="168"/>
@@ -4004,11 +4018,11 @@
       <c r="P16" s="157"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="378"/>
-      <c r="B17" s="385"/>
-      <c r="C17" s="378"/>
-      <c r="D17" s="378"/>
-      <c r="E17" s="378"/>
+      <c r="A17" s="376"/>
+      <c r="B17" s="378"/>
+      <c r="C17" s="376"/>
+      <c r="D17" s="376"/>
+      <c r="E17" s="376"/>
       <c r="F17" s="163"/>
       <c r="G17" s="163"/>
       <c r="H17" s="164"/>
@@ -4022,11 +4036,11 @@
       <c r="P17" s="163"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="379"/>
-      <c r="B18" s="387"/>
-      <c r="C18" s="379"/>
-      <c r="D18" s="379"/>
-      <c r="E18" s="379"/>
+      <c r="A18" s="377"/>
+      <c r="B18" s="379"/>
+      <c r="C18" s="377"/>
+      <c r="D18" s="377"/>
+      <c r="E18" s="377"/>
       <c r="F18" s="167"/>
       <c r="G18" s="167"/>
       <c r="H18" s="168"/>
@@ -4451,7 +4465,7 @@
       <c r="M41" s="177"/>
       <c r="N41" s="177"/>
       <c r="O41" s="177"/>
-      <c r="P41" s="377"/>
+      <c r="P41" s="391"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="172"/>
@@ -4469,7 +4483,7 @@
       <c r="M42" s="177"/>
       <c r="N42" s="177"/>
       <c r="O42" s="177"/>
-      <c r="P42" s="377"/>
+      <c r="P42" s="391"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="172"/>
@@ -4487,7 +4501,7 @@
       <c r="M43" s="177"/>
       <c r="N43" s="177"/>
       <c r="O43" s="177"/>
-      <c r="P43" s="377"/>
+      <c r="P43" s="391"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="172"/>
@@ -4505,7 +4519,7 @@
       <c r="M44" s="177"/>
       <c r="N44" s="177"/>
       <c r="O44" s="177"/>
-      <c r="P44" s="377"/>
+      <c r="P44" s="391"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="172"/>
@@ -4523,7 +4537,7 @@
       <c r="M45" s="177"/>
       <c r="N45" s="177"/>
       <c r="O45" s="177"/>
-      <c r="P45" s="377"/>
+      <c r="P45" s="391"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="172"/>
@@ -4541,7 +4555,7 @@
       <c r="M46" s="177"/>
       <c r="N46" s="177"/>
       <c r="O46" s="177"/>
-      <c r="P46" s="377"/>
+      <c r="P46" s="391"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="198"/>
@@ -4595,7 +4609,7 @@
       <c r="M49" s="177"/>
       <c r="N49" s="177"/>
       <c r="O49" s="177"/>
-      <c r="P49" s="377"/>
+      <c r="P49" s="391"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="172"/>
@@ -4613,7 +4627,7 @@
       <c r="M50" s="177"/>
       <c r="N50" s="177"/>
       <c r="O50" s="177"/>
-      <c r="P50" s="377"/>
+      <c r="P50" s="391"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="172"/>
@@ -4631,7 +4645,7 @@
       <c r="M51" s="177"/>
       <c r="N51" s="177"/>
       <c r="O51" s="177"/>
-      <c r="P51" s="377"/>
+      <c r="P51" s="391"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="198"/>
@@ -5102,14 +5116,14 @@
       <c r="P77" s="167"/>
     </row>
     <row r="78" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="380" t="s">
+      <c r="A78" s="381" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="380"/>
-      <c r="C78" s="380"/>
-      <c r="D78" s="380"/>
-      <c r="E78" s="380"/>
-      <c r="F78" s="380"/>
+      <c r="B78" s="381"/>
+      <c r="C78" s="381"/>
+      <c r="D78" s="381"/>
+      <c r="E78" s="381"/>
+      <c r="F78" s="381"/>
       <c r="G78" s="132">
         <f>SUM(G8:G77)</f>
         <v>0</v>
@@ -5129,17 +5143,17 @@
       <c r="N78" s="133"/>
       <c r="O78" s="133"/>
       <c r="P78" s="133"/>
-      <c r="Q78" s="370"/>
+      <c r="Q78" s="387"/>
     </row>
     <row r="79" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="371" t="s">
+      <c r="A79" s="380" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="371"/>
-      <c r="C79" s="371"/>
-      <c r="D79" s="371"/>
-      <c r="E79" s="371"/>
-      <c r="F79" s="371"/>
+      <c r="B79" s="380"/>
+      <c r="C79" s="380"/>
+      <c r="D79" s="380"/>
+      <c r="E79" s="380"/>
+      <c r="F79" s="380"/>
       <c r="G79" s="132">
         <f>G78</f>
         <v>0</v>
@@ -5156,17 +5170,17 @@
       <c r="N79" s="137"/>
       <c r="O79" s="137"/>
       <c r="P79" s="137"/>
-      <c r="Q79" s="370"/>
+      <c r="Q79" s="387"/>
     </row>
     <row r="80" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="371" t="s">
+      <c r="A80" s="380" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="371"/>
-      <c r="C80" s="371"/>
-      <c r="D80" s="371"/>
-      <c r="E80" s="371"/>
-      <c r="F80" s="371"/>
+      <c r="B80" s="380"/>
+      <c r="C80" s="380"/>
+      <c r="D80" s="380"/>
+      <c r="E80" s="380"/>
+      <c r="F80" s="380"/>
       <c r="G80" s="138" t="s">
         <v>45</v>
       </c>
@@ -5184,14 +5198,14 @@
       <c r="P80" s="139"/>
     </row>
     <row r="81" spans="1:16" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="371" t="s">
+      <c r="A81" s="380" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="371"/>
-      <c r="C81" s="371"/>
-      <c r="D81" s="371"/>
-      <c r="E81" s="371"/>
-      <c r="F81" s="371"/>
+      <c r="B81" s="380"/>
+      <c r="C81" s="380"/>
+      <c r="D81" s="380"/>
+      <c r="E81" s="380"/>
+      <c r="F81" s="380"/>
       <c r="G81" s="137"/>
       <c r="H81" s="137"/>
       <c r="I81" s="133"/>
@@ -5207,14 +5221,14 @@
       <c r="P81" s="139"/>
     </row>
     <row r="82" spans="1:16" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="371" t="s">
+      <c r="A82" s="380" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="371"/>
-      <c r="C82" s="371"/>
-      <c r="D82" s="371"/>
-      <c r="E82" s="371"/>
-      <c r="F82" s="371"/>
+      <c r="B82" s="380"/>
+      <c r="C82" s="380"/>
+      <c r="D82" s="380"/>
+      <c r="E82" s="380"/>
+      <c r="F82" s="380"/>
       <c r="G82" s="137"/>
       <c r="H82" s="137"/>
       <c r="I82" s="133"/>
@@ -5284,20 +5298,23 @@
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
-  <mergeCells count="45">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
+  <mergeCells count="40">
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A78:F78"/>
@@ -5314,22 +5331,14 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5340,7 +5349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -5374,75 +5383,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="400" t="s">
+      <c r="A3" s="394" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="400"/>
-      <c r="C3" s="400"/>
-      <c r="D3" s="400"/>
-      <c r="E3" s="400"/>
-      <c r="F3" s="400"/>
-      <c r="G3" s="400"/>
-      <c r="H3" s="400"/>
-      <c r="I3" s="400"/>
-      <c r="J3" s="400"/>
-      <c r="K3" s="400"/>
+      <c r="B3" s="394"/>
+      <c r="C3" s="394"/>
+      <c r="D3" s="394"/>
+      <c r="E3" s="394"/>
+      <c r="F3" s="394"/>
+      <c r="G3" s="394"/>
+      <c r="H3" s="394"/>
+      <c r="I3" s="394"/>
+      <c r="J3" s="394"/>
+      <c r="K3" s="394"/>
       <c r="L3" s="298"/>
       <c r="M3" s="298"/>
       <c r="N3" s="298"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="401" t="s">
+      <c r="A4" s="395" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="401"/>
-      <c r="C4" s="401"/>
-      <c r="D4" s="401"/>
-      <c r="E4" s="401"/>
-      <c r="F4" s="401"/>
-      <c r="G4" s="401"/>
-      <c r="H4" s="401"/>
-      <c r="I4" s="401"/>
-      <c r="J4" s="402"/>
-      <c r="K4" s="401"/>
+      <c r="B4" s="395"/>
+      <c r="C4" s="395"/>
+      <c r="D4" s="395"/>
+      <c r="E4" s="395"/>
+      <c r="F4" s="395"/>
+      <c r="G4" s="395"/>
+      <c r="H4" s="395"/>
+      <c r="I4" s="395"/>
+      <c r="J4" s="396"/>
+      <c r="K4" s="395"/>
       <c r="L4" s="299"/>
       <c r="M4" s="299"/>
       <c r="N4" s="299"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="403" t="s">
+      <c r="A5" s="397" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="404" t="s">
+      <c r="B5" s="398" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="403" t="s">
+      <c r="C5" s="397" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="403" t="s">
+      <c r="D5" s="397" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="405" t="s">
+      <c r="E5" s="397"/>
+      <c r="F5" s="399" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="405"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="405"/>
-      <c r="J5" s="406"/>
-      <c r="K5" s="407" t="s">
+      <c r="G5" s="399"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="399"/>
+      <c r="J5" s="400"/>
+      <c r="K5" s="401" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="399" t="s">
+      <c r="L5" s="393" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="399"/>
-      <c r="N5" s="399"/>
+      <c r="M5" s="393"/>
+      <c r="N5" s="393"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="403"/>
-      <c r="B6" s="404"/>
-      <c r="C6" s="403"/>
+      <c r="A6" s="397"/>
+      <c r="B6" s="398"/>
+      <c r="C6" s="397"/>
       <c r="D6" s="300" t="s">
         <v>40</v>
       </c>
@@ -5464,7 +5473,7 @@
       <c r="J6" s="304" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="407"/>
+      <c r="K6" s="401"/>
       <c r="L6" s="305" t="s">
         <v>52</v>
       </c>
@@ -5492,11 +5501,11 @@
       <c r="N7" s="351"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="392"/>
-      <c r="B8" s="395"/>
-      <c r="C8" s="392"/>
-      <c r="D8" s="392"/>
-      <c r="E8" s="392"/>
+      <c r="A8" s="402"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="402"/>
+      <c r="D8" s="402"/>
+      <c r="E8" s="402"/>
       <c r="F8" s="306"/>
       <c r="G8" s="306"/>
       <c r="H8" s="307"/>
@@ -5508,11 +5517,11 @@
       <c r="N8" s="310"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="394"/>
-      <c r="B9" s="397"/>
-      <c r="C9" s="394"/>
-      <c r="D9" s="394"/>
-      <c r="E9" s="394"/>
+      <c r="A9" s="403"/>
+      <c r="B9" s="405"/>
+      <c r="C9" s="403"/>
+      <c r="D9" s="403"/>
+      <c r="E9" s="403"/>
       <c r="F9" s="323"/>
       <c r="G9" s="323"/>
       <c r="H9" s="324"/>
@@ -5524,11 +5533,11 @@
       <c r="N9" s="328"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="392"/>
-      <c r="B10" s="395"/>
-      <c r="C10" s="392"/>
-      <c r="D10" s="392"/>
-      <c r="E10" s="392"/>
+      <c r="A10" s="402"/>
+      <c r="B10" s="404"/>
+      <c r="C10" s="402"/>
+      <c r="D10" s="402"/>
+      <c r="E10" s="402"/>
       <c r="F10" s="306"/>
       <c r="G10" s="306"/>
       <c r="H10" s="307"/>
@@ -5540,11 +5549,11 @@
       <c r="N10" s="310"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="393"/>
-      <c r="B11" s="396"/>
-      <c r="C11" s="393"/>
-      <c r="D11" s="393"/>
-      <c r="E11" s="393"/>
+      <c r="A11" s="406"/>
+      <c r="B11" s="407"/>
+      <c r="C11" s="406"/>
+      <c r="D11" s="406"/>
+      <c r="E11" s="406"/>
       <c r="F11" s="311"/>
       <c r="G11" s="311"/>
       <c r="H11" s="312"/>
@@ -5556,11 +5565,11 @@
       <c r="N11" s="315"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="394"/>
-      <c r="B12" s="397"/>
-      <c r="C12" s="394"/>
-      <c r="D12" s="394"/>
-      <c r="E12" s="394"/>
+      <c r="A12" s="403"/>
+      <c r="B12" s="405"/>
+      <c r="C12" s="403"/>
+      <c r="D12" s="403"/>
+      <c r="E12" s="403"/>
       <c r="F12" s="323"/>
       <c r="G12" s="323"/>
       <c r="H12" s="324"/>
@@ -5620,11 +5629,11 @@
       <c r="N15" s="351"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="392"/>
-      <c r="B16" s="395"/>
-      <c r="C16" s="392"/>
-      <c r="D16" s="392"/>
-      <c r="E16" s="392"/>
+      <c r="A16" s="402"/>
+      <c r="B16" s="404"/>
+      <c r="C16" s="402"/>
+      <c r="D16" s="402"/>
+      <c r="E16" s="402"/>
       <c r="F16" s="306"/>
       <c r="G16" s="306"/>
       <c r="H16" s="307"/>
@@ -5636,11 +5645,11 @@
       <c r="N16" s="310"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="394"/>
-      <c r="B17" s="397"/>
-      <c r="C17" s="394"/>
-      <c r="D17" s="394"/>
-      <c r="E17" s="394"/>
+      <c r="A17" s="403"/>
+      <c r="B17" s="405"/>
+      <c r="C17" s="403"/>
+      <c r="D17" s="403"/>
+      <c r="E17" s="403"/>
       <c r="F17" s="323"/>
       <c r="G17" s="323"/>
       <c r="H17" s="324"/>
@@ -5652,11 +5661,11 @@
       <c r="N17" s="328"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="392"/>
-      <c r="B18" s="395"/>
-      <c r="C18" s="392"/>
-      <c r="D18" s="392"/>
-      <c r="E18" s="392"/>
+      <c r="A18" s="402"/>
+      <c r="B18" s="404"/>
+      <c r="C18" s="402"/>
+      <c r="D18" s="402"/>
+      <c r="E18" s="402"/>
       <c r="F18" s="306"/>
       <c r="G18" s="306"/>
       <c r="H18" s="307"/>
@@ -5668,11 +5677,11 @@
       <c r="N18" s="310"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="394"/>
-      <c r="B19" s="397"/>
-      <c r="C19" s="394"/>
-      <c r="D19" s="394"/>
-      <c r="E19" s="394"/>
+      <c r="A19" s="403"/>
+      <c r="B19" s="405"/>
+      <c r="C19" s="403"/>
+      <c r="D19" s="403"/>
+      <c r="E19" s="403"/>
       <c r="F19" s="323"/>
       <c r="G19" s="323"/>
       <c r="H19" s="324"/>
@@ -5748,11 +5757,11 @@
       <c r="N23" s="351"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="392"/>
-      <c r="B24" s="395"/>
-      <c r="C24" s="392"/>
-      <c r="D24" s="392"/>
-      <c r="E24" s="392"/>
+      <c r="A24" s="402"/>
+      <c r="B24" s="404"/>
+      <c r="C24" s="402"/>
+      <c r="D24" s="402"/>
+      <c r="E24" s="402"/>
       <c r="F24" s="306"/>
       <c r="G24" s="306"/>
       <c r="H24" s="307"/>
@@ -5764,11 +5773,11 @@
       <c r="N24" s="310"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="393"/>
-      <c r="B25" s="396"/>
-      <c r="C25" s="393"/>
-      <c r="D25" s="393"/>
-      <c r="E25" s="393"/>
+      <c r="A25" s="406"/>
+      <c r="B25" s="407"/>
+      <c r="C25" s="406"/>
+      <c r="D25" s="406"/>
+      <c r="E25" s="406"/>
       <c r="F25" s="311"/>
       <c r="G25" s="311"/>
       <c r="H25" s="312"/>
@@ -5780,11 +5789,11 @@
       <c r="N25" s="315"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="393"/>
-      <c r="B26" s="396"/>
-      <c r="C26" s="393"/>
-      <c r="D26" s="393"/>
-      <c r="E26" s="393"/>
+      <c r="A26" s="406"/>
+      <c r="B26" s="407"/>
+      <c r="C26" s="406"/>
+      <c r="D26" s="406"/>
+      <c r="E26" s="406"/>
       <c r="F26" s="311"/>
       <c r="G26" s="311"/>
       <c r="H26" s="312"/>
@@ -5796,11 +5805,11 @@
       <c r="N26" s="315"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="393"/>
-      <c r="B27" s="396"/>
-      <c r="C27" s="393"/>
-      <c r="D27" s="393"/>
-      <c r="E27" s="393"/>
+      <c r="A27" s="406"/>
+      <c r="B27" s="407"/>
+      <c r="C27" s="406"/>
+      <c r="D27" s="406"/>
+      <c r="E27" s="406"/>
       <c r="F27" s="311"/>
       <c r="G27" s="311"/>
       <c r="H27" s="312"/>
@@ -5812,11 +5821,11 @@
       <c r="N27" s="315"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="393"/>
-      <c r="B28" s="396"/>
-      <c r="C28" s="393"/>
-      <c r="D28" s="393"/>
-      <c r="E28" s="393"/>
+      <c r="A28" s="406"/>
+      <c r="B28" s="407"/>
+      <c r="C28" s="406"/>
+      <c r="D28" s="406"/>
+      <c r="E28" s="406"/>
       <c r="F28" s="311"/>
       <c r="G28" s="311"/>
       <c r="H28" s="312"/>
@@ -5828,11 +5837,11 @@
       <c r="N28" s="315"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="393"/>
-      <c r="B29" s="396"/>
-      <c r="C29" s="393"/>
-      <c r="D29" s="393"/>
-      <c r="E29" s="393"/>
+      <c r="A29" s="406"/>
+      <c r="B29" s="407"/>
+      <c r="C29" s="406"/>
+      <c r="D29" s="406"/>
+      <c r="E29" s="406"/>
       <c r="F29" s="311"/>
       <c r="G29" s="311"/>
       <c r="H29" s="312"/>
@@ -5844,11 +5853,11 @@
       <c r="N29" s="315"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="394"/>
-      <c r="B30" s="397"/>
-      <c r="C30" s="394"/>
-      <c r="D30" s="394"/>
-      <c r="E30" s="394"/>
+      <c r="A30" s="403"/>
+      <c r="B30" s="405"/>
+      <c r="C30" s="403"/>
+      <c r="D30" s="403"/>
+      <c r="E30" s="403"/>
       <c r="F30" s="323"/>
       <c r="G30" s="323"/>
       <c r="H30" s="324"/>
@@ -5860,11 +5869,11 @@
       <c r="N30" s="328"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="388"/>
-      <c r="B31" s="390"/>
-      <c r="C31" s="388"/>
-      <c r="D31" s="388"/>
-      <c r="E31" s="388"/>
+      <c r="A31" s="408"/>
+      <c r="B31" s="410"/>
+      <c r="C31" s="408"/>
+      <c r="D31" s="408"/>
+      <c r="E31" s="408"/>
       <c r="F31" s="353"/>
       <c r="G31" s="353"/>
       <c r="H31" s="354"/>
@@ -5876,11 +5885,11 @@
       <c r="N31" s="357"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="388"/>
-      <c r="B32" s="390"/>
-      <c r="C32" s="388"/>
-      <c r="D32" s="388"/>
-      <c r="E32" s="388"/>
+      <c r="A32" s="408"/>
+      <c r="B32" s="410"/>
+      <c r="C32" s="408"/>
+      <c r="D32" s="408"/>
+      <c r="E32" s="408"/>
       <c r="F32" s="317"/>
       <c r="G32" s="317"/>
       <c r="H32" s="318"/>
@@ -5892,11 +5901,11 @@
       <c r="N32" s="322"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="388"/>
-      <c r="B33" s="390"/>
-      <c r="C33" s="388"/>
-      <c r="D33" s="388"/>
-      <c r="E33" s="388"/>
+      <c r="A33" s="408"/>
+      <c r="B33" s="410"/>
+      <c r="C33" s="408"/>
+      <c r="D33" s="408"/>
+      <c r="E33" s="408"/>
       <c r="F33" s="317"/>
       <c r="G33" s="317"/>
       <c r="H33" s="318"/>
@@ -5908,11 +5917,11 @@
       <c r="N33" s="322"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="389"/>
-      <c r="B34" s="391"/>
-      <c r="C34" s="389"/>
-      <c r="D34" s="389"/>
-      <c r="E34" s="389"/>
+      <c r="A34" s="409"/>
+      <c r="B34" s="411"/>
+      <c r="C34" s="409"/>
+      <c r="D34" s="409"/>
+      <c r="E34" s="409"/>
       <c r="F34" s="323"/>
       <c r="G34" s="323"/>
       <c r="H34" s="324"/>
@@ -5924,13 +5933,13 @@
       <c r="N34" s="328"/>
     </row>
     <row r="35" spans="1:14" s="335" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="398" t="s">
+      <c r="A35" s="392" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="398"/>
-      <c r="C35" s="398"/>
-      <c r="D35" s="398"/>
-      <c r="E35" s="398"/>
+      <c r="B35" s="392"/>
+      <c r="C35" s="392"/>
+      <c r="D35" s="392"/>
+      <c r="E35" s="392"/>
       <c r="F35" s="329"/>
       <c r="G35" s="329">
         <f>SUM(G7:G34)</f>
@@ -6018,6 +6027,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -6034,30 +6067,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6118,24 +6127,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="408" t="s">
+      <c r="A4" s="412" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="408"/>
-      <c r="C4" s="408"/>
-      <c r="D4" s="408"/>
-      <c r="E4" s="408"/>
+      <c r="B4" s="412"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="412"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="409" t="s">
+      <c r="A5" s="413" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="409"/>
-      <c r="C5" s="409"/>
-      <c r="D5" s="409"/>
-      <c r="E5" s="409"/>
+      <c r="B5" s="413"/>
+      <c r="C5" s="413"/>
+      <c r="D5" s="413"/>
+      <c r="E5" s="413"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -6214,7 +6223,7 @@
         <f>'DOANH THU'!L80</f>
         <v>0</v>
       </c>
-      <c r="E10" s="410">
+      <c r="E10" s="414">
         <f>D10+D11+D12</f>
         <v>0</v>
       </c>
@@ -6233,7 +6242,7 @@
         <f>'DOANH THU'!L81</f>
         <v>0</v>
       </c>
-      <c r="E11" s="411"/>
+      <c r="E11" s="415"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -6244,7 +6253,7 @@
       <c r="B12" s="119"/>
       <c r="C12" s="119"/>
       <c r="D12" s="142"/>
-      <c r="E12" s="412"/>
+      <c r="E12" s="416"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
@@ -6519,13 +6528,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="413" t="s">
+      <c r="A1" s="425" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="413"/>
-      <c r="C1" s="413"/>
-      <c r="D1" s="413"/>
-      <c r="E1" s="413"/>
+      <c r="B1" s="425"/>
+      <c r="C1" s="425"/>
+      <c r="D1" s="425"/>
+      <c r="E1" s="425"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -6545,165 +6554,165 @@
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="414" t="s">
+      <c r="A4" s="426" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="414"/>
-      <c r="C4" s="414"/>
-      <c r="D4" s="414"/>
-      <c r="E4" s="414"/>
-      <c r="F4" s="414"/>
-      <c r="G4" s="414"/>
-      <c r="H4" s="414"/>
+      <c r="B4" s="426"/>
+      <c r="C4" s="426"/>
+      <c r="D4" s="426"/>
+      <c r="E4" s="426"/>
+      <c r="F4" s="426"/>
+      <c r="G4" s="426"/>
+      <c r="H4" s="426"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="415" t="s">
+      <c r="A6" s="427" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="415"/>
-      <c r="C6" s="415"/>
-      <c r="D6" s="415"/>
-      <c r="E6" s="415"/>
-      <c r="F6" s="415"/>
-      <c r="G6" s="416" t="s">
+      <c r="B6" s="427"/>
+      <c r="C6" s="427"/>
+      <c r="D6" s="427"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="428" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="416"/>
+      <c r="H6" s="428"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="429" t="s">
+      <c r="A7" s="441" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="430"/>
+      <c r="B7" s="442"/>
       <c r="C7" s="273"/>
       <c r="D7" s="274"/>
       <c r="E7" s="65" t="s">
         <v>140</v>
       </c>
       <c r="F7" s="65"/>
-      <c r="G7" s="427">
+      <c r="G7" s="439">
         <v>4744538</v>
       </c>
-      <c r="H7" s="428"/>
+      <c r="H7" s="440"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="431"/>
-      <c r="B8" s="432"/>
+      <c r="A8" s="443"/>
+      <c r="B8" s="444"/>
       <c r="C8" s="273"/>
       <c r="D8" s="274"/>
       <c r="E8" s="65" t="s">
         <v>141</v>
       </c>
       <c r="F8" s="65"/>
-      <c r="G8" s="427">
+      <c r="G8" s="439">
         <v>6713000</v>
       </c>
-      <c r="H8" s="428"/>
+      <c r="H8" s="440"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="417" t="s">
+      <c r="A9" s="429" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="418"/>
-      <c r="C9" s="418"/>
-      <c r="D9" s="419"/>
+      <c r="B9" s="430"/>
+      <c r="C9" s="430"/>
+      <c r="D9" s="431"/>
       <c r="E9" s="265" t="s">
         <v>144</v>
       </c>
       <c r="F9" s="266">
         <v>260000</v>
       </c>
-      <c r="G9" s="423">
+      <c r="G9" s="435">
         <f>SUM(F9:F13)</f>
         <v>3477000</v>
       </c>
-      <c r="H9" s="424"/>
+      <c r="H9" s="436"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="420"/>
-      <c r="B10" s="421"/>
-      <c r="C10" s="421"/>
-      <c r="D10" s="422"/>
+      <c r="A10" s="432"/>
+      <c r="B10" s="433"/>
+      <c r="C10" s="433"/>
+      <c r="D10" s="434"/>
       <c r="E10" s="265" t="s">
         <v>145</v>
       </c>
       <c r="F10" s="266">
         <v>877000</v>
       </c>
-      <c r="G10" s="425"/>
-      <c r="H10" s="426"/>
+      <c r="G10" s="437"/>
+      <c r="H10" s="438"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="420"/>
-      <c r="B11" s="421"/>
-      <c r="C11" s="421"/>
-      <c r="D11" s="422"/>
+      <c r="A11" s="432"/>
+      <c r="B11" s="433"/>
+      <c r="C11" s="433"/>
+      <c r="D11" s="434"/>
       <c r="E11" s="265" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="266">
         <v>441000</v>
       </c>
-      <c r="G11" s="425"/>
-      <c r="H11" s="426"/>
+      <c r="G11" s="437"/>
+      <c r="H11" s="438"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="420"/>
-      <c r="B12" s="421"/>
-      <c r="C12" s="421"/>
-      <c r="D12" s="422"/>
+      <c r="A12" s="432"/>
+      <c r="B12" s="433"/>
+      <c r="C12" s="433"/>
+      <c r="D12" s="434"/>
       <c r="E12" s="265" t="s">
         <v>139</v>
       </c>
       <c r="F12" s="266">
         <v>892000</v>
       </c>
-      <c r="G12" s="425"/>
-      <c r="H12" s="426"/>
+      <c r="G12" s="437"/>
+      <c r="H12" s="438"/>
     </row>
     <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="420"/>
-      <c r="B13" s="421"/>
-      <c r="C13" s="421"/>
-      <c r="D13" s="422"/>
+      <c r="A13" s="432"/>
+      <c r="B13" s="433"/>
+      <c r="C13" s="433"/>
+      <c r="D13" s="434"/>
       <c r="E13" s="275" t="s">
         <v>146</v>
       </c>
       <c r="F13" s="266">
         <v>1007000</v>
       </c>
-      <c r="G13" s="425"/>
-      <c r="H13" s="426"/>
+      <c r="G13" s="437"/>
+      <c r="H13" s="438"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="436" t="s">
+      <c r="A14" s="420" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="436"/>
-      <c r="C14" s="436"/>
-      <c r="D14" s="436"/>
-      <c r="E14" s="436"/>
-      <c r="F14" s="436"/>
-      <c r="G14" s="437">
+      <c r="B14" s="420"/>
+      <c r="C14" s="420"/>
+      <c r="D14" s="420"/>
+      <c r="E14" s="420"/>
+      <c r="F14" s="420"/>
+      <c r="G14" s="421">
         <f>'Bảng lương'!J12</f>
         <v>6576923.076923077</v>
       </c>
-      <c r="H14" s="437"/>
+      <c r="H14" s="421"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="438" t="s">
+      <c r="A15" s="422" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="438"/>
-      <c r="C15" s="438"/>
-      <c r="D15" s="438"/>
-      <c r="E15" s="438"/>
-      <c r="F15" s="438"/>
-      <c r="G15" s="439">
+      <c r="B15" s="422"/>
+      <c r="C15" s="422"/>
+      <c r="D15" s="422"/>
+      <c r="E15" s="422"/>
+      <c r="F15" s="422"/>
+      <c r="G15" s="423">
         <f>G7+G8+G9+G14</f>
         <v>21511461.076923076</v>
       </c>
-      <c r="H15" s="439"/>
+      <c r="H15" s="423"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="283" t="s">
@@ -6715,10 +6724,10 @@
       <c r="E17" s="276"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="440">
+      <c r="A18" s="424">
         <v>44106</v>
       </c>
-      <c r="B18" s="440"/>
+      <c r="B18" s="424"/>
       <c r="C18" s="277"/>
       <c r="D18" s="277"/>
       <c r="E18" s="277" t="s">
@@ -6729,10 +6738,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="440">
+      <c r="A19" s="424">
         <v>44116</v>
       </c>
-      <c r="B19" s="440"/>
+      <c r="B19" s="424"/>
       <c r="C19" s="277"/>
       <c r="D19" s="277"/>
       <c r="E19" s="277" t="s">
@@ -6744,10 +6753,10 @@
       <c r="K19" s="282"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="440">
+      <c r="A20" s="424">
         <v>44120</v>
       </c>
-      <c r="B20" s="440"/>
+      <c r="B20" s="424"/>
       <c r="C20" s="277"/>
       <c r="D20" s="277"/>
       <c r="E20" s="277" t="s">
@@ -6758,10 +6767,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="440">
+      <c r="A21" s="424">
         <v>44128</v>
       </c>
-      <c r="B21" s="440"/>
+      <c r="B21" s="424"/>
       <c r="C21" s="277"/>
       <c r="D21" s="277"/>
       <c r="E21" s="277" t="s">
@@ -6773,10 +6782,10 @@
       <c r="K21" s="282"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="440">
+      <c r="A22" s="424">
         <v>44129</v>
       </c>
-      <c r="B22" s="440"/>
+      <c r="B22" s="424"/>
       <c r="C22" s="277"/>
       <c r="D22" s="277"/>
       <c r="E22" s="277" t="s">
@@ -6788,10 +6797,10 @@
       <c r="K22" s="282"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="440">
+      <c r="A23" s="424">
         <v>44131</v>
       </c>
-      <c r="B23" s="440"/>
+      <c r="B23" s="424"/>
       <c r="C23" s="277"/>
       <c r="D23" s="277"/>
       <c r="E23" s="291" t="s">
@@ -6802,13 +6811,13 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="433" t="s">
+      <c r="A24" s="417" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="434"/>
-      <c r="C24" s="434"/>
-      <c r="D24" s="434"/>
-      <c r="E24" s="435"/>
+      <c r="B24" s="418"/>
+      <c r="C24" s="418"/>
+      <c r="D24" s="418"/>
+      <c r="E24" s="419"/>
       <c r="F24" s="284">
         <f>SUM(F18:F23)</f>
         <v>7508900</v>
@@ -6905,6 +6914,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A9:D13"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A7:B8"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -6916,15 +6934,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A9:D13"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7465,16 +7474,16 @@
       <c r="C1" s="222"/>
       <c r="D1" s="222"/>
       <c r="E1" s="222"/>
-      <c r="Z1" s="459" t="s">
+      <c r="Z1" s="450" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="460"/>
-      <c r="AB1" s="460"/>
-      <c r="AC1" s="460"/>
-      <c r="AD1" s="460"/>
-      <c r="AE1" s="460"/>
-      <c r="AF1" s="460"/>
-      <c r="AG1" s="461"/>
+      <c r="AA1" s="451"/>
+      <c r="AB1" s="451"/>
+      <c r="AC1" s="451"/>
+      <c r="AD1" s="451"/>
+      <c r="AE1" s="451"/>
+      <c r="AF1" s="451"/>
+      <c r="AG1" s="452"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="225" t="s">
@@ -7484,18 +7493,18 @@
       <c r="C2" s="226"/>
       <c r="D2" s="226"/>
       <c r="E2" s="226"/>
-      <c r="Z2" s="442" t="s">
+      <c r="Z2" s="445" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" s="443"/>
-      <c r="AB2" s="443"/>
-      <c r="AC2" s="443"/>
-      <c r="AD2" s="443"/>
-      <c r="AE2" s="444"/>
-      <c r="AF2" s="445" t="s">
+      <c r="AA2" s="446"/>
+      <c r="AB2" s="446"/>
+      <c r="AC2" s="446"/>
+      <c r="AD2" s="446"/>
+      <c r="AE2" s="447"/>
+      <c r="AF2" s="448" t="s">
         <v>110</v>
       </c>
-      <c r="AG2" s="446"/>
+      <c r="AG2" s="449"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="225" t="s">
@@ -7505,18 +7514,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="442" t="s">
+      <c r="Z3" s="445" t="s">
         <v>112</v>
       </c>
-      <c r="AA3" s="443"/>
-      <c r="AB3" s="443"/>
-      <c r="AC3" s="443"/>
-      <c r="AD3" s="443"/>
-      <c r="AE3" s="444"/>
-      <c r="AF3" s="445" t="s">
+      <c r="AA3" s="446"/>
+      <c r="AB3" s="446"/>
+      <c r="AC3" s="446"/>
+      <c r="AD3" s="446"/>
+      <c r="AE3" s="447"/>
+      <c r="AF3" s="448" t="s">
         <v>113</v>
       </c>
-      <c r="AG3" s="446"/>
+      <c r="AG3" s="449"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="225" t="s">
@@ -7529,18 +7538,18 @@
       <c r="T4" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="442" t="s">
+      <c r="Z4" s="445" t="s">
         <v>115</v>
       </c>
-      <c r="AA4" s="443"/>
-      <c r="AB4" s="443"/>
-      <c r="AC4" s="443"/>
-      <c r="AD4" s="443"/>
-      <c r="AE4" s="444"/>
-      <c r="AF4" s="445" t="s">
+      <c r="AA4" s="446"/>
+      <c r="AB4" s="446"/>
+      <c r="AC4" s="446"/>
+      <c r="AD4" s="446"/>
+      <c r="AE4" s="447"/>
+      <c r="AF4" s="448" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="446"/>
+      <c r="AG4" s="449"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="225" t="s">
@@ -7550,18 +7559,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="442" t="s">
+      <c r="Z5" s="445" t="s">
         <v>118</v>
       </c>
-      <c r="AA5" s="443"/>
-      <c r="AB5" s="443"/>
-      <c r="AC5" s="443"/>
-      <c r="AD5" s="443"/>
-      <c r="AE5" s="444"/>
-      <c r="AF5" s="445" t="s">
+      <c r="AA5" s="446"/>
+      <c r="AB5" s="446"/>
+      <c r="AC5" s="446"/>
+      <c r="AD5" s="446"/>
+      <c r="AE5" s="447"/>
+      <c r="AF5" s="448" t="s">
         <v>119</v>
       </c>
-      <c r="AG5" s="446"/>
+      <c r="AG5" s="449"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="227"/>
@@ -7571,93 +7580,93 @@
       <c r="E6" s="227"/>
     </row>
     <row r="7" spans="1:40" s="230" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="447" t="s">
+      <c r="A7" s="454" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="447"/>
-      <c r="C7" s="447"/>
-      <c r="D7" s="447"/>
-      <c r="E7" s="447"/>
-      <c r="F7" s="447"/>
-      <c r="G7" s="447"/>
-      <c r="H7" s="447"/>
-      <c r="I7" s="447"/>
-      <c r="J7" s="447"/>
-      <c r="K7" s="447"/>
-      <c r="L7" s="447"/>
-      <c r="M7" s="447"/>
-      <c r="N7" s="447"/>
-      <c r="O7" s="447"/>
-      <c r="P7" s="447"/>
-      <c r="Q7" s="447"/>
-      <c r="R7" s="447"/>
-      <c r="S7" s="447"/>
-      <c r="T7" s="447"/>
-      <c r="U7" s="447"/>
-      <c r="V7" s="447"/>
-      <c r="W7" s="447"/>
-      <c r="X7" s="447"/>
-      <c r="Y7" s="447"/>
-      <c r="Z7" s="447"/>
-      <c r="AA7" s="447"/>
-      <c r="AB7" s="447"/>
-      <c r="AC7" s="447"/>
-      <c r="AD7" s="447"/>
-      <c r="AE7" s="447"/>
-      <c r="AF7" s="447"/>
-      <c r="AG7" s="447"/>
-      <c r="AH7" s="447"/>
-      <c r="AI7" s="447"/>
-      <c r="AJ7" s="447"/>
-      <c r="AK7" s="447"/>
-      <c r="AL7" s="447"/>
-      <c r="AM7" s="447"/>
+      <c r="B7" s="454"/>
+      <c r="C7" s="454"/>
+      <c r="D7" s="454"/>
+      <c r="E7" s="454"/>
+      <c r="F7" s="454"/>
+      <c r="G7" s="454"/>
+      <c r="H7" s="454"/>
+      <c r="I7" s="454"/>
+      <c r="J7" s="454"/>
+      <c r="K7" s="454"/>
+      <c r="L7" s="454"/>
+      <c r="M7" s="454"/>
+      <c r="N7" s="454"/>
+      <c r="O7" s="454"/>
+      <c r="P7" s="454"/>
+      <c r="Q7" s="454"/>
+      <c r="R7" s="454"/>
+      <c r="S7" s="454"/>
+      <c r="T7" s="454"/>
+      <c r="U7" s="454"/>
+      <c r="V7" s="454"/>
+      <c r="W7" s="454"/>
+      <c r="X7" s="454"/>
+      <c r="Y7" s="454"/>
+      <c r="Z7" s="454"/>
+      <c r="AA7" s="454"/>
+      <c r="AB7" s="454"/>
+      <c r="AC7" s="454"/>
+      <c r="AD7" s="454"/>
+      <c r="AE7" s="454"/>
+      <c r="AF7" s="454"/>
+      <c r="AG7" s="454"/>
+      <c r="AH7" s="454"/>
+      <c r="AI7" s="454"/>
+      <c r="AJ7" s="454"/>
+      <c r="AK7" s="454"/>
+      <c r="AL7" s="454"/>
+      <c r="AM7" s="454"/>
       <c r="AN7" s="229"/>
     </row>
     <row r="9" spans="1:40" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="448" t="s">
+      <c r="A9" s="455" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="448" t="s">
+      <c r="B9" s="455" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="448" t="s">
+      <c r="C9" s="455" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="451" t="s">
+      <c r="D9" s="458" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="452"/>
-      <c r="F9" s="452"/>
-      <c r="G9" s="452"/>
-      <c r="H9" s="452"/>
-      <c r="I9" s="452"/>
-      <c r="J9" s="452"/>
-      <c r="K9" s="452"/>
-      <c r="L9" s="452"/>
-      <c r="M9" s="452"/>
-      <c r="N9" s="452"/>
-      <c r="O9" s="452"/>
-      <c r="P9" s="452"/>
-      <c r="Q9" s="452"/>
-      <c r="R9" s="452"/>
-      <c r="S9" s="452"/>
-      <c r="T9" s="452"/>
-      <c r="U9" s="452"/>
-      <c r="V9" s="452"/>
-      <c r="W9" s="452"/>
-      <c r="X9" s="452"/>
-      <c r="Y9" s="452"/>
-      <c r="Z9" s="452"/>
-      <c r="AA9" s="452"/>
-      <c r="AB9" s="452"/>
-      <c r="AC9" s="452"/>
-      <c r="AD9" s="452"/>
-      <c r="AE9" s="452"/>
-      <c r="AF9" s="452"/>
-      <c r="AG9" s="452"/>
-      <c r="AH9" s="453"/>
-      <c r="AI9" s="454" t="s">
+      <c r="E9" s="459"/>
+      <c r="F9" s="459"/>
+      <c r="G9" s="459"/>
+      <c r="H9" s="459"/>
+      <c r="I9" s="459"/>
+      <c r="J9" s="459"/>
+      <c r="K9" s="459"/>
+      <c r="L9" s="459"/>
+      <c r="M9" s="459"/>
+      <c r="N9" s="459"/>
+      <c r="O9" s="459"/>
+      <c r="P9" s="459"/>
+      <c r="Q9" s="459"/>
+      <c r="R9" s="459"/>
+      <c r="S9" s="459"/>
+      <c r="T9" s="459"/>
+      <c r="U9" s="459"/>
+      <c r="V9" s="459"/>
+      <c r="W9" s="459"/>
+      <c r="X9" s="459"/>
+      <c r="Y9" s="459"/>
+      <c r="Z9" s="459"/>
+      <c r="AA9" s="459"/>
+      <c r="AB9" s="459"/>
+      <c r="AC9" s="459"/>
+      <c r="AD9" s="459"/>
+      <c r="AE9" s="459"/>
+      <c r="AF9" s="459"/>
+      <c r="AG9" s="459"/>
+      <c r="AH9" s="460"/>
+      <c r="AI9" s="461" t="s">
         <v>124</v>
       </c>
       <c r="AJ9" s="231"/>
@@ -7667,9 +7676,9 @@
       <c r="AN9" s="234"/>
     </row>
     <row r="10" spans="1:40" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="449"/>
-      <c r="B10" s="449"/>
-      <c r="C10" s="449"/>
+      <c r="A10" s="456"/>
+      <c r="B10" s="456"/>
+      <c r="C10" s="456"/>
       <c r="D10" s="236">
         <v>1</v>
       </c>
@@ -7763,7 +7772,7 @@
       <c r="AH10" s="236">
         <v>31</v>
       </c>
-      <c r="AI10" s="454"/>
+      <c r="AI10" s="461"/>
       <c r="AJ10" s="237"/>
       <c r="AK10" s="233"/>
       <c r="AL10" s="233"/>
@@ -7771,9 +7780,9 @@
       <c r="AN10" s="234"/>
     </row>
     <row r="11" spans="1:40" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="450"/>
-      <c r="B11" s="450"/>
-      <c r="C11" s="450"/>
+      <c r="A11" s="457"/>
+      <c r="B11" s="457"/>
+      <c r="C11" s="457"/>
       <c r="D11" s="236" t="s">
         <v>126</v>
       </c>
@@ -7867,7 +7876,7 @@
       <c r="AH11" s="238" t="s">
         <v>128</v>
       </c>
-      <c r="AI11" s="454"/>
+      <c r="AI11" s="461"/>
       <c r="AJ11" s="240"/>
       <c r="AN11" s="242"/>
     </row>
@@ -8248,10 +8257,10 @@
       <c r="AN15" s="242"/>
     </row>
     <row r="16" spans="1:40" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="455" t="s">
+      <c r="A16" s="462" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="456"/>
+      <c r="B16" s="463"/>
       <c r="C16" s="248"/>
       <c r="D16" s="248"/>
       <c r="E16" s="249"/>
@@ -8294,49 +8303,49 @@
       <c r="AN16" s="242"/>
     </row>
     <row r="18" spans="1:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="457" t="s">
+      <c r="A18" s="464" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="457"/>
-      <c r="C18" s="457"/>
-      <c r="D18" s="457"/>
-      <c r="E18" s="457"/>
-      <c r="F18" s="457"/>
-      <c r="G18" s="457"/>
+      <c r="B18" s="464"/>
+      <c r="C18" s="464"/>
+      <c r="D18" s="464"/>
+      <c r="E18" s="464"/>
+      <c r="F18" s="464"/>
+      <c r="G18" s="464"/>
       <c r="H18" s="253"/>
-      <c r="I18" s="458"/>
-      <c r="J18" s="458"/>
-      <c r="K18" s="458"/>
-      <c r="L18" s="458"/>
-      <c r="M18" s="458"/>
+      <c r="I18" s="465"/>
+      <c r="J18" s="465"/>
+      <c r="K18" s="465"/>
+      <c r="L18" s="465"/>
+      <c r="M18" s="465"/>
       <c r="N18" s="254"/>
-      <c r="O18" s="458" t="s">
+      <c r="O18" s="465" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="458"/>
-      <c r="Q18" s="458"/>
-      <c r="R18" s="458"/>
-      <c r="S18" s="458"/>
-      <c r="T18" s="458"/>
-      <c r="U18" s="458"/>
-      <c r="V18" s="458"/>
-      <c r="W18" s="458"/>
-      <c r="X18" s="458"/>
-      <c r="Y18" s="458"/>
+      <c r="P18" s="465"/>
+      <c r="Q18" s="465"/>
+      <c r="R18" s="465"/>
+      <c r="S18" s="465"/>
+      <c r="T18" s="465"/>
+      <c r="U18" s="465"/>
+      <c r="V18" s="465"/>
+      <c r="W18" s="465"/>
+      <c r="X18" s="465"/>
+      <c r="Y18" s="465"/>
       <c r="Z18" s="255"/>
       <c r="AA18" s="255"/>
       <c r="AB18" s="256"/>
-      <c r="AC18" s="458"/>
-      <c r="AD18" s="458"/>
-      <c r="AE18" s="458"/>
-      <c r="AF18" s="458"/>
-      <c r="AG18" s="458"/>
-      <c r="AH18" s="458"/>
-      <c r="AI18" s="458"/>
-      <c r="AJ18" s="458"/>
-      <c r="AK18" s="458"/>
-      <c r="AL18" s="458"/>
-      <c r="AM18" s="458"/>
+      <c r="AC18" s="465"/>
+      <c r="AD18" s="465"/>
+      <c r="AE18" s="465"/>
+      <c r="AF18" s="465"/>
+      <c r="AG18" s="465"/>
+      <c r="AH18" s="465"/>
+      <c r="AI18" s="465"/>
+      <c r="AJ18" s="465"/>
+      <c r="AK18" s="465"/>
+      <c r="AL18" s="465"/>
+      <c r="AM18" s="465"/>
       <c r="AN18" s="257"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -8370,131 +8379,131 @@
       <c r="AN33" s="262"/>
     </row>
     <row r="34" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="441"/>
-      <c r="H34" s="441"/>
-      <c r="I34" s="441"/>
-      <c r="J34" s="441"/>
-      <c r="K34" s="441"/>
-      <c r="L34" s="441"/>
-      <c r="M34" s="441"/>
-      <c r="N34" s="441"/>
-      <c r="O34" s="441"/>
-      <c r="P34" s="441"/>
-      <c r="Q34" s="441"/>
-      <c r="R34" s="441"/>
-      <c r="S34" s="441"/>
-      <c r="T34" s="441"/>
-      <c r="U34" s="441"/>
-      <c r="V34" s="441"/>
-      <c r="W34" s="441"/>
-      <c r="X34" s="441"/>
+      <c r="G34" s="453"/>
+      <c r="H34" s="453"/>
+      <c r="I34" s="453"/>
+      <c r="J34" s="453"/>
+      <c r="K34" s="453"/>
+      <c r="L34" s="453"/>
+      <c r="M34" s="453"/>
+      <c r="N34" s="453"/>
+      <c r="O34" s="453"/>
+      <c r="P34" s="453"/>
+      <c r="Q34" s="453"/>
+      <c r="R34" s="453"/>
+      <c r="S34" s="453"/>
+      <c r="T34" s="453"/>
+      <c r="U34" s="453"/>
+      <c r="V34" s="453"/>
+      <c r="W34" s="453"/>
+      <c r="X34" s="453"/>
       <c r="AN34" s="262"/>
     </row>
     <row r="35" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="441"/>
-      <c r="H35" s="441"/>
-      <c r="I35" s="441"/>
-      <c r="J35" s="441"/>
-      <c r="K35" s="441"/>
-      <c r="L35" s="441"/>
-      <c r="M35" s="441"/>
-      <c r="N35" s="441"/>
-      <c r="O35" s="441"/>
-      <c r="P35" s="441"/>
-      <c r="Q35" s="441"/>
-      <c r="R35" s="441"/>
-      <c r="S35" s="441"/>
-      <c r="T35" s="441"/>
-      <c r="U35" s="441"/>
-      <c r="V35" s="441"/>
-      <c r="W35" s="441"/>
-      <c r="X35" s="441"/>
+      <c r="G35" s="453"/>
+      <c r="H35" s="453"/>
+      <c r="I35" s="453"/>
+      <c r="J35" s="453"/>
+      <c r="K35" s="453"/>
+      <c r="L35" s="453"/>
+      <c r="M35" s="453"/>
+      <c r="N35" s="453"/>
+      <c r="O35" s="453"/>
+      <c r="P35" s="453"/>
+      <c r="Q35" s="453"/>
+      <c r="R35" s="453"/>
+      <c r="S35" s="453"/>
+      <c r="T35" s="453"/>
+      <c r="U35" s="453"/>
+      <c r="V35" s="453"/>
+      <c r="W35" s="453"/>
+      <c r="X35" s="453"/>
       <c r="AN35" s="262"/>
     </row>
     <row r="36" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="441"/>
-      <c r="H36" s="441"/>
-      <c r="I36" s="441"/>
-      <c r="J36" s="441"/>
-      <c r="K36" s="441"/>
-      <c r="L36" s="441"/>
-      <c r="M36" s="441"/>
-      <c r="N36" s="441"/>
-      <c r="O36" s="441"/>
-      <c r="P36" s="441"/>
-      <c r="Q36" s="441"/>
-      <c r="R36" s="441"/>
-      <c r="S36" s="441"/>
-      <c r="T36" s="441"/>
-      <c r="U36" s="441"/>
-      <c r="V36" s="441"/>
-      <c r="W36" s="441"/>
-      <c r="X36" s="441"/>
+      <c r="G36" s="453"/>
+      <c r="H36" s="453"/>
+      <c r="I36" s="453"/>
+      <c r="J36" s="453"/>
+      <c r="K36" s="453"/>
+      <c r="L36" s="453"/>
+      <c r="M36" s="453"/>
+      <c r="N36" s="453"/>
+      <c r="O36" s="453"/>
+      <c r="P36" s="453"/>
+      <c r="Q36" s="453"/>
+      <c r="R36" s="453"/>
+      <c r="S36" s="453"/>
+      <c r="T36" s="453"/>
+      <c r="U36" s="453"/>
+      <c r="V36" s="453"/>
+      <c r="W36" s="453"/>
+      <c r="X36" s="453"/>
       <c r="AN36" s="262"/>
     </row>
     <row r="37" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="441"/>
-      <c r="H37" s="441"/>
-      <c r="I37" s="441"/>
-      <c r="J37" s="441"/>
-      <c r="K37" s="441"/>
-      <c r="L37" s="441"/>
-      <c r="M37" s="441"/>
-      <c r="N37" s="441"/>
-      <c r="O37" s="441"/>
-      <c r="P37" s="441"/>
-      <c r="Q37" s="441"/>
-      <c r="R37" s="441"/>
-      <c r="S37" s="441"/>
-      <c r="T37" s="441"/>
-      <c r="U37" s="441"/>
-      <c r="V37" s="441"/>
-      <c r="W37" s="441"/>
-      <c r="X37" s="441"/>
+      <c r="G37" s="453"/>
+      <c r="H37" s="453"/>
+      <c r="I37" s="453"/>
+      <c r="J37" s="453"/>
+      <c r="K37" s="453"/>
+      <c r="L37" s="453"/>
+      <c r="M37" s="453"/>
+      <c r="N37" s="453"/>
+      <c r="O37" s="453"/>
+      <c r="P37" s="453"/>
+      <c r="Q37" s="453"/>
+      <c r="R37" s="453"/>
+      <c r="S37" s="453"/>
+      <c r="T37" s="453"/>
+      <c r="U37" s="453"/>
+      <c r="V37" s="453"/>
+      <c r="W37" s="453"/>
+      <c r="X37" s="453"/>
       <c r="AN37" s="262"/>
     </row>
     <row r="38" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="441"/>
-      <c r="H38" s="441"/>
-      <c r="I38" s="441"/>
-      <c r="J38" s="441"/>
-      <c r="K38" s="441"/>
-      <c r="L38" s="441"/>
-      <c r="M38" s="441"/>
-      <c r="N38" s="441"/>
-      <c r="O38" s="441"/>
-      <c r="P38" s="441"/>
-      <c r="Q38" s="441"/>
-      <c r="R38" s="441"/>
-      <c r="S38" s="441"/>
-      <c r="T38" s="441"/>
-      <c r="U38" s="441"/>
-      <c r="V38" s="441"/>
-      <c r="W38" s="441"/>
-      <c r="X38" s="441"/>
+      <c r="G38" s="453"/>
+      <c r="H38" s="453"/>
+      <c r="I38" s="453"/>
+      <c r="J38" s="453"/>
+      <c r="K38" s="453"/>
+      <c r="L38" s="453"/>
+      <c r="M38" s="453"/>
+      <c r="N38" s="453"/>
+      <c r="O38" s="453"/>
+      <c r="P38" s="453"/>
+      <c r="Q38" s="453"/>
+      <c r="R38" s="453"/>
+      <c r="S38" s="453"/>
+      <c r="T38" s="453"/>
+      <c r="U38" s="453"/>
+      <c r="V38" s="453"/>
+      <c r="W38" s="453"/>
+      <c r="X38" s="453"/>
       <c r="AN38" s="262"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="223"/>
       <c r="D39" s="223"/>
-      <c r="G39" s="441"/>
-      <c r="H39" s="441"/>
-      <c r="I39" s="441"/>
-      <c r="J39" s="441"/>
-      <c r="K39" s="441"/>
-      <c r="L39" s="441"/>
-      <c r="M39" s="441"/>
-      <c r="N39" s="441"/>
-      <c r="O39" s="441"/>
-      <c r="P39" s="441"/>
-      <c r="Q39" s="441"/>
-      <c r="R39" s="441"/>
-      <c r="S39" s="441"/>
-      <c r="T39" s="441"/>
-      <c r="U39" s="441"/>
-      <c r="V39" s="441"/>
-      <c r="W39" s="441"/>
-      <c r="X39" s="441"/>
+      <c r="G39" s="453"/>
+      <c r="H39" s="453"/>
+      <c r="I39" s="453"/>
+      <c r="J39" s="453"/>
+      <c r="K39" s="453"/>
+      <c r="L39" s="453"/>
+      <c r="M39" s="453"/>
+      <c r="N39" s="453"/>
+      <c r="O39" s="453"/>
+      <c r="P39" s="453"/>
+      <c r="Q39" s="453"/>
+      <c r="R39" s="453"/>
+      <c r="S39" s="453"/>
+      <c r="T39" s="453"/>
+      <c r="U39" s="453"/>
+      <c r="V39" s="453"/>
+      <c r="W39" s="453"/>
+      <c r="X39" s="453"/>
       <c r="AN39" s="223"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -8504,13 +8513,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -8525,6 +8527,13 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9375,38 +9384,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="470" t="s">
+      <c r="A1" s="474" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="470"/>
-      <c r="C1" s="470"/>
-      <c r="D1" s="470"/>
+      <c r="B1" s="474"/>
+      <c r="C1" s="474"/>
+      <c r="D1" s="474"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="471" t="s">
+      <c r="F1" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="471"/>
-      <c r="H1" s="471"/>
-      <c r="I1" s="471"/>
-      <c r="J1" s="471"/>
-      <c r="K1" s="471"/>
+      <c r="G1" s="475"/>
+      <c r="H1" s="475"/>
+      <c r="I1" s="475"/>
+      <c r="J1" s="475"/>
+      <c r="K1" s="475"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="472" t="s">
+      <c r="A2" s="476" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="472"/>
-      <c r="C2" s="472"/>
-      <c r="D2" s="472"/>
+      <c r="B2" s="476"/>
+      <c r="C2" s="476"/>
+      <c r="D2" s="476"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="473" t="s">
+      <c r="F2" s="477" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="473"/>
-      <c r="H2" s="473"/>
-      <c r="I2" s="473"/>
-      <c r="J2" s="473"/>
-      <c r="K2" s="473"/>
+      <c r="G2" s="477"/>
+      <c r="H2" s="477"/>
+      <c r="I2" s="477"/>
+      <c r="J2" s="477"/>
+      <c r="K2" s="477"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -9419,43 +9428,43 @@
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="474" t="s">
+      <c r="A4" s="478" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="474"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="474"/>
-      <c r="E4" s="474"/>
-      <c r="F4" s="474"/>
-      <c r="G4" s="474"/>
-      <c r="H4" s="474"/>
-      <c r="I4" s="474"/>
-      <c r="J4" s="474"/>
-      <c r="K4" s="474"/>
-      <c r="L4" s="474"/>
+      <c r="B4" s="478"/>
+      <c r="C4" s="478"/>
+      <c r="D4" s="478"/>
+      <c r="E4" s="478"/>
+      <c r="F4" s="478"/>
+      <c r="G4" s="478"/>
+      <c r="H4" s="478"/>
+      <c r="I4" s="478"/>
+      <c r="J4" s="478"/>
+      <c r="K4" s="478"/>
+      <c r="L4" s="478"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="475" t="s">
+      <c r="A5" s="479" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="475"/>
-      <c r="C5" s="475"/>
-      <c r="D5" s="475"/>
-      <c r="E5" s="475"/>
-      <c r="F5" s="475"/>
-      <c r="G5" s="475"/>
-      <c r="H5" s="475"/>
-      <c r="I5" s="475"/>
-      <c r="J5" s="475"/>
-      <c r="K5" s="475"/>
-      <c r="L5" s="475"/>
+      <c r="B5" s="479"/>
+      <c r="C5" s="479"/>
+      <c r="D5" s="479"/>
+      <c r="E5" s="479"/>
+      <c r="F5" s="479"/>
+      <c r="G5" s="479"/>
+      <c r="H5" s="479"/>
+      <c r="I5" s="479"/>
+      <c r="J5" s="479"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="479"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="476" t="s">
+      <c r="J6" s="480" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="476"/>
-      <c r="L6" s="476"/>
+      <c r="K6" s="480"/>
+      <c r="L6" s="480"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="147" t="s">
@@ -9522,12 +9531,12 @@
       <c r="L8" s="147"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="467" t="s">
+      <c r="A9" s="471" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="468"/>
-      <c r="C9" s="468"/>
-      <c r="D9" s="469"/>
+      <c r="B9" s="472"/>
+      <c r="C9" s="472"/>
+      <c r="D9" s="473"/>
       <c r="E9" s="149"/>
       <c r="F9" s="153">
         <f>SUM(F10:F12)</f>
@@ -9646,12 +9655,12 @@
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="464" t="s">
+      <c r="A13" s="468" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="465"/>
-      <c r="C13" s="465"/>
-      <c r="D13" s="466"/>
+      <c r="B13" s="469"/>
+      <c r="C13" s="469"/>
+      <c r="D13" s="470"/>
       <c r="E13" s="89"/>
       <c r="F13" s="153">
         <f>SUM(F14:F14)</f>
@@ -9708,11 +9717,11 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="477" t="s">
+      <c r="A15" s="481" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="478"/>
-      <c r="C15" s="479"/>
+      <c r="B15" s="482"/>
+      <c r="C15" s="483"/>
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86">
@@ -9739,14 +9748,14 @@
       <c r="L15" s="85"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="462"/>
-      <c r="C17" s="462"/>
-      <c r="D17" s="462"/>
+      <c r="B17" s="466"/>
+      <c r="C17" s="466"/>
+      <c r="D17" s="466"/>
       <c r="E17" s="82"/>
-      <c r="H17" s="462"/>
-      <c r="I17" s="462"/>
-      <c r="J17" s="462"/>
-      <c r="K17" s="462"/>
+      <c r="H17" s="466"/>
+      <c r="I17" s="466"/>
+      <c r="J17" s="466"/>
+      <c r="K17" s="466"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="144" t="s">
@@ -9758,12 +9767,12 @@
         <v>85</v>
       </c>
       <c r="G18" s="144"/>
-      <c r="H18" s="462" t="s">
+      <c r="H18" s="466" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="462"/>
-      <c r="J18" s="462"/>
-      <c r="K18" s="462"/>
+      <c r="I18" s="466"/>
+      <c r="J18" s="466"/>
+      <c r="K18" s="466"/>
     </row>
     <row r="19" spans="2:11" s="145" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="146" t="s">
@@ -9775,12 +9784,12 @@
         <v>92</v>
       </c>
       <c r="G19" s="146"/>
-      <c r="H19" s="463" t="s">
+      <c r="H19" s="467" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="463"/>
-      <c r="J19" s="463"/>
-      <c r="K19" s="463"/>
+      <c r="I19" s="467"/>
+      <c r="J19" s="467"/>
+      <c r="K19" s="467"/>
     </row>
     <row r="22" spans="2:11" s="96" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="174">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -519,6 +519,33 @@
   </si>
   <si>
     <t>Nộp thuế quý 3</t>
+  </si>
+  <si>
+    <t>Anh TÙng CTV thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Chi Phương YC thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Chị Huệ ĐB thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Chị Hồng thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Đặt cọc khai trương</t>
+  </si>
+  <si>
+    <t>Khai trương</t>
+  </si>
+  <si>
+    <t>Chị Linh thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>MC Qang Vinh</t>
+  </si>
+  <si>
+    <t>Hằng Kế toán ứng lương</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1180,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="486">
+  <cellXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1793,9 +1820,6 @@
     <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2060,6 +2084,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2090,21 +2120,36 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2114,29 +2159,44 @@
     <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2168,36 +2228,6 @@
     <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2213,6 +2243,66 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2237,93 +2327,24 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2360,6 +2381,15 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2413,12 +2443,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2732,9 +2756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,16 +2824,16 @@
       <c r="Q2" s="107"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="372" t="s">
+      <c r="A3" s="373" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="372"/>
-      <c r="C3" s="372"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="372"/>
-      <c r="F3" s="372"/>
-      <c r="G3" s="372"/>
-      <c r="H3" s="372"/>
+      <c r="B3" s="373"/>
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="373"/>
+      <c r="F3" s="373"/>
+      <c r="G3" s="373"/>
+      <c r="H3" s="373"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
       <c r="K3" s="108"/>
@@ -2821,32 +2845,32 @@
       <c r="Q3" s="108"/>
     </row>
     <row r="4" spans="1:17" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="373" t="s">
+      <c r="A4" s="374" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="373" t="s">
+      <c r="B4" s="374" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="373" t="s">
+      <c r="C4" s="374" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="374" t="s">
+      <c r="D4" s="375" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="375" t="s">
+      <c r="E4" s="376" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="375"/>
-      <c r="G4" s="375" t="s">
+      <c r="F4" s="376"/>
+      <c r="G4" s="376" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="375"/>
+      <c r="H4" s="376"/>
     </row>
     <row r="5" spans="1:17" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="373"/>
-      <c r="B5" s="373"/>
-      <c r="C5" s="373"/>
-      <c r="D5" s="374"/>
+      <c r="A5" s="374"/>
+      <c r="B5" s="374"/>
+      <c r="C5" s="374"/>
+      <c r="D5" s="375"/>
       <c r="E5" s="210" t="s">
         <v>81</v>
       </c>
@@ -2897,93 +2921,139 @@
       <c r="H7" s="109"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
+      <c r="A8" s="92">
+        <v>44138</v>
+      </c>
       <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
+      <c r="C8" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>165</v>
+      </c>
       <c r="E8" s="95"/>
       <c r="F8" s="109"/>
       <c r="G8" s="95"/>
       <c r="H8" s="109"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
+      <c r="A9" s="92">
+        <v>44139</v>
+      </c>
       <c r="B9" s="92"/>
       <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
+      <c r="D9" s="94" t="s">
+        <v>166</v>
+      </c>
       <c r="E9" s="95"/>
       <c r="F9" s="109"/>
       <c r="G9" s="95"/>
       <c r="H9" s="109"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="360"/>
-      <c r="B10" s="360"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="94"/>
+      <c r="A10" s="359">
+        <v>44139</v>
+      </c>
+      <c r="B10" s="359"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="94" t="s">
+        <v>167</v>
+      </c>
       <c r="E10" s="95"/>
       <c r="F10" s="109"/>
       <c r="G10" s="95"/>
       <c r="H10" s="109"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="361"/>
-      <c r="B11" s="361"/>
-      <c r="C11" s="364"/>
-      <c r="D11" s="218"/>
+      <c r="A11" s="360">
+        <v>44140</v>
+      </c>
+      <c r="B11" s="360"/>
+      <c r="C11" s="363"/>
+      <c r="D11" s="94" t="s">
+        <v>173</v>
+      </c>
       <c r="E11" s="95"/>
       <c r="F11" s="109"/>
-      <c r="G11" s="95"/>
+      <c r="G11" s="95">
+        <v>1000000</v>
+      </c>
       <c r="H11" s="109"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="361"/>
-      <c r="B12" s="361"/>
-      <c r="C12" s="364"/>
-      <c r="D12" s="218"/>
+      <c r="A12" s="360">
+        <v>44140</v>
+      </c>
+      <c r="B12" s="360"/>
+      <c r="C12" s="363"/>
+      <c r="D12" s="218" t="s">
+        <v>168</v>
+      </c>
       <c r="E12" s="95"/>
       <c r="F12" s="109"/>
       <c r="G12" s="95"/>
       <c r="H12" s="109"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="361"/>
-      <c r="B13" s="361"/>
-      <c r="C13" s="364"/>
-      <c r="D13" s="218"/>
+      <c r="A13" s="360">
+        <v>44141</v>
+      </c>
+      <c r="B13" s="360"/>
+      <c r="C13" s="363"/>
+      <c r="D13" s="218" t="s">
+        <v>169</v>
+      </c>
       <c r="E13" s="95"/>
       <c r="F13" s="109"/>
-      <c r="G13" s="95"/>
+      <c r="G13" s="95">
+        <v>500000</v>
+      </c>
       <c r="H13" s="109"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="361"/>
-      <c r="B14" s="361"/>
-      <c r="C14" s="364"/>
-      <c r="D14" s="219"/>
+      <c r="A14" s="360">
+        <v>44142</v>
+      </c>
+      <c r="B14" s="360"/>
+      <c r="C14" s="363"/>
+      <c r="D14" s="219" t="s">
+        <v>170</v>
+      </c>
       <c r="E14" s="95"/>
       <c r="F14" s="109"/>
-      <c r="G14" s="95"/>
+      <c r="G14" s="95">
+        <v>3746000</v>
+      </c>
       <c r="H14" s="109"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="361"/>
-      <c r="B15" s="361"/>
-      <c r="C15" s="364"/>
-      <c r="D15" s="218"/>
+      <c r="A15" s="360">
+        <v>44142</v>
+      </c>
+      <c r="B15" s="360"/>
+      <c r="C15" s="363"/>
+      <c r="D15" s="218" t="s">
+        <v>171</v>
+      </c>
       <c r="E15" s="95"/>
       <c r="F15" s="109"/>
       <c r="G15" s="95"/>
       <c r="H15" s="111"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="362"/>
-      <c r="B16" s="362"/>
-      <c r="C16" s="365"/>
-      <c r="D16" s="218"/>
+      <c r="A16" s="361">
+        <v>44142</v>
+      </c>
+      <c r="B16" s="361"/>
+      <c r="C16" s="364"/>
+      <c r="D16" s="218" t="s">
+        <v>172</v>
+      </c>
       <c r="E16" s="95"/>
       <c r="F16" s="109"/>
-      <c r="G16" s="95"/>
+      <c r="G16" s="95">
+        <v>2000000</v>
+      </c>
       <c r="H16" s="111"/>
       <c r="K16" s="101"/>
       <c r="L16" s="101"/>
@@ -2997,8 +3067,8 @@
       <c r="F17" s="109"/>
       <c r="G17" s="95"/>
       <c r="H17" s="111"/>
-      <c r="K17" s="366"/>
-      <c r="L17" s="367"/>
+      <c r="K17" s="367"/>
+      <c r="L17" s="368"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="92"/>
@@ -3561,12 +3631,12 @@
       <c r="H73" s="111"/>
     </row>
     <row r="74" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="369" t="s">
+      <c r="A74" s="370" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="370"/>
-      <c r="C74" s="370"/>
-      <c r="D74" s="371"/>
+      <c r="B74" s="371"/>
+      <c r="C74" s="371"/>
+      <c r="D74" s="372"/>
       <c r="E74" s="113">
         <f>SUM(E7:E73)</f>
         <v>0</v>
@@ -3577,7 +3647,7 @@
       </c>
       <c r="G74" s="113">
         <f>SUM(G7:G73)</f>
-        <v>14226820</v>
+        <v>21472820</v>
       </c>
       <c r="H74" s="113">
         <f>SUM(H7:H73)</f>
@@ -3597,11 +3667,11 @@
       <c r="J75" s="115"/>
     </row>
     <row r="76" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="368" t="s">
+      <c r="A76" s="369" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="368"/>
-      <c r="C76" s="368"/>
+      <c r="B76" s="369"/>
+      <c r="C76" s="369"/>
       <c r="D76" s="116"/>
       <c r="E76" s="117"/>
       <c r="F76" s="117"/>
@@ -3664,7 +3734,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3688,13 +3758,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="379" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
       <c r="H1" s="125"/>
       <c r="I1" s="125"/>
       <c r="J1" s="125"/>
@@ -3724,143 +3794,143 @@
       <c r="P2" s="129"/>
     </row>
     <row r="3" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="380" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
-      <c r="G3" s="389"/>
-      <c r="H3" s="389"/>
-      <c r="I3" s="389"/>
-      <c r="J3" s="389"/>
-      <c r="K3" s="389"/>
-      <c r="L3" s="389"/>
-      <c r="M3" s="389"/>
-      <c r="N3" s="389"/>
-      <c r="O3" s="389"/>
-      <c r="P3" s="389"/>
+      <c r="B3" s="380"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="380"/>
+      <c r="F3" s="380"/>
+      <c r="G3" s="380"/>
+      <c r="H3" s="380"/>
+      <c r="I3" s="380"/>
+      <c r="J3" s="380"/>
+      <c r="K3" s="380"/>
+      <c r="L3" s="380"/>
+      <c r="M3" s="380"/>
+      <c r="N3" s="380"/>
+      <c r="O3" s="380"/>
+      <c r="P3" s="380"/>
     </row>
     <row r="4" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="389" t="s">
+      <c r="A4" s="380" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="389"/>
-      <c r="C4" s="389"/>
-      <c r="D4" s="389"/>
-      <c r="E4" s="389"/>
-      <c r="F4" s="389"/>
-      <c r="G4" s="389"/>
-      <c r="H4" s="389"/>
-      <c r="I4" s="389"/>
-      <c r="J4" s="389"/>
-      <c r="K4" s="389"/>
-      <c r="L4" s="389"/>
-      <c r="M4" s="389"/>
-      <c r="N4" s="389"/>
-      <c r="O4" s="389"/>
-      <c r="P4" s="389"/>
+      <c r="B4" s="380"/>
+      <c r="C4" s="380"/>
+      <c r="D4" s="380"/>
+      <c r="E4" s="380"/>
+      <c r="F4" s="380"/>
+      <c r="G4" s="380"/>
+      <c r="H4" s="380"/>
+      <c r="I4" s="380"/>
+      <c r="J4" s="380"/>
+      <c r="K4" s="380"/>
+      <c r="L4" s="380"/>
+      <c r="M4" s="380"/>
+      <c r="N4" s="380"/>
+      <c r="O4" s="380"/>
+      <c r="P4" s="380"/>
     </row>
     <row r="5" spans="1:16" s="124" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="382" t="s">
+      <c r="A5" s="388" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="383" t="s">
+      <c r="B5" s="389" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="382" t="s">
+      <c r="C5" s="388" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="382" t="s">
+      <c r="D5" s="388" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="382"/>
-      <c r="F5" s="384" t="s">
+      <c r="E5" s="388"/>
+      <c r="F5" s="382" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="384"/>
-      <c r="H5" s="384"/>
-      <c r="I5" s="384"/>
-      <c r="J5" s="384"/>
-      <c r="K5" s="384"/>
-      <c r="L5" s="384"/>
-      <c r="M5" s="390"/>
-      <c r="N5" s="390"/>
-      <c r="O5" s="390"/>
-      <c r="P5" s="384" t="s">
+      <c r="G5" s="382"/>
+      <c r="H5" s="382"/>
+      <c r="I5" s="382"/>
+      <c r="J5" s="382"/>
+      <c r="K5" s="382"/>
+      <c r="L5" s="382"/>
+      <c r="M5" s="381"/>
+      <c r="N5" s="381"/>
+      <c r="O5" s="381"/>
+      <c r="P5" s="382" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="124" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="382"/>
-      <c r="B6" s="383"/>
-      <c r="C6" s="382"/>
-      <c r="D6" s="382" t="s">
+      <c r="A6" s="388"/>
+      <c r="B6" s="389"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="382" t="s">
+      <c r="E6" s="388" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="382" t="s">
+      <c r="F6" s="388" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="382" t="s">
+      <c r="G6" s="388" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="385" t="s">
+      <c r="H6" s="383" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="385" t="s">
+      <c r="I6" s="383" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="386" t="s">
+      <c r="J6" s="390" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="386"/>
-      <c r="L6" s="385" t="s">
+      <c r="K6" s="390"/>
+      <c r="L6" s="383" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="385" t="s">
+      <c r="M6" s="383" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="385" t="s">
+      <c r="N6" s="383" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="385" t="s">
+      <c r="O6" s="383" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="384"/>
+      <c r="P6" s="382"/>
     </row>
     <row r="7" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="382"/>
-      <c r="B7" s="383"/>
-      <c r="C7" s="382"/>
-      <c r="D7" s="382"/>
-      <c r="E7" s="382"/>
-      <c r="F7" s="382"/>
-      <c r="G7" s="382"/>
-      <c r="H7" s="385"/>
-      <c r="I7" s="385"/>
+      <c r="A7" s="388"/>
+      <c r="B7" s="389"/>
+      <c r="C7" s="388"/>
+      <c r="D7" s="388"/>
+      <c r="E7" s="388"/>
+      <c r="F7" s="388"/>
+      <c r="G7" s="388"/>
+      <c r="H7" s="383"/>
+      <c r="I7" s="383"/>
       <c r="J7" s="211" t="s">
         <v>84</v>
       </c>
       <c r="K7" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="385"/>
-      <c r="M7" s="385"/>
-      <c r="N7" s="385"/>
-      <c r="O7" s="385"/>
-      <c r="P7" s="384"/>
+      <c r="L7" s="383"/>
+      <c r="M7" s="383"/>
+      <c r="N7" s="383"/>
+      <c r="O7" s="383"/>
+      <c r="P7" s="382"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="484"/>
-      <c r="B8" s="485"/>
-      <c r="C8" s="484"/>
-      <c r="D8" s="484"/>
-      <c r="E8" s="484"/>
+      <c r="A8" s="365"/>
+      <c r="B8" s="366"/>
+      <c r="C8" s="365"/>
+      <c r="D8" s="365"/>
+      <c r="E8" s="365"/>
       <c r="F8" s="163"/>
       <c r="G8" s="163"/>
       <c r="H8" s="164"/>
@@ -3946,11 +4016,11 @@
       <c r="P12" s="162"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="376"/>
-      <c r="B13" s="378"/>
-      <c r="C13" s="376"/>
-      <c r="D13" s="376"/>
-      <c r="E13" s="376"/>
+      <c r="A13" s="385"/>
+      <c r="B13" s="391"/>
+      <c r="C13" s="385"/>
+      <c r="D13" s="385"/>
+      <c r="E13" s="385"/>
       <c r="F13" s="163"/>
       <c r="G13" s="163"/>
       <c r="H13" s="164"/>
@@ -3964,11 +4034,11 @@
       <c r="P13" s="166"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="377"/>
-      <c r="B14" s="379"/>
-      <c r="C14" s="377"/>
-      <c r="D14" s="377"/>
-      <c r="E14" s="377"/>
+      <c r="A14" s="386"/>
+      <c r="B14" s="392"/>
+      <c r="C14" s="386"/>
+      <c r="D14" s="386"/>
+      <c r="E14" s="386"/>
       <c r="F14" s="167"/>
       <c r="G14" s="167"/>
       <c r="H14" s="168"/>
@@ -4018,11 +4088,11 @@
       <c r="P16" s="157"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="376"/>
-      <c r="B17" s="378"/>
-      <c r="C17" s="376"/>
-      <c r="D17" s="376"/>
-      <c r="E17" s="376"/>
+      <c r="A17" s="385"/>
+      <c r="B17" s="391"/>
+      <c r="C17" s="385"/>
+      <c r="D17" s="385"/>
+      <c r="E17" s="385"/>
       <c r="F17" s="163"/>
       <c r="G17" s="163"/>
       <c r="H17" s="164"/>
@@ -4036,11 +4106,11 @@
       <c r="P17" s="163"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="377"/>
-      <c r="B18" s="379"/>
-      <c r="C18" s="377"/>
-      <c r="D18" s="377"/>
-      <c r="E18" s="377"/>
+      <c r="A18" s="386"/>
+      <c r="B18" s="392"/>
+      <c r="C18" s="386"/>
+      <c r="D18" s="386"/>
+      <c r="E18" s="386"/>
       <c r="F18" s="167"/>
       <c r="G18" s="167"/>
       <c r="H18" s="168"/>
@@ -4465,7 +4535,7 @@
       <c r="M41" s="177"/>
       <c r="N41" s="177"/>
       <c r="O41" s="177"/>
-      <c r="P41" s="391"/>
+      <c r="P41" s="384"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="172"/>
@@ -4483,7 +4553,7 @@
       <c r="M42" s="177"/>
       <c r="N42" s="177"/>
       <c r="O42" s="177"/>
-      <c r="P42" s="391"/>
+      <c r="P42" s="384"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="172"/>
@@ -4501,7 +4571,7 @@
       <c r="M43" s="177"/>
       <c r="N43" s="177"/>
       <c r="O43" s="177"/>
-      <c r="P43" s="391"/>
+      <c r="P43" s="384"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="172"/>
@@ -4519,7 +4589,7 @@
       <c r="M44" s="177"/>
       <c r="N44" s="177"/>
       <c r="O44" s="177"/>
-      <c r="P44" s="391"/>
+      <c r="P44" s="384"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="172"/>
@@ -4537,7 +4607,7 @@
       <c r="M45" s="177"/>
       <c r="N45" s="177"/>
       <c r="O45" s="177"/>
-      <c r="P45" s="391"/>
+      <c r="P45" s="384"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="172"/>
@@ -4555,7 +4625,7 @@
       <c r="M46" s="177"/>
       <c r="N46" s="177"/>
       <c r="O46" s="177"/>
-      <c r="P46" s="391"/>
+      <c r="P46" s="384"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="198"/>
@@ -4609,7 +4679,7 @@
       <c r="M49" s="177"/>
       <c r="N49" s="177"/>
       <c r="O49" s="177"/>
-      <c r="P49" s="391"/>
+      <c r="P49" s="384"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="172"/>
@@ -4627,7 +4697,7 @@
       <c r="M50" s="177"/>
       <c r="N50" s="177"/>
       <c r="O50" s="177"/>
-      <c r="P50" s="391"/>
+      <c r="P50" s="384"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="172"/>
@@ -4645,7 +4715,7 @@
       <c r="M51" s="177"/>
       <c r="N51" s="177"/>
       <c r="O51" s="177"/>
-      <c r="P51" s="391"/>
+      <c r="P51" s="384"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="198"/>
@@ -5116,14 +5186,14 @@
       <c r="P77" s="167"/>
     </row>
     <row r="78" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="381" t="s">
+      <c r="A78" s="387" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="381"/>
-      <c r="C78" s="381"/>
-      <c r="D78" s="381"/>
-      <c r="E78" s="381"/>
-      <c r="F78" s="381"/>
+      <c r="B78" s="387"/>
+      <c r="C78" s="387"/>
+      <c r="D78" s="387"/>
+      <c r="E78" s="387"/>
+      <c r="F78" s="387"/>
       <c r="G78" s="132">
         <f>SUM(G8:G77)</f>
         <v>0</v>
@@ -5143,17 +5213,17 @@
       <c r="N78" s="133"/>
       <c r="O78" s="133"/>
       <c r="P78" s="133"/>
-      <c r="Q78" s="387"/>
+      <c r="Q78" s="377"/>
     </row>
     <row r="79" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="380" t="s">
+      <c r="A79" s="378" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="380"/>
-      <c r="C79" s="380"/>
-      <c r="D79" s="380"/>
-      <c r="E79" s="380"/>
-      <c r="F79" s="380"/>
+      <c r="B79" s="378"/>
+      <c r="C79" s="378"/>
+      <c r="D79" s="378"/>
+      <c r="E79" s="378"/>
+      <c r="F79" s="378"/>
       <c r="G79" s="132">
         <f>G78</f>
         <v>0</v>
@@ -5170,17 +5240,17 @@
       <c r="N79" s="137"/>
       <c r="O79" s="137"/>
       <c r="P79" s="137"/>
-      <c r="Q79" s="387"/>
+      <c r="Q79" s="377"/>
     </row>
     <row r="80" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="380" t="s">
+      <c r="A80" s="378" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="380"/>
-      <c r="C80" s="380"/>
-      <c r="D80" s="380"/>
-      <c r="E80" s="380"/>
-      <c r="F80" s="380"/>
+      <c r="B80" s="378"/>
+      <c r="C80" s="378"/>
+      <c r="D80" s="378"/>
+      <c r="E80" s="378"/>
+      <c r="F80" s="378"/>
       <c r="G80" s="138" t="s">
         <v>45</v>
       </c>
@@ -5198,14 +5268,14 @@
       <c r="P80" s="139"/>
     </row>
     <row r="81" spans="1:16" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="380" t="s">
+      <c r="A81" s="378" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="380"/>
-      <c r="C81" s="380"/>
-      <c r="D81" s="380"/>
-      <c r="E81" s="380"/>
-      <c r="F81" s="380"/>
+      <c r="B81" s="378"/>
+      <c r="C81" s="378"/>
+      <c r="D81" s="378"/>
+      <c r="E81" s="378"/>
+      <c r="F81" s="378"/>
       <c r="G81" s="137"/>
       <c r="H81" s="137"/>
       <c r="I81" s="133"/>
@@ -5221,14 +5291,14 @@
       <c r="P81" s="139"/>
     </row>
     <row r="82" spans="1:16" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="380" t="s">
+      <c r="A82" s="378" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="380"/>
-      <c r="C82" s="380"/>
-      <c r="D82" s="380"/>
-      <c r="E82" s="380"/>
-      <c r="F82" s="380"/>
+      <c r="B82" s="378"/>
+      <c r="C82" s="378"/>
+      <c r="D82" s="378"/>
+      <c r="E82" s="378"/>
+      <c r="F82" s="378"/>
       <c r="G82" s="137"/>
       <c r="H82" s="137"/>
       <c r="I82" s="133"/>
@@ -5299,6 +5369,30 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="40">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="Q78:Q79"/>
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="A80:F80"/>
@@ -5315,30 +5409,6 @@
     <mergeCell ref="P49:P51"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5355,702 +5425,678 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="293"/>
-    <col min="2" max="2" width="12" style="293" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="293" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="293" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="293" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="293"/>
-    <col min="7" max="7" width="6.28515625" style="293" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="293" customWidth="1"/>
-    <col min="9" max="9" width="14" style="293" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="294" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="295" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="296" customWidth="1"/>
-    <col min="13" max="13" width="4" style="296" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="296" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="293"/>
+    <col min="1" max="1" width="9.140625" style="292"/>
+    <col min="2" max="2" width="12" style="292" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="292" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="292" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="292" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="292"/>
+    <col min="7" max="7" width="6.28515625" style="292" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="292" customWidth="1"/>
+    <col min="9" max="9" width="14" style="292" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="293" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="294" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="295" customWidth="1"/>
+    <col min="13" max="13" width="4" style="295" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="295" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="292"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="291" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="296" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="394" t="s">
+      <c r="A3" s="405" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="394"/>
-      <c r="C3" s="394"/>
-      <c r="D3" s="394"/>
-      <c r="E3" s="394"/>
-      <c r="F3" s="394"/>
-      <c r="G3" s="394"/>
-      <c r="H3" s="394"/>
-      <c r="I3" s="394"/>
-      <c r="J3" s="394"/>
-      <c r="K3" s="394"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
+      <c r="B3" s="405"/>
+      <c r="C3" s="405"/>
+      <c r="D3" s="405"/>
+      <c r="E3" s="405"/>
+      <c r="F3" s="405"/>
+      <c r="G3" s="405"/>
+      <c r="H3" s="405"/>
+      <c r="I3" s="405"/>
+      <c r="J3" s="405"/>
+      <c r="K3" s="405"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="395" t="s">
+      <c r="A4" s="406" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="395"/>
-      <c r="C4" s="395"/>
-      <c r="D4" s="395"/>
-      <c r="E4" s="395"/>
-      <c r="F4" s="395"/>
-      <c r="G4" s="395"/>
-      <c r="H4" s="395"/>
-      <c r="I4" s="395"/>
-      <c r="J4" s="396"/>
-      <c r="K4" s="395"/>
-      <c r="L4" s="299"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
+      <c r="B4" s="406"/>
+      <c r="C4" s="406"/>
+      <c r="D4" s="406"/>
+      <c r="E4" s="406"/>
+      <c r="F4" s="406"/>
+      <c r="G4" s="406"/>
+      <c r="H4" s="406"/>
+      <c r="I4" s="406"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="406"/>
+      <c r="L4" s="298"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="298"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="397" t="s">
+      <c r="A5" s="408" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="398" t="s">
+      <c r="B5" s="409" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="397" t="s">
+      <c r="C5" s="408" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="397" t="s">
+      <c r="D5" s="408" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="397"/>
-      <c r="F5" s="399" t="s">
+      <c r="E5" s="408"/>
+      <c r="F5" s="410" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="399"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="399"/>
-      <c r="J5" s="400"/>
-      <c r="K5" s="401" t="s">
+      <c r="G5" s="410"/>
+      <c r="H5" s="410"/>
+      <c r="I5" s="410"/>
+      <c r="J5" s="411"/>
+      <c r="K5" s="412" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="393" t="s">
+      <c r="L5" s="404" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="393"/>
-      <c r="N5" s="393"/>
+      <c r="M5" s="404"/>
+      <c r="N5" s="404"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="397"/>
-      <c r="B6" s="398"/>
-      <c r="C6" s="397"/>
-      <c r="D6" s="300" t="s">
+      <c r="A6" s="408"/>
+      <c r="B6" s="409"/>
+      <c r="C6" s="408"/>
+      <c r="D6" s="299" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="301" t="s">
+      <c r="E6" s="300" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="301" t="s">
+      <c r="F6" s="300" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="301" t="s">
+      <c r="G6" s="300" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="302" t="s">
+      <c r="H6" s="301" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="303" t="s">
+      <c r="I6" s="302" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="304" t="s">
+      <c r="J6" s="303" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="401"/>
-      <c r="L6" s="305" t="s">
+      <c r="K6" s="412"/>
+      <c r="L6" s="304" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="305" t="s">
+      <c r="M6" s="304" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="305" t="s">
+      <c r="N6" s="304" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="345"/>
-      <c r="B7" s="346"/>
-      <c r="C7" s="345"/>
-      <c r="D7" s="345"/>
-      <c r="E7" s="345"/>
-      <c r="F7" s="347"/>
-      <c r="G7" s="347"/>
-      <c r="H7" s="348"/>
-      <c r="I7" s="348"/>
-      <c r="J7" s="349"/>
-      <c r="K7" s="348"/>
-      <c r="L7" s="350"/>
-      <c r="M7" s="350"/>
-      <c r="N7" s="351"/>
+      <c r="A7" s="344"/>
+      <c r="B7" s="345"/>
+      <c r="C7" s="344"/>
+      <c r="D7" s="344"/>
+      <c r="E7" s="344"/>
+      <c r="F7" s="346"/>
+      <c r="G7" s="346"/>
+      <c r="H7" s="347"/>
+      <c r="I7" s="347"/>
+      <c r="J7" s="348"/>
+      <c r="K7" s="347"/>
+      <c r="L7" s="349"/>
+      <c r="M7" s="349"/>
+      <c r="N7" s="350"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="402"/>
-      <c r="B8" s="404"/>
-      <c r="C8" s="402"/>
-      <c r="D8" s="402"/>
-      <c r="E8" s="402"/>
-      <c r="F8" s="306"/>
-      <c r="G8" s="306"/>
-      <c r="H8" s="307"/>
-      <c r="I8" s="307"/>
-      <c r="J8" s="308"/>
-      <c r="K8" s="307"/>
-      <c r="L8" s="309"/>
-      <c r="M8" s="309"/>
-      <c r="N8" s="310"/>
+      <c r="A8" s="397"/>
+      <c r="B8" s="400"/>
+      <c r="C8" s="397"/>
+      <c r="D8" s="397"/>
+      <c r="E8" s="397"/>
+      <c r="F8" s="305"/>
+      <c r="G8" s="305"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="307"/>
+      <c r="K8" s="306"/>
+      <c r="L8" s="308"/>
+      <c r="M8" s="308"/>
+      <c r="N8" s="309"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="403"/>
-      <c r="B9" s="405"/>
-      <c r="C9" s="403"/>
-      <c r="D9" s="403"/>
-      <c r="E9" s="403"/>
-      <c r="F9" s="323"/>
-      <c r="G9" s="323"/>
-      <c r="H9" s="324"/>
-      <c r="I9" s="324"/>
-      <c r="J9" s="325"/>
-      <c r="K9" s="324"/>
-      <c r="L9" s="327"/>
-      <c r="M9" s="327"/>
-      <c r="N9" s="328"/>
+      <c r="A9" s="399"/>
+      <c r="B9" s="402"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="322"/>
+      <c r="G9" s="322"/>
+      <c r="H9" s="323"/>
+      <c r="I9" s="323"/>
+      <c r="J9" s="324"/>
+      <c r="K9" s="323"/>
+      <c r="L9" s="326"/>
+      <c r="M9" s="326"/>
+      <c r="N9" s="327"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="402"/>
-      <c r="B10" s="404"/>
-      <c r="C10" s="402"/>
-      <c r="D10" s="402"/>
-      <c r="E10" s="402"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="306"/>
-      <c r="H10" s="307"/>
-      <c r="I10" s="307"/>
-      <c r="J10" s="308"/>
-      <c r="K10" s="307"/>
-      <c r="L10" s="309"/>
-      <c r="M10" s="309"/>
-      <c r="N10" s="310"/>
+      <c r="A10" s="397"/>
+      <c r="B10" s="400"/>
+      <c r="C10" s="397"/>
+      <c r="D10" s="397"/>
+      <c r="E10" s="397"/>
+      <c r="F10" s="305"/>
+      <c r="G10" s="305"/>
+      <c r="H10" s="306"/>
+      <c r="I10" s="306"/>
+      <c r="J10" s="307"/>
+      <c r="K10" s="306"/>
+      <c r="L10" s="308"/>
+      <c r="M10" s="308"/>
+      <c r="N10" s="309"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="406"/>
-      <c r="B11" s="407"/>
-      <c r="C11" s="406"/>
-      <c r="D11" s="406"/>
-      <c r="E11" s="406"/>
-      <c r="F11" s="311"/>
-      <c r="G11" s="311"/>
-      <c r="H11" s="312"/>
-      <c r="I11" s="312"/>
-      <c r="J11" s="313"/>
-      <c r="K11" s="312"/>
-      <c r="L11" s="314"/>
-      <c r="M11" s="314"/>
-      <c r="N11" s="315"/>
+      <c r="A11" s="398"/>
+      <c r="B11" s="401"/>
+      <c r="C11" s="398"/>
+      <c r="D11" s="398"/>
+      <c r="E11" s="398"/>
+      <c r="F11" s="310"/>
+      <c r="G11" s="310"/>
+      <c r="H11" s="311"/>
+      <c r="I11" s="311"/>
+      <c r="J11" s="312"/>
+      <c r="K11" s="311"/>
+      <c r="L11" s="313"/>
+      <c r="M11" s="313"/>
+      <c r="N11" s="314"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="403"/>
-      <c r="B12" s="405"/>
-      <c r="C12" s="403"/>
-      <c r="D12" s="403"/>
-      <c r="E12" s="403"/>
-      <c r="F12" s="323"/>
-      <c r="G12" s="323"/>
-      <c r="H12" s="324"/>
-      <c r="I12" s="324"/>
-      <c r="J12" s="325"/>
-      <c r="K12" s="324"/>
-      <c r="L12" s="327"/>
-      <c r="M12" s="327"/>
-      <c r="N12" s="328"/>
+      <c r="A12" s="399"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="399"/>
+      <c r="D12" s="399"/>
+      <c r="E12" s="399"/>
+      <c r="F12" s="322"/>
+      <c r="G12" s="322"/>
+      <c r="H12" s="323"/>
+      <c r="I12" s="323"/>
+      <c r="J12" s="324"/>
+      <c r="K12" s="323"/>
+      <c r="L12" s="326"/>
+      <c r="M12" s="326"/>
+      <c r="N12" s="327"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="345"/>
-      <c r="B13" s="346"/>
-      <c r="C13" s="345"/>
-      <c r="D13" s="345"/>
-      <c r="E13" s="345"/>
-      <c r="F13" s="347"/>
-      <c r="G13" s="347"/>
-      <c r="H13" s="348"/>
-      <c r="I13" s="348"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="348"/>
-      <c r="L13" s="350"/>
-      <c r="M13" s="350"/>
-      <c r="N13" s="351"/>
+      <c r="A13" s="344"/>
+      <c r="B13" s="345"/>
+      <c r="C13" s="344"/>
+      <c r="D13" s="344"/>
+      <c r="E13" s="344"/>
+      <c r="F13" s="346"/>
+      <c r="G13" s="346"/>
+      <c r="H13" s="347"/>
+      <c r="I13" s="347"/>
+      <c r="J13" s="348"/>
+      <c r="K13" s="347"/>
+      <c r="L13" s="349"/>
+      <c r="M13" s="349"/>
+      <c r="N13" s="350"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="345"/>
-      <c r="B14" s="346"/>
-      <c r="C14" s="345"/>
-      <c r="D14" s="345"/>
-      <c r="E14" s="345"/>
-      <c r="F14" s="347"/>
-      <c r="G14" s="347"/>
-      <c r="H14" s="348"/>
-      <c r="I14" s="348"/>
-      <c r="J14" s="349"/>
-      <c r="K14" s="348"/>
-      <c r="L14" s="350"/>
-      <c r="M14" s="350"/>
-      <c r="N14" s="351"/>
+      <c r="A14" s="344"/>
+      <c r="B14" s="345"/>
+      <c r="C14" s="344"/>
+      <c r="D14" s="344"/>
+      <c r="E14" s="344"/>
+      <c r="F14" s="346"/>
+      <c r="G14" s="346"/>
+      <c r="H14" s="347"/>
+      <c r="I14" s="347"/>
+      <c r="J14" s="348"/>
+      <c r="K14" s="347"/>
+      <c r="L14" s="349"/>
+      <c r="M14" s="349"/>
+      <c r="N14" s="350"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="345"/>
-      <c r="B15" s="346"/>
-      <c r="C15" s="345"/>
-      <c r="D15" s="345"/>
-      <c r="E15" s="345"/>
-      <c r="F15" s="347"/>
-      <c r="G15" s="347"/>
-      <c r="H15" s="348"/>
-      <c r="I15" s="348"/>
-      <c r="J15" s="349"/>
-      <c r="K15" s="348"/>
-      <c r="L15" s="350"/>
-      <c r="M15" s="350"/>
-      <c r="N15" s="351"/>
+      <c r="A15" s="344"/>
+      <c r="B15" s="345"/>
+      <c r="C15" s="344"/>
+      <c r="D15" s="344"/>
+      <c r="E15" s="344"/>
+      <c r="F15" s="346"/>
+      <c r="G15" s="346"/>
+      <c r="H15" s="347"/>
+      <c r="I15" s="347"/>
+      <c r="J15" s="348"/>
+      <c r="K15" s="347"/>
+      <c r="L15" s="349"/>
+      <c r="M15" s="349"/>
+      <c r="N15" s="350"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="402"/>
-      <c r="B16" s="404"/>
-      <c r="C16" s="402"/>
-      <c r="D16" s="402"/>
-      <c r="E16" s="402"/>
-      <c r="F16" s="306"/>
-      <c r="G16" s="306"/>
-      <c r="H16" s="307"/>
-      <c r="I16" s="307"/>
-      <c r="J16" s="308"/>
-      <c r="K16" s="307"/>
-      <c r="L16" s="309"/>
-      <c r="M16" s="309"/>
-      <c r="N16" s="310"/>
+      <c r="A16" s="397"/>
+      <c r="B16" s="400"/>
+      <c r="C16" s="397"/>
+      <c r="D16" s="397"/>
+      <c r="E16" s="397"/>
+      <c r="F16" s="305"/>
+      <c r="G16" s="305"/>
+      <c r="H16" s="306"/>
+      <c r="I16" s="306"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="308"/>
+      <c r="M16" s="308"/>
+      <c r="N16" s="309"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="403"/>
-      <c r="B17" s="405"/>
-      <c r="C17" s="403"/>
-      <c r="D17" s="403"/>
-      <c r="E17" s="403"/>
-      <c r="F17" s="323"/>
-      <c r="G17" s="323"/>
-      <c r="H17" s="324"/>
-      <c r="I17" s="324"/>
-      <c r="J17" s="325"/>
-      <c r="K17" s="324"/>
-      <c r="L17" s="327"/>
-      <c r="M17" s="327"/>
-      <c r="N17" s="328"/>
+      <c r="A17" s="399"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="399"/>
+      <c r="D17" s="399"/>
+      <c r="E17" s="399"/>
+      <c r="F17" s="322"/>
+      <c r="G17" s="322"/>
+      <c r="H17" s="323"/>
+      <c r="I17" s="323"/>
+      <c r="J17" s="324"/>
+      <c r="K17" s="323"/>
+      <c r="L17" s="326"/>
+      <c r="M17" s="326"/>
+      <c r="N17" s="327"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="402"/>
-      <c r="B18" s="404"/>
-      <c r="C18" s="402"/>
-      <c r="D18" s="402"/>
-      <c r="E18" s="402"/>
-      <c r="F18" s="306"/>
-      <c r="G18" s="306"/>
-      <c r="H18" s="307"/>
-      <c r="I18" s="307"/>
-      <c r="J18" s="308"/>
-      <c r="K18" s="307"/>
-      <c r="L18" s="309"/>
-      <c r="M18" s="309"/>
-      <c r="N18" s="310"/>
+      <c r="A18" s="397"/>
+      <c r="B18" s="400"/>
+      <c r="C18" s="397"/>
+      <c r="D18" s="397"/>
+      <c r="E18" s="397"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="305"/>
+      <c r="H18" s="306"/>
+      <c r="I18" s="306"/>
+      <c r="J18" s="307"/>
+      <c r="K18" s="306"/>
+      <c r="L18" s="308"/>
+      <c r="M18" s="308"/>
+      <c r="N18" s="309"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="403"/>
-      <c r="B19" s="405"/>
-      <c r="C19" s="403"/>
-      <c r="D19" s="403"/>
-      <c r="E19" s="403"/>
-      <c r="F19" s="323"/>
-      <c r="G19" s="323"/>
-      <c r="H19" s="324"/>
-      <c r="I19" s="324"/>
-      <c r="J19" s="325"/>
-      <c r="K19" s="324"/>
-      <c r="L19" s="327"/>
-      <c r="M19" s="327"/>
-      <c r="N19" s="328"/>
+      <c r="A19" s="399"/>
+      <c r="B19" s="402"/>
+      <c r="C19" s="399"/>
+      <c r="D19" s="399"/>
+      <c r="E19" s="399"/>
+      <c r="F19" s="322"/>
+      <c r="G19" s="322"/>
+      <c r="H19" s="323"/>
+      <c r="I19" s="323"/>
+      <c r="J19" s="324"/>
+      <c r="K19" s="323"/>
+      <c r="L19" s="326"/>
+      <c r="M19" s="326"/>
+      <c r="N19" s="327"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="345"/>
-      <c r="B20" s="346"/>
-      <c r="C20" s="345"/>
-      <c r="D20" s="345"/>
-      <c r="E20" s="345"/>
-      <c r="F20" s="347"/>
-      <c r="G20" s="347"/>
-      <c r="H20" s="348"/>
-      <c r="I20" s="348"/>
-      <c r="J20" s="349"/>
-      <c r="K20" s="348"/>
-      <c r="L20" s="350"/>
-      <c r="M20" s="350"/>
-      <c r="N20" s="351"/>
+      <c r="A20" s="344"/>
+      <c r="B20" s="345"/>
+      <c r="C20" s="344"/>
+      <c r="D20" s="344"/>
+      <c r="E20" s="344"/>
+      <c r="F20" s="346"/>
+      <c r="G20" s="346"/>
+      <c r="H20" s="347"/>
+      <c r="I20" s="347"/>
+      <c r="J20" s="348"/>
+      <c r="K20" s="347"/>
+      <c r="L20" s="349"/>
+      <c r="M20" s="349"/>
+      <c r="N20" s="350"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="345"/>
-      <c r="B21" s="346"/>
-      <c r="C21" s="345"/>
-      <c r="D21" s="345"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="347"/>
-      <c r="G21" s="347"/>
-      <c r="H21" s="348"/>
-      <c r="I21" s="348"/>
-      <c r="J21" s="349"/>
-      <c r="K21" s="348"/>
-      <c r="L21" s="350"/>
-      <c r="M21" s="350"/>
-      <c r="N21" s="351"/>
+      <c r="A21" s="344"/>
+      <c r="B21" s="345"/>
+      <c r="C21" s="344"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="344"/>
+      <c r="F21" s="346"/>
+      <c r="G21" s="346"/>
+      <c r="H21" s="347"/>
+      <c r="I21" s="347"/>
+      <c r="J21" s="348"/>
+      <c r="K21" s="347"/>
+      <c r="L21" s="349"/>
+      <c r="M21" s="349"/>
+      <c r="N21" s="350"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="345"/>
-      <c r="B22" s="346"/>
-      <c r="C22" s="345"/>
-      <c r="D22" s="345"/>
-      <c r="E22" s="345"/>
-      <c r="F22" s="347"/>
-      <c r="G22" s="347"/>
-      <c r="H22" s="348"/>
-      <c r="I22" s="348"/>
-      <c r="J22" s="349"/>
-      <c r="K22" s="352"/>
-      <c r="L22" s="350"/>
-      <c r="M22" s="350"/>
-      <c r="N22" s="351"/>
+      <c r="A22" s="344"/>
+      <c r="B22" s="345"/>
+      <c r="C22" s="344"/>
+      <c r="D22" s="344"/>
+      <c r="E22" s="344"/>
+      <c r="F22" s="346"/>
+      <c r="G22" s="346"/>
+      <c r="H22" s="347"/>
+      <c r="I22" s="347"/>
+      <c r="J22" s="348"/>
+      <c r="K22" s="351"/>
+      <c r="L22" s="349"/>
+      <c r="M22" s="349"/>
+      <c r="N22" s="350"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="345"/>
-      <c r="B23" s="346"/>
-      <c r="C23" s="345"/>
-      <c r="D23" s="345"/>
-      <c r="E23" s="345"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="347"/>
-      <c r="H23" s="348"/>
-      <c r="I23" s="348"/>
-      <c r="J23" s="349"/>
-      <c r="K23" s="352"/>
-      <c r="L23" s="350"/>
-      <c r="M23" s="350"/>
-      <c r="N23" s="351"/>
+      <c r="A23" s="344"/>
+      <c r="B23" s="345"/>
+      <c r="C23" s="344"/>
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="346"/>
+      <c r="G23" s="346"/>
+      <c r="H23" s="347"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="348"/>
+      <c r="K23" s="351"/>
+      <c r="L23" s="349"/>
+      <c r="M23" s="349"/>
+      <c r="N23" s="350"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="402"/>
-      <c r="B24" s="404"/>
-      <c r="C24" s="402"/>
-      <c r="D24" s="402"/>
-      <c r="E24" s="402"/>
-      <c r="F24" s="306"/>
-      <c r="G24" s="306"/>
-      <c r="H24" s="307"/>
-      <c r="I24" s="307"/>
-      <c r="J24" s="308"/>
-      <c r="K24" s="359"/>
-      <c r="L24" s="309"/>
-      <c r="M24" s="309"/>
-      <c r="N24" s="310"/>
+      <c r="A24" s="397"/>
+      <c r="B24" s="400"/>
+      <c r="C24" s="397"/>
+      <c r="D24" s="397"/>
+      <c r="E24" s="397"/>
+      <c r="F24" s="305"/>
+      <c r="G24" s="305"/>
+      <c r="H24" s="306"/>
+      <c r="I24" s="306"/>
+      <c r="J24" s="307"/>
+      <c r="K24" s="358"/>
+      <c r="L24" s="308"/>
+      <c r="M24" s="308"/>
+      <c r="N24" s="309"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="406"/>
-      <c r="B25" s="407"/>
-      <c r="C25" s="406"/>
-      <c r="D25" s="406"/>
-      <c r="E25" s="406"/>
-      <c r="F25" s="311"/>
-      <c r="G25" s="311"/>
-      <c r="H25" s="312"/>
-      <c r="I25" s="312"/>
-      <c r="J25" s="313"/>
-      <c r="K25" s="316"/>
-      <c r="L25" s="314"/>
-      <c r="M25" s="314"/>
-      <c r="N25" s="315"/>
+      <c r="A25" s="398"/>
+      <c r="B25" s="401"/>
+      <c r="C25" s="398"/>
+      <c r="D25" s="398"/>
+      <c r="E25" s="398"/>
+      <c r="F25" s="310"/>
+      <c r="G25" s="310"/>
+      <c r="H25" s="311"/>
+      <c r="I25" s="311"/>
+      <c r="J25" s="312"/>
+      <c r="K25" s="315"/>
+      <c r="L25" s="313"/>
+      <c r="M25" s="313"/>
+      <c r="N25" s="314"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="406"/>
-      <c r="B26" s="407"/>
-      <c r="C26" s="406"/>
-      <c r="D26" s="406"/>
-      <c r="E26" s="406"/>
-      <c r="F26" s="311"/>
-      <c r="G26" s="311"/>
-      <c r="H26" s="312"/>
-      <c r="I26" s="312"/>
-      <c r="J26" s="313"/>
-      <c r="K26" s="316"/>
-      <c r="L26" s="314"/>
-      <c r="M26" s="314"/>
-      <c r="N26" s="315"/>
+      <c r="A26" s="398"/>
+      <c r="B26" s="401"/>
+      <c r="C26" s="398"/>
+      <c r="D26" s="398"/>
+      <c r="E26" s="398"/>
+      <c r="F26" s="310"/>
+      <c r="G26" s="310"/>
+      <c r="H26" s="311"/>
+      <c r="I26" s="311"/>
+      <c r="J26" s="312"/>
+      <c r="K26" s="315"/>
+      <c r="L26" s="313"/>
+      <c r="M26" s="313"/>
+      <c r="N26" s="314"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="406"/>
-      <c r="B27" s="407"/>
-      <c r="C27" s="406"/>
-      <c r="D27" s="406"/>
-      <c r="E27" s="406"/>
-      <c r="F27" s="311"/>
-      <c r="G27" s="311"/>
-      <c r="H27" s="312"/>
-      <c r="I27" s="312"/>
-      <c r="J27" s="313"/>
-      <c r="K27" s="316"/>
-      <c r="L27" s="314"/>
-      <c r="M27" s="314"/>
-      <c r="N27" s="315"/>
+      <c r="A27" s="398"/>
+      <c r="B27" s="401"/>
+      <c r="C27" s="398"/>
+      <c r="D27" s="398"/>
+      <c r="E27" s="398"/>
+      <c r="F27" s="310"/>
+      <c r="G27" s="310"/>
+      <c r="H27" s="311"/>
+      <c r="I27" s="311"/>
+      <c r="J27" s="312"/>
+      <c r="K27" s="315"/>
+      <c r="L27" s="313"/>
+      <c r="M27" s="313"/>
+      <c r="N27" s="314"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="406"/>
-      <c r="B28" s="407"/>
-      <c r="C28" s="406"/>
-      <c r="D28" s="406"/>
-      <c r="E28" s="406"/>
-      <c r="F28" s="311"/>
-      <c r="G28" s="311"/>
-      <c r="H28" s="312"/>
-      <c r="I28" s="312"/>
-      <c r="J28" s="313"/>
-      <c r="K28" s="316"/>
-      <c r="L28" s="314"/>
-      <c r="M28" s="314"/>
-      <c r="N28" s="315"/>
+      <c r="A28" s="398"/>
+      <c r="B28" s="401"/>
+      <c r="C28" s="398"/>
+      <c r="D28" s="398"/>
+      <c r="E28" s="398"/>
+      <c r="F28" s="310"/>
+      <c r="G28" s="310"/>
+      <c r="H28" s="311"/>
+      <c r="I28" s="311"/>
+      <c r="J28" s="312"/>
+      <c r="K28" s="315"/>
+      <c r="L28" s="313"/>
+      <c r="M28" s="313"/>
+      <c r="N28" s="314"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="406"/>
-      <c r="B29" s="407"/>
-      <c r="C29" s="406"/>
-      <c r="D29" s="406"/>
-      <c r="E29" s="406"/>
-      <c r="F29" s="311"/>
-      <c r="G29" s="311"/>
-      <c r="H29" s="312"/>
-      <c r="I29" s="312"/>
-      <c r="J29" s="313"/>
-      <c r="K29" s="316"/>
-      <c r="L29" s="314"/>
-      <c r="M29" s="314"/>
-      <c r="N29" s="315"/>
+      <c r="A29" s="398"/>
+      <c r="B29" s="401"/>
+      <c r="C29" s="398"/>
+      <c r="D29" s="398"/>
+      <c r="E29" s="398"/>
+      <c r="F29" s="310"/>
+      <c r="G29" s="310"/>
+      <c r="H29" s="311"/>
+      <c r="I29" s="311"/>
+      <c r="J29" s="312"/>
+      <c r="K29" s="315"/>
+      <c r="L29" s="313"/>
+      <c r="M29" s="313"/>
+      <c r="N29" s="314"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="403"/>
-      <c r="B30" s="405"/>
-      <c r="C30" s="403"/>
-      <c r="D30" s="403"/>
-      <c r="E30" s="403"/>
-      <c r="F30" s="323"/>
-      <c r="G30" s="323"/>
-      <c r="H30" s="324"/>
-      <c r="I30" s="324"/>
-      <c r="J30" s="325"/>
-      <c r="K30" s="326"/>
-      <c r="L30" s="327"/>
-      <c r="M30" s="327"/>
-      <c r="N30" s="328"/>
+      <c r="A30" s="399"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="399"/>
+      <c r="D30" s="399"/>
+      <c r="E30" s="399"/>
+      <c r="F30" s="322"/>
+      <c r="G30" s="322"/>
+      <c r="H30" s="323"/>
+      <c r="I30" s="323"/>
+      <c r="J30" s="324"/>
+      <c r="K30" s="325"/>
+      <c r="L30" s="326"/>
+      <c r="M30" s="326"/>
+      <c r="N30" s="327"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="408"/>
-      <c r="B31" s="410"/>
-      <c r="C31" s="408"/>
-      <c r="D31" s="408"/>
-      <c r="E31" s="408"/>
-      <c r="F31" s="353"/>
-      <c r="G31" s="353"/>
-      <c r="H31" s="354"/>
-      <c r="I31" s="354"/>
-      <c r="J31" s="355"/>
-      <c r="K31" s="358"/>
-      <c r="L31" s="356"/>
-      <c r="M31" s="356"/>
-      <c r="N31" s="357"/>
+      <c r="A31" s="393"/>
+      <c r="B31" s="395"/>
+      <c r="C31" s="393"/>
+      <c r="D31" s="393"/>
+      <c r="E31" s="393"/>
+      <c r="F31" s="352"/>
+      <c r="G31" s="352"/>
+      <c r="H31" s="353"/>
+      <c r="I31" s="353"/>
+      <c r="J31" s="354"/>
+      <c r="K31" s="357"/>
+      <c r="L31" s="355"/>
+      <c r="M31" s="355"/>
+      <c r="N31" s="356"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="408"/>
-      <c r="B32" s="410"/>
-      <c r="C32" s="408"/>
-      <c r="D32" s="408"/>
-      <c r="E32" s="408"/>
-      <c r="F32" s="317"/>
-      <c r="G32" s="317"/>
-      <c r="H32" s="318"/>
-      <c r="I32" s="318"/>
-      <c r="J32" s="319"/>
-      <c r="K32" s="320"/>
-      <c r="L32" s="321"/>
-      <c r="M32" s="321"/>
-      <c r="N32" s="322"/>
+      <c r="A32" s="393"/>
+      <c r="B32" s="395"/>
+      <c r="C32" s="393"/>
+      <c r="D32" s="393"/>
+      <c r="E32" s="393"/>
+      <c r="F32" s="316"/>
+      <c r="G32" s="316"/>
+      <c r="H32" s="317"/>
+      <c r="I32" s="317"/>
+      <c r="J32" s="318"/>
+      <c r="K32" s="319"/>
+      <c r="L32" s="320"/>
+      <c r="M32" s="320"/>
+      <c r="N32" s="321"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="408"/>
-      <c r="B33" s="410"/>
-      <c r="C33" s="408"/>
-      <c r="D33" s="408"/>
-      <c r="E33" s="408"/>
-      <c r="F33" s="317"/>
-      <c r="G33" s="317"/>
-      <c r="H33" s="318"/>
-      <c r="I33" s="318"/>
-      <c r="J33" s="319"/>
-      <c r="K33" s="320"/>
-      <c r="L33" s="321"/>
-      <c r="M33" s="321"/>
-      <c r="N33" s="322"/>
+      <c r="A33" s="393"/>
+      <c r="B33" s="395"/>
+      <c r="C33" s="393"/>
+      <c r="D33" s="393"/>
+      <c r="E33" s="393"/>
+      <c r="F33" s="316"/>
+      <c r="G33" s="316"/>
+      <c r="H33" s="317"/>
+      <c r="I33" s="317"/>
+      <c r="J33" s="318"/>
+      <c r="K33" s="319"/>
+      <c r="L33" s="320"/>
+      <c r="M33" s="320"/>
+      <c r="N33" s="321"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="409"/>
-      <c r="B34" s="411"/>
-      <c r="C34" s="409"/>
-      <c r="D34" s="409"/>
-      <c r="E34" s="409"/>
-      <c r="F34" s="323"/>
-      <c r="G34" s="323"/>
-      <c r="H34" s="324"/>
-      <c r="I34" s="324"/>
-      <c r="J34" s="325"/>
-      <c r="K34" s="326"/>
-      <c r="L34" s="327"/>
-      <c r="M34" s="327"/>
-      <c r="N34" s="328"/>
-    </row>
-    <row r="35" spans="1:14" s="335" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="392" t="s">
+      <c r="A34" s="394"/>
+      <c r="B34" s="396"/>
+      <c r="C34" s="394"/>
+      <c r="D34" s="394"/>
+      <c r="E34" s="394"/>
+      <c r="F34" s="322"/>
+      <c r="G34" s="322"/>
+      <c r="H34" s="323"/>
+      <c r="I34" s="323"/>
+      <c r="J34" s="324"/>
+      <c r="K34" s="325"/>
+      <c r="L34" s="326"/>
+      <c r="M34" s="326"/>
+      <c r="N34" s="327"/>
+    </row>
+    <row r="35" spans="1:14" s="334" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="403" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="392"/>
-      <c r="C35" s="392"/>
-      <c r="D35" s="392"/>
-      <c r="E35" s="392"/>
-      <c r="F35" s="329"/>
-      <c r="G35" s="329">
+      <c r="B35" s="403"/>
+      <c r="C35" s="403"/>
+      <c r="D35" s="403"/>
+      <c r="E35" s="403"/>
+      <c r="F35" s="328"/>
+      <c r="G35" s="328">
         <f>SUM(G7:G34)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="330"/>
-      <c r="I35" s="330">
+      <c r="H35" s="329"/>
+      <c r="I35" s="329">
         <f>SUM(I7:I34)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="331"/>
-      <c r="K35" s="332">
+      <c r="J35" s="330"/>
+      <c r="K35" s="331">
         <f>SUM(K7:K34)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="333"/>
-      <c r="M35" s="333"/>
-      <c r="N35" s="334">
+      <c r="L35" s="332"/>
+      <c r="M35" s="332"/>
+      <c r="N35" s="333">
         <f>SUM(N7:N34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="336"/>
-      <c r="H36" s="336"/>
+      <c r="G36" s="335"/>
+      <c r="H36" s="335"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G37" s="336"/>
-      <c r="H37" s="336"/>
-    </row>
-    <row r="38" spans="1:14" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="338"/>
-      <c r="E38" s="339" t="s">
+      <c r="G37" s="335"/>
+      <c r="H37" s="335"/>
+    </row>
+    <row r="38" spans="1:14" s="336" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="337"/>
+      <c r="E38" s="338" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="338"/>
-      <c r="G38" s="338"/>
-      <c r="H38" s="338"/>
-      <c r="K38" s="339"/>
-      <c r="L38" s="339" t="s">
+      <c r="F38" s="337"/>
+      <c r="G38" s="337"/>
+      <c r="H38" s="337"/>
+      <c r="K38" s="338"/>
+      <c r="L38" s="338" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="337" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="340"/>
-      <c r="E39" s="341" t="s">
+    <row r="39" spans="1:14" s="336" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="339"/>
+      <c r="E39" s="340" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="340"/>
-      <c r="G39" s="340"/>
-      <c r="H39" s="340"/>
-      <c r="K39" s="341"/>
-      <c r="L39" s="341" t="s">
+      <c r="F39" s="339"/>
+      <c r="G39" s="339"/>
+      <c r="H39" s="339"/>
+      <c r="K39" s="340"/>
+      <c r="L39" s="340" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G40" s="336"/>
-      <c r="H40" s="336"/>
+      <c r="G40" s="335"/>
+      <c r="H40" s="335"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G41" s="336"/>
-      <c r="H41" s="336"/>
-    </row>
-    <row r="42" spans="1:14" s="342" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="339"/>
-      <c r="E42" s="339"/>
-      <c r="F42" s="343"/>
-      <c r="K42" s="344"/>
-      <c r="L42" s="296"/>
-      <c r="M42" s="296"/>
-      <c r="N42" s="296"/>
+      <c r="G41" s="335"/>
+      <c r="H41" s="335"/>
+    </row>
+    <row r="42" spans="1:14" s="341" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="338"/>
+      <c r="E42" s="338"/>
+      <c r="F42" s="342"/>
+      <c r="K42" s="343"/>
+      <c r="L42" s="295"/>
+      <c r="M42" s="295"/>
+      <c r="N42" s="295"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G43" s="336"/>
-      <c r="H43" s="336"/>
+      <c r="G43" s="335"/>
+      <c r="H43" s="335"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G44" s="336"/>
-      <c r="H44" s="336"/>
+      <c r="G44" s="335"/>
+      <c r="H44" s="335"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G45" s="336"/>
-      <c r="H45" s="336"/>
+      <c r="G45" s="335"/>
+      <c r="H45" s="335"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -6067,6 +6113,30 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6127,24 +6197,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="412" t="s">
+      <c r="A4" s="413" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="412"/>
-      <c r="C4" s="412"/>
-      <c r="D4" s="412"/>
-      <c r="E4" s="412"/>
+      <c r="B4" s="413"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="413"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="413" t="s">
+      <c r="A5" s="414" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="413"/>
-      <c r="C5" s="413"/>
-      <c r="D5" s="413"/>
-      <c r="E5" s="413"/>
+      <c r="B5" s="414"/>
+      <c r="C5" s="414"/>
+      <c r="D5" s="414"/>
+      <c r="E5" s="414"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -6223,7 +6293,7 @@
         <f>'DOANH THU'!L80</f>
         <v>0</v>
       </c>
-      <c r="E10" s="414">
+      <c r="E10" s="415">
         <f>D10+D11+D12</f>
         <v>0</v>
       </c>
@@ -6242,7 +6312,7 @@
         <f>'DOANH THU'!L81</f>
         <v>0</v>
       </c>
-      <c r="E11" s="415"/>
+      <c r="E11" s="416"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -6253,7 +6323,7 @@
       <c r="B12" s="119"/>
       <c r="C12" s="119"/>
       <c r="D12" s="142"/>
-      <c r="E12" s="416"/>
+      <c r="E12" s="417"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
@@ -6528,350 +6598,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="425" t="s">
+      <c r="A1" s="418" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="425"/>
-      <c r="C1" s="425"/>
-      <c r="D1" s="425"/>
-      <c r="E1" s="425"/>
+      <c r="B1" s="418"/>
+      <c r="C1" s="418"/>
+      <c r="D1" s="418"/>
+      <c r="E1" s="418"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="263" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="426" t="s">
+      <c r="A4" s="419" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="426"/>
-      <c r="C4" s="426"/>
-      <c r="D4" s="426"/>
-      <c r="E4" s="426"/>
-      <c r="F4" s="426"/>
-      <c r="G4" s="426"/>
-      <c r="H4" s="426"/>
+      <c r="B4" s="419"/>
+      <c r="C4" s="419"/>
+      <c r="D4" s="419"/>
+      <c r="E4" s="419"/>
+      <c r="F4" s="419"/>
+      <c r="G4" s="419"/>
+      <c r="H4" s="419"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="427" t="s">
+      <c r="A6" s="420" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="427"/>
-      <c r="C6" s="427"/>
-      <c r="D6" s="427"/>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="428" t="s">
+      <c r="B6" s="420"/>
+      <c r="C6" s="420"/>
+      <c r="D6" s="420"/>
+      <c r="E6" s="420"/>
+      <c r="F6" s="420"/>
+      <c r="G6" s="421" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="428"/>
+      <c r="H6" s="421"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="441" t="s">
+      <c r="A7" s="434" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="442"/>
-      <c r="C7" s="273"/>
-      <c r="D7" s="274"/>
+      <c r="B7" s="435"/>
+      <c r="C7" s="272"/>
+      <c r="D7" s="273"/>
       <c r="E7" s="65" t="s">
         <v>140</v>
       </c>
       <c r="F7" s="65"/>
-      <c r="G7" s="439">
+      <c r="G7" s="432">
         <v>4744538</v>
       </c>
-      <c r="H7" s="440"/>
+      <c r="H7" s="433"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="443"/>
-      <c r="B8" s="444"/>
-      <c r="C8" s="273"/>
-      <c r="D8" s="274"/>
+      <c r="A8" s="436"/>
+      <c r="B8" s="437"/>
+      <c r="C8" s="272"/>
+      <c r="D8" s="273"/>
       <c r="E8" s="65" t="s">
         <v>141</v>
       </c>
       <c r="F8" s="65"/>
-      <c r="G8" s="439">
+      <c r="G8" s="432">
         <v>6713000</v>
       </c>
-      <c r="H8" s="440"/>
+      <c r="H8" s="433"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="429" t="s">
+      <c r="A9" s="422" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="430"/>
-      <c r="C9" s="430"/>
-      <c r="D9" s="431"/>
-      <c r="E9" s="265" t="s">
+      <c r="B9" s="423"/>
+      <c r="C9" s="423"/>
+      <c r="D9" s="424"/>
+      <c r="E9" s="264" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="266">
+      <c r="F9" s="265">
         <v>260000</v>
       </c>
-      <c r="G9" s="435">
+      <c r="G9" s="428">
         <f>SUM(F9:F13)</f>
         <v>3477000</v>
       </c>
-      <c r="H9" s="436"/>
+      <c r="H9" s="429"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="432"/>
-      <c r="B10" s="433"/>
-      <c r="C10" s="433"/>
-      <c r="D10" s="434"/>
-      <c r="E10" s="265" t="s">
+      <c r="A10" s="425"/>
+      <c r="B10" s="426"/>
+      <c r="C10" s="426"/>
+      <c r="D10" s="427"/>
+      <c r="E10" s="264" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="266">
+      <c r="F10" s="265">
         <v>877000</v>
       </c>
-      <c r="G10" s="437"/>
-      <c r="H10" s="438"/>
+      <c r="G10" s="430"/>
+      <c r="H10" s="431"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="432"/>
-      <c r="B11" s="433"/>
-      <c r="C11" s="433"/>
-      <c r="D11" s="434"/>
-      <c r="E11" s="265" t="s">
+      <c r="A11" s="425"/>
+      <c r="B11" s="426"/>
+      <c r="C11" s="426"/>
+      <c r="D11" s="427"/>
+      <c r="E11" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="266">
+      <c r="F11" s="265">
         <v>441000</v>
       </c>
-      <c r="G11" s="437"/>
-      <c r="H11" s="438"/>
+      <c r="G11" s="430"/>
+      <c r="H11" s="431"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="432"/>
-      <c r="B12" s="433"/>
-      <c r="C12" s="433"/>
-      <c r="D12" s="434"/>
-      <c r="E12" s="265" t="s">
+      <c r="A12" s="425"/>
+      <c r="B12" s="426"/>
+      <c r="C12" s="426"/>
+      <c r="D12" s="427"/>
+      <c r="E12" s="264" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="266">
+      <c r="F12" s="265">
         <v>892000</v>
       </c>
-      <c r="G12" s="437"/>
-      <c r="H12" s="438"/>
+      <c r="G12" s="430"/>
+      <c r="H12" s="431"/>
     </row>
     <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="432"/>
-      <c r="B13" s="433"/>
-      <c r="C13" s="433"/>
-      <c r="D13" s="434"/>
-      <c r="E13" s="275" t="s">
+      <c r="A13" s="425"/>
+      <c r="B13" s="426"/>
+      <c r="C13" s="426"/>
+      <c r="D13" s="427"/>
+      <c r="E13" s="274" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="266">
+      <c r="F13" s="265">
         <v>1007000</v>
       </c>
-      <c r="G13" s="437"/>
-      <c r="H13" s="438"/>
+      <c r="G13" s="430"/>
+      <c r="H13" s="431"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="420" t="s">
+      <c r="A14" s="441" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="420"/>
-      <c r="C14" s="420"/>
-      <c r="D14" s="420"/>
-      <c r="E14" s="420"/>
-      <c r="F14" s="420"/>
-      <c r="G14" s="421">
+      <c r="B14" s="441"/>
+      <c r="C14" s="441"/>
+      <c r="D14" s="441"/>
+      <c r="E14" s="441"/>
+      <c r="F14" s="441"/>
+      <c r="G14" s="442">
         <f>'Bảng lương'!J12</f>
-        <v>6576923.076923077</v>
-      </c>
-      <c r="H14" s="421"/>
+        <v>6000000</v>
+      </c>
+      <c r="H14" s="442"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="422" t="s">
+      <c r="A15" s="443" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="422"/>
-      <c r="C15" s="422"/>
-      <c r="D15" s="422"/>
-      <c r="E15" s="422"/>
-      <c r="F15" s="422"/>
-      <c r="G15" s="423">
+      <c r="B15" s="443"/>
+      <c r="C15" s="443"/>
+      <c r="D15" s="443"/>
+      <c r="E15" s="443"/>
+      <c r="F15" s="443"/>
+      <c r="G15" s="444">
         <f>G7+G8+G9+G14</f>
-        <v>21511461.076923076</v>
-      </c>
-      <c r="H15" s="423"/>
+        <v>20934538</v>
+      </c>
+      <c r="H15" s="444"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="283" t="s">
+      <c r="A17" s="282" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="276"/>
-      <c r="C17" s="276"/>
-      <c r="D17" s="276"/>
-      <c r="E17" s="276"/>
+      <c r="B17" s="275"/>
+      <c r="C17" s="275"/>
+      <c r="D17" s="275"/>
+      <c r="E17" s="275"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="424">
+      <c r="A18" s="445">
         <v>44106</v>
       </c>
-      <c r="B18" s="424"/>
-      <c r="C18" s="277"/>
-      <c r="D18" s="277"/>
-      <c r="E18" s="277" t="s">
+      <c r="B18" s="445"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="276"/>
+      <c r="E18" s="276" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="278">
+      <c r="F18" s="277">
         <v>455000</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="424">
+      <c r="A19" s="445">
         <v>44116</v>
       </c>
-      <c r="B19" s="424"/>
-      <c r="C19" s="277"/>
-      <c r="D19" s="277"/>
-      <c r="E19" s="277" t="s">
+      <c r="B19" s="445"/>
+      <c r="C19" s="276"/>
+      <c r="D19" s="276"/>
+      <c r="E19" s="276" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="278">
+      <c r="F19" s="277">
         <v>2000000</v>
       </c>
-      <c r="K19" s="282"/>
+      <c r="K19" s="281"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="424">
+      <c r="A20" s="445">
         <v>44120</v>
       </c>
-      <c r="B20" s="424"/>
-      <c r="C20" s="277"/>
-      <c r="D20" s="277"/>
-      <c r="E20" s="277" t="s">
+      <c r="B20" s="445"/>
+      <c r="C20" s="276"/>
+      <c r="D20" s="276"/>
+      <c r="E20" s="276" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="278">
+      <c r="F20" s="277">
         <v>2000000</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="424">
+      <c r="A21" s="445">
         <v>44128</v>
       </c>
-      <c r="B21" s="424"/>
-      <c r="C21" s="277"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="277" t="s">
+      <c r="B21" s="445"/>
+      <c r="C21" s="276"/>
+      <c r="D21" s="276"/>
+      <c r="E21" s="276" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="278">
+      <c r="F21" s="277">
         <v>2200000</v>
       </c>
-      <c r="K21" s="282"/>
+      <c r="K21" s="281"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="424">
+      <c r="A22" s="445">
         <v>44129</v>
       </c>
-      <c r="B22" s="424"/>
-      <c r="C22" s="277"/>
-      <c r="D22" s="277"/>
-      <c r="E22" s="277" t="s">
+      <c r="B22" s="445"/>
+      <c r="C22" s="276"/>
+      <c r="D22" s="276"/>
+      <c r="E22" s="276" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="278">
+      <c r="F22" s="277">
         <v>418900</v>
       </c>
-      <c r="K22" s="282"/>
+      <c r="K22" s="281"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="424">
+      <c r="A23" s="445">
         <v>44131</v>
       </c>
-      <c r="B23" s="424"/>
-      <c r="C23" s="277"/>
-      <c r="D23" s="277"/>
-      <c r="E23" s="291" t="s">
+      <c r="B23" s="445"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="290" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="278">
+      <c r="F23" s="277">
         <v>435000</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="417" t="s">
+      <c r="A24" s="438" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="418"/>
-      <c r="C24" s="418"/>
-      <c r="D24" s="418"/>
-      <c r="E24" s="419"/>
-      <c r="F24" s="284">
+      <c r="B24" s="439"/>
+      <c r="C24" s="439"/>
+      <c r="D24" s="439"/>
+      <c r="E24" s="440"/>
+      <c r="F24" s="283">
         <f>SUM(F18:F23)</f>
         <v>7508900</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="279"/>
-      <c r="B25" s="279"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
-      <c r="E25" s="281"/>
+      <c r="A25" s="278"/>
+      <c r="B25" s="278"/>
+      <c r="C25" s="279"/>
+      <c r="D25" s="279"/>
+      <c r="E25" s="280"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="286" t="s">
+      <c r="A26" s="285" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="287"/>
-      <c r="C26" s="288"/>
-      <c r="D26" s="288"/>
-      <c r="E26" s="289"/>
-      <c r="F26" s="285">
+      <c r="B26" s="286"/>
+      <c r="C26" s="287"/>
+      <c r="D26" s="287"/>
+      <c r="E26" s="288"/>
+      <c r="F26" s="284">
         <f>G15-F24</f>
-        <v>14002561.076923076</v>
+        <v>13425638</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="279"/>
-      <c r="B27" s="279"/>
-      <c r="C27" s="280"/>
-      <c r="D27" s="280"/>
-      <c r="E27" s="281"/>
-    </row>
-    <row r="29" spans="1:11" s="268" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="267" t="s">
+      <c r="A27" s="278"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="279"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="280"/>
+    </row>
+    <row r="29" spans="1:11" s="267" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="266" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="267" t="s">
+      <c r="C29" s="266" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="269"/>
-      <c r="G29" s="267" t="s">
+      <c r="F29" s="268"/>
+      <c r="G29" s="266" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="270"/>
-    </row>
-    <row r="30" spans="1:11" s="268" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="271" t="s">
+      <c r="K29" s="269"/>
+    </row>
+    <row r="30" spans="1:11" s="267" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="271" t="s">
+      <c r="C30" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="272"/>
-      <c r="G30" s="271" t="s">
+      <c r="F30" s="271"/>
+      <c r="G30" s="270" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6881,48 +6951,39 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="277" t="s">
+      <c r="E32" s="276" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="278">
+      <c r="F32" s="277">
         <v>3000000</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="277" t="s">
+      <c r="E33" s="276" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="278">
+      <c r="F33" s="277">
         <v>5000000</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="277" t="s">
+      <c r="E34" s="276" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="278">
+      <c r="F34" s="277">
         <f>23*2000*5</f>
         <v>230000</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="277"/>
-      <c r="F35" s="290">
+      <c r="E35" s="276"/>
+      <c r="F35" s="289">
         <f>SUM(F32:F34)</f>
         <v>8230000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A9:D13"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A7:B8"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -6934,6 +6995,15 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A9:D13"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6945,7 +7015,7 @@
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7474,16 +7544,16 @@
       <c r="C1" s="222"/>
       <c r="D1" s="222"/>
       <c r="E1" s="222"/>
-      <c r="Z1" s="450" t="s">
+      <c r="Z1" s="464" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="451"/>
-      <c r="AB1" s="451"/>
-      <c r="AC1" s="451"/>
-      <c r="AD1" s="451"/>
-      <c r="AE1" s="451"/>
-      <c r="AF1" s="451"/>
-      <c r="AG1" s="452"/>
+      <c r="AA1" s="465"/>
+      <c r="AB1" s="465"/>
+      <c r="AC1" s="465"/>
+      <c r="AD1" s="465"/>
+      <c r="AE1" s="465"/>
+      <c r="AF1" s="465"/>
+      <c r="AG1" s="466"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="225" t="s">
@@ -7493,18 +7563,18 @@
       <c r="C2" s="226"/>
       <c r="D2" s="226"/>
       <c r="E2" s="226"/>
-      <c r="Z2" s="445" t="s">
+      <c r="Z2" s="447" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" s="446"/>
-      <c r="AB2" s="446"/>
-      <c r="AC2" s="446"/>
-      <c r="AD2" s="446"/>
-      <c r="AE2" s="447"/>
-      <c r="AF2" s="448" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG2" s="449"/>
+      <c r="AA2" s="448"/>
+      <c r="AB2" s="448"/>
+      <c r="AC2" s="448"/>
+      <c r="AD2" s="448"/>
+      <c r="AE2" s="449"/>
+      <c r="AF2" s="450" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG2" s="451"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="225" t="s">
@@ -7514,18 +7584,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="445" t="s">
+      <c r="Z3" s="447" t="s">
         <v>112</v>
       </c>
-      <c r="AA3" s="446"/>
-      <c r="AB3" s="446"/>
-      <c r="AC3" s="446"/>
-      <c r="AD3" s="446"/>
-      <c r="AE3" s="447"/>
-      <c r="AF3" s="448" t="s">
+      <c r="AA3" s="448"/>
+      <c r="AB3" s="448"/>
+      <c r="AC3" s="448"/>
+      <c r="AD3" s="448"/>
+      <c r="AE3" s="449"/>
+      <c r="AF3" s="450" t="s">
         <v>113</v>
       </c>
-      <c r="AG3" s="449"/>
+      <c r="AG3" s="451"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="225" t="s">
@@ -7538,18 +7608,18 @@
       <c r="T4" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="445" t="s">
+      <c r="Z4" s="447" t="s">
         <v>115</v>
       </c>
-      <c r="AA4" s="446"/>
-      <c r="AB4" s="446"/>
-      <c r="AC4" s="446"/>
-      <c r="AD4" s="446"/>
-      <c r="AE4" s="447"/>
-      <c r="AF4" s="448" t="s">
+      <c r="AA4" s="448"/>
+      <c r="AB4" s="448"/>
+      <c r="AC4" s="448"/>
+      <c r="AD4" s="448"/>
+      <c r="AE4" s="449"/>
+      <c r="AF4" s="450" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="449"/>
+      <c r="AG4" s="451"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="225" t="s">
@@ -7559,18 +7629,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="445" t="s">
+      <c r="Z5" s="447" t="s">
         <v>118</v>
       </c>
-      <c r="AA5" s="446"/>
-      <c r="AB5" s="446"/>
-      <c r="AC5" s="446"/>
-      <c r="AD5" s="446"/>
-      <c r="AE5" s="447"/>
-      <c r="AF5" s="448" t="s">
+      <c r="AA5" s="448"/>
+      <c r="AB5" s="448"/>
+      <c r="AC5" s="448"/>
+      <c r="AD5" s="448"/>
+      <c r="AE5" s="449"/>
+      <c r="AF5" s="450" t="s">
         <v>119</v>
       </c>
-      <c r="AG5" s="449"/>
+      <c r="AG5" s="451"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="227"/>
@@ -7580,93 +7650,93 @@
       <c r="E6" s="227"/>
     </row>
     <row r="7" spans="1:40" s="230" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="454" t="s">
+      <c r="A7" s="452" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="454"/>
-      <c r="C7" s="454"/>
-      <c r="D7" s="454"/>
-      <c r="E7" s="454"/>
-      <c r="F7" s="454"/>
-      <c r="G7" s="454"/>
-      <c r="H7" s="454"/>
-      <c r="I7" s="454"/>
-      <c r="J7" s="454"/>
-      <c r="K7" s="454"/>
-      <c r="L7" s="454"/>
-      <c r="M7" s="454"/>
-      <c r="N7" s="454"/>
-      <c r="O7" s="454"/>
-      <c r="P7" s="454"/>
-      <c r="Q7" s="454"/>
-      <c r="R7" s="454"/>
-      <c r="S7" s="454"/>
-      <c r="T7" s="454"/>
-      <c r="U7" s="454"/>
-      <c r="V7" s="454"/>
-      <c r="W7" s="454"/>
-      <c r="X7" s="454"/>
-      <c r="Y7" s="454"/>
-      <c r="Z7" s="454"/>
-      <c r="AA7" s="454"/>
-      <c r="AB7" s="454"/>
-      <c r="AC7" s="454"/>
-      <c r="AD7" s="454"/>
-      <c r="AE7" s="454"/>
-      <c r="AF7" s="454"/>
-      <c r="AG7" s="454"/>
-      <c r="AH7" s="454"/>
-      <c r="AI7" s="454"/>
-      <c r="AJ7" s="454"/>
-      <c r="AK7" s="454"/>
-      <c r="AL7" s="454"/>
-      <c r="AM7" s="454"/>
+      <c r="B7" s="452"/>
+      <c r="C7" s="452"/>
+      <c r="D7" s="452"/>
+      <c r="E7" s="452"/>
+      <c r="F7" s="452"/>
+      <c r="G7" s="452"/>
+      <c r="H7" s="452"/>
+      <c r="I7" s="452"/>
+      <c r="J7" s="452"/>
+      <c r="K7" s="452"/>
+      <c r="L7" s="452"/>
+      <c r="M7" s="452"/>
+      <c r="N7" s="452"/>
+      <c r="O7" s="452"/>
+      <c r="P7" s="452"/>
+      <c r="Q7" s="452"/>
+      <c r="R7" s="452"/>
+      <c r="S7" s="452"/>
+      <c r="T7" s="452"/>
+      <c r="U7" s="452"/>
+      <c r="V7" s="452"/>
+      <c r="W7" s="452"/>
+      <c r="X7" s="452"/>
+      <c r="Y7" s="452"/>
+      <c r="Z7" s="452"/>
+      <c r="AA7" s="452"/>
+      <c r="AB7" s="452"/>
+      <c r="AC7" s="452"/>
+      <c r="AD7" s="452"/>
+      <c r="AE7" s="452"/>
+      <c r="AF7" s="452"/>
+      <c r="AG7" s="452"/>
+      <c r="AH7" s="452"/>
+      <c r="AI7" s="452"/>
+      <c r="AJ7" s="452"/>
+      <c r="AK7" s="452"/>
+      <c r="AL7" s="452"/>
+      <c r="AM7" s="452"/>
       <c r="AN7" s="229"/>
     </row>
     <row r="9" spans="1:40" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="455" t="s">
+      <c r="A9" s="453" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="455" t="s">
+      <c r="B9" s="453" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="455" t="s">
+      <c r="C9" s="453" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="458" t="s">
+      <c r="D9" s="456" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="459"/>
-      <c r="F9" s="459"/>
-      <c r="G9" s="459"/>
-      <c r="H9" s="459"/>
-      <c r="I9" s="459"/>
-      <c r="J9" s="459"/>
-      <c r="K9" s="459"/>
-      <c r="L9" s="459"/>
-      <c r="M9" s="459"/>
-      <c r="N9" s="459"/>
-      <c r="O9" s="459"/>
-      <c r="P9" s="459"/>
-      <c r="Q9" s="459"/>
-      <c r="R9" s="459"/>
-      <c r="S9" s="459"/>
-      <c r="T9" s="459"/>
-      <c r="U9" s="459"/>
-      <c r="V9" s="459"/>
-      <c r="W9" s="459"/>
-      <c r="X9" s="459"/>
-      <c r="Y9" s="459"/>
-      <c r="Z9" s="459"/>
-      <c r="AA9" s="459"/>
-      <c r="AB9" s="459"/>
-      <c r="AC9" s="459"/>
-      <c r="AD9" s="459"/>
-      <c r="AE9" s="459"/>
-      <c r="AF9" s="459"/>
-      <c r="AG9" s="459"/>
-      <c r="AH9" s="460"/>
-      <c r="AI9" s="461" t="s">
+      <c r="E9" s="457"/>
+      <c r="F9" s="457"/>
+      <c r="G9" s="457"/>
+      <c r="H9" s="457"/>
+      <c r="I9" s="457"/>
+      <c r="J9" s="457"/>
+      <c r="K9" s="457"/>
+      <c r="L9" s="457"/>
+      <c r="M9" s="457"/>
+      <c r="N9" s="457"/>
+      <c r="O9" s="457"/>
+      <c r="P9" s="457"/>
+      <c r="Q9" s="457"/>
+      <c r="R9" s="457"/>
+      <c r="S9" s="457"/>
+      <c r="T9" s="457"/>
+      <c r="U9" s="457"/>
+      <c r="V9" s="457"/>
+      <c r="W9" s="457"/>
+      <c r="X9" s="457"/>
+      <c r="Y9" s="457"/>
+      <c r="Z9" s="457"/>
+      <c r="AA9" s="457"/>
+      <c r="AB9" s="457"/>
+      <c r="AC9" s="457"/>
+      <c r="AD9" s="457"/>
+      <c r="AE9" s="457"/>
+      <c r="AF9" s="457"/>
+      <c r="AG9" s="457"/>
+      <c r="AH9" s="458"/>
+      <c r="AI9" s="459" t="s">
         <v>124</v>
       </c>
       <c r="AJ9" s="231"/>
@@ -7676,9 +7746,9 @@
       <c r="AN9" s="234"/>
     </row>
     <row r="10" spans="1:40" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="456"/>
-      <c r="B10" s="456"/>
-      <c r="C10" s="456"/>
+      <c r="A10" s="454"/>
+      <c r="B10" s="454"/>
+      <c r="C10" s="454"/>
       <c r="D10" s="236">
         <v>1</v>
       </c>
@@ -7772,7 +7842,7 @@
       <c r="AH10" s="236">
         <v>31</v>
       </c>
-      <c r="AI10" s="461"/>
+      <c r="AI10" s="459"/>
       <c r="AJ10" s="237"/>
       <c r="AK10" s="233"/>
       <c r="AL10" s="233"/>
@@ -7780,103 +7850,103 @@
       <c r="AN10" s="234"/>
     </row>
     <row r="11" spans="1:40" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="457"/>
-      <c r="B11" s="457"/>
-      <c r="C11" s="457"/>
-      <c r="D11" s="236" t="s">
+      <c r="A11" s="455"/>
+      <c r="B11" s="455"/>
+      <c r="C11" s="455"/>
+      <c r="D11" s="239" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="238" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="238" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="236" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="238" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="236" t="s">
+      <c r="I11" s="236" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="238" t="s">
+      <c r="J11" s="238" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="239" t="s">
+      <c r="K11" s="239" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="238" t="s">
+      <c r="L11" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="238" t="s">
+      <c r="M11" s="238" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="236" t="s">
+      <c r="N11" s="236" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="238" t="s">
+      <c r="O11" s="238" t="s">
         <v>126</v>
       </c>
-      <c r="L11" s="236" t="s">
+      <c r="P11" s="236" t="s">
         <v>127</v>
       </c>
-      <c r="M11" s="238" t="s">
+      <c r="Q11" s="238" t="s">
         <v>128</v>
       </c>
-      <c r="N11" s="239" t="s">
+      <c r="R11" s="239" t="s">
         <v>129</v>
       </c>
-      <c r="O11" s="238" t="s">
+      <c r="S11" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="P11" s="238" t="s">
+      <c r="T11" s="236" t="s">
         <v>131</v>
       </c>
-      <c r="Q11" s="236" t="s">
+      <c r="U11" s="238" t="s">
         <v>125</v>
       </c>
-      <c r="R11" s="238" t="s">
+      <c r="V11" s="238" t="s">
         <v>126</v>
       </c>
-      <c r="S11" s="236" t="s">
+      <c r="W11" s="238" t="s">
         <v>127</v>
       </c>
-      <c r="T11" s="238" t="s">
+      <c r="X11" s="238" t="s">
         <v>128</v>
       </c>
-      <c r="U11" s="239" t="s">
+      <c r="Y11" s="239" t="s">
         <v>129</v>
       </c>
-      <c r="V11" s="238" t="s">
+      <c r="Z11" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="W11" s="236" t="s">
+      <c r="AA11" s="236" t="s">
         <v>131</v>
       </c>
-      <c r="X11" s="238" t="s">
+      <c r="AB11" s="238" t="s">
         <v>125</v>
       </c>
-      <c r="Y11" s="238" t="s">
+      <c r="AC11" s="238" t="s">
         <v>126</v>
       </c>
-      <c r="Z11" s="238" t="s">
+      <c r="AD11" s="238" t="s">
         <v>127</v>
       </c>
-      <c r="AA11" s="238" t="s">
+      <c r="AE11" s="238" t="s">
         <v>128</v>
       </c>
-      <c r="AB11" s="239" t="s">
+      <c r="AF11" s="239" t="s">
         <v>129</v>
       </c>
-      <c r="AC11" s="238" t="s">
+      <c r="AG11" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="AD11" s="236" t="s">
+      <c r="AH11" s="236" t="s">
         <v>131</v>
       </c>
-      <c r="AE11" s="238" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF11" s="238" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG11" s="238" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH11" s="238" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI11" s="461"/>
+      <c r="AI11" s="459"/>
       <c r="AJ11" s="240"/>
       <c r="AN11" s="242"/>
     </row>
@@ -7890,16 +7960,14 @@
       <c r="C12" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="238" t="s">
-        <v>110</v>
-      </c>
+      <c r="D12" s="244"/>
       <c r="E12" s="238" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="238" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="244" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="238" t="s">
         <v>110</v>
       </c>
       <c r="H12" s="238" t="s">
@@ -7911,16 +7979,16 @@
       <c r="J12" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="K12" s="238" t="s">
+      <c r="K12" s="244" t="s">
         <v>110</v>
       </c>
       <c r="L12" s="238" t="s">
         <v>110</v>
       </c>
       <c r="M12" s="238" t="s">
-        <v>113</v>
-      </c>
-      <c r="N12" s="244" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" s="238" t="s">
         <v>110</v>
       </c>
       <c r="O12" s="238" t="s">
@@ -7932,16 +8000,16 @@
       <c r="Q12" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="R12" s="238" t="s">
-        <v>110</v>
-      </c>
+      <c r="R12" s="244"/>
       <c r="S12" s="238" t="s">
         <v>110</v>
       </c>
       <c r="T12" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="U12" s="244"/>
+      <c r="U12" s="238" t="s">
+        <v>110</v>
+      </c>
       <c r="V12" s="238" t="s">
         <v>110</v>
       </c>
@@ -7951,16 +8019,16 @@
       <c r="X12" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="Y12" s="238" t="s">
-        <v>110</v>
-      </c>
+      <c r="Y12" s="244"/>
       <c r="Z12" s="238" t="s">
         <v>110</v>
       </c>
       <c r="AA12" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="AB12" s="244"/>
+      <c r="AB12" s="238" t="s">
+        <v>110</v>
+      </c>
       <c r="AC12" s="238" t="s">
         <v>110</v>
       </c>
@@ -7970,9 +8038,7 @@
       <c r="AE12" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="AF12" s="238" t="s">
-        <v>110</v>
-      </c>
+      <c r="AF12" s="244"/>
       <c r="AG12" s="238" t="s">
         <v>110</v>
       </c>
@@ -7981,7 +8047,7 @@
       </c>
       <c r="AI12" s="245">
         <f>COUNTIF(D12:AH12,"x")+ COUNTIF(D12:AH12,"x/2")/2+COUNTIF(D12:AH12,"CT")+COUNTIF(D12:AH12,"TT")</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ12" s="240"/>
       <c r="AN12" s="242"/>
@@ -7996,59 +8062,55 @@
       <c r="C13" s="247" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="238" t="s">
-        <v>110</v>
-      </c>
+      <c r="D13" s="244"/>
       <c r="E13" s="238" t="s">
         <v>110</v>
       </c>
       <c r="F13" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="244" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="238" t="s">
-        <v>110</v>
-      </c>
       <c r="L13" s="238" t="s">
         <v>110</v>
       </c>
       <c r="M13" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" s="238" t="s">
         <v>113</v>
       </c>
-      <c r="N13" s="244" t="s">
-        <v>110</v>
-      </c>
-      <c r="O13" s="238" t="s">
-        <v>110</v>
-      </c>
       <c r="P13" s="238" t="s">
         <v>110</v>
       </c>
       <c r="Q13" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="R13" s="238" t="s">
-        <v>110</v>
-      </c>
+      <c r="R13" s="244"/>
       <c r="S13" s="238" t="s">
         <v>110</v>
       </c>
       <c r="T13" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="U13" s="244" t="s">
-        <v>113</v>
+      <c r="U13" s="238" t="s">
+        <v>110</v>
       </c>
       <c r="V13" s="238" t="s">
         <v>110</v>
@@ -8059,16 +8121,16 @@
       <c r="X13" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="Y13" s="238" t="s">
-        <v>110</v>
-      </c>
+      <c r="Y13" s="244"/>
       <c r="Z13" s="238" t="s">
         <v>110</v>
       </c>
       <c r="AA13" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="AB13" s="244"/>
+      <c r="AB13" s="238" t="s">
+        <v>110</v>
+      </c>
       <c r="AC13" s="238" t="s">
         <v>110</v>
       </c>
@@ -8078,9 +8140,7 @@
       <c r="AE13" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="AF13" s="238" t="s">
-        <v>110</v>
-      </c>
+      <c r="AF13" s="244"/>
       <c r="AG13" s="238" t="s">
         <v>110</v>
       </c>
@@ -8089,7 +8149,7 @@
       </c>
       <c r="AI13" s="245">
         <f t="shared" ref="AI13:AI15" si="0">COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")</f>
-        <v>28.5</v>
+        <v>26</v>
       </c>
       <c r="AJ13" s="240"/>
       <c r="AN13" s="242"/>
@@ -8104,16 +8164,16 @@
       <c r="C14" s="247" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="238" t="s">
-        <v>110</v>
-      </c>
+      <c r="D14" s="244"/>
       <c r="E14" s="238" t="s">
         <v>110</v>
       </c>
       <c r="F14" s="238" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="244"/>
+        <v>110</v>
+      </c>
+      <c r="G14" s="238" t="s">
+        <v>110</v>
+      </c>
       <c r="H14" s="238" t="s">
         <v>110</v>
       </c>
@@ -8123,16 +8183,18 @@
       <c r="J14" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="K14" s="238" t="s">
+      <c r="K14" s="244" t="s">
         <v>110</v>
       </c>
       <c r="L14" s="238" t="s">
         <v>110</v>
       </c>
       <c r="M14" s="238" t="s">
-        <v>113</v>
-      </c>
-      <c r="N14" s="244"/>
+        <v>110</v>
+      </c>
+      <c r="N14" s="238" t="s">
+        <v>110</v>
+      </c>
       <c r="O14" s="238" t="s">
         <v>110</v>
       </c>
@@ -8142,16 +8204,16 @@
       <c r="Q14" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="R14" s="238" t="s">
-        <v>110</v>
-      </c>
+      <c r="R14" s="244"/>
       <c r="S14" s="238" t="s">
         <v>110</v>
       </c>
       <c r="T14" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="U14" s="244"/>
+      <c r="U14" s="238" t="s">
+        <v>110</v>
+      </c>
       <c r="V14" s="238" t="s">
         <v>110</v>
       </c>
@@ -8161,16 +8223,16 @@
       <c r="X14" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="Y14" s="238" t="s">
-        <v>110</v>
-      </c>
+      <c r="Y14" s="244"/>
       <c r="Z14" s="238" t="s">
         <v>110</v>
       </c>
       <c r="AA14" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="AB14" s="244"/>
+      <c r="AB14" s="238" t="s">
+        <v>110</v>
+      </c>
       <c r="AC14" s="238" t="s">
         <v>110</v>
       </c>
@@ -8180,9 +8242,7 @@
       <c r="AE14" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="AF14" s="238" t="s">
-        <v>110</v>
-      </c>
+      <c r="AF14" s="244"/>
       <c r="AG14" s="238" t="s">
         <v>110</v>
       </c>
@@ -8191,7 +8251,7 @@
       </c>
       <c r="AI14" s="245">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ14" s="240"/>
       <c r="AN14" s="242"/>
@@ -8206,31 +8266,75 @@
       <c r="C15" s="247" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="263"/>
-      <c r="E15" s="238"/>
-      <c r="F15" s="238"/>
-      <c r="G15" s="244"/>
-      <c r="H15" s="238"/>
-      <c r="I15" s="238"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="238"/>
-      <c r="L15" s="238"/>
-      <c r="M15" s="238"/>
-      <c r="N15" s="244"/>
-      <c r="O15" s="238"/>
-      <c r="P15" s="238"/>
-      <c r="Q15" s="238"/>
-      <c r="R15" s="238"/>
-      <c r="S15" s="238"/>
-      <c r="T15" s="238"/>
-      <c r="U15" s="244"/>
-      <c r="V15" s="238"/>
-      <c r="W15" s="238"/>
-      <c r="X15" s="238"/>
-      <c r="Y15" s="238"/>
-      <c r="Z15" s="238"/>
-      <c r="AA15" s="238"/>
-      <c r="AB15" s="244"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="244" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="R15" s="244"/>
+      <c r="S15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="T15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="U15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="V15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="W15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="X15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y15" s="244"/>
+      <c r="Z15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA15" s="238" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB15" s="238" t="s">
+        <v>110</v>
+      </c>
       <c r="AC15" s="238" t="s">
         <v>110</v>
       </c>
@@ -8240,9 +8344,7 @@
       <c r="AE15" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="AF15" s="238" t="s">
-        <v>110</v>
-      </c>
+      <c r="AF15" s="244"/>
       <c r="AG15" s="238" t="s">
         <v>110</v>
       </c>
@@ -8251,16 +8353,16 @@
       </c>
       <c r="AI15" s="245">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="AJ15" s="240"/>
       <c r="AN15" s="242"/>
     </row>
     <row r="16" spans="1:40" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="462" t="s">
+      <c r="A16" s="460" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="463"/>
+      <c r="B16" s="461"/>
       <c r="C16" s="248"/>
       <c r="D16" s="248"/>
       <c r="E16" s="249"/>
@@ -8295,7 +8397,7 @@
       <c r="AH16" s="249"/>
       <c r="AI16" s="250">
         <f>SUM(AI12:AI14)</f>
-        <v>82.5</v>
+        <v>80</v>
       </c>
       <c r="AJ16" s="251"/>
       <c r="AK16" s="252"/>
@@ -8303,49 +8405,49 @@
       <c r="AN16" s="242"/>
     </row>
     <row r="18" spans="1:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="464" t="s">
+      <c r="A18" s="462" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="464"/>
-      <c r="C18" s="464"/>
-      <c r="D18" s="464"/>
-      <c r="E18" s="464"/>
-      <c r="F18" s="464"/>
-      <c r="G18" s="464"/>
+      <c r="B18" s="462"/>
+      <c r="C18" s="462"/>
+      <c r="D18" s="462"/>
+      <c r="E18" s="462"/>
+      <c r="F18" s="462"/>
+      <c r="G18" s="462"/>
       <c r="H18" s="253"/>
-      <c r="I18" s="465"/>
-      <c r="J18" s="465"/>
-      <c r="K18" s="465"/>
-      <c r="L18" s="465"/>
-      <c r="M18" s="465"/>
+      <c r="I18" s="463"/>
+      <c r="J18" s="463"/>
+      <c r="K18" s="463"/>
+      <c r="L18" s="463"/>
+      <c r="M18" s="463"/>
       <c r="N18" s="254"/>
-      <c r="O18" s="465" t="s">
+      <c r="O18" s="463" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="465"/>
-      <c r="Q18" s="465"/>
-      <c r="R18" s="465"/>
-      <c r="S18" s="465"/>
-      <c r="T18" s="465"/>
-      <c r="U18" s="465"/>
-      <c r="V18" s="465"/>
-      <c r="W18" s="465"/>
-      <c r="X18" s="465"/>
-      <c r="Y18" s="465"/>
+      <c r="P18" s="463"/>
+      <c r="Q18" s="463"/>
+      <c r="R18" s="463"/>
+      <c r="S18" s="463"/>
+      <c r="T18" s="463"/>
+      <c r="U18" s="463"/>
+      <c r="V18" s="463"/>
+      <c r="W18" s="463"/>
+      <c r="X18" s="463"/>
+      <c r="Y18" s="463"/>
       <c r="Z18" s="255"/>
       <c r="AA18" s="255"/>
       <c r="AB18" s="256"/>
-      <c r="AC18" s="465"/>
-      <c r="AD18" s="465"/>
-      <c r="AE18" s="465"/>
-      <c r="AF18" s="465"/>
-      <c r="AG18" s="465"/>
-      <c r="AH18" s="465"/>
-      <c r="AI18" s="465"/>
-      <c r="AJ18" s="465"/>
-      <c r="AK18" s="465"/>
-      <c r="AL18" s="465"/>
-      <c r="AM18" s="465"/>
+      <c r="AC18" s="463"/>
+      <c r="AD18" s="463"/>
+      <c r="AE18" s="463"/>
+      <c r="AF18" s="463"/>
+      <c r="AG18" s="463"/>
+      <c r="AH18" s="463"/>
+      <c r="AI18" s="463"/>
+      <c r="AJ18" s="463"/>
+      <c r="AK18" s="463"/>
+      <c r="AL18" s="463"/>
+      <c r="AM18" s="463"/>
       <c r="AN18" s="257"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -8379,131 +8481,131 @@
       <c r="AN33" s="262"/>
     </row>
     <row r="34" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="453"/>
-      <c r="H34" s="453"/>
-      <c r="I34" s="453"/>
-      <c r="J34" s="453"/>
-      <c r="K34" s="453"/>
-      <c r="L34" s="453"/>
-      <c r="M34" s="453"/>
-      <c r="N34" s="453"/>
-      <c r="O34" s="453"/>
-      <c r="P34" s="453"/>
-      <c r="Q34" s="453"/>
-      <c r="R34" s="453"/>
-      <c r="S34" s="453"/>
-      <c r="T34" s="453"/>
-      <c r="U34" s="453"/>
-      <c r="V34" s="453"/>
-      <c r="W34" s="453"/>
-      <c r="X34" s="453"/>
+      <c r="G34" s="446"/>
+      <c r="H34" s="446"/>
+      <c r="I34" s="446"/>
+      <c r="J34" s="446"/>
+      <c r="K34" s="446"/>
+      <c r="L34" s="446"/>
+      <c r="M34" s="446"/>
+      <c r="N34" s="446"/>
+      <c r="O34" s="446"/>
+      <c r="P34" s="446"/>
+      <c r="Q34" s="446"/>
+      <c r="R34" s="446"/>
+      <c r="S34" s="446"/>
+      <c r="T34" s="446"/>
+      <c r="U34" s="446"/>
+      <c r="V34" s="446"/>
+      <c r="W34" s="446"/>
+      <c r="X34" s="446"/>
       <c r="AN34" s="262"/>
     </row>
     <row r="35" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="453"/>
-      <c r="H35" s="453"/>
-      <c r="I35" s="453"/>
-      <c r="J35" s="453"/>
-      <c r="K35" s="453"/>
-      <c r="L35" s="453"/>
-      <c r="M35" s="453"/>
-      <c r="N35" s="453"/>
-      <c r="O35" s="453"/>
-      <c r="P35" s="453"/>
-      <c r="Q35" s="453"/>
-      <c r="R35" s="453"/>
-      <c r="S35" s="453"/>
-      <c r="T35" s="453"/>
-      <c r="U35" s="453"/>
-      <c r="V35" s="453"/>
-      <c r="W35" s="453"/>
-      <c r="X35" s="453"/>
+      <c r="G35" s="446"/>
+      <c r="H35" s="446"/>
+      <c r="I35" s="446"/>
+      <c r="J35" s="446"/>
+      <c r="K35" s="446"/>
+      <c r="L35" s="446"/>
+      <c r="M35" s="446"/>
+      <c r="N35" s="446"/>
+      <c r="O35" s="446"/>
+      <c r="P35" s="446"/>
+      <c r="Q35" s="446"/>
+      <c r="R35" s="446"/>
+      <c r="S35" s="446"/>
+      <c r="T35" s="446"/>
+      <c r="U35" s="446"/>
+      <c r="V35" s="446"/>
+      <c r="W35" s="446"/>
+      <c r="X35" s="446"/>
       <c r="AN35" s="262"/>
     </row>
     <row r="36" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="453"/>
-      <c r="H36" s="453"/>
-      <c r="I36" s="453"/>
-      <c r="J36" s="453"/>
-      <c r="K36" s="453"/>
-      <c r="L36" s="453"/>
-      <c r="M36" s="453"/>
-      <c r="N36" s="453"/>
-      <c r="O36" s="453"/>
-      <c r="P36" s="453"/>
-      <c r="Q36" s="453"/>
-      <c r="R36" s="453"/>
-      <c r="S36" s="453"/>
-      <c r="T36" s="453"/>
-      <c r="U36" s="453"/>
-      <c r="V36" s="453"/>
-      <c r="W36" s="453"/>
-      <c r="X36" s="453"/>
+      <c r="G36" s="446"/>
+      <c r="H36" s="446"/>
+      <c r="I36" s="446"/>
+      <c r="J36" s="446"/>
+      <c r="K36" s="446"/>
+      <c r="L36" s="446"/>
+      <c r="M36" s="446"/>
+      <c r="N36" s="446"/>
+      <c r="O36" s="446"/>
+      <c r="P36" s="446"/>
+      <c r="Q36" s="446"/>
+      <c r="R36" s="446"/>
+      <c r="S36" s="446"/>
+      <c r="T36" s="446"/>
+      <c r="U36" s="446"/>
+      <c r="V36" s="446"/>
+      <c r="W36" s="446"/>
+      <c r="X36" s="446"/>
       <c r="AN36" s="262"/>
     </row>
     <row r="37" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="453"/>
-      <c r="H37" s="453"/>
-      <c r="I37" s="453"/>
-      <c r="J37" s="453"/>
-      <c r="K37" s="453"/>
-      <c r="L37" s="453"/>
-      <c r="M37" s="453"/>
-      <c r="N37" s="453"/>
-      <c r="O37" s="453"/>
-      <c r="P37" s="453"/>
-      <c r="Q37" s="453"/>
-      <c r="R37" s="453"/>
-      <c r="S37" s="453"/>
-      <c r="T37" s="453"/>
-      <c r="U37" s="453"/>
-      <c r="V37" s="453"/>
-      <c r="W37" s="453"/>
-      <c r="X37" s="453"/>
+      <c r="G37" s="446"/>
+      <c r="H37" s="446"/>
+      <c r="I37" s="446"/>
+      <c r="J37" s="446"/>
+      <c r="K37" s="446"/>
+      <c r="L37" s="446"/>
+      <c r="M37" s="446"/>
+      <c r="N37" s="446"/>
+      <c r="O37" s="446"/>
+      <c r="P37" s="446"/>
+      <c r="Q37" s="446"/>
+      <c r="R37" s="446"/>
+      <c r="S37" s="446"/>
+      <c r="T37" s="446"/>
+      <c r="U37" s="446"/>
+      <c r="V37" s="446"/>
+      <c r="W37" s="446"/>
+      <c r="X37" s="446"/>
       <c r="AN37" s="262"/>
     </row>
     <row r="38" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="453"/>
-      <c r="H38" s="453"/>
-      <c r="I38" s="453"/>
-      <c r="J38" s="453"/>
-      <c r="K38" s="453"/>
-      <c r="L38" s="453"/>
-      <c r="M38" s="453"/>
-      <c r="N38" s="453"/>
-      <c r="O38" s="453"/>
-      <c r="P38" s="453"/>
-      <c r="Q38" s="453"/>
-      <c r="R38" s="453"/>
-      <c r="S38" s="453"/>
-      <c r="T38" s="453"/>
-      <c r="U38" s="453"/>
-      <c r="V38" s="453"/>
-      <c r="W38" s="453"/>
-      <c r="X38" s="453"/>
+      <c r="G38" s="446"/>
+      <c r="H38" s="446"/>
+      <c r="I38" s="446"/>
+      <c r="J38" s="446"/>
+      <c r="K38" s="446"/>
+      <c r="L38" s="446"/>
+      <c r="M38" s="446"/>
+      <c r="N38" s="446"/>
+      <c r="O38" s="446"/>
+      <c r="P38" s="446"/>
+      <c r="Q38" s="446"/>
+      <c r="R38" s="446"/>
+      <c r="S38" s="446"/>
+      <c r="T38" s="446"/>
+      <c r="U38" s="446"/>
+      <c r="V38" s="446"/>
+      <c r="W38" s="446"/>
+      <c r="X38" s="446"/>
       <c r="AN38" s="262"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="223"/>
       <c r="D39" s="223"/>
-      <c r="G39" s="453"/>
-      <c r="H39" s="453"/>
-      <c r="I39" s="453"/>
-      <c r="J39" s="453"/>
-      <c r="K39" s="453"/>
-      <c r="L39" s="453"/>
-      <c r="M39" s="453"/>
-      <c r="N39" s="453"/>
-      <c r="O39" s="453"/>
-      <c r="P39" s="453"/>
-      <c r="Q39" s="453"/>
-      <c r="R39" s="453"/>
-      <c r="S39" s="453"/>
-      <c r="T39" s="453"/>
-      <c r="U39" s="453"/>
-      <c r="V39" s="453"/>
-      <c r="W39" s="453"/>
-      <c r="X39" s="453"/>
+      <c r="G39" s="446"/>
+      <c r="H39" s="446"/>
+      <c r="I39" s="446"/>
+      <c r="J39" s="446"/>
+      <c r="K39" s="446"/>
+      <c r="L39" s="446"/>
+      <c r="M39" s="446"/>
+      <c r="N39" s="446"/>
+      <c r="O39" s="446"/>
+      <c r="P39" s="446"/>
+      <c r="Q39" s="446"/>
+      <c r="R39" s="446"/>
+      <c r="S39" s="446"/>
+      <c r="T39" s="446"/>
+      <c r="U39" s="446"/>
+      <c r="V39" s="446"/>
+      <c r="W39" s="446"/>
+      <c r="X39" s="446"/>
       <c r="AN39" s="223"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -8513,6 +8615,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -8527,13 +8636,6 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8543,7 +8645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -9384,38 +9486,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="474" t="s">
+      <c r="A1" s="475" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="474"/>
-      <c r="C1" s="474"/>
-      <c r="D1" s="474"/>
+      <c r="B1" s="475"/>
+      <c r="C1" s="475"/>
+      <c r="D1" s="475"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="475" t="s">
+      <c r="F1" s="476" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="475"/>
-      <c r="H1" s="475"/>
-      <c r="I1" s="475"/>
-      <c r="J1" s="475"/>
-      <c r="K1" s="475"/>
+      <c r="G1" s="476"/>
+      <c r="H1" s="476"/>
+      <c r="I1" s="476"/>
+      <c r="J1" s="476"/>
+      <c r="K1" s="476"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="476" t="s">
+      <c r="A2" s="477" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="476"/>
-      <c r="C2" s="476"/>
-      <c r="D2" s="476"/>
+      <c r="B2" s="477"/>
+      <c r="C2" s="477"/>
+      <c r="D2" s="477"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="477" t="s">
+      <c r="F2" s="478" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="477"/>
-      <c r="H2" s="477"/>
-      <c r="I2" s="477"/>
-      <c r="J2" s="477"/>
-      <c r="K2" s="477"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="478"/>
+      <c r="I2" s="478"/>
+      <c r="J2" s="478"/>
+      <c r="K2" s="478"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -9428,43 +9530,43 @@
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="478" t="s">
+      <c r="A4" s="479" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="478"/>
-      <c r="C4" s="478"/>
-      <c r="D4" s="478"/>
-      <c r="E4" s="478"/>
-      <c r="F4" s="478"/>
-      <c r="G4" s="478"/>
-      <c r="H4" s="478"/>
-      <c r="I4" s="478"/>
-      <c r="J4" s="478"/>
-      <c r="K4" s="478"/>
-      <c r="L4" s="478"/>
+      <c r="B4" s="479"/>
+      <c r="C4" s="479"/>
+      <c r="D4" s="479"/>
+      <c r="E4" s="479"/>
+      <c r="F4" s="479"/>
+      <c r="G4" s="479"/>
+      <c r="H4" s="479"/>
+      <c r="I4" s="479"/>
+      <c r="J4" s="479"/>
+      <c r="K4" s="479"/>
+      <c r="L4" s="479"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="479" t="s">
+      <c r="A5" s="480" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="479"/>
-      <c r="C5" s="479"/>
-      <c r="D5" s="479"/>
-      <c r="E5" s="479"/>
-      <c r="F5" s="479"/>
-      <c r="G5" s="479"/>
-      <c r="H5" s="479"/>
-      <c r="I5" s="479"/>
-      <c r="J5" s="479"/>
-      <c r="K5" s="479"/>
-      <c r="L5" s="479"/>
+      <c r="B5" s="480"/>
+      <c r="C5" s="480"/>
+      <c r="D5" s="480"/>
+      <c r="E5" s="480"/>
+      <c r="F5" s="480"/>
+      <c r="G5" s="480"/>
+      <c r="H5" s="480"/>
+      <c r="I5" s="480"/>
+      <c r="J5" s="480"/>
+      <c r="K5" s="480"/>
+      <c r="L5" s="480"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="480" t="s">
+      <c r="J6" s="481" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="480"/>
-      <c r="L6" s="480"/>
+      <c r="K6" s="481"/>
+      <c r="L6" s="481"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="147" t="s">
@@ -9531,16 +9633,16 @@
       <c r="L8" s="147"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="471" t="s">
+      <c r="A9" s="472" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="472"/>
-      <c r="C9" s="472"/>
-      <c r="D9" s="473"/>
+      <c r="B9" s="473"/>
+      <c r="C9" s="473"/>
+      <c r="D9" s="474"/>
       <c r="E9" s="149"/>
       <c r="F9" s="153">
         <f>SUM(F10:F12)</f>
-        <v>28730769.230769228</v>
+        <v>27807692.307692308</v>
       </c>
       <c r="G9" s="153">
         <f>SUM(G10:G12)</f>
@@ -9556,7 +9658,7 @@
       </c>
       <c r="J9" s="153">
         <f>SUM(J10:J12)</f>
-        <v>28730769.230769228</v>
+        <v>27807692.307692308</v>
       </c>
       <c r="K9" s="148"/>
       <c r="L9" s="147"/>
@@ -9576,18 +9678,18 @@
       </c>
       <c r="E10" s="90">
         <f>'Bảng chấm công'!AI12</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="84">
         <f>D10/26*E10</f>
-        <v>16153846.153846152</v>
+        <v>15576923.076923076</v>
       </c>
       <c r="G10" s="83"/>
       <c r="H10" s="83"/>
       <c r="I10" s="83"/>
       <c r="J10" s="83">
         <f>F10-G10-H10+I10</f>
-        <v>16153846.153846152</v>
+        <v>15576923.076923076</v>
       </c>
       <c r="K10" s="83"/>
       <c r="L10" s="151"/>
@@ -9607,18 +9709,18 @@
       </c>
       <c r="E11" s="90">
         <f>'Bảng chấm công'!AI14</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="47">
         <f>D11/26*E11</f>
-        <v>6000000</v>
+        <v>6230769.230769231</v>
       </c>
       <c r="G11" s="48"/>
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48">
         <f>F11-G11-H11+I11</f>
-        <v>6000000</v>
+        <v>6230769.230769231</v>
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="45"/>
@@ -9638,33 +9740,33 @@
       </c>
       <c r="E12" s="90">
         <f>'Bảng chấm công'!AI13</f>
-        <v>28.5</v>
+        <v>26</v>
       </c>
       <c r="F12" s="52">
         <f>D12/26*E12</f>
-        <v>6576923.076923077</v>
+        <v>6000000</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53">
         <f>F12-G12-H12+I12</f>
-        <v>6576923.076923077</v>
+        <v>6000000</v>
       </c>
       <c r="K12" s="53"/>
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="468" t="s">
+      <c r="A13" s="469" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="469"/>
-      <c r="C13" s="469"/>
-      <c r="D13" s="470"/>
+      <c r="B13" s="470"/>
+      <c r="C13" s="470"/>
+      <c r="D13" s="471"/>
       <c r="E13" s="89"/>
       <c r="F13" s="153">
         <f>SUM(F14:F14)</f>
-        <v>807692.30769230775</v>
+        <v>3634615.384615385</v>
       </c>
       <c r="G13" s="153">
         <f>SUM(G14:G14)</f>
@@ -9680,7 +9782,7 @@
       </c>
       <c r="J13" s="153">
         <f>SUM(J14:J14)</f>
-        <v>807692.30769230775</v>
+        <v>3634615.384615385</v>
       </c>
       <c r="K13" s="154"/>
       <c r="L13" s="148"/>
@@ -9700,33 +9802,33 @@
       </c>
       <c r="E14" s="88">
         <f>'Bảng chấm công'!AI15</f>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F14" s="56">
         <f>D14/26*E14</f>
-        <v>807692.30769230775</v>
+        <v>3634615.384615385</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57">
         <f>F14-G14-H14+I14</f>
-        <v>807692.30769230775</v>
+        <v>3634615.384615385</v>
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="481" t="s">
+      <c r="A15" s="482" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="482"/>
-      <c r="C15" s="483"/>
+      <c r="B15" s="483"/>
+      <c r="C15" s="484"/>
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86">
         <f>F13+F9</f>
-        <v>29538461.538461536</v>
+        <v>31442307.692307692</v>
       </c>
       <c r="G15" s="86">
         <f>G13+G9</f>
@@ -9742,20 +9844,20 @@
       </c>
       <c r="J15" s="86">
         <f>J13+J9</f>
-        <v>29538461.538461536</v>
+        <v>31442307.692307692</v>
       </c>
       <c r="K15" s="85"/>
       <c r="L15" s="85"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="466"/>
-      <c r="C17" s="466"/>
-      <c r="D17" s="466"/>
+      <c r="B17" s="467"/>
+      <c r="C17" s="467"/>
+      <c r="D17" s="467"/>
       <c r="E17" s="82"/>
-      <c r="H17" s="466"/>
-      <c r="I17" s="466"/>
-      <c r="J17" s="466"/>
-      <c r="K17" s="466"/>
+      <c r="H17" s="467"/>
+      <c r="I17" s="467"/>
+      <c r="J17" s="467"/>
+      <c r="K17" s="467"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="144" t="s">
@@ -9767,12 +9869,12 @@
         <v>85</v>
       </c>
       <c r="G18" s="144"/>
-      <c r="H18" s="466" t="s">
+      <c r="H18" s="467" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="466"/>
-      <c r="J18" s="466"/>
-      <c r="K18" s="466"/>
+      <c r="I18" s="467"/>
+      <c r="J18" s="467"/>
+      <c r="K18" s="467"/>
     </row>
     <row r="19" spans="2:11" s="145" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="146" t="s">
@@ -9784,12 +9886,12 @@
         <v>92</v>
       </c>
       <c r="G19" s="146"/>
-      <c r="H19" s="467" t="s">
+      <c r="H19" s="468" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="467"/>
-      <c r="J19" s="467"/>
-      <c r="K19" s="467"/>
+      <c r="I19" s="468"/>
+      <c r="J19" s="468"/>
+      <c r="K19" s="468"/>
     </row>
     <row r="22" spans="2:11" s="96" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="6"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -1180,7 +1180,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="485">
+  <cellXfs count="483">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1687,12 +1687,6 @@
     <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2120,12 +2114,42 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2135,69 +2159,9 @@
     <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2228,6 +2192,36 @@
     <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2243,6 +2237,30 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2303,48 +2321,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2380,15 +2383,6 @@
     </xf>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2758,7 +2752,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,16 +2818,16 @@
       <c r="Q2" s="107"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="373" t="s">
+      <c r="A3" s="371" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="373"/>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
-      <c r="F3" s="373"/>
-      <c r="G3" s="373"/>
-      <c r="H3" s="373"/>
+      <c r="B3" s="371"/>
+      <c r="C3" s="371"/>
+      <c r="D3" s="371"/>
+      <c r="E3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="371"/>
+      <c r="H3" s="371"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
       <c r="K3" s="108"/>
@@ -2845,32 +2839,32 @@
       <c r="Q3" s="108"/>
     </row>
     <row r="4" spans="1:17" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="374" t="s">
+      <c r="A4" s="372" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="374" t="s">
+      <c r="B4" s="372" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="374" t="s">
+      <c r="C4" s="372" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="375" t="s">
+      <c r="D4" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="376" t="s">
+      <c r="E4" s="374" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="376"/>
-      <c r="G4" s="376" t="s">
+      <c r="F4" s="374"/>
+      <c r="G4" s="374" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="376"/>
+      <c r="H4" s="374"/>
     </row>
     <row r="5" spans="1:17" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="374"/>
-      <c r="B5" s="374"/>
-      <c r="C5" s="374"/>
-      <c r="D5" s="375"/>
+      <c r="A5" s="372"/>
+      <c r="B5" s="372"/>
+      <c r="C5" s="372"/>
+      <c r="D5" s="373"/>
       <c r="E5" s="210" t="s">
         <v>81</v>
       </c>
@@ -2951,11 +2945,11 @@
       <c r="H9" s="109"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="359">
+      <c r="A10" s="357">
         <v>44139</v>
       </c>
-      <c r="B10" s="359"/>
-      <c r="C10" s="362"/>
+      <c r="B10" s="357"/>
+      <c r="C10" s="360"/>
       <c r="D10" s="94" t="s">
         <v>167</v>
       </c>
@@ -2965,11 +2959,11 @@
       <c r="H10" s="109"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="360">
+      <c r="A11" s="358">
         <v>44140</v>
       </c>
-      <c r="B11" s="360"/>
-      <c r="C11" s="363"/>
+      <c r="B11" s="358"/>
+      <c r="C11" s="361"/>
       <c r="D11" s="94" t="s">
         <v>173</v>
       </c>
@@ -2981,12 +2975,12 @@
       <c r="H11" s="109"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="360">
+      <c r="A12" s="358">
         <v>44140</v>
       </c>
-      <c r="B12" s="360"/>
-      <c r="C12" s="363"/>
-      <c r="D12" s="218" t="s">
+      <c r="B12" s="358"/>
+      <c r="C12" s="361"/>
+      <c r="D12" s="94" t="s">
         <v>168</v>
       </c>
       <c r="E12" s="95"/>
@@ -2995,12 +2989,12 @@
       <c r="H12" s="109"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="360">
+      <c r="A13" s="358">
         <v>44141</v>
       </c>
-      <c r="B13" s="360"/>
-      <c r="C13" s="363"/>
-      <c r="D13" s="218" t="s">
+      <c r="B13" s="358"/>
+      <c r="C13" s="361"/>
+      <c r="D13" s="94" t="s">
         <v>169</v>
       </c>
       <c r="E13" s="95"/>
@@ -3011,12 +3005,12 @@
       <c r="H13" s="109"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="360">
+      <c r="A14" s="358">
         <v>44142</v>
       </c>
-      <c r="B14" s="360"/>
-      <c r="C14" s="363"/>
-      <c r="D14" s="219" t="s">
+      <c r="B14" s="358"/>
+      <c r="C14" s="361"/>
+      <c r="D14" s="94" t="s">
         <v>170</v>
       </c>
       <c r="E14" s="95"/>
@@ -3027,12 +3021,12 @@
       <c r="H14" s="109"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="360">
+      <c r="A15" s="358">
         <v>44142</v>
       </c>
-      <c r="B15" s="360"/>
-      <c r="C15" s="363"/>
-      <c r="D15" s="218" t="s">
+      <c r="B15" s="358"/>
+      <c r="C15" s="361"/>
+      <c r="D15" s="94" t="s">
         <v>171</v>
       </c>
       <c r="E15" s="95"/>
@@ -3041,12 +3035,12 @@
       <c r="H15" s="111"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="361">
+      <c r="A16" s="359">
         <v>44142</v>
       </c>
-      <c r="B16" s="361"/>
-      <c r="C16" s="364"/>
-      <c r="D16" s="218" t="s">
+      <c r="B16" s="359"/>
+      <c r="C16" s="362"/>
+      <c r="D16" s="94" t="s">
         <v>172</v>
       </c>
       <c r="E16" s="95"/>
@@ -3067,8 +3061,8 @@
       <c r="F17" s="109"/>
       <c r="G17" s="95"/>
       <c r="H17" s="111"/>
-      <c r="K17" s="367"/>
-      <c r="L17" s="368"/>
+      <c r="K17" s="365"/>
+      <c r="L17" s="366"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="92"/>
@@ -3079,7 +3073,7 @@
       <c r="F18" s="109"/>
       <c r="G18" s="95"/>
       <c r="H18" s="111"/>
-      <c r="N18" s="220"/>
+      <c r="N18" s="218"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="92"/>
@@ -3090,7 +3084,7 @@
       <c r="F19" s="109"/>
       <c r="G19" s="95"/>
       <c r="H19" s="111"/>
-      <c r="K19" s="220"/>
+      <c r="K19" s="218"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="92"/>
@@ -3111,7 +3105,7 @@
       <c r="F21" s="109"/>
       <c r="G21" s="95"/>
       <c r="H21" s="111"/>
-      <c r="J21" s="220"/>
+      <c r="J21" s="218"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="92"/>
@@ -3122,7 +3116,7 @@
       <c r="F22" s="109"/>
       <c r="G22" s="95"/>
       <c r="H22" s="111"/>
-      <c r="K22" s="220"/>
+      <c r="K22" s="218"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="92"/>
@@ -3183,7 +3177,7 @@
       <c r="F28" s="95"/>
       <c r="G28" s="95"/>
       <c r="H28" s="111"/>
-      <c r="K28" s="220"/>
+      <c r="K28" s="218"/>
     </row>
     <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="92"/>
@@ -3631,12 +3625,12 @@
       <c r="H73" s="111"/>
     </row>
     <row r="74" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="370" t="s">
+      <c r="A74" s="368" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="371"/>
-      <c r="C74" s="371"/>
-      <c r="D74" s="372"/>
+      <c r="B74" s="369"/>
+      <c r="C74" s="369"/>
+      <c r="D74" s="370"/>
       <c r="E74" s="113">
         <f>SUM(E7:E73)</f>
         <v>0</v>
@@ -3667,11 +3661,11 @@
       <c r="J75" s="115"/>
     </row>
     <row r="76" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="369" t="s">
+      <c r="A76" s="367" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="369"/>
-      <c r="C76" s="369"/>
+      <c r="B76" s="367"/>
+      <c r="C76" s="367"/>
       <c r="D76" s="116"/>
       <c r="E76" s="117"/>
       <c r="F76" s="117"/>
@@ -3732,7 +3726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
@@ -3758,13 +3752,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379" t="s">
+      <c r="A1" s="387" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
       <c r="H1" s="125"/>
       <c r="I1" s="125"/>
       <c r="J1" s="125"/>
@@ -3794,143 +3788,143 @@
       <c r="P2" s="129"/>
     </row>
     <row r="3" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="380" t="s">
+      <c r="A3" s="388" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="380"/>
-      <c r="C3" s="380"/>
-      <c r="D3" s="380"/>
-      <c r="E3" s="380"/>
-      <c r="F3" s="380"/>
-      <c r="G3" s="380"/>
-      <c r="H3" s="380"/>
-      <c r="I3" s="380"/>
-      <c r="J3" s="380"/>
-      <c r="K3" s="380"/>
-      <c r="L3" s="380"/>
-      <c r="M3" s="380"/>
-      <c r="N3" s="380"/>
-      <c r="O3" s="380"/>
-      <c r="P3" s="380"/>
+      <c r="B3" s="388"/>
+      <c r="C3" s="388"/>
+      <c r="D3" s="388"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="388"/>
+      <c r="G3" s="388"/>
+      <c r="H3" s="388"/>
+      <c r="I3" s="388"/>
+      <c r="J3" s="388"/>
+      <c r="K3" s="388"/>
+      <c r="L3" s="388"/>
+      <c r="M3" s="388"/>
+      <c r="N3" s="388"/>
+      <c r="O3" s="388"/>
+      <c r="P3" s="388"/>
     </row>
     <row r="4" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="380" t="s">
+      <c r="A4" s="388" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="380"/>
-      <c r="C4" s="380"/>
-      <c r="D4" s="380"/>
-      <c r="E4" s="380"/>
-      <c r="F4" s="380"/>
-      <c r="G4" s="380"/>
-      <c r="H4" s="380"/>
-      <c r="I4" s="380"/>
-      <c r="J4" s="380"/>
-      <c r="K4" s="380"/>
-      <c r="L4" s="380"/>
-      <c r="M4" s="380"/>
-      <c r="N4" s="380"/>
-      <c r="O4" s="380"/>
-      <c r="P4" s="380"/>
+      <c r="B4" s="388"/>
+      <c r="C4" s="388"/>
+      <c r="D4" s="388"/>
+      <c r="E4" s="388"/>
+      <c r="F4" s="388"/>
+      <c r="G4" s="388"/>
+      <c r="H4" s="388"/>
+      <c r="I4" s="388"/>
+      <c r="J4" s="388"/>
+      <c r="K4" s="388"/>
+      <c r="L4" s="388"/>
+      <c r="M4" s="388"/>
+      <c r="N4" s="388"/>
+      <c r="O4" s="388"/>
+      <c r="P4" s="388"/>
     </row>
     <row r="5" spans="1:16" s="124" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="388" t="s">
+      <c r="A5" s="381" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="389" t="s">
+      <c r="B5" s="382" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="388" t="s">
+      <c r="C5" s="381" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="388" t="s">
+      <c r="D5" s="381" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="388"/>
-      <c r="F5" s="382" t="s">
+      <c r="E5" s="381"/>
+      <c r="F5" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="382"/>
-      <c r="H5" s="382"/>
-      <c r="I5" s="382"/>
-      <c r="J5" s="382"/>
-      <c r="K5" s="382"/>
-      <c r="L5" s="382"/>
-      <c r="M5" s="381"/>
-      <c r="N5" s="381"/>
-      <c r="O5" s="381"/>
-      <c r="P5" s="382" t="s">
+      <c r="G5" s="383"/>
+      <c r="H5" s="383"/>
+      <c r="I5" s="383"/>
+      <c r="J5" s="383"/>
+      <c r="K5" s="383"/>
+      <c r="L5" s="383"/>
+      <c r="M5" s="389"/>
+      <c r="N5" s="389"/>
+      <c r="O5" s="389"/>
+      <c r="P5" s="383" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="124" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="388"/>
-      <c r="B6" s="389"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="388" t="s">
+      <c r="A6" s="381"/>
+      <c r="B6" s="382"/>
+      <c r="C6" s="381"/>
+      <c r="D6" s="381" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="388" t="s">
+      <c r="E6" s="381" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="388" t="s">
+      <c r="F6" s="381" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="388" t="s">
+      <c r="G6" s="381" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="383" t="s">
+      <c r="H6" s="384" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="383" t="s">
+      <c r="I6" s="384" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="390" t="s">
+      <c r="J6" s="385" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="390"/>
-      <c r="L6" s="383" t="s">
+      <c r="K6" s="385"/>
+      <c r="L6" s="384" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="383" t="s">
+      <c r="M6" s="384" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="383" t="s">
+      <c r="N6" s="384" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="383" t="s">
+      <c r="O6" s="384" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="382"/>
+      <c r="P6" s="383"/>
     </row>
     <row r="7" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="388"/>
-      <c r="B7" s="389"/>
-      <c r="C7" s="388"/>
-      <c r="D7" s="388"/>
-      <c r="E7" s="388"/>
-      <c r="F7" s="388"/>
-      <c r="G7" s="388"/>
-      <c r="H7" s="383"/>
-      <c r="I7" s="383"/>
+      <c r="A7" s="381"/>
+      <c r="B7" s="382"/>
+      <c r="C7" s="381"/>
+      <c r="D7" s="381"/>
+      <c r="E7" s="381"/>
+      <c r="F7" s="381"/>
+      <c r="G7" s="381"/>
+      <c r="H7" s="384"/>
+      <c r="I7" s="384"/>
       <c r="J7" s="211" t="s">
         <v>84</v>
       </c>
       <c r="K7" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="383"/>
-      <c r="M7" s="383"/>
-      <c r="N7" s="383"/>
-      <c r="O7" s="383"/>
-      <c r="P7" s="382"/>
+      <c r="L7" s="384"/>
+      <c r="M7" s="384"/>
+      <c r="N7" s="384"/>
+      <c r="O7" s="384"/>
+      <c r="P7" s="383"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="365"/>
-      <c r="B8" s="366"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
+      <c r="A8" s="363"/>
+      <c r="B8" s="364"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
       <c r="F8" s="163"/>
       <c r="G8" s="163"/>
       <c r="H8" s="164"/>
@@ -4016,11 +4010,11 @@
       <c r="P12" s="162"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="385"/>
-      <c r="B13" s="391"/>
-      <c r="C13" s="385"/>
-      <c r="D13" s="385"/>
-      <c r="E13" s="385"/>
+      <c r="A13" s="375"/>
+      <c r="B13" s="377"/>
+      <c r="C13" s="375"/>
+      <c r="D13" s="375"/>
+      <c r="E13" s="375"/>
       <c r="F13" s="163"/>
       <c r="G13" s="163"/>
       <c r="H13" s="164"/>
@@ -4034,11 +4028,11 @@
       <c r="P13" s="166"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="386"/>
-      <c r="B14" s="392"/>
-      <c r="C14" s="386"/>
-      <c r="D14" s="386"/>
-      <c r="E14" s="386"/>
+      <c r="A14" s="376"/>
+      <c r="B14" s="378"/>
+      <c r="C14" s="376"/>
+      <c r="D14" s="376"/>
+      <c r="E14" s="376"/>
       <c r="F14" s="167"/>
       <c r="G14" s="167"/>
       <c r="H14" s="168"/>
@@ -4088,11 +4082,11 @@
       <c r="P16" s="157"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="385"/>
-      <c r="B17" s="391"/>
-      <c r="C17" s="385"/>
-      <c r="D17" s="385"/>
-      <c r="E17" s="385"/>
+      <c r="A17" s="375"/>
+      <c r="B17" s="377"/>
+      <c r="C17" s="375"/>
+      <c r="D17" s="375"/>
+      <c r="E17" s="375"/>
       <c r="F17" s="163"/>
       <c r="G17" s="163"/>
       <c r="H17" s="164"/>
@@ -4106,11 +4100,11 @@
       <c r="P17" s="163"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="386"/>
-      <c r="B18" s="392"/>
-      <c r="C18" s="386"/>
-      <c r="D18" s="386"/>
-      <c r="E18" s="386"/>
+      <c r="A18" s="376"/>
+      <c r="B18" s="378"/>
+      <c r="C18" s="376"/>
+      <c r="D18" s="376"/>
+      <c r="E18" s="376"/>
       <c r="F18" s="167"/>
       <c r="G18" s="167"/>
       <c r="H18" s="168"/>
@@ -4535,7 +4529,7 @@
       <c r="M41" s="177"/>
       <c r="N41" s="177"/>
       <c r="O41" s="177"/>
-      <c r="P41" s="384"/>
+      <c r="P41" s="390"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="172"/>
@@ -4553,7 +4547,7 @@
       <c r="M42" s="177"/>
       <c r="N42" s="177"/>
       <c r="O42" s="177"/>
-      <c r="P42" s="384"/>
+      <c r="P42" s="390"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="172"/>
@@ -4571,7 +4565,7 @@
       <c r="M43" s="177"/>
       <c r="N43" s="177"/>
       <c r="O43" s="177"/>
-      <c r="P43" s="384"/>
+      <c r="P43" s="390"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="172"/>
@@ -4589,7 +4583,7 @@
       <c r="M44" s="177"/>
       <c r="N44" s="177"/>
       <c r="O44" s="177"/>
-      <c r="P44" s="384"/>
+      <c r="P44" s="390"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="172"/>
@@ -4607,7 +4601,7 @@
       <c r="M45" s="177"/>
       <c r="N45" s="177"/>
       <c r="O45" s="177"/>
-      <c r="P45" s="384"/>
+      <c r="P45" s="390"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="172"/>
@@ -4625,7 +4619,7 @@
       <c r="M46" s="177"/>
       <c r="N46" s="177"/>
       <c r="O46" s="177"/>
-      <c r="P46" s="384"/>
+      <c r="P46" s="390"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="198"/>
@@ -4679,7 +4673,7 @@
       <c r="M49" s="177"/>
       <c r="N49" s="177"/>
       <c r="O49" s="177"/>
-      <c r="P49" s="384"/>
+      <c r="P49" s="390"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="172"/>
@@ -4697,7 +4691,7 @@
       <c r="M50" s="177"/>
       <c r="N50" s="177"/>
       <c r="O50" s="177"/>
-      <c r="P50" s="384"/>
+      <c r="P50" s="390"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="172"/>
@@ -4715,7 +4709,7 @@
       <c r="M51" s="177"/>
       <c r="N51" s="177"/>
       <c r="O51" s="177"/>
-      <c r="P51" s="384"/>
+      <c r="P51" s="390"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="198"/>
@@ -5186,14 +5180,14 @@
       <c r="P77" s="167"/>
     </row>
     <row r="78" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="387" t="s">
+      <c r="A78" s="380" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="387"/>
-      <c r="C78" s="387"/>
-      <c r="D78" s="387"/>
-      <c r="E78" s="387"/>
-      <c r="F78" s="387"/>
+      <c r="B78" s="380"/>
+      <c r="C78" s="380"/>
+      <c r="D78" s="380"/>
+      <c r="E78" s="380"/>
+      <c r="F78" s="380"/>
       <c r="G78" s="132">
         <f>SUM(G8:G77)</f>
         <v>0</v>
@@ -5213,17 +5207,17 @@
       <c r="N78" s="133"/>
       <c r="O78" s="133"/>
       <c r="P78" s="133"/>
-      <c r="Q78" s="377"/>
+      <c r="Q78" s="386"/>
     </row>
     <row r="79" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="378" t="s">
+      <c r="A79" s="379" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="378"/>
-      <c r="C79" s="378"/>
-      <c r="D79" s="378"/>
-      <c r="E79" s="378"/>
-      <c r="F79" s="378"/>
+      <c r="B79" s="379"/>
+      <c r="C79" s="379"/>
+      <c r="D79" s="379"/>
+      <c r="E79" s="379"/>
+      <c r="F79" s="379"/>
       <c r="G79" s="132">
         <f>G78</f>
         <v>0</v>
@@ -5240,17 +5234,17 @@
       <c r="N79" s="137"/>
       <c r="O79" s="137"/>
       <c r="P79" s="137"/>
-      <c r="Q79" s="377"/>
+      <c r="Q79" s="386"/>
     </row>
     <row r="80" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="378" t="s">
+      <c r="A80" s="379" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="378"/>
-      <c r="C80" s="378"/>
-      <c r="D80" s="378"/>
-      <c r="E80" s="378"/>
-      <c r="F80" s="378"/>
+      <c r="B80" s="379"/>
+      <c r="C80" s="379"/>
+      <c r="D80" s="379"/>
+      <c r="E80" s="379"/>
+      <c r="F80" s="379"/>
       <c r="G80" s="138" t="s">
         <v>45</v>
       </c>
@@ -5268,14 +5262,14 @@
       <c r="P80" s="139"/>
     </row>
     <row r="81" spans="1:16" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="378" t="s">
+      <c r="A81" s="379" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="378"/>
-      <c r="C81" s="378"/>
-      <c r="D81" s="378"/>
-      <c r="E81" s="378"/>
-      <c r="F81" s="378"/>
+      <c r="B81" s="379"/>
+      <c r="C81" s="379"/>
+      <c r="D81" s="379"/>
+      <c r="E81" s="379"/>
+      <c r="F81" s="379"/>
       <c r="G81" s="137"/>
       <c r="H81" s="137"/>
       <c r="I81" s="133"/>
@@ -5291,14 +5285,14 @@
       <c r="P81" s="139"/>
     </row>
     <row r="82" spans="1:16" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="378" t="s">
+      <c r="A82" s="379" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="378"/>
-      <c r="C82" s="378"/>
-      <c r="D82" s="378"/>
-      <c r="E82" s="378"/>
-      <c r="F82" s="378"/>
+      <c r="B82" s="379"/>
+      <c r="C82" s="379"/>
+      <c r="D82" s="379"/>
+      <c r="E82" s="379"/>
+      <c r="F82" s="379"/>
       <c r="G82" s="137"/>
       <c r="H82" s="137"/>
       <c r="I82" s="133"/>
@@ -5369,14 +5363,22 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="40">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A78:F78"/>
@@ -5393,22 +5395,14 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5425,678 +5419,702 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="292"/>
-    <col min="2" max="2" width="12" style="292" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="292" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="292" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="292" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="292"/>
-    <col min="7" max="7" width="6.28515625" style="292" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="292" customWidth="1"/>
-    <col min="9" max="9" width="14" style="292" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="293" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="294" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="295" customWidth="1"/>
-    <col min="13" max="13" width="4" style="295" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="295" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="292"/>
+    <col min="1" max="1" width="9.140625" style="290"/>
+    <col min="2" max="2" width="12" style="290" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="290" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="290" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="290" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="290"/>
+    <col min="7" max="7" width="6.28515625" style="290" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="290" customWidth="1"/>
+    <col min="9" max="9" width="14" style="290" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="291" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="292" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="293" customWidth="1"/>
+    <col min="13" max="13" width="4" style="293" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="293" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="290"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="289" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="296" t="s">
+      <c r="A2" s="294" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="393" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="405"/>
-      <c r="C3" s="405"/>
-      <c r="D3" s="405"/>
-      <c r="E3" s="405"/>
-      <c r="F3" s="405"/>
-      <c r="G3" s="405"/>
-      <c r="H3" s="405"/>
-      <c r="I3" s="405"/>
-      <c r="J3" s="405"/>
-      <c r="K3" s="405"/>
-      <c r="L3" s="297"/>
-      <c r="M3" s="297"/>
-      <c r="N3" s="297"/>
+      <c r="B3" s="393"/>
+      <c r="C3" s="393"/>
+      <c r="D3" s="393"/>
+      <c r="E3" s="393"/>
+      <c r="F3" s="393"/>
+      <c r="G3" s="393"/>
+      <c r="H3" s="393"/>
+      <c r="I3" s="393"/>
+      <c r="J3" s="393"/>
+      <c r="K3" s="393"/>
+      <c r="L3" s="295"/>
+      <c r="M3" s="295"/>
+      <c r="N3" s="295"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="406" t="s">
+      <c r="A4" s="394" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="406"/>
-      <c r="C4" s="406"/>
-      <c r="D4" s="406"/>
-      <c r="E4" s="406"/>
-      <c r="F4" s="406"/>
-      <c r="G4" s="406"/>
-      <c r="H4" s="406"/>
-      <c r="I4" s="406"/>
-      <c r="J4" s="407"/>
-      <c r="K4" s="406"/>
-      <c r="L4" s="298"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
+      <c r="B4" s="394"/>
+      <c r="C4" s="394"/>
+      <c r="D4" s="394"/>
+      <c r="E4" s="394"/>
+      <c r="F4" s="394"/>
+      <c r="G4" s="394"/>
+      <c r="H4" s="394"/>
+      <c r="I4" s="394"/>
+      <c r="J4" s="395"/>
+      <c r="K4" s="394"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="408" t="s">
+      <c r="A5" s="396" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="409" t="s">
+      <c r="B5" s="397" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="408" t="s">
+      <c r="C5" s="396" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="408" t="s">
+      <c r="D5" s="396" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="408"/>
-      <c r="F5" s="410" t="s">
+      <c r="E5" s="396"/>
+      <c r="F5" s="398" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="410"/>
-      <c r="H5" s="410"/>
-      <c r="I5" s="410"/>
-      <c r="J5" s="411"/>
-      <c r="K5" s="412" t="s">
+      <c r="G5" s="398"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="398"/>
+      <c r="J5" s="399"/>
+      <c r="K5" s="400" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="404" t="s">
+      <c r="L5" s="392" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="404"/>
-      <c r="N5" s="404"/>
+      <c r="M5" s="392"/>
+      <c r="N5" s="392"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="408"/>
-      <c r="B6" s="409"/>
-      <c r="C6" s="408"/>
-      <c r="D6" s="299" t="s">
+      <c r="A6" s="396"/>
+      <c r="B6" s="397"/>
+      <c r="C6" s="396"/>
+      <c r="D6" s="297" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="300" t="s">
+      <c r="E6" s="298" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="300" t="s">
+      <c r="F6" s="298" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="300" t="s">
+      <c r="G6" s="298" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="301" t="s">
+      <c r="H6" s="299" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="302" t="s">
+      <c r="I6" s="300" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="303" t="s">
+      <c r="J6" s="301" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="412"/>
-      <c r="L6" s="304" t="s">
+      <c r="K6" s="400"/>
+      <c r="L6" s="302" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="304" t="s">
+      <c r="M6" s="302" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="304" t="s">
+      <c r="N6" s="302" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="344"/>
-      <c r="B7" s="345"/>
-      <c r="C7" s="344"/>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="346"/>
-      <c r="G7" s="346"/>
-      <c r="H7" s="347"/>
-      <c r="I7" s="347"/>
-      <c r="J7" s="348"/>
-      <c r="K7" s="347"/>
-      <c r="L7" s="349"/>
-      <c r="M7" s="349"/>
-      <c r="N7" s="350"/>
+      <c r="A7" s="342"/>
+      <c r="B7" s="343"/>
+      <c r="C7" s="342"/>
+      <c r="D7" s="342"/>
+      <c r="E7" s="342"/>
+      <c r="F7" s="344"/>
+      <c r="G7" s="344"/>
+      <c r="H7" s="345"/>
+      <c r="I7" s="345"/>
+      <c r="J7" s="346"/>
+      <c r="K7" s="345"/>
+      <c r="L7" s="347"/>
+      <c r="M7" s="347"/>
+      <c r="N7" s="348"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="397"/>
-      <c r="B8" s="400"/>
-      <c r="C8" s="397"/>
-      <c r="D8" s="397"/>
-      <c r="E8" s="397"/>
-      <c r="F8" s="305"/>
-      <c r="G8" s="305"/>
-      <c r="H8" s="306"/>
-      <c r="I8" s="306"/>
-      <c r="J8" s="307"/>
-      <c r="K8" s="306"/>
-      <c r="L8" s="308"/>
-      <c r="M8" s="308"/>
-      <c r="N8" s="309"/>
+      <c r="A8" s="401"/>
+      <c r="B8" s="403"/>
+      <c r="C8" s="401"/>
+      <c r="D8" s="401"/>
+      <c r="E8" s="401"/>
+      <c r="F8" s="303"/>
+      <c r="G8" s="303"/>
+      <c r="H8" s="304"/>
+      <c r="I8" s="304"/>
+      <c r="J8" s="305"/>
+      <c r="K8" s="304"/>
+      <c r="L8" s="306"/>
+      <c r="M8" s="306"/>
+      <c r="N8" s="307"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="399"/>
-      <c r="B9" s="402"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="322"/>
-      <c r="G9" s="322"/>
-      <c r="H9" s="323"/>
-      <c r="I9" s="323"/>
-      <c r="J9" s="324"/>
-      <c r="K9" s="323"/>
-      <c r="L9" s="326"/>
-      <c r="M9" s="326"/>
-      <c r="N9" s="327"/>
+      <c r="A9" s="402"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="402"/>
+      <c r="D9" s="402"/>
+      <c r="E9" s="402"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="321"/>
+      <c r="I9" s="321"/>
+      <c r="J9" s="322"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="324"/>
+      <c r="M9" s="324"/>
+      <c r="N9" s="325"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="397"/>
-      <c r="B10" s="400"/>
-      <c r="C10" s="397"/>
-      <c r="D10" s="397"/>
-      <c r="E10" s="397"/>
-      <c r="F10" s="305"/>
-      <c r="G10" s="305"/>
-      <c r="H10" s="306"/>
-      <c r="I10" s="306"/>
-      <c r="J10" s="307"/>
-      <c r="K10" s="306"/>
-      <c r="L10" s="308"/>
-      <c r="M10" s="308"/>
-      <c r="N10" s="309"/>
+      <c r="A10" s="401"/>
+      <c r="B10" s="403"/>
+      <c r="C10" s="401"/>
+      <c r="D10" s="401"/>
+      <c r="E10" s="401"/>
+      <c r="F10" s="303"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="304"/>
+      <c r="J10" s="305"/>
+      <c r="K10" s="304"/>
+      <c r="L10" s="306"/>
+      <c r="M10" s="306"/>
+      <c r="N10" s="307"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="398"/>
-      <c r="B11" s="401"/>
-      <c r="C11" s="398"/>
-      <c r="D11" s="398"/>
-      <c r="E11" s="398"/>
-      <c r="F11" s="310"/>
-      <c r="G11" s="310"/>
-      <c r="H11" s="311"/>
-      <c r="I11" s="311"/>
-      <c r="J11" s="312"/>
-      <c r="K11" s="311"/>
-      <c r="L11" s="313"/>
-      <c r="M11" s="313"/>
-      <c r="N11" s="314"/>
+      <c r="A11" s="405"/>
+      <c r="B11" s="406"/>
+      <c r="C11" s="405"/>
+      <c r="D11" s="405"/>
+      <c r="E11" s="405"/>
+      <c r="F11" s="308"/>
+      <c r="G11" s="308"/>
+      <c r="H11" s="309"/>
+      <c r="I11" s="309"/>
+      <c r="J11" s="310"/>
+      <c r="K11" s="309"/>
+      <c r="L11" s="311"/>
+      <c r="M11" s="311"/>
+      <c r="N11" s="312"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="399"/>
-      <c r="B12" s="402"/>
-      <c r="C12" s="399"/>
-      <c r="D12" s="399"/>
-      <c r="E12" s="399"/>
-      <c r="F12" s="322"/>
-      <c r="G12" s="322"/>
-      <c r="H12" s="323"/>
-      <c r="I12" s="323"/>
-      <c r="J12" s="324"/>
-      <c r="K12" s="323"/>
-      <c r="L12" s="326"/>
-      <c r="M12" s="326"/>
-      <c r="N12" s="327"/>
+      <c r="A12" s="402"/>
+      <c r="B12" s="404"/>
+      <c r="C12" s="402"/>
+      <c r="D12" s="402"/>
+      <c r="E12" s="402"/>
+      <c r="F12" s="320"/>
+      <c r="G12" s="320"/>
+      <c r="H12" s="321"/>
+      <c r="I12" s="321"/>
+      <c r="J12" s="322"/>
+      <c r="K12" s="321"/>
+      <c r="L12" s="324"/>
+      <c r="M12" s="324"/>
+      <c r="N12" s="325"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="344"/>
-      <c r="B13" s="345"/>
-      <c r="C13" s="344"/>
-      <c r="D13" s="344"/>
-      <c r="E13" s="344"/>
-      <c r="F13" s="346"/>
-      <c r="G13" s="346"/>
-      <c r="H13" s="347"/>
-      <c r="I13" s="347"/>
-      <c r="J13" s="348"/>
-      <c r="K13" s="347"/>
-      <c r="L13" s="349"/>
-      <c r="M13" s="349"/>
-      <c r="N13" s="350"/>
+      <c r="A13" s="342"/>
+      <c r="B13" s="343"/>
+      <c r="C13" s="342"/>
+      <c r="D13" s="342"/>
+      <c r="E13" s="342"/>
+      <c r="F13" s="344"/>
+      <c r="G13" s="344"/>
+      <c r="H13" s="345"/>
+      <c r="I13" s="345"/>
+      <c r="J13" s="346"/>
+      <c r="K13" s="345"/>
+      <c r="L13" s="347"/>
+      <c r="M13" s="347"/>
+      <c r="N13" s="348"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="344"/>
-      <c r="B14" s="345"/>
-      <c r="C14" s="344"/>
-      <c r="D14" s="344"/>
-      <c r="E14" s="344"/>
-      <c r="F14" s="346"/>
-      <c r="G14" s="346"/>
-      <c r="H14" s="347"/>
-      <c r="I14" s="347"/>
-      <c r="J14" s="348"/>
-      <c r="K14" s="347"/>
-      <c r="L14" s="349"/>
-      <c r="M14" s="349"/>
-      <c r="N14" s="350"/>
+      <c r="A14" s="342"/>
+      <c r="B14" s="343"/>
+      <c r="C14" s="342"/>
+      <c r="D14" s="342"/>
+      <c r="E14" s="342"/>
+      <c r="F14" s="344"/>
+      <c r="G14" s="344"/>
+      <c r="H14" s="345"/>
+      <c r="I14" s="345"/>
+      <c r="J14" s="346"/>
+      <c r="K14" s="345"/>
+      <c r="L14" s="347"/>
+      <c r="M14" s="347"/>
+      <c r="N14" s="348"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="344"/>
-      <c r="B15" s="345"/>
-      <c r="C15" s="344"/>
-      <c r="D15" s="344"/>
-      <c r="E15" s="344"/>
-      <c r="F15" s="346"/>
-      <c r="G15" s="346"/>
-      <c r="H15" s="347"/>
-      <c r="I15" s="347"/>
-      <c r="J15" s="348"/>
-      <c r="K15" s="347"/>
-      <c r="L15" s="349"/>
-      <c r="M15" s="349"/>
-      <c r="N15" s="350"/>
+      <c r="A15" s="342"/>
+      <c r="B15" s="343"/>
+      <c r="C15" s="342"/>
+      <c r="D15" s="342"/>
+      <c r="E15" s="342"/>
+      <c r="F15" s="344"/>
+      <c r="G15" s="344"/>
+      <c r="H15" s="345"/>
+      <c r="I15" s="345"/>
+      <c r="J15" s="346"/>
+      <c r="K15" s="345"/>
+      <c r="L15" s="347"/>
+      <c r="M15" s="347"/>
+      <c r="N15" s="348"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="397"/>
-      <c r="B16" s="400"/>
-      <c r="C16" s="397"/>
-      <c r="D16" s="397"/>
-      <c r="E16" s="397"/>
-      <c r="F16" s="305"/>
-      <c r="G16" s="305"/>
-      <c r="H16" s="306"/>
-      <c r="I16" s="306"/>
-      <c r="J16" s="307"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="308"/>
-      <c r="M16" s="308"/>
-      <c r="N16" s="309"/>
+      <c r="A16" s="401"/>
+      <c r="B16" s="403"/>
+      <c r="C16" s="401"/>
+      <c r="D16" s="401"/>
+      <c r="E16" s="401"/>
+      <c r="F16" s="303"/>
+      <c r="G16" s="303"/>
+      <c r="H16" s="304"/>
+      <c r="I16" s="304"/>
+      <c r="J16" s="305"/>
+      <c r="K16" s="304"/>
+      <c r="L16" s="306"/>
+      <c r="M16" s="306"/>
+      <c r="N16" s="307"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="399"/>
-      <c r="B17" s="402"/>
-      <c r="C17" s="399"/>
-      <c r="D17" s="399"/>
-      <c r="E17" s="399"/>
-      <c r="F17" s="322"/>
-      <c r="G17" s="322"/>
-      <c r="H17" s="323"/>
-      <c r="I17" s="323"/>
-      <c r="J17" s="324"/>
-      <c r="K17" s="323"/>
-      <c r="L17" s="326"/>
-      <c r="M17" s="326"/>
-      <c r="N17" s="327"/>
+      <c r="A17" s="402"/>
+      <c r="B17" s="404"/>
+      <c r="C17" s="402"/>
+      <c r="D17" s="402"/>
+      <c r="E17" s="402"/>
+      <c r="F17" s="320"/>
+      <c r="G17" s="320"/>
+      <c r="H17" s="321"/>
+      <c r="I17" s="321"/>
+      <c r="J17" s="322"/>
+      <c r="K17" s="321"/>
+      <c r="L17" s="324"/>
+      <c r="M17" s="324"/>
+      <c r="N17" s="325"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="397"/>
-      <c r="B18" s="400"/>
-      <c r="C18" s="397"/>
-      <c r="D18" s="397"/>
-      <c r="E18" s="397"/>
-      <c r="F18" s="305"/>
-      <c r="G18" s="305"/>
-      <c r="H18" s="306"/>
-      <c r="I18" s="306"/>
-      <c r="J18" s="307"/>
-      <c r="K18" s="306"/>
-      <c r="L18" s="308"/>
-      <c r="M18" s="308"/>
-      <c r="N18" s="309"/>
+      <c r="A18" s="401"/>
+      <c r="B18" s="403"/>
+      <c r="C18" s="401"/>
+      <c r="D18" s="401"/>
+      <c r="E18" s="401"/>
+      <c r="F18" s="303"/>
+      <c r="G18" s="303"/>
+      <c r="H18" s="304"/>
+      <c r="I18" s="304"/>
+      <c r="J18" s="305"/>
+      <c r="K18" s="304"/>
+      <c r="L18" s="306"/>
+      <c r="M18" s="306"/>
+      <c r="N18" s="307"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="399"/>
-      <c r="B19" s="402"/>
-      <c r="C19" s="399"/>
-      <c r="D19" s="399"/>
-      <c r="E19" s="399"/>
-      <c r="F19" s="322"/>
-      <c r="G19" s="322"/>
-      <c r="H19" s="323"/>
-      <c r="I19" s="323"/>
-      <c r="J19" s="324"/>
-      <c r="K19" s="323"/>
-      <c r="L19" s="326"/>
-      <c r="M19" s="326"/>
-      <c r="N19" s="327"/>
+      <c r="A19" s="402"/>
+      <c r="B19" s="404"/>
+      <c r="C19" s="402"/>
+      <c r="D19" s="402"/>
+      <c r="E19" s="402"/>
+      <c r="F19" s="320"/>
+      <c r="G19" s="320"/>
+      <c r="H19" s="321"/>
+      <c r="I19" s="321"/>
+      <c r="J19" s="322"/>
+      <c r="K19" s="321"/>
+      <c r="L19" s="324"/>
+      <c r="M19" s="324"/>
+      <c r="N19" s="325"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="344"/>
-      <c r="B20" s="345"/>
-      <c r="C20" s="344"/>
-      <c r="D20" s="344"/>
-      <c r="E20" s="344"/>
-      <c r="F20" s="346"/>
-      <c r="G20" s="346"/>
-      <c r="H20" s="347"/>
-      <c r="I20" s="347"/>
-      <c r="J20" s="348"/>
-      <c r="K20" s="347"/>
-      <c r="L20" s="349"/>
-      <c r="M20" s="349"/>
-      <c r="N20" s="350"/>
+      <c r="A20" s="342"/>
+      <c r="B20" s="343"/>
+      <c r="C20" s="342"/>
+      <c r="D20" s="342"/>
+      <c r="E20" s="342"/>
+      <c r="F20" s="344"/>
+      <c r="G20" s="344"/>
+      <c r="H20" s="345"/>
+      <c r="I20" s="345"/>
+      <c r="J20" s="346"/>
+      <c r="K20" s="345"/>
+      <c r="L20" s="347"/>
+      <c r="M20" s="347"/>
+      <c r="N20" s="348"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="344"/>
-      <c r="B21" s="345"/>
-      <c r="C21" s="344"/>
-      <c r="D21" s="344"/>
-      <c r="E21" s="344"/>
-      <c r="F21" s="346"/>
-      <c r="G21" s="346"/>
-      <c r="H21" s="347"/>
-      <c r="I21" s="347"/>
-      <c r="J21" s="348"/>
-      <c r="K21" s="347"/>
-      <c r="L21" s="349"/>
-      <c r="M21" s="349"/>
-      <c r="N21" s="350"/>
+      <c r="A21" s="342"/>
+      <c r="B21" s="343"/>
+      <c r="C21" s="342"/>
+      <c r="D21" s="342"/>
+      <c r="E21" s="342"/>
+      <c r="F21" s="344"/>
+      <c r="G21" s="344"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="346"/>
+      <c r="K21" s="345"/>
+      <c r="L21" s="347"/>
+      <c r="M21" s="347"/>
+      <c r="N21" s="348"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="344"/>
-      <c r="B22" s="345"/>
-      <c r="C22" s="344"/>
-      <c r="D22" s="344"/>
-      <c r="E22" s="344"/>
-      <c r="F22" s="346"/>
-      <c r="G22" s="346"/>
-      <c r="H22" s="347"/>
-      <c r="I22" s="347"/>
-      <c r="J22" s="348"/>
-      <c r="K22" s="351"/>
-      <c r="L22" s="349"/>
-      <c r="M22" s="349"/>
-      <c r="N22" s="350"/>
+      <c r="A22" s="342"/>
+      <c r="B22" s="343"/>
+      <c r="C22" s="342"/>
+      <c r="D22" s="342"/>
+      <c r="E22" s="342"/>
+      <c r="F22" s="344"/>
+      <c r="G22" s="344"/>
+      <c r="H22" s="345"/>
+      <c r="I22" s="345"/>
+      <c r="J22" s="346"/>
+      <c r="K22" s="349"/>
+      <c r="L22" s="347"/>
+      <c r="M22" s="347"/>
+      <c r="N22" s="348"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="344"/>
-      <c r="B23" s="345"/>
-      <c r="C23" s="344"/>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="346"/>
-      <c r="G23" s="346"/>
-      <c r="H23" s="347"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="348"/>
-      <c r="K23" s="351"/>
-      <c r="L23" s="349"/>
-      <c r="M23" s="349"/>
-      <c r="N23" s="350"/>
+      <c r="A23" s="342"/>
+      <c r="B23" s="343"/>
+      <c r="C23" s="342"/>
+      <c r="D23" s="342"/>
+      <c r="E23" s="342"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="344"/>
+      <c r="H23" s="345"/>
+      <c r="I23" s="345"/>
+      <c r="J23" s="346"/>
+      <c r="K23" s="349"/>
+      <c r="L23" s="347"/>
+      <c r="M23" s="347"/>
+      <c r="N23" s="348"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="397"/>
-      <c r="B24" s="400"/>
-      <c r="C24" s="397"/>
-      <c r="D24" s="397"/>
-      <c r="E24" s="397"/>
-      <c r="F24" s="305"/>
-      <c r="G24" s="305"/>
-      <c r="H24" s="306"/>
-      <c r="I24" s="306"/>
-      <c r="J24" s="307"/>
-      <c r="K24" s="358"/>
-      <c r="L24" s="308"/>
-      <c r="M24" s="308"/>
-      <c r="N24" s="309"/>
+      <c r="A24" s="401"/>
+      <c r="B24" s="403"/>
+      <c r="C24" s="401"/>
+      <c r="D24" s="401"/>
+      <c r="E24" s="401"/>
+      <c r="F24" s="303"/>
+      <c r="G24" s="303"/>
+      <c r="H24" s="304"/>
+      <c r="I24" s="304"/>
+      <c r="J24" s="305"/>
+      <c r="K24" s="356"/>
+      <c r="L24" s="306"/>
+      <c r="M24" s="306"/>
+      <c r="N24" s="307"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="398"/>
-      <c r="B25" s="401"/>
-      <c r="C25" s="398"/>
-      <c r="D25" s="398"/>
-      <c r="E25" s="398"/>
-      <c r="F25" s="310"/>
-      <c r="G25" s="310"/>
-      <c r="H25" s="311"/>
-      <c r="I25" s="311"/>
-      <c r="J25" s="312"/>
-      <c r="K25" s="315"/>
-      <c r="L25" s="313"/>
-      <c r="M25" s="313"/>
-      <c r="N25" s="314"/>
+      <c r="A25" s="405"/>
+      <c r="B25" s="406"/>
+      <c r="C25" s="405"/>
+      <c r="D25" s="405"/>
+      <c r="E25" s="405"/>
+      <c r="F25" s="308"/>
+      <c r="G25" s="308"/>
+      <c r="H25" s="309"/>
+      <c r="I25" s="309"/>
+      <c r="J25" s="310"/>
+      <c r="K25" s="313"/>
+      <c r="L25" s="311"/>
+      <c r="M25" s="311"/>
+      <c r="N25" s="312"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="398"/>
-      <c r="B26" s="401"/>
-      <c r="C26" s="398"/>
-      <c r="D26" s="398"/>
-      <c r="E26" s="398"/>
-      <c r="F26" s="310"/>
-      <c r="G26" s="310"/>
-      <c r="H26" s="311"/>
-      <c r="I26" s="311"/>
-      <c r="J26" s="312"/>
-      <c r="K26" s="315"/>
-      <c r="L26" s="313"/>
-      <c r="M26" s="313"/>
-      <c r="N26" s="314"/>
+      <c r="A26" s="405"/>
+      <c r="B26" s="406"/>
+      <c r="C26" s="405"/>
+      <c r="D26" s="405"/>
+      <c r="E26" s="405"/>
+      <c r="F26" s="308"/>
+      <c r="G26" s="308"/>
+      <c r="H26" s="309"/>
+      <c r="I26" s="309"/>
+      <c r="J26" s="310"/>
+      <c r="K26" s="313"/>
+      <c r="L26" s="311"/>
+      <c r="M26" s="311"/>
+      <c r="N26" s="312"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="398"/>
-      <c r="B27" s="401"/>
-      <c r="C27" s="398"/>
-      <c r="D27" s="398"/>
-      <c r="E27" s="398"/>
-      <c r="F27" s="310"/>
-      <c r="G27" s="310"/>
-      <c r="H27" s="311"/>
-      <c r="I27" s="311"/>
-      <c r="J27" s="312"/>
-      <c r="K27" s="315"/>
-      <c r="L27" s="313"/>
-      <c r="M27" s="313"/>
-      <c r="N27" s="314"/>
+      <c r="A27" s="405"/>
+      <c r="B27" s="406"/>
+      <c r="C27" s="405"/>
+      <c r="D27" s="405"/>
+      <c r="E27" s="405"/>
+      <c r="F27" s="308"/>
+      <c r="G27" s="308"/>
+      <c r="H27" s="309"/>
+      <c r="I27" s="309"/>
+      <c r="J27" s="310"/>
+      <c r="K27" s="313"/>
+      <c r="L27" s="311"/>
+      <c r="M27" s="311"/>
+      <c r="N27" s="312"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="398"/>
-      <c r="B28" s="401"/>
-      <c r="C28" s="398"/>
-      <c r="D28" s="398"/>
-      <c r="E28" s="398"/>
-      <c r="F28" s="310"/>
-      <c r="G28" s="310"/>
-      <c r="H28" s="311"/>
-      <c r="I28" s="311"/>
-      <c r="J28" s="312"/>
-      <c r="K28" s="315"/>
-      <c r="L28" s="313"/>
-      <c r="M28" s="313"/>
-      <c r="N28" s="314"/>
+      <c r="A28" s="405"/>
+      <c r="B28" s="406"/>
+      <c r="C28" s="405"/>
+      <c r="D28" s="405"/>
+      <c r="E28" s="405"/>
+      <c r="F28" s="308"/>
+      <c r="G28" s="308"/>
+      <c r="H28" s="309"/>
+      <c r="I28" s="309"/>
+      <c r="J28" s="310"/>
+      <c r="K28" s="313"/>
+      <c r="L28" s="311"/>
+      <c r="M28" s="311"/>
+      <c r="N28" s="312"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="398"/>
-      <c r="B29" s="401"/>
-      <c r="C29" s="398"/>
-      <c r="D29" s="398"/>
-      <c r="E29" s="398"/>
-      <c r="F29" s="310"/>
-      <c r="G29" s="310"/>
-      <c r="H29" s="311"/>
-      <c r="I29" s="311"/>
-      <c r="J29" s="312"/>
-      <c r="K29" s="315"/>
-      <c r="L29" s="313"/>
-      <c r="M29" s="313"/>
-      <c r="N29" s="314"/>
+      <c r="A29" s="405"/>
+      <c r="B29" s="406"/>
+      <c r="C29" s="405"/>
+      <c r="D29" s="405"/>
+      <c r="E29" s="405"/>
+      <c r="F29" s="308"/>
+      <c r="G29" s="308"/>
+      <c r="H29" s="309"/>
+      <c r="I29" s="309"/>
+      <c r="J29" s="310"/>
+      <c r="K29" s="313"/>
+      <c r="L29" s="311"/>
+      <c r="M29" s="311"/>
+      <c r="N29" s="312"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="399"/>
-      <c r="B30" s="402"/>
-      <c r="C30" s="399"/>
-      <c r="D30" s="399"/>
-      <c r="E30" s="399"/>
-      <c r="F30" s="322"/>
-      <c r="G30" s="322"/>
-      <c r="H30" s="323"/>
-      <c r="I30" s="323"/>
-      <c r="J30" s="324"/>
-      <c r="K30" s="325"/>
-      <c r="L30" s="326"/>
-      <c r="M30" s="326"/>
-      <c r="N30" s="327"/>
+      <c r="A30" s="402"/>
+      <c r="B30" s="404"/>
+      <c r="C30" s="402"/>
+      <c r="D30" s="402"/>
+      <c r="E30" s="402"/>
+      <c r="F30" s="320"/>
+      <c r="G30" s="320"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="321"/>
+      <c r="J30" s="322"/>
+      <c r="K30" s="323"/>
+      <c r="L30" s="324"/>
+      <c r="M30" s="324"/>
+      <c r="N30" s="325"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="393"/>
-      <c r="B31" s="395"/>
-      <c r="C31" s="393"/>
-      <c r="D31" s="393"/>
-      <c r="E31" s="393"/>
-      <c r="F31" s="352"/>
-      <c r="G31" s="352"/>
-      <c r="H31" s="353"/>
-      <c r="I31" s="353"/>
-      <c r="J31" s="354"/>
-      <c r="K31" s="357"/>
-      <c r="L31" s="355"/>
-      <c r="M31" s="355"/>
-      <c r="N31" s="356"/>
+      <c r="A31" s="407"/>
+      <c r="B31" s="409"/>
+      <c r="C31" s="407"/>
+      <c r="D31" s="407"/>
+      <c r="E31" s="407"/>
+      <c r="F31" s="350"/>
+      <c r="G31" s="350"/>
+      <c r="H31" s="351"/>
+      <c r="I31" s="351"/>
+      <c r="J31" s="352"/>
+      <c r="K31" s="355"/>
+      <c r="L31" s="353"/>
+      <c r="M31" s="353"/>
+      <c r="N31" s="354"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="393"/>
-      <c r="B32" s="395"/>
-      <c r="C32" s="393"/>
-      <c r="D32" s="393"/>
-      <c r="E32" s="393"/>
-      <c r="F32" s="316"/>
-      <c r="G32" s="316"/>
-      <c r="H32" s="317"/>
-      <c r="I32" s="317"/>
-      <c r="J32" s="318"/>
-      <c r="K32" s="319"/>
-      <c r="L32" s="320"/>
-      <c r="M32" s="320"/>
-      <c r="N32" s="321"/>
+      <c r="A32" s="407"/>
+      <c r="B32" s="409"/>
+      <c r="C32" s="407"/>
+      <c r="D32" s="407"/>
+      <c r="E32" s="407"/>
+      <c r="F32" s="314"/>
+      <c r="G32" s="314"/>
+      <c r="H32" s="315"/>
+      <c r="I32" s="315"/>
+      <c r="J32" s="316"/>
+      <c r="K32" s="317"/>
+      <c r="L32" s="318"/>
+      <c r="M32" s="318"/>
+      <c r="N32" s="319"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="393"/>
-      <c r="B33" s="395"/>
-      <c r="C33" s="393"/>
-      <c r="D33" s="393"/>
-      <c r="E33" s="393"/>
-      <c r="F33" s="316"/>
-      <c r="G33" s="316"/>
-      <c r="H33" s="317"/>
-      <c r="I33" s="317"/>
-      <c r="J33" s="318"/>
-      <c r="K33" s="319"/>
-      <c r="L33" s="320"/>
-      <c r="M33" s="320"/>
-      <c r="N33" s="321"/>
+      <c r="A33" s="407"/>
+      <c r="B33" s="409"/>
+      <c r="C33" s="407"/>
+      <c r="D33" s="407"/>
+      <c r="E33" s="407"/>
+      <c r="F33" s="314"/>
+      <c r="G33" s="314"/>
+      <c r="H33" s="315"/>
+      <c r="I33" s="315"/>
+      <c r="J33" s="316"/>
+      <c r="K33" s="317"/>
+      <c r="L33" s="318"/>
+      <c r="M33" s="318"/>
+      <c r="N33" s="319"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="394"/>
-      <c r="B34" s="396"/>
-      <c r="C34" s="394"/>
-      <c r="D34" s="394"/>
-      <c r="E34" s="394"/>
-      <c r="F34" s="322"/>
-      <c r="G34" s="322"/>
-      <c r="H34" s="323"/>
-      <c r="I34" s="323"/>
-      <c r="J34" s="324"/>
-      <c r="K34" s="325"/>
-      <c r="L34" s="326"/>
-      <c r="M34" s="326"/>
-      <c r="N34" s="327"/>
-    </row>
-    <row r="35" spans="1:14" s="334" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="403" t="s">
+      <c r="A34" s="408"/>
+      <c r="B34" s="410"/>
+      <c r="C34" s="408"/>
+      <c r="D34" s="408"/>
+      <c r="E34" s="408"/>
+      <c r="F34" s="320"/>
+      <c r="G34" s="320"/>
+      <c r="H34" s="321"/>
+      <c r="I34" s="321"/>
+      <c r="J34" s="322"/>
+      <c r="K34" s="323"/>
+      <c r="L34" s="324"/>
+      <c r="M34" s="324"/>
+      <c r="N34" s="325"/>
+    </row>
+    <row r="35" spans="1:14" s="332" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="391" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="403"/>
-      <c r="C35" s="403"/>
-      <c r="D35" s="403"/>
-      <c r="E35" s="403"/>
-      <c r="F35" s="328"/>
-      <c r="G35" s="328">
+      <c r="B35" s="391"/>
+      <c r="C35" s="391"/>
+      <c r="D35" s="391"/>
+      <c r="E35" s="391"/>
+      <c r="F35" s="326"/>
+      <c r="G35" s="326">
         <f>SUM(G7:G34)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="329"/>
-      <c r="I35" s="329">
+      <c r="H35" s="327"/>
+      <c r="I35" s="327">
         <f>SUM(I7:I34)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="330"/>
-      <c r="K35" s="331">
+      <c r="J35" s="328"/>
+      <c r="K35" s="329">
         <f>SUM(K7:K34)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="332"/>
-      <c r="M35" s="332"/>
-      <c r="N35" s="333">
+      <c r="L35" s="330"/>
+      <c r="M35" s="330"/>
+      <c r="N35" s="331">
         <f>SUM(N7:N34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="335"/>
-      <c r="H36" s="335"/>
+      <c r="G36" s="333"/>
+      <c r="H36" s="333"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G37" s="335"/>
-      <c r="H37" s="335"/>
-    </row>
-    <row r="38" spans="1:14" s="336" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="337"/>
-      <c r="E38" s="338" t="s">
+      <c r="G37" s="333"/>
+      <c r="H37" s="333"/>
+    </row>
+    <row r="38" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="335"/>
+      <c r="E38" s="336" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="337"/>
-      <c r="G38" s="337"/>
-      <c r="H38" s="337"/>
-      <c r="K38" s="338"/>
-      <c r="L38" s="338" t="s">
+      <c r="F38" s="335"/>
+      <c r="G38" s="335"/>
+      <c r="H38" s="335"/>
+      <c r="K38" s="336"/>
+      <c r="L38" s="336" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="336" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="339"/>
-      <c r="E39" s="340" t="s">
+    <row r="39" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="337"/>
+      <c r="E39" s="338" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="339"/>
-      <c r="G39" s="339"/>
-      <c r="H39" s="339"/>
-      <c r="K39" s="340"/>
-      <c r="L39" s="340" t="s">
+      <c r="F39" s="337"/>
+      <c r="G39" s="337"/>
+      <c r="H39" s="337"/>
+      <c r="K39" s="338"/>
+      <c r="L39" s="338" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G40" s="335"/>
-      <c r="H40" s="335"/>
+      <c r="G40" s="333"/>
+      <c r="H40" s="333"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G41" s="335"/>
-      <c r="H41" s="335"/>
-    </row>
-    <row r="42" spans="1:14" s="341" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="338"/>
-      <c r="E42" s="338"/>
-      <c r="F42" s="342"/>
-      <c r="K42" s="343"/>
-      <c r="L42" s="295"/>
-      <c r="M42" s="295"/>
-      <c r="N42" s="295"/>
+      <c r="G41" s="333"/>
+      <c r="H41" s="333"/>
+    </row>
+    <row r="42" spans="1:14" s="339" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="336"/>
+      <c r="E42" s="336"/>
+      <c r="F42" s="340"/>
+      <c r="K42" s="341"/>
+      <c r="L42" s="293"/>
+      <c r="M42" s="293"/>
+      <c r="N42" s="293"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G43" s="335"/>
-      <c r="H43" s="335"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G44" s="335"/>
-      <c r="H44" s="335"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G45" s="335"/>
-      <c r="H45" s="335"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -6113,30 +6131,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6197,24 +6191,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="413" t="s">
+      <c r="A4" s="411" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="413"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="413"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="411"/>
+      <c r="D4" s="411"/>
+      <c r="E4" s="411"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="414" t="s">
+      <c r="A5" s="412" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="414"/>
-      <c r="C5" s="414"/>
-      <c r="D5" s="414"/>
-      <c r="E5" s="414"/>
+      <c r="B5" s="412"/>
+      <c r="C5" s="412"/>
+      <c r="D5" s="412"/>
+      <c r="E5" s="412"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -6293,7 +6287,7 @@
         <f>'DOANH THU'!L80</f>
         <v>0</v>
       </c>
-      <c r="E10" s="415">
+      <c r="E10" s="413">
         <f>D10+D11+D12</f>
         <v>0</v>
       </c>
@@ -6312,7 +6306,7 @@
         <f>'DOANH THU'!L81</f>
         <v>0</v>
       </c>
-      <c r="E11" s="416"/>
+      <c r="E11" s="414"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -6323,7 +6317,7 @@
       <c r="B12" s="119"/>
       <c r="C12" s="119"/>
       <c r="D12" s="142"/>
-      <c r="E12" s="417"/>
+      <c r="E12" s="415"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
@@ -6598,350 +6592,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="418" t="s">
+      <c r="A1" s="424" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="418"/>
-      <c r="C1" s="418"/>
-      <c r="D1" s="418"/>
-      <c r="E1" s="418"/>
+      <c r="B1" s="424"/>
+      <c r="C1" s="424"/>
+      <c r="D1" s="424"/>
+      <c r="E1" s="424"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="261" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="419" t="s">
+      <c r="A4" s="425" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="419"/>
-      <c r="C4" s="419"/>
-      <c r="D4" s="419"/>
-      <c r="E4" s="419"/>
-      <c r="F4" s="419"/>
-      <c r="G4" s="419"/>
-      <c r="H4" s="419"/>
+      <c r="B4" s="425"/>
+      <c r="C4" s="425"/>
+      <c r="D4" s="425"/>
+      <c r="E4" s="425"/>
+      <c r="F4" s="425"/>
+      <c r="G4" s="425"/>
+      <c r="H4" s="425"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="420" t="s">
+      <c r="A6" s="426" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="420"/>
-      <c r="C6" s="420"/>
-      <c r="D6" s="420"/>
-      <c r="E6" s="420"/>
-      <c r="F6" s="420"/>
-      <c r="G6" s="421" t="s">
+      <c r="B6" s="426"/>
+      <c r="C6" s="426"/>
+      <c r="D6" s="426"/>
+      <c r="E6" s="426"/>
+      <c r="F6" s="426"/>
+      <c r="G6" s="427" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="421"/>
+      <c r="H6" s="427"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="434" t="s">
+      <c r="A7" s="440" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="435"/>
-      <c r="C7" s="272"/>
-      <c r="D7" s="273"/>
+      <c r="B7" s="441"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="271"/>
       <c r="E7" s="65" t="s">
         <v>140</v>
       </c>
       <c r="F7" s="65"/>
-      <c r="G7" s="432">
+      <c r="G7" s="438">
         <v>4744538</v>
       </c>
-      <c r="H7" s="433"/>
+      <c r="H7" s="439"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="436"/>
-      <c r="B8" s="437"/>
-      <c r="C8" s="272"/>
-      <c r="D8" s="273"/>
+      <c r="A8" s="442"/>
+      <c r="B8" s="443"/>
+      <c r="C8" s="270"/>
+      <c r="D8" s="271"/>
       <c r="E8" s="65" t="s">
         <v>141</v>
       </c>
       <c r="F8" s="65"/>
-      <c r="G8" s="432">
+      <c r="G8" s="438">
         <v>6713000</v>
       </c>
-      <c r="H8" s="433"/>
+      <c r="H8" s="439"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="422" t="s">
+      <c r="A9" s="428" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="423"/>
-      <c r="C9" s="423"/>
-      <c r="D9" s="424"/>
-      <c r="E9" s="264" t="s">
+      <c r="B9" s="429"/>
+      <c r="C9" s="429"/>
+      <c r="D9" s="430"/>
+      <c r="E9" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="265">
+      <c r="F9" s="263">
         <v>260000</v>
       </c>
-      <c r="G9" s="428">
+      <c r="G9" s="434">
         <f>SUM(F9:F13)</f>
         <v>3477000</v>
       </c>
-      <c r="H9" s="429"/>
+      <c r="H9" s="435"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="425"/>
-      <c r="B10" s="426"/>
-      <c r="C10" s="426"/>
-      <c r="D10" s="427"/>
-      <c r="E10" s="264" t="s">
+      <c r="A10" s="431"/>
+      <c r="B10" s="432"/>
+      <c r="C10" s="432"/>
+      <c r="D10" s="433"/>
+      <c r="E10" s="262" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="265">
+      <c r="F10" s="263">
         <v>877000</v>
       </c>
-      <c r="G10" s="430"/>
-      <c r="H10" s="431"/>
+      <c r="G10" s="436"/>
+      <c r="H10" s="437"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="425"/>
-      <c r="B11" s="426"/>
-      <c r="C11" s="426"/>
-      <c r="D11" s="427"/>
-      <c r="E11" s="264" t="s">
+      <c r="A11" s="431"/>
+      <c r="B11" s="432"/>
+      <c r="C11" s="432"/>
+      <c r="D11" s="433"/>
+      <c r="E11" s="262" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="265">
+      <c r="F11" s="263">
         <v>441000</v>
       </c>
-      <c r="G11" s="430"/>
-      <c r="H11" s="431"/>
+      <c r="G11" s="436"/>
+      <c r="H11" s="437"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="425"/>
-      <c r="B12" s="426"/>
-      <c r="C12" s="426"/>
-      <c r="D12" s="427"/>
-      <c r="E12" s="264" t="s">
+      <c r="A12" s="431"/>
+      <c r="B12" s="432"/>
+      <c r="C12" s="432"/>
+      <c r="D12" s="433"/>
+      <c r="E12" s="262" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="265">
+      <c r="F12" s="263">
         <v>892000</v>
       </c>
-      <c r="G12" s="430"/>
-      <c r="H12" s="431"/>
+      <c r="G12" s="436"/>
+      <c r="H12" s="437"/>
     </row>
     <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="425"/>
-      <c r="B13" s="426"/>
-      <c r="C13" s="426"/>
-      <c r="D13" s="427"/>
-      <c r="E13" s="274" t="s">
+      <c r="A13" s="431"/>
+      <c r="B13" s="432"/>
+      <c r="C13" s="432"/>
+      <c r="D13" s="433"/>
+      <c r="E13" s="272" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="265">
+      <c r="F13" s="263">
         <v>1007000</v>
       </c>
-      <c r="G13" s="430"/>
-      <c r="H13" s="431"/>
+      <c r="G13" s="436"/>
+      <c r="H13" s="437"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="441" t="s">
+      <c r="A14" s="419" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="441"/>
-      <c r="C14" s="441"/>
-      <c r="D14" s="441"/>
-      <c r="E14" s="441"/>
-      <c r="F14" s="441"/>
-      <c r="G14" s="442">
+      <c r="B14" s="419"/>
+      <c r="C14" s="419"/>
+      <c r="D14" s="419"/>
+      <c r="E14" s="419"/>
+      <c r="F14" s="419"/>
+      <c r="G14" s="420">
         <f>'Bảng lương'!J12</f>
         <v>6000000</v>
       </c>
-      <c r="H14" s="442"/>
+      <c r="H14" s="420"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="443" t="s">
+      <c r="A15" s="421" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="443"/>
-      <c r="C15" s="443"/>
-      <c r="D15" s="443"/>
-      <c r="E15" s="443"/>
-      <c r="F15" s="443"/>
-      <c r="G15" s="444">
+      <c r="B15" s="421"/>
+      <c r="C15" s="421"/>
+      <c r="D15" s="421"/>
+      <c r="E15" s="421"/>
+      <c r="F15" s="421"/>
+      <c r="G15" s="422">
         <f>G7+G8+G9+G14</f>
         <v>20934538</v>
       </c>
-      <c r="H15" s="444"/>
+      <c r="H15" s="422"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="282" t="s">
+      <c r="A17" s="280" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="275"/>
-      <c r="C17" s="275"/>
-      <c r="D17" s="275"/>
-      <c r="E17" s="275"/>
+      <c r="B17" s="273"/>
+      <c r="C17" s="273"/>
+      <c r="D17" s="273"/>
+      <c r="E17" s="273"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="445">
+      <c r="A18" s="423">
         <v>44106</v>
       </c>
-      <c r="B18" s="445"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="276"/>
-      <c r="E18" s="276" t="s">
+      <c r="B18" s="423"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="274"/>
+      <c r="E18" s="274" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="277">
+      <c r="F18" s="275">
         <v>455000</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="445">
+      <c r="A19" s="423">
         <v>44116</v>
       </c>
-      <c r="B19" s="445"/>
-      <c r="C19" s="276"/>
-      <c r="D19" s="276"/>
-      <c r="E19" s="276" t="s">
+      <c r="B19" s="423"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="274"/>
+      <c r="E19" s="274" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="277">
+      <c r="F19" s="275">
         <v>2000000</v>
       </c>
-      <c r="K19" s="281"/>
+      <c r="K19" s="279"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="445">
+      <c r="A20" s="423">
         <v>44120</v>
       </c>
-      <c r="B20" s="445"/>
-      <c r="C20" s="276"/>
-      <c r="D20" s="276"/>
-      <c r="E20" s="276" t="s">
+      <c r="B20" s="423"/>
+      <c r="C20" s="274"/>
+      <c r="D20" s="274"/>
+      <c r="E20" s="274" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="277">
+      <c r="F20" s="275">
         <v>2000000</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="445">
+      <c r="A21" s="423">
         <v>44128</v>
       </c>
-      <c r="B21" s="445"/>
-      <c r="C21" s="276"/>
-      <c r="D21" s="276"/>
-      <c r="E21" s="276" t="s">
+      <c r="B21" s="423"/>
+      <c r="C21" s="274"/>
+      <c r="D21" s="274"/>
+      <c r="E21" s="274" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="277">
+      <c r="F21" s="275">
         <v>2200000</v>
       </c>
-      <c r="K21" s="281"/>
+      <c r="K21" s="279"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="445">
+      <c r="A22" s="423">
         <v>44129</v>
       </c>
-      <c r="B22" s="445"/>
-      <c r="C22" s="276"/>
-      <c r="D22" s="276"/>
-      <c r="E22" s="276" t="s">
+      <c r="B22" s="423"/>
+      <c r="C22" s="274"/>
+      <c r="D22" s="274"/>
+      <c r="E22" s="274" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="277">
+      <c r="F22" s="275">
         <v>418900</v>
       </c>
-      <c r="K22" s="281"/>
+      <c r="K22" s="279"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="445">
+      <c r="A23" s="423">
         <v>44131</v>
       </c>
-      <c r="B23" s="445"/>
-      <c r="C23" s="276"/>
-      <c r="D23" s="276"/>
-      <c r="E23" s="290" t="s">
+      <c r="B23" s="423"/>
+      <c r="C23" s="274"/>
+      <c r="D23" s="274"/>
+      <c r="E23" s="288" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="277">
+      <c r="F23" s="275">
         <v>435000</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="438" t="s">
+      <c r="A24" s="416" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="439"/>
-      <c r="C24" s="439"/>
-      <c r="D24" s="439"/>
-      <c r="E24" s="440"/>
-      <c r="F24" s="283">
+      <c r="B24" s="417"/>
+      <c r="C24" s="417"/>
+      <c r="D24" s="417"/>
+      <c r="E24" s="418"/>
+      <c r="F24" s="281">
         <f>SUM(F18:F23)</f>
         <v>7508900</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="278"/>
-      <c r="B25" s="278"/>
-      <c r="C25" s="279"/>
-      <c r="D25" s="279"/>
-      <c r="E25" s="280"/>
+      <c r="A25" s="276"/>
+      <c r="B25" s="276"/>
+      <c r="C25" s="277"/>
+      <c r="D25" s="277"/>
+      <c r="E25" s="278"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="285" t="s">
+      <c r="A26" s="283" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="286"/>
-      <c r="C26" s="287"/>
-      <c r="D26" s="287"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="284">
+      <c r="B26" s="284"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="286"/>
+      <c r="F26" s="282">
         <f>G15-F24</f>
         <v>13425638</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="278"/>
-      <c r="B27" s="278"/>
-      <c r="C27" s="279"/>
-      <c r="D27" s="279"/>
-      <c r="E27" s="280"/>
-    </row>
-    <row r="29" spans="1:11" s="267" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="266" t="s">
+      <c r="A27" s="276"/>
+      <c r="B27" s="276"/>
+      <c r="C27" s="277"/>
+      <c r="D27" s="277"/>
+      <c r="E27" s="278"/>
+    </row>
+    <row r="29" spans="1:11" s="265" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="264" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="266" t="s">
+      <c r="C29" s="264" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="268"/>
-      <c r="G29" s="266" t="s">
+      <c r="F29" s="266"/>
+      <c r="G29" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="269"/>
-    </row>
-    <row r="30" spans="1:11" s="267" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="270" t="s">
+      <c r="K29" s="267"/>
+    </row>
+    <row r="30" spans="1:11" s="265" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="270" t="s">
+      <c r="C30" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="271"/>
-      <c r="G30" s="270" t="s">
+      <c r="F30" s="269"/>
+      <c r="G30" s="268" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6951,39 +6945,48 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="276" t="s">
+      <c r="E32" s="274" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="277">
+      <c r="F32" s="275">
         <v>3000000</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="276" t="s">
+      <c r="E33" s="274" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="277">
+      <c r="F33" s="275">
         <v>5000000</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="276" t="s">
+      <c r="E34" s="274" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="277">
+      <c r="F34" s="275">
         <f>23*2000*5</f>
         <v>230000</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="276"/>
-      <c r="F35" s="289">
+      <c r="E35" s="274"/>
+      <c r="F35" s="287">
         <f>SUM(F32:F34)</f>
         <v>8230000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A9:D13"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A7:B8"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -6995,15 +6998,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A9:D13"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7020,1608 +7014,1601 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="223" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="223" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="224" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="224" customWidth="1"/>
-    <col min="5" max="34" width="2.5703125" style="223" customWidth="1"/>
-    <col min="35" max="35" width="7.42578125" style="223" customWidth="1"/>
-    <col min="36" max="38" width="2.5703125" style="223" customWidth="1"/>
-    <col min="39" max="39" width="4.42578125" style="223" customWidth="1"/>
-    <col min="40" max="40" width="19.42578125" style="224" customWidth="1"/>
-    <col min="41" max="260" width="9" style="223"/>
-    <col min="261" max="261" width="3.28515625" style="223" customWidth="1"/>
-    <col min="262" max="262" width="20" style="223" customWidth="1"/>
-    <col min="263" max="263" width="24.5703125" style="223" customWidth="1"/>
-    <col min="264" max="293" width="4.42578125" style="223" customWidth="1"/>
-    <col min="294" max="294" width="2.5703125" style="223" customWidth="1"/>
-    <col min="295" max="295" width="6.140625" style="223" customWidth="1"/>
-    <col min="296" max="296" width="19.42578125" style="223" customWidth="1"/>
-    <col min="297" max="516" width="9" style="223"/>
-    <col min="517" max="517" width="3.28515625" style="223" customWidth="1"/>
-    <col min="518" max="518" width="20" style="223" customWidth="1"/>
-    <col min="519" max="519" width="24.5703125" style="223" customWidth="1"/>
-    <col min="520" max="549" width="4.42578125" style="223" customWidth="1"/>
-    <col min="550" max="550" width="2.5703125" style="223" customWidth="1"/>
-    <col min="551" max="551" width="6.140625" style="223" customWidth="1"/>
-    <col min="552" max="552" width="19.42578125" style="223" customWidth="1"/>
-    <col min="553" max="772" width="9" style="223"/>
-    <col min="773" max="773" width="3.28515625" style="223" customWidth="1"/>
-    <col min="774" max="774" width="20" style="223" customWidth="1"/>
-    <col min="775" max="775" width="24.5703125" style="223" customWidth="1"/>
-    <col min="776" max="805" width="4.42578125" style="223" customWidth="1"/>
-    <col min="806" max="806" width="2.5703125" style="223" customWidth="1"/>
-    <col min="807" max="807" width="6.140625" style="223" customWidth="1"/>
-    <col min="808" max="808" width="19.42578125" style="223" customWidth="1"/>
-    <col min="809" max="1028" width="9" style="223"/>
-    <col min="1029" max="1029" width="3.28515625" style="223" customWidth="1"/>
-    <col min="1030" max="1030" width="20" style="223" customWidth="1"/>
-    <col min="1031" max="1031" width="24.5703125" style="223" customWidth="1"/>
-    <col min="1032" max="1061" width="4.42578125" style="223" customWidth="1"/>
-    <col min="1062" max="1062" width="2.5703125" style="223" customWidth="1"/>
-    <col min="1063" max="1063" width="6.140625" style="223" customWidth="1"/>
-    <col min="1064" max="1064" width="19.42578125" style="223" customWidth="1"/>
-    <col min="1065" max="1284" width="9" style="223"/>
-    <col min="1285" max="1285" width="3.28515625" style="223" customWidth="1"/>
-    <col min="1286" max="1286" width="20" style="223" customWidth="1"/>
-    <col min="1287" max="1287" width="24.5703125" style="223" customWidth="1"/>
-    <col min="1288" max="1317" width="4.42578125" style="223" customWidth="1"/>
-    <col min="1318" max="1318" width="2.5703125" style="223" customWidth="1"/>
-    <col min="1319" max="1319" width="6.140625" style="223" customWidth="1"/>
-    <col min="1320" max="1320" width="19.42578125" style="223" customWidth="1"/>
-    <col min="1321" max="1540" width="9" style="223"/>
-    <col min="1541" max="1541" width="3.28515625" style="223" customWidth="1"/>
-    <col min="1542" max="1542" width="20" style="223" customWidth="1"/>
-    <col min="1543" max="1543" width="24.5703125" style="223" customWidth="1"/>
-    <col min="1544" max="1573" width="4.42578125" style="223" customWidth="1"/>
-    <col min="1574" max="1574" width="2.5703125" style="223" customWidth="1"/>
-    <col min="1575" max="1575" width="6.140625" style="223" customWidth="1"/>
-    <col min="1576" max="1576" width="19.42578125" style="223" customWidth="1"/>
-    <col min="1577" max="1796" width="9" style="223"/>
-    <col min="1797" max="1797" width="3.28515625" style="223" customWidth="1"/>
-    <col min="1798" max="1798" width="20" style="223" customWidth="1"/>
-    <col min="1799" max="1799" width="24.5703125" style="223" customWidth="1"/>
-    <col min="1800" max="1829" width="4.42578125" style="223" customWidth="1"/>
-    <col min="1830" max="1830" width="2.5703125" style="223" customWidth="1"/>
-    <col min="1831" max="1831" width="6.140625" style="223" customWidth="1"/>
-    <col min="1832" max="1832" width="19.42578125" style="223" customWidth="1"/>
-    <col min="1833" max="2052" width="9" style="223"/>
-    <col min="2053" max="2053" width="3.28515625" style="223" customWidth="1"/>
-    <col min="2054" max="2054" width="20" style="223" customWidth="1"/>
-    <col min="2055" max="2055" width="24.5703125" style="223" customWidth="1"/>
-    <col min="2056" max="2085" width="4.42578125" style="223" customWidth="1"/>
-    <col min="2086" max="2086" width="2.5703125" style="223" customWidth="1"/>
-    <col min="2087" max="2087" width="6.140625" style="223" customWidth="1"/>
-    <col min="2088" max="2088" width="19.42578125" style="223" customWidth="1"/>
-    <col min="2089" max="2308" width="9" style="223"/>
-    <col min="2309" max="2309" width="3.28515625" style="223" customWidth="1"/>
-    <col min="2310" max="2310" width="20" style="223" customWidth="1"/>
-    <col min="2311" max="2311" width="24.5703125" style="223" customWidth="1"/>
-    <col min="2312" max="2341" width="4.42578125" style="223" customWidth="1"/>
-    <col min="2342" max="2342" width="2.5703125" style="223" customWidth="1"/>
-    <col min="2343" max="2343" width="6.140625" style="223" customWidth="1"/>
-    <col min="2344" max="2344" width="19.42578125" style="223" customWidth="1"/>
-    <col min="2345" max="2564" width="9" style="223"/>
-    <col min="2565" max="2565" width="3.28515625" style="223" customWidth="1"/>
-    <col min="2566" max="2566" width="20" style="223" customWidth="1"/>
-    <col min="2567" max="2567" width="24.5703125" style="223" customWidth="1"/>
-    <col min="2568" max="2597" width="4.42578125" style="223" customWidth="1"/>
-    <col min="2598" max="2598" width="2.5703125" style="223" customWidth="1"/>
-    <col min="2599" max="2599" width="6.140625" style="223" customWidth="1"/>
-    <col min="2600" max="2600" width="19.42578125" style="223" customWidth="1"/>
-    <col min="2601" max="2820" width="9" style="223"/>
-    <col min="2821" max="2821" width="3.28515625" style="223" customWidth="1"/>
-    <col min="2822" max="2822" width="20" style="223" customWidth="1"/>
-    <col min="2823" max="2823" width="24.5703125" style="223" customWidth="1"/>
-    <col min="2824" max="2853" width="4.42578125" style="223" customWidth="1"/>
-    <col min="2854" max="2854" width="2.5703125" style="223" customWidth="1"/>
-    <col min="2855" max="2855" width="6.140625" style="223" customWidth="1"/>
-    <col min="2856" max="2856" width="19.42578125" style="223" customWidth="1"/>
-    <col min="2857" max="3076" width="9" style="223"/>
-    <col min="3077" max="3077" width="3.28515625" style="223" customWidth="1"/>
-    <col min="3078" max="3078" width="20" style="223" customWidth="1"/>
-    <col min="3079" max="3079" width="24.5703125" style="223" customWidth="1"/>
-    <col min="3080" max="3109" width="4.42578125" style="223" customWidth="1"/>
-    <col min="3110" max="3110" width="2.5703125" style="223" customWidth="1"/>
-    <col min="3111" max="3111" width="6.140625" style="223" customWidth="1"/>
-    <col min="3112" max="3112" width="19.42578125" style="223" customWidth="1"/>
-    <col min="3113" max="3332" width="9" style="223"/>
-    <col min="3333" max="3333" width="3.28515625" style="223" customWidth="1"/>
-    <col min="3334" max="3334" width="20" style="223" customWidth="1"/>
-    <col min="3335" max="3335" width="24.5703125" style="223" customWidth="1"/>
-    <col min="3336" max="3365" width="4.42578125" style="223" customWidth="1"/>
-    <col min="3366" max="3366" width="2.5703125" style="223" customWidth="1"/>
-    <col min="3367" max="3367" width="6.140625" style="223" customWidth="1"/>
-    <col min="3368" max="3368" width="19.42578125" style="223" customWidth="1"/>
-    <col min="3369" max="3588" width="9" style="223"/>
-    <col min="3589" max="3589" width="3.28515625" style="223" customWidth="1"/>
-    <col min="3590" max="3590" width="20" style="223" customWidth="1"/>
-    <col min="3591" max="3591" width="24.5703125" style="223" customWidth="1"/>
-    <col min="3592" max="3621" width="4.42578125" style="223" customWidth="1"/>
-    <col min="3622" max="3622" width="2.5703125" style="223" customWidth="1"/>
-    <col min="3623" max="3623" width="6.140625" style="223" customWidth="1"/>
-    <col min="3624" max="3624" width="19.42578125" style="223" customWidth="1"/>
-    <col min="3625" max="3844" width="9" style="223"/>
-    <col min="3845" max="3845" width="3.28515625" style="223" customWidth="1"/>
-    <col min="3846" max="3846" width="20" style="223" customWidth="1"/>
-    <col min="3847" max="3847" width="24.5703125" style="223" customWidth="1"/>
-    <col min="3848" max="3877" width="4.42578125" style="223" customWidth="1"/>
-    <col min="3878" max="3878" width="2.5703125" style="223" customWidth="1"/>
-    <col min="3879" max="3879" width="6.140625" style="223" customWidth="1"/>
-    <col min="3880" max="3880" width="19.42578125" style="223" customWidth="1"/>
-    <col min="3881" max="4100" width="9" style="223"/>
-    <col min="4101" max="4101" width="3.28515625" style="223" customWidth="1"/>
-    <col min="4102" max="4102" width="20" style="223" customWidth="1"/>
-    <col min="4103" max="4103" width="24.5703125" style="223" customWidth="1"/>
-    <col min="4104" max="4133" width="4.42578125" style="223" customWidth="1"/>
-    <col min="4134" max="4134" width="2.5703125" style="223" customWidth="1"/>
-    <col min="4135" max="4135" width="6.140625" style="223" customWidth="1"/>
-    <col min="4136" max="4136" width="19.42578125" style="223" customWidth="1"/>
-    <col min="4137" max="4356" width="9" style="223"/>
-    <col min="4357" max="4357" width="3.28515625" style="223" customWidth="1"/>
-    <col min="4358" max="4358" width="20" style="223" customWidth="1"/>
-    <col min="4359" max="4359" width="24.5703125" style="223" customWidth="1"/>
-    <col min="4360" max="4389" width="4.42578125" style="223" customWidth="1"/>
-    <col min="4390" max="4390" width="2.5703125" style="223" customWidth="1"/>
-    <col min="4391" max="4391" width="6.140625" style="223" customWidth="1"/>
-    <col min="4392" max="4392" width="19.42578125" style="223" customWidth="1"/>
-    <col min="4393" max="4612" width="9" style="223"/>
-    <col min="4613" max="4613" width="3.28515625" style="223" customWidth="1"/>
-    <col min="4614" max="4614" width="20" style="223" customWidth="1"/>
-    <col min="4615" max="4615" width="24.5703125" style="223" customWidth="1"/>
-    <col min="4616" max="4645" width="4.42578125" style="223" customWidth="1"/>
-    <col min="4646" max="4646" width="2.5703125" style="223" customWidth="1"/>
-    <col min="4647" max="4647" width="6.140625" style="223" customWidth="1"/>
-    <col min="4648" max="4648" width="19.42578125" style="223" customWidth="1"/>
-    <col min="4649" max="4868" width="9" style="223"/>
-    <col min="4869" max="4869" width="3.28515625" style="223" customWidth="1"/>
-    <col min="4870" max="4870" width="20" style="223" customWidth="1"/>
-    <col min="4871" max="4871" width="24.5703125" style="223" customWidth="1"/>
-    <col min="4872" max="4901" width="4.42578125" style="223" customWidth="1"/>
-    <col min="4902" max="4902" width="2.5703125" style="223" customWidth="1"/>
-    <col min="4903" max="4903" width="6.140625" style="223" customWidth="1"/>
-    <col min="4904" max="4904" width="19.42578125" style="223" customWidth="1"/>
-    <col min="4905" max="5124" width="9" style="223"/>
-    <col min="5125" max="5125" width="3.28515625" style="223" customWidth="1"/>
-    <col min="5126" max="5126" width="20" style="223" customWidth="1"/>
-    <col min="5127" max="5127" width="24.5703125" style="223" customWidth="1"/>
-    <col min="5128" max="5157" width="4.42578125" style="223" customWidth="1"/>
-    <col min="5158" max="5158" width="2.5703125" style="223" customWidth="1"/>
-    <col min="5159" max="5159" width="6.140625" style="223" customWidth="1"/>
-    <col min="5160" max="5160" width="19.42578125" style="223" customWidth="1"/>
-    <col min="5161" max="5380" width="9" style="223"/>
-    <col min="5381" max="5381" width="3.28515625" style="223" customWidth="1"/>
-    <col min="5382" max="5382" width="20" style="223" customWidth="1"/>
-    <col min="5383" max="5383" width="24.5703125" style="223" customWidth="1"/>
-    <col min="5384" max="5413" width="4.42578125" style="223" customWidth="1"/>
-    <col min="5414" max="5414" width="2.5703125" style="223" customWidth="1"/>
-    <col min="5415" max="5415" width="6.140625" style="223" customWidth="1"/>
-    <col min="5416" max="5416" width="19.42578125" style="223" customWidth="1"/>
-    <col min="5417" max="5636" width="9" style="223"/>
-    <col min="5637" max="5637" width="3.28515625" style="223" customWidth="1"/>
-    <col min="5638" max="5638" width="20" style="223" customWidth="1"/>
-    <col min="5639" max="5639" width="24.5703125" style="223" customWidth="1"/>
-    <col min="5640" max="5669" width="4.42578125" style="223" customWidth="1"/>
-    <col min="5670" max="5670" width="2.5703125" style="223" customWidth="1"/>
-    <col min="5671" max="5671" width="6.140625" style="223" customWidth="1"/>
-    <col min="5672" max="5672" width="19.42578125" style="223" customWidth="1"/>
-    <col min="5673" max="5892" width="9" style="223"/>
-    <col min="5893" max="5893" width="3.28515625" style="223" customWidth="1"/>
-    <col min="5894" max="5894" width="20" style="223" customWidth="1"/>
-    <col min="5895" max="5895" width="24.5703125" style="223" customWidth="1"/>
-    <col min="5896" max="5925" width="4.42578125" style="223" customWidth="1"/>
-    <col min="5926" max="5926" width="2.5703125" style="223" customWidth="1"/>
-    <col min="5927" max="5927" width="6.140625" style="223" customWidth="1"/>
-    <col min="5928" max="5928" width="19.42578125" style="223" customWidth="1"/>
-    <col min="5929" max="6148" width="9" style="223"/>
-    <col min="6149" max="6149" width="3.28515625" style="223" customWidth="1"/>
-    <col min="6150" max="6150" width="20" style="223" customWidth="1"/>
-    <col min="6151" max="6151" width="24.5703125" style="223" customWidth="1"/>
-    <col min="6152" max="6181" width="4.42578125" style="223" customWidth="1"/>
-    <col min="6182" max="6182" width="2.5703125" style="223" customWidth="1"/>
-    <col min="6183" max="6183" width="6.140625" style="223" customWidth="1"/>
-    <col min="6184" max="6184" width="19.42578125" style="223" customWidth="1"/>
-    <col min="6185" max="6404" width="9" style="223"/>
-    <col min="6405" max="6405" width="3.28515625" style="223" customWidth="1"/>
-    <col min="6406" max="6406" width="20" style="223" customWidth="1"/>
-    <col min="6407" max="6407" width="24.5703125" style="223" customWidth="1"/>
-    <col min="6408" max="6437" width="4.42578125" style="223" customWidth="1"/>
-    <col min="6438" max="6438" width="2.5703125" style="223" customWidth="1"/>
-    <col min="6439" max="6439" width="6.140625" style="223" customWidth="1"/>
-    <col min="6440" max="6440" width="19.42578125" style="223" customWidth="1"/>
-    <col min="6441" max="6660" width="9" style="223"/>
-    <col min="6661" max="6661" width="3.28515625" style="223" customWidth="1"/>
-    <col min="6662" max="6662" width="20" style="223" customWidth="1"/>
-    <col min="6663" max="6663" width="24.5703125" style="223" customWidth="1"/>
-    <col min="6664" max="6693" width="4.42578125" style="223" customWidth="1"/>
-    <col min="6694" max="6694" width="2.5703125" style="223" customWidth="1"/>
-    <col min="6695" max="6695" width="6.140625" style="223" customWidth="1"/>
-    <col min="6696" max="6696" width="19.42578125" style="223" customWidth="1"/>
-    <col min="6697" max="6916" width="9" style="223"/>
-    <col min="6917" max="6917" width="3.28515625" style="223" customWidth="1"/>
-    <col min="6918" max="6918" width="20" style="223" customWidth="1"/>
-    <col min="6919" max="6919" width="24.5703125" style="223" customWidth="1"/>
-    <col min="6920" max="6949" width="4.42578125" style="223" customWidth="1"/>
-    <col min="6950" max="6950" width="2.5703125" style="223" customWidth="1"/>
-    <col min="6951" max="6951" width="6.140625" style="223" customWidth="1"/>
-    <col min="6952" max="6952" width="19.42578125" style="223" customWidth="1"/>
-    <col min="6953" max="7172" width="9" style="223"/>
-    <col min="7173" max="7173" width="3.28515625" style="223" customWidth="1"/>
-    <col min="7174" max="7174" width="20" style="223" customWidth="1"/>
-    <col min="7175" max="7175" width="24.5703125" style="223" customWidth="1"/>
-    <col min="7176" max="7205" width="4.42578125" style="223" customWidth="1"/>
-    <col min="7206" max="7206" width="2.5703125" style="223" customWidth="1"/>
-    <col min="7207" max="7207" width="6.140625" style="223" customWidth="1"/>
-    <col min="7208" max="7208" width="19.42578125" style="223" customWidth="1"/>
-    <col min="7209" max="7428" width="9" style="223"/>
-    <col min="7429" max="7429" width="3.28515625" style="223" customWidth="1"/>
-    <col min="7430" max="7430" width="20" style="223" customWidth="1"/>
-    <col min="7431" max="7431" width="24.5703125" style="223" customWidth="1"/>
-    <col min="7432" max="7461" width="4.42578125" style="223" customWidth="1"/>
-    <col min="7462" max="7462" width="2.5703125" style="223" customWidth="1"/>
-    <col min="7463" max="7463" width="6.140625" style="223" customWidth="1"/>
-    <col min="7464" max="7464" width="19.42578125" style="223" customWidth="1"/>
-    <col min="7465" max="7684" width="9" style="223"/>
-    <col min="7685" max="7685" width="3.28515625" style="223" customWidth="1"/>
-    <col min="7686" max="7686" width="20" style="223" customWidth="1"/>
-    <col min="7687" max="7687" width="24.5703125" style="223" customWidth="1"/>
-    <col min="7688" max="7717" width="4.42578125" style="223" customWidth="1"/>
-    <col min="7718" max="7718" width="2.5703125" style="223" customWidth="1"/>
-    <col min="7719" max="7719" width="6.140625" style="223" customWidth="1"/>
-    <col min="7720" max="7720" width="19.42578125" style="223" customWidth="1"/>
-    <col min="7721" max="7940" width="9" style="223"/>
-    <col min="7941" max="7941" width="3.28515625" style="223" customWidth="1"/>
-    <col min="7942" max="7942" width="20" style="223" customWidth="1"/>
-    <col min="7943" max="7943" width="24.5703125" style="223" customWidth="1"/>
-    <col min="7944" max="7973" width="4.42578125" style="223" customWidth="1"/>
-    <col min="7974" max="7974" width="2.5703125" style="223" customWidth="1"/>
-    <col min="7975" max="7975" width="6.140625" style="223" customWidth="1"/>
-    <col min="7976" max="7976" width="19.42578125" style="223" customWidth="1"/>
-    <col min="7977" max="8196" width="9" style="223"/>
-    <col min="8197" max="8197" width="3.28515625" style="223" customWidth="1"/>
-    <col min="8198" max="8198" width="20" style="223" customWidth="1"/>
-    <col min="8199" max="8199" width="24.5703125" style="223" customWidth="1"/>
-    <col min="8200" max="8229" width="4.42578125" style="223" customWidth="1"/>
-    <col min="8230" max="8230" width="2.5703125" style="223" customWidth="1"/>
-    <col min="8231" max="8231" width="6.140625" style="223" customWidth="1"/>
-    <col min="8232" max="8232" width="19.42578125" style="223" customWidth="1"/>
-    <col min="8233" max="8452" width="9" style="223"/>
-    <col min="8453" max="8453" width="3.28515625" style="223" customWidth="1"/>
-    <col min="8454" max="8454" width="20" style="223" customWidth="1"/>
-    <col min="8455" max="8455" width="24.5703125" style="223" customWidth="1"/>
-    <col min="8456" max="8485" width="4.42578125" style="223" customWidth="1"/>
-    <col min="8486" max="8486" width="2.5703125" style="223" customWidth="1"/>
-    <col min="8487" max="8487" width="6.140625" style="223" customWidth="1"/>
-    <col min="8488" max="8488" width="19.42578125" style="223" customWidth="1"/>
-    <col min="8489" max="8708" width="9" style="223"/>
-    <col min="8709" max="8709" width="3.28515625" style="223" customWidth="1"/>
-    <col min="8710" max="8710" width="20" style="223" customWidth="1"/>
-    <col min="8711" max="8711" width="24.5703125" style="223" customWidth="1"/>
-    <col min="8712" max="8741" width="4.42578125" style="223" customWidth="1"/>
-    <col min="8742" max="8742" width="2.5703125" style="223" customWidth="1"/>
-    <col min="8743" max="8743" width="6.140625" style="223" customWidth="1"/>
-    <col min="8744" max="8744" width="19.42578125" style="223" customWidth="1"/>
-    <col min="8745" max="8964" width="9" style="223"/>
-    <col min="8965" max="8965" width="3.28515625" style="223" customWidth="1"/>
-    <col min="8966" max="8966" width="20" style="223" customWidth="1"/>
-    <col min="8967" max="8967" width="24.5703125" style="223" customWidth="1"/>
-    <col min="8968" max="8997" width="4.42578125" style="223" customWidth="1"/>
-    <col min="8998" max="8998" width="2.5703125" style="223" customWidth="1"/>
-    <col min="8999" max="8999" width="6.140625" style="223" customWidth="1"/>
-    <col min="9000" max="9000" width="19.42578125" style="223" customWidth="1"/>
-    <col min="9001" max="9220" width="9" style="223"/>
-    <col min="9221" max="9221" width="3.28515625" style="223" customWidth="1"/>
-    <col min="9222" max="9222" width="20" style="223" customWidth="1"/>
-    <col min="9223" max="9223" width="24.5703125" style="223" customWidth="1"/>
-    <col min="9224" max="9253" width="4.42578125" style="223" customWidth="1"/>
-    <col min="9254" max="9254" width="2.5703125" style="223" customWidth="1"/>
-    <col min="9255" max="9255" width="6.140625" style="223" customWidth="1"/>
-    <col min="9256" max="9256" width="19.42578125" style="223" customWidth="1"/>
-    <col min="9257" max="9476" width="9" style="223"/>
-    <col min="9477" max="9477" width="3.28515625" style="223" customWidth="1"/>
-    <col min="9478" max="9478" width="20" style="223" customWidth="1"/>
-    <col min="9479" max="9479" width="24.5703125" style="223" customWidth="1"/>
-    <col min="9480" max="9509" width="4.42578125" style="223" customWidth="1"/>
-    <col min="9510" max="9510" width="2.5703125" style="223" customWidth="1"/>
-    <col min="9511" max="9511" width="6.140625" style="223" customWidth="1"/>
-    <col min="9512" max="9512" width="19.42578125" style="223" customWidth="1"/>
-    <col min="9513" max="9732" width="9" style="223"/>
-    <col min="9733" max="9733" width="3.28515625" style="223" customWidth="1"/>
-    <col min="9734" max="9734" width="20" style="223" customWidth="1"/>
-    <col min="9735" max="9735" width="24.5703125" style="223" customWidth="1"/>
-    <col min="9736" max="9765" width="4.42578125" style="223" customWidth="1"/>
-    <col min="9766" max="9766" width="2.5703125" style="223" customWidth="1"/>
-    <col min="9767" max="9767" width="6.140625" style="223" customWidth="1"/>
-    <col min="9768" max="9768" width="19.42578125" style="223" customWidth="1"/>
-    <col min="9769" max="9988" width="9" style="223"/>
-    <col min="9989" max="9989" width="3.28515625" style="223" customWidth="1"/>
-    <col min="9990" max="9990" width="20" style="223" customWidth="1"/>
-    <col min="9991" max="9991" width="24.5703125" style="223" customWidth="1"/>
-    <col min="9992" max="10021" width="4.42578125" style="223" customWidth="1"/>
-    <col min="10022" max="10022" width="2.5703125" style="223" customWidth="1"/>
-    <col min="10023" max="10023" width="6.140625" style="223" customWidth="1"/>
-    <col min="10024" max="10024" width="19.42578125" style="223" customWidth="1"/>
-    <col min="10025" max="10244" width="9" style="223"/>
-    <col min="10245" max="10245" width="3.28515625" style="223" customWidth="1"/>
-    <col min="10246" max="10246" width="20" style="223" customWidth="1"/>
-    <col min="10247" max="10247" width="24.5703125" style="223" customWidth="1"/>
-    <col min="10248" max="10277" width="4.42578125" style="223" customWidth="1"/>
-    <col min="10278" max="10278" width="2.5703125" style="223" customWidth="1"/>
-    <col min="10279" max="10279" width="6.140625" style="223" customWidth="1"/>
-    <col min="10280" max="10280" width="19.42578125" style="223" customWidth="1"/>
-    <col min="10281" max="10500" width="9" style="223"/>
-    <col min="10501" max="10501" width="3.28515625" style="223" customWidth="1"/>
-    <col min="10502" max="10502" width="20" style="223" customWidth="1"/>
-    <col min="10503" max="10503" width="24.5703125" style="223" customWidth="1"/>
-    <col min="10504" max="10533" width="4.42578125" style="223" customWidth="1"/>
-    <col min="10534" max="10534" width="2.5703125" style="223" customWidth="1"/>
-    <col min="10535" max="10535" width="6.140625" style="223" customWidth="1"/>
-    <col min="10536" max="10536" width="19.42578125" style="223" customWidth="1"/>
-    <col min="10537" max="10756" width="9" style="223"/>
-    <col min="10757" max="10757" width="3.28515625" style="223" customWidth="1"/>
-    <col min="10758" max="10758" width="20" style="223" customWidth="1"/>
-    <col min="10759" max="10759" width="24.5703125" style="223" customWidth="1"/>
-    <col min="10760" max="10789" width="4.42578125" style="223" customWidth="1"/>
-    <col min="10790" max="10790" width="2.5703125" style="223" customWidth="1"/>
-    <col min="10791" max="10791" width="6.140625" style="223" customWidth="1"/>
-    <col min="10792" max="10792" width="19.42578125" style="223" customWidth="1"/>
-    <col min="10793" max="11012" width="9" style="223"/>
-    <col min="11013" max="11013" width="3.28515625" style="223" customWidth="1"/>
-    <col min="11014" max="11014" width="20" style="223" customWidth="1"/>
-    <col min="11015" max="11015" width="24.5703125" style="223" customWidth="1"/>
-    <col min="11016" max="11045" width="4.42578125" style="223" customWidth="1"/>
-    <col min="11046" max="11046" width="2.5703125" style="223" customWidth="1"/>
-    <col min="11047" max="11047" width="6.140625" style="223" customWidth="1"/>
-    <col min="11048" max="11048" width="19.42578125" style="223" customWidth="1"/>
-    <col min="11049" max="11268" width="9" style="223"/>
-    <col min="11269" max="11269" width="3.28515625" style="223" customWidth="1"/>
-    <col min="11270" max="11270" width="20" style="223" customWidth="1"/>
-    <col min="11271" max="11271" width="24.5703125" style="223" customWidth="1"/>
-    <col min="11272" max="11301" width="4.42578125" style="223" customWidth="1"/>
-    <col min="11302" max="11302" width="2.5703125" style="223" customWidth="1"/>
-    <col min="11303" max="11303" width="6.140625" style="223" customWidth="1"/>
-    <col min="11304" max="11304" width="19.42578125" style="223" customWidth="1"/>
-    <col min="11305" max="11524" width="9" style="223"/>
-    <col min="11525" max="11525" width="3.28515625" style="223" customWidth="1"/>
-    <col min="11526" max="11526" width="20" style="223" customWidth="1"/>
-    <col min="11527" max="11527" width="24.5703125" style="223" customWidth="1"/>
-    <col min="11528" max="11557" width="4.42578125" style="223" customWidth="1"/>
-    <col min="11558" max="11558" width="2.5703125" style="223" customWidth="1"/>
-    <col min="11559" max="11559" width="6.140625" style="223" customWidth="1"/>
-    <col min="11560" max="11560" width="19.42578125" style="223" customWidth="1"/>
-    <col min="11561" max="11780" width="9" style="223"/>
-    <col min="11781" max="11781" width="3.28515625" style="223" customWidth="1"/>
-    <col min="11782" max="11782" width="20" style="223" customWidth="1"/>
-    <col min="11783" max="11783" width="24.5703125" style="223" customWidth="1"/>
-    <col min="11784" max="11813" width="4.42578125" style="223" customWidth="1"/>
-    <col min="11814" max="11814" width="2.5703125" style="223" customWidth="1"/>
-    <col min="11815" max="11815" width="6.140625" style="223" customWidth="1"/>
-    <col min="11816" max="11816" width="19.42578125" style="223" customWidth="1"/>
-    <col min="11817" max="12036" width="9" style="223"/>
-    <col min="12037" max="12037" width="3.28515625" style="223" customWidth="1"/>
-    <col min="12038" max="12038" width="20" style="223" customWidth="1"/>
-    <col min="12039" max="12039" width="24.5703125" style="223" customWidth="1"/>
-    <col min="12040" max="12069" width="4.42578125" style="223" customWidth="1"/>
-    <col min="12070" max="12070" width="2.5703125" style="223" customWidth="1"/>
-    <col min="12071" max="12071" width="6.140625" style="223" customWidth="1"/>
-    <col min="12072" max="12072" width="19.42578125" style="223" customWidth="1"/>
-    <col min="12073" max="12292" width="9" style="223"/>
-    <col min="12293" max="12293" width="3.28515625" style="223" customWidth="1"/>
-    <col min="12294" max="12294" width="20" style="223" customWidth="1"/>
-    <col min="12295" max="12295" width="24.5703125" style="223" customWidth="1"/>
-    <col min="12296" max="12325" width="4.42578125" style="223" customWidth="1"/>
-    <col min="12326" max="12326" width="2.5703125" style="223" customWidth="1"/>
-    <col min="12327" max="12327" width="6.140625" style="223" customWidth="1"/>
-    <col min="12328" max="12328" width="19.42578125" style="223" customWidth="1"/>
-    <col min="12329" max="12548" width="9" style="223"/>
-    <col min="12549" max="12549" width="3.28515625" style="223" customWidth="1"/>
-    <col min="12550" max="12550" width="20" style="223" customWidth="1"/>
-    <col min="12551" max="12551" width="24.5703125" style="223" customWidth="1"/>
-    <col min="12552" max="12581" width="4.42578125" style="223" customWidth="1"/>
-    <col min="12582" max="12582" width="2.5703125" style="223" customWidth="1"/>
-    <col min="12583" max="12583" width="6.140625" style="223" customWidth="1"/>
-    <col min="12584" max="12584" width="19.42578125" style="223" customWidth="1"/>
-    <col min="12585" max="12804" width="9" style="223"/>
-    <col min="12805" max="12805" width="3.28515625" style="223" customWidth="1"/>
-    <col min="12806" max="12806" width="20" style="223" customWidth="1"/>
-    <col min="12807" max="12807" width="24.5703125" style="223" customWidth="1"/>
-    <col min="12808" max="12837" width="4.42578125" style="223" customWidth="1"/>
-    <col min="12838" max="12838" width="2.5703125" style="223" customWidth="1"/>
-    <col min="12839" max="12839" width="6.140625" style="223" customWidth="1"/>
-    <col min="12840" max="12840" width="19.42578125" style="223" customWidth="1"/>
-    <col min="12841" max="13060" width="9" style="223"/>
-    <col min="13061" max="13061" width="3.28515625" style="223" customWidth="1"/>
-    <col min="13062" max="13062" width="20" style="223" customWidth="1"/>
-    <col min="13063" max="13063" width="24.5703125" style="223" customWidth="1"/>
-    <col min="13064" max="13093" width="4.42578125" style="223" customWidth="1"/>
-    <col min="13094" max="13094" width="2.5703125" style="223" customWidth="1"/>
-    <col min="13095" max="13095" width="6.140625" style="223" customWidth="1"/>
-    <col min="13096" max="13096" width="19.42578125" style="223" customWidth="1"/>
-    <col min="13097" max="13316" width="9" style="223"/>
-    <col min="13317" max="13317" width="3.28515625" style="223" customWidth="1"/>
-    <col min="13318" max="13318" width="20" style="223" customWidth="1"/>
-    <col min="13319" max="13319" width="24.5703125" style="223" customWidth="1"/>
-    <col min="13320" max="13349" width="4.42578125" style="223" customWidth="1"/>
-    <col min="13350" max="13350" width="2.5703125" style="223" customWidth="1"/>
-    <col min="13351" max="13351" width="6.140625" style="223" customWidth="1"/>
-    <col min="13352" max="13352" width="19.42578125" style="223" customWidth="1"/>
-    <col min="13353" max="13572" width="9" style="223"/>
-    <col min="13573" max="13573" width="3.28515625" style="223" customWidth="1"/>
-    <col min="13574" max="13574" width="20" style="223" customWidth="1"/>
-    <col min="13575" max="13575" width="24.5703125" style="223" customWidth="1"/>
-    <col min="13576" max="13605" width="4.42578125" style="223" customWidth="1"/>
-    <col min="13606" max="13606" width="2.5703125" style="223" customWidth="1"/>
-    <col min="13607" max="13607" width="6.140625" style="223" customWidth="1"/>
-    <col min="13608" max="13608" width="19.42578125" style="223" customWidth="1"/>
-    <col min="13609" max="13828" width="9" style="223"/>
-    <col min="13829" max="13829" width="3.28515625" style="223" customWidth="1"/>
-    <col min="13830" max="13830" width="20" style="223" customWidth="1"/>
-    <col min="13831" max="13831" width="24.5703125" style="223" customWidth="1"/>
-    <col min="13832" max="13861" width="4.42578125" style="223" customWidth="1"/>
-    <col min="13862" max="13862" width="2.5703125" style="223" customWidth="1"/>
-    <col min="13863" max="13863" width="6.140625" style="223" customWidth="1"/>
-    <col min="13864" max="13864" width="19.42578125" style="223" customWidth="1"/>
-    <col min="13865" max="14084" width="9" style="223"/>
-    <col min="14085" max="14085" width="3.28515625" style="223" customWidth="1"/>
-    <col min="14086" max="14086" width="20" style="223" customWidth="1"/>
-    <col min="14087" max="14087" width="24.5703125" style="223" customWidth="1"/>
-    <col min="14088" max="14117" width="4.42578125" style="223" customWidth="1"/>
-    <col min="14118" max="14118" width="2.5703125" style="223" customWidth="1"/>
-    <col min="14119" max="14119" width="6.140625" style="223" customWidth="1"/>
-    <col min="14120" max="14120" width="19.42578125" style="223" customWidth="1"/>
-    <col min="14121" max="14340" width="9" style="223"/>
-    <col min="14341" max="14341" width="3.28515625" style="223" customWidth="1"/>
-    <col min="14342" max="14342" width="20" style="223" customWidth="1"/>
-    <col min="14343" max="14343" width="24.5703125" style="223" customWidth="1"/>
-    <col min="14344" max="14373" width="4.42578125" style="223" customWidth="1"/>
-    <col min="14374" max="14374" width="2.5703125" style="223" customWidth="1"/>
-    <col min="14375" max="14375" width="6.140625" style="223" customWidth="1"/>
-    <col min="14376" max="14376" width="19.42578125" style="223" customWidth="1"/>
-    <col min="14377" max="14596" width="9" style="223"/>
-    <col min="14597" max="14597" width="3.28515625" style="223" customWidth="1"/>
-    <col min="14598" max="14598" width="20" style="223" customWidth="1"/>
-    <col min="14599" max="14599" width="24.5703125" style="223" customWidth="1"/>
-    <col min="14600" max="14629" width="4.42578125" style="223" customWidth="1"/>
-    <col min="14630" max="14630" width="2.5703125" style="223" customWidth="1"/>
-    <col min="14631" max="14631" width="6.140625" style="223" customWidth="1"/>
-    <col min="14632" max="14632" width="19.42578125" style="223" customWidth="1"/>
-    <col min="14633" max="14852" width="9" style="223"/>
-    <col min="14853" max="14853" width="3.28515625" style="223" customWidth="1"/>
-    <col min="14854" max="14854" width="20" style="223" customWidth="1"/>
-    <col min="14855" max="14855" width="24.5703125" style="223" customWidth="1"/>
-    <col min="14856" max="14885" width="4.42578125" style="223" customWidth="1"/>
-    <col min="14886" max="14886" width="2.5703125" style="223" customWidth="1"/>
-    <col min="14887" max="14887" width="6.140625" style="223" customWidth="1"/>
-    <col min="14888" max="14888" width="19.42578125" style="223" customWidth="1"/>
-    <col min="14889" max="15108" width="9" style="223"/>
-    <col min="15109" max="15109" width="3.28515625" style="223" customWidth="1"/>
-    <col min="15110" max="15110" width="20" style="223" customWidth="1"/>
-    <col min="15111" max="15111" width="24.5703125" style="223" customWidth="1"/>
-    <col min="15112" max="15141" width="4.42578125" style="223" customWidth="1"/>
-    <col min="15142" max="15142" width="2.5703125" style="223" customWidth="1"/>
-    <col min="15143" max="15143" width="6.140625" style="223" customWidth="1"/>
-    <col min="15144" max="15144" width="19.42578125" style="223" customWidth="1"/>
-    <col min="15145" max="15364" width="9" style="223"/>
-    <col min="15365" max="15365" width="3.28515625" style="223" customWidth="1"/>
-    <col min="15366" max="15366" width="20" style="223" customWidth="1"/>
-    <col min="15367" max="15367" width="24.5703125" style="223" customWidth="1"/>
-    <col min="15368" max="15397" width="4.42578125" style="223" customWidth="1"/>
-    <col min="15398" max="15398" width="2.5703125" style="223" customWidth="1"/>
-    <col min="15399" max="15399" width="6.140625" style="223" customWidth="1"/>
-    <col min="15400" max="15400" width="19.42578125" style="223" customWidth="1"/>
-    <col min="15401" max="15620" width="9" style="223"/>
-    <col min="15621" max="15621" width="3.28515625" style="223" customWidth="1"/>
-    <col min="15622" max="15622" width="20" style="223" customWidth="1"/>
-    <col min="15623" max="15623" width="24.5703125" style="223" customWidth="1"/>
-    <col min="15624" max="15653" width="4.42578125" style="223" customWidth="1"/>
-    <col min="15654" max="15654" width="2.5703125" style="223" customWidth="1"/>
-    <col min="15655" max="15655" width="6.140625" style="223" customWidth="1"/>
-    <col min="15656" max="15656" width="19.42578125" style="223" customWidth="1"/>
-    <col min="15657" max="15876" width="9" style="223"/>
-    <col min="15877" max="15877" width="3.28515625" style="223" customWidth="1"/>
-    <col min="15878" max="15878" width="20" style="223" customWidth="1"/>
-    <col min="15879" max="15879" width="24.5703125" style="223" customWidth="1"/>
-    <col min="15880" max="15909" width="4.42578125" style="223" customWidth="1"/>
-    <col min="15910" max="15910" width="2.5703125" style="223" customWidth="1"/>
-    <col min="15911" max="15911" width="6.140625" style="223" customWidth="1"/>
-    <col min="15912" max="15912" width="19.42578125" style="223" customWidth="1"/>
-    <col min="15913" max="16132" width="9" style="223"/>
-    <col min="16133" max="16133" width="3.28515625" style="223" customWidth="1"/>
-    <col min="16134" max="16134" width="20" style="223" customWidth="1"/>
-    <col min="16135" max="16135" width="24.5703125" style="223" customWidth="1"/>
-    <col min="16136" max="16165" width="4.42578125" style="223" customWidth="1"/>
-    <col min="16166" max="16166" width="2.5703125" style="223" customWidth="1"/>
-    <col min="16167" max="16167" width="6.140625" style="223" customWidth="1"/>
-    <col min="16168" max="16168" width="19.42578125" style="223" customWidth="1"/>
-    <col min="16169" max="16384" width="9" style="223"/>
+    <col min="1" max="1" width="2.5703125" style="221" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="221" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="222" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="222" customWidth="1"/>
+    <col min="5" max="34" width="2.5703125" style="221" customWidth="1"/>
+    <col min="35" max="35" width="7.42578125" style="221" customWidth="1"/>
+    <col min="36" max="38" width="2.5703125" style="221" customWidth="1"/>
+    <col min="39" max="39" width="4.42578125" style="221" customWidth="1"/>
+    <col min="40" max="40" width="19.42578125" style="222" customWidth="1"/>
+    <col min="41" max="260" width="9" style="221"/>
+    <col min="261" max="261" width="3.28515625" style="221" customWidth="1"/>
+    <col min="262" max="262" width="20" style="221" customWidth="1"/>
+    <col min="263" max="263" width="24.5703125" style="221" customWidth="1"/>
+    <col min="264" max="293" width="4.42578125" style="221" customWidth="1"/>
+    <col min="294" max="294" width="2.5703125" style="221" customWidth="1"/>
+    <col min="295" max="295" width="6.140625" style="221" customWidth="1"/>
+    <col min="296" max="296" width="19.42578125" style="221" customWidth="1"/>
+    <col min="297" max="516" width="9" style="221"/>
+    <col min="517" max="517" width="3.28515625" style="221" customWidth="1"/>
+    <col min="518" max="518" width="20" style="221" customWidth="1"/>
+    <col min="519" max="519" width="24.5703125" style="221" customWidth="1"/>
+    <col min="520" max="549" width="4.42578125" style="221" customWidth="1"/>
+    <col min="550" max="550" width="2.5703125" style="221" customWidth="1"/>
+    <col min="551" max="551" width="6.140625" style="221" customWidth="1"/>
+    <col min="552" max="552" width="19.42578125" style="221" customWidth="1"/>
+    <col min="553" max="772" width="9" style="221"/>
+    <col min="773" max="773" width="3.28515625" style="221" customWidth="1"/>
+    <col min="774" max="774" width="20" style="221" customWidth="1"/>
+    <col min="775" max="775" width="24.5703125" style="221" customWidth="1"/>
+    <col min="776" max="805" width="4.42578125" style="221" customWidth="1"/>
+    <col min="806" max="806" width="2.5703125" style="221" customWidth="1"/>
+    <col min="807" max="807" width="6.140625" style="221" customWidth="1"/>
+    <col min="808" max="808" width="19.42578125" style="221" customWidth="1"/>
+    <col min="809" max="1028" width="9" style="221"/>
+    <col min="1029" max="1029" width="3.28515625" style="221" customWidth="1"/>
+    <col min="1030" max="1030" width="20" style="221" customWidth="1"/>
+    <col min="1031" max="1031" width="24.5703125" style="221" customWidth="1"/>
+    <col min="1032" max="1061" width="4.42578125" style="221" customWidth="1"/>
+    <col min="1062" max="1062" width="2.5703125" style="221" customWidth="1"/>
+    <col min="1063" max="1063" width="6.140625" style="221" customWidth="1"/>
+    <col min="1064" max="1064" width="19.42578125" style="221" customWidth="1"/>
+    <col min="1065" max="1284" width="9" style="221"/>
+    <col min="1285" max="1285" width="3.28515625" style="221" customWidth="1"/>
+    <col min="1286" max="1286" width="20" style="221" customWidth="1"/>
+    <col min="1287" max="1287" width="24.5703125" style="221" customWidth="1"/>
+    <col min="1288" max="1317" width="4.42578125" style="221" customWidth="1"/>
+    <col min="1318" max="1318" width="2.5703125" style="221" customWidth="1"/>
+    <col min="1319" max="1319" width="6.140625" style="221" customWidth="1"/>
+    <col min="1320" max="1320" width="19.42578125" style="221" customWidth="1"/>
+    <col min="1321" max="1540" width="9" style="221"/>
+    <col min="1541" max="1541" width="3.28515625" style="221" customWidth="1"/>
+    <col min="1542" max="1542" width="20" style="221" customWidth="1"/>
+    <col min="1543" max="1543" width="24.5703125" style="221" customWidth="1"/>
+    <col min="1544" max="1573" width="4.42578125" style="221" customWidth="1"/>
+    <col min="1574" max="1574" width="2.5703125" style="221" customWidth="1"/>
+    <col min="1575" max="1575" width="6.140625" style="221" customWidth="1"/>
+    <col min="1576" max="1576" width="19.42578125" style="221" customWidth="1"/>
+    <col min="1577" max="1796" width="9" style="221"/>
+    <col min="1797" max="1797" width="3.28515625" style="221" customWidth="1"/>
+    <col min="1798" max="1798" width="20" style="221" customWidth="1"/>
+    <col min="1799" max="1799" width="24.5703125" style="221" customWidth="1"/>
+    <col min="1800" max="1829" width="4.42578125" style="221" customWidth="1"/>
+    <col min="1830" max="1830" width="2.5703125" style="221" customWidth="1"/>
+    <col min="1831" max="1831" width="6.140625" style="221" customWidth="1"/>
+    <col min="1832" max="1832" width="19.42578125" style="221" customWidth="1"/>
+    <col min="1833" max="2052" width="9" style="221"/>
+    <col min="2053" max="2053" width="3.28515625" style="221" customWidth="1"/>
+    <col min="2054" max="2054" width="20" style="221" customWidth="1"/>
+    <col min="2055" max="2055" width="24.5703125" style="221" customWidth="1"/>
+    <col min="2056" max="2085" width="4.42578125" style="221" customWidth="1"/>
+    <col min="2086" max="2086" width="2.5703125" style="221" customWidth="1"/>
+    <col min="2087" max="2087" width="6.140625" style="221" customWidth="1"/>
+    <col min="2088" max="2088" width="19.42578125" style="221" customWidth="1"/>
+    <col min="2089" max="2308" width="9" style="221"/>
+    <col min="2309" max="2309" width="3.28515625" style="221" customWidth="1"/>
+    <col min="2310" max="2310" width="20" style="221" customWidth="1"/>
+    <col min="2311" max="2311" width="24.5703125" style="221" customWidth="1"/>
+    <col min="2312" max="2341" width="4.42578125" style="221" customWidth="1"/>
+    <col min="2342" max="2342" width="2.5703125" style="221" customWidth="1"/>
+    <col min="2343" max="2343" width="6.140625" style="221" customWidth="1"/>
+    <col min="2344" max="2344" width="19.42578125" style="221" customWidth="1"/>
+    <col min="2345" max="2564" width="9" style="221"/>
+    <col min="2565" max="2565" width="3.28515625" style="221" customWidth="1"/>
+    <col min="2566" max="2566" width="20" style="221" customWidth="1"/>
+    <col min="2567" max="2567" width="24.5703125" style="221" customWidth="1"/>
+    <col min="2568" max="2597" width="4.42578125" style="221" customWidth="1"/>
+    <col min="2598" max="2598" width="2.5703125" style="221" customWidth="1"/>
+    <col min="2599" max="2599" width="6.140625" style="221" customWidth="1"/>
+    <col min="2600" max="2600" width="19.42578125" style="221" customWidth="1"/>
+    <col min="2601" max="2820" width="9" style="221"/>
+    <col min="2821" max="2821" width="3.28515625" style="221" customWidth="1"/>
+    <col min="2822" max="2822" width="20" style="221" customWidth="1"/>
+    <col min="2823" max="2823" width="24.5703125" style="221" customWidth="1"/>
+    <col min="2824" max="2853" width="4.42578125" style="221" customWidth="1"/>
+    <col min="2854" max="2854" width="2.5703125" style="221" customWidth="1"/>
+    <col min="2855" max="2855" width="6.140625" style="221" customWidth="1"/>
+    <col min="2856" max="2856" width="19.42578125" style="221" customWidth="1"/>
+    <col min="2857" max="3076" width="9" style="221"/>
+    <col min="3077" max="3077" width="3.28515625" style="221" customWidth="1"/>
+    <col min="3078" max="3078" width="20" style="221" customWidth="1"/>
+    <col min="3079" max="3079" width="24.5703125" style="221" customWidth="1"/>
+    <col min="3080" max="3109" width="4.42578125" style="221" customWidth="1"/>
+    <col min="3110" max="3110" width="2.5703125" style="221" customWidth="1"/>
+    <col min="3111" max="3111" width="6.140625" style="221" customWidth="1"/>
+    <col min="3112" max="3112" width="19.42578125" style="221" customWidth="1"/>
+    <col min="3113" max="3332" width="9" style="221"/>
+    <col min="3333" max="3333" width="3.28515625" style="221" customWidth="1"/>
+    <col min="3334" max="3334" width="20" style="221" customWidth="1"/>
+    <col min="3335" max="3335" width="24.5703125" style="221" customWidth="1"/>
+    <col min="3336" max="3365" width="4.42578125" style="221" customWidth="1"/>
+    <col min="3366" max="3366" width="2.5703125" style="221" customWidth="1"/>
+    <col min="3367" max="3367" width="6.140625" style="221" customWidth="1"/>
+    <col min="3368" max="3368" width="19.42578125" style="221" customWidth="1"/>
+    <col min="3369" max="3588" width="9" style="221"/>
+    <col min="3589" max="3589" width="3.28515625" style="221" customWidth="1"/>
+    <col min="3590" max="3590" width="20" style="221" customWidth="1"/>
+    <col min="3591" max="3591" width="24.5703125" style="221" customWidth="1"/>
+    <col min="3592" max="3621" width="4.42578125" style="221" customWidth="1"/>
+    <col min="3622" max="3622" width="2.5703125" style="221" customWidth="1"/>
+    <col min="3623" max="3623" width="6.140625" style="221" customWidth="1"/>
+    <col min="3624" max="3624" width="19.42578125" style="221" customWidth="1"/>
+    <col min="3625" max="3844" width="9" style="221"/>
+    <col min="3845" max="3845" width="3.28515625" style="221" customWidth="1"/>
+    <col min="3846" max="3846" width="20" style="221" customWidth="1"/>
+    <col min="3847" max="3847" width="24.5703125" style="221" customWidth="1"/>
+    <col min="3848" max="3877" width="4.42578125" style="221" customWidth="1"/>
+    <col min="3878" max="3878" width="2.5703125" style="221" customWidth="1"/>
+    <col min="3879" max="3879" width="6.140625" style="221" customWidth="1"/>
+    <col min="3880" max="3880" width="19.42578125" style="221" customWidth="1"/>
+    <col min="3881" max="4100" width="9" style="221"/>
+    <col min="4101" max="4101" width="3.28515625" style="221" customWidth="1"/>
+    <col min="4102" max="4102" width="20" style="221" customWidth="1"/>
+    <col min="4103" max="4103" width="24.5703125" style="221" customWidth="1"/>
+    <col min="4104" max="4133" width="4.42578125" style="221" customWidth="1"/>
+    <col min="4134" max="4134" width="2.5703125" style="221" customWidth="1"/>
+    <col min="4135" max="4135" width="6.140625" style="221" customWidth="1"/>
+    <col min="4136" max="4136" width="19.42578125" style="221" customWidth="1"/>
+    <col min="4137" max="4356" width="9" style="221"/>
+    <col min="4357" max="4357" width="3.28515625" style="221" customWidth="1"/>
+    <col min="4358" max="4358" width="20" style="221" customWidth="1"/>
+    <col min="4359" max="4359" width="24.5703125" style="221" customWidth="1"/>
+    <col min="4360" max="4389" width="4.42578125" style="221" customWidth="1"/>
+    <col min="4390" max="4390" width="2.5703125" style="221" customWidth="1"/>
+    <col min="4391" max="4391" width="6.140625" style="221" customWidth="1"/>
+    <col min="4392" max="4392" width="19.42578125" style="221" customWidth="1"/>
+    <col min="4393" max="4612" width="9" style="221"/>
+    <col min="4613" max="4613" width="3.28515625" style="221" customWidth="1"/>
+    <col min="4614" max="4614" width="20" style="221" customWidth="1"/>
+    <col min="4615" max="4615" width="24.5703125" style="221" customWidth="1"/>
+    <col min="4616" max="4645" width="4.42578125" style="221" customWidth="1"/>
+    <col min="4646" max="4646" width="2.5703125" style="221" customWidth="1"/>
+    <col min="4647" max="4647" width="6.140625" style="221" customWidth="1"/>
+    <col min="4648" max="4648" width="19.42578125" style="221" customWidth="1"/>
+    <col min="4649" max="4868" width="9" style="221"/>
+    <col min="4869" max="4869" width="3.28515625" style="221" customWidth="1"/>
+    <col min="4870" max="4870" width="20" style="221" customWidth="1"/>
+    <col min="4871" max="4871" width="24.5703125" style="221" customWidth="1"/>
+    <col min="4872" max="4901" width="4.42578125" style="221" customWidth="1"/>
+    <col min="4902" max="4902" width="2.5703125" style="221" customWidth="1"/>
+    <col min="4903" max="4903" width="6.140625" style="221" customWidth="1"/>
+    <col min="4904" max="4904" width="19.42578125" style="221" customWidth="1"/>
+    <col min="4905" max="5124" width="9" style="221"/>
+    <col min="5125" max="5125" width="3.28515625" style="221" customWidth="1"/>
+    <col min="5126" max="5126" width="20" style="221" customWidth="1"/>
+    <col min="5127" max="5127" width="24.5703125" style="221" customWidth="1"/>
+    <col min="5128" max="5157" width="4.42578125" style="221" customWidth="1"/>
+    <col min="5158" max="5158" width="2.5703125" style="221" customWidth="1"/>
+    <col min="5159" max="5159" width="6.140625" style="221" customWidth="1"/>
+    <col min="5160" max="5160" width="19.42578125" style="221" customWidth="1"/>
+    <col min="5161" max="5380" width="9" style="221"/>
+    <col min="5381" max="5381" width="3.28515625" style="221" customWidth="1"/>
+    <col min="5382" max="5382" width="20" style="221" customWidth="1"/>
+    <col min="5383" max="5383" width="24.5703125" style="221" customWidth="1"/>
+    <col min="5384" max="5413" width="4.42578125" style="221" customWidth="1"/>
+    <col min="5414" max="5414" width="2.5703125" style="221" customWidth="1"/>
+    <col min="5415" max="5415" width="6.140625" style="221" customWidth="1"/>
+    <col min="5416" max="5416" width="19.42578125" style="221" customWidth="1"/>
+    <col min="5417" max="5636" width="9" style="221"/>
+    <col min="5637" max="5637" width="3.28515625" style="221" customWidth="1"/>
+    <col min="5638" max="5638" width="20" style="221" customWidth="1"/>
+    <col min="5639" max="5639" width="24.5703125" style="221" customWidth="1"/>
+    <col min="5640" max="5669" width="4.42578125" style="221" customWidth="1"/>
+    <col min="5670" max="5670" width="2.5703125" style="221" customWidth="1"/>
+    <col min="5671" max="5671" width="6.140625" style="221" customWidth="1"/>
+    <col min="5672" max="5672" width="19.42578125" style="221" customWidth="1"/>
+    <col min="5673" max="5892" width="9" style="221"/>
+    <col min="5893" max="5893" width="3.28515625" style="221" customWidth="1"/>
+    <col min="5894" max="5894" width="20" style="221" customWidth="1"/>
+    <col min="5895" max="5895" width="24.5703125" style="221" customWidth="1"/>
+    <col min="5896" max="5925" width="4.42578125" style="221" customWidth="1"/>
+    <col min="5926" max="5926" width="2.5703125" style="221" customWidth="1"/>
+    <col min="5927" max="5927" width="6.140625" style="221" customWidth="1"/>
+    <col min="5928" max="5928" width="19.42578125" style="221" customWidth="1"/>
+    <col min="5929" max="6148" width="9" style="221"/>
+    <col min="6149" max="6149" width="3.28515625" style="221" customWidth="1"/>
+    <col min="6150" max="6150" width="20" style="221" customWidth="1"/>
+    <col min="6151" max="6151" width="24.5703125" style="221" customWidth="1"/>
+    <col min="6152" max="6181" width="4.42578125" style="221" customWidth="1"/>
+    <col min="6182" max="6182" width="2.5703125" style="221" customWidth="1"/>
+    <col min="6183" max="6183" width="6.140625" style="221" customWidth="1"/>
+    <col min="6184" max="6184" width="19.42578125" style="221" customWidth="1"/>
+    <col min="6185" max="6404" width="9" style="221"/>
+    <col min="6405" max="6405" width="3.28515625" style="221" customWidth="1"/>
+    <col min="6406" max="6406" width="20" style="221" customWidth="1"/>
+    <col min="6407" max="6407" width="24.5703125" style="221" customWidth="1"/>
+    <col min="6408" max="6437" width="4.42578125" style="221" customWidth="1"/>
+    <col min="6438" max="6438" width="2.5703125" style="221" customWidth="1"/>
+    <col min="6439" max="6439" width="6.140625" style="221" customWidth="1"/>
+    <col min="6440" max="6440" width="19.42578125" style="221" customWidth="1"/>
+    <col min="6441" max="6660" width="9" style="221"/>
+    <col min="6661" max="6661" width="3.28515625" style="221" customWidth="1"/>
+    <col min="6662" max="6662" width="20" style="221" customWidth="1"/>
+    <col min="6663" max="6663" width="24.5703125" style="221" customWidth="1"/>
+    <col min="6664" max="6693" width="4.42578125" style="221" customWidth="1"/>
+    <col min="6694" max="6694" width="2.5703125" style="221" customWidth="1"/>
+    <col min="6695" max="6695" width="6.140625" style="221" customWidth="1"/>
+    <col min="6696" max="6696" width="19.42578125" style="221" customWidth="1"/>
+    <col min="6697" max="6916" width="9" style="221"/>
+    <col min="6917" max="6917" width="3.28515625" style="221" customWidth="1"/>
+    <col min="6918" max="6918" width="20" style="221" customWidth="1"/>
+    <col min="6919" max="6919" width="24.5703125" style="221" customWidth="1"/>
+    <col min="6920" max="6949" width="4.42578125" style="221" customWidth="1"/>
+    <col min="6950" max="6950" width="2.5703125" style="221" customWidth="1"/>
+    <col min="6951" max="6951" width="6.140625" style="221" customWidth="1"/>
+    <col min="6952" max="6952" width="19.42578125" style="221" customWidth="1"/>
+    <col min="6953" max="7172" width="9" style="221"/>
+    <col min="7173" max="7173" width="3.28515625" style="221" customWidth="1"/>
+    <col min="7174" max="7174" width="20" style="221" customWidth="1"/>
+    <col min="7175" max="7175" width="24.5703125" style="221" customWidth="1"/>
+    <col min="7176" max="7205" width="4.42578125" style="221" customWidth="1"/>
+    <col min="7206" max="7206" width="2.5703125" style="221" customWidth="1"/>
+    <col min="7207" max="7207" width="6.140625" style="221" customWidth="1"/>
+    <col min="7208" max="7208" width="19.42578125" style="221" customWidth="1"/>
+    <col min="7209" max="7428" width="9" style="221"/>
+    <col min="7429" max="7429" width="3.28515625" style="221" customWidth="1"/>
+    <col min="7430" max="7430" width="20" style="221" customWidth="1"/>
+    <col min="7431" max="7431" width="24.5703125" style="221" customWidth="1"/>
+    <col min="7432" max="7461" width="4.42578125" style="221" customWidth="1"/>
+    <col min="7462" max="7462" width="2.5703125" style="221" customWidth="1"/>
+    <col min="7463" max="7463" width="6.140625" style="221" customWidth="1"/>
+    <col min="7464" max="7464" width="19.42578125" style="221" customWidth="1"/>
+    <col min="7465" max="7684" width="9" style="221"/>
+    <col min="7685" max="7685" width="3.28515625" style="221" customWidth="1"/>
+    <col min="7686" max="7686" width="20" style="221" customWidth="1"/>
+    <col min="7687" max="7687" width="24.5703125" style="221" customWidth="1"/>
+    <col min="7688" max="7717" width="4.42578125" style="221" customWidth="1"/>
+    <col min="7718" max="7718" width="2.5703125" style="221" customWidth="1"/>
+    <col min="7719" max="7719" width="6.140625" style="221" customWidth="1"/>
+    <col min="7720" max="7720" width="19.42578125" style="221" customWidth="1"/>
+    <col min="7721" max="7940" width="9" style="221"/>
+    <col min="7941" max="7941" width="3.28515625" style="221" customWidth="1"/>
+    <col min="7942" max="7942" width="20" style="221" customWidth="1"/>
+    <col min="7943" max="7943" width="24.5703125" style="221" customWidth="1"/>
+    <col min="7944" max="7973" width="4.42578125" style="221" customWidth="1"/>
+    <col min="7974" max="7974" width="2.5703125" style="221" customWidth="1"/>
+    <col min="7975" max="7975" width="6.140625" style="221" customWidth="1"/>
+    <col min="7976" max="7976" width="19.42578125" style="221" customWidth="1"/>
+    <col min="7977" max="8196" width="9" style="221"/>
+    <col min="8197" max="8197" width="3.28515625" style="221" customWidth="1"/>
+    <col min="8198" max="8198" width="20" style="221" customWidth="1"/>
+    <col min="8199" max="8199" width="24.5703125" style="221" customWidth="1"/>
+    <col min="8200" max="8229" width="4.42578125" style="221" customWidth="1"/>
+    <col min="8230" max="8230" width="2.5703125" style="221" customWidth="1"/>
+    <col min="8231" max="8231" width="6.140625" style="221" customWidth="1"/>
+    <col min="8232" max="8232" width="19.42578125" style="221" customWidth="1"/>
+    <col min="8233" max="8452" width="9" style="221"/>
+    <col min="8453" max="8453" width="3.28515625" style="221" customWidth="1"/>
+    <col min="8454" max="8454" width="20" style="221" customWidth="1"/>
+    <col min="8455" max="8455" width="24.5703125" style="221" customWidth="1"/>
+    <col min="8456" max="8485" width="4.42578125" style="221" customWidth="1"/>
+    <col min="8486" max="8486" width="2.5703125" style="221" customWidth="1"/>
+    <col min="8487" max="8487" width="6.140625" style="221" customWidth="1"/>
+    <col min="8488" max="8488" width="19.42578125" style="221" customWidth="1"/>
+    <col min="8489" max="8708" width="9" style="221"/>
+    <col min="8709" max="8709" width="3.28515625" style="221" customWidth="1"/>
+    <col min="8710" max="8710" width="20" style="221" customWidth="1"/>
+    <col min="8711" max="8711" width="24.5703125" style="221" customWidth="1"/>
+    <col min="8712" max="8741" width="4.42578125" style="221" customWidth="1"/>
+    <col min="8742" max="8742" width="2.5703125" style="221" customWidth="1"/>
+    <col min="8743" max="8743" width="6.140625" style="221" customWidth="1"/>
+    <col min="8744" max="8744" width="19.42578125" style="221" customWidth="1"/>
+    <col min="8745" max="8964" width="9" style="221"/>
+    <col min="8965" max="8965" width="3.28515625" style="221" customWidth="1"/>
+    <col min="8966" max="8966" width="20" style="221" customWidth="1"/>
+    <col min="8967" max="8967" width="24.5703125" style="221" customWidth="1"/>
+    <col min="8968" max="8997" width="4.42578125" style="221" customWidth="1"/>
+    <col min="8998" max="8998" width="2.5703125" style="221" customWidth="1"/>
+    <col min="8999" max="8999" width="6.140625" style="221" customWidth="1"/>
+    <col min="9000" max="9000" width="19.42578125" style="221" customWidth="1"/>
+    <col min="9001" max="9220" width="9" style="221"/>
+    <col min="9221" max="9221" width="3.28515625" style="221" customWidth="1"/>
+    <col min="9222" max="9222" width="20" style="221" customWidth="1"/>
+    <col min="9223" max="9223" width="24.5703125" style="221" customWidth="1"/>
+    <col min="9224" max="9253" width="4.42578125" style="221" customWidth="1"/>
+    <col min="9254" max="9254" width="2.5703125" style="221" customWidth="1"/>
+    <col min="9255" max="9255" width="6.140625" style="221" customWidth="1"/>
+    <col min="9256" max="9256" width="19.42578125" style="221" customWidth="1"/>
+    <col min="9257" max="9476" width="9" style="221"/>
+    <col min="9477" max="9477" width="3.28515625" style="221" customWidth="1"/>
+    <col min="9478" max="9478" width="20" style="221" customWidth="1"/>
+    <col min="9479" max="9479" width="24.5703125" style="221" customWidth="1"/>
+    <col min="9480" max="9509" width="4.42578125" style="221" customWidth="1"/>
+    <col min="9510" max="9510" width="2.5703125" style="221" customWidth="1"/>
+    <col min="9511" max="9511" width="6.140625" style="221" customWidth="1"/>
+    <col min="9512" max="9512" width="19.42578125" style="221" customWidth="1"/>
+    <col min="9513" max="9732" width="9" style="221"/>
+    <col min="9733" max="9733" width="3.28515625" style="221" customWidth="1"/>
+    <col min="9734" max="9734" width="20" style="221" customWidth="1"/>
+    <col min="9735" max="9735" width="24.5703125" style="221" customWidth="1"/>
+    <col min="9736" max="9765" width="4.42578125" style="221" customWidth="1"/>
+    <col min="9766" max="9766" width="2.5703125" style="221" customWidth="1"/>
+    <col min="9767" max="9767" width="6.140625" style="221" customWidth="1"/>
+    <col min="9768" max="9768" width="19.42578125" style="221" customWidth="1"/>
+    <col min="9769" max="9988" width="9" style="221"/>
+    <col min="9989" max="9989" width="3.28515625" style="221" customWidth="1"/>
+    <col min="9990" max="9990" width="20" style="221" customWidth="1"/>
+    <col min="9991" max="9991" width="24.5703125" style="221" customWidth="1"/>
+    <col min="9992" max="10021" width="4.42578125" style="221" customWidth="1"/>
+    <col min="10022" max="10022" width="2.5703125" style="221" customWidth="1"/>
+    <col min="10023" max="10023" width="6.140625" style="221" customWidth="1"/>
+    <col min="10024" max="10024" width="19.42578125" style="221" customWidth="1"/>
+    <col min="10025" max="10244" width="9" style="221"/>
+    <col min="10245" max="10245" width="3.28515625" style="221" customWidth="1"/>
+    <col min="10246" max="10246" width="20" style="221" customWidth="1"/>
+    <col min="10247" max="10247" width="24.5703125" style="221" customWidth="1"/>
+    <col min="10248" max="10277" width="4.42578125" style="221" customWidth="1"/>
+    <col min="10278" max="10278" width="2.5703125" style="221" customWidth="1"/>
+    <col min="10279" max="10279" width="6.140625" style="221" customWidth="1"/>
+    <col min="10280" max="10280" width="19.42578125" style="221" customWidth="1"/>
+    <col min="10281" max="10500" width="9" style="221"/>
+    <col min="10501" max="10501" width="3.28515625" style="221" customWidth="1"/>
+    <col min="10502" max="10502" width="20" style="221" customWidth="1"/>
+    <col min="10503" max="10503" width="24.5703125" style="221" customWidth="1"/>
+    <col min="10504" max="10533" width="4.42578125" style="221" customWidth="1"/>
+    <col min="10534" max="10534" width="2.5703125" style="221" customWidth="1"/>
+    <col min="10535" max="10535" width="6.140625" style="221" customWidth="1"/>
+    <col min="10536" max="10536" width="19.42578125" style="221" customWidth="1"/>
+    <col min="10537" max="10756" width="9" style="221"/>
+    <col min="10757" max="10757" width="3.28515625" style="221" customWidth="1"/>
+    <col min="10758" max="10758" width="20" style="221" customWidth="1"/>
+    <col min="10759" max="10759" width="24.5703125" style="221" customWidth="1"/>
+    <col min="10760" max="10789" width="4.42578125" style="221" customWidth="1"/>
+    <col min="10790" max="10790" width="2.5703125" style="221" customWidth="1"/>
+    <col min="10791" max="10791" width="6.140625" style="221" customWidth="1"/>
+    <col min="10792" max="10792" width="19.42578125" style="221" customWidth="1"/>
+    <col min="10793" max="11012" width="9" style="221"/>
+    <col min="11013" max="11013" width="3.28515625" style="221" customWidth="1"/>
+    <col min="11014" max="11014" width="20" style="221" customWidth="1"/>
+    <col min="11015" max="11015" width="24.5703125" style="221" customWidth="1"/>
+    <col min="11016" max="11045" width="4.42578125" style="221" customWidth="1"/>
+    <col min="11046" max="11046" width="2.5703125" style="221" customWidth="1"/>
+    <col min="11047" max="11047" width="6.140625" style="221" customWidth="1"/>
+    <col min="11048" max="11048" width="19.42578125" style="221" customWidth="1"/>
+    <col min="11049" max="11268" width="9" style="221"/>
+    <col min="11269" max="11269" width="3.28515625" style="221" customWidth="1"/>
+    <col min="11270" max="11270" width="20" style="221" customWidth="1"/>
+    <col min="11271" max="11271" width="24.5703125" style="221" customWidth="1"/>
+    <col min="11272" max="11301" width="4.42578125" style="221" customWidth="1"/>
+    <col min="11302" max="11302" width="2.5703125" style="221" customWidth="1"/>
+    <col min="11303" max="11303" width="6.140625" style="221" customWidth="1"/>
+    <col min="11304" max="11304" width="19.42578125" style="221" customWidth="1"/>
+    <col min="11305" max="11524" width="9" style="221"/>
+    <col min="11525" max="11525" width="3.28515625" style="221" customWidth="1"/>
+    <col min="11526" max="11526" width="20" style="221" customWidth="1"/>
+    <col min="11527" max="11527" width="24.5703125" style="221" customWidth="1"/>
+    <col min="11528" max="11557" width="4.42578125" style="221" customWidth="1"/>
+    <col min="11558" max="11558" width="2.5703125" style="221" customWidth="1"/>
+    <col min="11559" max="11559" width="6.140625" style="221" customWidth="1"/>
+    <col min="11560" max="11560" width="19.42578125" style="221" customWidth="1"/>
+    <col min="11561" max="11780" width="9" style="221"/>
+    <col min="11781" max="11781" width="3.28515625" style="221" customWidth="1"/>
+    <col min="11782" max="11782" width="20" style="221" customWidth="1"/>
+    <col min="11783" max="11783" width="24.5703125" style="221" customWidth="1"/>
+    <col min="11784" max="11813" width="4.42578125" style="221" customWidth="1"/>
+    <col min="11814" max="11814" width="2.5703125" style="221" customWidth="1"/>
+    <col min="11815" max="11815" width="6.140625" style="221" customWidth="1"/>
+    <col min="11816" max="11816" width="19.42578125" style="221" customWidth="1"/>
+    <col min="11817" max="12036" width="9" style="221"/>
+    <col min="12037" max="12037" width="3.28515625" style="221" customWidth="1"/>
+    <col min="12038" max="12038" width="20" style="221" customWidth="1"/>
+    <col min="12039" max="12039" width="24.5703125" style="221" customWidth="1"/>
+    <col min="12040" max="12069" width="4.42578125" style="221" customWidth="1"/>
+    <col min="12070" max="12070" width="2.5703125" style="221" customWidth="1"/>
+    <col min="12071" max="12071" width="6.140625" style="221" customWidth="1"/>
+    <col min="12072" max="12072" width="19.42578125" style="221" customWidth="1"/>
+    <col min="12073" max="12292" width="9" style="221"/>
+    <col min="12293" max="12293" width="3.28515625" style="221" customWidth="1"/>
+    <col min="12294" max="12294" width="20" style="221" customWidth="1"/>
+    <col min="12295" max="12295" width="24.5703125" style="221" customWidth="1"/>
+    <col min="12296" max="12325" width="4.42578125" style="221" customWidth="1"/>
+    <col min="12326" max="12326" width="2.5703125" style="221" customWidth="1"/>
+    <col min="12327" max="12327" width="6.140625" style="221" customWidth="1"/>
+    <col min="12328" max="12328" width="19.42578125" style="221" customWidth="1"/>
+    <col min="12329" max="12548" width="9" style="221"/>
+    <col min="12549" max="12549" width="3.28515625" style="221" customWidth="1"/>
+    <col min="12550" max="12550" width="20" style="221" customWidth="1"/>
+    <col min="12551" max="12551" width="24.5703125" style="221" customWidth="1"/>
+    <col min="12552" max="12581" width="4.42578125" style="221" customWidth="1"/>
+    <col min="12582" max="12582" width="2.5703125" style="221" customWidth="1"/>
+    <col min="12583" max="12583" width="6.140625" style="221" customWidth="1"/>
+    <col min="12584" max="12584" width="19.42578125" style="221" customWidth="1"/>
+    <col min="12585" max="12804" width="9" style="221"/>
+    <col min="12805" max="12805" width="3.28515625" style="221" customWidth="1"/>
+    <col min="12806" max="12806" width="20" style="221" customWidth="1"/>
+    <col min="12807" max="12807" width="24.5703125" style="221" customWidth="1"/>
+    <col min="12808" max="12837" width="4.42578125" style="221" customWidth="1"/>
+    <col min="12838" max="12838" width="2.5703125" style="221" customWidth="1"/>
+    <col min="12839" max="12839" width="6.140625" style="221" customWidth="1"/>
+    <col min="12840" max="12840" width="19.42578125" style="221" customWidth="1"/>
+    <col min="12841" max="13060" width="9" style="221"/>
+    <col min="13061" max="13061" width="3.28515625" style="221" customWidth="1"/>
+    <col min="13062" max="13062" width="20" style="221" customWidth="1"/>
+    <col min="13063" max="13063" width="24.5703125" style="221" customWidth="1"/>
+    <col min="13064" max="13093" width="4.42578125" style="221" customWidth="1"/>
+    <col min="13094" max="13094" width="2.5703125" style="221" customWidth="1"/>
+    <col min="13095" max="13095" width="6.140625" style="221" customWidth="1"/>
+    <col min="13096" max="13096" width="19.42578125" style="221" customWidth="1"/>
+    <col min="13097" max="13316" width="9" style="221"/>
+    <col min="13317" max="13317" width="3.28515625" style="221" customWidth="1"/>
+    <col min="13318" max="13318" width="20" style="221" customWidth="1"/>
+    <col min="13319" max="13319" width="24.5703125" style="221" customWidth="1"/>
+    <col min="13320" max="13349" width="4.42578125" style="221" customWidth="1"/>
+    <col min="13350" max="13350" width="2.5703125" style="221" customWidth="1"/>
+    <col min="13351" max="13351" width="6.140625" style="221" customWidth="1"/>
+    <col min="13352" max="13352" width="19.42578125" style="221" customWidth="1"/>
+    <col min="13353" max="13572" width="9" style="221"/>
+    <col min="13573" max="13573" width="3.28515625" style="221" customWidth="1"/>
+    <col min="13574" max="13574" width="20" style="221" customWidth="1"/>
+    <col min="13575" max="13575" width="24.5703125" style="221" customWidth="1"/>
+    <col min="13576" max="13605" width="4.42578125" style="221" customWidth="1"/>
+    <col min="13606" max="13606" width="2.5703125" style="221" customWidth="1"/>
+    <col min="13607" max="13607" width="6.140625" style="221" customWidth="1"/>
+    <col min="13608" max="13608" width="19.42578125" style="221" customWidth="1"/>
+    <col min="13609" max="13828" width="9" style="221"/>
+    <col min="13829" max="13829" width="3.28515625" style="221" customWidth="1"/>
+    <col min="13830" max="13830" width="20" style="221" customWidth="1"/>
+    <col min="13831" max="13831" width="24.5703125" style="221" customWidth="1"/>
+    <col min="13832" max="13861" width="4.42578125" style="221" customWidth="1"/>
+    <col min="13862" max="13862" width="2.5703125" style="221" customWidth="1"/>
+    <col min="13863" max="13863" width="6.140625" style="221" customWidth="1"/>
+    <col min="13864" max="13864" width="19.42578125" style="221" customWidth="1"/>
+    <col min="13865" max="14084" width="9" style="221"/>
+    <col min="14085" max="14085" width="3.28515625" style="221" customWidth="1"/>
+    <col min="14086" max="14086" width="20" style="221" customWidth="1"/>
+    <col min="14087" max="14087" width="24.5703125" style="221" customWidth="1"/>
+    <col min="14088" max="14117" width="4.42578125" style="221" customWidth="1"/>
+    <col min="14118" max="14118" width="2.5703125" style="221" customWidth="1"/>
+    <col min="14119" max="14119" width="6.140625" style="221" customWidth="1"/>
+    <col min="14120" max="14120" width="19.42578125" style="221" customWidth="1"/>
+    <col min="14121" max="14340" width="9" style="221"/>
+    <col min="14341" max="14341" width="3.28515625" style="221" customWidth="1"/>
+    <col min="14342" max="14342" width="20" style="221" customWidth="1"/>
+    <col min="14343" max="14343" width="24.5703125" style="221" customWidth="1"/>
+    <col min="14344" max="14373" width="4.42578125" style="221" customWidth="1"/>
+    <col min="14374" max="14374" width="2.5703125" style="221" customWidth="1"/>
+    <col min="14375" max="14375" width="6.140625" style="221" customWidth="1"/>
+    <col min="14376" max="14376" width="19.42578125" style="221" customWidth="1"/>
+    <col min="14377" max="14596" width="9" style="221"/>
+    <col min="14597" max="14597" width="3.28515625" style="221" customWidth="1"/>
+    <col min="14598" max="14598" width="20" style="221" customWidth="1"/>
+    <col min="14599" max="14599" width="24.5703125" style="221" customWidth="1"/>
+    <col min="14600" max="14629" width="4.42578125" style="221" customWidth="1"/>
+    <col min="14630" max="14630" width="2.5703125" style="221" customWidth="1"/>
+    <col min="14631" max="14631" width="6.140625" style="221" customWidth="1"/>
+    <col min="14632" max="14632" width="19.42578125" style="221" customWidth="1"/>
+    <col min="14633" max="14852" width="9" style="221"/>
+    <col min="14853" max="14853" width="3.28515625" style="221" customWidth="1"/>
+    <col min="14854" max="14854" width="20" style="221" customWidth="1"/>
+    <col min="14855" max="14855" width="24.5703125" style="221" customWidth="1"/>
+    <col min="14856" max="14885" width="4.42578125" style="221" customWidth="1"/>
+    <col min="14886" max="14886" width="2.5703125" style="221" customWidth="1"/>
+    <col min="14887" max="14887" width="6.140625" style="221" customWidth="1"/>
+    <col min="14888" max="14888" width="19.42578125" style="221" customWidth="1"/>
+    <col min="14889" max="15108" width="9" style="221"/>
+    <col min="15109" max="15109" width="3.28515625" style="221" customWidth="1"/>
+    <col min="15110" max="15110" width="20" style="221" customWidth="1"/>
+    <col min="15111" max="15111" width="24.5703125" style="221" customWidth="1"/>
+    <col min="15112" max="15141" width="4.42578125" style="221" customWidth="1"/>
+    <col min="15142" max="15142" width="2.5703125" style="221" customWidth="1"/>
+    <col min="15143" max="15143" width="6.140625" style="221" customWidth="1"/>
+    <col min="15144" max="15144" width="19.42578125" style="221" customWidth="1"/>
+    <col min="15145" max="15364" width="9" style="221"/>
+    <col min="15365" max="15365" width="3.28515625" style="221" customWidth="1"/>
+    <col min="15366" max="15366" width="20" style="221" customWidth="1"/>
+    <col min="15367" max="15367" width="24.5703125" style="221" customWidth="1"/>
+    <col min="15368" max="15397" width="4.42578125" style="221" customWidth="1"/>
+    <col min="15398" max="15398" width="2.5703125" style="221" customWidth="1"/>
+    <col min="15399" max="15399" width="6.140625" style="221" customWidth="1"/>
+    <col min="15400" max="15400" width="19.42578125" style="221" customWidth="1"/>
+    <col min="15401" max="15620" width="9" style="221"/>
+    <col min="15621" max="15621" width="3.28515625" style="221" customWidth="1"/>
+    <col min="15622" max="15622" width="20" style="221" customWidth="1"/>
+    <col min="15623" max="15623" width="24.5703125" style="221" customWidth="1"/>
+    <col min="15624" max="15653" width="4.42578125" style="221" customWidth="1"/>
+    <col min="15654" max="15654" width="2.5703125" style="221" customWidth="1"/>
+    <col min="15655" max="15655" width="6.140625" style="221" customWidth="1"/>
+    <col min="15656" max="15656" width="19.42578125" style="221" customWidth="1"/>
+    <col min="15657" max="15876" width="9" style="221"/>
+    <col min="15877" max="15877" width="3.28515625" style="221" customWidth="1"/>
+    <col min="15878" max="15878" width="20" style="221" customWidth="1"/>
+    <col min="15879" max="15879" width="24.5703125" style="221" customWidth="1"/>
+    <col min="15880" max="15909" width="4.42578125" style="221" customWidth="1"/>
+    <col min="15910" max="15910" width="2.5703125" style="221" customWidth="1"/>
+    <col min="15911" max="15911" width="6.140625" style="221" customWidth="1"/>
+    <col min="15912" max="15912" width="19.42578125" style="221" customWidth="1"/>
+    <col min="15913" max="16132" width="9" style="221"/>
+    <col min="16133" max="16133" width="3.28515625" style="221" customWidth="1"/>
+    <col min="16134" max="16134" width="20" style="221" customWidth="1"/>
+    <col min="16135" max="16135" width="24.5703125" style="221" customWidth="1"/>
+    <col min="16136" max="16165" width="4.42578125" style="221" customWidth="1"/>
+    <col min="16166" max="16166" width="2.5703125" style="221" customWidth="1"/>
+    <col min="16167" max="16167" width="6.140625" style="221" customWidth="1"/>
+    <col min="16168" max="16168" width="19.42578125" style="221" customWidth="1"/>
+    <col min="16169" max="16384" width="9" style="221"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="Z1" s="464" t="s">
+      <c r="B1" s="219"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="Z1" s="449" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="465"/>
-      <c r="AB1" s="465"/>
-      <c r="AC1" s="465"/>
-      <c r="AD1" s="465"/>
-      <c r="AE1" s="465"/>
-      <c r="AF1" s="465"/>
-      <c r="AG1" s="466"/>
+      <c r="AA1" s="450"/>
+      <c r="AB1" s="450"/>
+      <c r="AC1" s="450"/>
+      <c r="AD1" s="450"/>
+      <c r="AE1" s="450"/>
+      <c r="AF1" s="450"/>
+      <c r="AG1" s="451"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="225" t="s">
+      <c r="A2" s="223" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="Z2" s="447" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="Z2" s="444" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" s="448"/>
-      <c r="AB2" s="448"/>
-      <c r="AC2" s="448"/>
-      <c r="AD2" s="448"/>
-      <c r="AE2" s="449"/>
-      <c r="AF2" s="450" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG2" s="451"/>
+      <c r="AA2" s="445"/>
+      <c r="AB2" s="445"/>
+      <c r="AC2" s="445"/>
+      <c r="AD2" s="445"/>
+      <c r="AE2" s="446"/>
+      <c r="AF2" s="447" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG2" s="448"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="225" t="s">
+      <c r="A3" s="223" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="447" t="s">
+      <c r="Z3" s="444" t="s">
         <v>112</v>
       </c>
-      <c r="AA3" s="448"/>
-      <c r="AB3" s="448"/>
-      <c r="AC3" s="448"/>
-      <c r="AD3" s="448"/>
-      <c r="AE3" s="449"/>
-      <c r="AF3" s="450" t="s">
+      <c r="AA3" s="445"/>
+      <c r="AB3" s="445"/>
+      <c r="AC3" s="445"/>
+      <c r="AD3" s="445"/>
+      <c r="AE3" s="446"/>
+      <c r="AF3" s="447" t="s">
         <v>113</v>
       </c>
-      <c r="AG3" s="451"/>
+      <c r="AG3" s="448"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="225" t="s">
+      <c r="A4" s="223" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
       <c r="E4" s="79"/>
-      <c r="T4" s="223" t="s">
+      <c r="T4" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="447" t="s">
+      <c r="Z4" s="444" t="s">
         <v>115</v>
       </c>
-      <c r="AA4" s="448"/>
-      <c r="AB4" s="448"/>
-      <c r="AC4" s="448"/>
-      <c r="AD4" s="448"/>
-      <c r="AE4" s="449"/>
-      <c r="AF4" s="450" t="s">
+      <c r="AA4" s="445"/>
+      <c r="AB4" s="445"/>
+      <c r="AC4" s="445"/>
+      <c r="AD4" s="445"/>
+      <c r="AE4" s="446"/>
+      <c r="AF4" s="447" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="451"/>
+      <c r="AG4" s="448"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="225" t="s">
+      <c r="A5" s="223" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="447" t="s">
+      <c r="Z5" s="444" t="s">
         <v>118</v>
       </c>
-      <c r="AA5" s="448"/>
-      <c r="AB5" s="448"/>
-      <c r="AC5" s="448"/>
-      <c r="AD5" s="448"/>
-      <c r="AE5" s="449"/>
-      <c r="AF5" s="450" t="s">
+      <c r="AA5" s="445"/>
+      <c r="AB5" s="445"/>
+      <c r="AC5" s="445"/>
+      <c r="AD5" s="445"/>
+      <c r="AE5" s="446"/>
+      <c r="AF5" s="447" t="s">
         <v>119</v>
       </c>
-      <c r="AG5" s="451"/>
+      <c r="AG5" s="448"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="227"/>
-      <c r="B6" s="227"/>
-      <c r="C6" s="228"/>
-      <c r="D6" s="228"/>
-      <c r="E6" s="227"/>
-    </row>
-    <row r="7" spans="1:40" s="230" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="452" t="s">
+      <c r="A6" s="225"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="225"/>
+    </row>
+    <row r="7" spans="1:40" s="228" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="453" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="452"/>
-      <c r="C7" s="452"/>
-      <c r="D7" s="452"/>
-      <c r="E7" s="452"/>
-      <c r="F7" s="452"/>
-      <c r="G7" s="452"/>
-      <c r="H7" s="452"/>
-      <c r="I7" s="452"/>
-      <c r="J7" s="452"/>
-      <c r="K7" s="452"/>
-      <c r="L7" s="452"/>
-      <c r="M7" s="452"/>
-      <c r="N7" s="452"/>
-      <c r="O7" s="452"/>
-      <c r="P7" s="452"/>
-      <c r="Q7" s="452"/>
-      <c r="R7" s="452"/>
-      <c r="S7" s="452"/>
-      <c r="T7" s="452"/>
-      <c r="U7" s="452"/>
-      <c r="V7" s="452"/>
-      <c r="W7" s="452"/>
-      <c r="X7" s="452"/>
-      <c r="Y7" s="452"/>
-      <c r="Z7" s="452"/>
-      <c r="AA7" s="452"/>
-      <c r="AB7" s="452"/>
-      <c r="AC7" s="452"/>
-      <c r="AD7" s="452"/>
-      <c r="AE7" s="452"/>
-      <c r="AF7" s="452"/>
-      <c r="AG7" s="452"/>
-      <c r="AH7" s="452"/>
-      <c r="AI7" s="452"/>
-      <c r="AJ7" s="452"/>
-      <c r="AK7" s="452"/>
-      <c r="AL7" s="452"/>
-      <c r="AM7" s="452"/>
-      <c r="AN7" s="229"/>
-    </row>
-    <row r="9" spans="1:40" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="453" t="s">
+      <c r="B7" s="453"/>
+      <c r="C7" s="453"/>
+      <c r="D7" s="453"/>
+      <c r="E7" s="453"/>
+      <c r="F7" s="453"/>
+      <c r="G7" s="453"/>
+      <c r="H7" s="453"/>
+      <c r="I7" s="453"/>
+      <c r="J7" s="453"/>
+      <c r="K7" s="453"/>
+      <c r="L7" s="453"/>
+      <c r="M7" s="453"/>
+      <c r="N7" s="453"/>
+      <c r="O7" s="453"/>
+      <c r="P7" s="453"/>
+      <c r="Q7" s="453"/>
+      <c r="R7" s="453"/>
+      <c r="S7" s="453"/>
+      <c r="T7" s="453"/>
+      <c r="U7" s="453"/>
+      <c r="V7" s="453"/>
+      <c r="W7" s="453"/>
+      <c r="X7" s="453"/>
+      <c r="Y7" s="453"/>
+      <c r="Z7" s="453"/>
+      <c r="AA7" s="453"/>
+      <c r="AB7" s="453"/>
+      <c r="AC7" s="453"/>
+      <c r="AD7" s="453"/>
+      <c r="AE7" s="453"/>
+      <c r="AF7" s="453"/>
+      <c r="AG7" s="453"/>
+      <c r="AH7" s="453"/>
+      <c r="AI7" s="453"/>
+      <c r="AJ7" s="453"/>
+      <c r="AK7" s="453"/>
+      <c r="AL7" s="453"/>
+      <c r="AM7" s="453"/>
+      <c r="AN7" s="227"/>
+    </row>
+    <row r="9" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="454" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="453" t="s">
+      <c r="B9" s="454" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="453" t="s">
+      <c r="C9" s="454" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="456" t="s">
+      <c r="D9" s="457" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="457"/>
-      <c r="F9" s="457"/>
-      <c r="G9" s="457"/>
-      <c r="H9" s="457"/>
-      <c r="I9" s="457"/>
-      <c r="J9" s="457"/>
-      <c r="K9" s="457"/>
-      <c r="L9" s="457"/>
-      <c r="M9" s="457"/>
-      <c r="N9" s="457"/>
-      <c r="O9" s="457"/>
-      <c r="P9" s="457"/>
-      <c r="Q9" s="457"/>
-      <c r="R9" s="457"/>
-      <c r="S9" s="457"/>
-      <c r="T9" s="457"/>
-      <c r="U9" s="457"/>
-      <c r="V9" s="457"/>
-      <c r="W9" s="457"/>
-      <c r="X9" s="457"/>
-      <c r="Y9" s="457"/>
-      <c r="Z9" s="457"/>
-      <c r="AA9" s="457"/>
-      <c r="AB9" s="457"/>
-      <c r="AC9" s="457"/>
-      <c r="AD9" s="457"/>
-      <c r="AE9" s="457"/>
-      <c r="AF9" s="457"/>
-      <c r="AG9" s="457"/>
-      <c r="AH9" s="458"/>
-      <c r="AI9" s="459" t="s">
+      <c r="E9" s="458"/>
+      <c r="F9" s="458"/>
+      <c r="G9" s="458"/>
+      <c r="H9" s="458"/>
+      <c r="I9" s="458"/>
+      <c r="J9" s="458"/>
+      <c r="K9" s="458"/>
+      <c r="L9" s="458"/>
+      <c r="M9" s="458"/>
+      <c r="N9" s="458"/>
+      <c r="O9" s="458"/>
+      <c r="P9" s="458"/>
+      <c r="Q9" s="458"/>
+      <c r="R9" s="458"/>
+      <c r="S9" s="458"/>
+      <c r="T9" s="458"/>
+      <c r="U9" s="458"/>
+      <c r="V9" s="458"/>
+      <c r="W9" s="458"/>
+      <c r="X9" s="458"/>
+      <c r="Y9" s="458"/>
+      <c r="Z9" s="458"/>
+      <c r="AA9" s="458"/>
+      <c r="AB9" s="458"/>
+      <c r="AC9" s="458"/>
+      <c r="AD9" s="458"/>
+      <c r="AE9" s="458"/>
+      <c r="AF9" s="458"/>
+      <c r="AG9" s="458"/>
+      <c r="AH9" s="459"/>
+      <c r="AI9" s="460" t="s">
         <v>124</v>
       </c>
-      <c r="AJ9" s="231"/>
-      <c r="AK9" s="232"/>
-      <c r="AL9" s="232"/>
-      <c r="AM9" s="233"/>
-      <c r="AN9" s="234"/>
-    </row>
-    <row r="10" spans="1:40" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="454"/>
-      <c r="B10" s="454"/>
-      <c r="C10" s="454"/>
-      <c r="D10" s="236">
+      <c r="AJ9" s="229"/>
+      <c r="AK9" s="230"/>
+      <c r="AL9" s="230"/>
+      <c r="AM9" s="231"/>
+      <c r="AN9" s="232"/>
+    </row>
+    <row r="10" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="455"/>
+      <c r="B10" s="455"/>
+      <c r="C10" s="455"/>
+      <c r="D10" s="234">
         <v>1</v>
       </c>
-      <c r="E10" s="236">
+      <c r="E10" s="234">
         <v>2</v>
       </c>
-      <c r="F10" s="236">
+      <c r="F10" s="234">
         <v>3</v>
       </c>
-      <c r="G10" s="236">
+      <c r="G10" s="234">
         <v>4</v>
       </c>
-      <c r="H10" s="236">
+      <c r="H10" s="234">
         <v>5</v>
       </c>
-      <c r="I10" s="236">
+      <c r="I10" s="234">
         <v>6</v>
       </c>
-      <c r="J10" s="236">
+      <c r="J10" s="234">
         <v>7</v>
       </c>
-      <c r="K10" s="236">
+      <c r="K10" s="234">
         <v>8</v>
       </c>
-      <c r="L10" s="236">
+      <c r="L10" s="234">
         <v>9</v>
       </c>
-      <c r="M10" s="236">
+      <c r="M10" s="234">
         <v>10</v>
       </c>
-      <c r="N10" s="236">
+      <c r="N10" s="234">
         <v>11</v>
       </c>
-      <c r="O10" s="236">
+      <c r="O10" s="234">
         <v>12</v>
       </c>
-      <c r="P10" s="236">
+      <c r="P10" s="234">
         <v>13</v>
       </c>
-      <c r="Q10" s="236">
+      <c r="Q10" s="234">
         <v>14</v>
       </c>
-      <c r="R10" s="236">
+      <c r="R10" s="234">
         <v>15</v>
       </c>
-      <c r="S10" s="236">
+      <c r="S10" s="234">
         <v>16</v>
       </c>
-      <c r="T10" s="236">
+      <c r="T10" s="234">
         <v>17</v>
       </c>
-      <c r="U10" s="236">
+      <c r="U10" s="234">
         <v>18</v>
       </c>
-      <c r="V10" s="236">
+      <c r="V10" s="234">
         <v>19</v>
       </c>
-      <c r="W10" s="236">
+      <c r="W10" s="234">
         <v>20</v>
       </c>
-      <c r="X10" s="236">
+      <c r="X10" s="234">
         <v>21</v>
       </c>
-      <c r="Y10" s="236">
+      <c r="Y10" s="234">
         <v>22</v>
       </c>
-      <c r="Z10" s="236">
+      <c r="Z10" s="234">
         <v>23</v>
       </c>
-      <c r="AA10" s="236">
+      <c r="AA10" s="234">
         <v>24</v>
       </c>
-      <c r="AB10" s="236">
+      <c r="AB10" s="234">
         <v>25</v>
       </c>
-      <c r="AC10" s="236">
+      <c r="AC10" s="234">
         <v>26</v>
       </c>
-      <c r="AD10" s="236">
+      <c r="AD10" s="234">
         <v>27</v>
       </c>
-      <c r="AE10" s="236">
+      <c r="AE10" s="234">
         <v>28</v>
       </c>
-      <c r="AF10" s="236">
+      <c r="AF10" s="234">
         <v>29</v>
       </c>
-      <c r="AG10" s="236">
+      <c r="AG10" s="234">
         <v>30</v>
       </c>
-      <c r="AH10" s="236">
+      <c r="AH10" s="234">
         <v>31</v>
       </c>
-      <c r="AI10" s="459"/>
-      <c r="AJ10" s="237"/>
-      <c r="AK10" s="233"/>
-      <c r="AL10" s="233"/>
-      <c r="AM10" s="233"/>
-      <c r="AN10" s="234"/>
-    </row>
-    <row r="11" spans="1:40" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="455"/>
-      <c r="B11" s="455"/>
-      <c r="C11" s="455"/>
-      <c r="D11" s="239" t="s">
+      <c r="AI10" s="460"/>
+      <c r="AJ10" s="235"/>
+      <c r="AK10" s="231"/>
+      <c r="AL10" s="231"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="232"/>
+    </row>
+    <row r="11" spans="1:40" s="239" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="456"/>
+      <c r="B11" s="456"/>
+      <c r="C11" s="456"/>
+      <c r="D11" s="237" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="238" t="s">
+      <c r="E11" s="236" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="238" t="s">
+      <c r="F11" s="236" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="236" t="s">
+      <c r="G11" s="234" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="238" t="s">
+      <c r="H11" s="236" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="236" t="s">
+      <c r="I11" s="234" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="238" t="s">
+      <c r="J11" s="236" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="239" t="s">
+      <c r="K11" s="237" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="238" t="s">
+      <c r="L11" s="236" t="s">
         <v>130</v>
       </c>
-      <c r="M11" s="238" t="s">
+      <c r="M11" s="236" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="236" t="s">
+      <c r="N11" s="234" t="s">
         <v>125</v>
       </c>
-      <c r="O11" s="238" t="s">
+      <c r="O11" s="236" t="s">
         <v>126</v>
       </c>
-      <c r="P11" s="236" t="s">
+      <c r="P11" s="234" t="s">
         <v>127</v>
       </c>
-      <c r="Q11" s="238" t="s">
+      <c r="Q11" s="236" t="s">
         <v>128</v>
       </c>
-      <c r="R11" s="239" t="s">
+      <c r="R11" s="237" t="s">
         <v>129</v>
       </c>
-      <c r="S11" s="238" t="s">
+      <c r="S11" s="236" t="s">
         <v>130</v>
       </c>
-      <c r="T11" s="236" t="s">
+      <c r="T11" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="U11" s="238" t="s">
+      <c r="U11" s="236" t="s">
         <v>125</v>
       </c>
-      <c r="V11" s="238" t="s">
+      <c r="V11" s="236" t="s">
         <v>126</v>
       </c>
-      <c r="W11" s="238" t="s">
+      <c r="W11" s="236" t="s">
         <v>127</v>
       </c>
-      <c r="X11" s="238" t="s">
+      <c r="X11" s="236" t="s">
         <v>128</v>
       </c>
-      <c r="Y11" s="239" t="s">
+      <c r="Y11" s="237" t="s">
         <v>129</v>
       </c>
-      <c r="Z11" s="238" t="s">
+      <c r="Z11" s="236" t="s">
         <v>130</v>
       </c>
-      <c r="AA11" s="236" t="s">
+      <c r="AA11" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="AB11" s="238" t="s">
+      <c r="AB11" s="236" t="s">
         <v>125</v>
       </c>
-      <c r="AC11" s="238" t="s">
+      <c r="AC11" s="236" t="s">
         <v>126</v>
       </c>
-      <c r="AD11" s="238" t="s">
+      <c r="AD11" s="236" t="s">
         <v>127</v>
       </c>
-      <c r="AE11" s="238" t="s">
+      <c r="AE11" s="236" t="s">
         <v>128</v>
       </c>
-      <c r="AF11" s="239" t="s">
+      <c r="AF11" s="237" t="s">
         <v>129</v>
       </c>
-      <c r="AG11" s="238" t="s">
+      <c r="AG11" s="236" t="s">
         <v>130</v>
       </c>
-      <c r="AH11" s="236" t="s">
+      <c r="AH11" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="AI11" s="459"/>
-      <c r="AJ11" s="240"/>
-      <c r="AN11" s="242"/>
-    </row>
-    <row r="12" spans="1:40" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="243">
+      <c r="AI11" s="460"/>
+      <c r="AJ11" s="238"/>
+      <c r="AN11" s="240"/>
+    </row>
+    <row r="12" spans="1:40" s="239" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="241">
         <v>1</v>
       </c>
-      <c r="B12" s="243" t="s">
+      <c r="B12" s="241" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="243" t="s">
+      <c r="C12" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="244"/>
-      <c r="E12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" s="244" t="s">
-        <v>110</v>
-      </c>
-      <c r="L12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="M12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="N12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="O12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="P12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="R12" s="244"/>
-      <c r="S12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="T12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="U12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="V12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="W12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="X12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y12" s="244"/>
-      <c r="Z12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF12" s="244"/>
-      <c r="AG12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH12" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI12" s="245">
+      <c r="D12" s="242"/>
+      <c r="E12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="242" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="R12" s="242"/>
+      <c r="S12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="T12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="U12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="W12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="X12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" s="242"/>
+      <c r="Z12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF12" s="242"/>
+      <c r="AG12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH12" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI12" s="243">
         <f>COUNTIF(D12:AH12,"x")+ COUNTIF(D12:AH12,"x/2")/2+COUNTIF(D12:AH12,"CT")+COUNTIF(D12:AH12,"TT")</f>
         <v>27</v>
       </c>
-      <c r="AJ12" s="240"/>
-      <c r="AN12" s="242"/>
-    </row>
-    <row r="13" spans="1:40" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="243">
+      <c r="AJ12" s="238"/>
+      <c r="AN12" s="240"/>
+    </row>
+    <row r="13" spans="1:40" s="239" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="241">
         <v>2</v>
       </c>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="244" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="247" t="s">
+      <c r="C13" s="245" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="244"/>
-      <c r="E13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="244" t="s">
+      <c r="D13" s="242"/>
+      <c r="E13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="242" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="O13" s="238" t="s">
+      <c r="L13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" s="236" t="s">
         <v>113</v>
       </c>
-      <c r="P13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="R13" s="244"/>
-      <c r="S13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="T13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="U13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="V13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="W13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="X13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y13" s="244"/>
-      <c r="Z13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF13" s="244"/>
-      <c r="AG13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH13" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI13" s="245">
+      <c r="P13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="R13" s="242"/>
+      <c r="S13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="T13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="U13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="V13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="W13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="X13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y13" s="242"/>
+      <c r="Z13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF13" s="242"/>
+      <c r="AG13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH13" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI13" s="243">
         <f t="shared" ref="AI13:AI15" si="0">COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")</f>
         <v>26</v>
       </c>
-      <c r="AJ13" s="240"/>
-      <c r="AN13" s="242"/>
-    </row>
-    <row r="14" spans="1:40" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="243">
+      <c r="AJ13" s="238"/>
+      <c r="AN13" s="240"/>
+    </row>
+    <row r="14" spans="1:40" s="239" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="241">
         <v>3</v>
       </c>
-      <c r="B14" s="243" t="s">
+      <c r="B14" s="241" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="247" t="s">
+      <c r="C14" s="245" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="244"/>
-      <c r="E14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="J14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" s="244" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="O14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="P14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="R14" s="244"/>
-      <c r="S14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="T14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="U14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="V14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="W14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="X14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y14" s="244"/>
-      <c r="Z14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF14" s="244"/>
-      <c r="AG14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH14" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI14" s="245">
+      <c r="D14" s="242"/>
+      <c r="E14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="242" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="R14" s="242"/>
+      <c r="S14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="T14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="U14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="V14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="W14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="X14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y14" s="242"/>
+      <c r="Z14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF14" s="242"/>
+      <c r="AG14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH14" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI14" s="243">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AJ14" s="240"/>
-      <c r="AN14" s="242"/>
-    </row>
-    <row r="15" spans="1:40" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="243">
+      <c r="AJ14" s="238"/>
+      <c r="AN14" s="240"/>
+    </row>
+    <row r="15" spans="1:40" s="239" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="241">
         <v>4</v>
       </c>
-      <c r="B15" s="243" t="s">
+      <c r="B15" s="241" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="247" t="s">
+      <c r="C15" s="245" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="244"/>
-      <c r="E15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="K15" s="244" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="M15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="N15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="O15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="P15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="R15" s="244"/>
-      <c r="S15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="T15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="U15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="V15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="W15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="X15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y15" s="244"/>
-      <c r="Z15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF15" s="244"/>
-      <c r="AG15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH15" s="238" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI15" s="245">
+      <c r="D15" s="242"/>
+      <c r="E15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="242" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="R15" s="242"/>
+      <c r="S15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="T15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="U15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="V15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="W15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="X15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y15" s="242"/>
+      <c r="Z15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF15" s="242"/>
+      <c r="AG15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH15" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI15" s="243">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AJ15" s="240"/>
-      <c r="AN15" s="242"/>
-    </row>
-    <row r="16" spans="1:40" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="460" t="s">
+      <c r="AJ15" s="238"/>
+      <c r="AN15" s="240"/>
+    </row>
+    <row r="16" spans="1:40" s="239" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="461" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="461"/>
-      <c r="C16" s="248"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="249"/>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="249"/>
-      <c r="I16" s="249"/>
-      <c r="J16" s="249"/>
-      <c r="K16" s="249"/>
-      <c r="L16" s="249"/>
-      <c r="M16" s="249"/>
-      <c r="N16" s="249"/>
-      <c r="O16" s="249"/>
-      <c r="P16" s="249"/>
-      <c r="Q16" s="249"/>
-      <c r="R16" s="249"/>
-      <c r="S16" s="249"/>
-      <c r="T16" s="249"/>
-      <c r="U16" s="249"/>
-      <c r="V16" s="249"/>
-      <c r="W16" s="249"/>
-      <c r="X16" s="249"/>
-      <c r="Y16" s="249"/>
-      <c r="Z16" s="249"/>
-      <c r="AA16" s="249"/>
-      <c r="AB16" s="249"/>
-      <c r="AC16" s="249"/>
-      <c r="AD16" s="249"/>
-      <c r="AE16" s="249"/>
-      <c r="AF16" s="249"/>
-      <c r="AG16" s="249"/>
-      <c r="AH16" s="249"/>
-      <c r="AI16" s="250">
+      <c r="B16" s="462"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="246"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="247"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="247"/>
+      <c r="J16" s="247"/>
+      <c r="K16" s="247"/>
+      <c r="L16" s="247"/>
+      <c r="M16" s="247"/>
+      <c r="N16" s="247"/>
+      <c r="O16" s="247"/>
+      <c r="P16" s="247"/>
+      <c r="Q16" s="247"/>
+      <c r="R16" s="247"/>
+      <c r="S16" s="247"/>
+      <c r="T16" s="247"/>
+      <c r="U16" s="247"/>
+      <c r="V16" s="247"/>
+      <c r="W16" s="247"/>
+      <c r="X16" s="247"/>
+      <c r="Y16" s="247"/>
+      <c r="Z16" s="247"/>
+      <c r="AA16" s="247"/>
+      <c r="AB16" s="247"/>
+      <c r="AC16" s="247"/>
+      <c r="AD16" s="247"/>
+      <c r="AE16" s="247"/>
+      <c r="AF16" s="247"/>
+      <c r="AG16" s="247"/>
+      <c r="AH16" s="247"/>
+      <c r="AI16" s="248">
         <f>SUM(AI12:AI14)</f>
         <v>80</v>
       </c>
-      <c r="AJ16" s="251"/>
-      <c r="AK16" s="252"/>
-      <c r="AL16" s="252"/>
-      <c r="AN16" s="242"/>
-    </row>
-    <row r="18" spans="1:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="462" t="s">
+      <c r="AJ16" s="249"/>
+      <c r="AK16" s="250"/>
+      <c r="AL16" s="250"/>
+      <c r="AN16" s="240"/>
+    </row>
+    <row r="18" spans="1:40" s="256" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="463" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="462"/>
-      <c r="C18" s="462"/>
-      <c r="D18" s="462"/>
-      <c r="E18" s="462"/>
-      <c r="F18" s="462"/>
-      <c r="G18" s="462"/>
-      <c r="H18" s="253"/>
-      <c r="I18" s="463"/>
-      <c r="J18" s="463"/>
-      <c r="K18" s="463"/>
-      <c r="L18" s="463"/>
-      <c r="M18" s="463"/>
-      <c r="N18" s="254"/>
-      <c r="O18" s="463" t="s">
+      <c r="B18" s="463"/>
+      <c r="C18" s="463"/>
+      <c r="D18" s="463"/>
+      <c r="E18" s="463"/>
+      <c r="F18" s="463"/>
+      <c r="G18" s="463"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="464"/>
+      <c r="J18" s="464"/>
+      <c r="K18" s="464"/>
+      <c r="L18" s="464"/>
+      <c r="M18" s="464"/>
+      <c r="N18" s="252"/>
+      <c r="O18" s="464" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="463"/>
-      <c r="Q18" s="463"/>
-      <c r="R18" s="463"/>
-      <c r="S18" s="463"/>
-      <c r="T18" s="463"/>
-      <c r="U18" s="463"/>
-      <c r="V18" s="463"/>
-      <c r="W18" s="463"/>
-      <c r="X18" s="463"/>
-      <c r="Y18" s="463"/>
-      <c r="Z18" s="255"/>
-      <c r="AA18" s="255"/>
-      <c r="AB18" s="256"/>
-      <c r="AC18" s="463"/>
-      <c r="AD18" s="463"/>
-      <c r="AE18" s="463"/>
-      <c r="AF18" s="463"/>
-      <c r="AG18" s="463"/>
-      <c r="AH18" s="463"/>
-      <c r="AI18" s="463"/>
-      <c r="AJ18" s="463"/>
-      <c r="AK18" s="463"/>
-      <c r="AL18" s="463"/>
-      <c r="AM18" s="463"/>
-      <c r="AN18" s="257"/>
+      <c r="P18" s="464"/>
+      <c r="Q18" s="464"/>
+      <c r="R18" s="464"/>
+      <c r="S18" s="464"/>
+      <c r="T18" s="464"/>
+      <c r="U18" s="464"/>
+      <c r="V18" s="464"/>
+      <c r="W18" s="464"/>
+      <c r="X18" s="464"/>
+      <c r="Y18" s="464"/>
+      <c r="Z18" s="253"/>
+      <c r="AA18" s="253"/>
+      <c r="AB18" s="254"/>
+      <c r="AC18" s="464"/>
+      <c r="AD18" s="464"/>
+      <c r="AE18" s="464"/>
+      <c r="AF18" s="464"/>
+      <c r="AG18" s="464"/>
+      <c r="AH18" s="464"/>
+      <c r="AI18" s="464"/>
+      <c r="AJ18" s="464"/>
+      <c r="AK18" s="464"/>
+      <c r="AL18" s="464"/>
+      <c r="AM18" s="464"/>
+      <c r="AN18" s="255"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="259"/>
-      <c r="B25" s="260"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="259"/>
+      <c r="A25" s="257"/>
+      <c r="B25" s="258"/>
+      <c r="C25" s="257"/>
+      <c r="D25" s="257"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="259"/>
-      <c r="B26" s="260"/>
-      <c r="C26" s="259"/>
-      <c r="D26" s="259"/>
+      <c r="A26" s="257"/>
+      <c r="B26" s="258"/>
+      <c r="C26" s="257"/>
+      <c r="D26" s="257"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="227"/>
-      <c r="B27" s="228"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
+      <c r="A27" s="225"/>
+      <c r="B27" s="226"/>
+      <c r="C27" s="225"/>
+      <c r="D27" s="225"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="227"/>
-      <c r="B28" s="228"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="227"/>
-    </row>
-    <row r="32" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AN32" s="262"/>
-    </row>
-    <row r="33" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AN33" s="262"/>
-    </row>
-    <row r="34" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="446"/>
-      <c r="H34" s="446"/>
-      <c r="I34" s="446"/>
-      <c r="J34" s="446"/>
-      <c r="K34" s="446"/>
-      <c r="L34" s="446"/>
-      <c r="M34" s="446"/>
-      <c r="N34" s="446"/>
-      <c r="O34" s="446"/>
-      <c r="P34" s="446"/>
-      <c r="Q34" s="446"/>
-      <c r="R34" s="446"/>
-      <c r="S34" s="446"/>
-      <c r="T34" s="446"/>
-      <c r="U34" s="446"/>
-      <c r="V34" s="446"/>
-      <c r="W34" s="446"/>
-      <c r="X34" s="446"/>
-      <c r="AN34" s="262"/>
-    </row>
-    <row r="35" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="446"/>
-      <c r="H35" s="446"/>
-      <c r="I35" s="446"/>
-      <c r="J35" s="446"/>
-      <c r="K35" s="446"/>
-      <c r="L35" s="446"/>
-      <c r="M35" s="446"/>
-      <c r="N35" s="446"/>
-      <c r="O35" s="446"/>
-      <c r="P35" s="446"/>
-      <c r="Q35" s="446"/>
-      <c r="R35" s="446"/>
-      <c r="S35" s="446"/>
-      <c r="T35" s="446"/>
-      <c r="U35" s="446"/>
-      <c r="V35" s="446"/>
-      <c r="W35" s="446"/>
-      <c r="X35" s="446"/>
-      <c r="AN35" s="262"/>
-    </row>
-    <row r="36" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="446"/>
-      <c r="H36" s="446"/>
-      <c r="I36" s="446"/>
-      <c r="J36" s="446"/>
-      <c r="K36" s="446"/>
-      <c r="L36" s="446"/>
-      <c r="M36" s="446"/>
-      <c r="N36" s="446"/>
-      <c r="O36" s="446"/>
-      <c r="P36" s="446"/>
-      <c r="Q36" s="446"/>
-      <c r="R36" s="446"/>
-      <c r="S36" s="446"/>
-      <c r="T36" s="446"/>
-      <c r="U36" s="446"/>
-      <c r="V36" s="446"/>
-      <c r="W36" s="446"/>
-      <c r="X36" s="446"/>
-      <c r="AN36" s="262"/>
-    </row>
-    <row r="37" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="446"/>
-      <c r="H37" s="446"/>
-      <c r="I37" s="446"/>
-      <c r="J37" s="446"/>
-      <c r="K37" s="446"/>
-      <c r="L37" s="446"/>
-      <c r="M37" s="446"/>
-      <c r="N37" s="446"/>
-      <c r="O37" s="446"/>
-      <c r="P37" s="446"/>
-      <c r="Q37" s="446"/>
-      <c r="R37" s="446"/>
-      <c r="S37" s="446"/>
-      <c r="T37" s="446"/>
-      <c r="U37" s="446"/>
-      <c r="V37" s="446"/>
-      <c r="W37" s="446"/>
-      <c r="X37" s="446"/>
-      <c r="AN37" s="262"/>
-    </row>
-    <row r="38" spans="3:40" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="446"/>
-      <c r="H38" s="446"/>
-      <c r="I38" s="446"/>
-      <c r="J38" s="446"/>
-      <c r="K38" s="446"/>
-      <c r="L38" s="446"/>
-      <c r="M38" s="446"/>
-      <c r="N38" s="446"/>
-      <c r="O38" s="446"/>
-      <c r="P38" s="446"/>
-      <c r="Q38" s="446"/>
-      <c r="R38" s="446"/>
-      <c r="S38" s="446"/>
-      <c r="T38" s="446"/>
-      <c r="U38" s="446"/>
-      <c r="V38" s="446"/>
-      <c r="W38" s="446"/>
-      <c r="X38" s="446"/>
-      <c r="AN38" s="262"/>
+      <c r="A28" s="225"/>
+      <c r="B28" s="226"/>
+      <c r="C28" s="225"/>
+      <c r="D28" s="225"/>
+    </row>
+    <row r="32" spans="1:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN32" s="260"/>
+    </row>
+    <row r="33" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN33" s="260"/>
+    </row>
+    <row r="34" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="452"/>
+      <c r="H34" s="452"/>
+      <c r="I34" s="452"/>
+      <c r="J34" s="452"/>
+      <c r="K34" s="452"/>
+      <c r="L34" s="452"/>
+      <c r="M34" s="452"/>
+      <c r="N34" s="452"/>
+      <c r="O34" s="452"/>
+      <c r="P34" s="452"/>
+      <c r="Q34" s="452"/>
+      <c r="R34" s="452"/>
+      <c r="S34" s="452"/>
+      <c r="T34" s="452"/>
+      <c r="U34" s="452"/>
+      <c r="V34" s="452"/>
+      <c r="W34" s="452"/>
+      <c r="X34" s="452"/>
+      <c r="AN34" s="260"/>
+    </row>
+    <row r="35" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="452"/>
+      <c r="H35" s="452"/>
+      <c r="I35" s="452"/>
+      <c r="J35" s="452"/>
+      <c r="K35" s="452"/>
+      <c r="L35" s="452"/>
+      <c r="M35" s="452"/>
+      <c r="N35" s="452"/>
+      <c r="O35" s="452"/>
+      <c r="P35" s="452"/>
+      <c r="Q35" s="452"/>
+      <c r="R35" s="452"/>
+      <c r="S35" s="452"/>
+      <c r="T35" s="452"/>
+      <c r="U35" s="452"/>
+      <c r="V35" s="452"/>
+      <c r="W35" s="452"/>
+      <c r="X35" s="452"/>
+      <c r="AN35" s="260"/>
+    </row>
+    <row r="36" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="452"/>
+      <c r="H36" s="452"/>
+      <c r="I36" s="452"/>
+      <c r="J36" s="452"/>
+      <c r="K36" s="452"/>
+      <c r="L36" s="452"/>
+      <c r="M36" s="452"/>
+      <c r="N36" s="452"/>
+      <c r="O36" s="452"/>
+      <c r="P36" s="452"/>
+      <c r="Q36" s="452"/>
+      <c r="R36" s="452"/>
+      <c r="S36" s="452"/>
+      <c r="T36" s="452"/>
+      <c r="U36" s="452"/>
+      <c r="V36" s="452"/>
+      <c r="W36" s="452"/>
+      <c r="X36" s="452"/>
+      <c r="AN36" s="260"/>
+    </row>
+    <row r="37" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="452"/>
+      <c r="H37" s="452"/>
+      <c r="I37" s="452"/>
+      <c r="J37" s="452"/>
+      <c r="K37" s="452"/>
+      <c r="L37" s="452"/>
+      <c r="M37" s="452"/>
+      <c r="N37" s="452"/>
+      <c r="O37" s="452"/>
+      <c r="P37" s="452"/>
+      <c r="Q37" s="452"/>
+      <c r="R37" s="452"/>
+      <c r="S37" s="452"/>
+      <c r="T37" s="452"/>
+      <c r="U37" s="452"/>
+      <c r="V37" s="452"/>
+      <c r="W37" s="452"/>
+      <c r="X37" s="452"/>
+      <c r="AN37" s="260"/>
+    </row>
+    <row r="38" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="452"/>
+      <c r="H38" s="452"/>
+      <c r="I38" s="452"/>
+      <c r="J38" s="452"/>
+      <c r="K38" s="452"/>
+      <c r="L38" s="452"/>
+      <c r="M38" s="452"/>
+      <c r="N38" s="452"/>
+      <c r="O38" s="452"/>
+      <c r="P38" s="452"/>
+      <c r="Q38" s="452"/>
+      <c r="R38" s="452"/>
+      <c r="S38" s="452"/>
+      <c r="T38" s="452"/>
+      <c r="U38" s="452"/>
+      <c r="V38" s="452"/>
+      <c r="W38" s="452"/>
+      <c r="X38" s="452"/>
+      <c r="AN38" s="260"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C39" s="223"/>
-      <c r="D39" s="223"/>
-      <c r="G39" s="446"/>
-      <c r="H39" s="446"/>
-      <c r="I39" s="446"/>
-      <c r="J39" s="446"/>
-      <c r="K39" s="446"/>
-      <c r="L39" s="446"/>
-      <c r="M39" s="446"/>
-      <c r="N39" s="446"/>
-      <c r="O39" s="446"/>
-      <c r="P39" s="446"/>
-      <c r="Q39" s="446"/>
-      <c r="R39" s="446"/>
-      <c r="S39" s="446"/>
-      <c r="T39" s="446"/>
-      <c r="U39" s="446"/>
-      <c r="V39" s="446"/>
-      <c r="W39" s="446"/>
-      <c r="X39" s="446"/>
-      <c r="AN39" s="223"/>
+      <c r="C39" s="221"/>
+      <c r="D39" s="221"/>
+      <c r="G39" s="452"/>
+      <c r="H39" s="452"/>
+      <c r="I39" s="452"/>
+      <c r="J39" s="452"/>
+      <c r="K39" s="452"/>
+      <c r="L39" s="452"/>
+      <c r="M39" s="452"/>
+      <c r="N39" s="452"/>
+      <c r="O39" s="452"/>
+      <c r="P39" s="452"/>
+      <c r="Q39" s="452"/>
+      <c r="R39" s="452"/>
+      <c r="S39" s="452"/>
+      <c r="T39" s="452"/>
+      <c r="U39" s="452"/>
+      <c r="V39" s="452"/>
+      <c r="W39" s="452"/>
+      <c r="X39" s="452"/>
+      <c r="AN39" s="221"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C40" s="223"/>
-      <c r="D40" s="223"/>
-      <c r="AN40" s="223"/>
+      <c r="C40" s="221"/>
+      <c r="D40" s="221"/>
+      <c r="AN40" s="221"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -8636,6 +8623,13 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8645,7 +8639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -9486,38 +9480,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="475" t="s">
+      <c r="A1" s="473" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="475"/>
-      <c r="C1" s="475"/>
-      <c r="D1" s="475"/>
+      <c r="B1" s="473"/>
+      <c r="C1" s="473"/>
+      <c r="D1" s="473"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="476" t="s">
+      <c r="F1" s="474" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="476"/>
-      <c r="H1" s="476"/>
-      <c r="I1" s="476"/>
-      <c r="J1" s="476"/>
-      <c r="K1" s="476"/>
+      <c r="G1" s="474"/>
+      <c r="H1" s="474"/>
+      <c r="I1" s="474"/>
+      <c r="J1" s="474"/>
+      <c r="K1" s="474"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="477" t="s">
+      <c r="A2" s="475" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="477"/>
-      <c r="C2" s="477"/>
-      <c r="D2" s="477"/>
+      <c r="B2" s="475"/>
+      <c r="C2" s="475"/>
+      <c r="D2" s="475"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="478" t="s">
+      <c r="F2" s="476" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="478"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="478"/>
-      <c r="J2" s="478"/>
-      <c r="K2" s="478"/>
+      <c r="G2" s="476"/>
+      <c r="H2" s="476"/>
+      <c r="I2" s="476"/>
+      <c r="J2" s="476"/>
+      <c r="K2" s="476"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -9530,43 +9524,43 @@
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="479" t="s">
+      <c r="A4" s="477" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="479"/>
-      <c r="C4" s="479"/>
-      <c r="D4" s="479"/>
-      <c r="E4" s="479"/>
-      <c r="F4" s="479"/>
-      <c r="G4" s="479"/>
-      <c r="H4" s="479"/>
-      <c r="I4" s="479"/>
-      <c r="J4" s="479"/>
-      <c r="K4" s="479"/>
-      <c r="L4" s="479"/>
+      <c r="B4" s="477"/>
+      <c r="C4" s="477"/>
+      <c r="D4" s="477"/>
+      <c r="E4" s="477"/>
+      <c r="F4" s="477"/>
+      <c r="G4" s="477"/>
+      <c r="H4" s="477"/>
+      <c r="I4" s="477"/>
+      <c r="J4" s="477"/>
+      <c r="K4" s="477"/>
+      <c r="L4" s="477"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="480" t="s">
+      <c r="A5" s="478" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="480"/>
-      <c r="C5" s="480"/>
-      <c r="D5" s="480"/>
-      <c r="E5" s="480"/>
-      <c r="F5" s="480"/>
-      <c r="G5" s="480"/>
-      <c r="H5" s="480"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="480"/>
-      <c r="K5" s="480"/>
-      <c r="L5" s="480"/>
+      <c r="B5" s="478"/>
+      <c r="C5" s="478"/>
+      <c r="D5" s="478"/>
+      <c r="E5" s="478"/>
+      <c r="F5" s="478"/>
+      <c r="G5" s="478"/>
+      <c r="H5" s="478"/>
+      <c r="I5" s="478"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="478"/>
+      <c r="L5" s="478"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="481" t="s">
+      <c r="J6" s="479" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="481"/>
-      <c r="L6" s="481"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="479"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="147" t="s">
@@ -9633,12 +9627,12 @@
       <c r="L8" s="147"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="472" t="s">
+      <c r="A9" s="470" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="473"/>
-      <c r="C9" s="473"/>
-      <c r="D9" s="474"/>
+      <c r="B9" s="471"/>
+      <c r="C9" s="471"/>
+      <c r="D9" s="472"/>
       <c r="E9" s="149"/>
       <c r="F9" s="153">
         <f>SUM(F10:F12)</f>
@@ -9757,12 +9751,12 @@
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="469" t="s">
+      <c r="A13" s="467" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="470"/>
-      <c r="C13" s="470"/>
-      <c r="D13" s="471"/>
+      <c r="B13" s="468"/>
+      <c r="C13" s="468"/>
+      <c r="D13" s="469"/>
       <c r="E13" s="89"/>
       <c r="F13" s="153">
         <f>SUM(F14:F14)</f>
@@ -9819,11 +9813,11 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="482" t="s">
+      <c r="A15" s="480" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="483"/>
-      <c r="C15" s="484"/>
+      <c r="B15" s="481"/>
+      <c r="C15" s="482"/>
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86">
@@ -9850,14 +9844,14 @@
       <c r="L15" s="85"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="467"/>
-      <c r="C17" s="467"/>
-      <c r="D17" s="467"/>
+      <c r="B17" s="465"/>
+      <c r="C17" s="465"/>
+      <c r="D17" s="465"/>
       <c r="E17" s="82"/>
-      <c r="H17" s="467"/>
-      <c r="I17" s="467"/>
-      <c r="J17" s="467"/>
-      <c r="K17" s="467"/>
+      <c r="H17" s="465"/>
+      <c r="I17" s="465"/>
+      <c r="J17" s="465"/>
+      <c r="K17" s="465"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="144" t="s">
@@ -9869,12 +9863,12 @@
         <v>85</v>
       </c>
       <c r="G18" s="144"/>
-      <c r="H18" s="467" t="s">
+      <c r="H18" s="465" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="467"/>
-      <c r="J18" s="467"/>
-      <c r="K18" s="467"/>
+      <c r="I18" s="465"/>
+      <c r="J18" s="465"/>
+      <c r="K18" s="465"/>
     </row>
     <row r="19" spans="2:11" s="145" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="146" t="s">
@@ -9886,12 +9880,12 @@
         <v>92</v>
       </c>
       <c r="G19" s="146"/>
-      <c r="H19" s="468" t="s">
+      <c r="H19" s="466" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="468"/>
-      <c r="J19" s="468"/>
-      <c r="K19" s="468"/>
+      <c r="I19" s="466"/>
+      <c r="J19" s="466"/>
+      <c r="K19" s="466"/>
     </row>
     <row r="22" spans="2:11" s="96" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="1"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="176">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -539,13 +539,19 @@
     <t>Khai trương</t>
   </si>
   <si>
-    <t>Chị Linh thanh toán tiền hàng</t>
-  </si>
-  <si>
     <t>MC Qang Vinh</t>
   </si>
   <si>
     <t>Hằng Kế toán ứng lương</t>
+  </si>
+  <si>
+    <t>Sơn kinh doanh ứng lương</t>
+  </si>
+  <si>
+    <t>Chị Linh (A Lâm) thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -553,13 +559,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="51" x14ac:knownFonts="1">
     <font>
@@ -1173,14 +1179,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="483">
+  <cellXfs count="492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1219,7 +1225,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1233,14 +1239,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1252,15 +1258,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1292,10 +1298,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1307,10 +1313,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1319,16 +1325,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1343,7 +1349,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1353,12 +1359,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,7 +1373,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1382,41 +1388,41 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1424,11 +1430,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1436,10 +1442,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1448,25 +1454,25 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,24 +1480,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1500,13 +1506,13 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="29" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1518,11 +1524,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1550,39 +1556,39 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1592,7 +1598,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1603,7 +1609,7 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1629,12 +1635,12 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1643,10 +1649,10 @@
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,36 +1664,36 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1760,7 +1766,7 @@
     <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1769,19 +1775,19 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="39" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="39" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1793,7 +1799,7 @@
     <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1820,19 +1826,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1844,16 +1850,16 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1861,8 +1867,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1875,7 +1881,7 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1896,7 +1902,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1911,7 +1917,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1920,13 +1926,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1935,64 +1941,64 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2011,20 +2017,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="24" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2033,16 +2039,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2051,25 +2057,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,10 +2081,10 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2111,56 +2111,86 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2180,7 +2210,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2189,38 +2219,8 @@
     <xf numFmtId="9" fontId="23" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2228,13 +2228,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2249,105 +2309,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2384,6 +2375,15 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2437,6 +2437,33 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="24" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="24" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2752,7 +2779,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2818,16 +2845,16 @@
       <c r="Q2" s="107"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="371" t="s">
+      <c r="A3" s="369" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="371"/>
-      <c r="C3" s="371"/>
-      <c r="D3" s="371"/>
-      <c r="E3" s="371"/>
-      <c r="F3" s="371"/>
-      <c r="G3" s="371"/>
-      <c r="H3" s="371"/>
+      <c r="B3" s="369"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
       <c r="K3" s="108"/>
@@ -2839,32 +2866,32 @@
       <c r="Q3" s="108"/>
     </row>
     <row r="4" spans="1:17" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="372" t="s">
+      <c r="A4" s="370" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="372" t="s">
+      <c r="B4" s="370" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="372" t="s">
+      <c r="C4" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="373" t="s">
+      <c r="D4" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="374" t="s">
+      <c r="E4" s="372" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="374"/>
-      <c r="G4" s="374" t="s">
+      <c r="F4" s="372"/>
+      <c r="G4" s="372" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="374"/>
+      <c r="H4" s="372"/>
     </row>
     <row r="5" spans="1:17" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="372"/>
-      <c r="B5" s="372"/>
-      <c r="C5" s="372"/>
-      <c r="D5" s="373"/>
+      <c r="A5" s="370"/>
+      <c r="B5" s="370"/>
+      <c r="C5" s="370"/>
+      <c r="D5" s="371"/>
       <c r="E5" s="210" t="s">
         <v>81</v>
       </c>
@@ -2914,58 +2941,58 @@
       </c>
       <c r="H7" s="109"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="92">
+    <row r="8" spans="1:17" s="486" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="481">
         <v>44138</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93" t="s">
+      <c r="B8" s="481"/>
+      <c r="C8" s="482" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="483" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="109"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="92">
+      <c r="E8" s="484"/>
+      <c r="F8" s="485"/>
+      <c r="G8" s="484"/>
+      <c r="H8" s="485"/>
+    </row>
+    <row r="9" spans="1:17" s="486" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="481">
         <v>44139</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94" t="s">
+      <c r="B9" s="481"/>
+      <c r="C9" s="482"/>
+      <c r="D9" s="483" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="109"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="357">
+      <c r="E9" s="484"/>
+      <c r="F9" s="485"/>
+      <c r="G9" s="484"/>
+      <c r="H9" s="485"/>
+    </row>
+    <row r="10" spans="1:17" s="486" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="487">
         <v>44139</v>
       </c>
-      <c r="B10" s="357"/>
-      <c r="C10" s="360"/>
-      <c r="D10" s="94" t="s">
+      <c r="B10" s="487"/>
+      <c r="C10" s="488"/>
+      <c r="D10" s="483" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="109"/>
+      <c r="E10" s="484"/>
+      <c r="F10" s="485"/>
+      <c r="G10" s="484"/>
+      <c r="H10" s="485"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="358">
+      <c r="A11" s="357">
         <v>44140</v>
       </c>
-      <c r="B11" s="358"/>
-      <c r="C11" s="361"/>
+      <c r="B11" s="357"/>
+      <c r="C11" s="359"/>
       <c r="D11" s="94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="95"/>
       <c r="F11" s="109"/>
@@ -2974,26 +3001,26 @@
       </c>
       <c r="H11" s="109"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="358">
+    <row r="12" spans="1:17" s="486" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="489">
         <v>44140</v>
       </c>
-      <c r="B12" s="358"/>
-      <c r="C12" s="361"/>
-      <c r="D12" s="94" t="s">
+      <c r="B12" s="489"/>
+      <c r="C12" s="490"/>
+      <c r="D12" s="483" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="109"/>
+      <c r="E12" s="484"/>
+      <c r="F12" s="485"/>
+      <c r="G12" s="484"/>
+      <c r="H12" s="485"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="358">
+      <c r="A13" s="357">
         <v>44141</v>
       </c>
-      <c r="B13" s="358"/>
-      <c r="C13" s="361"/>
+      <c r="B13" s="357"/>
+      <c r="C13" s="359"/>
       <c r="D13" s="94" t="s">
         <v>169</v>
       </c>
@@ -3005,11 +3032,11 @@
       <c r="H13" s="109"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="358">
+      <c r="A14" s="357">
         <v>44142</v>
       </c>
-      <c r="B14" s="358"/>
-      <c r="C14" s="361"/>
+      <c r="B14" s="357"/>
+      <c r="C14" s="359"/>
       <c r="D14" s="94" t="s">
         <v>170</v>
       </c>
@@ -3020,28 +3047,28 @@
       </c>
       <c r="H14" s="109"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="358">
+    <row r="15" spans="1:17" s="486" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="489">
         <v>44142</v>
       </c>
-      <c r="B15" s="358"/>
-      <c r="C15" s="361"/>
-      <c r="D15" s="94" t="s">
+      <c r="B15" s="489"/>
+      <c r="C15" s="490"/>
+      <c r="D15" s="483" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="484"/>
+      <c r="F15" s="485"/>
+      <c r="G15" s="484"/>
+      <c r="H15" s="491"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="358">
+        <v>44142</v>
+      </c>
+      <c r="B16" s="358"/>
+      <c r="C16" s="360"/>
+      <c r="D16" s="94" t="s">
         <v>171</v>
-      </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="111"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="359">
-        <v>44142</v>
-      </c>
-      <c r="B16" s="359"/>
-      <c r="C16" s="362"/>
-      <c r="D16" s="94" t="s">
-        <v>172</v>
       </c>
       <c r="E16" s="95"/>
       <c r="F16" s="109"/>
@@ -3053,25 +3080,37 @@
       <c r="L16" s="101"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
+      <c r="A17" s="92">
+        <v>44150</v>
+      </c>
       <c r="B17" s="92"/>
       <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
+      <c r="D17" s="94" t="s">
+        <v>172</v>
+      </c>
       <c r="E17" s="95"/>
       <c r="F17" s="109"/>
-      <c r="G17" s="95"/>
+      <c r="G17" s="95">
+        <v>3000000</v>
+      </c>
       <c r="H17" s="111"/>
-      <c r="K17" s="365"/>
-      <c r="L17" s="366"/>
+      <c r="K17" s="363"/>
+      <c r="L17" s="364"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
+      <c r="A18" s="92">
+        <v>44150</v>
+      </c>
       <c r="B18" s="92"/>
       <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
+      <c r="D18" s="94" t="s">
+        <v>173</v>
+      </c>
       <c r="E18" s="95"/>
       <c r="F18" s="109"/>
-      <c r="G18" s="95"/>
+      <c r="G18" s="95">
+        <v>1000000</v>
+      </c>
       <c r="H18" s="111"/>
       <c r="N18" s="218"/>
     </row>
@@ -3625,12 +3664,12 @@
       <c r="H73" s="111"/>
     </row>
     <row r="74" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="368" t="s">
+      <c r="A74" s="366" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="369"/>
-      <c r="C74" s="369"/>
-      <c r="D74" s="370"/>
+      <c r="B74" s="367"/>
+      <c r="C74" s="367"/>
+      <c r="D74" s="368"/>
       <c r="E74" s="113">
         <f>SUM(E7:E73)</f>
         <v>0</v>
@@ -3641,7 +3680,7 @@
       </c>
       <c r="G74" s="113">
         <f>SUM(G7:G73)</f>
-        <v>21472820</v>
+        <v>25472820</v>
       </c>
       <c r="H74" s="113">
         <f>SUM(H7:H73)</f>
@@ -3661,11 +3700,11 @@
       <c r="J75" s="115"/>
     </row>
     <row r="76" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="367" t="s">
+      <c r="A76" s="365" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="367"/>
-      <c r="C76" s="367"/>
+      <c r="B76" s="365"/>
+      <c r="C76" s="365"/>
       <c r="D76" s="116"/>
       <c r="E76" s="117"/>
       <c r="F76" s="117"/>
@@ -3726,7 +3765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
@@ -3752,13 +3791,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="375" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
+      <c r="B1" s="375"/>
+      <c r="C1" s="375"/>
+      <c r="D1" s="375"/>
+      <c r="E1" s="375"/>
       <c r="H1" s="125"/>
       <c r="I1" s="125"/>
       <c r="J1" s="125"/>
@@ -3788,143 +3827,143 @@
       <c r="P2" s="129"/>
     </row>
     <row r="3" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="376" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="388"/>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="388"/>
-      <c r="G3" s="388"/>
-      <c r="H3" s="388"/>
-      <c r="I3" s="388"/>
-      <c r="J3" s="388"/>
-      <c r="K3" s="388"/>
-      <c r="L3" s="388"/>
-      <c r="M3" s="388"/>
-      <c r="N3" s="388"/>
-      <c r="O3" s="388"/>
-      <c r="P3" s="388"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="376"/>
+      <c r="M3" s="376"/>
+      <c r="N3" s="376"/>
+      <c r="O3" s="376"/>
+      <c r="P3" s="376"/>
     </row>
     <row r="4" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="388" t="s">
+      <c r="A4" s="376" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="388"/>
-      <c r="C4" s="388"/>
-      <c r="D4" s="388"/>
-      <c r="E4" s="388"/>
-      <c r="F4" s="388"/>
-      <c r="G4" s="388"/>
-      <c r="H4" s="388"/>
-      <c r="I4" s="388"/>
-      <c r="J4" s="388"/>
-      <c r="K4" s="388"/>
-      <c r="L4" s="388"/>
-      <c r="M4" s="388"/>
-      <c r="N4" s="388"/>
-      <c r="O4" s="388"/>
-      <c r="P4" s="388"/>
+      <c r="B4" s="376"/>
+      <c r="C4" s="376"/>
+      <c r="D4" s="376"/>
+      <c r="E4" s="376"/>
+      <c r="F4" s="376"/>
+      <c r="G4" s="376"/>
+      <c r="H4" s="376"/>
+      <c r="I4" s="376"/>
+      <c r="J4" s="376"/>
+      <c r="K4" s="376"/>
+      <c r="L4" s="376"/>
+      <c r="M4" s="376"/>
+      <c r="N4" s="376"/>
+      <c r="O4" s="376"/>
+      <c r="P4" s="376"/>
     </row>
     <row r="5" spans="1:16" s="124" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="381" t="s">
+      <c r="A5" s="384" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="382" t="s">
+      <c r="B5" s="385" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="381" t="s">
+      <c r="C5" s="384" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="381" t="s">
+      <c r="D5" s="384" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="381"/>
-      <c r="F5" s="383" t="s">
+      <c r="E5" s="384"/>
+      <c r="F5" s="378" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="383"/>
-      <c r="H5" s="383"/>
-      <c r="I5" s="383"/>
-      <c r="J5" s="383"/>
-      <c r="K5" s="383"/>
-      <c r="L5" s="383"/>
-      <c r="M5" s="389"/>
-      <c r="N5" s="389"/>
-      <c r="O5" s="389"/>
-      <c r="P5" s="383" t="s">
+      <c r="G5" s="378"/>
+      <c r="H5" s="378"/>
+      <c r="I5" s="378"/>
+      <c r="J5" s="378"/>
+      <c r="K5" s="378"/>
+      <c r="L5" s="378"/>
+      <c r="M5" s="377"/>
+      <c r="N5" s="377"/>
+      <c r="O5" s="377"/>
+      <c r="P5" s="378" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="124" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="381"/>
-      <c r="B6" s="382"/>
-      <c r="C6" s="381"/>
-      <c r="D6" s="381" t="s">
+      <c r="A6" s="384"/>
+      <c r="B6" s="385"/>
+      <c r="C6" s="384"/>
+      <c r="D6" s="384" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="381" t="s">
+      <c r="E6" s="384" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="381" t="s">
+      <c r="F6" s="384" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="381" t="s">
+      <c r="G6" s="384" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="384" t="s">
+      <c r="H6" s="379" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="384" t="s">
+      <c r="I6" s="379" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="385" t="s">
+      <c r="J6" s="386" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="385"/>
-      <c r="L6" s="384" t="s">
+      <c r="K6" s="386"/>
+      <c r="L6" s="379" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="384" t="s">
+      <c r="M6" s="379" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="384" t="s">
+      <c r="N6" s="379" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="384" t="s">
+      <c r="O6" s="379" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="383"/>
+      <c r="P6" s="378"/>
     </row>
     <row r="7" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="381"/>
-      <c r="B7" s="382"/>
-      <c r="C7" s="381"/>
-      <c r="D7" s="381"/>
-      <c r="E7" s="381"/>
-      <c r="F7" s="381"/>
-      <c r="G7" s="381"/>
-      <c r="H7" s="384"/>
-      <c r="I7" s="384"/>
+      <c r="A7" s="384"/>
+      <c r="B7" s="385"/>
+      <c r="C7" s="384"/>
+      <c r="D7" s="384"/>
+      <c r="E7" s="384"/>
+      <c r="F7" s="384"/>
+      <c r="G7" s="384"/>
+      <c r="H7" s="379"/>
+      <c r="I7" s="379"/>
       <c r="J7" s="211" t="s">
         <v>84</v>
       </c>
       <c r="K7" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="384"/>
-      <c r="M7" s="384"/>
-      <c r="N7" s="384"/>
-      <c r="O7" s="384"/>
-      <c r="P7" s="383"/>
+      <c r="L7" s="379"/>
+      <c r="M7" s="379"/>
+      <c r="N7" s="379"/>
+      <c r="O7" s="379"/>
+      <c r="P7" s="378"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="363"/>
-      <c r="B8" s="364"/>
-      <c r="C8" s="363"/>
-      <c r="D8" s="363"/>
-      <c r="E8" s="363"/>
+      <c r="A8" s="361"/>
+      <c r="B8" s="362"/>
+      <c r="C8" s="361"/>
+      <c r="D8" s="361"/>
+      <c r="E8" s="361"/>
       <c r="F8" s="163"/>
       <c r="G8" s="163"/>
       <c r="H8" s="164"/>
@@ -4010,11 +4049,11 @@
       <c r="P12" s="162"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="375"/>
-      <c r="B13" s="377"/>
-      <c r="C13" s="375"/>
-      <c r="D13" s="375"/>
-      <c r="E13" s="375"/>
+      <c r="A13" s="381"/>
+      <c r="B13" s="387"/>
+      <c r="C13" s="381"/>
+      <c r="D13" s="381"/>
+      <c r="E13" s="381"/>
       <c r="F13" s="163"/>
       <c r="G13" s="163"/>
       <c r="H13" s="164"/>
@@ -4028,11 +4067,11 @@
       <c r="P13" s="166"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="376"/>
-      <c r="B14" s="378"/>
-      <c r="C14" s="376"/>
-      <c r="D14" s="376"/>
-      <c r="E14" s="376"/>
+      <c r="A14" s="382"/>
+      <c r="B14" s="388"/>
+      <c r="C14" s="382"/>
+      <c r="D14" s="382"/>
+      <c r="E14" s="382"/>
       <c r="F14" s="167"/>
       <c r="G14" s="167"/>
       <c r="H14" s="168"/>
@@ -4082,11 +4121,11 @@
       <c r="P16" s="157"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="375"/>
-      <c r="B17" s="377"/>
-      <c r="C17" s="375"/>
-      <c r="D17" s="375"/>
-      <c r="E17" s="375"/>
+      <c r="A17" s="381"/>
+      <c r="B17" s="387"/>
+      <c r="C17" s="381"/>
+      <c r="D17" s="381"/>
+      <c r="E17" s="381"/>
       <c r="F17" s="163"/>
       <c r="G17" s="163"/>
       <c r="H17" s="164"/>
@@ -4100,11 +4139,11 @@
       <c r="P17" s="163"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="376"/>
-      <c r="B18" s="378"/>
-      <c r="C18" s="376"/>
-      <c r="D18" s="376"/>
-      <c r="E18" s="376"/>
+      <c r="A18" s="382"/>
+      <c r="B18" s="388"/>
+      <c r="C18" s="382"/>
+      <c r="D18" s="382"/>
+      <c r="E18" s="382"/>
       <c r="F18" s="167"/>
       <c r="G18" s="167"/>
       <c r="H18" s="168"/>
@@ -4529,7 +4568,7 @@
       <c r="M41" s="177"/>
       <c r="N41" s="177"/>
       <c r="O41" s="177"/>
-      <c r="P41" s="390"/>
+      <c r="P41" s="380"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="172"/>
@@ -4547,7 +4586,7 @@
       <c r="M42" s="177"/>
       <c r="N42" s="177"/>
       <c r="O42" s="177"/>
-      <c r="P42" s="390"/>
+      <c r="P42" s="380"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="172"/>
@@ -4565,7 +4604,7 @@
       <c r="M43" s="177"/>
       <c r="N43" s="177"/>
       <c r="O43" s="177"/>
-      <c r="P43" s="390"/>
+      <c r="P43" s="380"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="172"/>
@@ -4583,7 +4622,7 @@
       <c r="M44" s="177"/>
       <c r="N44" s="177"/>
       <c r="O44" s="177"/>
-      <c r="P44" s="390"/>
+      <c r="P44" s="380"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="172"/>
@@ -4601,7 +4640,7 @@
       <c r="M45" s="177"/>
       <c r="N45" s="177"/>
       <c r="O45" s="177"/>
-      <c r="P45" s="390"/>
+      <c r="P45" s="380"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="172"/>
@@ -4619,7 +4658,7 @@
       <c r="M46" s="177"/>
       <c r="N46" s="177"/>
       <c r="O46" s="177"/>
-      <c r="P46" s="390"/>
+      <c r="P46" s="380"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="198"/>
@@ -4673,7 +4712,7 @@
       <c r="M49" s="177"/>
       <c r="N49" s="177"/>
       <c r="O49" s="177"/>
-      <c r="P49" s="390"/>
+      <c r="P49" s="380"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="172"/>
@@ -4691,7 +4730,7 @@
       <c r="M50" s="177"/>
       <c r="N50" s="177"/>
       <c r="O50" s="177"/>
-      <c r="P50" s="390"/>
+      <c r="P50" s="380"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="172"/>
@@ -4709,7 +4748,7 @@
       <c r="M51" s="177"/>
       <c r="N51" s="177"/>
       <c r="O51" s="177"/>
-      <c r="P51" s="390"/>
+      <c r="P51" s="380"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="198"/>
@@ -5180,14 +5219,14 @@
       <c r="P77" s="167"/>
     </row>
     <row r="78" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="380" t="s">
+      <c r="A78" s="383" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="380"/>
-      <c r="C78" s="380"/>
-      <c r="D78" s="380"/>
-      <c r="E78" s="380"/>
-      <c r="F78" s="380"/>
+      <c r="B78" s="383"/>
+      <c r="C78" s="383"/>
+      <c r="D78" s="383"/>
+      <c r="E78" s="383"/>
+      <c r="F78" s="383"/>
       <c r="G78" s="132">
         <f>SUM(G8:G77)</f>
         <v>0</v>
@@ -5207,17 +5246,17 @@
       <c r="N78" s="133"/>
       <c r="O78" s="133"/>
       <c r="P78" s="133"/>
-      <c r="Q78" s="386"/>
+      <c r="Q78" s="373"/>
     </row>
     <row r="79" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="379" t="s">
+      <c r="A79" s="374" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="379"/>
-      <c r="C79" s="379"/>
-      <c r="D79" s="379"/>
-      <c r="E79" s="379"/>
-      <c r="F79" s="379"/>
+      <c r="B79" s="374"/>
+      <c r="C79" s="374"/>
+      <c r="D79" s="374"/>
+      <c r="E79" s="374"/>
+      <c r="F79" s="374"/>
       <c r="G79" s="132">
         <f>G78</f>
         <v>0</v>
@@ -5234,17 +5273,17 @@
       <c r="N79" s="137"/>
       <c r="O79" s="137"/>
       <c r="P79" s="137"/>
-      <c r="Q79" s="386"/>
+      <c r="Q79" s="373"/>
     </row>
     <row r="80" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="379" t="s">
+      <c r="A80" s="374" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="379"/>
-      <c r="C80" s="379"/>
-      <c r="D80" s="379"/>
-      <c r="E80" s="379"/>
-      <c r="F80" s="379"/>
+      <c r="B80" s="374"/>
+      <c r="C80" s="374"/>
+      <c r="D80" s="374"/>
+      <c r="E80" s="374"/>
+      <c r="F80" s="374"/>
       <c r="G80" s="138" t="s">
         <v>45</v>
       </c>
@@ -5262,14 +5301,14 @@
       <c r="P80" s="139"/>
     </row>
     <row r="81" spans="1:16" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="379" t="s">
+      <c r="A81" s="374" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="379"/>
-      <c r="C81" s="379"/>
-      <c r="D81" s="379"/>
-      <c r="E81" s="379"/>
-      <c r="F81" s="379"/>
+      <c r="B81" s="374"/>
+      <c r="C81" s="374"/>
+      <c r="D81" s="374"/>
+      <c r="E81" s="374"/>
+      <c r="F81" s="374"/>
       <c r="G81" s="137"/>
       <c r="H81" s="137"/>
       <c r="I81" s="133"/>
@@ -5285,14 +5324,14 @@
       <c r="P81" s="139"/>
     </row>
     <row r="82" spans="1:16" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="379" t="s">
+      <c r="A82" s="374" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="379"/>
-      <c r="C82" s="379"/>
-      <c r="D82" s="379"/>
-      <c r="E82" s="379"/>
-      <c r="F82" s="379"/>
+      <c r="B82" s="374"/>
+      <c r="C82" s="374"/>
+      <c r="D82" s="374"/>
+      <c r="E82" s="374"/>
+      <c r="F82" s="374"/>
       <c r="G82" s="137"/>
       <c r="H82" s="137"/>
       <c r="I82" s="133"/>
@@ -5363,6 +5402,30 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="40">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="Q78:Q79"/>
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="A80:F80"/>
@@ -5379,30 +5442,6 @@
     <mergeCell ref="P49:P51"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5447,75 +5486,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="393" t="s">
+      <c r="A3" s="401" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="393"/>
-      <c r="C3" s="393"/>
-      <c r="D3" s="393"/>
-      <c r="E3" s="393"/>
-      <c r="F3" s="393"/>
-      <c r="G3" s="393"/>
-      <c r="H3" s="393"/>
-      <c r="I3" s="393"/>
-      <c r="J3" s="393"/>
-      <c r="K3" s="393"/>
+      <c r="B3" s="401"/>
+      <c r="C3" s="401"/>
+      <c r="D3" s="401"/>
+      <c r="E3" s="401"/>
+      <c r="F3" s="401"/>
+      <c r="G3" s="401"/>
+      <c r="H3" s="401"/>
+      <c r="I3" s="401"/>
+      <c r="J3" s="401"/>
+      <c r="K3" s="401"/>
       <c r="L3" s="295"/>
       <c r="M3" s="295"/>
       <c r="N3" s="295"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="394" t="s">
+      <c r="A4" s="402" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="394"/>
-      <c r="C4" s="394"/>
-      <c r="D4" s="394"/>
-      <c r="E4" s="394"/>
-      <c r="F4" s="394"/>
-      <c r="G4" s="394"/>
-      <c r="H4" s="394"/>
-      <c r="I4" s="394"/>
-      <c r="J4" s="395"/>
-      <c r="K4" s="394"/>
+      <c r="B4" s="402"/>
+      <c r="C4" s="402"/>
+      <c r="D4" s="402"/>
+      <c r="E4" s="402"/>
+      <c r="F4" s="402"/>
+      <c r="G4" s="402"/>
+      <c r="H4" s="402"/>
+      <c r="I4" s="402"/>
+      <c r="J4" s="403"/>
+      <c r="K4" s="402"/>
       <c r="L4" s="296"/>
       <c r="M4" s="296"/>
       <c r="N4" s="296"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="396" t="s">
+      <c r="A5" s="404" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="397" t="s">
+      <c r="B5" s="405" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="396" t="s">
+      <c r="C5" s="404" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="396" t="s">
+      <c r="D5" s="404" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="396"/>
-      <c r="F5" s="398" t="s">
+      <c r="E5" s="404"/>
+      <c r="F5" s="406" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="398"/>
-      <c r="H5" s="398"/>
-      <c r="I5" s="398"/>
-      <c r="J5" s="399"/>
-      <c r="K5" s="400" t="s">
+      <c r="G5" s="406"/>
+      <c r="H5" s="406"/>
+      <c r="I5" s="406"/>
+      <c r="J5" s="407"/>
+      <c r="K5" s="408" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="392" t="s">
+      <c r="L5" s="400" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="392"/>
-      <c r="N5" s="392"/>
+      <c r="M5" s="400"/>
+      <c r="N5" s="400"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="396"/>
-      <c r="B6" s="397"/>
-      <c r="C6" s="396"/>
+      <c r="A6" s="404"/>
+      <c r="B6" s="405"/>
+      <c r="C6" s="404"/>
       <c r="D6" s="297" t="s">
         <v>40</v>
       </c>
@@ -5537,7 +5576,7 @@
       <c r="J6" s="301" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="400"/>
+      <c r="K6" s="408"/>
       <c r="L6" s="302" t="s">
         <v>52</v>
       </c>
@@ -5565,11 +5604,11 @@
       <c r="N7" s="348"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="401"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="401"/>
-      <c r="D8" s="401"/>
-      <c r="E8" s="401"/>
+      <c r="A8" s="393"/>
+      <c r="B8" s="396"/>
+      <c r="C8" s="393"/>
+      <c r="D8" s="393"/>
+      <c r="E8" s="393"/>
       <c r="F8" s="303"/>
       <c r="G8" s="303"/>
       <c r="H8" s="304"/>
@@ -5581,11 +5620,11 @@
       <c r="N8" s="307"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="402"/>
-      <c r="B9" s="404"/>
-      <c r="C9" s="402"/>
-      <c r="D9" s="402"/>
-      <c r="E9" s="402"/>
+      <c r="A9" s="395"/>
+      <c r="B9" s="398"/>
+      <c r="C9" s="395"/>
+      <c r="D9" s="395"/>
+      <c r="E9" s="395"/>
       <c r="F9" s="320"/>
       <c r="G9" s="320"/>
       <c r="H9" s="321"/>
@@ -5597,11 +5636,11 @@
       <c r="N9" s="325"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="401"/>
-      <c r="B10" s="403"/>
-      <c r="C10" s="401"/>
-      <c r="D10" s="401"/>
-      <c r="E10" s="401"/>
+      <c r="A10" s="393"/>
+      <c r="B10" s="396"/>
+      <c r="C10" s="393"/>
+      <c r="D10" s="393"/>
+      <c r="E10" s="393"/>
       <c r="F10" s="303"/>
       <c r="G10" s="303"/>
       <c r="H10" s="304"/>
@@ -5613,11 +5652,11 @@
       <c r="N10" s="307"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
-      <c r="B11" s="406"/>
-      <c r="C11" s="405"/>
-      <c r="D11" s="405"/>
-      <c r="E11" s="405"/>
+      <c r="A11" s="394"/>
+      <c r="B11" s="397"/>
+      <c r="C11" s="394"/>
+      <c r="D11" s="394"/>
+      <c r="E11" s="394"/>
       <c r="F11" s="308"/>
       <c r="G11" s="308"/>
       <c r="H11" s="309"/>
@@ -5629,11 +5668,11 @@
       <c r="N11" s="312"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="402"/>
-      <c r="B12" s="404"/>
-      <c r="C12" s="402"/>
-      <c r="D12" s="402"/>
-      <c r="E12" s="402"/>
+      <c r="A12" s="395"/>
+      <c r="B12" s="398"/>
+      <c r="C12" s="395"/>
+      <c r="D12" s="395"/>
+      <c r="E12" s="395"/>
       <c r="F12" s="320"/>
       <c r="G12" s="320"/>
       <c r="H12" s="321"/>
@@ -5693,11 +5732,11 @@
       <c r="N15" s="348"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="401"/>
-      <c r="B16" s="403"/>
-      <c r="C16" s="401"/>
-      <c r="D16" s="401"/>
-      <c r="E16" s="401"/>
+      <c r="A16" s="393"/>
+      <c r="B16" s="396"/>
+      <c r="C16" s="393"/>
+      <c r="D16" s="393"/>
+      <c r="E16" s="393"/>
       <c r="F16" s="303"/>
       <c r="G16" s="303"/>
       <c r="H16" s="304"/>
@@ -5709,11 +5748,11 @@
       <c r="N16" s="307"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="402"/>
-      <c r="B17" s="404"/>
-      <c r="C17" s="402"/>
-      <c r="D17" s="402"/>
-      <c r="E17" s="402"/>
+      <c r="A17" s="395"/>
+      <c r="B17" s="398"/>
+      <c r="C17" s="395"/>
+      <c r="D17" s="395"/>
+      <c r="E17" s="395"/>
       <c r="F17" s="320"/>
       <c r="G17" s="320"/>
       <c r="H17" s="321"/>
@@ -5725,11 +5764,11 @@
       <c r="N17" s="325"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="401"/>
-      <c r="B18" s="403"/>
-      <c r="C18" s="401"/>
-      <c r="D18" s="401"/>
-      <c r="E18" s="401"/>
+      <c r="A18" s="393"/>
+      <c r="B18" s="396"/>
+      <c r="C18" s="393"/>
+      <c r="D18" s="393"/>
+      <c r="E18" s="393"/>
       <c r="F18" s="303"/>
       <c r="G18" s="303"/>
       <c r="H18" s="304"/>
@@ -5741,11 +5780,11 @@
       <c r="N18" s="307"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="402"/>
-      <c r="B19" s="404"/>
-      <c r="C19" s="402"/>
-      <c r="D19" s="402"/>
-      <c r="E19" s="402"/>
+      <c r="A19" s="395"/>
+      <c r="B19" s="398"/>
+      <c r="C19" s="395"/>
+      <c r="D19" s="395"/>
+      <c r="E19" s="395"/>
       <c r="F19" s="320"/>
       <c r="G19" s="320"/>
       <c r="H19" s="321"/>
@@ -5821,11 +5860,11 @@
       <c r="N23" s="348"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="401"/>
-      <c r="B24" s="403"/>
-      <c r="C24" s="401"/>
-      <c r="D24" s="401"/>
-      <c r="E24" s="401"/>
+      <c r="A24" s="393"/>
+      <c r="B24" s="396"/>
+      <c r="C24" s="393"/>
+      <c r="D24" s="393"/>
+      <c r="E24" s="393"/>
       <c r="F24" s="303"/>
       <c r="G24" s="303"/>
       <c r="H24" s="304"/>
@@ -5837,11 +5876,11 @@
       <c r="N24" s="307"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="405"/>
-      <c r="B25" s="406"/>
-      <c r="C25" s="405"/>
-      <c r="D25" s="405"/>
-      <c r="E25" s="405"/>
+      <c r="A25" s="394"/>
+      <c r="B25" s="397"/>
+      <c r="C25" s="394"/>
+      <c r="D25" s="394"/>
+      <c r="E25" s="394"/>
       <c r="F25" s="308"/>
       <c r="G25" s="308"/>
       <c r="H25" s="309"/>
@@ -5853,11 +5892,11 @@
       <c r="N25" s="312"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="405"/>
-      <c r="B26" s="406"/>
-      <c r="C26" s="405"/>
-      <c r="D26" s="405"/>
-      <c r="E26" s="405"/>
+      <c r="A26" s="394"/>
+      <c r="B26" s="397"/>
+      <c r="C26" s="394"/>
+      <c r="D26" s="394"/>
+      <c r="E26" s="394"/>
       <c r="F26" s="308"/>
       <c r="G26" s="308"/>
       <c r="H26" s="309"/>
@@ -5869,11 +5908,11 @@
       <c r="N26" s="312"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="405"/>
-      <c r="B27" s="406"/>
-      <c r="C27" s="405"/>
-      <c r="D27" s="405"/>
-      <c r="E27" s="405"/>
+      <c r="A27" s="394"/>
+      <c r="B27" s="397"/>
+      <c r="C27" s="394"/>
+      <c r="D27" s="394"/>
+      <c r="E27" s="394"/>
       <c r="F27" s="308"/>
       <c r="G27" s="308"/>
       <c r="H27" s="309"/>
@@ -5885,11 +5924,11 @@
       <c r="N27" s="312"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="405"/>
-      <c r="B28" s="406"/>
-      <c r="C28" s="405"/>
-      <c r="D28" s="405"/>
-      <c r="E28" s="405"/>
+      <c r="A28" s="394"/>
+      <c r="B28" s="397"/>
+      <c r="C28" s="394"/>
+      <c r="D28" s="394"/>
+      <c r="E28" s="394"/>
       <c r="F28" s="308"/>
       <c r="G28" s="308"/>
       <c r="H28" s="309"/>
@@ -5901,11 +5940,11 @@
       <c r="N28" s="312"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="405"/>
-      <c r="B29" s="406"/>
-      <c r="C29" s="405"/>
-      <c r="D29" s="405"/>
-      <c r="E29" s="405"/>
+      <c r="A29" s="394"/>
+      <c r="B29" s="397"/>
+      <c r="C29" s="394"/>
+      <c r="D29" s="394"/>
+      <c r="E29" s="394"/>
       <c r="F29" s="308"/>
       <c r="G29" s="308"/>
       <c r="H29" s="309"/>
@@ -5917,11 +5956,11 @@
       <c r="N29" s="312"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="402"/>
-      <c r="B30" s="404"/>
-      <c r="C30" s="402"/>
-      <c r="D30" s="402"/>
-      <c r="E30" s="402"/>
+      <c r="A30" s="395"/>
+      <c r="B30" s="398"/>
+      <c r="C30" s="395"/>
+      <c r="D30" s="395"/>
+      <c r="E30" s="395"/>
       <c r="F30" s="320"/>
       <c r="G30" s="320"/>
       <c r="H30" s="321"/>
@@ -5933,11 +5972,11 @@
       <c r="N30" s="325"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="407"/>
-      <c r="B31" s="409"/>
-      <c r="C31" s="407"/>
-      <c r="D31" s="407"/>
-      <c r="E31" s="407"/>
+      <c r="A31" s="389"/>
+      <c r="B31" s="391"/>
+      <c r="C31" s="389"/>
+      <c r="D31" s="389"/>
+      <c r="E31" s="389"/>
       <c r="F31" s="350"/>
       <c r="G31" s="350"/>
       <c r="H31" s="351"/>
@@ -5949,11 +5988,11 @@
       <c r="N31" s="354"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="407"/>
-      <c r="B32" s="409"/>
-      <c r="C32" s="407"/>
-      <c r="D32" s="407"/>
-      <c r="E32" s="407"/>
+      <c r="A32" s="389"/>
+      <c r="B32" s="391"/>
+      <c r="C32" s="389"/>
+      <c r="D32" s="389"/>
+      <c r="E32" s="389"/>
       <c r="F32" s="314"/>
       <c r="G32" s="314"/>
       <c r="H32" s="315"/>
@@ -5965,11 +6004,11 @@
       <c r="N32" s="319"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="407"/>
-      <c r="B33" s="409"/>
-      <c r="C33" s="407"/>
-      <c r="D33" s="407"/>
-      <c r="E33" s="407"/>
+      <c r="A33" s="389"/>
+      <c r="B33" s="391"/>
+      <c r="C33" s="389"/>
+      <c r="D33" s="389"/>
+      <c r="E33" s="389"/>
       <c r="F33" s="314"/>
       <c r="G33" s="314"/>
       <c r="H33" s="315"/>
@@ -5981,11 +6020,11 @@
       <c r="N33" s="319"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="408"/>
-      <c r="B34" s="410"/>
-      <c r="C34" s="408"/>
-      <c r="D34" s="408"/>
-      <c r="E34" s="408"/>
+      <c r="A34" s="390"/>
+      <c r="B34" s="392"/>
+      <c r="C34" s="390"/>
+      <c r="D34" s="390"/>
+      <c r="E34" s="390"/>
       <c r="F34" s="320"/>
       <c r="G34" s="320"/>
       <c r="H34" s="321"/>
@@ -5997,13 +6036,13 @@
       <c r="N34" s="325"/>
     </row>
     <row r="35" spans="1:14" s="332" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="391" t="s">
+      <c r="A35" s="399" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="391"/>
-      <c r="C35" s="391"/>
-      <c r="D35" s="391"/>
-      <c r="E35" s="391"/>
+      <c r="B35" s="399"/>
+      <c r="C35" s="399"/>
+      <c r="D35" s="399"/>
+      <c r="E35" s="399"/>
       <c r="F35" s="326"/>
       <c r="G35" s="326">
         <f>SUM(G7:G34)</f>
@@ -6091,30 +6130,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -6131,6 +6146,30 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6191,24 +6230,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="411" t="s">
+      <c r="A4" s="409" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="411"/>
-      <c r="C4" s="411"/>
-      <c r="D4" s="411"/>
-      <c r="E4" s="411"/>
+      <c r="B4" s="409"/>
+      <c r="C4" s="409"/>
+      <c r="D4" s="409"/>
+      <c r="E4" s="409"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="412" t="s">
+      <c r="A5" s="410" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="412"/>
-      <c r="C5" s="412"/>
-      <c r="D5" s="412"/>
-      <c r="E5" s="412"/>
+      <c r="B5" s="410"/>
+      <c r="C5" s="410"/>
+      <c r="D5" s="410"/>
+      <c r="E5" s="410"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -6287,7 +6326,7 @@
         <f>'DOANH THU'!L80</f>
         <v>0</v>
       </c>
-      <c r="E10" s="413">
+      <c r="E10" s="411">
         <f>D10+D11+D12</f>
         <v>0</v>
       </c>
@@ -6306,7 +6345,7 @@
         <f>'DOANH THU'!L81</f>
         <v>0</v>
       </c>
-      <c r="E11" s="414"/>
+      <c r="E11" s="412"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -6317,7 +6356,7 @@
       <c r="B12" s="119"/>
       <c r="C12" s="119"/>
       <c r="D12" s="142"/>
-      <c r="E12" s="415"/>
+      <c r="E12" s="413"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
@@ -6592,13 +6631,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="424" t="s">
+      <c r="A1" s="414" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="424"/>
-      <c r="C1" s="424"/>
-      <c r="D1" s="424"/>
-      <c r="E1" s="424"/>
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="414"/>
+      <c r="E1" s="414"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -6618,165 +6657,165 @@
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="425" t="s">
+      <c r="A4" s="415" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="425"/>
-      <c r="C4" s="425"/>
-      <c r="D4" s="425"/>
-      <c r="E4" s="425"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
+      <c r="B4" s="415"/>
+      <c r="C4" s="415"/>
+      <c r="D4" s="415"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="415"/>
+      <c r="H4" s="415"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="426" t="s">
+      <c r="A6" s="416" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="426"/>
-      <c r="C6" s="426"/>
-      <c r="D6" s="426"/>
-      <c r="E6" s="426"/>
-      <c r="F6" s="426"/>
-      <c r="G6" s="427" t="s">
+      <c r="B6" s="416"/>
+      <c r="C6" s="416"/>
+      <c r="D6" s="416"/>
+      <c r="E6" s="416"/>
+      <c r="F6" s="416"/>
+      <c r="G6" s="417" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="427"/>
+      <c r="H6" s="417"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="440" t="s">
+      <c r="A7" s="430" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="441"/>
+      <c r="B7" s="431"/>
       <c r="C7" s="270"/>
       <c r="D7" s="271"/>
       <c r="E7" s="65" t="s">
         <v>140</v>
       </c>
       <c r="F7" s="65"/>
-      <c r="G7" s="438">
+      <c r="G7" s="428">
         <v>4744538</v>
       </c>
-      <c r="H7" s="439"/>
+      <c r="H7" s="429"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="442"/>
-      <c r="B8" s="443"/>
+      <c r="A8" s="432"/>
+      <c r="B8" s="433"/>
       <c r="C8" s="270"/>
       <c r="D8" s="271"/>
       <c r="E8" s="65" t="s">
         <v>141</v>
       </c>
       <c r="F8" s="65"/>
-      <c r="G8" s="438">
+      <c r="G8" s="428">
         <v>6713000</v>
       </c>
-      <c r="H8" s="439"/>
+      <c r="H8" s="429"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="428" t="s">
+      <c r="A9" s="418" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="429"/>
-      <c r="C9" s="429"/>
-      <c r="D9" s="430"/>
+      <c r="B9" s="419"/>
+      <c r="C9" s="419"/>
+      <c r="D9" s="420"/>
       <c r="E9" s="262" t="s">
         <v>144</v>
       </c>
       <c r="F9" s="263">
         <v>260000</v>
       </c>
-      <c r="G9" s="434">
+      <c r="G9" s="424">
         <f>SUM(F9:F13)</f>
         <v>3477000</v>
       </c>
-      <c r="H9" s="435"/>
+      <c r="H9" s="425"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="431"/>
-      <c r="B10" s="432"/>
-      <c r="C10" s="432"/>
-      <c r="D10" s="433"/>
+      <c r="A10" s="421"/>
+      <c r="B10" s="422"/>
+      <c r="C10" s="422"/>
+      <c r="D10" s="423"/>
       <c r="E10" s="262" t="s">
         <v>145</v>
       </c>
       <c r="F10" s="263">
         <v>877000</v>
       </c>
-      <c r="G10" s="436"/>
-      <c r="H10" s="437"/>
+      <c r="G10" s="426"/>
+      <c r="H10" s="427"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="431"/>
-      <c r="B11" s="432"/>
-      <c r="C11" s="432"/>
-      <c r="D11" s="433"/>
+      <c r="A11" s="421"/>
+      <c r="B11" s="422"/>
+      <c r="C11" s="422"/>
+      <c r="D11" s="423"/>
       <c r="E11" s="262" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="263">
         <v>441000</v>
       </c>
-      <c r="G11" s="436"/>
-      <c r="H11" s="437"/>
+      <c r="G11" s="426"/>
+      <c r="H11" s="427"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="431"/>
-      <c r="B12" s="432"/>
-      <c r="C12" s="432"/>
-      <c r="D12" s="433"/>
+      <c r="A12" s="421"/>
+      <c r="B12" s="422"/>
+      <c r="C12" s="422"/>
+      <c r="D12" s="423"/>
       <c r="E12" s="262" t="s">
         <v>139</v>
       </c>
       <c r="F12" s="263">
         <v>892000</v>
       </c>
-      <c r="G12" s="436"/>
-      <c r="H12" s="437"/>
+      <c r="G12" s="426"/>
+      <c r="H12" s="427"/>
     </row>
     <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="431"/>
-      <c r="B13" s="432"/>
-      <c r="C13" s="432"/>
-      <c r="D13" s="433"/>
+      <c r="A13" s="421"/>
+      <c r="B13" s="422"/>
+      <c r="C13" s="422"/>
+      <c r="D13" s="423"/>
       <c r="E13" s="272" t="s">
         <v>146</v>
       </c>
       <c r="F13" s="263">
         <v>1007000</v>
       </c>
-      <c r="G13" s="436"/>
-      <c r="H13" s="437"/>
+      <c r="G13" s="426"/>
+      <c r="H13" s="427"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="419" t="s">
+      <c r="A14" s="437" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="419"/>
-      <c r="C14" s="419"/>
-      <c r="D14" s="419"/>
-      <c r="E14" s="419"/>
-      <c r="F14" s="419"/>
-      <c r="G14" s="420">
+      <c r="B14" s="437"/>
+      <c r="C14" s="437"/>
+      <c r="D14" s="437"/>
+      <c r="E14" s="437"/>
+      <c r="F14" s="437"/>
+      <c r="G14" s="438">
         <f>'Bảng lương'!J12</f>
-        <v>6000000</v>
-      </c>
-      <c r="H14" s="420"/>
+        <v>6230769.230769231</v>
+      </c>
+      <c r="H14" s="438"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="421" t="s">
+      <c r="A15" s="439" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="421"/>
-      <c r="C15" s="421"/>
-      <c r="D15" s="421"/>
-      <c r="E15" s="421"/>
-      <c r="F15" s="421"/>
-      <c r="G15" s="422">
+      <c r="B15" s="439"/>
+      <c r="C15" s="439"/>
+      <c r="D15" s="439"/>
+      <c r="E15" s="439"/>
+      <c r="F15" s="439"/>
+      <c r="G15" s="440">
         <f>G7+G8+G9+G14</f>
-        <v>20934538</v>
-      </c>
-      <c r="H15" s="422"/>
+        <v>21165307.230769232</v>
+      </c>
+      <c r="H15" s="440"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="280" t="s">
@@ -6788,10 +6827,10 @@
       <c r="E17" s="273"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="423">
+      <c r="A18" s="441">
         <v>44106</v>
       </c>
-      <c r="B18" s="423"/>
+      <c r="B18" s="441"/>
       <c r="C18" s="274"/>
       <c r="D18" s="274"/>
       <c r="E18" s="274" t="s">
@@ -6802,10 +6841,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="423">
+      <c r="A19" s="441">
         <v>44116</v>
       </c>
-      <c r="B19" s="423"/>
+      <c r="B19" s="441"/>
       <c r="C19" s="274"/>
       <c r="D19" s="274"/>
       <c r="E19" s="274" t="s">
@@ -6817,10 +6856,10 @@
       <c r="K19" s="279"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="423">
+      <c r="A20" s="441">
         <v>44120</v>
       </c>
-      <c r="B20" s="423"/>
+      <c r="B20" s="441"/>
       <c r="C20" s="274"/>
       <c r="D20" s="274"/>
       <c r="E20" s="274" t="s">
@@ -6831,10 +6870,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="423">
+      <c r="A21" s="441">
         <v>44128</v>
       </c>
-      <c r="B21" s="423"/>
+      <c r="B21" s="441"/>
       <c r="C21" s="274"/>
       <c r="D21" s="274"/>
       <c r="E21" s="274" t="s">
@@ -6846,10 +6885,10 @@
       <c r="K21" s="279"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="423">
+      <c r="A22" s="441">
         <v>44129</v>
       </c>
-      <c r="B22" s="423"/>
+      <c r="B22" s="441"/>
       <c r="C22" s="274"/>
       <c r="D22" s="274"/>
       <c r="E22" s="274" t="s">
@@ -6861,10 +6900,10 @@
       <c r="K22" s="279"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="423">
+      <c r="A23" s="441">
         <v>44131</v>
       </c>
-      <c r="B23" s="423"/>
+      <c r="B23" s="441"/>
       <c r="C23" s="274"/>
       <c r="D23" s="274"/>
       <c r="E23" s="288" t="s">
@@ -6875,13 +6914,13 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="416" t="s">
+      <c r="A24" s="434" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="417"/>
-      <c r="C24" s="417"/>
-      <c r="D24" s="417"/>
-      <c r="E24" s="418"/>
+      <c r="B24" s="435"/>
+      <c r="C24" s="435"/>
+      <c r="D24" s="435"/>
+      <c r="E24" s="436"/>
       <c r="F24" s="281">
         <f>SUM(F18:F23)</f>
         <v>7508900</v>
@@ -6904,7 +6943,7 @@
       <c r="E26" s="286"/>
       <c r="F26" s="282">
         <f>G15-F24</f>
-        <v>13425638</v>
+        <v>13656407.230769232</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -6978,15 +7017,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A9:D13"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A7:B8"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -6998,6 +7028,15 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A9:D13"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7008,8 +7047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7538,16 +7577,16 @@
       <c r="C1" s="220"/>
       <c r="D1" s="220"/>
       <c r="E1" s="220"/>
-      <c r="Z1" s="449" t="s">
+      <c r="Z1" s="460" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="450"/>
-      <c r="AB1" s="450"/>
-      <c r="AC1" s="450"/>
-      <c r="AD1" s="450"/>
-      <c r="AE1" s="450"/>
-      <c r="AF1" s="450"/>
-      <c r="AG1" s="451"/>
+      <c r="AA1" s="461"/>
+      <c r="AB1" s="461"/>
+      <c r="AC1" s="461"/>
+      <c r="AD1" s="461"/>
+      <c r="AE1" s="461"/>
+      <c r="AF1" s="461"/>
+      <c r="AG1" s="462"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="223" t="s">
@@ -7557,18 +7596,18 @@
       <c r="C2" s="224"/>
       <c r="D2" s="224"/>
       <c r="E2" s="224"/>
-      <c r="Z2" s="444" t="s">
+      <c r="Z2" s="443" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" s="445"/>
-      <c r="AB2" s="445"/>
-      <c r="AC2" s="445"/>
-      <c r="AD2" s="445"/>
-      <c r="AE2" s="446"/>
-      <c r="AF2" s="447" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG2" s="448"/>
+      <c r="AA2" s="444"/>
+      <c r="AB2" s="444"/>
+      <c r="AC2" s="444"/>
+      <c r="AD2" s="444"/>
+      <c r="AE2" s="445"/>
+      <c r="AF2" s="446" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG2" s="447"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="223" t="s">
@@ -7578,18 +7617,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="444" t="s">
+      <c r="Z3" s="443" t="s">
         <v>112</v>
       </c>
-      <c r="AA3" s="445"/>
-      <c r="AB3" s="445"/>
-      <c r="AC3" s="445"/>
-      <c r="AD3" s="445"/>
-      <c r="AE3" s="446"/>
-      <c r="AF3" s="447" t="s">
+      <c r="AA3" s="444"/>
+      <c r="AB3" s="444"/>
+      <c r="AC3" s="444"/>
+      <c r="AD3" s="444"/>
+      <c r="AE3" s="445"/>
+      <c r="AF3" s="446" t="s">
         <v>113</v>
       </c>
-      <c r="AG3" s="448"/>
+      <c r="AG3" s="447"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="223" t="s">
@@ -7602,18 +7641,18 @@
       <c r="T4" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="444" t="s">
+      <c r="Z4" s="443" t="s">
         <v>115</v>
       </c>
-      <c r="AA4" s="445"/>
-      <c r="AB4" s="445"/>
-      <c r="AC4" s="445"/>
-      <c r="AD4" s="445"/>
-      <c r="AE4" s="446"/>
-      <c r="AF4" s="447" t="s">
+      <c r="AA4" s="444"/>
+      <c r="AB4" s="444"/>
+      <c r="AC4" s="444"/>
+      <c r="AD4" s="444"/>
+      <c r="AE4" s="445"/>
+      <c r="AF4" s="446" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="448"/>
+      <c r="AG4" s="447"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="223" t="s">
@@ -7623,18 +7662,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="444" t="s">
+      <c r="Z5" s="443" t="s">
         <v>118</v>
       </c>
-      <c r="AA5" s="445"/>
-      <c r="AB5" s="445"/>
-      <c r="AC5" s="445"/>
-      <c r="AD5" s="445"/>
-      <c r="AE5" s="446"/>
-      <c r="AF5" s="447" t="s">
+      <c r="AA5" s="444"/>
+      <c r="AB5" s="444"/>
+      <c r="AC5" s="444"/>
+      <c r="AD5" s="444"/>
+      <c r="AE5" s="445"/>
+      <c r="AF5" s="446" t="s">
         <v>119</v>
       </c>
-      <c r="AG5" s="448"/>
+      <c r="AG5" s="447"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="225"/>
@@ -7644,93 +7683,93 @@
       <c r="E6" s="225"/>
     </row>
     <row r="7" spans="1:40" s="228" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="453" t="s">
+      <c r="A7" s="448" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="453"/>
-      <c r="C7" s="453"/>
-      <c r="D7" s="453"/>
-      <c r="E7" s="453"/>
-      <c r="F7" s="453"/>
-      <c r="G7" s="453"/>
-      <c r="H7" s="453"/>
-      <c r="I7" s="453"/>
-      <c r="J7" s="453"/>
-      <c r="K7" s="453"/>
-      <c r="L7" s="453"/>
-      <c r="M7" s="453"/>
-      <c r="N7" s="453"/>
-      <c r="O7" s="453"/>
-      <c r="P7" s="453"/>
-      <c r="Q7" s="453"/>
-      <c r="R7" s="453"/>
-      <c r="S7" s="453"/>
-      <c r="T7" s="453"/>
-      <c r="U7" s="453"/>
-      <c r="V7" s="453"/>
-      <c r="W7" s="453"/>
-      <c r="X7" s="453"/>
-      <c r="Y7" s="453"/>
-      <c r="Z7" s="453"/>
-      <c r="AA7" s="453"/>
-      <c r="AB7" s="453"/>
-      <c r="AC7" s="453"/>
-      <c r="AD7" s="453"/>
-      <c r="AE7" s="453"/>
-      <c r="AF7" s="453"/>
-      <c r="AG7" s="453"/>
-      <c r="AH7" s="453"/>
-      <c r="AI7" s="453"/>
-      <c r="AJ7" s="453"/>
-      <c r="AK7" s="453"/>
-      <c r="AL7" s="453"/>
-      <c r="AM7" s="453"/>
+      <c r="B7" s="448"/>
+      <c r="C7" s="448"/>
+      <c r="D7" s="448"/>
+      <c r="E7" s="448"/>
+      <c r="F7" s="448"/>
+      <c r="G7" s="448"/>
+      <c r="H7" s="448"/>
+      <c r="I7" s="448"/>
+      <c r="J7" s="448"/>
+      <c r="K7" s="448"/>
+      <c r="L7" s="448"/>
+      <c r="M7" s="448"/>
+      <c r="N7" s="448"/>
+      <c r="O7" s="448"/>
+      <c r="P7" s="448"/>
+      <c r="Q7" s="448"/>
+      <c r="R7" s="448"/>
+      <c r="S7" s="448"/>
+      <c r="T7" s="448"/>
+      <c r="U7" s="448"/>
+      <c r="V7" s="448"/>
+      <c r="W7" s="448"/>
+      <c r="X7" s="448"/>
+      <c r="Y7" s="448"/>
+      <c r="Z7" s="448"/>
+      <c r="AA7" s="448"/>
+      <c r="AB7" s="448"/>
+      <c r="AC7" s="448"/>
+      <c r="AD7" s="448"/>
+      <c r="AE7" s="448"/>
+      <c r="AF7" s="448"/>
+      <c r="AG7" s="448"/>
+      <c r="AH7" s="448"/>
+      <c r="AI7" s="448"/>
+      <c r="AJ7" s="448"/>
+      <c r="AK7" s="448"/>
+      <c r="AL7" s="448"/>
+      <c r="AM7" s="448"/>
       <c r="AN7" s="227"/>
     </row>
     <row r="9" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="454" t="s">
+      <c r="A9" s="449" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="454" t="s">
+      <c r="B9" s="449" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="454" t="s">
+      <c r="C9" s="449" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="457" t="s">
+      <c r="D9" s="452" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="458"/>
-      <c r="F9" s="458"/>
-      <c r="G9" s="458"/>
-      <c r="H9" s="458"/>
-      <c r="I9" s="458"/>
-      <c r="J9" s="458"/>
-      <c r="K9" s="458"/>
-      <c r="L9" s="458"/>
-      <c r="M9" s="458"/>
-      <c r="N9" s="458"/>
-      <c r="O9" s="458"/>
-      <c r="P9" s="458"/>
-      <c r="Q9" s="458"/>
-      <c r="R9" s="458"/>
-      <c r="S9" s="458"/>
-      <c r="T9" s="458"/>
-      <c r="U9" s="458"/>
-      <c r="V9" s="458"/>
-      <c r="W9" s="458"/>
-      <c r="X9" s="458"/>
-      <c r="Y9" s="458"/>
-      <c r="Z9" s="458"/>
-      <c r="AA9" s="458"/>
-      <c r="AB9" s="458"/>
-      <c r="AC9" s="458"/>
-      <c r="AD9" s="458"/>
-      <c r="AE9" s="458"/>
-      <c r="AF9" s="458"/>
-      <c r="AG9" s="458"/>
-      <c r="AH9" s="459"/>
-      <c r="AI9" s="460" t="s">
+      <c r="E9" s="453"/>
+      <c r="F9" s="453"/>
+      <c r="G9" s="453"/>
+      <c r="H9" s="453"/>
+      <c r="I9" s="453"/>
+      <c r="J9" s="453"/>
+      <c r="K9" s="453"/>
+      <c r="L9" s="453"/>
+      <c r="M9" s="453"/>
+      <c r="N9" s="453"/>
+      <c r="O9" s="453"/>
+      <c r="P9" s="453"/>
+      <c r="Q9" s="453"/>
+      <c r="R9" s="453"/>
+      <c r="S9" s="453"/>
+      <c r="T9" s="453"/>
+      <c r="U9" s="453"/>
+      <c r="V9" s="453"/>
+      <c r="W9" s="453"/>
+      <c r="X9" s="453"/>
+      <c r="Y9" s="453"/>
+      <c r="Z9" s="453"/>
+      <c r="AA9" s="453"/>
+      <c r="AB9" s="453"/>
+      <c r="AC9" s="453"/>
+      <c r="AD9" s="453"/>
+      <c r="AE9" s="453"/>
+      <c r="AF9" s="453"/>
+      <c r="AG9" s="453"/>
+      <c r="AH9" s="454"/>
+      <c r="AI9" s="455" t="s">
         <v>124</v>
       </c>
       <c r="AJ9" s="229"/>
@@ -7740,9 +7779,9 @@
       <c r="AN9" s="232"/>
     </row>
     <row r="10" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="455"/>
-      <c r="B10" s="455"/>
-      <c r="C10" s="455"/>
+      <c r="A10" s="450"/>
+      <c r="B10" s="450"/>
+      <c r="C10" s="450"/>
       <c r="D10" s="234">
         <v>1</v>
       </c>
@@ -7836,7 +7875,7 @@
       <c r="AH10" s="234">
         <v>31</v>
       </c>
-      <c r="AI10" s="460"/>
+      <c r="AI10" s="455"/>
       <c r="AJ10" s="235"/>
       <c r="AK10" s="231"/>
       <c r="AL10" s="231"/>
@@ -7844,9 +7883,9 @@
       <c r="AN10" s="232"/>
     </row>
     <row r="11" spans="1:40" s="239" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="456"/>
-      <c r="B11" s="456"/>
-      <c r="C11" s="456"/>
+      <c r="A11" s="451"/>
+      <c r="B11" s="451"/>
+      <c r="C11" s="451"/>
       <c r="D11" s="237" t="s">
         <v>129</v>
       </c>
@@ -7940,7 +7979,7 @@
       <c r="AH11" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="AI11" s="460"/>
+      <c r="AI11" s="455"/>
       <c r="AJ11" s="238"/>
       <c r="AN11" s="240"/>
     </row>
@@ -8040,7 +8079,7 @@
         <v>110</v>
       </c>
       <c r="AI12" s="243">
-        <f>COUNTIF(D12:AH12,"x")+ COUNTIF(D12:AH12,"x/2")/2+COUNTIF(D12:AH12,"CT")+COUNTIF(D12:AH12,"TT")</f>
+        <f>COUNTIF(D12:AH12,"x")+ COUNTIF(D12:AH12,"x/2")/2+COUNTIF(D12:AH12,"CT")+COUNTIF(D12:AH12,"TT")+COUNTIF(D12:AH12,"P")</f>
         <v>27</v>
       </c>
       <c r="AJ12" s="238"/>
@@ -8096,7 +8135,9 @@
       <c r="Q13" s="236" t="s">
         <v>110</v>
       </c>
-      <c r="R13" s="242"/>
+      <c r="R13" s="242" t="s">
+        <v>110</v>
+      </c>
       <c r="S13" s="236" t="s">
         <v>110</v>
       </c>
@@ -8113,14 +8154,14 @@
         <v>110</v>
       </c>
       <c r="X13" s="236" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="Y13" s="242"/>
       <c r="Z13" s="236" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AA13" s="236" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AB13" s="236" t="s">
         <v>110</v>
@@ -8142,8 +8183,8 @@
         <v>110</v>
       </c>
       <c r="AI13" s="243">
-        <f t="shared" ref="AI13:AI15" si="0">COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")</f>
-        <v>26</v>
+        <f t="shared" ref="AI13:AI15" si="0">COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")+COUNTIF(D13:AH13,"P")</f>
+        <v>27</v>
       </c>
       <c r="AJ13" s="238"/>
       <c r="AN13" s="240"/>
@@ -8353,10 +8394,10 @@
       <c r="AN15" s="240"/>
     </row>
     <row r="16" spans="1:40" s="239" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="461" t="s">
+      <c r="A16" s="456" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="462"/>
+      <c r="B16" s="457"/>
       <c r="C16" s="246"/>
       <c r="D16" s="246"/>
       <c r="E16" s="247"/>
@@ -8391,7 +8432,7 @@
       <c r="AH16" s="247"/>
       <c r="AI16" s="248">
         <f>SUM(AI12:AI14)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ16" s="249"/>
       <c r="AK16" s="250"/>
@@ -8399,49 +8440,49 @@
       <c r="AN16" s="240"/>
     </row>
     <row r="18" spans="1:40" s="256" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="463" t="s">
+      <c r="A18" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="463"/>
-      <c r="C18" s="463"/>
-      <c r="D18" s="463"/>
-      <c r="E18" s="463"/>
-      <c r="F18" s="463"/>
-      <c r="G18" s="463"/>
+      <c r="B18" s="458"/>
+      <c r="C18" s="458"/>
+      <c r="D18" s="458"/>
+      <c r="E18" s="458"/>
+      <c r="F18" s="458"/>
+      <c r="G18" s="458"/>
       <c r="H18" s="251"/>
-      <c r="I18" s="464"/>
-      <c r="J18" s="464"/>
-      <c r="K18" s="464"/>
-      <c r="L18" s="464"/>
-      <c r="M18" s="464"/>
+      <c r="I18" s="459"/>
+      <c r="J18" s="459"/>
+      <c r="K18" s="459"/>
+      <c r="L18" s="459"/>
+      <c r="M18" s="459"/>
       <c r="N18" s="252"/>
-      <c r="O18" s="464" t="s">
+      <c r="O18" s="459" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="464"/>
-      <c r="Q18" s="464"/>
-      <c r="R18" s="464"/>
-      <c r="S18" s="464"/>
-      <c r="T18" s="464"/>
-      <c r="U18" s="464"/>
-      <c r="V18" s="464"/>
-      <c r="W18" s="464"/>
-      <c r="X18" s="464"/>
-      <c r="Y18" s="464"/>
+      <c r="P18" s="459"/>
+      <c r="Q18" s="459"/>
+      <c r="R18" s="459"/>
+      <c r="S18" s="459"/>
+      <c r="T18" s="459"/>
+      <c r="U18" s="459"/>
+      <c r="V18" s="459"/>
+      <c r="W18" s="459"/>
+      <c r="X18" s="459"/>
+      <c r="Y18" s="459"/>
       <c r="Z18" s="253"/>
       <c r="AA18" s="253"/>
       <c r="AB18" s="254"/>
-      <c r="AC18" s="464"/>
-      <c r="AD18" s="464"/>
-      <c r="AE18" s="464"/>
-      <c r="AF18" s="464"/>
-      <c r="AG18" s="464"/>
-      <c r="AH18" s="464"/>
-      <c r="AI18" s="464"/>
-      <c r="AJ18" s="464"/>
-      <c r="AK18" s="464"/>
-      <c r="AL18" s="464"/>
-      <c r="AM18" s="464"/>
+      <c r="AC18" s="459"/>
+      <c r="AD18" s="459"/>
+      <c r="AE18" s="459"/>
+      <c r="AF18" s="459"/>
+      <c r="AG18" s="459"/>
+      <c r="AH18" s="459"/>
+      <c r="AI18" s="459"/>
+      <c r="AJ18" s="459"/>
+      <c r="AK18" s="459"/>
+      <c r="AL18" s="459"/>
+      <c r="AM18" s="459"/>
       <c r="AN18" s="255"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -8475,131 +8516,131 @@
       <c r="AN33" s="260"/>
     </row>
     <row r="34" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="452"/>
-      <c r="H34" s="452"/>
-      <c r="I34" s="452"/>
-      <c r="J34" s="452"/>
-      <c r="K34" s="452"/>
-      <c r="L34" s="452"/>
-      <c r="M34" s="452"/>
-      <c r="N34" s="452"/>
-      <c r="O34" s="452"/>
-      <c r="P34" s="452"/>
-      <c r="Q34" s="452"/>
-      <c r="R34" s="452"/>
-      <c r="S34" s="452"/>
-      <c r="T34" s="452"/>
-      <c r="U34" s="452"/>
-      <c r="V34" s="452"/>
-      <c r="W34" s="452"/>
-      <c r="X34" s="452"/>
+      <c r="G34" s="442"/>
+      <c r="H34" s="442"/>
+      <c r="I34" s="442"/>
+      <c r="J34" s="442"/>
+      <c r="K34" s="442"/>
+      <c r="L34" s="442"/>
+      <c r="M34" s="442"/>
+      <c r="N34" s="442"/>
+      <c r="O34" s="442"/>
+      <c r="P34" s="442"/>
+      <c r="Q34" s="442"/>
+      <c r="R34" s="442"/>
+      <c r="S34" s="442"/>
+      <c r="T34" s="442"/>
+      <c r="U34" s="442"/>
+      <c r="V34" s="442"/>
+      <c r="W34" s="442"/>
+      <c r="X34" s="442"/>
       <c r="AN34" s="260"/>
     </row>
     <row r="35" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="452"/>
-      <c r="H35" s="452"/>
-      <c r="I35" s="452"/>
-      <c r="J35" s="452"/>
-      <c r="K35" s="452"/>
-      <c r="L35" s="452"/>
-      <c r="M35" s="452"/>
-      <c r="N35" s="452"/>
-      <c r="O35" s="452"/>
-      <c r="P35" s="452"/>
-      <c r="Q35" s="452"/>
-      <c r="R35" s="452"/>
-      <c r="S35" s="452"/>
-      <c r="T35" s="452"/>
-      <c r="U35" s="452"/>
-      <c r="V35" s="452"/>
-      <c r="W35" s="452"/>
-      <c r="X35" s="452"/>
+      <c r="G35" s="442"/>
+      <c r="H35" s="442"/>
+      <c r="I35" s="442"/>
+      <c r="J35" s="442"/>
+      <c r="K35" s="442"/>
+      <c r="L35" s="442"/>
+      <c r="M35" s="442"/>
+      <c r="N35" s="442"/>
+      <c r="O35" s="442"/>
+      <c r="P35" s="442"/>
+      <c r="Q35" s="442"/>
+      <c r="R35" s="442"/>
+      <c r="S35" s="442"/>
+      <c r="T35" s="442"/>
+      <c r="U35" s="442"/>
+      <c r="V35" s="442"/>
+      <c r="W35" s="442"/>
+      <c r="X35" s="442"/>
       <c r="AN35" s="260"/>
     </row>
     <row r="36" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="452"/>
-      <c r="H36" s="452"/>
-      <c r="I36" s="452"/>
-      <c r="J36" s="452"/>
-      <c r="K36" s="452"/>
-      <c r="L36" s="452"/>
-      <c r="M36" s="452"/>
-      <c r="N36" s="452"/>
-      <c r="O36" s="452"/>
-      <c r="P36" s="452"/>
-      <c r="Q36" s="452"/>
-      <c r="R36" s="452"/>
-      <c r="S36" s="452"/>
-      <c r="T36" s="452"/>
-      <c r="U36" s="452"/>
-      <c r="V36" s="452"/>
-      <c r="W36" s="452"/>
-      <c r="X36" s="452"/>
+      <c r="G36" s="442"/>
+      <c r="H36" s="442"/>
+      <c r="I36" s="442"/>
+      <c r="J36" s="442"/>
+      <c r="K36" s="442"/>
+      <c r="L36" s="442"/>
+      <c r="M36" s="442"/>
+      <c r="N36" s="442"/>
+      <c r="O36" s="442"/>
+      <c r="P36" s="442"/>
+      <c r="Q36" s="442"/>
+      <c r="R36" s="442"/>
+      <c r="S36" s="442"/>
+      <c r="T36" s="442"/>
+      <c r="U36" s="442"/>
+      <c r="V36" s="442"/>
+      <c r="W36" s="442"/>
+      <c r="X36" s="442"/>
       <c r="AN36" s="260"/>
     </row>
     <row r="37" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="452"/>
-      <c r="H37" s="452"/>
-      <c r="I37" s="452"/>
-      <c r="J37" s="452"/>
-      <c r="K37" s="452"/>
-      <c r="L37" s="452"/>
-      <c r="M37" s="452"/>
-      <c r="N37" s="452"/>
-      <c r="O37" s="452"/>
-      <c r="P37" s="452"/>
-      <c r="Q37" s="452"/>
-      <c r="R37" s="452"/>
-      <c r="S37" s="452"/>
-      <c r="T37" s="452"/>
-      <c r="U37" s="452"/>
-      <c r="V37" s="452"/>
-      <c r="W37" s="452"/>
-      <c r="X37" s="452"/>
+      <c r="G37" s="442"/>
+      <c r="H37" s="442"/>
+      <c r="I37" s="442"/>
+      <c r="J37" s="442"/>
+      <c r="K37" s="442"/>
+      <c r="L37" s="442"/>
+      <c r="M37" s="442"/>
+      <c r="N37" s="442"/>
+      <c r="O37" s="442"/>
+      <c r="P37" s="442"/>
+      <c r="Q37" s="442"/>
+      <c r="R37" s="442"/>
+      <c r="S37" s="442"/>
+      <c r="T37" s="442"/>
+      <c r="U37" s="442"/>
+      <c r="V37" s="442"/>
+      <c r="W37" s="442"/>
+      <c r="X37" s="442"/>
       <c r="AN37" s="260"/>
     </row>
     <row r="38" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="452"/>
-      <c r="H38" s="452"/>
-      <c r="I38" s="452"/>
-      <c r="J38" s="452"/>
-      <c r="K38" s="452"/>
-      <c r="L38" s="452"/>
-      <c r="M38" s="452"/>
-      <c r="N38" s="452"/>
-      <c r="O38" s="452"/>
-      <c r="P38" s="452"/>
-      <c r="Q38" s="452"/>
-      <c r="R38" s="452"/>
-      <c r="S38" s="452"/>
-      <c r="T38" s="452"/>
-      <c r="U38" s="452"/>
-      <c r="V38" s="452"/>
-      <c r="W38" s="452"/>
-      <c r="X38" s="452"/>
+      <c r="G38" s="442"/>
+      <c r="H38" s="442"/>
+      <c r="I38" s="442"/>
+      <c r="J38" s="442"/>
+      <c r="K38" s="442"/>
+      <c r="L38" s="442"/>
+      <c r="M38" s="442"/>
+      <c r="N38" s="442"/>
+      <c r="O38" s="442"/>
+      <c r="P38" s="442"/>
+      <c r="Q38" s="442"/>
+      <c r="R38" s="442"/>
+      <c r="S38" s="442"/>
+      <c r="T38" s="442"/>
+      <c r="U38" s="442"/>
+      <c r="V38" s="442"/>
+      <c r="W38" s="442"/>
+      <c r="X38" s="442"/>
       <c r="AN38" s="260"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="221"/>
       <c r="D39" s="221"/>
-      <c r="G39" s="452"/>
-      <c r="H39" s="452"/>
-      <c r="I39" s="452"/>
-      <c r="J39" s="452"/>
-      <c r="K39" s="452"/>
-      <c r="L39" s="452"/>
-      <c r="M39" s="452"/>
-      <c r="N39" s="452"/>
-      <c r="O39" s="452"/>
-      <c r="P39" s="452"/>
-      <c r="Q39" s="452"/>
-      <c r="R39" s="452"/>
-      <c r="S39" s="452"/>
-      <c r="T39" s="452"/>
-      <c r="U39" s="452"/>
-      <c r="V39" s="452"/>
-      <c r="W39" s="452"/>
-      <c r="X39" s="452"/>
+      <c r="G39" s="442"/>
+      <c r="H39" s="442"/>
+      <c r="I39" s="442"/>
+      <c r="J39" s="442"/>
+      <c r="K39" s="442"/>
+      <c r="L39" s="442"/>
+      <c r="M39" s="442"/>
+      <c r="N39" s="442"/>
+      <c r="O39" s="442"/>
+      <c r="P39" s="442"/>
+      <c r="Q39" s="442"/>
+      <c r="R39" s="442"/>
+      <c r="S39" s="442"/>
+      <c r="T39" s="442"/>
+      <c r="U39" s="442"/>
+      <c r="V39" s="442"/>
+      <c r="W39" s="442"/>
+      <c r="X39" s="442"/>
       <c r="AN39" s="221"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -8609,6 +8650,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -8623,13 +8671,6 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9480,38 +9521,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="473" t="s">
+      <c r="A1" s="471" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="473"/>
-      <c r="C1" s="473"/>
-      <c r="D1" s="473"/>
+      <c r="B1" s="471"/>
+      <c r="C1" s="471"/>
+      <c r="D1" s="471"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="474" t="s">
+      <c r="F1" s="472" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="474"/>
-      <c r="H1" s="474"/>
-      <c r="I1" s="474"/>
-      <c r="J1" s="474"/>
-      <c r="K1" s="474"/>
+      <c r="G1" s="472"/>
+      <c r="H1" s="472"/>
+      <c r="I1" s="472"/>
+      <c r="J1" s="472"/>
+      <c r="K1" s="472"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="475" t="s">
+      <c r="A2" s="473" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="475"/>
-      <c r="C2" s="475"/>
-      <c r="D2" s="475"/>
+      <c r="B2" s="473"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="473"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="476" t="s">
+      <c r="F2" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="476"/>
-      <c r="H2" s="476"/>
-      <c r="I2" s="476"/>
-      <c r="J2" s="476"/>
-      <c r="K2" s="476"/>
+      <c r="G2" s="474"/>
+      <c r="H2" s="474"/>
+      <c r="I2" s="474"/>
+      <c r="J2" s="474"/>
+      <c r="K2" s="474"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -9524,43 +9565,43 @@
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="477" t="s">
+      <c r="A4" s="475" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="477"/>
-      <c r="C4" s="477"/>
-      <c r="D4" s="477"/>
-      <c r="E4" s="477"/>
-      <c r="F4" s="477"/>
-      <c r="G4" s="477"/>
-      <c r="H4" s="477"/>
-      <c r="I4" s="477"/>
-      <c r="J4" s="477"/>
-      <c r="K4" s="477"/>
-      <c r="L4" s="477"/>
+      <c r="B4" s="475"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="475"/>
+      <c r="E4" s="475"/>
+      <c r="F4" s="475"/>
+      <c r="G4" s="475"/>
+      <c r="H4" s="475"/>
+      <c r="I4" s="475"/>
+      <c r="J4" s="475"/>
+      <c r="K4" s="475"/>
+      <c r="L4" s="475"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="478" t="s">
+      <c r="A5" s="476" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="478"/>
-      <c r="C5" s="478"/>
-      <c r="D5" s="478"/>
-      <c r="E5" s="478"/>
-      <c r="F5" s="478"/>
-      <c r="G5" s="478"/>
-      <c r="H5" s="478"/>
-      <c r="I5" s="478"/>
-      <c r="J5" s="478"/>
-      <c r="K5" s="478"/>
-      <c r="L5" s="478"/>
+      <c r="B5" s="476"/>
+      <c r="C5" s="476"/>
+      <c r="D5" s="476"/>
+      <c r="E5" s="476"/>
+      <c r="F5" s="476"/>
+      <c r="G5" s="476"/>
+      <c r="H5" s="476"/>
+      <c r="I5" s="476"/>
+      <c r="J5" s="476"/>
+      <c r="K5" s="476"/>
+      <c r="L5" s="476"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="479" t="s">
+      <c r="J6" s="477" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="479"/>
-      <c r="L6" s="479"/>
+      <c r="K6" s="477"/>
+      <c r="L6" s="477"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="147" t="s">
@@ -9627,16 +9668,16 @@
       <c r="L8" s="147"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="470" t="s">
+      <c r="A9" s="468" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="471"/>
-      <c r="C9" s="471"/>
-      <c r="D9" s="472"/>
+      <c r="B9" s="469"/>
+      <c r="C9" s="469"/>
+      <c r="D9" s="470"/>
       <c r="E9" s="149"/>
       <c r="F9" s="153">
         <f>SUM(F10:F12)</f>
-        <v>27807692.307692308</v>
+        <v>28038461.53846154</v>
       </c>
       <c r="G9" s="153">
         <f>SUM(G10:G12)</f>
@@ -9652,7 +9693,7 @@
       </c>
       <c r="J9" s="153">
         <f>SUM(J10:J12)</f>
-        <v>27807692.307692308</v>
+        <v>28038461.53846154</v>
       </c>
       <c r="K9" s="148"/>
       <c r="L9" s="147"/>
@@ -9734,29 +9775,29 @@
       </c>
       <c r="E12" s="90">
         <f>'Bảng chấm công'!AI13</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="52">
         <f>D12/26*E12</f>
-        <v>6000000</v>
+        <v>6230769.230769231</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53">
         <f>F12-G12-H12+I12</f>
-        <v>6000000</v>
+        <v>6230769.230769231</v>
       </c>
       <c r="K12" s="53"/>
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="467" t="s">
+      <c r="A13" s="465" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="468"/>
-      <c r="C13" s="468"/>
-      <c r="D13" s="469"/>
+      <c r="B13" s="466"/>
+      <c r="C13" s="466"/>
+      <c r="D13" s="467"/>
       <c r="E13" s="89"/>
       <c r="F13" s="153">
         <f>SUM(F14:F14)</f>
@@ -9813,16 +9854,16 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="480" t="s">
+      <c r="A15" s="478" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="481"/>
-      <c r="C15" s="482"/>
+      <c r="B15" s="479"/>
+      <c r="C15" s="480"/>
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86">
         <f>F13+F9</f>
-        <v>31442307.692307692</v>
+        <v>31673076.923076924</v>
       </c>
       <c r="G15" s="86">
         <f>G13+G9</f>
@@ -9838,20 +9879,20 @@
       </c>
       <c r="J15" s="86">
         <f>J13+J9</f>
-        <v>31442307.692307692</v>
+        <v>31673076.923076924</v>
       </c>
       <c r="K15" s="85"/>
       <c r="L15" s="85"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="465"/>
-      <c r="C17" s="465"/>
-      <c r="D17" s="465"/>
+      <c r="B17" s="463"/>
+      <c r="C17" s="463"/>
+      <c r="D17" s="463"/>
       <c r="E17" s="82"/>
-      <c r="H17" s="465"/>
-      <c r="I17" s="465"/>
-      <c r="J17" s="465"/>
-      <c r="K17" s="465"/>
+      <c r="H17" s="463"/>
+      <c r="I17" s="463"/>
+      <c r="J17" s="463"/>
+      <c r="K17" s="463"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="144" t="s">
@@ -9863,12 +9904,12 @@
         <v>85</v>
       </c>
       <c r="G18" s="144"/>
-      <c r="H18" s="465" t="s">
+      <c r="H18" s="463" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="465"/>
-      <c r="J18" s="465"/>
-      <c r="K18" s="465"/>
+      <c r="I18" s="463"/>
+      <c r="J18" s="463"/>
+      <c r="K18" s="463"/>
     </row>
     <row r="19" spans="2:11" s="145" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="146" t="s">
@@ -9880,12 +9921,12 @@
         <v>92</v>
       </c>
       <c r="G19" s="146"/>
-      <c r="H19" s="466" t="s">
+      <c r="H19" s="464" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="466"/>
-      <c r="J19" s="466"/>
-      <c r="K19" s="466"/>
+      <c r="I19" s="464"/>
+      <c r="J19" s="464"/>
+      <c r="K19" s="464"/>
     </row>
     <row r="22" spans="2:11" s="96" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="5"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$5:$P$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$4:$H$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$4:$H$75</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="177">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -552,6 +552,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Qunhf baby đặt cọc HĐ</t>
   </si>
 </sst>
 </file>
@@ -559,13 +562,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="51" x14ac:knownFonts="1">
     <font>
@@ -939,7 +942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1176,17 +1179,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="492">
+  <cellXfs count="506">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1225,7 +1239,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1239,14 +1253,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1258,15 +1272,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1298,10 +1312,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1313,10 +1327,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1325,16 +1339,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,7 +1363,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1359,12 +1373,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1373,7 +1387,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1388,41 +1402,41 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1430,11 +1444,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1442,10 +1456,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1454,25 +1468,25 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1480,24 +1494,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1506,13 +1520,13 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="29" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1524,11 +1538,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1556,39 +1570,39 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,7 +1612,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1609,7 +1623,7 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1635,12 +1649,12 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,10 +1663,10 @@
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,36 +1678,36 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1766,7 +1780,7 @@
     <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="41" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1775,19 +1789,19 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="41" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="39" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="39" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="41" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1799,7 +1813,7 @@
     <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1826,22 +1840,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1850,16 +1861,16 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1867,8 +1878,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1881,7 +1892,7 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1902,7 +1913,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1917,7 +1928,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1926,13 +1937,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1941,64 +1952,64 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2017,20 +2028,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="24" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2039,16 +2050,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2057,19 +2068,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,389 +2092,434 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="24" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="24" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="24" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="24" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2775,11 +2831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,16 +2901,16 @@
       <c r="Q2" s="107"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="381" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="369"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
+      <c r="B3" s="381"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="381"/>
+      <c r="H3" s="381"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
       <c r="K3" s="108"/>
@@ -2866,32 +2922,32 @@
       <c r="Q3" s="108"/>
     </row>
     <row r="4" spans="1:17" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="382" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="370" t="s">
+      <c r="B4" s="382" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="370" t="s">
+      <c r="C4" s="382" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="371" t="s">
+      <c r="D4" s="383" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="372" t="s">
+      <c r="E4" s="384" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="372"/>
-      <c r="G4" s="372" t="s">
+      <c r="F4" s="384"/>
+      <c r="G4" s="384" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="372"/>
+      <c r="H4" s="384"/>
     </row>
     <row r="5" spans="1:17" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="370"/>
-      <c r="B5" s="370"/>
-      <c r="C5" s="370"/>
-      <c r="D5" s="371"/>
+      <c r="A5" s="382"/>
+      <c r="B5" s="382"/>
+      <c r="C5" s="382"/>
+      <c r="D5" s="383"/>
       <c r="E5" s="210" t="s">
         <v>81</v>
       </c>
@@ -2924,178 +2980,176 @@
       <c r="H6" s="209"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="92">
+      <c r="A7" s="205">
+        <v>44136</v>
+      </c>
+      <c r="B7" s="205"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="207" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="208">
+        <v>20000000</v>
+      </c>
+      <c r="F7" s="209"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="209"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="92">
         <v>44137</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="93" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D8" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="95">
+      <c r="E8" s="95"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="95">
         <v>14226820</v>
       </c>
-      <c r="H7" s="109"/>
-    </row>
-    <row r="8" spans="1:17" s="486" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="481">
+      <c r="H8" s="109"/>
+    </row>
+    <row r="9" spans="1:17" s="369" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="364">
         <v>44138</v>
       </c>
-      <c r="B8" s="481"/>
-      <c r="C8" s="482" t="s">
+      <c r="B9" s="364"/>
+      <c r="C9" s="365" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="483" t="s">
+      <c r="D9" s="366" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="484"/>
-      <c r="F8" s="485"/>
-      <c r="G8" s="484"/>
-      <c r="H8" s="485"/>
-    </row>
-    <row r="9" spans="1:17" s="486" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="481">
+      <c r="E9" s="367"/>
+      <c r="F9" s="368"/>
+      <c r="G9" s="367"/>
+      <c r="H9" s="368"/>
+    </row>
+    <row r="10" spans="1:17" s="369" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="364">
         <v>44139</v>
       </c>
-      <c r="B9" s="481"/>
-      <c r="C9" s="482"/>
-      <c r="D9" s="483" t="s">
+      <c r="B10" s="364"/>
+      <c r="C10" s="365"/>
+      <c r="D10" s="366" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="484"/>
-      <c r="F9" s="485"/>
-      <c r="G9" s="484"/>
-      <c r="H9" s="485"/>
-    </row>
-    <row r="10" spans="1:17" s="486" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="487">
+      <c r="E10" s="367"/>
+      <c r="F10" s="368"/>
+      <c r="G10" s="367"/>
+      <c r="H10" s="368"/>
+    </row>
+    <row r="11" spans="1:17" s="369" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="370">
         <v>44139</v>
       </c>
-      <c r="B10" s="487"/>
-      <c r="C10" s="488"/>
-      <c r="D10" s="483" t="s">
+      <c r="B11" s="370"/>
+      <c r="C11" s="371"/>
+      <c r="D11" s="366" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="484"/>
-      <c r="F10" s="485"/>
-      <c r="G10" s="484"/>
-      <c r="H10" s="485"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="357">
+      <c r="E11" s="367"/>
+      <c r="F11" s="368"/>
+      <c r="G11" s="367"/>
+      <c r="H11" s="368"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="356">
         <v>44140</v>
       </c>
-      <c r="B11" s="357"/>
-      <c r="C11" s="359"/>
-      <c r="D11" s="94" t="s">
+      <c r="B12" s="356"/>
+      <c r="C12" s="358"/>
+      <c r="D12" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="95">
+      <c r="E12" s="95"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="95">
         <v>1000000</v>
       </c>
-      <c r="H11" s="109"/>
-    </row>
-    <row r="12" spans="1:17" s="486" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="489">
+      <c r="H12" s="109"/>
+    </row>
+    <row r="13" spans="1:17" s="369" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="372">
         <v>44140</v>
       </c>
-      <c r="B12" s="489"/>
-      <c r="C12" s="490"/>
-      <c r="D12" s="483" t="s">
+      <c r="B13" s="372"/>
+      <c r="C13" s="373"/>
+      <c r="D13" s="366" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="484"/>
-      <c r="F12" s="485"/>
-      <c r="G12" s="484"/>
-      <c r="H12" s="485"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="357">
+      <c r="E13" s="367"/>
+      <c r="F13" s="368"/>
+      <c r="G13" s="367"/>
+      <c r="H13" s="368"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="356">
         <v>44141</v>
       </c>
-      <c r="B13" s="357"/>
-      <c r="C13" s="359"/>
-      <c r="D13" s="94" t="s">
+      <c r="B14" s="356"/>
+      <c r="C14" s="358"/>
+      <c r="D14" s="94" t="s">
         <v>169</v>
-      </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="95">
-        <v>500000</v>
-      </c>
-      <c r="H13" s="109"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="357">
-        <v>44142</v>
-      </c>
-      <c r="B14" s="357"/>
-      <c r="C14" s="359"/>
-      <c r="D14" s="94" t="s">
-        <v>170</v>
       </c>
       <c r="E14" s="95"/>
       <c r="F14" s="109"/>
       <c r="G14" s="95">
+        <v>500000</v>
+      </c>
+      <c r="H14" s="109"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="356">
+        <v>44142</v>
+      </c>
+      <c r="B15" s="356"/>
+      <c r="C15" s="358"/>
+      <c r="D15" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="95"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="95">
         <v>3746000</v>
       </c>
-      <c r="H14" s="109"/>
-    </row>
-    <row r="15" spans="1:17" s="486" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="489">
+      <c r="H15" s="109"/>
+    </row>
+    <row r="16" spans="1:17" s="369" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="372">
         <v>44142</v>
       </c>
-      <c r="B15" s="489"/>
-      <c r="C15" s="490"/>
-      <c r="D15" s="483" t="s">
+      <c r="B16" s="372"/>
+      <c r="C16" s="373"/>
+      <c r="D16" s="366" t="s">
         <v>174</v>
       </c>
-      <c r="E15" s="484"/>
-      <c r="F15" s="485"/>
-      <c r="G15" s="484"/>
-      <c r="H15" s="491"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="358">
+      <c r="E16" s="367"/>
+      <c r="F16" s="368"/>
+      <c r="G16" s="367"/>
+      <c r="H16" s="374"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="357">
         <v>44142</v>
       </c>
-      <c r="B16" s="358"/>
-      <c r="C16" s="360"/>
-      <c r="D16" s="94" t="s">
+      <c r="B17" s="357"/>
+      <c r="C17" s="359"/>
+      <c r="D17" s="94" t="s">
         <v>171</v>
-      </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="95">
-        <v>2000000</v>
-      </c>
-      <c r="H16" s="111"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="92">
-        <v>44150</v>
-      </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94" t="s">
-        <v>172</v>
       </c>
       <c r="E17" s="95"/>
       <c r="F17" s="109"/>
       <c r="G17" s="95">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="H17" s="111"/>
-      <c r="K17" s="363"/>
-      <c r="L17" s="364"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="92">
@@ -3104,36 +3158,44 @@
       <c r="B18" s="92"/>
       <c r="C18" s="93"/>
       <c r="D18" s="94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="95"/>
       <c r="F18" s="109"/>
       <c r="G18" s="95">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H18" s="111"/>
-      <c r="N18" s="218"/>
+      <c r="K18" s="375"/>
+      <c r="L18" s="376"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
+      <c r="A19" s="92">
+        <v>44150</v>
+      </c>
       <c r="B19" s="92"/>
       <c r="C19" s="93"/>
-      <c r="D19" s="110"/>
+      <c r="D19" s="94" t="s">
+        <v>173</v>
+      </c>
       <c r="E19" s="95"/>
       <c r="F19" s="109"/>
-      <c r="G19" s="95"/>
+      <c r="G19" s="95">
+        <v>1000000</v>
+      </c>
       <c r="H19" s="111"/>
-      <c r="K19" s="218"/>
+      <c r="N19" s="218"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="92"/>
       <c r="B20" s="92"/>
       <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
+      <c r="D20" s="110"/>
       <c r="E20" s="95"/>
       <c r="F20" s="109"/>
       <c r="G20" s="95"/>
       <c r="H20" s="111"/>
+      <c r="K20" s="218"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="92"/>
@@ -3144,7 +3206,6 @@
       <c r="F21" s="109"/>
       <c r="G21" s="95"/>
       <c r="H21" s="111"/>
-      <c r="J21" s="218"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="92"/>
@@ -3155,7 +3216,7 @@
       <c r="F22" s="109"/>
       <c r="G22" s="95"/>
       <c r="H22" s="111"/>
-      <c r="K22" s="218"/>
+      <c r="J22" s="218"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="92"/>
@@ -3166,13 +3227,15 @@
       <c r="F23" s="109"/>
       <c r="G23" s="95"/>
       <c r="H23" s="111"/>
+      <c r="K23" s="218"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="92"/>
       <c r="B24" s="92"/>
       <c r="C24" s="93"/>
       <c r="D24" s="94"/>
-      <c r="F24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="109"/>
       <c r="G24" s="95"/>
       <c r="H24" s="111"/>
     </row>
@@ -3181,11 +3244,9 @@
       <c r="B25" s="92"/>
       <c r="C25" s="93"/>
       <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="109"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="95"/>
       <c r="H25" s="111"/>
-      <c r="K25" s="101"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="92"/>
@@ -3196,6 +3257,7 @@
       <c r="F26" s="109"/>
       <c r="G26" s="95"/>
       <c r="H26" s="111"/>
+      <c r="K26" s="101"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="92"/>
@@ -3203,11 +3265,11 @@
       <c r="C27" s="93"/>
       <c r="D27" s="94"/>
       <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="95"/>
       <c r="H27" s="111"/>
     </row>
-    <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="92"/>
       <c r="B28" s="92"/>
       <c r="C28" s="93"/>
@@ -3216,7 +3278,6 @@
       <c r="F28" s="95"/>
       <c r="G28" s="95"/>
       <c r="H28" s="111"/>
-      <c r="K28" s="218"/>
     </row>
     <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="92"/>
@@ -3224,11 +3285,12 @@
       <c r="C29" s="93"/>
       <c r="D29" s="94"/>
       <c r="E29" s="95"/>
-      <c r="F29" s="109"/>
+      <c r="F29" s="95"/>
       <c r="G29" s="95"/>
       <c r="H29" s="111"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K29" s="218"/>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92"/>
       <c r="B30" s="92"/>
       <c r="C30" s="93"/>
@@ -3243,7 +3305,8 @@
       <c r="B31" s="92"/>
       <c r="C31" s="93"/>
       <c r="D31" s="94"/>
-      <c r="F31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="95"/>
       <c r="H31" s="111"/>
     </row>
@@ -3252,8 +3315,7 @@
       <c r="B32" s="92"/>
       <c r="C32" s="93"/>
       <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="109"/>
+      <c r="F32" s="95"/>
       <c r="G32" s="95"/>
       <c r="H32" s="111"/>
     </row>
@@ -3262,7 +3324,8 @@
       <c r="B33" s="92"/>
       <c r="C33" s="93"/>
       <c r="D33" s="94"/>
-      <c r="E33" s="109"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="95"/>
       <c r="H33" s="111"/>
     </row>
@@ -3271,8 +3334,7 @@
       <c r="B34" s="92"/>
       <c r="C34" s="93"/>
       <c r="D34" s="94"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="109"/>
+      <c r="E34" s="109"/>
       <c r="G34" s="95"/>
       <c r="H34" s="111"/>
     </row>
@@ -3291,7 +3353,8 @@
       <c r="B36" s="92"/>
       <c r="C36" s="93"/>
       <c r="D36" s="94"/>
-      <c r="F36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="109"/>
       <c r="G36" s="95"/>
       <c r="H36" s="111"/>
     </row>
@@ -3300,8 +3363,7 @@
       <c r="B37" s="92"/>
       <c r="C37" s="93"/>
       <c r="D37" s="94"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="109"/>
+      <c r="F37" s="95"/>
       <c r="G37" s="95"/>
       <c r="H37" s="111"/>
     </row>
@@ -3371,7 +3433,7 @@
       <c r="C44" s="93"/>
       <c r="D44" s="94"/>
       <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
+      <c r="F44" s="109"/>
       <c r="G44" s="95"/>
       <c r="H44" s="111"/>
     </row>
@@ -3401,7 +3463,7 @@
       <c r="C47" s="93"/>
       <c r="D47" s="94"/>
       <c r="E47" s="95"/>
-      <c r="F47" s="109"/>
+      <c r="F47" s="95"/>
       <c r="G47" s="95"/>
       <c r="H47" s="111"/>
     </row>
@@ -3431,7 +3493,7 @@
       <c r="C50" s="93"/>
       <c r="D50" s="94"/>
       <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
+      <c r="F50" s="109"/>
       <c r="G50" s="95"/>
       <c r="H50" s="111"/>
     </row>
@@ -3451,7 +3513,7 @@
       <c r="C52" s="93"/>
       <c r="D52" s="94"/>
       <c r="E52" s="95"/>
-      <c r="F52" s="109"/>
+      <c r="F52" s="95"/>
       <c r="G52" s="95"/>
       <c r="H52" s="111"/>
     </row>
@@ -3500,7 +3562,8 @@
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
       <c r="D57" s="94"/>
-      <c r="E57" s="109"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="109"/>
       <c r="G57" s="95"/>
       <c r="H57" s="111"/>
     </row>
@@ -3509,22 +3572,21 @@
       <c r="B58" s="92"/>
       <c r="C58" s="93"/>
       <c r="D58" s="94"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="109"/>
+      <c r="E58" s="109"/>
       <c r="G58" s="95"/>
       <c r="H58" s="111"/>
     </row>
-    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="92"/>
       <c r="B59" s="92"/>
       <c r="C59" s="93"/>
-      <c r="D59" s="112"/>
+      <c r="D59" s="94"/>
       <c r="E59" s="95"/>
       <c r="F59" s="109"/>
       <c r="G59" s="95"/>
       <c r="H59" s="111"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="92"/>
       <c r="B60" s="92"/>
       <c r="C60" s="93"/>
@@ -3539,21 +3601,21 @@
       <c r="B61" s="92"/>
       <c r="C61" s="93"/>
       <c r="D61" s="112"/>
-      <c r="E61" s="109"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="109"/>
       <c r="G61" s="95"/>
       <c r="H61" s="111"/>
     </row>
-    <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="92"/>
       <c r="B62" s="92"/>
       <c r="C62" s="93"/>
       <c r="D62" s="112"/>
-      <c r="E62" s="95"/>
-      <c r="F62" s="109"/>
+      <c r="E62" s="109"/>
       <c r="G62" s="95"/>
       <c r="H62" s="111"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="92"/>
       <c r="B63" s="92"/>
       <c r="C63" s="93"/>
@@ -3567,7 +3629,7 @@
       <c r="A64" s="92"/>
       <c r="B64" s="92"/>
       <c r="C64" s="93"/>
-      <c r="D64" s="94"/>
+      <c r="D64" s="112"/>
       <c r="E64" s="95"/>
       <c r="F64" s="109"/>
       <c r="G64" s="95"/>
@@ -3663,48 +3725,45 @@
       <c r="G73" s="95"/>
       <c r="H73" s="111"/>
     </row>
-    <row r="74" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="366" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="92"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="109"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="111"/>
+    </row>
+    <row r="75" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="378" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="367"/>
-      <c r="C74" s="367"/>
-      <c r="D74" s="368"/>
-      <c r="E74" s="113">
-        <f>SUM(E7:E73)</f>
+      <c r="B75" s="379"/>
+      <c r="C75" s="379"/>
+      <c r="D75" s="380"/>
+      <c r="E75" s="113">
+        <f>SUM(E8:E74)</f>
         <v>0</v>
       </c>
-      <c r="F74" s="113">
-        <f>SUM(F7:F73)</f>
+      <c r="F75" s="113">
+        <f>SUM(F8:F74)</f>
         <v>0</v>
       </c>
-      <c r="G74" s="113">
-        <f>SUM(G7:G73)</f>
+      <c r="G75" s="113">
+        <f>SUM(G8:G74)</f>
         <v>25472820</v>
       </c>
-      <c r="H74" s="113">
-        <f>SUM(H7:H73)</f>
+      <c r="H75" s="113">
+        <f>SUM(H8:H74)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="115"/>
-    </row>
-    <row r="75" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="116"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="116"/>
-      <c r="D75" s="116"/>
-      <c r="E75" s="117"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="117"/>
-      <c r="H75" s="117"/>
       <c r="J75" s="115"/>
     </row>
-    <row r="76" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="365" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" s="365"/>
-      <c r="C76" s="365"/>
+    <row r="76" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="116"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="116"/>
       <c r="D76" s="116"/>
       <c r="E76" s="117"/>
       <c r="F76" s="117"/>
@@ -3712,42 +3771,55 @@
       <c r="H76" s="117"/>
       <c r="J76" s="115"/>
     </row>
-    <row r="77" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="186" t="s">
+    <row r="77" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="377" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="377"/>
+      <c r="C77" s="377"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="J77" s="115"/>
+    </row>
+    <row r="78" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="186" t="s">
         <v>85</v>
       </c>
-      <c r="D77" s="64"/>
-      <c r="F77" s="186" t="s">
+      <c r="D78" s="64"/>
+      <c r="F78" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-    </row>
-    <row r="78" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="4" t="s">
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+    </row>
+    <row r="79" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="F78" s="4" t="s">
+      <c r="D79" s="5"/>
+      <c r="F79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="91"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="123"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="91"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="123"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H74">
+  <autoFilter ref="A4:H75">
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="10">
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A75:D75"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
@@ -3791,13 +3863,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="375" t="s">
+      <c r="A1" s="397" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="375"/>
-      <c r="D1" s="375"/>
-      <c r="E1" s="375"/>
+      <c r="B1" s="397"/>
+      <c r="C1" s="397"/>
+      <c r="D1" s="397"/>
+      <c r="E1" s="397"/>
       <c r="H1" s="125"/>
       <c r="I1" s="125"/>
       <c r="J1" s="125"/>
@@ -3827,143 +3899,143 @@
       <c r="P2" s="129"/>
     </row>
     <row r="3" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="376" t="s">
+      <c r="A3" s="398" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="376"/>
-      <c r="C3" s="376"/>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376"/>
-      <c r="H3" s="376"/>
-      <c r="I3" s="376"/>
-      <c r="J3" s="376"/>
-      <c r="K3" s="376"/>
-      <c r="L3" s="376"/>
-      <c r="M3" s="376"/>
-      <c r="N3" s="376"/>
-      <c r="O3" s="376"/>
-      <c r="P3" s="376"/>
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="398"/>
+      <c r="I3" s="398"/>
+      <c r="J3" s="398"/>
+      <c r="K3" s="398"/>
+      <c r="L3" s="398"/>
+      <c r="M3" s="398"/>
+      <c r="N3" s="398"/>
+      <c r="O3" s="398"/>
+      <c r="P3" s="398"/>
     </row>
     <row r="4" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="376" t="s">
+      <c r="A4" s="398" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="376"/>
-      <c r="C4" s="376"/>
-      <c r="D4" s="376"/>
-      <c r="E4" s="376"/>
-      <c r="F4" s="376"/>
-      <c r="G4" s="376"/>
-      <c r="H4" s="376"/>
-      <c r="I4" s="376"/>
-      <c r="J4" s="376"/>
-      <c r="K4" s="376"/>
-      <c r="L4" s="376"/>
-      <c r="M4" s="376"/>
-      <c r="N4" s="376"/>
-      <c r="O4" s="376"/>
-      <c r="P4" s="376"/>
+      <c r="B4" s="398"/>
+      <c r="C4" s="398"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="398"/>
+      <c r="G4" s="398"/>
+      <c r="H4" s="398"/>
+      <c r="I4" s="398"/>
+      <c r="J4" s="398"/>
+      <c r="K4" s="398"/>
+      <c r="L4" s="398"/>
+      <c r="M4" s="398"/>
+      <c r="N4" s="398"/>
+      <c r="O4" s="398"/>
+      <c r="P4" s="398"/>
     </row>
     <row r="5" spans="1:16" s="124" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="384" t="s">
+      <c r="A5" s="391" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="385" t="s">
+      <c r="B5" s="392" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="384" t="s">
+      <c r="C5" s="391" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="384" t="s">
+      <c r="D5" s="391" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="384"/>
-      <c r="F5" s="378" t="s">
+      <c r="E5" s="391"/>
+      <c r="F5" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="378"/>
-      <c r="H5" s="378"/>
-      <c r="I5" s="378"/>
-      <c r="J5" s="378"/>
-      <c r="K5" s="378"/>
-      <c r="L5" s="378"/>
-      <c r="M5" s="377"/>
-      <c r="N5" s="377"/>
-      <c r="O5" s="377"/>
-      <c r="P5" s="378" t="s">
+      <c r="G5" s="393"/>
+      <c r="H5" s="393"/>
+      <c r="I5" s="393"/>
+      <c r="J5" s="393"/>
+      <c r="K5" s="393"/>
+      <c r="L5" s="393"/>
+      <c r="M5" s="399"/>
+      <c r="N5" s="399"/>
+      <c r="O5" s="399"/>
+      <c r="P5" s="393" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="124" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="384"/>
-      <c r="B6" s="385"/>
-      <c r="C6" s="384"/>
-      <c r="D6" s="384" t="s">
+      <c r="A6" s="391"/>
+      <c r="B6" s="392"/>
+      <c r="C6" s="391"/>
+      <c r="D6" s="391" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="384" t="s">
+      <c r="E6" s="391" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="384" t="s">
+      <c r="F6" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="384" t="s">
+      <c r="G6" s="391" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="379" t="s">
+      <c r="H6" s="394" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="379" t="s">
+      <c r="I6" s="394" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="386" t="s">
+      <c r="J6" s="395" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="386"/>
-      <c r="L6" s="379" t="s">
+      <c r="K6" s="395"/>
+      <c r="L6" s="394" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="379" t="s">
+      <c r="M6" s="394" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="379" t="s">
+      <c r="N6" s="394" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="379" t="s">
+      <c r="O6" s="394" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="378"/>
+      <c r="P6" s="393"/>
     </row>
     <row r="7" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="384"/>
-      <c r="B7" s="385"/>
-      <c r="C7" s="384"/>
-      <c r="D7" s="384"/>
-      <c r="E7" s="384"/>
-      <c r="F7" s="384"/>
-      <c r="G7" s="384"/>
-      <c r="H7" s="379"/>
-      <c r="I7" s="379"/>
+      <c r="A7" s="391"/>
+      <c r="B7" s="392"/>
+      <c r="C7" s="391"/>
+      <c r="D7" s="391"/>
+      <c r="E7" s="391"/>
+      <c r="F7" s="391"/>
+      <c r="G7" s="391"/>
+      <c r="H7" s="394"/>
+      <c r="I7" s="394"/>
       <c r="J7" s="211" t="s">
         <v>84</v>
       </c>
       <c r="K7" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="379"/>
-      <c r="M7" s="379"/>
-      <c r="N7" s="379"/>
-      <c r="O7" s="379"/>
-      <c r="P7" s="378"/>
+      <c r="L7" s="394"/>
+      <c r="M7" s="394"/>
+      <c r="N7" s="394"/>
+      <c r="O7" s="394"/>
+      <c r="P7" s="393"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="361"/>
-      <c r="B8" s="362"/>
-      <c r="C8" s="361"/>
-      <c r="D8" s="361"/>
-      <c r="E8" s="361"/>
+      <c r="A8" s="360"/>
+      <c r="B8" s="361"/>
+      <c r="C8" s="360"/>
+      <c r="D8" s="360"/>
+      <c r="E8" s="360"/>
       <c r="F8" s="163"/>
       <c r="G8" s="163"/>
       <c r="H8" s="164"/>
@@ -4049,11 +4121,11 @@
       <c r="P12" s="162"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="381"/>
+      <c r="A13" s="385"/>
       <c r="B13" s="387"/>
-      <c r="C13" s="381"/>
-      <c r="D13" s="381"/>
-      <c r="E13" s="381"/>
+      <c r="C13" s="385"/>
+      <c r="D13" s="385"/>
+      <c r="E13" s="385"/>
       <c r="F13" s="163"/>
       <c r="G13" s="163"/>
       <c r="H13" s="164"/>
@@ -4067,11 +4139,11 @@
       <c r="P13" s="166"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="382"/>
+      <c r="A14" s="386"/>
       <c r="B14" s="388"/>
-      <c r="C14" s="382"/>
-      <c r="D14" s="382"/>
-      <c r="E14" s="382"/>
+      <c r="C14" s="386"/>
+      <c r="D14" s="386"/>
+      <c r="E14" s="386"/>
       <c r="F14" s="167"/>
       <c r="G14" s="167"/>
       <c r="H14" s="168"/>
@@ -4121,11 +4193,11 @@
       <c r="P16" s="157"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="381"/>
+      <c r="A17" s="385"/>
       <c r="B17" s="387"/>
-      <c r="C17" s="381"/>
-      <c r="D17" s="381"/>
-      <c r="E17" s="381"/>
+      <c r="C17" s="385"/>
+      <c r="D17" s="385"/>
+      <c r="E17" s="385"/>
       <c r="F17" s="163"/>
       <c r="G17" s="163"/>
       <c r="H17" s="164"/>
@@ -4139,11 +4211,11 @@
       <c r="P17" s="163"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="382"/>
+      <c r="A18" s="386"/>
       <c r="B18" s="388"/>
-      <c r="C18" s="382"/>
-      <c r="D18" s="382"/>
-      <c r="E18" s="382"/>
+      <c r="C18" s="386"/>
+      <c r="D18" s="386"/>
+      <c r="E18" s="386"/>
       <c r="F18" s="167"/>
       <c r="G18" s="167"/>
       <c r="H18" s="168"/>
@@ -4568,7 +4640,7 @@
       <c r="M41" s="177"/>
       <c r="N41" s="177"/>
       <c r="O41" s="177"/>
-      <c r="P41" s="380"/>
+      <c r="P41" s="400"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="172"/>
@@ -4586,7 +4658,7 @@
       <c r="M42" s="177"/>
       <c r="N42" s="177"/>
       <c r="O42" s="177"/>
-      <c r="P42" s="380"/>
+      <c r="P42" s="400"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="172"/>
@@ -4604,7 +4676,7 @@
       <c r="M43" s="177"/>
       <c r="N43" s="177"/>
       <c r="O43" s="177"/>
-      <c r="P43" s="380"/>
+      <c r="P43" s="400"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="172"/>
@@ -4622,7 +4694,7 @@
       <c r="M44" s="177"/>
       <c r="N44" s="177"/>
       <c r="O44" s="177"/>
-      <c r="P44" s="380"/>
+      <c r="P44" s="400"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="172"/>
@@ -4640,7 +4712,7 @@
       <c r="M45" s="177"/>
       <c r="N45" s="177"/>
       <c r="O45" s="177"/>
-      <c r="P45" s="380"/>
+      <c r="P45" s="400"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="172"/>
@@ -4658,7 +4730,7 @@
       <c r="M46" s="177"/>
       <c r="N46" s="177"/>
       <c r="O46" s="177"/>
-      <c r="P46" s="380"/>
+      <c r="P46" s="400"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="198"/>
@@ -4712,7 +4784,7 @@
       <c r="M49" s="177"/>
       <c r="N49" s="177"/>
       <c r="O49" s="177"/>
-      <c r="P49" s="380"/>
+      <c r="P49" s="400"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="172"/>
@@ -4730,7 +4802,7 @@
       <c r="M50" s="177"/>
       <c r="N50" s="177"/>
       <c r="O50" s="177"/>
-      <c r="P50" s="380"/>
+      <c r="P50" s="400"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="172"/>
@@ -4748,7 +4820,7 @@
       <c r="M51" s="177"/>
       <c r="N51" s="177"/>
       <c r="O51" s="177"/>
-      <c r="P51" s="380"/>
+      <c r="P51" s="400"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="198"/>
@@ -5219,14 +5291,14 @@
       <c r="P77" s="167"/>
     </row>
     <row r="78" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="383" t="s">
+      <c r="A78" s="390" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="383"/>
-      <c r="C78" s="383"/>
-      <c r="D78" s="383"/>
-      <c r="E78" s="383"/>
-      <c r="F78" s="383"/>
+      <c r="B78" s="390"/>
+      <c r="C78" s="390"/>
+      <c r="D78" s="390"/>
+      <c r="E78" s="390"/>
+      <c r="F78" s="390"/>
       <c r="G78" s="132">
         <f>SUM(G8:G77)</f>
         <v>0</v>
@@ -5246,17 +5318,17 @@
       <c r="N78" s="133"/>
       <c r="O78" s="133"/>
       <c r="P78" s="133"/>
-      <c r="Q78" s="373"/>
+      <c r="Q78" s="396"/>
     </row>
     <row r="79" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="374" t="s">
+      <c r="A79" s="389" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="374"/>
-      <c r="C79" s="374"/>
-      <c r="D79" s="374"/>
-      <c r="E79" s="374"/>
-      <c r="F79" s="374"/>
+      <c r="B79" s="389"/>
+      <c r="C79" s="389"/>
+      <c r="D79" s="389"/>
+      <c r="E79" s="389"/>
+      <c r="F79" s="389"/>
       <c r="G79" s="132">
         <f>G78</f>
         <v>0</v>
@@ -5273,17 +5345,17 @@
       <c r="N79" s="137"/>
       <c r="O79" s="137"/>
       <c r="P79" s="137"/>
-      <c r="Q79" s="373"/>
+      <c r="Q79" s="396"/>
     </row>
     <row r="80" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="374" t="s">
+      <c r="A80" s="389" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="374"/>
-      <c r="C80" s="374"/>
-      <c r="D80" s="374"/>
-      <c r="E80" s="374"/>
-      <c r="F80" s="374"/>
+      <c r="B80" s="389"/>
+      <c r="C80" s="389"/>
+      <c r="D80" s="389"/>
+      <c r="E80" s="389"/>
+      <c r="F80" s="389"/>
       <c r="G80" s="138" t="s">
         <v>45</v>
       </c>
@@ -5301,14 +5373,14 @@
       <c r="P80" s="139"/>
     </row>
     <row r="81" spans="1:16" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="374" t="s">
+      <c r="A81" s="389" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="374"/>
-      <c r="C81" s="374"/>
-      <c r="D81" s="374"/>
-      <c r="E81" s="374"/>
-      <c r="F81" s="374"/>
+      <c r="B81" s="389"/>
+      <c r="C81" s="389"/>
+      <c r="D81" s="389"/>
+      <c r="E81" s="389"/>
+      <c r="F81" s="389"/>
       <c r="G81" s="137"/>
       <c r="H81" s="137"/>
       <c r="I81" s="133"/>
@@ -5324,14 +5396,14 @@
       <c r="P81" s="139"/>
     </row>
     <row r="82" spans="1:16" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="374" t="s">
+      <c r="A82" s="389" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="374"/>
-      <c r="C82" s="374"/>
-      <c r="D82" s="374"/>
-      <c r="E82" s="374"/>
-      <c r="F82" s="374"/>
+      <c r="B82" s="389"/>
+      <c r="C82" s="389"/>
+      <c r="D82" s="389"/>
+      <c r="E82" s="389"/>
+      <c r="F82" s="389"/>
       <c r="G82" s="137"/>
       <c r="H82" s="137"/>
       <c r="I82" s="133"/>
@@ -5402,14 +5474,22 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="40">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A78:F78"/>
@@ -5426,22 +5506,14 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5458,678 +5530,702 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="290"/>
-    <col min="2" max="2" width="12" style="290" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="290" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="290" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="290" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="290"/>
-    <col min="7" max="7" width="6.28515625" style="290" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="290" customWidth="1"/>
-    <col min="9" max="9" width="14" style="290" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="291" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="292" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="293" customWidth="1"/>
-    <col min="13" max="13" width="4" style="293" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="293" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="290"/>
+    <col min="1" max="1" width="9.140625" style="289"/>
+    <col min="2" max="2" width="12" style="289" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="289" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="289" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="289" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="289"/>
+    <col min="7" max="7" width="6.28515625" style="289" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="289" customWidth="1"/>
+    <col min="9" max="9" width="14" style="289" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="290" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="291" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="292" customWidth="1"/>
+    <col min="13" max="13" width="4" style="292" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="292" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="289"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="288" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="294" t="s">
+      <c r="A2" s="293" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="401" t="s">
+      <c r="A3" s="403" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="401"/>
-      <c r="C3" s="401"/>
-      <c r="D3" s="401"/>
-      <c r="E3" s="401"/>
-      <c r="F3" s="401"/>
-      <c r="G3" s="401"/>
-      <c r="H3" s="401"/>
-      <c r="I3" s="401"/>
-      <c r="J3" s="401"/>
-      <c r="K3" s="401"/>
-      <c r="L3" s="295"/>
-      <c r="M3" s="295"/>
-      <c r="N3" s="295"/>
+      <c r="B3" s="403"/>
+      <c r="C3" s="403"/>
+      <c r="D3" s="403"/>
+      <c r="E3" s="403"/>
+      <c r="F3" s="403"/>
+      <c r="G3" s="403"/>
+      <c r="H3" s="403"/>
+      <c r="I3" s="403"/>
+      <c r="J3" s="403"/>
+      <c r="K3" s="403"/>
+      <c r="L3" s="294"/>
+      <c r="M3" s="294"/>
+      <c r="N3" s="294"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="402" t="s">
+      <c r="A4" s="404" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="402"/>
-      <c r="C4" s="402"/>
-      <c r="D4" s="402"/>
-      <c r="E4" s="402"/>
-      <c r="F4" s="402"/>
-      <c r="G4" s="402"/>
-      <c r="H4" s="402"/>
-      <c r="I4" s="402"/>
-      <c r="J4" s="403"/>
-      <c r="K4" s="402"/>
-      <c r="L4" s="296"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="296"/>
+      <c r="B4" s="404"/>
+      <c r="C4" s="404"/>
+      <c r="D4" s="404"/>
+      <c r="E4" s="404"/>
+      <c r="F4" s="404"/>
+      <c r="G4" s="404"/>
+      <c r="H4" s="404"/>
+      <c r="I4" s="404"/>
+      <c r="J4" s="405"/>
+      <c r="K4" s="404"/>
+      <c r="L4" s="295"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="404" t="s">
+      <c r="A5" s="406" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="405" t="s">
+      <c r="B5" s="407" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="404" t="s">
+      <c r="C5" s="406" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="404" t="s">
+      <c r="D5" s="406" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="404"/>
-      <c r="F5" s="406" t="s">
+      <c r="E5" s="406"/>
+      <c r="F5" s="408" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="406"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="406"/>
-      <c r="J5" s="407"/>
-      <c r="K5" s="408" t="s">
+      <c r="G5" s="408"/>
+      <c r="H5" s="408"/>
+      <c r="I5" s="408"/>
+      <c r="J5" s="409"/>
+      <c r="K5" s="410" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="400" t="s">
+      <c r="L5" s="402" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="400"/>
-      <c r="N5" s="400"/>
+      <c r="M5" s="402"/>
+      <c r="N5" s="402"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="404"/>
-      <c r="B6" s="405"/>
-      <c r="C6" s="404"/>
-      <c r="D6" s="297" t="s">
+      <c r="A6" s="406"/>
+      <c r="B6" s="407"/>
+      <c r="C6" s="406"/>
+      <c r="D6" s="296" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="298" t="s">
+      <c r="E6" s="297" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="298" t="s">
+      <c r="F6" s="297" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="298" t="s">
+      <c r="G6" s="297" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="299" t="s">
+      <c r="H6" s="298" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="300" t="s">
+      <c r="I6" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="301" t="s">
+      <c r="J6" s="300" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="408"/>
-      <c r="L6" s="302" t="s">
+      <c r="K6" s="410"/>
+      <c r="L6" s="301" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="302" t="s">
+      <c r="M6" s="301" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="302" t="s">
+      <c r="N6" s="301" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="342"/>
-      <c r="B7" s="343"/>
-      <c r="C7" s="342"/>
-      <c r="D7" s="342"/>
-      <c r="E7" s="342"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="345"/>
-      <c r="I7" s="345"/>
-      <c r="J7" s="346"/>
-      <c r="K7" s="345"/>
-      <c r="L7" s="347"/>
-      <c r="M7" s="347"/>
-      <c r="N7" s="348"/>
+      <c r="A7" s="341"/>
+      <c r="B7" s="342"/>
+      <c r="C7" s="341"/>
+      <c r="D7" s="341"/>
+      <c r="E7" s="341"/>
+      <c r="F7" s="343"/>
+      <c r="G7" s="343"/>
+      <c r="H7" s="344"/>
+      <c r="I7" s="344"/>
+      <c r="J7" s="345"/>
+      <c r="K7" s="344"/>
+      <c r="L7" s="346"/>
+      <c r="M7" s="346"/>
+      <c r="N7" s="347"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="393"/>
-      <c r="B8" s="396"/>
-      <c r="C8" s="393"/>
-      <c r="D8" s="393"/>
-      <c r="E8" s="393"/>
-      <c r="F8" s="303"/>
-      <c r="G8" s="303"/>
-      <c r="H8" s="304"/>
-      <c r="I8" s="304"/>
-      <c r="J8" s="305"/>
-      <c r="K8" s="304"/>
-      <c r="L8" s="306"/>
-      <c r="M8" s="306"/>
-      <c r="N8" s="307"/>
+      <c r="A8" s="411"/>
+      <c r="B8" s="413"/>
+      <c r="C8" s="411"/>
+      <c r="D8" s="411"/>
+      <c r="E8" s="411"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="303"/>
+      <c r="I8" s="303"/>
+      <c r="J8" s="304"/>
+      <c r="K8" s="303"/>
+      <c r="L8" s="305"/>
+      <c r="M8" s="305"/>
+      <c r="N8" s="306"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="395"/>
-      <c r="B9" s="398"/>
-      <c r="C9" s="395"/>
-      <c r="D9" s="395"/>
-      <c r="E9" s="395"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="321"/>
-      <c r="I9" s="321"/>
-      <c r="J9" s="322"/>
-      <c r="K9" s="321"/>
-      <c r="L9" s="324"/>
-      <c r="M9" s="324"/>
-      <c r="N9" s="325"/>
+      <c r="A9" s="412"/>
+      <c r="B9" s="414"/>
+      <c r="C9" s="412"/>
+      <c r="D9" s="412"/>
+      <c r="E9" s="412"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="320"/>
+      <c r="J9" s="321"/>
+      <c r="K9" s="320"/>
+      <c r="L9" s="323"/>
+      <c r="M9" s="323"/>
+      <c r="N9" s="324"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="393"/>
-      <c r="B10" s="396"/>
-      <c r="C10" s="393"/>
-      <c r="D10" s="393"/>
-      <c r="E10" s="393"/>
-      <c r="F10" s="303"/>
-      <c r="G10" s="303"/>
-      <c r="H10" s="304"/>
-      <c r="I10" s="304"/>
-      <c r="J10" s="305"/>
-      <c r="K10" s="304"/>
-      <c r="L10" s="306"/>
-      <c r="M10" s="306"/>
-      <c r="N10" s="307"/>
+      <c r="A10" s="411"/>
+      <c r="B10" s="413"/>
+      <c r="C10" s="411"/>
+      <c r="D10" s="411"/>
+      <c r="E10" s="411"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="303"/>
+      <c r="I10" s="303"/>
+      <c r="J10" s="304"/>
+      <c r="K10" s="303"/>
+      <c r="L10" s="305"/>
+      <c r="M10" s="305"/>
+      <c r="N10" s="306"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="394"/>
-      <c r="B11" s="397"/>
-      <c r="C11" s="394"/>
-      <c r="D11" s="394"/>
-      <c r="E11" s="394"/>
-      <c r="F11" s="308"/>
-      <c r="G11" s="308"/>
-      <c r="H11" s="309"/>
-      <c r="I11" s="309"/>
-      <c r="J11" s="310"/>
-      <c r="K11" s="309"/>
-      <c r="L11" s="311"/>
-      <c r="M11" s="311"/>
-      <c r="N11" s="312"/>
+      <c r="A11" s="415"/>
+      <c r="B11" s="416"/>
+      <c r="C11" s="415"/>
+      <c r="D11" s="415"/>
+      <c r="E11" s="415"/>
+      <c r="F11" s="307"/>
+      <c r="G11" s="307"/>
+      <c r="H11" s="308"/>
+      <c r="I11" s="308"/>
+      <c r="J11" s="309"/>
+      <c r="K11" s="308"/>
+      <c r="L11" s="310"/>
+      <c r="M11" s="310"/>
+      <c r="N11" s="311"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="395"/>
-      <c r="B12" s="398"/>
-      <c r="C12" s="395"/>
-      <c r="D12" s="395"/>
-      <c r="E12" s="395"/>
-      <c r="F12" s="320"/>
-      <c r="G12" s="320"/>
-      <c r="H12" s="321"/>
-      <c r="I12" s="321"/>
-      <c r="J12" s="322"/>
-      <c r="K12" s="321"/>
-      <c r="L12" s="324"/>
-      <c r="M12" s="324"/>
-      <c r="N12" s="325"/>
+      <c r="A12" s="412"/>
+      <c r="B12" s="414"/>
+      <c r="C12" s="412"/>
+      <c r="D12" s="412"/>
+      <c r="E12" s="412"/>
+      <c r="F12" s="319"/>
+      <c r="G12" s="319"/>
+      <c r="H12" s="320"/>
+      <c r="I12" s="320"/>
+      <c r="J12" s="321"/>
+      <c r="K12" s="320"/>
+      <c r="L12" s="323"/>
+      <c r="M12" s="323"/>
+      <c r="N12" s="324"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="342"/>
-      <c r="B13" s="343"/>
-      <c r="C13" s="342"/>
-      <c r="D13" s="342"/>
-      <c r="E13" s="342"/>
-      <c r="F13" s="344"/>
-      <c r="G13" s="344"/>
-      <c r="H13" s="345"/>
-      <c r="I13" s="345"/>
-      <c r="J13" s="346"/>
-      <c r="K13" s="345"/>
-      <c r="L13" s="347"/>
-      <c r="M13" s="347"/>
-      <c r="N13" s="348"/>
+      <c r="A13" s="341"/>
+      <c r="B13" s="342"/>
+      <c r="C13" s="341"/>
+      <c r="D13" s="341"/>
+      <c r="E13" s="341"/>
+      <c r="F13" s="343"/>
+      <c r="G13" s="343"/>
+      <c r="H13" s="344"/>
+      <c r="I13" s="344"/>
+      <c r="J13" s="345"/>
+      <c r="K13" s="344"/>
+      <c r="L13" s="346"/>
+      <c r="M13" s="346"/>
+      <c r="N13" s="347"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="342"/>
-      <c r="B14" s="343"/>
-      <c r="C14" s="342"/>
-      <c r="D14" s="342"/>
-      <c r="E14" s="342"/>
-      <c r="F14" s="344"/>
-      <c r="G14" s="344"/>
-      <c r="H14" s="345"/>
-      <c r="I14" s="345"/>
-      <c r="J14" s="346"/>
-      <c r="K14" s="345"/>
-      <c r="L14" s="347"/>
-      <c r="M14" s="347"/>
-      <c r="N14" s="348"/>
+      <c r="A14" s="341"/>
+      <c r="B14" s="342"/>
+      <c r="C14" s="341"/>
+      <c r="D14" s="341"/>
+      <c r="E14" s="341"/>
+      <c r="F14" s="343"/>
+      <c r="G14" s="343"/>
+      <c r="H14" s="344"/>
+      <c r="I14" s="344"/>
+      <c r="J14" s="345"/>
+      <c r="K14" s="344"/>
+      <c r="L14" s="346"/>
+      <c r="M14" s="346"/>
+      <c r="N14" s="347"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="342"/>
-      <c r="B15" s="343"/>
-      <c r="C15" s="342"/>
-      <c r="D15" s="342"/>
-      <c r="E15" s="342"/>
-      <c r="F15" s="344"/>
-      <c r="G15" s="344"/>
-      <c r="H15" s="345"/>
-      <c r="I15" s="345"/>
-      <c r="J15" s="346"/>
-      <c r="K15" s="345"/>
-      <c r="L15" s="347"/>
-      <c r="M15" s="347"/>
-      <c r="N15" s="348"/>
+      <c r="A15" s="341"/>
+      <c r="B15" s="342"/>
+      <c r="C15" s="341"/>
+      <c r="D15" s="341"/>
+      <c r="E15" s="341"/>
+      <c r="F15" s="343"/>
+      <c r="G15" s="343"/>
+      <c r="H15" s="344"/>
+      <c r="I15" s="344"/>
+      <c r="J15" s="345"/>
+      <c r="K15" s="344"/>
+      <c r="L15" s="346"/>
+      <c r="M15" s="346"/>
+      <c r="N15" s="347"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="393"/>
-      <c r="B16" s="396"/>
-      <c r="C16" s="393"/>
-      <c r="D16" s="393"/>
-      <c r="E16" s="393"/>
-      <c r="F16" s="303"/>
-      <c r="G16" s="303"/>
-      <c r="H16" s="304"/>
-      <c r="I16" s="304"/>
-      <c r="J16" s="305"/>
-      <c r="K16" s="304"/>
-      <c r="L16" s="306"/>
-      <c r="M16" s="306"/>
-      <c r="N16" s="307"/>
+      <c r="A16" s="411"/>
+      <c r="B16" s="413"/>
+      <c r="C16" s="411"/>
+      <c r="D16" s="411"/>
+      <c r="E16" s="411"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="303"/>
+      <c r="I16" s="303"/>
+      <c r="J16" s="304"/>
+      <c r="K16" s="303"/>
+      <c r="L16" s="305"/>
+      <c r="M16" s="305"/>
+      <c r="N16" s="306"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="395"/>
-      <c r="B17" s="398"/>
-      <c r="C17" s="395"/>
-      <c r="D17" s="395"/>
-      <c r="E17" s="395"/>
-      <c r="F17" s="320"/>
-      <c r="G17" s="320"/>
-      <c r="H17" s="321"/>
-      <c r="I17" s="321"/>
-      <c r="J17" s="322"/>
-      <c r="K17" s="321"/>
-      <c r="L17" s="324"/>
-      <c r="M17" s="324"/>
-      <c r="N17" s="325"/>
+      <c r="A17" s="412"/>
+      <c r="B17" s="414"/>
+      <c r="C17" s="412"/>
+      <c r="D17" s="412"/>
+      <c r="E17" s="412"/>
+      <c r="F17" s="319"/>
+      <c r="G17" s="319"/>
+      <c r="H17" s="320"/>
+      <c r="I17" s="320"/>
+      <c r="J17" s="321"/>
+      <c r="K17" s="320"/>
+      <c r="L17" s="323"/>
+      <c r="M17" s="323"/>
+      <c r="N17" s="324"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="393"/>
-      <c r="B18" s="396"/>
-      <c r="C18" s="393"/>
-      <c r="D18" s="393"/>
-      <c r="E18" s="393"/>
-      <c r="F18" s="303"/>
-      <c r="G18" s="303"/>
-      <c r="H18" s="304"/>
-      <c r="I18" s="304"/>
-      <c r="J18" s="305"/>
-      <c r="K18" s="304"/>
-      <c r="L18" s="306"/>
-      <c r="M18" s="306"/>
-      <c r="N18" s="307"/>
+      <c r="A18" s="411"/>
+      <c r="B18" s="413"/>
+      <c r="C18" s="411"/>
+      <c r="D18" s="411"/>
+      <c r="E18" s="411"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="303"/>
+      <c r="I18" s="303"/>
+      <c r="J18" s="304"/>
+      <c r="K18" s="303"/>
+      <c r="L18" s="305"/>
+      <c r="M18" s="305"/>
+      <c r="N18" s="306"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="395"/>
-      <c r="B19" s="398"/>
-      <c r="C19" s="395"/>
-      <c r="D19" s="395"/>
-      <c r="E19" s="395"/>
-      <c r="F19" s="320"/>
-      <c r="G19" s="320"/>
-      <c r="H19" s="321"/>
-      <c r="I19" s="321"/>
-      <c r="J19" s="322"/>
-      <c r="K19" s="321"/>
-      <c r="L19" s="324"/>
-      <c r="M19" s="324"/>
-      <c r="N19" s="325"/>
+      <c r="A19" s="412"/>
+      <c r="B19" s="414"/>
+      <c r="C19" s="412"/>
+      <c r="D19" s="412"/>
+      <c r="E19" s="412"/>
+      <c r="F19" s="319"/>
+      <c r="G19" s="319"/>
+      <c r="H19" s="320"/>
+      <c r="I19" s="320"/>
+      <c r="J19" s="321"/>
+      <c r="K19" s="320"/>
+      <c r="L19" s="323"/>
+      <c r="M19" s="323"/>
+      <c r="N19" s="324"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="342"/>
-      <c r="B20" s="343"/>
-      <c r="C20" s="342"/>
-      <c r="D20" s="342"/>
-      <c r="E20" s="342"/>
-      <c r="F20" s="344"/>
-      <c r="G20" s="344"/>
-      <c r="H20" s="345"/>
-      <c r="I20" s="345"/>
-      <c r="J20" s="346"/>
-      <c r="K20" s="345"/>
-      <c r="L20" s="347"/>
-      <c r="M20" s="347"/>
-      <c r="N20" s="348"/>
+      <c r="A20" s="341"/>
+      <c r="B20" s="342"/>
+      <c r="C20" s="341"/>
+      <c r="D20" s="341"/>
+      <c r="E20" s="341"/>
+      <c r="F20" s="343"/>
+      <c r="G20" s="343"/>
+      <c r="H20" s="344"/>
+      <c r="I20" s="344"/>
+      <c r="J20" s="345"/>
+      <c r="K20" s="344"/>
+      <c r="L20" s="346"/>
+      <c r="M20" s="346"/>
+      <c r="N20" s="347"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="342"/>
-      <c r="B21" s="343"/>
-      <c r="C21" s="342"/>
-      <c r="D21" s="342"/>
-      <c r="E21" s="342"/>
-      <c r="F21" s="344"/>
-      <c r="G21" s="344"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="346"/>
-      <c r="K21" s="345"/>
-      <c r="L21" s="347"/>
-      <c r="M21" s="347"/>
-      <c r="N21" s="348"/>
+      <c r="A21" s="341"/>
+      <c r="B21" s="342"/>
+      <c r="C21" s="341"/>
+      <c r="D21" s="341"/>
+      <c r="E21" s="341"/>
+      <c r="F21" s="343"/>
+      <c r="G21" s="343"/>
+      <c r="H21" s="344"/>
+      <c r="I21" s="344"/>
+      <c r="J21" s="345"/>
+      <c r="K21" s="344"/>
+      <c r="L21" s="346"/>
+      <c r="M21" s="346"/>
+      <c r="N21" s="347"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="342"/>
-      <c r="B22" s="343"/>
-      <c r="C22" s="342"/>
-      <c r="D22" s="342"/>
-      <c r="E22" s="342"/>
-      <c r="F22" s="344"/>
-      <c r="G22" s="344"/>
-      <c r="H22" s="345"/>
-      <c r="I22" s="345"/>
-      <c r="J22" s="346"/>
-      <c r="K22" s="349"/>
-      <c r="L22" s="347"/>
-      <c r="M22" s="347"/>
-      <c r="N22" s="348"/>
+      <c r="A22" s="341"/>
+      <c r="B22" s="342"/>
+      <c r="C22" s="341"/>
+      <c r="D22" s="341"/>
+      <c r="E22" s="341"/>
+      <c r="F22" s="343"/>
+      <c r="G22" s="343"/>
+      <c r="H22" s="344"/>
+      <c r="I22" s="344"/>
+      <c r="J22" s="345"/>
+      <c r="K22" s="348"/>
+      <c r="L22" s="346"/>
+      <c r="M22" s="346"/>
+      <c r="N22" s="347"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="342"/>
-      <c r="B23" s="343"/>
-      <c r="C23" s="342"/>
-      <c r="D23" s="342"/>
-      <c r="E23" s="342"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="344"/>
-      <c r="H23" s="345"/>
-      <c r="I23" s="345"/>
-      <c r="J23" s="346"/>
-      <c r="K23" s="349"/>
-      <c r="L23" s="347"/>
-      <c r="M23" s="347"/>
-      <c r="N23" s="348"/>
+      <c r="A23" s="341"/>
+      <c r="B23" s="342"/>
+      <c r="C23" s="341"/>
+      <c r="D23" s="341"/>
+      <c r="E23" s="341"/>
+      <c r="F23" s="343"/>
+      <c r="G23" s="343"/>
+      <c r="H23" s="344"/>
+      <c r="I23" s="344"/>
+      <c r="J23" s="345"/>
+      <c r="K23" s="348"/>
+      <c r="L23" s="346"/>
+      <c r="M23" s="346"/>
+      <c r="N23" s="347"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="393"/>
-      <c r="B24" s="396"/>
-      <c r="C24" s="393"/>
-      <c r="D24" s="393"/>
-      <c r="E24" s="393"/>
-      <c r="F24" s="303"/>
-      <c r="G24" s="303"/>
-      <c r="H24" s="304"/>
-      <c r="I24" s="304"/>
-      <c r="J24" s="305"/>
-      <c r="K24" s="356"/>
-      <c r="L24" s="306"/>
-      <c r="M24" s="306"/>
-      <c r="N24" s="307"/>
+      <c r="A24" s="411"/>
+      <c r="B24" s="413"/>
+      <c r="C24" s="411"/>
+      <c r="D24" s="411"/>
+      <c r="E24" s="411"/>
+      <c r="F24" s="302"/>
+      <c r="G24" s="302"/>
+      <c r="H24" s="303"/>
+      <c r="I24" s="303"/>
+      <c r="J24" s="304"/>
+      <c r="K24" s="355"/>
+      <c r="L24" s="305"/>
+      <c r="M24" s="305"/>
+      <c r="N24" s="306"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="394"/>
-      <c r="B25" s="397"/>
-      <c r="C25" s="394"/>
-      <c r="D25" s="394"/>
-      <c r="E25" s="394"/>
-      <c r="F25" s="308"/>
-      <c r="G25" s="308"/>
-      <c r="H25" s="309"/>
-      <c r="I25" s="309"/>
-      <c r="J25" s="310"/>
-      <c r="K25" s="313"/>
-      <c r="L25" s="311"/>
-      <c r="M25" s="311"/>
-      <c r="N25" s="312"/>
+      <c r="A25" s="415"/>
+      <c r="B25" s="416"/>
+      <c r="C25" s="415"/>
+      <c r="D25" s="415"/>
+      <c r="E25" s="415"/>
+      <c r="F25" s="307"/>
+      <c r="G25" s="307"/>
+      <c r="H25" s="308"/>
+      <c r="I25" s="308"/>
+      <c r="J25" s="309"/>
+      <c r="K25" s="312"/>
+      <c r="L25" s="310"/>
+      <c r="M25" s="310"/>
+      <c r="N25" s="311"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="394"/>
-      <c r="B26" s="397"/>
-      <c r="C26" s="394"/>
-      <c r="D26" s="394"/>
-      <c r="E26" s="394"/>
-      <c r="F26" s="308"/>
-      <c r="G26" s="308"/>
-      <c r="H26" s="309"/>
-      <c r="I26" s="309"/>
-      <c r="J26" s="310"/>
-      <c r="K26" s="313"/>
-      <c r="L26" s="311"/>
-      <c r="M26" s="311"/>
-      <c r="N26" s="312"/>
+      <c r="A26" s="415"/>
+      <c r="B26" s="416"/>
+      <c r="C26" s="415"/>
+      <c r="D26" s="415"/>
+      <c r="E26" s="415"/>
+      <c r="F26" s="307"/>
+      <c r="G26" s="307"/>
+      <c r="H26" s="308"/>
+      <c r="I26" s="308"/>
+      <c r="J26" s="309"/>
+      <c r="K26" s="312"/>
+      <c r="L26" s="310"/>
+      <c r="M26" s="310"/>
+      <c r="N26" s="311"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="394"/>
-      <c r="B27" s="397"/>
-      <c r="C27" s="394"/>
-      <c r="D27" s="394"/>
-      <c r="E27" s="394"/>
-      <c r="F27" s="308"/>
-      <c r="G27" s="308"/>
-      <c r="H27" s="309"/>
-      <c r="I27" s="309"/>
-      <c r="J27" s="310"/>
-      <c r="K27" s="313"/>
-      <c r="L27" s="311"/>
-      <c r="M27" s="311"/>
-      <c r="N27" s="312"/>
+      <c r="A27" s="415"/>
+      <c r="B27" s="416"/>
+      <c r="C27" s="415"/>
+      <c r="D27" s="415"/>
+      <c r="E27" s="415"/>
+      <c r="F27" s="307"/>
+      <c r="G27" s="307"/>
+      <c r="H27" s="308"/>
+      <c r="I27" s="308"/>
+      <c r="J27" s="309"/>
+      <c r="K27" s="312"/>
+      <c r="L27" s="310"/>
+      <c r="M27" s="310"/>
+      <c r="N27" s="311"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="394"/>
-      <c r="B28" s="397"/>
-      <c r="C28" s="394"/>
-      <c r="D28" s="394"/>
-      <c r="E28" s="394"/>
-      <c r="F28" s="308"/>
-      <c r="G28" s="308"/>
-      <c r="H28" s="309"/>
-      <c r="I28" s="309"/>
-      <c r="J28" s="310"/>
-      <c r="K28" s="313"/>
-      <c r="L28" s="311"/>
-      <c r="M28" s="311"/>
-      <c r="N28" s="312"/>
+      <c r="A28" s="415"/>
+      <c r="B28" s="416"/>
+      <c r="C28" s="415"/>
+      <c r="D28" s="415"/>
+      <c r="E28" s="415"/>
+      <c r="F28" s="307"/>
+      <c r="G28" s="307"/>
+      <c r="H28" s="308"/>
+      <c r="I28" s="308"/>
+      <c r="J28" s="309"/>
+      <c r="K28" s="312"/>
+      <c r="L28" s="310"/>
+      <c r="M28" s="310"/>
+      <c r="N28" s="311"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="394"/>
-      <c r="B29" s="397"/>
-      <c r="C29" s="394"/>
-      <c r="D29" s="394"/>
-      <c r="E29" s="394"/>
-      <c r="F29" s="308"/>
-      <c r="G29" s="308"/>
-      <c r="H29" s="309"/>
-      <c r="I29" s="309"/>
-      <c r="J29" s="310"/>
-      <c r="K29" s="313"/>
-      <c r="L29" s="311"/>
-      <c r="M29" s="311"/>
-      <c r="N29" s="312"/>
+      <c r="A29" s="415"/>
+      <c r="B29" s="416"/>
+      <c r="C29" s="415"/>
+      <c r="D29" s="415"/>
+      <c r="E29" s="415"/>
+      <c r="F29" s="307"/>
+      <c r="G29" s="307"/>
+      <c r="H29" s="308"/>
+      <c r="I29" s="308"/>
+      <c r="J29" s="309"/>
+      <c r="K29" s="312"/>
+      <c r="L29" s="310"/>
+      <c r="M29" s="310"/>
+      <c r="N29" s="311"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="395"/>
-      <c r="B30" s="398"/>
-      <c r="C30" s="395"/>
-      <c r="D30" s="395"/>
-      <c r="E30" s="395"/>
-      <c r="F30" s="320"/>
-      <c r="G30" s="320"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="321"/>
-      <c r="J30" s="322"/>
-      <c r="K30" s="323"/>
-      <c r="L30" s="324"/>
-      <c r="M30" s="324"/>
-      <c r="N30" s="325"/>
+      <c r="A30" s="412"/>
+      <c r="B30" s="414"/>
+      <c r="C30" s="412"/>
+      <c r="D30" s="412"/>
+      <c r="E30" s="412"/>
+      <c r="F30" s="319"/>
+      <c r="G30" s="319"/>
+      <c r="H30" s="320"/>
+      <c r="I30" s="320"/>
+      <c r="J30" s="321"/>
+      <c r="K30" s="322"/>
+      <c r="L30" s="323"/>
+      <c r="M30" s="323"/>
+      <c r="N30" s="324"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="389"/>
-      <c r="B31" s="391"/>
-      <c r="C31" s="389"/>
-      <c r="D31" s="389"/>
-      <c r="E31" s="389"/>
-      <c r="F31" s="350"/>
-      <c r="G31" s="350"/>
-      <c r="H31" s="351"/>
-      <c r="I31" s="351"/>
-      <c r="J31" s="352"/>
-      <c r="K31" s="355"/>
-      <c r="L31" s="353"/>
-      <c r="M31" s="353"/>
-      <c r="N31" s="354"/>
+      <c r="A31" s="417"/>
+      <c r="B31" s="419"/>
+      <c r="C31" s="417"/>
+      <c r="D31" s="417"/>
+      <c r="E31" s="417"/>
+      <c r="F31" s="349"/>
+      <c r="G31" s="349"/>
+      <c r="H31" s="350"/>
+      <c r="I31" s="350"/>
+      <c r="J31" s="351"/>
+      <c r="K31" s="354"/>
+      <c r="L31" s="352"/>
+      <c r="M31" s="352"/>
+      <c r="N31" s="353"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="389"/>
-      <c r="B32" s="391"/>
-      <c r="C32" s="389"/>
-      <c r="D32" s="389"/>
-      <c r="E32" s="389"/>
-      <c r="F32" s="314"/>
-      <c r="G32" s="314"/>
-      <c r="H32" s="315"/>
-      <c r="I32" s="315"/>
-      <c r="J32" s="316"/>
-      <c r="K32" s="317"/>
-      <c r="L32" s="318"/>
-      <c r="M32" s="318"/>
-      <c r="N32" s="319"/>
+      <c r="A32" s="417"/>
+      <c r="B32" s="419"/>
+      <c r="C32" s="417"/>
+      <c r="D32" s="417"/>
+      <c r="E32" s="417"/>
+      <c r="F32" s="313"/>
+      <c r="G32" s="313"/>
+      <c r="H32" s="314"/>
+      <c r="I32" s="314"/>
+      <c r="J32" s="315"/>
+      <c r="K32" s="316"/>
+      <c r="L32" s="317"/>
+      <c r="M32" s="317"/>
+      <c r="N32" s="318"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="389"/>
-      <c r="B33" s="391"/>
-      <c r="C33" s="389"/>
-      <c r="D33" s="389"/>
-      <c r="E33" s="389"/>
-      <c r="F33" s="314"/>
-      <c r="G33" s="314"/>
-      <c r="H33" s="315"/>
-      <c r="I33" s="315"/>
-      <c r="J33" s="316"/>
-      <c r="K33" s="317"/>
-      <c r="L33" s="318"/>
-      <c r="M33" s="318"/>
-      <c r="N33" s="319"/>
+      <c r="A33" s="417"/>
+      <c r="B33" s="419"/>
+      <c r="C33" s="417"/>
+      <c r="D33" s="417"/>
+      <c r="E33" s="417"/>
+      <c r="F33" s="313"/>
+      <c r="G33" s="313"/>
+      <c r="H33" s="314"/>
+      <c r="I33" s="314"/>
+      <c r="J33" s="315"/>
+      <c r="K33" s="316"/>
+      <c r="L33" s="317"/>
+      <c r="M33" s="317"/>
+      <c r="N33" s="318"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="390"/>
-      <c r="B34" s="392"/>
-      <c r="C34" s="390"/>
-      <c r="D34" s="390"/>
-      <c r="E34" s="390"/>
-      <c r="F34" s="320"/>
-      <c r="G34" s="320"/>
-      <c r="H34" s="321"/>
-      <c r="I34" s="321"/>
-      <c r="J34" s="322"/>
-      <c r="K34" s="323"/>
-      <c r="L34" s="324"/>
-      <c r="M34" s="324"/>
-      <c r="N34" s="325"/>
-    </row>
-    <row r="35" spans="1:14" s="332" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="399" t="s">
+      <c r="A34" s="418"/>
+      <c r="B34" s="420"/>
+      <c r="C34" s="418"/>
+      <c r="D34" s="418"/>
+      <c r="E34" s="418"/>
+      <c r="F34" s="319"/>
+      <c r="G34" s="319"/>
+      <c r="H34" s="320"/>
+      <c r="I34" s="320"/>
+      <c r="J34" s="321"/>
+      <c r="K34" s="322"/>
+      <c r="L34" s="323"/>
+      <c r="M34" s="323"/>
+      <c r="N34" s="324"/>
+    </row>
+    <row r="35" spans="1:14" s="331" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="401" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="399"/>
-      <c r="C35" s="399"/>
-      <c r="D35" s="399"/>
-      <c r="E35" s="399"/>
-      <c r="F35" s="326"/>
-      <c r="G35" s="326">
+      <c r="B35" s="401"/>
+      <c r="C35" s="401"/>
+      <c r="D35" s="401"/>
+      <c r="E35" s="401"/>
+      <c r="F35" s="325"/>
+      <c r="G35" s="325">
         <f>SUM(G7:G34)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="327"/>
-      <c r="I35" s="327">
+      <c r="H35" s="326"/>
+      <c r="I35" s="326">
         <f>SUM(I7:I34)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="328"/>
-      <c r="K35" s="329">
+      <c r="J35" s="327"/>
+      <c r="K35" s="328">
         <f>SUM(K7:K34)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="330"/>
-      <c r="M35" s="330"/>
-      <c r="N35" s="331">
+      <c r="L35" s="329"/>
+      <c r="M35" s="329"/>
+      <c r="N35" s="330">
         <f>SUM(N7:N34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="333"/>
-      <c r="H36" s="333"/>
+      <c r="G36" s="332"/>
+      <c r="H36" s="332"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G37" s="333"/>
-      <c r="H37" s="333"/>
-    </row>
-    <row r="38" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="335"/>
-      <c r="E38" s="336" t="s">
+      <c r="G37" s="332"/>
+      <c r="H37" s="332"/>
+    </row>
+    <row r="38" spans="1:14" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="334"/>
+      <c r="E38" s="335" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="335"/>
-      <c r="G38" s="335"/>
-      <c r="H38" s="335"/>
-      <c r="K38" s="336"/>
-      <c r="L38" s="336" t="s">
+      <c r="F38" s="334"/>
+      <c r="G38" s="334"/>
+      <c r="H38" s="334"/>
+      <c r="K38" s="335"/>
+      <c r="L38" s="335" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="334" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="337"/>
-      <c r="E39" s="338" t="s">
+    <row r="39" spans="1:14" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="336"/>
+      <c r="E39" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="337"/>
-      <c r="G39" s="337"/>
-      <c r="H39" s="337"/>
-      <c r="K39" s="338"/>
-      <c r="L39" s="338" t="s">
+      <c r="F39" s="336"/>
+      <c r="G39" s="336"/>
+      <c r="H39" s="336"/>
+      <c r="K39" s="337"/>
+      <c r="L39" s="337" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G40" s="333"/>
-      <c r="H40" s="333"/>
+      <c r="G40" s="332"/>
+      <c r="H40" s="332"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G41" s="333"/>
-      <c r="H41" s="333"/>
-    </row>
-    <row r="42" spans="1:14" s="339" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="336"/>
-      <c r="E42" s="336"/>
-      <c r="F42" s="340"/>
-      <c r="K42" s="341"/>
-      <c r="L42" s="293"/>
-      <c r="M42" s="293"/>
-      <c r="N42" s="293"/>
+      <c r="G41" s="332"/>
+      <c r="H41" s="332"/>
+    </row>
+    <row r="42" spans="1:14" s="338" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="335"/>
+      <c r="E42" s="335"/>
+      <c r="F42" s="339"/>
+      <c r="K42" s="340"/>
+      <c r="L42" s="292"/>
+      <c r="M42" s="292"/>
+      <c r="N42" s="292"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G43" s="333"/>
-      <c r="H43" s="333"/>
+      <c r="G43" s="332"/>
+      <c r="H43" s="332"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
+      <c r="G44" s="332"/>
+      <c r="H44" s="332"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
+      <c r="G45" s="332"/>
+      <c r="H45" s="332"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -6146,30 +6242,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6230,24 +6302,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="409" t="s">
+      <c r="A4" s="421" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="409"/>
-      <c r="C4" s="409"/>
-      <c r="D4" s="409"/>
-      <c r="E4" s="409"/>
+      <c r="B4" s="421"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="421"/>
+      <c r="E4" s="421"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="410" t="s">
+      <c r="A5" s="422" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="410"/>
-      <c r="C5" s="410"/>
-      <c r="D5" s="410"/>
-      <c r="E5" s="410"/>
+      <c r="B5" s="422"/>
+      <c r="C5" s="422"/>
+      <c r="D5" s="422"/>
+      <c r="E5" s="422"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -6326,7 +6398,7 @@
         <f>'DOANH THU'!L80</f>
         <v>0</v>
       </c>
-      <c r="E10" s="411">
+      <c r="E10" s="423">
         <f>D10+D11+D12</f>
         <v>0</v>
       </c>
@@ -6345,7 +6417,7 @@
         <f>'DOANH THU'!L81</f>
         <v>0</v>
       </c>
-      <c r="E11" s="412"/>
+      <c r="E11" s="424"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -6356,7 +6428,7 @@
       <c r="B12" s="119"/>
       <c r="C12" s="119"/>
       <c r="D12" s="142"/>
-      <c r="E12" s="413"/>
+      <c r="E12" s="425"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
@@ -6611,8 +6683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6631,13 +6703,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="414" t="s">
+      <c r="A1" s="441" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
-      <c r="D1" s="414"/>
-      <c r="E1" s="414"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -6657,301 +6729,301 @@
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="415" t="s">
+      <c r="A4" s="442" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="415"/>
-      <c r="C4" s="415"/>
-      <c r="D4" s="415"/>
-      <c r="E4" s="415"/>
-      <c r="F4" s="415"/>
-      <c r="G4" s="415"/>
-      <c r="H4" s="415"/>
+      <c r="B4" s="442"/>
+      <c r="C4" s="442"/>
+      <c r="D4" s="442"/>
+      <c r="E4" s="442"/>
+      <c r="F4" s="442"/>
+      <c r="G4" s="442"/>
+      <c r="H4" s="442"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="416" t="s">
+      <c r="A6" s="443" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="416"/>
-      <c r="C6" s="416"/>
-      <c r="D6" s="416"/>
-      <c r="E6" s="416"/>
-      <c r="F6" s="416"/>
-      <c r="G6" s="417" t="s">
+      <c r="B6" s="444"/>
+      <c r="C6" s="444"/>
+      <c r="D6" s="444"/>
+      <c r="E6" s="444"/>
+      <c r="F6" s="445"/>
+      <c r="G6" s="446" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="417"/>
+      <c r="H6" s="447"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="430" t="s">
+      <c r="A7" s="463" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="431"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="271"/>
-      <c r="E7" s="65" t="s">
+      <c r="B7" s="464"/>
+      <c r="C7" s="363"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="362" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="428">
+      <c r="F7" s="362"/>
+      <c r="G7" s="432">
         <v>4744538</v>
       </c>
-      <c r="H7" s="429"/>
+      <c r="H7" s="433"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="432"/>
-      <c r="B8" s="433"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="271"/>
-      <c r="E8" s="65" t="s">
+      <c r="A8" s="465"/>
+      <c r="B8" s="466"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="270"/>
+      <c r="E8" s="362" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="428">
+      <c r="F8" s="362"/>
+      <c r="G8" s="432">
         <v>6713000</v>
       </c>
-      <c r="H8" s="429"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="418" t="s">
+      <c r="H8" s="433"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="448" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="419"/>
-      <c r="C9" s="419"/>
-      <c r="D9" s="420"/>
+      <c r="B9" s="449"/>
+      <c r="C9" s="449"/>
+      <c r="D9" s="450"/>
       <c r="E9" s="262" t="s">
         <v>144</v>
       </c>
       <c r="F9" s="263">
         <v>260000</v>
       </c>
-      <c r="G9" s="424">
+      <c r="G9" s="457">
         <f>SUM(F9:F13)</f>
         <v>3477000</v>
       </c>
-      <c r="H9" s="425"/>
+      <c r="H9" s="458"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="421"/>
-      <c r="B10" s="422"/>
-      <c r="C10" s="422"/>
-      <c r="D10" s="423"/>
+      <c r="A10" s="451"/>
+      <c r="B10" s="452"/>
+      <c r="C10" s="452"/>
+      <c r="D10" s="453"/>
       <c r="E10" s="262" t="s">
         <v>145</v>
       </c>
       <c r="F10" s="263">
         <v>877000</v>
       </c>
-      <c r="G10" s="426"/>
-      <c r="H10" s="427"/>
+      <c r="G10" s="459"/>
+      <c r="H10" s="460"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="421"/>
-      <c r="B11" s="422"/>
-      <c r="C11" s="422"/>
-      <c r="D11" s="423"/>
+      <c r="A11" s="451"/>
+      <c r="B11" s="452"/>
+      <c r="C11" s="452"/>
+      <c r="D11" s="453"/>
       <c r="E11" s="262" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="263">
         <v>441000</v>
       </c>
-      <c r="G11" s="426"/>
-      <c r="H11" s="427"/>
+      <c r="G11" s="459"/>
+      <c r="H11" s="460"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="421"/>
-      <c r="B12" s="422"/>
-      <c r="C12" s="422"/>
-      <c r="D12" s="423"/>
+      <c r="A12" s="451"/>
+      <c r="B12" s="452"/>
+      <c r="C12" s="452"/>
+      <c r="D12" s="453"/>
       <c r="E12" s="262" t="s">
         <v>139</v>
       </c>
       <c r="F12" s="263">
         <v>892000</v>
       </c>
-      <c r="G12" s="426"/>
-      <c r="H12" s="427"/>
+      <c r="G12" s="459"/>
+      <c r="H12" s="460"/>
     </row>
     <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="421"/>
-      <c r="B13" s="422"/>
-      <c r="C13" s="422"/>
-      <c r="D13" s="423"/>
-      <c r="E13" s="272" t="s">
+      <c r="A13" s="454"/>
+      <c r="B13" s="455"/>
+      <c r="C13" s="455"/>
+      <c r="D13" s="456"/>
+      <c r="E13" s="271" t="s">
         <v>146</v>
       </c>
       <c r="F13" s="263">
         <v>1007000</v>
       </c>
-      <c r="G13" s="426"/>
-      <c r="H13" s="427"/>
+      <c r="G13" s="461"/>
+      <c r="H13" s="462"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="437" t="s">
+      <c r="A14" s="429" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="437"/>
-      <c r="C14" s="437"/>
-      <c r="D14" s="437"/>
-      <c r="E14" s="437"/>
-      <c r="F14" s="437"/>
-      <c r="G14" s="438">
+      <c r="B14" s="430"/>
+      <c r="C14" s="430"/>
+      <c r="D14" s="430"/>
+      <c r="E14" s="430"/>
+      <c r="F14" s="431"/>
+      <c r="G14" s="432">
         <f>'Bảng lương'!J12</f>
         <v>6230769.230769231</v>
       </c>
-      <c r="H14" s="438"/>
+      <c r="H14" s="433"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="439" t="s">
+      <c r="A15" s="434" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="439"/>
-      <c r="C15" s="439"/>
-      <c r="D15" s="439"/>
-      <c r="E15" s="439"/>
-      <c r="F15" s="439"/>
-      <c r="G15" s="440">
+      <c r="B15" s="435"/>
+      <c r="C15" s="435"/>
+      <c r="D15" s="435"/>
+      <c r="E15" s="435"/>
+      <c r="F15" s="436"/>
+      <c r="G15" s="437">
         <f>G7+G8+G9+G14</f>
         <v>21165307.230769232</v>
       </c>
-      <c r="H15" s="440"/>
+      <c r="H15" s="438"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="280" t="s">
+      <c r="A17" s="279" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="273"/>
-      <c r="C17" s="273"/>
-      <c r="D17" s="273"/>
-      <c r="E17" s="273"/>
+      <c r="B17" s="272"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="272"/>
+      <c r="E17" s="272"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="441">
+      <c r="A18" s="439">
         <v>44106</v>
       </c>
-      <c r="B18" s="441"/>
-      <c r="C18" s="274"/>
-      <c r="D18" s="274"/>
-      <c r="E18" s="274" t="s">
+      <c r="B18" s="440"/>
+      <c r="C18" s="273"/>
+      <c r="D18" s="273"/>
+      <c r="E18" s="273" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="275">
+      <c r="F18" s="274">
         <v>455000</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="441">
+      <c r="A19" s="439">
         <v>44116</v>
       </c>
-      <c r="B19" s="441"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="274"/>
-      <c r="E19" s="274" t="s">
+      <c r="B19" s="440"/>
+      <c r="C19" s="273"/>
+      <c r="D19" s="273"/>
+      <c r="E19" s="273" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="275">
+      <c r="F19" s="274">
         <v>2000000</v>
       </c>
-      <c r="K19" s="279"/>
+      <c r="K19" s="278"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="441">
+      <c r="A20" s="439">
         <v>44120</v>
       </c>
-      <c r="B20" s="441"/>
-      <c r="C20" s="274"/>
-      <c r="D20" s="274"/>
-      <c r="E20" s="274" t="s">
+      <c r="B20" s="440"/>
+      <c r="C20" s="273"/>
+      <c r="D20" s="273"/>
+      <c r="E20" s="273" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="275">
+      <c r="F20" s="274">
         <v>2000000</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="441">
+      <c r="A21" s="439">
         <v>44128</v>
       </c>
-      <c r="B21" s="441"/>
-      <c r="C21" s="274"/>
-      <c r="D21" s="274"/>
-      <c r="E21" s="274" t="s">
+      <c r="B21" s="440"/>
+      <c r="C21" s="273"/>
+      <c r="D21" s="273"/>
+      <c r="E21" s="273" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="275">
+      <c r="F21" s="274">
         <v>2200000</v>
       </c>
-      <c r="K21" s="279"/>
+      <c r="K21" s="278"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="441">
+      <c r="A22" s="439">
         <v>44129</v>
       </c>
-      <c r="B22" s="441"/>
-      <c r="C22" s="274"/>
-      <c r="D22" s="274"/>
-      <c r="E22" s="274" t="s">
+      <c r="B22" s="440"/>
+      <c r="C22" s="273"/>
+      <c r="D22" s="273"/>
+      <c r="E22" s="273" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="275">
+      <c r="F22" s="274">
         <v>418900</v>
       </c>
-      <c r="K22" s="279"/>
+      <c r="K22" s="278"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="441">
+      <c r="A23" s="439">
         <v>44131</v>
       </c>
-      <c r="B23" s="441"/>
-      <c r="C23" s="274"/>
-      <c r="D23" s="274"/>
-      <c r="E23" s="288" t="s">
+      <c r="B23" s="440"/>
+      <c r="C23" s="273"/>
+      <c r="D23" s="273"/>
+      <c r="E23" s="287" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="275">
+      <c r="F23" s="274">
         <v>435000</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="434" t="s">
+      <c r="A24" s="426" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="435"/>
-      <c r="C24" s="435"/>
-      <c r="D24" s="435"/>
-      <c r="E24" s="436"/>
-      <c r="F24" s="281">
+      <c r="B24" s="427"/>
+      <c r="C24" s="427"/>
+      <c r="D24" s="427"/>
+      <c r="E24" s="428"/>
+      <c r="F24" s="280">
         <f>SUM(F18:F23)</f>
         <v>7508900</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="276"/>
-      <c r="B25" s="276"/>
-      <c r="C25" s="277"/>
-      <c r="D25" s="277"/>
-      <c r="E25" s="278"/>
+      <c r="A25" s="275"/>
+      <c r="B25" s="275"/>
+      <c r="C25" s="276"/>
+      <c r="D25" s="276"/>
+      <c r="E25" s="277"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="283" t="s">
+      <c r="A26" s="282" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="284"/>
-      <c r="C26" s="285"/>
-      <c r="D26" s="285"/>
-      <c r="E26" s="286"/>
-      <c r="F26" s="282">
+      <c r="B26" s="283"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="284"/>
+      <c r="E26" s="285"/>
+      <c r="F26" s="281">
         <f>G15-F24</f>
         <v>13656407.230769232</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="276"/>
-      <c r="B27" s="276"/>
-      <c r="C27" s="277"/>
-      <c r="D27" s="277"/>
-      <c r="E27" s="278"/>
+      <c r="A27" s="275"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="276"/>
+      <c r="D27" s="276"/>
+      <c r="E27" s="277"/>
     </row>
     <row r="29" spans="1:11" s="265" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="264" t="s">
@@ -6984,39 +7056,48 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="274" t="s">
+      <c r="E32" s="273" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="275">
+      <c r="F32" s="274">
         <v>3000000</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="274" t="s">
+      <c r="E33" s="273" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="275">
+      <c r="F33" s="274">
         <v>5000000</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="274" t="s">
+      <c r="E34" s="273" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="275">
+      <c r="F34" s="274">
         <f>23*2000*5</f>
         <v>230000</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="274"/>
-      <c r="F35" s="287">
+      <c r="E35" s="273"/>
+      <c r="F35" s="286">
         <f>SUM(F32:F34)</f>
         <v>8230000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A9:D13"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A7:B8"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -7028,15 +7109,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A9:D13"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7047,7 +7119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
@@ -7577,16 +7649,16 @@
       <c r="C1" s="220"/>
       <c r="D1" s="220"/>
       <c r="E1" s="220"/>
-      <c r="Z1" s="460" t="s">
+      <c r="Z1" s="472" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="461"/>
-      <c r="AB1" s="461"/>
-      <c r="AC1" s="461"/>
-      <c r="AD1" s="461"/>
-      <c r="AE1" s="461"/>
-      <c r="AF1" s="461"/>
-      <c r="AG1" s="462"/>
+      <c r="AA1" s="473"/>
+      <c r="AB1" s="473"/>
+      <c r="AC1" s="473"/>
+      <c r="AD1" s="473"/>
+      <c r="AE1" s="473"/>
+      <c r="AF1" s="473"/>
+      <c r="AG1" s="474"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="223" t="s">
@@ -7596,18 +7668,18 @@
       <c r="C2" s="224"/>
       <c r="D2" s="224"/>
       <c r="E2" s="224"/>
-      <c r="Z2" s="443" t="s">
+      <c r="Z2" s="467" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" s="444"/>
-      <c r="AB2" s="444"/>
-      <c r="AC2" s="444"/>
-      <c r="AD2" s="444"/>
-      <c r="AE2" s="445"/>
-      <c r="AF2" s="446" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG2" s="447"/>
+      <c r="AA2" s="468"/>
+      <c r="AB2" s="468"/>
+      <c r="AC2" s="468"/>
+      <c r="AD2" s="468"/>
+      <c r="AE2" s="469"/>
+      <c r="AF2" s="470" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG2" s="471"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="223" t="s">
@@ -7617,18 +7689,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="443" t="s">
+      <c r="Z3" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="AA3" s="444"/>
-      <c r="AB3" s="444"/>
-      <c r="AC3" s="444"/>
-      <c r="AD3" s="444"/>
-      <c r="AE3" s="445"/>
-      <c r="AF3" s="446" t="s">
+      <c r="AA3" s="468"/>
+      <c r="AB3" s="468"/>
+      <c r="AC3" s="468"/>
+      <c r="AD3" s="468"/>
+      <c r="AE3" s="469"/>
+      <c r="AF3" s="470" t="s">
         <v>113</v>
       </c>
-      <c r="AG3" s="447"/>
+      <c r="AG3" s="471"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="223" t="s">
@@ -7641,18 +7713,18 @@
       <c r="T4" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="443" t="s">
+      <c r="Z4" s="467" t="s">
         <v>115</v>
       </c>
-      <c r="AA4" s="444"/>
-      <c r="AB4" s="444"/>
-      <c r="AC4" s="444"/>
-      <c r="AD4" s="444"/>
-      <c r="AE4" s="445"/>
-      <c r="AF4" s="446" t="s">
+      <c r="AA4" s="468"/>
+      <c r="AB4" s="468"/>
+      <c r="AC4" s="468"/>
+      <c r="AD4" s="468"/>
+      <c r="AE4" s="469"/>
+      <c r="AF4" s="470" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="447"/>
+      <c r="AG4" s="471"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="223" t="s">
@@ -7662,18 +7734,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="443" t="s">
+      <c r="Z5" s="467" t="s">
         <v>118</v>
       </c>
-      <c r="AA5" s="444"/>
-      <c r="AB5" s="444"/>
-      <c r="AC5" s="444"/>
-      <c r="AD5" s="444"/>
-      <c r="AE5" s="445"/>
-      <c r="AF5" s="446" t="s">
+      <c r="AA5" s="468"/>
+      <c r="AB5" s="468"/>
+      <c r="AC5" s="468"/>
+      <c r="AD5" s="468"/>
+      <c r="AE5" s="469"/>
+      <c r="AF5" s="470" t="s">
         <v>119</v>
       </c>
-      <c r="AG5" s="447"/>
+      <c r="AG5" s="471"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="225"/>
@@ -7683,93 +7755,93 @@
       <c r="E6" s="225"/>
     </row>
     <row r="7" spans="1:40" s="228" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="448" t="s">
+      <c r="A7" s="476" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="448"/>
-      <c r="C7" s="448"/>
-      <c r="D7" s="448"/>
-      <c r="E7" s="448"/>
-      <c r="F7" s="448"/>
-      <c r="G7" s="448"/>
-      <c r="H7" s="448"/>
-      <c r="I7" s="448"/>
-      <c r="J7" s="448"/>
-      <c r="K7" s="448"/>
-      <c r="L7" s="448"/>
-      <c r="M7" s="448"/>
-      <c r="N7" s="448"/>
-      <c r="O7" s="448"/>
-      <c r="P7" s="448"/>
-      <c r="Q7" s="448"/>
-      <c r="R7" s="448"/>
-      <c r="S7" s="448"/>
-      <c r="T7" s="448"/>
-      <c r="U7" s="448"/>
-      <c r="V7" s="448"/>
-      <c r="W7" s="448"/>
-      <c r="X7" s="448"/>
-      <c r="Y7" s="448"/>
-      <c r="Z7" s="448"/>
-      <c r="AA7" s="448"/>
-      <c r="AB7" s="448"/>
-      <c r="AC7" s="448"/>
-      <c r="AD7" s="448"/>
-      <c r="AE7" s="448"/>
-      <c r="AF7" s="448"/>
-      <c r="AG7" s="448"/>
-      <c r="AH7" s="448"/>
-      <c r="AI7" s="448"/>
-      <c r="AJ7" s="448"/>
-      <c r="AK7" s="448"/>
-      <c r="AL7" s="448"/>
-      <c r="AM7" s="448"/>
+      <c r="B7" s="476"/>
+      <c r="C7" s="476"/>
+      <c r="D7" s="476"/>
+      <c r="E7" s="476"/>
+      <c r="F7" s="476"/>
+      <c r="G7" s="476"/>
+      <c r="H7" s="476"/>
+      <c r="I7" s="476"/>
+      <c r="J7" s="476"/>
+      <c r="K7" s="476"/>
+      <c r="L7" s="476"/>
+      <c r="M7" s="476"/>
+      <c r="N7" s="476"/>
+      <c r="O7" s="476"/>
+      <c r="P7" s="476"/>
+      <c r="Q7" s="476"/>
+      <c r="R7" s="476"/>
+      <c r="S7" s="476"/>
+      <c r="T7" s="476"/>
+      <c r="U7" s="476"/>
+      <c r="V7" s="476"/>
+      <c r="W7" s="476"/>
+      <c r="X7" s="476"/>
+      <c r="Y7" s="476"/>
+      <c r="Z7" s="476"/>
+      <c r="AA7" s="476"/>
+      <c r="AB7" s="476"/>
+      <c r="AC7" s="476"/>
+      <c r="AD7" s="476"/>
+      <c r="AE7" s="476"/>
+      <c r="AF7" s="476"/>
+      <c r="AG7" s="476"/>
+      <c r="AH7" s="476"/>
+      <c r="AI7" s="476"/>
+      <c r="AJ7" s="476"/>
+      <c r="AK7" s="476"/>
+      <c r="AL7" s="476"/>
+      <c r="AM7" s="476"/>
       <c r="AN7" s="227"/>
     </row>
     <row r="9" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="449" t="s">
+      <c r="A9" s="477" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="449" t="s">
+      <c r="B9" s="477" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="449" t="s">
+      <c r="C9" s="477" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="452" t="s">
+      <c r="D9" s="480" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="453"/>
-      <c r="F9" s="453"/>
-      <c r="G9" s="453"/>
-      <c r="H9" s="453"/>
-      <c r="I9" s="453"/>
-      <c r="J9" s="453"/>
-      <c r="K9" s="453"/>
-      <c r="L9" s="453"/>
-      <c r="M9" s="453"/>
-      <c r="N9" s="453"/>
-      <c r="O9" s="453"/>
-      <c r="P9" s="453"/>
-      <c r="Q9" s="453"/>
-      <c r="R9" s="453"/>
-      <c r="S9" s="453"/>
-      <c r="T9" s="453"/>
-      <c r="U9" s="453"/>
-      <c r="V9" s="453"/>
-      <c r="W9" s="453"/>
-      <c r="X9" s="453"/>
-      <c r="Y9" s="453"/>
-      <c r="Z9" s="453"/>
-      <c r="AA9" s="453"/>
-      <c r="AB9" s="453"/>
-      <c r="AC9" s="453"/>
-      <c r="AD9" s="453"/>
-      <c r="AE9" s="453"/>
-      <c r="AF9" s="453"/>
-      <c r="AG9" s="453"/>
-      <c r="AH9" s="454"/>
-      <c r="AI9" s="455" t="s">
+      <c r="E9" s="481"/>
+      <c r="F9" s="481"/>
+      <c r="G9" s="481"/>
+      <c r="H9" s="481"/>
+      <c r="I9" s="481"/>
+      <c r="J9" s="481"/>
+      <c r="K9" s="481"/>
+      <c r="L9" s="481"/>
+      <c r="M9" s="481"/>
+      <c r="N9" s="481"/>
+      <c r="O9" s="481"/>
+      <c r="P9" s="481"/>
+      <c r="Q9" s="481"/>
+      <c r="R9" s="481"/>
+      <c r="S9" s="481"/>
+      <c r="T9" s="481"/>
+      <c r="U9" s="481"/>
+      <c r="V9" s="481"/>
+      <c r="W9" s="481"/>
+      <c r="X9" s="481"/>
+      <c r="Y9" s="481"/>
+      <c r="Z9" s="481"/>
+      <c r="AA9" s="481"/>
+      <c r="AB9" s="481"/>
+      <c r="AC9" s="481"/>
+      <c r="AD9" s="481"/>
+      <c r="AE9" s="481"/>
+      <c r="AF9" s="481"/>
+      <c r="AG9" s="481"/>
+      <c r="AH9" s="482"/>
+      <c r="AI9" s="483" t="s">
         <v>124</v>
       </c>
       <c r="AJ9" s="229"/>
@@ -7779,9 +7851,9 @@
       <c r="AN9" s="232"/>
     </row>
     <row r="10" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="450"/>
-      <c r="B10" s="450"/>
-      <c r="C10" s="450"/>
+      <c r="A10" s="478"/>
+      <c r="B10" s="478"/>
+      <c r="C10" s="478"/>
       <c r="D10" s="234">
         <v>1</v>
       </c>
@@ -7875,7 +7947,7 @@
       <c r="AH10" s="234">
         <v>31</v>
       </c>
-      <c r="AI10" s="455"/>
+      <c r="AI10" s="483"/>
       <c r="AJ10" s="235"/>
       <c r="AK10" s="231"/>
       <c r="AL10" s="231"/>
@@ -7883,9 +7955,9 @@
       <c r="AN10" s="232"/>
     </row>
     <row r="11" spans="1:40" s="239" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="451"/>
-      <c r="B11" s="451"/>
-      <c r="C11" s="451"/>
+      <c r="A11" s="479"/>
+      <c r="B11" s="479"/>
+      <c r="C11" s="479"/>
       <c r="D11" s="237" t="s">
         <v>129</v>
       </c>
@@ -7979,7 +8051,7 @@
       <c r="AH11" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="AI11" s="455"/>
+      <c r="AI11" s="483"/>
       <c r="AJ11" s="238"/>
       <c r="AN11" s="240"/>
     </row>
@@ -8183,7 +8255,7 @@
         <v>110</v>
       </c>
       <c r="AI13" s="243">
-        <f t="shared" ref="AI13:AI15" si="0">COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")+COUNTIF(D13:AH13,"P")</f>
+        <f>COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")+COUNTIF(D13:AH13,"P")</f>
         <v>27</v>
       </c>
       <c r="AJ13" s="238"/>
@@ -8285,7 +8357,7 @@
         <v>110</v>
       </c>
       <c r="AI14" s="243">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D14:AH14,"x")+ COUNTIF(D14:AH14,"x/2")/2+COUNTIF(D14:AH14,"CT")+COUNTIF(D14:AH14,"TT")+COUNTIF(D14:AH14,"P")</f>
         <v>27</v>
       </c>
       <c r="AJ14" s="238"/>
@@ -8387,17 +8459,17 @@
         <v>110</v>
       </c>
       <c r="AI15" s="243">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D15:AH15,"x")+ COUNTIF(D15:AH15,"x/2")/2+COUNTIF(D15:AH15,"CT")+COUNTIF(D15:AH15,"TT")+COUNTIF(D15:AH15,"P")</f>
         <v>27</v>
       </c>
       <c r="AJ15" s="238"/>
       <c r="AN15" s="240"/>
     </row>
     <row r="16" spans="1:40" s="239" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="456" t="s">
+      <c r="A16" s="484" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="457"/>
+      <c r="B16" s="485"/>
       <c r="C16" s="246"/>
       <c r="D16" s="246"/>
       <c r="E16" s="247"/>
@@ -8440,49 +8512,49 @@
       <c r="AN16" s="240"/>
     </row>
     <row r="18" spans="1:40" s="256" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="458" t="s">
+      <c r="A18" s="486" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="458"/>
-      <c r="C18" s="458"/>
-      <c r="D18" s="458"/>
-      <c r="E18" s="458"/>
-      <c r="F18" s="458"/>
-      <c r="G18" s="458"/>
+      <c r="B18" s="486"/>
+      <c r="C18" s="486"/>
+      <c r="D18" s="486"/>
+      <c r="E18" s="486"/>
+      <c r="F18" s="486"/>
+      <c r="G18" s="486"/>
       <c r="H18" s="251"/>
-      <c r="I18" s="459"/>
-      <c r="J18" s="459"/>
-      <c r="K18" s="459"/>
-      <c r="L18" s="459"/>
-      <c r="M18" s="459"/>
+      <c r="I18" s="487"/>
+      <c r="J18" s="487"/>
+      <c r="K18" s="487"/>
+      <c r="L18" s="487"/>
+      <c r="M18" s="487"/>
       <c r="N18" s="252"/>
-      <c r="O18" s="459" t="s">
+      <c r="O18" s="487" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="459"/>
-      <c r="Q18" s="459"/>
-      <c r="R18" s="459"/>
-      <c r="S18" s="459"/>
-      <c r="T18" s="459"/>
-      <c r="U18" s="459"/>
-      <c r="V18" s="459"/>
-      <c r="W18" s="459"/>
-      <c r="X18" s="459"/>
-      <c r="Y18" s="459"/>
+      <c r="P18" s="487"/>
+      <c r="Q18" s="487"/>
+      <c r="R18" s="487"/>
+      <c r="S18" s="487"/>
+      <c r="T18" s="487"/>
+      <c r="U18" s="487"/>
+      <c r="V18" s="487"/>
+      <c r="W18" s="487"/>
+      <c r="X18" s="487"/>
+      <c r="Y18" s="487"/>
       <c r="Z18" s="253"/>
       <c r="AA18" s="253"/>
       <c r="AB18" s="254"/>
-      <c r="AC18" s="459"/>
-      <c r="AD18" s="459"/>
-      <c r="AE18" s="459"/>
-      <c r="AF18" s="459"/>
-      <c r="AG18" s="459"/>
-      <c r="AH18" s="459"/>
-      <c r="AI18" s="459"/>
-      <c r="AJ18" s="459"/>
-      <c r="AK18" s="459"/>
-      <c r="AL18" s="459"/>
-      <c r="AM18" s="459"/>
+      <c r="AC18" s="487"/>
+      <c r="AD18" s="487"/>
+      <c r="AE18" s="487"/>
+      <c r="AF18" s="487"/>
+      <c r="AG18" s="487"/>
+      <c r="AH18" s="487"/>
+      <c r="AI18" s="487"/>
+      <c r="AJ18" s="487"/>
+      <c r="AK18" s="487"/>
+      <c r="AL18" s="487"/>
+      <c r="AM18" s="487"/>
       <c r="AN18" s="255"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -8516,131 +8588,131 @@
       <c r="AN33" s="260"/>
     </row>
     <row r="34" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="442"/>
-      <c r="H34" s="442"/>
-      <c r="I34" s="442"/>
-      <c r="J34" s="442"/>
-      <c r="K34" s="442"/>
-      <c r="L34" s="442"/>
-      <c r="M34" s="442"/>
-      <c r="N34" s="442"/>
-      <c r="O34" s="442"/>
-      <c r="P34" s="442"/>
-      <c r="Q34" s="442"/>
-      <c r="R34" s="442"/>
-      <c r="S34" s="442"/>
-      <c r="T34" s="442"/>
-      <c r="U34" s="442"/>
-      <c r="V34" s="442"/>
-      <c r="W34" s="442"/>
-      <c r="X34" s="442"/>
+      <c r="G34" s="475"/>
+      <c r="H34" s="475"/>
+      <c r="I34" s="475"/>
+      <c r="J34" s="475"/>
+      <c r="K34" s="475"/>
+      <c r="L34" s="475"/>
+      <c r="M34" s="475"/>
+      <c r="N34" s="475"/>
+      <c r="O34" s="475"/>
+      <c r="P34" s="475"/>
+      <c r="Q34" s="475"/>
+      <c r="R34" s="475"/>
+      <c r="S34" s="475"/>
+      <c r="T34" s="475"/>
+      <c r="U34" s="475"/>
+      <c r="V34" s="475"/>
+      <c r="W34" s="475"/>
+      <c r="X34" s="475"/>
       <c r="AN34" s="260"/>
     </row>
     <row r="35" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="442"/>
-      <c r="H35" s="442"/>
-      <c r="I35" s="442"/>
-      <c r="J35" s="442"/>
-      <c r="K35" s="442"/>
-      <c r="L35" s="442"/>
-      <c r="M35" s="442"/>
-      <c r="N35" s="442"/>
-      <c r="O35" s="442"/>
-      <c r="P35" s="442"/>
-      <c r="Q35" s="442"/>
-      <c r="R35" s="442"/>
-      <c r="S35" s="442"/>
-      <c r="T35" s="442"/>
-      <c r="U35" s="442"/>
-      <c r="V35" s="442"/>
-      <c r="W35" s="442"/>
-      <c r="X35" s="442"/>
+      <c r="G35" s="475"/>
+      <c r="H35" s="475"/>
+      <c r="I35" s="475"/>
+      <c r="J35" s="475"/>
+      <c r="K35" s="475"/>
+      <c r="L35" s="475"/>
+      <c r="M35" s="475"/>
+      <c r="N35" s="475"/>
+      <c r="O35" s="475"/>
+      <c r="P35" s="475"/>
+      <c r="Q35" s="475"/>
+      <c r="R35" s="475"/>
+      <c r="S35" s="475"/>
+      <c r="T35" s="475"/>
+      <c r="U35" s="475"/>
+      <c r="V35" s="475"/>
+      <c r="W35" s="475"/>
+      <c r="X35" s="475"/>
       <c r="AN35" s="260"/>
     </row>
     <row r="36" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="442"/>
-      <c r="H36" s="442"/>
-      <c r="I36" s="442"/>
-      <c r="J36" s="442"/>
-      <c r="K36" s="442"/>
-      <c r="L36" s="442"/>
-      <c r="M36" s="442"/>
-      <c r="N36" s="442"/>
-      <c r="O36" s="442"/>
-      <c r="P36" s="442"/>
-      <c r="Q36" s="442"/>
-      <c r="R36" s="442"/>
-      <c r="S36" s="442"/>
-      <c r="T36" s="442"/>
-      <c r="U36" s="442"/>
-      <c r="V36" s="442"/>
-      <c r="W36" s="442"/>
-      <c r="X36" s="442"/>
+      <c r="G36" s="475"/>
+      <c r="H36" s="475"/>
+      <c r="I36" s="475"/>
+      <c r="J36" s="475"/>
+      <c r="K36" s="475"/>
+      <c r="L36" s="475"/>
+      <c r="M36" s="475"/>
+      <c r="N36" s="475"/>
+      <c r="O36" s="475"/>
+      <c r="P36" s="475"/>
+      <c r="Q36" s="475"/>
+      <c r="R36" s="475"/>
+      <c r="S36" s="475"/>
+      <c r="T36" s="475"/>
+      <c r="U36" s="475"/>
+      <c r="V36" s="475"/>
+      <c r="W36" s="475"/>
+      <c r="X36" s="475"/>
       <c r="AN36" s="260"/>
     </row>
     <row r="37" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="442"/>
-      <c r="H37" s="442"/>
-      <c r="I37" s="442"/>
-      <c r="J37" s="442"/>
-      <c r="K37" s="442"/>
-      <c r="L37" s="442"/>
-      <c r="M37" s="442"/>
-      <c r="N37" s="442"/>
-      <c r="O37" s="442"/>
-      <c r="P37" s="442"/>
-      <c r="Q37" s="442"/>
-      <c r="R37" s="442"/>
-      <c r="S37" s="442"/>
-      <c r="T37" s="442"/>
-      <c r="U37" s="442"/>
-      <c r="V37" s="442"/>
-      <c r="W37" s="442"/>
-      <c r="X37" s="442"/>
+      <c r="G37" s="475"/>
+      <c r="H37" s="475"/>
+      <c r="I37" s="475"/>
+      <c r="J37" s="475"/>
+      <c r="K37" s="475"/>
+      <c r="L37" s="475"/>
+      <c r="M37" s="475"/>
+      <c r="N37" s="475"/>
+      <c r="O37" s="475"/>
+      <c r="P37" s="475"/>
+      <c r="Q37" s="475"/>
+      <c r="R37" s="475"/>
+      <c r="S37" s="475"/>
+      <c r="T37" s="475"/>
+      <c r="U37" s="475"/>
+      <c r="V37" s="475"/>
+      <c r="W37" s="475"/>
+      <c r="X37" s="475"/>
       <c r="AN37" s="260"/>
     </row>
     <row r="38" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="442"/>
-      <c r="H38" s="442"/>
-      <c r="I38" s="442"/>
-      <c r="J38" s="442"/>
-      <c r="K38" s="442"/>
-      <c r="L38" s="442"/>
-      <c r="M38" s="442"/>
-      <c r="N38" s="442"/>
-      <c r="O38" s="442"/>
-      <c r="P38" s="442"/>
-      <c r="Q38" s="442"/>
-      <c r="R38" s="442"/>
-      <c r="S38" s="442"/>
-      <c r="T38" s="442"/>
-      <c r="U38" s="442"/>
-      <c r="V38" s="442"/>
-      <c r="W38" s="442"/>
-      <c r="X38" s="442"/>
+      <c r="G38" s="475"/>
+      <c r="H38" s="475"/>
+      <c r="I38" s="475"/>
+      <c r="J38" s="475"/>
+      <c r="K38" s="475"/>
+      <c r="L38" s="475"/>
+      <c r="M38" s="475"/>
+      <c r="N38" s="475"/>
+      <c r="O38" s="475"/>
+      <c r="P38" s="475"/>
+      <c r="Q38" s="475"/>
+      <c r="R38" s="475"/>
+      <c r="S38" s="475"/>
+      <c r="T38" s="475"/>
+      <c r="U38" s="475"/>
+      <c r="V38" s="475"/>
+      <c r="W38" s="475"/>
+      <c r="X38" s="475"/>
       <c r="AN38" s="260"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="221"/>
       <c r="D39" s="221"/>
-      <c r="G39" s="442"/>
-      <c r="H39" s="442"/>
-      <c r="I39" s="442"/>
-      <c r="J39" s="442"/>
-      <c r="K39" s="442"/>
-      <c r="L39" s="442"/>
-      <c r="M39" s="442"/>
-      <c r="N39" s="442"/>
-      <c r="O39" s="442"/>
-      <c r="P39" s="442"/>
-      <c r="Q39" s="442"/>
-      <c r="R39" s="442"/>
-      <c r="S39" s="442"/>
-      <c r="T39" s="442"/>
-      <c r="U39" s="442"/>
-      <c r="V39" s="442"/>
-      <c r="W39" s="442"/>
-      <c r="X39" s="442"/>
+      <c r="G39" s="475"/>
+      <c r="H39" s="475"/>
+      <c r="I39" s="475"/>
+      <c r="J39" s="475"/>
+      <c r="K39" s="475"/>
+      <c r="L39" s="475"/>
+      <c r="M39" s="475"/>
+      <c r="N39" s="475"/>
+      <c r="O39" s="475"/>
+      <c r="P39" s="475"/>
+      <c r="Q39" s="475"/>
+      <c r="R39" s="475"/>
+      <c r="S39" s="475"/>
+      <c r="T39" s="475"/>
+      <c r="U39" s="475"/>
+      <c r="V39" s="475"/>
+      <c r="W39" s="475"/>
+      <c r="X39" s="475"/>
       <c r="AN39" s="221"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -8650,13 +8722,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -8671,6 +8736,13 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9521,38 +9593,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="471" t="s">
+      <c r="A1" s="496" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="471"/>
-      <c r="C1" s="471"/>
-      <c r="D1" s="471"/>
+      <c r="B1" s="496"/>
+      <c r="C1" s="496"/>
+      <c r="D1" s="496"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="472" t="s">
+      <c r="F1" s="497" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="472"/>
-      <c r="H1" s="472"/>
-      <c r="I1" s="472"/>
-      <c r="J1" s="472"/>
-      <c r="K1" s="472"/>
+      <c r="G1" s="497"/>
+      <c r="H1" s="497"/>
+      <c r="I1" s="497"/>
+      <c r="J1" s="497"/>
+      <c r="K1" s="497"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="473" t="s">
+      <c r="A2" s="498" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="473"/>
-      <c r="C2" s="473"/>
-      <c r="D2" s="473"/>
+      <c r="B2" s="498"/>
+      <c r="C2" s="498"/>
+      <c r="D2" s="498"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="474" t="s">
+      <c r="F2" s="499" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="474"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="474"/>
-      <c r="J2" s="474"/>
-      <c r="K2" s="474"/>
+      <c r="G2" s="499"/>
+      <c r="H2" s="499"/>
+      <c r="I2" s="499"/>
+      <c r="J2" s="499"/>
+      <c r="K2" s="499"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -9565,43 +9637,43 @@
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="475" t="s">
+      <c r="A4" s="500" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="475"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="475"/>
-      <c r="E4" s="475"/>
-      <c r="F4" s="475"/>
-      <c r="G4" s="475"/>
-      <c r="H4" s="475"/>
-      <c r="I4" s="475"/>
-      <c r="J4" s="475"/>
-      <c r="K4" s="475"/>
-      <c r="L4" s="475"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="500"/>
+      <c r="D4" s="500"/>
+      <c r="E4" s="500"/>
+      <c r="F4" s="500"/>
+      <c r="G4" s="500"/>
+      <c r="H4" s="500"/>
+      <c r="I4" s="500"/>
+      <c r="J4" s="500"/>
+      <c r="K4" s="500"/>
+      <c r="L4" s="500"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="476" t="s">
+      <c r="A5" s="501" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="476"/>
-      <c r="C5" s="476"/>
-      <c r="D5" s="476"/>
-      <c r="E5" s="476"/>
-      <c r="F5" s="476"/>
-      <c r="G5" s="476"/>
-      <c r="H5" s="476"/>
-      <c r="I5" s="476"/>
-      <c r="J5" s="476"/>
-      <c r="K5" s="476"/>
-      <c r="L5" s="476"/>
+      <c r="B5" s="501"/>
+      <c r="C5" s="501"/>
+      <c r="D5" s="501"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="501"/>
+      <c r="I5" s="501"/>
+      <c r="J5" s="501"/>
+      <c r="K5" s="501"/>
+      <c r="L5" s="501"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="477" t="s">
+      <c r="J6" s="502" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="477"/>
-      <c r="L6" s="477"/>
+      <c r="K6" s="502"/>
+      <c r="L6" s="502"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="147" t="s">
@@ -9668,12 +9740,12 @@
       <c r="L8" s="147"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="468" t="s">
+      <c r="A9" s="493" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="469"/>
-      <c r="C9" s="469"/>
-      <c r="D9" s="470"/>
+      <c r="B9" s="494"/>
+      <c r="C9" s="494"/>
+      <c r="D9" s="495"/>
       <c r="E9" s="149"/>
       <c r="F9" s="153">
         <f>SUM(F10:F12)</f>
@@ -9792,12 +9864,12 @@
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="465" t="s">
+      <c r="A13" s="490" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="466"/>
-      <c r="C13" s="466"/>
-      <c r="D13" s="467"/>
+      <c r="B13" s="491"/>
+      <c r="C13" s="491"/>
+      <c r="D13" s="492"/>
       <c r="E13" s="89"/>
       <c r="F13" s="153">
         <f>SUM(F14:F14)</f>
@@ -9854,11 +9926,11 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="478" t="s">
+      <c r="A15" s="503" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="479"/>
-      <c r="C15" s="480"/>
+      <c r="B15" s="504"/>
+      <c r="C15" s="505"/>
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86">
@@ -9885,14 +9957,14 @@
       <c r="L15" s="85"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="463"/>
-      <c r="C17" s="463"/>
-      <c r="D17" s="463"/>
+      <c r="B17" s="488"/>
+      <c r="C17" s="488"/>
+      <c r="D17" s="488"/>
       <c r="E17" s="82"/>
-      <c r="H17" s="463"/>
-      <c r="I17" s="463"/>
-      <c r="J17" s="463"/>
-      <c r="K17" s="463"/>
+      <c r="H17" s="488"/>
+      <c r="I17" s="488"/>
+      <c r="J17" s="488"/>
+      <c r="K17" s="488"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="144" t="s">
@@ -9904,12 +9976,12 @@
         <v>85</v>
       </c>
       <c r="G18" s="144"/>
-      <c r="H18" s="463" t="s">
+      <c r="H18" s="488" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="463"/>
-      <c r="J18" s="463"/>
-      <c r="K18" s="463"/>
+      <c r="I18" s="488"/>
+      <c r="J18" s="488"/>
+      <c r="K18" s="488"/>
     </row>
     <row r="19" spans="2:11" s="145" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="146" t="s">
@@ -9921,12 +9993,12 @@
         <v>92</v>
       </c>
       <c r="G19" s="146"/>
-      <c r="H19" s="464" t="s">
+      <c r="H19" s="489" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="464"/>
-      <c r="J19" s="464"/>
-      <c r="K19" s="464"/>
+      <c r="I19" s="489"/>
+      <c r="J19" s="489"/>
+      <c r="K19" s="489"/>
     </row>
     <row r="22" spans="2:11" s="96" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
@@ -2158,21 +2158,36 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2182,29 +2197,44 @@
     <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2236,36 +2266,6 @@
     <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2281,6 +2281,90 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2299,12 +2383,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2326,111 +2404,24 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2466,6 +2457,15 @@
     </xf>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2835,7 +2835,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3863,13 +3863,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="397" t="s">
+      <c r="A1" s="387" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
       <c r="H1" s="125"/>
       <c r="I1" s="125"/>
       <c r="J1" s="125"/>
@@ -3899,136 +3899,136 @@
       <c r="P2" s="129"/>
     </row>
     <row r="3" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="398" t="s">
+      <c r="A3" s="388" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="398"/>
-      <c r="C3" s="398"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
-      <c r="G3" s="398"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="398"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
-      <c r="N3" s="398"/>
-      <c r="O3" s="398"/>
-      <c r="P3" s="398"/>
+      <c r="B3" s="388"/>
+      <c r="C3" s="388"/>
+      <c r="D3" s="388"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="388"/>
+      <c r="G3" s="388"/>
+      <c r="H3" s="388"/>
+      <c r="I3" s="388"/>
+      <c r="J3" s="388"/>
+      <c r="K3" s="388"/>
+      <c r="L3" s="388"/>
+      <c r="M3" s="388"/>
+      <c r="N3" s="388"/>
+      <c r="O3" s="388"/>
+      <c r="P3" s="388"/>
     </row>
     <row r="4" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="398" t="s">
+      <c r="A4" s="388" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="398"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
-      <c r="F4" s="398"/>
-      <c r="G4" s="398"/>
-      <c r="H4" s="398"/>
-      <c r="I4" s="398"/>
-      <c r="J4" s="398"/>
-      <c r="K4" s="398"/>
-      <c r="L4" s="398"/>
-      <c r="M4" s="398"/>
-      <c r="N4" s="398"/>
-      <c r="O4" s="398"/>
-      <c r="P4" s="398"/>
+      <c r="B4" s="388"/>
+      <c r="C4" s="388"/>
+      <c r="D4" s="388"/>
+      <c r="E4" s="388"/>
+      <c r="F4" s="388"/>
+      <c r="G4" s="388"/>
+      <c r="H4" s="388"/>
+      <c r="I4" s="388"/>
+      <c r="J4" s="388"/>
+      <c r="K4" s="388"/>
+      <c r="L4" s="388"/>
+      <c r="M4" s="388"/>
+      <c r="N4" s="388"/>
+      <c r="O4" s="388"/>
+      <c r="P4" s="388"/>
     </row>
     <row r="5" spans="1:16" s="124" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="391" t="s">
+      <c r="A5" s="396" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="392" t="s">
+      <c r="B5" s="397" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="391" t="s">
+      <c r="C5" s="396" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="391" t="s">
+      <c r="D5" s="396" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="391"/>
-      <c r="F5" s="393" t="s">
+      <c r="E5" s="396"/>
+      <c r="F5" s="390" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="393"/>
-      <c r="H5" s="393"/>
-      <c r="I5" s="393"/>
-      <c r="J5" s="393"/>
-      <c r="K5" s="393"/>
-      <c r="L5" s="393"/>
-      <c r="M5" s="399"/>
-      <c r="N5" s="399"/>
-      <c r="O5" s="399"/>
-      <c r="P5" s="393" t="s">
+      <c r="G5" s="390"/>
+      <c r="H5" s="390"/>
+      <c r="I5" s="390"/>
+      <c r="J5" s="390"/>
+      <c r="K5" s="390"/>
+      <c r="L5" s="390"/>
+      <c r="M5" s="389"/>
+      <c r="N5" s="389"/>
+      <c r="O5" s="389"/>
+      <c r="P5" s="390" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="124" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="391"/>
-      <c r="B6" s="392"/>
-      <c r="C6" s="391"/>
-      <c r="D6" s="391" t="s">
+      <c r="A6" s="396"/>
+      <c r="B6" s="397"/>
+      <c r="C6" s="396"/>
+      <c r="D6" s="396" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="391" t="s">
+      <c r="E6" s="396" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="391" t="s">
+      <c r="F6" s="396" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="391" t="s">
+      <c r="G6" s="396" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="394" t="s">
+      <c r="H6" s="391" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="394" t="s">
+      <c r="I6" s="391" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="395" t="s">
+      <c r="J6" s="398" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="395"/>
-      <c r="L6" s="394" t="s">
+      <c r="K6" s="398"/>
+      <c r="L6" s="391" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="394" t="s">
+      <c r="M6" s="391" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="394" t="s">
+      <c r="N6" s="391" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="394" t="s">
+      <c r="O6" s="391" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="393"/>
+      <c r="P6" s="390"/>
     </row>
     <row r="7" spans="1:16" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="391"/>
-      <c r="B7" s="392"/>
-      <c r="C7" s="391"/>
-      <c r="D7" s="391"/>
-      <c r="E7" s="391"/>
-      <c r="F7" s="391"/>
-      <c r="G7" s="391"/>
-      <c r="H7" s="394"/>
-      <c r="I7" s="394"/>
+      <c r="A7" s="396"/>
+      <c r="B7" s="397"/>
+      <c r="C7" s="396"/>
+      <c r="D7" s="396"/>
+      <c r="E7" s="396"/>
+      <c r="F7" s="396"/>
+      <c r="G7" s="396"/>
+      <c r="H7" s="391"/>
+      <c r="I7" s="391"/>
       <c r="J7" s="211" t="s">
         <v>84</v>
       </c>
       <c r="K7" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="394"/>
-      <c r="M7" s="394"/>
-      <c r="N7" s="394"/>
-      <c r="O7" s="394"/>
-      <c r="P7" s="393"/>
+      <c r="L7" s="391"/>
+      <c r="M7" s="391"/>
+      <c r="N7" s="391"/>
+      <c r="O7" s="391"/>
+      <c r="P7" s="390"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="360"/>
@@ -4121,11 +4121,11 @@
       <c r="P12" s="162"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="385"/>
-      <c r="B13" s="387"/>
-      <c r="C13" s="385"/>
-      <c r="D13" s="385"/>
-      <c r="E13" s="385"/>
+      <c r="A13" s="393"/>
+      <c r="B13" s="399"/>
+      <c r="C13" s="393"/>
+      <c r="D13" s="393"/>
+      <c r="E13" s="393"/>
       <c r="F13" s="163"/>
       <c r="G13" s="163"/>
       <c r="H13" s="164"/>
@@ -4139,11 +4139,11 @@
       <c r="P13" s="166"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="386"/>
-      <c r="B14" s="388"/>
-      <c r="C14" s="386"/>
-      <c r="D14" s="386"/>
-      <c r="E14" s="386"/>
+      <c r="A14" s="394"/>
+      <c r="B14" s="400"/>
+      <c r="C14" s="394"/>
+      <c r="D14" s="394"/>
+      <c r="E14" s="394"/>
       <c r="F14" s="167"/>
       <c r="G14" s="167"/>
       <c r="H14" s="168"/>
@@ -4193,11 +4193,11 @@
       <c r="P16" s="157"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="385"/>
-      <c r="B17" s="387"/>
-      <c r="C17" s="385"/>
-      <c r="D17" s="385"/>
-      <c r="E17" s="385"/>
+      <c r="A17" s="393"/>
+      <c r="B17" s="399"/>
+      <c r="C17" s="393"/>
+      <c r="D17" s="393"/>
+      <c r="E17" s="393"/>
       <c r="F17" s="163"/>
       <c r="G17" s="163"/>
       <c r="H17" s="164"/>
@@ -4211,11 +4211,11 @@
       <c r="P17" s="163"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="386"/>
-      <c r="B18" s="388"/>
-      <c r="C18" s="386"/>
-      <c r="D18" s="386"/>
-      <c r="E18" s="386"/>
+      <c r="A18" s="394"/>
+      <c r="B18" s="400"/>
+      <c r="C18" s="394"/>
+      <c r="D18" s="394"/>
+      <c r="E18" s="394"/>
       <c r="F18" s="167"/>
       <c r="G18" s="167"/>
       <c r="H18" s="168"/>
@@ -4640,7 +4640,7 @@
       <c r="M41" s="177"/>
       <c r="N41" s="177"/>
       <c r="O41" s="177"/>
-      <c r="P41" s="400"/>
+      <c r="P41" s="392"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="172"/>
@@ -4658,7 +4658,7 @@
       <c r="M42" s="177"/>
       <c r="N42" s="177"/>
       <c r="O42" s="177"/>
-      <c r="P42" s="400"/>
+      <c r="P42" s="392"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="172"/>
@@ -4676,7 +4676,7 @@
       <c r="M43" s="177"/>
       <c r="N43" s="177"/>
       <c r="O43" s="177"/>
-      <c r="P43" s="400"/>
+      <c r="P43" s="392"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="172"/>
@@ -4694,7 +4694,7 @@
       <c r="M44" s="177"/>
       <c r="N44" s="177"/>
       <c r="O44" s="177"/>
-      <c r="P44" s="400"/>
+      <c r="P44" s="392"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="172"/>
@@ -4712,7 +4712,7 @@
       <c r="M45" s="177"/>
       <c r="N45" s="177"/>
       <c r="O45" s="177"/>
-      <c r="P45" s="400"/>
+      <c r="P45" s="392"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="172"/>
@@ -4730,7 +4730,7 @@
       <c r="M46" s="177"/>
       <c r="N46" s="177"/>
       <c r="O46" s="177"/>
-      <c r="P46" s="400"/>
+      <c r="P46" s="392"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="198"/>
@@ -4784,7 +4784,7 @@
       <c r="M49" s="177"/>
       <c r="N49" s="177"/>
       <c r="O49" s="177"/>
-      <c r="P49" s="400"/>
+      <c r="P49" s="392"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="172"/>
@@ -4802,7 +4802,7 @@
       <c r="M50" s="177"/>
       <c r="N50" s="177"/>
       <c r="O50" s="177"/>
-      <c r="P50" s="400"/>
+      <c r="P50" s="392"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="172"/>
@@ -4820,7 +4820,7 @@
       <c r="M51" s="177"/>
       <c r="N51" s="177"/>
       <c r="O51" s="177"/>
-      <c r="P51" s="400"/>
+      <c r="P51" s="392"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="198"/>
@@ -5291,14 +5291,14 @@
       <c r="P77" s="167"/>
     </row>
     <row r="78" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="390" t="s">
+      <c r="A78" s="395" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="390"/>
-      <c r="C78" s="390"/>
-      <c r="D78" s="390"/>
-      <c r="E78" s="390"/>
-      <c r="F78" s="390"/>
+      <c r="B78" s="395"/>
+      <c r="C78" s="395"/>
+      <c r="D78" s="395"/>
+      <c r="E78" s="395"/>
+      <c r="F78" s="395"/>
       <c r="G78" s="132">
         <f>SUM(G8:G77)</f>
         <v>0</v>
@@ -5318,17 +5318,17 @@
       <c r="N78" s="133"/>
       <c r="O78" s="133"/>
       <c r="P78" s="133"/>
-      <c r="Q78" s="396"/>
+      <c r="Q78" s="385"/>
     </row>
     <row r="79" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="389" t="s">
+      <c r="A79" s="386" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="389"/>
-      <c r="C79" s="389"/>
-      <c r="D79" s="389"/>
-      <c r="E79" s="389"/>
-      <c r="F79" s="389"/>
+      <c r="B79" s="386"/>
+      <c r="C79" s="386"/>
+      <c r="D79" s="386"/>
+      <c r="E79" s="386"/>
+      <c r="F79" s="386"/>
       <c r="G79" s="132">
         <f>G78</f>
         <v>0</v>
@@ -5345,17 +5345,17 @@
       <c r="N79" s="137"/>
       <c r="O79" s="137"/>
       <c r="P79" s="137"/>
-      <c r="Q79" s="396"/>
+      <c r="Q79" s="385"/>
     </row>
     <row r="80" spans="1:17" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="389" t="s">
+      <c r="A80" s="386" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="389"/>
-      <c r="C80" s="389"/>
-      <c r="D80" s="389"/>
-      <c r="E80" s="389"/>
-      <c r="F80" s="389"/>
+      <c r="B80" s="386"/>
+      <c r="C80" s="386"/>
+      <c r="D80" s="386"/>
+      <c r="E80" s="386"/>
+      <c r="F80" s="386"/>
       <c r="G80" s="138" t="s">
         <v>45</v>
       </c>
@@ -5373,14 +5373,14 @@
       <c r="P80" s="139"/>
     </row>
     <row r="81" spans="1:16" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="389" t="s">
+      <c r="A81" s="386" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="389"/>
-      <c r="C81" s="389"/>
-      <c r="D81" s="389"/>
-      <c r="E81" s="389"/>
-      <c r="F81" s="389"/>
+      <c r="B81" s="386"/>
+      <c r="C81" s="386"/>
+      <c r="D81" s="386"/>
+      <c r="E81" s="386"/>
+      <c r="F81" s="386"/>
       <c r="G81" s="137"/>
       <c r="H81" s="137"/>
       <c r="I81" s="133"/>
@@ -5396,14 +5396,14 @@
       <c r="P81" s="139"/>
     </row>
     <row r="82" spans="1:16" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="389" t="s">
+      <c r="A82" s="386" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="389"/>
-      <c r="C82" s="389"/>
-      <c r="D82" s="389"/>
-      <c r="E82" s="389"/>
-      <c r="F82" s="389"/>
+      <c r="B82" s="386"/>
+      <c r="C82" s="386"/>
+      <c r="D82" s="386"/>
+      <c r="E82" s="386"/>
+      <c r="F82" s="386"/>
       <c r="G82" s="137"/>
       <c r="H82" s="137"/>
       <c r="I82" s="133"/>
@@ -5474,6 +5474,30 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="40">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="Q78:Q79"/>
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="A80:F80"/>
@@ -5490,30 +5514,6 @@
     <mergeCell ref="P49:P51"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5558,75 +5558,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="403" t="s">
+      <c r="A3" s="413" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="403"/>
-      <c r="C3" s="403"/>
-      <c r="D3" s="403"/>
-      <c r="E3" s="403"/>
-      <c r="F3" s="403"/>
-      <c r="G3" s="403"/>
-      <c r="H3" s="403"/>
-      <c r="I3" s="403"/>
-      <c r="J3" s="403"/>
-      <c r="K3" s="403"/>
+      <c r="B3" s="413"/>
+      <c r="C3" s="413"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="413"/>
+      <c r="F3" s="413"/>
+      <c r="G3" s="413"/>
+      <c r="H3" s="413"/>
+      <c r="I3" s="413"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
       <c r="L3" s="294"/>
       <c r="M3" s="294"/>
       <c r="N3" s="294"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="404" t="s">
+      <c r="A4" s="414" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="404"/>
-      <c r="C4" s="404"/>
-      <c r="D4" s="404"/>
-      <c r="E4" s="404"/>
-      <c r="F4" s="404"/>
-      <c r="G4" s="404"/>
-      <c r="H4" s="404"/>
-      <c r="I4" s="404"/>
-      <c r="J4" s="405"/>
-      <c r="K4" s="404"/>
+      <c r="B4" s="414"/>
+      <c r="C4" s="414"/>
+      <c r="D4" s="414"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="414"/>
+      <c r="G4" s="414"/>
+      <c r="H4" s="414"/>
+      <c r="I4" s="414"/>
+      <c r="J4" s="415"/>
+      <c r="K4" s="414"/>
       <c r="L4" s="295"/>
       <c r="M4" s="295"/>
       <c r="N4" s="295"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="406" t="s">
+      <c r="A5" s="416" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="407" t="s">
+      <c r="B5" s="417" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="406" t="s">
+      <c r="C5" s="416" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="406" t="s">
+      <c r="D5" s="416" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="406"/>
-      <c r="F5" s="408" t="s">
+      <c r="E5" s="416"/>
+      <c r="F5" s="418" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="408"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="408"/>
-      <c r="J5" s="409"/>
-      <c r="K5" s="410" t="s">
+      <c r="G5" s="418"/>
+      <c r="H5" s="418"/>
+      <c r="I5" s="418"/>
+      <c r="J5" s="419"/>
+      <c r="K5" s="420" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="402" t="s">
+      <c r="L5" s="412" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="402"/>
-      <c r="N5" s="402"/>
+      <c r="M5" s="412"/>
+      <c r="N5" s="412"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="406"/>
-      <c r="B6" s="407"/>
-      <c r="C6" s="406"/>
+      <c r="A6" s="416"/>
+      <c r="B6" s="417"/>
+      <c r="C6" s="416"/>
       <c r="D6" s="296" t="s">
         <v>40</v>
       </c>
@@ -5648,7 +5648,7 @@
       <c r="J6" s="300" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="410"/>
+      <c r="K6" s="420"/>
       <c r="L6" s="301" t="s">
         <v>52</v>
       </c>
@@ -5676,11 +5676,11 @@
       <c r="N7" s="347"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="411"/>
-      <c r="B8" s="413"/>
-      <c r="C8" s="411"/>
-      <c r="D8" s="411"/>
-      <c r="E8" s="411"/>
+      <c r="A8" s="405"/>
+      <c r="B8" s="408"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="405"/>
+      <c r="E8" s="405"/>
       <c r="F8" s="302"/>
       <c r="G8" s="302"/>
       <c r="H8" s="303"/>
@@ -5692,11 +5692,11 @@
       <c r="N8" s="306"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="412"/>
-      <c r="B9" s="414"/>
-      <c r="C9" s="412"/>
-      <c r="D9" s="412"/>
-      <c r="E9" s="412"/>
+      <c r="A9" s="407"/>
+      <c r="B9" s="410"/>
+      <c r="C9" s="407"/>
+      <c r="D9" s="407"/>
+      <c r="E9" s="407"/>
       <c r="F9" s="319"/>
       <c r="G9" s="319"/>
       <c r="H9" s="320"/>
@@ -5708,11 +5708,11 @@
       <c r="N9" s="324"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="411"/>
-      <c r="B10" s="413"/>
-      <c r="C10" s="411"/>
-      <c r="D10" s="411"/>
-      <c r="E10" s="411"/>
+      <c r="A10" s="405"/>
+      <c r="B10" s="408"/>
+      <c r="C10" s="405"/>
+      <c r="D10" s="405"/>
+      <c r="E10" s="405"/>
       <c r="F10" s="302"/>
       <c r="G10" s="302"/>
       <c r="H10" s="303"/>
@@ -5724,11 +5724,11 @@
       <c r="N10" s="306"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="415"/>
-      <c r="B11" s="416"/>
-      <c r="C11" s="415"/>
-      <c r="D11" s="415"/>
-      <c r="E11" s="415"/>
+      <c r="A11" s="406"/>
+      <c r="B11" s="409"/>
+      <c r="C11" s="406"/>
+      <c r="D11" s="406"/>
+      <c r="E11" s="406"/>
       <c r="F11" s="307"/>
       <c r="G11" s="307"/>
       <c r="H11" s="308"/>
@@ -5740,11 +5740,11 @@
       <c r="N11" s="311"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="412"/>
-      <c r="B12" s="414"/>
-      <c r="C12" s="412"/>
-      <c r="D12" s="412"/>
-      <c r="E12" s="412"/>
+      <c r="A12" s="407"/>
+      <c r="B12" s="410"/>
+      <c r="C12" s="407"/>
+      <c r="D12" s="407"/>
+      <c r="E12" s="407"/>
       <c r="F12" s="319"/>
       <c r="G12" s="319"/>
       <c r="H12" s="320"/>
@@ -5804,11 +5804,11 @@
       <c r="N15" s="347"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="411"/>
-      <c r="B16" s="413"/>
-      <c r="C16" s="411"/>
-      <c r="D16" s="411"/>
-      <c r="E16" s="411"/>
+      <c r="A16" s="405"/>
+      <c r="B16" s="408"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="405"/>
+      <c r="E16" s="405"/>
       <c r="F16" s="302"/>
       <c r="G16" s="302"/>
       <c r="H16" s="303"/>
@@ -5820,11 +5820,11 @@
       <c r="N16" s="306"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="412"/>
-      <c r="B17" s="414"/>
-      <c r="C17" s="412"/>
-      <c r="D17" s="412"/>
-      <c r="E17" s="412"/>
+      <c r="A17" s="407"/>
+      <c r="B17" s="410"/>
+      <c r="C17" s="407"/>
+      <c r="D17" s="407"/>
+      <c r="E17" s="407"/>
       <c r="F17" s="319"/>
       <c r="G17" s="319"/>
       <c r="H17" s="320"/>
@@ -5836,11 +5836,11 @@
       <c r="N17" s="324"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="411"/>
-      <c r="B18" s="413"/>
-      <c r="C18" s="411"/>
-      <c r="D18" s="411"/>
-      <c r="E18" s="411"/>
+      <c r="A18" s="405"/>
+      <c r="B18" s="408"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="405"/>
+      <c r="E18" s="405"/>
       <c r="F18" s="302"/>
       <c r="G18" s="302"/>
       <c r="H18" s="303"/>
@@ -5852,11 +5852,11 @@
       <c r="N18" s="306"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="412"/>
-      <c r="B19" s="414"/>
-      <c r="C19" s="412"/>
-      <c r="D19" s="412"/>
-      <c r="E19" s="412"/>
+      <c r="A19" s="407"/>
+      <c r="B19" s="410"/>
+      <c r="C19" s="407"/>
+      <c r="D19" s="407"/>
+      <c r="E19" s="407"/>
       <c r="F19" s="319"/>
       <c r="G19" s="319"/>
       <c r="H19" s="320"/>
@@ -5932,11 +5932,11 @@
       <c r="N23" s="347"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="411"/>
-      <c r="B24" s="413"/>
-      <c r="C24" s="411"/>
-      <c r="D24" s="411"/>
-      <c r="E24" s="411"/>
+      <c r="A24" s="405"/>
+      <c r="B24" s="408"/>
+      <c r="C24" s="405"/>
+      <c r="D24" s="405"/>
+      <c r="E24" s="405"/>
       <c r="F24" s="302"/>
       <c r="G24" s="302"/>
       <c r="H24" s="303"/>
@@ -5948,11 +5948,11 @@
       <c r="N24" s="306"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="415"/>
-      <c r="B25" s="416"/>
-      <c r="C25" s="415"/>
-      <c r="D25" s="415"/>
-      <c r="E25" s="415"/>
+      <c r="A25" s="406"/>
+      <c r="B25" s="409"/>
+      <c r="C25" s="406"/>
+      <c r="D25" s="406"/>
+      <c r="E25" s="406"/>
       <c r="F25" s="307"/>
       <c r="G25" s="307"/>
       <c r="H25" s="308"/>
@@ -5964,11 +5964,11 @@
       <c r="N25" s="311"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="415"/>
-      <c r="B26" s="416"/>
-      <c r="C26" s="415"/>
-      <c r="D26" s="415"/>
-      <c r="E26" s="415"/>
+      <c r="A26" s="406"/>
+      <c r="B26" s="409"/>
+      <c r="C26" s="406"/>
+      <c r="D26" s="406"/>
+      <c r="E26" s="406"/>
       <c r="F26" s="307"/>
       <c r="G26" s="307"/>
       <c r="H26" s="308"/>
@@ -5980,11 +5980,11 @@
       <c r="N26" s="311"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="415"/>
-      <c r="B27" s="416"/>
-      <c r="C27" s="415"/>
-      <c r="D27" s="415"/>
-      <c r="E27" s="415"/>
+      <c r="A27" s="406"/>
+      <c r="B27" s="409"/>
+      <c r="C27" s="406"/>
+      <c r="D27" s="406"/>
+      <c r="E27" s="406"/>
       <c r="F27" s="307"/>
       <c r="G27" s="307"/>
       <c r="H27" s="308"/>
@@ -5996,11 +5996,11 @@
       <c r="N27" s="311"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="415"/>
-      <c r="B28" s="416"/>
-      <c r="C28" s="415"/>
-      <c r="D28" s="415"/>
-      <c r="E28" s="415"/>
+      <c r="A28" s="406"/>
+      <c r="B28" s="409"/>
+      <c r="C28" s="406"/>
+      <c r="D28" s="406"/>
+      <c r="E28" s="406"/>
       <c r="F28" s="307"/>
       <c r="G28" s="307"/>
       <c r="H28" s="308"/>
@@ -6012,11 +6012,11 @@
       <c r="N28" s="311"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="415"/>
-      <c r="B29" s="416"/>
-      <c r="C29" s="415"/>
-      <c r="D29" s="415"/>
-      <c r="E29" s="415"/>
+      <c r="A29" s="406"/>
+      <c r="B29" s="409"/>
+      <c r="C29" s="406"/>
+      <c r="D29" s="406"/>
+      <c r="E29" s="406"/>
       <c r="F29" s="307"/>
       <c r="G29" s="307"/>
       <c r="H29" s="308"/>
@@ -6028,11 +6028,11 @@
       <c r="N29" s="311"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="412"/>
-      <c r="B30" s="414"/>
-      <c r="C30" s="412"/>
-      <c r="D30" s="412"/>
-      <c r="E30" s="412"/>
+      <c r="A30" s="407"/>
+      <c r="B30" s="410"/>
+      <c r="C30" s="407"/>
+      <c r="D30" s="407"/>
+      <c r="E30" s="407"/>
       <c r="F30" s="319"/>
       <c r="G30" s="319"/>
       <c r="H30" s="320"/>
@@ -6044,11 +6044,11 @@
       <c r="N30" s="324"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="417"/>
-      <c r="B31" s="419"/>
-      <c r="C31" s="417"/>
-      <c r="D31" s="417"/>
-      <c r="E31" s="417"/>
+      <c r="A31" s="401"/>
+      <c r="B31" s="403"/>
+      <c r="C31" s="401"/>
+      <c r="D31" s="401"/>
+      <c r="E31" s="401"/>
       <c r="F31" s="349"/>
       <c r="G31" s="349"/>
       <c r="H31" s="350"/>
@@ -6060,11 +6060,11 @@
       <c r="N31" s="353"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="417"/>
-      <c r="B32" s="419"/>
-      <c r="C32" s="417"/>
-      <c r="D32" s="417"/>
-      <c r="E32" s="417"/>
+      <c r="A32" s="401"/>
+      <c r="B32" s="403"/>
+      <c r="C32" s="401"/>
+      <c r="D32" s="401"/>
+      <c r="E32" s="401"/>
       <c r="F32" s="313"/>
       <c r="G32" s="313"/>
       <c r="H32" s="314"/>
@@ -6076,11 +6076,11 @@
       <c r="N32" s="318"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="417"/>
-      <c r="B33" s="419"/>
-      <c r="C33" s="417"/>
-      <c r="D33" s="417"/>
-      <c r="E33" s="417"/>
+      <c r="A33" s="401"/>
+      <c r="B33" s="403"/>
+      <c r="C33" s="401"/>
+      <c r="D33" s="401"/>
+      <c r="E33" s="401"/>
       <c r="F33" s="313"/>
       <c r="G33" s="313"/>
       <c r="H33" s="314"/>
@@ -6092,11 +6092,11 @@
       <c r="N33" s="318"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="418"/>
-      <c r="B34" s="420"/>
-      <c r="C34" s="418"/>
-      <c r="D34" s="418"/>
-      <c r="E34" s="418"/>
+      <c r="A34" s="402"/>
+      <c r="B34" s="404"/>
+      <c r="C34" s="402"/>
+      <c r="D34" s="402"/>
+      <c r="E34" s="402"/>
       <c r="F34" s="319"/>
       <c r="G34" s="319"/>
       <c r="H34" s="320"/>
@@ -6108,13 +6108,13 @@
       <c r="N34" s="324"/>
     </row>
     <row r="35" spans="1:14" s="331" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="401" t="s">
+      <c r="A35" s="411" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="401"/>
-      <c r="C35" s="401"/>
-      <c r="D35" s="401"/>
-      <c r="E35" s="401"/>
+      <c r="B35" s="411"/>
+      <c r="C35" s="411"/>
+      <c r="D35" s="411"/>
+      <c r="E35" s="411"/>
       <c r="F35" s="325"/>
       <c r="G35" s="325">
         <f>SUM(G7:G34)</f>
@@ -6202,30 +6202,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -6242,6 +6218,30 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6703,13 +6703,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="441" t="s">
+      <c r="A1" s="426" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="441"/>
-      <c r="C1" s="441"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
+      <c r="B1" s="426"/>
+      <c r="C1" s="426"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -6729,165 +6729,165 @@
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="442" t="s">
+      <c r="A4" s="427" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="442"/>
-      <c r="C4" s="442"/>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
-      <c r="F4" s="442"/>
-      <c r="G4" s="442"/>
-      <c r="H4" s="442"/>
+      <c r="B4" s="427"/>
+      <c r="C4" s="427"/>
+      <c r="D4" s="427"/>
+      <c r="E4" s="427"/>
+      <c r="F4" s="427"/>
+      <c r="G4" s="427"/>
+      <c r="H4" s="427"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="443" t="s">
+      <c r="A6" s="428" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="444"/>
-      <c r="C6" s="444"/>
-      <c r="D6" s="444"/>
-      <c r="E6" s="444"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="446" t="s">
+      <c r="B6" s="429"/>
+      <c r="C6" s="429"/>
+      <c r="D6" s="429"/>
+      <c r="E6" s="429"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="431" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="447"/>
+      <c r="H6" s="432"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="450" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="464"/>
+      <c r="B7" s="451"/>
       <c r="C7" s="363"/>
       <c r="D7" s="270"/>
       <c r="E7" s="362" t="s">
         <v>140</v>
       </c>
       <c r="F7" s="362"/>
-      <c r="G7" s="432">
+      <c r="G7" s="448">
         <v>4744538</v>
       </c>
-      <c r="H7" s="433"/>
+      <c r="H7" s="449"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="465"/>
-      <c r="B8" s="466"/>
+      <c r="A8" s="452"/>
+      <c r="B8" s="453"/>
       <c r="C8" s="363"/>
       <c r="D8" s="270"/>
       <c r="E8" s="362" t="s">
         <v>141</v>
       </c>
       <c r="F8" s="362"/>
-      <c r="G8" s="432">
+      <c r="G8" s="448">
         <v>6713000</v>
       </c>
-      <c r="H8" s="433"/>
+      <c r="H8" s="449"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="448" t="s">
+      <c r="A9" s="433" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="449"/>
-      <c r="C9" s="449"/>
-      <c r="D9" s="450"/>
+      <c r="B9" s="434"/>
+      <c r="C9" s="434"/>
+      <c r="D9" s="435"/>
       <c r="E9" s="262" t="s">
         <v>144</v>
       </c>
       <c r="F9" s="263">
         <v>260000</v>
       </c>
-      <c r="G9" s="457">
+      <c r="G9" s="442">
         <f>SUM(F9:F13)</f>
         <v>3477000</v>
       </c>
-      <c r="H9" s="458"/>
+      <c r="H9" s="443"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="451"/>
-      <c r="B10" s="452"/>
-      <c r="C10" s="452"/>
-      <c r="D10" s="453"/>
+      <c r="A10" s="436"/>
+      <c r="B10" s="437"/>
+      <c r="C10" s="437"/>
+      <c r="D10" s="438"/>
       <c r="E10" s="262" t="s">
         <v>145</v>
       </c>
       <c r="F10" s="263">
         <v>877000</v>
       </c>
-      <c r="G10" s="459"/>
-      <c r="H10" s="460"/>
+      <c r="G10" s="444"/>
+      <c r="H10" s="445"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="451"/>
-      <c r="B11" s="452"/>
-      <c r="C11" s="452"/>
-      <c r="D11" s="453"/>
+      <c r="A11" s="436"/>
+      <c r="B11" s="437"/>
+      <c r="C11" s="437"/>
+      <c r="D11" s="438"/>
       <c r="E11" s="262" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="263">
         <v>441000</v>
       </c>
-      <c r="G11" s="459"/>
-      <c r="H11" s="460"/>
+      <c r="G11" s="444"/>
+      <c r="H11" s="445"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="451"/>
-      <c r="B12" s="452"/>
-      <c r="C12" s="452"/>
-      <c r="D12" s="453"/>
+      <c r="A12" s="436"/>
+      <c r="B12" s="437"/>
+      <c r="C12" s="437"/>
+      <c r="D12" s="438"/>
       <c r="E12" s="262" t="s">
         <v>139</v>
       </c>
       <c r="F12" s="263">
         <v>892000</v>
       </c>
-      <c r="G12" s="459"/>
-      <c r="H12" s="460"/>
+      <c r="G12" s="444"/>
+      <c r="H12" s="445"/>
     </row>
     <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="454"/>
-      <c r="B13" s="455"/>
-      <c r="C13" s="455"/>
-      <c r="D13" s="456"/>
+      <c r="A13" s="439"/>
+      <c r="B13" s="440"/>
+      <c r="C13" s="440"/>
+      <c r="D13" s="441"/>
       <c r="E13" s="271" t="s">
         <v>146</v>
       </c>
       <c r="F13" s="263">
         <v>1007000</v>
       </c>
-      <c r="G13" s="461"/>
-      <c r="H13" s="462"/>
+      <c r="G13" s="446"/>
+      <c r="H13" s="447"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="429" t="s">
+      <c r="A14" s="457" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="430"/>
-      <c r="C14" s="430"/>
-      <c r="D14" s="430"/>
-      <c r="E14" s="430"/>
-      <c r="F14" s="431"/>
-      <c r="G14" s="432">
+      <c r="B14" s="458"/>
+      <c r="C14" s="458"/>
+      <c r="D14" s="458"/>
+      <c r="E14" s="458"/>
+      <c r="F14" s="459"/>
+      <c r="G14" s="448">
         <f>'Bảng lương'!J12</f>
         <v>6230769.230769231</v>
       </c>
-      <c r="H14" s="433"/>
+      <c r="H14" s="449"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="434" t="s">
+      <c r="A15" s="460" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="435"/>
-      <c r="C15" s="435"/>
-      <c r="D15" s="435"/>
-      <c r="E15" s="435"/>
-      <c r="F15" s="436"/>
-      <c r="G15" s="437">
+      <c r="B15" s="461"/>
+      <c r="C15" s="461"/>
+      <c r="D15" s="461"/>
+      <c r="E15" s="461"/>
+      <c r="F15" s="462"/>
+      <c r="G15" s="463">
         <f>G7+G8+G9+G14</f>
         <v>21165307.230769232</v>
       </c>
-      <c r="H15" s="438"/>
+      <c r="H15" s="464"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="279" t="s">
@@ -6899,10 +6899,10 @@
       <c r="E17" s="272"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="439">
+      <c r="A18" s="465">
         <v>44106</v>
       </c>
-      <c r="B18" s="440"/>
+      <c r="B18" s="466"/>
       <c r="C18" s="273"/>
       <c r="D18" s="273"/>
       <c r="E18" s="273" t="s">
@@ -6913,10 +6913,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="439">
+      <c r="A19" s="465">
         <v>44116</v>
       </c>
-      <c r="B19" s="440"/>
+      <c r="B19" s="466"/>
       <c r="C19" s="273"/>
       <c r="D19" s="273"/>
       <c r="E19" s="273" t="s">
@@ -6928,10 +6928,10 @@
       <c r="K19" s="278"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="439">
+      <c r="A20" s="465">
         <v>44120</v>
       </c>
-      <c r="B20" s="440"/>
+      <c r="B20" s="466"/>
       <c r="C20" s="273"/>
       <c r="D20" s="273"/>
       <c r="E20" s="273" t="s">
@@ -6942,10 +6942,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="439">
+      <c r="A21" s="465">
         <v>44128</v>
       </c>
-      <c r="B21" s="440"/>
+      <c r="B21" s="466"/>
       <c r="C21" s="273"/>
       <c r="D21" s="273"/>
       <c r="E21" s="273" t="s">
@@ -6957,10 +6957,10 @@
       <c r="K21" s="278"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="439">
+      <c r="A22" s="465">
         <v>44129</v>
       </c>
-      <c r="B22" s="440"/>
+      <c r="B22" s="466"/>
       <c r="C22" s="273"/>
       <c r="D22" s="273"/>
       <c r="E22" s="273" t="s">
@@ -6972,10 +6972,10 @@
       <c r="K22" s="278"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="439">
+      <c r="A23" s="465">
         <v>44131</v>
       </c>
-      <c r="B23" s="440"/>
+      <c r="B23" s="466"/>
       <c r="C23" s="273"/>
       <c r="D23" s="273"/>
       <c r="E23" s="287" t="s">
@@ -6986,13 +6986,13 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="426" t="s">
+      <c r="A24" s="454" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="427"/>
-      <c r="C24" s="427"/>
-      <c r="D24" s="427"/>
-      <c r="E24" s="428"/>
+      <c r="B24" s="455"/>
+      <c r="C24" s="455"/>
+      <c r="D24" s="455"/>
+      <c r="E24" s="456"/>
       <c r="F24" s="280">
         <f>SUM(F18:F23)</f>
         <v>7508900</v>
@@ -7089,15 +7089,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A9:D13"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A7:B8"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -7109,6 +7100,15 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A9:D13"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7649,16 +7649,16 @@
       <c r="C1" s="220"/>
       <c r="D1" s="220"/>
       <c r="E1" s="220"/>
-      <c r="Z1" s="472" t="s">
+      <c r="Z1" s="485" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="473"/>
-      <c r="AB1" s="473"/>
-      <c r="AC1" s="473"/>
-      <c r="AD1" s="473"/>
-      <c r="AE1" s="473"/>
-      <c r="AF1" s="473"/>
-      <c r="AG1" s="474"/>
+      <c r="AA1" s="486"/>
+      <c r="AB1" s="486"/>
+      <c r="AC1" s="486"/>
+      <c r="AD1" s="486"/>
+      <c r="AE1" s="486"/>
+      <c r="AF1" s="486"/>
+      <c r="AG1" s="487"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="223" t="s">
@@ -7668,18 +7668,18 @@
       <c r="C2" s="224"/>
       <c r="D2" s="224"/>
       <c r="E2" s="224"/>
-      <c r="Z2" s="467" t="s">
+      <c r="Z2" s="468" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" s="468"/>
-      <c r="AB2" s="468"/>
-      <c r="AC2" s="468"/>
-      <c r="AD2" s="468"/>
-      <c r="AE2" s="469"/>
-      <c r="AF2" s="470" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG2" s="471"/>
+      <c r="AA2" s="469"/>
+      <c r="AB2" s="469"/>
+      <c r="AC2" s="469"/>
+      <c r="AD2" s="469"/>
+      <c r="AE2" s="470"/>
+      <c r="AF2" s="471" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG2" s="472"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="223" t="s">
@@ -7689,18 +7689,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="467" t="s">
+      <c r="Z3" s="468" t="s">
         <v>112</v>
       </c>
-      <c r="AA3" s="468"/>
-      <c r="AB3" s="468"/>
-      <c r="AC3" s="468"/>
-      <c r="AD3" s="468"/>
-      <c r="AE3" s="469"/>
-      <c r="AF3" s="470" t="s">
+      <c r="AA3" s="469"/>
+      <c r="AB3" s="469"/>
+      <c r="AC3" s="469"/>
+      <c r="AD3" s="469"/>
+      <c r="AE3" s="470"/>
+      <c r="AF3" s="471" t="s">
         <v>113</v>
       </c>
-      <c r="AG3" s="471"/>
+      <c r="AG3" s="472"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="223" t="s">
@@ -7713,18 +7713,18 @@
       <c r="T4" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="467" t="s">
+      <c r="Z4" s="468" t="s">
         <v>115</v>
       </c>
-      <c r="AA4" s="468"/>
-      <c r="AB4" s="468"/>
-      <c r="AC4" s="468"/>
-      <c r="AD4" s="468"/>
-      <c r="AE4" s="469"/>
-      <c r="AF4" s="470" t="s">
+      <c r="AA4" s="469"/>
+      <c r="AB4" s="469"/>
+      <c r="AC4" s="469"/>
+      <c r="AD4" s="469"/>
+      <c r="AE4" s="470"/>
+      <c r="AF4" s="471" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="471"/>
+      <c r="AG4" s="472"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="223" t="s">
@@ -7734,18 +7734,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="467" t="s">
+      <c r="Z5" s="468" t="s">
         <v>118</v>
       </c>
-      <c r="AA5" s="468"/>
-      <c r="AB5" s="468"/>
-      <c r="AC5" s="468"/>
-      <c r="AD5" s="468"/>
-      <c r="AE5" s="469"/>
-      <c r="AF5" s="470" t="s">
+      <c r="AA5" s="469"/>
+      <c r="AB5" s="469"/>
+      <c r="AC5" s="469"/>
+      <c r="AD5" s="469"/>
+      <c r="AE5" s="470"/>
+      <c r="AF5" s="471" t="s">
         <v>119</v>
       </c>
-      <c r="AG5" s="471"/>
+      <c r="AG5" s="472"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="225"/>
@@ -7755,93 +7755,93 @@
       <c r="E6" s="225"/>
     </row>
     <row r="7" spans="1:40" s="228" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="476" t="s">
+      <c r="A7" s="473" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="476"/>
-      <c r="C7" s="476"/>
-      <c r="D7" s="476"/>
-      <c r="E7" s="476"/>
-      <c r="F7" s="476"/>
-      <c r="G7" s="476"/>
-      <c r="H7" s="476"/>
-      <c r="I7" s="476"/>
-      <c r="J7" s="476"/>
-      <c r="K7" s="476"/>
-      <c r="L7" s="476"/>
-      <c r="M7" s="476"/>
-      <c r="N7" s="476"/>
-      <c r="O7" s="476"/>
-      <c r="P7" s="476"/>
-      <c r="Q7" s="476"/>
-      <c r="R7" s="476"/>
-      <c r="S7" s="476"/>
-      <c r="T7" s="476"/>
-      <c r="U7" s="476"/>
-      <c r="V7" s="476"/>
-      <c r="W7" s="476"/>
-      <c r="X7" s="476"/>
-      <c r="Y7" s="476"/>
-      <c r="Z7" s="476"/>
-      <c r="AA7" s="476"/>
-      <c r="AB7" s="476"/>
-      <c r="AC7" s="476"/>
-      <c r="AD7" s="476"/>
-      <c r="AE7" s="476"/>
-      <c r="AF7" s="476"/>
-      <c r="AG7" s="476"/>
-      <c r="AH7" s="476"/>
-      <c r="AI7" s="476"/>
-      <c r="AJ7" s="476"/>
-      <c r="AK7" s="476"/>
-      <c r="AL7" s="476"/>
-      <c r="AM7" s="476"/>
+      <c r="B7" s="473"/>
+      <c r="C7" s="473"/>
+      <c r="D7" s="473"/>
+      <c r="E7" s="473"/>
+      <c r="F7" s="473"/>
+      <c r="G7" s="473"/>
+      <c r="H7" s="473"/>
+      <c r="I7" s="473"/>
+      <c r="J7" s="473"/>
+      <c r="K7" s="473"/>
+      <c r="L7" s="473"/>
+      <c r="M7" s="473"/>
+      <c r="N7" s="473"/>
+      <c r="O7" s="473"/>
+      <c r="P7" s="473"/>
+      <c r="Q7" s="473"/>
+      <c r="R7" s="473"/>
+      <c r="S7" s="473"/>
+      <c r="T7" s="473"/>
+      <c r="U7" s="473"/>
+      <c r="V7" s="473"/>
+      <c r="W7" s="473"/>
+      <c r="X7" s="473"/>
+      <c r="Y7" s="473"/>
+      <c r="Z7" s="473"/>
+      <c r="AA7" s="473"/>
+      <c r="AB7" s="473"/>
+      <c r="AC7" s="473"/>
+      <c r="AD7" s="473"/>
+      <c r="AE7" s="473"/>
+      <c r="AF7" s="473"/>
+      <c r="AG7" s="473"/>
+      <c r="AH7" s="473"/>
+      <c r="AI7" s="473"/>
+      <c r="AJ7" s="473"/>
+      <c r="AK7" s="473"/>
+      <c r="AL7" s="473"/>
+      <c r="AM7" s="473"/>
       <c r="AN7" s="227"/>
     </row>
     <row r="9" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="477" t="s">
+      <c r="A9" s="474" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="477" t="s">
+      <c r="B9" s="474" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="477" t="s">
+      <c r="C9" s="474" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="480" t="s">
+      <c r="D9" s="477" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="481"/>
-      <c r="F9" s="481"/>
-      <c r="G9" s="481"/>
-      <c r="H9" s="481"/>
-      <c r="I9" s="481"/>
-      <c r="J9" s="481"/>
-      <c r="K9" s="481"/>
-      <c r="L9" s="481"/>
-      <c r="M9" s="481"/>
-      <c r="N9" s="481"/>
-      <c r="O9" s="481"/>
-      <c r="P9" s="481"/>
-      <c r="Q9" s="481"/>
-      <c r="R9" s="481"/>
-      <c r="S9" s="481"/>
-      <c r="T9" s="481"/>
-      <c r="U9" s="481"/>
-      <c r="V9" s="481"/>
-      <c r="W9" s="481"/>
-      <c r="X9" s="481"/>
-      <c r="Y9" s="481"/>
-      <c r="Z9" s="481"/>
-      <c r="AA9" s="481"/>
-      <c r="AB9" s="481"/>
-      <c r="AC9" s="481"/>
-      <c r="AD9" s="481"/>
-      <c r="AE9" s="481"/>
-      <c r="AF9" s="481"/>
-      <c r="AG9" s="481"/>
-      <c r="AH9" s="482"/>
-      <c r="AI9" s="483" t="s">
+      <c r="E9" s="478"/>
+      <c r="F9" s="478"/>
+      <c r="G9" s="478"/>
+      <c r="H9" s="478"/>
+      <c r="I9" s="478"/>
+      <c r="J9" s="478"/>
+      <c r="K9" s="478"/>
+      <c r="L9" s="478"/>
+      <c r="M9" s="478"/>
+      <c r="N9" s="478"/>
+      <c r="O9" s="478"/>
+      <c r="P9" s="478"/>
+      <c r="Q9" s="478"/>
+      <c r="R9" s="478"/>
+      <c r="S9" s="478"/>
+      <c r="T9" s="478"/>
+      <c r="U9" s="478"/>
+      <c r="V9" s="478"/>
+      <c r="W9" s="478"/>
+      <c r="X9" s="478"/>
+      <c r="Y9" s="478"/>
+      <c r="Z9" s="478"/>
+      <c r="AA9" s="478"/>
+      <c r="AB9" s="478"/>
+      <c r="AC9" s="478"/>
+      <c r="AD9" s="478"/>
+      <c r="AE9" s="478"/>
+      <c r="AF9" s="478"/>
+      <c r="AG9" s="478"/>
+      <c r="AH9" s="479"/>
+      <c r="AI9" s="480" t="s">
         <v>124</v>
       </c>
       <c r="AJ9" s="229"/>
@@ -7851,9 +7851,9 @@
       <c r="AN9" s="232"/>
     </row>
     <row r="10" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="478"/>
-      <c r="B10" s="478"/>
-      <c r="C10" s="478"/>
+      <c r="A10" s="475"/>
+      <c r="B10" s="475"/>
+      <c r="C10" s="475"/>
       <c r="D10" s="234">
         <v>1</v>
       </c>
@@ -7947,7 +7947,7 @@
       <c r="AH10" s="234">
         <v>31</v>
       </c>
-      <c r="AI10" s="483"/>
+      <c r="AI10" s="480"/>
       <c r="AJ10" s="235"/>
       <c r="AK10" s="231"/>
       <c r="AL10" s="231"/>
@@ -7955,9 +7955,9 @@
       <c r="AN10" s="232"/>
     </row>
     <row r="11" spans="1:40" s="239" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="479"/>
-      <c r="B11" s="479"/>
-      <c r="C11" s="479"/>
+      <c r="A11" s="476"/>
+      <c r="B11" s="476"/>
+      <c r="C11" s="476"/>
       <c r="D11" s="237" t="s">
         <v>129</v>
       </c>
@@ -8051,7 +8051,7 @@
       <c r="AH11" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="AI11" s="483"/>
+      <c r="AI11" s="480"/>
       <c r="AJ11" s="238"/>
       <c r="AN11" s="240"/>
     </row>
@@ -8466,10 +8466,10 @@
       <c r="AN15" s="240"/>
     </row>
     <row r="16" spans="1:40" s="239" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="484" t="s">
+      <c r="A16" s="481" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="485"/>
+      <c r="B16" s="482"/>
       <c r="C16" s="246"/>
       <c r="D16" s="246"/>
       <c r="E16" s="247"/>
@@ -8512,49 +8512,49 @@
       <c r="AN16" s="240"/>
     </row>
     <row r="18" spans="1:40" s="256" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="486" t="s">
+      <c r="A18" s="483" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="486"/>
-      <c r="C18" s="486"/>
-      <c r="D18" s="486"/>
-      <c r="E18" s="486"/>
-      <c r="F18" s="486"/>
-      <c r="G18" s="486"/>
+      <c r="B18" s="483"/>
+      <c r="C18" s="483"/>
+      <c r="D18" s="483"/>
+      <c r="E18" s="483"/>
+      <c r="F18" s="483"/>
+      <c r="G18" s="483"/>
       <c r="H18" s="251"/>
-      <c r="I18" s="487"/>
-      <c r="J18" s="487"/>
-      <c r="K18" s="487"/>
-      <c r="L18" s="487"/>
-      <c r="M18" s="487"/>
+      <c r="I18" s="484"/>
+      <c r="J18" s="484"/>
+      <c r="K18" s="484"/>
+      <c r="L18" s="484"/>
+      <c r="M18" s="484"/>
       <c r="N18" s="252"/>
-      <c r="O18" s="487" t="s">
+      <c r="O18" s="484" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="487"/>
-      <c r="Q18" s="487"/>
-      <c r="R18" s="487"/>
-      <c r="S18" s="487"/>
-      <c r="T18" s="487"/>
-      <c r="U18" s="487"/>
-      <c r="V18" s="487"/>
-      <c r="W18" s="487"/>
-      <c r="X18" s="487"/>
-      <c r="Y18" s="487"/>
+      <c r="P18" s="484"/>
+      <c r="Q18" s="484"/>
+      <c r="R18" s="484"/>
+      <c r="S18" s="484"/>
+      <c r="T18" s="484"/>
+      <c r="U18" s="484"/>
+      <c r="V18" s="484"/>
+      <c r="W18" s="484"/>
+      <c r="X18" s="484"/>
+      <c r="Y18" s="484"/>
       <c r="Z18" s="253"/>
       <c r="AA18" s="253"/>
       <c r="AB18" s="254"/>
-      <c r="AC18" s="487"/>
-      <c r="AD18" s="487"/>
-      <c r="AE18" s="487"/>
-      <c r="AF18" s="487"/>
-      <c r="AG18" s="487"/>
-      <c r="AH18" s="487"/>
-      <c r="AI18" s="487"/>
-      <c r="AJ18" s="487"/>
-      <c r="AK18" s="487"/>
-      <c r="AL18" s="487"/>
-      <c r="AM18" s="487"/>
+      <c r="AC18" s="484"/>
+      <c r="AD18" s="484"/>
+      <c r="AE18" s="484"/>
+      <c r="AF18" s="484"/>
+      <c r="AG18" s="484"/>
+      <c r="AH18" s="484"/>
+      <c r="AI18" s="484"/>
+      <c r="AJ18" s="484"/>
+      <c r="AK18" s="484"/>
+      <c r="AL18" s="484"/>
+      <c r="AM18" s="484"/>
       <c r="AN18" s="255"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -8588,131 +8588,131 @@
       <c r="AN33" s="260"/>
     </row>
     <row r="34" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="475"/>
-      <c r="H34" s="475"/>
-      <c r="I34" s="475"/>
-      <c r="J34" s="475"/>
-      <c r="K34" s="475"/>
-      <c r="L34" s="475"/>
-      <c r="M34" s="475"/>
-      <c r="N34" s="475"/>
-      <c r="O34" s="475"/>
-      <c r="P34" s="475"/>
-      <c r="Q34" s="475"/>
-      <c r="R34" s="475"/>
-      <c r="S34" s="475"/>
-      <c r="T34" s="475"/>
-      <c r="U34" s="475"/>
-      <c r="V34" s="475"/>
-      <c r="W34" s="475"/>
-      <c r="X34" s="475"/>
+      <c r="G34" s="467"/>
+      <c r="H34" s="467"/>
+      <c r="I34" s="467"/>
+      <c r="J34" s="467"/>
+      <c r="K34" s="467"/>
+      <c r="L34" s="467"/>
+      <c r="M34" s="467"/>
+      <c r="N34" s="467"/>
+      <c r="O34" s="467"/>
+      <c r="P34" s="467"/>
+      <c r="Q34" s="467"/>
+      <c r="R34" s="467"/>
+      <c r="S34" s="467"/>
+      <c r="T34" s="467"/>
+      <c r="U34" s="467"/>
+      <c r="V34" s="467"/>
+      <c r="W34" s="467"/>
+      <c r="X34" s="467"/>
       <c r="AN34" s="260"/>
     </row>
     <row r="35" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="475"/>
-      <c r="H35" s="475"/>
-      <c r="I35" s="475"/>
-      <c r="J35" s="475"/>
-      <c r="K35" s="475"/>
-      <c r="L35" s="475"/>
-      <c r="M35" s="475"/>
-      <c r="N35" s="475"/>
-      <c r="O35" s="475"/>
-      <c r="P35" s="475"/>
-      <c r="Q35" s="475"/>
-      <c r="R35" s="475"/>
-      <c r="S35" s="475"/>
-      <c r="T35" s="475"/>
-      <c r="U35" s="475"/>
-      <c r="V35" s="475"/>
-      <c r="W35" s="475"/>
-      <c r="X35" s="475"/>
+      <c r="G35" s="467"/>
+      <c r="H35" s="467"/>
+      <c r="I35" s="467"/>
+      <c r="J35" s="467"/>
+      <c r="K35" s="467"/>
+      <c r="L35" s="467"/>
+      <c r="M35" s="467"/>
+      <c r="N35" s="467"/>
+      <c r="O35" s="467"/>
+      <c r="P35" s="467"/>
+      <c r="Q35" s="467"/>
+      <c r="R35" s="467"/>
+      <c r="S35" s="467"/>
+      <c r="T35" s="467"/>
+      <c r="U35" s="467"/>
+      <c r="V35" s="467"/>
+      <c r="W35" s="467"/>
+      <c r="X35" s="467"/>
       <c r="AN35" s="260"/>
     </row>
     <row r="36" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="475"/>
-      <c r="H36" s="475"/>
-      <c r="I36" s="475"/>
-      <c r="J36" s="475"/>
-      <c r="K36" s="475"/>
-      <c r="L36" s="475"/>
-      <c r="M36" s="475"/>
-      <c r="N36" s="475"/>
-      <c r="O36" s="475"/>
-      <c r="P36" s="475"/>
-      <c r="Q36" s="475"/>
-      <c r="R36" s="475"/>
-      <c r="S36" s="475"/>
-      <c r="T36" s="475"/>
-      <c r="U36" s="475"/>
-      <c r="V36" s="475"/>
-      <c r="W36" s="475"/>
-      <c r="X36" s="475"/>
+      <c r="G36" s="467"/>
+      <c r="H36" s="467"/>
+      <c r="I36" s="467"/>
+      <c r="J36" s="467"/>
+      <c r="K36" s="467"/>
+      <c r="L36" s="467"/>
+      <c r="M36" s="467"/>
+      <c r="N36" s="467"/>
+      <c r="O36" s="467"/>
+      <c r="P36" s="467"/>
+      <c r="Q36" s="467"/>
+      <c r="R36" s="467"/>
+      <c r="S36" s="467"/>
+      <c r="T36" s="467"/>
+      <c r="U36" s="467"/>
+      <c r="V36" s="467"/>
+      <c r="W36" s="467"/>
+      <c r="X36" s="467"/>
       <c r="AN36" s="260"/>
     </row>
     <row r="37" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="475"/>
-      <c r="H37" s="475"/>
-      <c r="I37" s="475"/>
-      <c r="J37" s="475"/>
-      <c r="K37" s="475"/>
-      <c r="L37" s="475"/>
-      <c r="M37" s="475"/>
-      <c r="N37" s="475"/>
-      <c r="O37" s="475"/>
-      <c r="P37" s="475"/>
-      <c r="Q37" s="475"/>
-      <c r="R37" s="475"/>
-      <c r="S37" s="475"/>
-      <c r="T37" s="475"/>
-      <c r="U37" s="475"/>
-      <c r="V37" s="475"/>
-      <c r="W37" s="475"/>
-      <c r="X37" s="475"/>
+      <c r="G37" s="467"/>
+      <c r="H37" s="467"/>
+      <c r="I37" s="467"/>
+      <c r="J37" s="467"/>
+      <c r="K37" s="467"/>
+      <c r="L37" s="467"/>
+      <c r="M37" s="467"/>
+      <c r="N37" s="467"/>
+      <c r="O37" s="467"/>
+      <c r="P37" s="467"/>
+      <c r="Q37" s="467"/>
+      <c r="R37" s="467"/>
+      <c r="S37" s="467"/>
+      <c r="T37" s="467"/>
+      <c r="U37" s="467"/>
+      <c r="V37" s="467"/>
+      <c r="W37" s="467"/>
+      <c r="X37" s="467"/>
       <c r="AN37" s="260"/>
     </row>
     <row r="38" spans="3:40" s="259" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="475"/>
-      <c r="H38" s="475"/>
-      <c r="I38" s="475"/>
-      <c r="J38" s="475"/>
-      <c r="K38" s="475"/>
-      <c r="L38" s="475"/>
-      <c r="M38" s="475"/>
-      <c r="N38" s="475"/>
-      <c r="O38" s="475"/>
-      <c r="P38" s="475"/>
-      <c r="Q38" s="475"/>
-      <c r="R38" s="475"/>
-      <c r="S38" s="475"/>
-      <c r="T38" s="475"/>
-      <c r="U38" s="475"/>
-      <c r="V38" s="475"/>
-      <c r="W38" s="475"/>
-      <c r="X38" s="475"/>
+      <c r="G38" s="467"/>
+      <c r="H38" s="467"/>
+      <c r="I38" s="467"/>
+      <c r="J38" s="467"/>
+      <c r="K38" s="467"/>
+      <c r="L38" s="467"/>
+      <c r="M38" s="467"/>
+      <c r="N38" s="467"/>
+      <c r="O38" s="467"/>
+      <c r="P38" s="467"/>
+      <c r="Q38" s="467"/>
+      <c r="R38" s="467"/>
+      <c r="S38" s="467"/>
+      <c r="T38" s="467"/>
+      <c r="U38" s="467"/>
+      <c r="V38" s="467"/>
+      <c r="W38" s="467"/>
+      <c r="X38" s="467"/>
       <c r="AN38" s="260"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="221"/>
       <c r="D39" s="221"/>
-      <c r="G39" s="475"/>
-      <c r="H39" s="475"/>
-      <c r="I39" s="475"/>
-      <c r="J39" s="475"/>
-      <c r="K39" s="475"/>
-      <c r="L39" s="475"/>
-      <c r="M39" s="475"/>
-      <c r="N39" s="475"/>
-      <c r="O39" s="475"/>
-      <c r="P39" s="475"/>
-      <c r="Q39" s="475"/>
-      <c r="R39" s="475"/>
-      <c r="S39" s="475"/>
-      <c r="T39" s="475"/>
-      <c r="U39" s="475"/>
-      <c r="V39" s="475"/>
-      <c r="W39" s="475"/>
-      <c r="X39" s="475"/>
+      <c r="G39" s="467"/>
+      <c r="H39" s="467"/>
+      <c r="I39" s="467"/>
+      <c r="J39" s="467"/>
+      <c r="K39" s="467"/>
+      <c r="L39" s="467"/>
+      <c r="M39" s="467"/>
+      <c r="N39" s="467"/>
+      <c r="O39" s="467"/>
+      <c r="P39" s="467"/>
+      <c r="Q39" s="467"/>
+      <c r="R39" s="467"/>
+      <c r="S39" s="467"/>
+      <c r="T39" s="467"/>
+      <c r="U39" s="467"/>
+      <c r="V39" s="467"/>
+      <c r="W39" s="467"/>
+      <c r="X39" s="467"/>
       <c r="AN39" s="221"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -8722,6 +8722,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -8736,13 +8743,6 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="6"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -2518,14 +2518,101 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2557,120 +2644,9 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2704,7 +2680,31 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="22" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2722,27 +2722,75 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2750,78 +2798,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2865,6 +2841,30 @@
     </xf>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3230,11 +3230,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:H3"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3343,7 +3344,7 @@
       </c>
       <c r="H4" s="388"/>
     </row>
-    <row r="5" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="106" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="386"/>
       <c r="B5" s="386"/>
       <c r="C5" s="386"/>
@@ -3361,7 +3362,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="200">
         <v>44136</v>
       </c>
@@ -3381,7 +3382,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="200">
         <v>44137</v>
       </c>
@@ -3401,7 +3402,7 @@
       <c r="G7" s="203"/>
       <c r="H7" s="204"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="200">
         <v>44136</v>
       </c>
@@ -3421,7 +3422,7 @@
       <c r="G8" s="203"/>
       <c r="H8" s="204"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92">
         <v>44137</v>
       </c>
@@ -3441,7 +3442,7 @@
       </c>
       <c r="H9" s="108"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92">
         <v>44138</v>
       </c>
@@ -3461,7 +3462,7 @@
       <c r="G10" s="95"/>
       <c r="H10" s="108"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92">
         <v>44139</v>
       </c>
@@ -3481,7 +3482,7 @@
       <c r="G11" s="95"/>
       <c r="H11" s="108"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="343">
         <v>44139</v>
       </c>
@@ -3501,7 +3502,7 @@
       <c r="G12" s="95"/>
       <c r="H12" s="108"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="343">
         <v>44139</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="343">
         <v>44140</v>
       </c>
@@ -3561,7 +3562,7 @@
       </c>
       <c r="H15" s="204"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="343">
         <v>44140</v>
       </c>
@@ -3581,7 +3582,7 @@
       <c r="G16" s="95"/>
       <c r="H16" s="108"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="343">
         <v>44141</v>
       </c>
@@ -3601,7 +3602,7 @@
       </c>
       <c r="H17" s="108"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="343">
         <v>44142</v>
       </c>
@@ -3621,7 +3622,7 @@
       </c>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="343">
         <v>44142</v>
       </c>
@@ -3641,7 +3642,7 @@
       <c r="G19" s="95"/>
       <c r="H19" s="110"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="343">
         <v>44142</v>
       </c>
@@ -3663,7 +3664,7 @@
       <c r="K20" s="100"/>
       <c r="L20" s="100"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="343">
         <v>44143</v>
       </c>
@@ -3685,7 +3686,7 @@
       <c r="K21" s="100"/>
       <c r="L21" s="100"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="343">
         <v>44143</v>
       </c>
@@ -3707,7 +3708,7 @@
       <c r="K22" s="100"/>
       <c r="L22" s="100"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="343">
         <v>44145</v>
       </c>
@@ -3729,7 +3730,7 @@
       <c r="K23" s="100"/>
       <c r="L23" s="100"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="343">
         <v>44145</v>
       </c>
@@ -3794,7 +3795,7 @@
       <c r="H26" s="110"/>
       <c r="N26" s="210"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92">
         <v>44150</v>
       </c>
@@ -3815,7 +3816,7 @@
       <c r="H27" s="110"/>
       <c r="K27" s="210"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="92">
         <v>44150</v>
       </c>
@@ -3835,7 +3836,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="92">
         <v>44152</v>
       </c>
@@ -3856,7 +3857,7 @@
       <c r="H29" s="110"/>
       <c r="J29" s="210"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92">
         <v>44152</v>
       </c>
@@ -3877,7 +3878,7 @@
       <c r="H30" s="110"/>
       <c r="J30" s="210"/>
     </row>
-    <row r="31" spans="1:14" s="376" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="370">
         <v>44152</v>
       </c>
@@ -3898,7 +3899,7 @@
       </c>
       <c r="J31" s="377"/>
     </row>
-    <row r="32" spans="1:14" s="376" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="370">
         <v>44152</v>
       </c>
@@ -3919,7 +3920,7 @@
       </c>
       <c r="K32" s="377"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92">
         <v>44152</v>
       </c>
@@ -3940,7 +3941,7 @@
       <c r="H33" s="110"/>
       <c r="K33" s="210"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92">
         <v>44152</v>
       </c>
@@ -3961,7 +3962,7 @@
       <c r="H34" s="110"/>
       <c r="K34" s="210"/>
     </row>
-    <row r="35" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="370">
         <v>44154</v>
       </c>
@@ -3982,7 +3983,7 @@
       <c r="H35" s="375"/>
       <c r="K35" s="377"/>
     </row>
-    <row r="36" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="370">
         <v>44154</v>
       </c>
@@ -4002,7 +4003,7 @@
       <c r="G36" s="373"/>
       <c r="H36" s="375"/>
     </row>
-    <row r="37" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="370">
         <v>44159</v>
       </c>
@@ -4022,7 +4023,7 @@
       <c r="G37" s="373"/>
       <c r="H37" s="375"/>
     </row>
-    <row r="38" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="370">
         <v>44160</v>
       </c>
@@ -4043,7 +4044,7 @@
       <c r="H38" s="375"/>
       <c r="K38" s="378"/>
     </row>
-    <row r="39" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="370">
         <v>44160</v>
       </c>
@@ -4063,7 +4064,7 @@
       <c r="G39" s="373"/>
       <c r="H39" s="375"/>
     </row>
-    <row r="40" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="370">
         <v>44160</v>
       </c>
@@ -4083,7 +4084,7 @@
       </c>
       <c r="H40" s="375"/>
     </row>
-    <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="92">
         <v>44160</v>
       </c>
@@ -4104,7 +4105,7 @@
       <c r="H41" s="110"/>
       <c r="K41" s="210"/>
     </row>
-    <row r="42" spans="1:11" s="376" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="376" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="370">
         <v>44160</v>
       </c>
@@ -4124,7 +4125,7 @@
       </c>
       <c r="H42" s="375"/>
     </row>
-    <row r="43" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="370">
         <v>44163</v>
       </c>
@@ -4144,7 +4145,7 @@
       </c>
       <c r="H43" s="375"/>
     </row>
-    <row r="44" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="370">
         <v>44163</v>
       </c>
@@ -4184,7 +4185,7 @@
       </c>
       <c r="H45" s="375"/>
     </row>
-    <row r="46" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="370">
         <v>44165</v>
       </c>
@@ -4204,7 +4205,7 @@
       <c r="G46" s="373"/>
       <c r="H46" s="375"/>
     </row>
-    <row r="47" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="370">
         <v>44165</v>
       </c>
@@ -4611,7 +4612,7 @@
       <c r="G86" s="95"/>
       <c r="H86" s="110"/>
     </row>
-    <row r="87" spans="1:10" s="113" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" s="113" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="382" t="s">
         <v>9</v>
       </c>
@@ -4691,6 +4692,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:H87">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Lương, thưởng"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
@@ -4741,13 +4747,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="427" t="s">
+      <c r="A1" s="397" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="427"/>
-      <c r="C1" s="427"/>
-      <c r="D1" s="427"/>
-      <c r="E1" s="427"/>
+      <c r="B1" s="397"/>
+      <c r="C1" s="397"/>
+      <c r="D1" s="397"/>
+      <c r="E1" s="397"/>
       <c r="H1" s="124"/>
       <c r="I1" s="124"/>
       <c r="J1" s="124"/>
@@ -4777,153 +4783,153 @@
       <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="428" t="s">
+      <c r="A3" s="398" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="428"/>
-      <c r="C3" s="428"/>
-      <c r="D3" s="428"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="428"/>
-      <c r="G3" s="428"/>
-      <c r="H3" s="428"/>
-      <c r="I3" s="428"/>
-      <c r="J3" s="428"/>
-      <c r="K3" s="428"/>
-      <c r="L3" s="428"/>
-      <c r="M3" s="428"/>
-      <c r="N3" s="428"/>
-      <c r="O3" s="428"/>
-      <c r="P3" s="428"/>
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="398"/>
+      <c r="I3" s="398"/>
+      <c r="J3" s="398"/>
+      <c r="K3" s="398"/>
+      <c r="L3" s="398"/>
+      <c r="M3" s="398"/>
+      <c r="N3" s="398"/>
+      <c r="O3" s="398"/>
+      <c r="P3" s="398"/>
     </row>
     <row r="4" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="428" t="s">
+      <c r="A4" s="398" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="428"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="428"/>
-      <c r="E4" s="428"/>
-      <c r="F4" s="428"/>
-      <c r="G4" s="428"/>
-      <c r="H4" s="428"/>
-      <c r="I4" s="428"/>
-      <c r="J4" s="428"/>
-      <c r="K4" s="428"/>
-      <c r="L4" s="428"/>
-      <c r="M4" s="428"/>
-      <c r="N4" s="428"/>
-      <c r="O4" s="428"/>
-      <c r="P4" s="428"/>
+      <c r="B4" s="398"/>
+      <c r="C4" s="398"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="398"/>
+      <c r="G4" s="398"/>
+      <c r="H4" s="398"/>
+      <c r="I4" s="398"/>
+      <c r="J4" s="398"/>
+      <c r="K4" s="398"/>
+      <c r="L4" s="398"/>
+      <c r="M4" s="398"/>
+      <c r="N4" s="398"/>
+      <c r="O4" s="398"/>
+      <c r="P4" s="398"/>
     </row>
     <row r="5" spans="1:16" s="123" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="421" t="s">
+      <c r="A5" s="412" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="413" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="421" t="s">
+      <c r="C5" s="412" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="421" t="s">
+      <c r="D5" s="412" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="421"/>
-      <c r="F5" s="423" t="s">
+      <c r="E5" s="412"/>
+      <c r="F5" s="400" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="423"/>
-      <c r="H5" s="423"/>
-      <c r="I5" s="423"/>
-      <c r="J5" s="423"/>
-      <c r="K5" s="423"/>
-      <c r="L5" s="423"/>
-      <c r="M5" s="429" t="s">
+      <c r="G5" s="400"/>
+      <c r="H5" s="400"/>
+      <c r="I5" s="400"/>
+      <c r="J5" s="400"/>
+      <c r="K5" s="400"/>
+      <c r="L5" s="400"/>
+      <c r="M5" s="399" t="s">
         <v>133</v>
       </c>
-      <c r="N5" s="429"/>
-      <c r="O5" s="429"/>
-      <c r="P5" s="423" t="s">
+      <c r="N5" s="399"/>
+      <c r="O5" s="399"/>
+      <c r="P5" s="400" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="123" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="421"/>
-      <c r="B6" s="422"/>
-      <c r="C6" s="421"/>
-      <c r="D6" s="421" t="s">
+      <c r="A6" s="412"/>
+      <c r="B6" s="413"/>
+      <c r="C6" s="412"/>
+      <c r="D6" s="412" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="421" t="s">
+      <c r="E6" s="412" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="421" t="s">
+      <c r="F6" s="412" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="421" t="s">
+      <c r="G6" s="412" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="424" t="s">
+      <c r="H6" s="401" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="424" t="s">
+      <c r="I6" s="401" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="425" t="s">
+      <c r="J6" s="414" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="425"/>
-      <c r="L6" s="424" t="s">
+      <c r="K6" s="414"/>
+      <c r="L6" s="401" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="424" t="s">
+      <c r="M6" s="401" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="424" t="s">
+      <c r="N6" s="401" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="424" t="s">
+      <c r="O6" s="401" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="423"/>
+      <c r="P6" s="400"/>
     </row>
     <row r="7" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="421"/>
-      <c r="B7" s="422"/>
-      <c r="C7" s="421"/>
-      <c r="D7" s="421"/>
-      <c r="E7" s="421"/>
-      <c r="F7" s="421"/>
-      <c r="G7" s="421"/>
-      <c r="H7" s="424"/>
-      <c r="I7" s="424"/>
+      <c r="A7" s="412"/>
+      <c r="B7" s="413"/>
+      <c r="C7" s="412"/>
+      <c r="D7" s="412"/>
+      <c r="E7" s="412"/>
+      <c r="F7" s="412"/>
+      <c r="G7" s="412"/>
+      <c r="H7" s="401"/>
+      <c r="I7" s="401"/>
       <c r="J7" s="206" t="s">
         <v>83</v>
       </c>
       <c r="K7" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="424"/>
-      <c r="M7" s="424"/>
-      <c r="N7" s="424"/>
-      <c r="O7" s="424"/>
-      <c r="P7" s="423"/>
+      <c r="L7" s="401"/>
+      <c r="M7" s="401"/>
+      <c r="N7" s="401"/>
+      <c r="O7" s="401"/>
+      <c r="P7" s="400"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="412">
+      <c r="A8" s="389">
         <v>1219</v>
       </c>
-      <c r="B8" s="409">
+      <c r="B8" s="392">
         <v>44138</v>
       </c>
-      <c r="C8" s="412" t="s">
+      <c r="C8" s="389" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="412" t="s">
+      <c r="D8" s="389" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="412" t="s">
+      <c r="E8" s="389" t="s">
         <v>160</v>
       </c>
       <c r="F8" s="162" t="s">
@@ -4956,11 +4962,11 @@
       <c r="P8" s="162"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="413"/>
-      <c r="B9" s="410"/>
-      <c r="C9" s="413"/>
-      <c r="D9" s="413"/>
-      <c r="E9" s="413"/>
+      <c r="A9" s="390"/>
+      <c r="B9" s="393"/>
+      <c r="C9" s="390"/>
+      <c r="D9" s="390"/>
+      <c r="E9" s="390"/>
       <c r="F9" s="174" t="s">
         <v>162</v>
       </c>
@@ -4991,11 +4997,11 @@
       <c r="P9" s="174"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="413"/>
-      <c r="B10" s="410"/>
-      <c r="C10" s="413"/>
-      <c r="D10" s="413"/>
-      <c r="E10" s="413"/>
+      <c r="A10" s="390"/>
+      <c r="B10" s="393"/>
+      <c r="C10" s="390"/>
+      <c r="D10" s="390"/>
+      <c r="E10" s="390"/>
       <c r="F10" s="174" t="s">
         <v>163</v>
       </c>
@@ -5026,11 +5032,11 @@
       <c r="P10" s="174"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="413"/>
-      <c r="B11" s="410"/>
-      <c r="C11" s="413"/>
-      <c r="D11" s="413"/>
-      <c r="E11" s="413"/>
+      <c r="A11" s="390"/>
+      <c r="B11" s="393"/>
+      <c r="C11" s="390"/>
+      <c r="D11" s="390"/>
+      <c r="E11" s="390"/>
       <c r="F11" s="174" t="s">
         <v>164</v>
       </c>
@@ -5061,11 +5067,11 @@
       <c r="P11" s="174"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="414"/>
-      <c r="B12" s="411"/>
-      <c r="C12" s="414"/>
-      <c r="D12" s="414"/>
-      <c r="E12" s="414"/>
+      <c r="A12" s="391"/>
+      <c r="B12" s="394"/>
+      <c r="C12" s="391"/>
+      <c r="D12" s="391"/>
+      <c r="E12" s="391"/>
       <c r="F12" s="165" t="s">
         <v>165</v>
       </c>
@@ -5096,19 +5102,19 @@
       <c r="P12" s="168"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="415">
+      <c r="A13" s="402">
         <v>1216</v>
       </c>
-      <c r="B13" s="417">
+      <c r="B13" s="404">
         <v>44137</v>
       </c>
-      <c r="C13" s="415" t="s">
+      <c r="C13" s="402" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="415" t="s">
+      <c r="D13" s="402" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="415" t="s">
+      <c r="E13" s="402" t="s">
         <v>167</v>
       </c>
       <c r="F13" s="207" t="s">
@@ -5141,11 +5147,11 @@
       <c r="P13" s="337"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="390"/>
+      <c r="A14" s="403"/>
       <c r="B14" s="405"/>
-      <c r="C14" s="390"/>
-      <c r="D14" s="390"/>
-      <c r="E14" s="390"/>
+      <c r="C14" s="403"/>
+      <c r="D14" s="403"/>
+      <c r="E14" s="403"/>
       <c r="F14" s="339" t="s">
         <v>168</v>
       </c>
@@ -5219,17 +5225,17 @@
       <c r="P15" s="169"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="390">
+      <c r="A16" s="403">
         <v>1221</v>
       </c>
       <c r="B16" s="405">
         <v>44139</v>
       </c>
-      <c r="C16" s="390"/>
-      <c r="D16" s="390" t="s">
+      <c r="C16" s="403"/>
+      <c r="D16" s="403" t="s">
         <v>175</v>
       </c>
-      <c r="E16" s="390" t="s">
+      <c r="E16" s="403" t="s">
         <v>176</v>
       </c>
       <c r="F16" s="207" t="s">
@@ -5264,11 +5270,11 @@
       <c r="P16" s="207"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="390"/>
+      <c r="A17" s="403"/>
       <c r="B17" s="405"/>
-      <c r="C17" s="390"/>
-      <c r="D17" s="390"/>
-      <c r="E17" s="390"/>
+      <c r="C17" s="403"/>
+      <c r="D17" s="403"/>
+      <c r="E17" s="403"/>
       <c r="F17" s="174" t="s">
         <v>177</v>
       </c>
@@ -5387,19 +5393,19 @@
       <c r="P19" s="156"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="415">
+      <c r="A20" s="402">
         <v>1225</v>
       </c>
-      <c r="B20" s="417">
+      <c r="B20" s="404">
         <v>44143</v>
       </c>
-      <c r="C20" s="415" t="s">
+      <c r="C20" s="402" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="415" t="s">
+      <c r="D20" s="402" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="415" t="s">
+      <c r="E20" s="402" t="s">
         <v>188</v>
       </c>
       <c r="F20" s="207" t="s">
@@ -5432,11 +5438,11 @@
       <c r="P20" s="207"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="390"/>
+      <c r="A21" s="403"/>
       <c r="B21" s="405"/>
-      <c r="C21" s="390"/>
-      <c r="D21" s="390"/>
-      <c r="E21" s="390"/>
+      <c r="C21" s="403"/>
+      <c r="D21" s="403"/>
+      <c r="E21" s="403"/>
       <c r="F21" s="170" t="s">
         <v>189</v>
       </c>
@@ -5467,11 +5473,11 @@
       <c r="P21" s="170"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="390"/>
+      <c r="A22" s="403"/>
       <c r="B22" s="405"/>
-      <c r="C22" s="390"/>
-      <c r="D22" s="390"/>
-      <c r="E22" s="390"/>
+      <c r="C22" s="403"/>
+      <c r="D22" s="403"/>
+      <c r="E22" s="403"/>
       <c r="F22" s="345" t="s">
         <v>168</v>
       </c>
@@ -5590,19 +5596,19 @@
       <c r="P24" s="350"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="415">
+      <c r="A25" s="402">
         <v>1228</v>
       </c>
-      <c r="B25" s="417">
+      <c r="B25" s="404">
         <v>44145</v>
       </c>
-      <c r="C25" s="415" t="s">
+      <c r="C25" s="402" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="418" t="s">
+      <c r="D25" s="408" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="415" t="s">
+      <c r="E25" s="402" t="s">
         <v>195</v>
       </c>
       <c r="F25" s="336" t="s">
@@ -5632,16 +5638,16 @@
         <f t="shared" si="4"/>
         <v>33852000</v>
       </c>
-      <c r="P25" s="415" t="s">
+      <c r="P25" s="402" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="390"/>
+      <c r="A26" s="403"/>
       <c r="B26" s="405"/>
-      <c r="C26" s="390"/>
-      <c r="D26" s="402"/>
-      <c r="E26" s="390"/>
+      <c r="C26" s="403"/>
+      <c r="D26" s="409"/>
+      <c r="E26" s="403"/>
       <c r="F26" s="170" t="s">
         <v>177</v>
       </c>
@@ -5669,14 +5675,14 @@
         <f t="shared" si="4"/>
         <v>3459600</v>
       </c>
-      <c r="P26" s="390"/>
+      <c r="P26" s="403"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="390"/>
+      <c r="A27" s="403"/>
       <c r="B27" s="405"/>
-      <c r="C27" s="390"/>
-      <c r="D27" s="402"/>
-      <c r="E27" s="390"/>
+      <c r="C27" s="403"/>
+      <c r="D27" s="409"/>
+      <c r="E27" s="403"/>
       <c r="F27" s="170" t="s">
         <v>196</v>
       </c>
@@ -5704,14 +5710,14 @@
         <f t="shared" si="4"/>
         <v>3534000</v>
       </c>
-      <c r="P27" s="390"/>
+      <c r="P27" s="403"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="390"/>
+      <c r="A28" s="403"/>
       <c r="B28" s="405"/>
-      <c r="C28" s="390"/>
-      <c r="D28" s="402"/>
-      <c r="E28" s="390"/>
+      <c r="C28" s="403"/>
+      <c r="D28" s="409"/>
+      <c r="E28" s="403"/>
       <c r="F28" s="174" t="s">
         <v>164</v>
       </c>
@@ -5739,14 +5745,14 @@
         <f t="shared" si="4"/>
         <v>21650400</v>
       </c>
-      <c r="P28" s="390"/>
+      <c r="P28" s="403"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="390"/>
+      <c r="A29" s="403"/>
       <c r="B29" s="405"/>
-      <c r="C29" s="390"/>
-      <c r="D29" s="402"/>
-      <c r="E29" s="390"/>
+      <c r="C29" s="403"/>
+      <c r="D29" s="409"/>
+      <c r="E29" s="403"/>
       <c r="F29" s="339" t="s">
         <v>171</v>
       </c>
@@ -5774,22 +5780,22 @@
         <f t="shared" si="4"/>
         <v>3385200</v>
       </c>
-      <c r="P29" s="416"/>
+      <c r="P29" s="406"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="415">
+      <c r="A30" s="402">
         <v>1230</v>
       </c>
-      <c r="B30" s="417">
+      <c r="B30" s="404">
         <v>44146</v>
       </c>
-      <c r="C30" s="415" t="s">
+      <c r="C30" s="402" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="415" t="s">
+      <c r="D30" s="402" t="s">
         <v>194</v>
       </c>
-      <c r="E30" s="415" t="s">
+      <c r="E30" s="402" t="s">
         <v>195</v>
       </c>
       <c r="F30" s="162" t="s">
@@ -5819,16 +5825,16 @@
         <f t="shared" si="4"/>
         <v>16740000</v>
       </c>
-      <c r="P30" s="415" t="s">
+      <c r="P30" s="402" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="390"/>
+      <c r="A31" s="403"/>
       <c r="B31" s="405"/>
-      <c r="C31" s="390"/>
-      <c r="D31" s="390"/>
-      <c r="E31" s="390"/>
+      <c r="C31" s="403"/>
+      <c r="D31" s="403"/>
+      <c r="E31" s="403"/>
       <c r="F31" s="174" t="s">
         <v>162</v>
       </c>
@@ -5856,14 +5862,14 @@
         <f t="shared" si="4"/>
         <v>6770400</v>
       </c>
-      <c r="P31" s="390"/>
+      <c r="P31" s="403"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="390"/>
+      <c r="A32" s="403"/>
       <c r="B32" s="405"/>
-      <c r="C32" s="390"/>
-      <c r="D32" s="390"/>
-      <c r="E32" s="390"/>
+      <c r="C32" s="403"/>
+      <c r="D32" s="403"/>
+      <c r="E32" s="403"/>
       <c r="F32" s="174" t="s">
         <v>177</v>
       </c>
@@ -5891,14 +5897,14 @@
         <f t="shared" si="4"/>
         <v>6919200</v>
       </c>
-      <c r="P32" s="390"/>
+      <c r="P32" s="403"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="390"/>
+      <c r="A33" s="403"/>
       <c r="B33" s="405"/>
-      <c r="C33" s="390"/>
-      <c r="D33" s="390"/>
-      <c r="E33" s="390"/>
+      <c r="C33" s="403"/>
+      <c r="D33" s="403"/>
+      <c r="E33" s="403"/>
       <c r="F33" s="174" t="s">
         <v>196</v>
       </c>
@@ -5926,14 +5932,14 @@
         <f t="shared" si="4"/>
         <v>7068000</v>
       </c>
-      <c r="P33" s="390"/>
+      <c r="P33" s="403"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="390"/>
+      <c r="A34" s="403"/>
       <c r="B34" s="405"/>
-      <c r="C34" s="390"/>
-      <c r="D34" s="390"/>
-      <c r="E34" s="390"/>
+      <c r="C34" s="403"/>
+      <c r="D34" s="403"/>
+      <c r="E34" s="403"/>
       <c r="F34" s="174" t="s">
         <v>197</v>
       </c>
@@ -5961,14 +5967,14 @@
         <f t="shared" si="4"/>
         <v>3794400</v>
       </c>
-      <c r="P34" s="390"/>
+      <c r="P34" s="403"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="390"/>
+      <c r="A35" s="403"/>
       <c r="B35" s="405"/>
-      <c r="C35" s="390"/>
-      <c r="D35" s="390"/>
-      <c r="E35" s="390"/>
+      <c r="C35" s="403"/>
+      <c r="D35" s="403"/>
+      <c r="E35" s="403"/>
       <c r="F35" s="174" t="s">
         <v>164</v>
       </c>
@@ -5996,14 +6002,14 @@
         <f t="shared" si="4"/>
         <v>14433600</v>
       </c>
-      <c r="P35" s="390"/>
+      <c r="P35" s="403"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="390"/>
+      <c r="A36" s="403"/>
       <c r="B36" s="405"/>
-      <c r="C36" s="390"/>
-      <c r="D36" s="390"/>
-      <c r="E36" s="390"/>
+      <c r="C36" s="403"/>
+      <c r="D36" s="403"/>
+      <c r="E36" s="403"/>
       <c r="F36" s="174" t="s">
         <v>198</v>
       </c>
@@ -6031,14 +6037,14 @@
         <f t="shared" si="4"/>
         <v>32736000</v>
       </c>
-      <c r="P36" s="390"/>
+      <c r="P36" s="403"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="390"/>
+      <c r="A37" s="403"/>
       <c r="B37" s="405"/>
-      <c r="C37" s="390"/>
-      <c r="D37" s="390"/>
-      <c r="E37" s="390"/>
+      <c r="C37" s="403"/>
+      <c r="D37" s="403"/>
+      <c r="E37" s="403"/>
       <c r="F37" s="339" t="s">
         <v>168</v>
       </c>
@@ -6066,20 +6072,20 @@
         <f t="shared" si="4"/>
         <v>16926000</v>
       </c>
-      <c r="P37" s="390"/>
+      <c r="P37" s="403"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="412">
+      <c r="A38" s="389">
         <v>1233</v>
       </c>
-      <c r="B38" s="409">
+      <c r="B38" s="392">
         <v>44150</v>
       </c>
-      <c r="C38" s="412"/>
-      <c r="D38" s="412" t="s">
+      <c r="C38" s="389"/>
+      <c r="D38" s="389" t="s">
         <v>175</v>
       </c>
-      <c r="E38" s="412" t="s">
+      <c r="E38" s="389" t="s">
         <v>176</v>
       </c>
       <c r="F38" s="162" t="s">
@@ -6114,11 +6120,11 @@
       <c r="P38" s="162"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="413"/>
-      <c r="B39" s="410"/>
-      <c r="C39" s="413"/>
-      <c r="D39" s="413"/>
-      <c r="E39" s="413"/>
+      <c r="A39" s="390"/>
+      <c r="B39" s="393"/>
+      <c r="C39" s="390"/>
+      <c r="D39" s="390"/>
+      <c r="E39" s="390"/>
       <c r="F39" s="174" t="s">
         <v>162</v>
       </c>
@@ -6149,11 +6155,11 @@
       <c r="P39" s="174"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="413"/>
-      <c r="B40" s="410"/>
-      <c r="C40" s="413"/>
-      <c r="D40" s="413"/>
-      <c r="E40" s="413"/>
+      <c r="A40" s="390"/>
+      <c r="B40" s="393"/>
+      <c r="C40" s="390"/>
+      <c r="D40" s="390"/>
+      <c r="E40" s="390"/>
       <c r="F40" s="174" t="s">
         <v>164</v>
       </c>
@@ -6184,11 +6190,11 @@
       <c r="P40" s="174"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="414"/>
-      <c r="B41" s="411"/>
-      <c r="C41" s="414"/>
-      <c r="D41" s="414"/>
-      <c r="E41" s="414"/>
+      <c r="A41" s="391"/>
+      <c r="B41" s="394"/>
+      <c r="C41" s="391"/>
+      <c r="D41" s="391"/>
+      <c r="E41" s="391"/>
       <c r="F41" s="165" t="s">
         <v>165</v>
       </c>
@@ -6219,19 +6225,19 @@
       <c r="P41" s="356"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="415">
+      <c r="A42" s="402">
         <v>1234</v>
       </c>
-      <c r="B42" s="417">
+      <c r="B42" s="404">
         <v>44150</v>
       </c>
-      <c r="C42" s="415" t="s">
+      <c r="C42" s="402" t="s">
         <v>191</v>
       </c>
-      <c r="D42" s="415" t="s">
+      <c r="D42" s="402" t="s">
         <v>201</v>
       </c>
-      <c r="E42" s="415" t="s">
+      <c r="E42" s="402" t="s">
         <v>202</v>
       </c>
       <c r="F42" s="207" t="s">
@@ -6264,11 +6270,11 @@
       <c r="P42" s="355"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="390"/>
+      <c r="A43" s="403"/>
       <c r="B43" s="405"/>
-      <c r="C43" s="390"/>
-      <c r="D43" s="390"/>
-      <c r="E43" s="390"/>
+      <c r="C43" s="403"/>
+      <c r="D43" s="403"/>
+      <c r="E43" s="403"/>
       <c r="F43" s="339" t="s">
         <v>164</v>
       </c>
@@ -6299,19 +6305,19 @@
       <c r="P43" s="361"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="415">
+      <c r="A44" s="402">
         <v>1235</v>
       </c>
-      <c r="B44" s="417">
+      <c r="B44" s="404">
         <v>44150</v>
       </c>
-      <c r="C44" s="415" t="s">
+      <c r="C44" s="402" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="418" t="s">
+      <c r="D44" s="408" t="s">
         <v>194</v>
       </c>
-      <c r="E44" s="415" t="s">
+      <c r="E44" s="402" t="s">
         <v>195</v>
       </c>
       <c r="F44" s="162" t="s">
@@ -6344,11 +6350,11 @@
       <c r="P44" s="362"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="390"/>
+      <c r="A45" s="403"/>
       <c r="B45" s="405"/>
-      <c r="C45" s="390"/>
-      <c r="D45" s="402"/>
-      <c r="E45" s="390"/>
+      <c r="C45" s="403"/>
+      <c r="D45" s="409"/>
+      <c r="E45" s="403"/>
       <c r="F45" s="174" t="s">
         <v>165</v>
       </c>
@@ -6379,11 +6385,11 @@
       <c r="P45" s="199"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="416"/>
-      <c r="B46" s="430"/>
-      <c r="C46" s="416"/>
-      <c r="D46" s="431"/>
-      <c r="E46" s="416"/>
+      <c r="A46" s="406"/>
+      <c r="B46" s="407"/>
+      <c r="C46" s="406"/>
+      <c r="D46" s="410"/>
+      <c r="E46" s="406"/>
       <c r="F46" s="165" t="s">
         <v>171</v>
       </c>
@@ -6506,17 +6512,17 @@
       <c r="P48" s="156"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="390">
+      <c r="A49" s="403">
         <v>1238</v>
       </c>
       <c r="B49" s="405">
         <v>44153</v>
       </c>
-      <c r="C49" s="390"/>
-      <c r="D49" s="390" t="s">
+      <c r="C49" s="403"/>
+      <c r="D49" s="403" t="s">
         <v>206</v>
       </c>
-      <c r="E49" s="390"/>
+      <c r="E49" s="403"/>
       <c r="F49" s="207" t="s">
         <v>162</v>
       </c>
@@ -6547,11 +6553,11 @@
       <c r="P49" s="355"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="390"/>
+      <c r="A50" s="403"/>
       <c r="B50" s="405"/>
-      <c r="C50" s="390"/>
-      <c r="D50" s="390"/>
-      <c r="E50" s="390"/>
+      <c r="C50" s="403"/>
+      <c r="D50" s="403"/>
+      <c r="E50" s="403"/>
       <c r="F50" s="339" t="s">
         <v>164</v>
       </c>
@@ -6582,17 +6588,17 @@
       <c r="P50" s="361"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="412">
+      <c r="A51" s="389">
         <v>1239</v>
       </c>
-      <c r="B51" s="409">
+      <c r="B51" s="392">
         <v>44153</v>
       </c>
-      <c r="C51" s="412"/>
-      <c r="D51" s="412" t="s">
+      <c r="C51" s="389"/>
+      <c r="D51" s="389" t="s">
         <v>207</v>
       </c>
-      <c r="E51" s="412"/>
+      <c r="E51" s="389"/>
       <c r="F51" s="162" t="s">
         <v>196</v>
       </c>
@@ -6623,11 +6629,11 @@
       <c r="P51" s="362"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="413"/>
-      <c r="B52" s="410"/>
-      <c r="C52" s="413"/>
-      <c r="D52" s="413"/>
-      <c r="E52" s="413"/>
+      <c r="A52" s="390"/>
+      <c r="B52" s="393"/>
+      <c r="C52" s="390"/>
+      <c r="D52" s="390"/>
+      <c r="E52" s="390"/>
       <c r="F52" s="174" t="s">
         <v>164</v>
       </c>
@@ -6658,11 +6664,11 @@
       <c r="P52" s="199"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="413"/>
-      <c r="B53" s="410"/>
-      <c r="C53" s="413"/>
-      <c r="D53" s="413"/>
-      <c r="E53" s="413"/>
+      <c r="A53" s="390"/>
+      <c r="B53" s="393"/>
+      <c r="C53" s="390"/>
+      <c r="D53" s="390"/>
+      <c r="E53" s="390"/>
       <c r="F53" s="174" t="s">
         <v>198</v>
       </c>
@@ -6693,11 +6699,11 @@
       <c r="P53" s="174"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="414"/>
-      <c r="B54" s="411"/>
-      <c r="C54" s="414"/>
-      <c r="D54" s="414"/>
-      <c r="E54" s="414"/>
+      <c r="A54" s="391"/>
+      <c r="B54" s="394"/>
+      <c r="C54" s="391"/>
+      <c r="D54" s="391"/>
+      <c r="E54" s="391"/>
       <c r="F54" s="165" t="s">
         <v>168</v>
       </c>
@@ -6728,19 +6734,19 @@
       <c r="P54" s="165"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="412">
+      <c r="A55" s="389">
         <v>1242</v>
       </c>
-      <c r="B55" s="409">
+      <c r="B55" s="392">
         <v>44154</v>
       </c>
-      <c r="C55" s="412" t="s">
+      <c r="C55" s="389" t="s">
         <v>208</v>
       </c>
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="389" t="s">
         <v>209</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="389"/>
       <c r="F55" s="162" t="s">
         <v>164</v>
       </c>
@@ -6771,11 +6777,11 @@
       <c r="P55" s="162"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="413"/>
-      <c r="B56" s="410"/>
-      <c r="C56" s="413"/>
-      <c r="D56" s="413"/>
-      <c r="E56" s="413"/>
+      <c r="A56" s="390"/>
+      <c r="B56" s="393"/>
+      <c r="C56" s="390"/>
+      <c r="D56" s="390"/>
+      <c r="E56" s="390"/>
       <c r="F56" s="174" t="s">
         <v>168</v>
       </c>
@@ -6806,11 +6812,11 @@
       <c r="P56" s="174"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="414"/>
-      <c r="B57" s="411"/>
-      <c r="C57" s="414"/>
-      <c r="D57" s="414"/>
-      <c r="E57" s="414"/>
+      <c r="A57" s="391"/>
+      <c r="B57" s="394"/>
+      <c r="C57" s="391"/>
+      <c r="D57" s="391"/>
+      <c r="E57" s="391"/>
       <c r="F57" s="165" t="s">
         <v>171</v>
       </c>
@@ -6923,19 +6929,19 @@
       <c r="P59" s="174"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="389">
+      <c r="A60" s="415">
         <v>1247</v>
       </c>
-      <c r="B60" s="404">
+      <c r="B60" s="417">
         <v>44155</v>
       </c>
-      <c r="C60" s="389" t="s">
+      <c r="C60" s="415" t="s">
         <v>191</v>
       </c>
-      <c r="D60" s="389" t="s">
+      <c r="D60" s="415" t="s">
         <v>213</v>
       </c>
-      <c r="E60" s="389"/>
+      <c r="E60" s="415"/>
       <c r="F60" s="174" t="s">
         <v>211</v>
       </c>
@@ -6966,11 +6972,11 @@
       <c r="P60" s="174"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="391"/>
-      <c r="B61" s="406"/>
-      <c r="C61" s="391"/>
-      <c r="D61" s="391"/>
-      <c r="E61" s="391"/>
+      <c r="A61" s="416"/>
+      <c r="B61" s="418"/>
+      <c r="C61" s="416"/>
+      <c r="D61" s="416"/>
+      <c r="E61" s="416"/>
       <c r="F61" s="174" t="s">
         <v>165</v>
       </c>
@@ -7001,19 +7007,19 @@
       <c r="P61" s="174"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="389">
+      <c r="A62" s="415">
         <v>1249</v>
       </c>
-      <c r="B62" s="404">
+      <c r="B62" s="417">
         <v>44155</v>
       </c>
-      <c r="C62" s="389" t="s">
+      <c r="C62" s="415" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="389" t="s">
+      <c r="D62" s="415" t="s">
         <v>191</v>
       </c>
-      <c r="E62" s="389"/>
+      <c r="E62" s="415"/>
       <c r="F62" s="174" t="s">
         <v>163</v>
       </c>
@@ -7044,11 +7050,11 @@
       <c r="P62" s="174"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="391"/>
-      <c r="B63" s="406"/>
-      <c r="C63" s="391"/>
-      <c r="D63" s="391"/>
-      <c r="E63" s="391"/>
+      <c r="A63" s="416"/>
+      <c r="B63" s="418"/>
+      <c r="C63" s="416"/>
+      <c r="D63" s="416"/>
+      <c r="E63" s="416"/>
       <c r="F63" s="174" t="s">
         <v>177</v>
       </c>
@@ -7167,19 +7173,19 @@
       <c r="P65" s="174"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="389">
+      <c r="A66" s="415">
         <v>1255</v>
       </c>
-      <c r="B66" s="404">
+      <c r="B66" s="417">
         <v>44160</v>
       </c>
-      <c r="C66" s="389" t="s">
+      <c r="C66" s="415" t="s">
         <v>158</v>
       </c>
-      <c r="D66" s="389" t="s">
+      <c r="D66" s="415" t="s">
         <v>219</v>
       </c>
-      <c r="E66" s="389" t="s">
+      <c r="E66" s="415" t="s">
         <v>220</v>
       </c>
       <c r="F66" s="174" t="s">
@@ -7209,16 +7215,16 @@
       </c>
       <c r="N66" s="175"/>
       <c r="O66" s="175"/>
-      <c r="P66" s="407" t="s">
+      <c r="P66" s="419" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="391"/>
-      <c r="B67" s="406"/>
-      <c r="C67" s="391"/>
-      <c r="D67" s="391"/>
-      <c r="E67" s="391"/>
+      <c r="A67" s="416"/>
+      <c r="B67" s="418"/>
+      <c r="C67" s="416"/>
+      <c r="D67" s="416"/>
+      <c r="E67" s="416"/>
       <c r="F67" s="174" t="s">
         <v>162</v>
       </c>
@@ -7246,20 +7252,20 @@
       </c>
       <c r="N67" s="175"/>
       <c r="O67" s="175"/>
-      <c r="P67" s="408"/>
+      <c r="P67" s="420"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="389">
+      <c r="A68" s="415">
         <v>1266</v>
       </c>
-      <c r="B68" s="404">
+      <c r="B68" s="417">
         <v>44165</v>
       </c>
-      <c r="C68" s="389"/>
-      <c r="D68" s="401" t="s">
+      <c r="C68" s="415"/>
+      <c r="D68" s="430" t="s">
         <v>265</v>
       </c>
-      <c r="E68" s="389"/>
+      <c r="E68" s="415"/>
       <c r="F68" s="174" t="s">
         <v>161</v>
       </c>
@@ -7273,15 +7279,15 @@
         <f t="shared" si="0"/>
         <v>675000</v>
       </c>
-      <c r="J68" s="392">
+      <c r="J68" s="421">
         <v>1619000</v>
       </c>
-      <c r="K68" s="395"/>
-      <c r="L68" s="398">
+      <c r="K68" s="424"/>
+      <c r="L68" s="427">
         <f>SUM(I68:I74)-J68</f>
         <v>8546000</v>
       </c>
-      <c r="M68" s="398">
+      <c r="M68" s="427">
         <f>L68</f>
         <v>8546000</v>
       </c>
@@ -7290,11 +7296,11 @@
       <c r="P68" s="174"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="390"/>
+      <c r="A69" s="403"/>
       <c r="B69" s="405"/>
-      <c r="C69" s="390"/>
-      <c r="D69" s="402"/>
-      <c r="E69" s="390"/>
+      <c r="C69" s="403"/>
+      <c r="D69" s="409"/>
+      <c r="E69" s="403"/>
       <c r="F69" s="174" t="s">
         <v>162</v>
       </c>
@@ -7308,20 +7314,20 @@
         <f t="shared" si="0"/>
         <v>2275000</v>
       </c>
-      <c r="J69" s="393"/>
-      <c r="K69" s="396"/>
-      <c r="L69" s="399"/>
-      <c r="M69" s="399"/>
+      <c r="J69" s="422"/>
+      <c r="K69" s="425"/>
+      <c r="L69" s="428"/>
+      <c r="M69" s="428"/>
       <c r="N69" s="175"/>
       <c r="O69" s="175"/>
       <c r="P69" s="174"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="390"/>
+      <c r="A70" s="403"/>
       <c r="B70" s="405"/>
-      <c r="C70" s="390"/>
-      <c r="D70" s="402"/>
-      <c r="E70" s="390"/>
+      <c r="C70" s="403"/>
+      <c r="D70" s="409"/>
+      <c r="E70" s="403"/>
       <c r="F70" s="174" t="s">
         <v>177</v>
       </c>
@@ -7335,20 +7341,20 @@
         <f t="shared" si="0"/>
         <v>1860000</v>
       </c>
-      <c r="J70" s="393"/>
-      <c r="K70" s="396"/>
-      <c r="L70" s="399"/>
-      <c r="M70" s="399"/>
+      <c r="J70" s="422"/>
+      <c r="K70" s="425"/>
+      <c r="L70" s="428"/>
+      <c r="M70" s="428"/>
       <c r="N70" s="175"/>
       <c r="O70" s="175"/>
       <c r="P70" s="174"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="390"/>
+      <c r="A71" s="403"/>
       <c r="B71" s="405"/>
-      <c r="C71" s="390"/>
-      <c r="D71" s="402"/>
-      <c r="E71" s="390"/>
+      <c r="C71" s="403"/>
+      <c r="D71" s="409"/>
+      <c r="E71" s="403"/>
       <c r="F71" s="174" t="s">
         <v>197</v>
       </c>
@@ -7362,20 +7368,20 @@
         <f t="shared" si="0"/>
         <v>1275000</v>
       </c>
-      <c r="J71" s="393"/>
-      <c r="K71" s="396"/>
-      <c r="L71" s="399"/>
-      <c r="M71" s="399"/>
+      <c r="J71" s="422"/>
+      <c r="K71" s="425"/>
+      <c r="L71" s="428"/>
+      <c r="M71" s="428"/>
       <c r="N71" s="175"/>
       <c r="O71" s="175"/>
       <c r="P71" s="174"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="390"/>
+      <c r="A72" s="403"/>
       <c r="B72" s="405"/>
-      <c r="C72" s="390"/>
-      <c r="D72" s="402"/>
-      <c r="E72" s="390"/>
+      <c r="C72" s="403"/>
+      <c r="D72" s="409"/>
+      <c r="E72" s="403"/>
       <c r="F72" s="174" t="s">
         <v>164</v>
       </c>
@@ -7389,20 +7395,20 @@
         <f t="shared" si="0"/>
         <v>970000</v>
       </c>
-      <c r="J72" s="393"/>
-      <c r="K72" s="396"/>
-      <c r="L72" s="399"/>
-      <c r="M72" s="399"/>
+      <c r="J72" s="422"/>
+      <c r="K72" s="425"/>
+      <c r="L72" s="428"/>
+      <c r="M72" s="428"/>
       <c r="N72" s="175"/>
       <c r="O72" s="175"/>
       <c r="P72" s="174"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="390"/>
+      <c r="A73" s="403"/>
       <c r="B73" s="405"/>
-      <c r="C73" s="390"/>
-      <c r="D73" s="402"/>
-      <c r="E73" s="390"/>
+      <c r="C73" s="403"/>
+      <c r="D73" s="409"/>
+      <c r="E73" s="403"/>
       <c r="F73" s="174" t="s">
         <v>198</v>
       </c>
@@ -7416,20 +7422,20 @@
         <f t="shared" si="0"/>
         <v>2200000</v>
       </c>
-      <c r="J73" s="393"/>
-      <c r="K73" s="396"/>
-      <c r="L73" s="399"/>
-      <c r="M73" s="399"/>
+      <c r="J73" s="422"/>
+      <c r="K73" s="425"/>
+      <c r="L73" s="428"/>
+      <c r="M73" s="428"/>
       <c r="N73" s="175"/>
       <c r="O73" s="175"/>
       <c r="P73" s="174"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="391"/>
-      <c r="B74" s="406"/>
-      <c r="C74" s="391"/>
-      <c r="D74" s="403"/>
-      <c r="E74" s="391"/>
+      <c r="A74" s="416"/>
+      <c r="B74" s="418"/>
+      <c r="C74" s="416"/>
+      <c r="D74" s="431"/>
+      <c r="E74" s="416"/>
       <c r="F74" s="174" t="s">
         <v>171</v>
       </c>
@@ -7443,10 +7449,10 @@
         <f t="shared" si="0"/>
         <v>910000</v>
       </c>
-      <c r="J74" s="394"/>
-      <c r="K74" s="397"/>
-      <c r="L74" s="400"/>
-      <c r="M74" s="400"/>
+      <c r="J74" s="423"/>
+      <c r="K74" s="426"/>
+      <c r="L74" s="429"/>
+      <c r="M74" s="429"/>
       <c r="N74" s="175"/>
       <c r="O74" s="175"/>
       <c r="P74" s="199"/>
@@ -7506,14 +7512,14 @@
       <c r="P77" s="165"/>
     </row>
     <row r="78" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="420" t="s">
+      <c r="A78" s="411" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="420"/>
-      <c r="C78" s="420"/>
-      <c r="D78" s="420"/>
-      <c r="E78" s="420"/>
-      <c r="F78" s="420"/>
+      <c r="B78" s="411"/>
+      <c r="C78" s="411"/>
+      <c r="D78" s="411"/>
+      <c r="E78" s="411"/>
+      <c r="F78" s="411"/>
       <c r="G78" s="131">
         <f>SUM(G8:G77)</f>
         <v>1305</v>
@@ -7533,17 +7539,17 @@
       <c r="N78" s="132"/>
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
-      <c r="Q78" s="426"/>
+      <c r="Q78" s="395"/>
     </row>
     <row r="79" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="419" t="s">
+      <c r="A79" s="396" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="419"/>
-      <c r="C79" s="419"/>
-      <c r="D79" s="419"/>
-      <c r="E79" s="419"/>
-      <c r="F79" s="419"/>
+      <c r="B79" s="396"/>
+      <c r="C79" s="396"/>
+      <c r="D79" s="396"/>
+      <c r="E79" s="396"/>
+      <c r="F79" s="396"/>
       <c r="G79" s="131">
         <f>G78</f>
         <v>1305</v>
@@ -7560,17 +7566,17 @@
       <c r="N79" s="136"/>
       <c r="O79" s="136"/>
       <c r="P79" s="136"/>
-      <c r="Q79" s="426"/>
+      <c r="Q79" s="395"/>
     </row>
     <row r="80" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="419" t="s">
+      <c r="A80" s="396" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="419"/>
-      <c r="C80" s="419"/>
-      <c r="D80" s="419"/>
-      <c r="E80" s="419"/>
-      <c r="F80" s="419"/>
+      <c r="B80" s="396"/>
+      <c r="C80" s="396"/>
+      <c r="D80" s="396"/>
+      <c r="E80" s="396"/>
+      <c r="F80" s="396"/>
       <c r="G80" s="137" t="s">
         <v>45</v>
       </c>
@@ -7588,14 +7594,14 @@
       <c r="P80" s="138"/>
     </row>
     <row r="81" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="419" t="s">
+      <c r="A81" s="396" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="419"/>
-      <c r="C81" s="419"/>
-      <c r="D81" s="419"/>
-      <c r="E81" s="419"/>
-      <c r="F81" s="419"/>
+      <c r="B81" s="396"/>
+      <c r="C81" s="396"/>
+      <c r="D81" s="396"/>
+      <c r="E81" s="396"/>
+      <c r="F81" s="396"/>
       <c r="G81" s="136"/>
       <c r="H81" s="136"/>
       <c r="I81" s="132"/>
@@ -7611,14 +7617,14 @@
       <c r="P81" s="138"/>
     </row>
     <row r="82" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="419" t="s">
+      <c r="A82" s="396" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="419"/>
-      <c r="C82" s="419"/>
-      <c r="D82" s="419"/>
-      <c r="E82" s="419"/>
-      <c r="F82" s="419"/>
+      <c r="B82" s="396"/>
+      <c r="C82" s="396"/>
+      <c r="D82" s="396"/>
+      <c r="E82" s="396"/>
+      <c r="F82" s="396"/>
       <c r="G82" s="136"/>
       <c r="H82" s="136"/>
       <c r="I82" s="132"/>
@@ -7689,6 +7695,96 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="114">
+    <mergeCell ref="E68:E74"/>
+    <mergeCell ref="J68:J74"/>
+    <mergeCell ref="K68:K74"/>
+    <mergeCell ref="L68:L74"/>
+    <mergeCell ref="M68:M74"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D68:D74"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="P25:P29"/>
+    <mergeCell ref="P30:P37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="E30:E37"/>
+    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B51:B54"/>
     <mergeCell ref="D55:D57"/>
     <mergeCell ref="E55:E57"/>
     <mergeCell ref="C55:C57"/>
@@ -7713,96 +7809,6 @@
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="P25:P29"/>
-    <mergeCell ref="P30:P37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="E30:E37"/>
-    <mergeCell ref="D30:D37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E68:E74"/>
-    <mergeCell ref="J68:J74"/>
-    <mergeCell ref="K68:K74"/>
-    <mergeCell ref="L68:L74"/>
-    <mergeCell ref="M68:M74"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D68:D74"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="C68:C74"/>
-    <mergeCell ref="A68:A74"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7847,75 +7853,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="442" t="s">
+      <c r="A3" s="434" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="442"/>
-      <c r="C3" s="442"/>
-      <c r="D3" s="442"/>
-      <c r="E3" s="442"/>
-      <c r="F3" s="442"/>
-      <c r="G3" s="442"/>
-      <c r="H3" s="442"/>
-      <c r="I3" s="442"/>
-      <c r="J3" s="442"/>
-      <c r="K3" s="442"/>
+      <c r="B3" s="434"/>
+      <c r="C3" s="434"/>
+      <c r="D3" s="434"/>
+      <c r="E3" s="434"/>
+      <c r="F3" s="434"/>
+      <c r="G3" s="434"/>
+      <c r="H3" s="434"/>
+      <c r="I3" s="434"/>
+      <c r="J3" s="434"/>
+      <c r="K3" s="434"/>
       <c r="L3" s="282"/>
       <c r="M3" s="282"/>
       <c r="N3" s="282"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="443" t="s">
+      <c r="A4" s="435" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="443"/>
-      <c r="C4" s="443"/>
-      <c r="D4" s="443"/>
-      <c r="E4" s="443"/>
-      <c r="F4" s="443"/>
-      <c r="G4" s="443"/>
-      <c r="H4" s="443"/>
-      <c r="I4" s="443"/>
-      <c r="J4" s="444"/>
-      <c r="K4" s="443"/>
+      <c r="B4" s="435"/>
+      <c r="C4" s="435"/>
+      <c r="D4" s="435"/>
+      <c r="E4" s="435"/>
+      <c r="F4" s="435"/>
+      <c r="G4" s="435"/>
+      <c r="H4" s="435"/>
+      <c r="I4" s="435"/>
+      <c r="J4" s="436"/>
+      <c r="K4" s="435"/>
       <c r="L4" s="283"/>
       <c r="M4" s="283"/>
       <c r="N4" s="283"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="445" t="s">
+      <c r="A5" s="437" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="446" t="s">
+      <c r="B5" s="438" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="445" t="s">
+      <c r="C5" s="437" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="445" t="s">
+      <c r="D5" s="437" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="445"/>
-      <c r="F5" s="447" t="s">
+      <c r="E5" s="437"/>
+      <c r="F5" s="439" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="447"/>
-      <c r="H5" s="447"/>
-      <c r="I5" s="447"/>
-      <c r="J5" s="448"/>
-      <c r="K5" s="449" t="s">
+      <c r="G5" s="439"/>
+      <c r="H5" s="439"/>
+      <c r="I5" s="439"/>
+      <c r="J5" s="440"/>
+      <c r="K5" s="441" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="441" t="s">
+      <c r="L5" s="433" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="441"/>
-      <c r="N5" s="441"/>
+      <c r="M5" s="433"/>
+      <c r="N5" s="433"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="445"/>
-      <c r="B6" s="446"/>
-      <c r="C6" s="445"/>
+      <c r="A6" s="437"/>
+      <c r="B6" s="438"/>
+      <c r="C6" s="437"/>
       <c r="D6" s="284" t="s">
         <v>40</v>
       </c>
@@ -7937,7 +7943,7 @@
       <c r="J6" s="288" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="449"/>
+      <c r="K6" s="441"/>
       <c r="L6" s="289" t="s">
         <v>52</v>
       </c>
@@ -7949,17 +7955,17 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="450">
+      <c r="A7" s="442">
         <v>1220</v>
       </c>
-      <c r="B7" s="451">
+      <c r="B7" s="445">
         <v>44139</v>
       </c>
-      <c r="C7" s="450"/>
-      <c r="D7" s="450" t="s">
+      <c r="C7" s="442"/>
+      <c r="D7" s="442" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="450"/>
+      <c r="E7" s="442"/>
       <c r="F7" s="290" t="s">
         <v>163</v>
       </c>
@@ -7988,11 +7994,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="436"/>
-      <c r="B8" s="433"/>
-      <c r="C8" s="436"/>
-      <c r="D8" s="436"/>
-      <c r="E8" s="436"/>
+      <c r="A8" s="443"/>
+      <c r="B8" s="446"/>
+      <c r="C8" s="443"/>
+      <c r="D8" s="443"/>
+      <c r="E8" s="443"/>
       <c r="F8" s="295" t="s">
         <v>165</v>
       </c>
@@ -8021,11 +8027,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="438"/>
-      <c r="B9" s="439"/>
-      <c r="C9" s="438"/>
-      <c r="D9" s="438"/>
-      <c r="E9" s="438"/>
+      <c r="A9" s="444"/>
+      <c r="B9" s="447"/>
+      <c r="C9" s="444"/>
+      <c r="D9" s="444"/>
+      <c r="E9" s="444"/>
       <c r="F9" s="295" t="s">
         <v>171</v>
       </c>
@@ -8093,17 +8099,17 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="435">
+      <c r="A11" s="448">
         <v>1229</v>
       </c>
-      <c r="B11" s="432">
+      <c r="B11" s="449">
         <v>44145</v>
       </c>
-      <c r="C11" s="435"/>
-      <c r="D11" s="435" t="s">
+      <c r="C11" s="448"/>
+      <c r="D11" s="448" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="435"/>
+      <c r="E11" s="448"/>
       <c r="F11" s="295" t="s">
         <v>177</v>
       </c>
@@ -8132,11 +8138,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="436"/>
-      <c r="B12" s="433"/>
-      <c r="C12" s="436"/>
-      <c r="D12" s="436"/>
-      <c r="E12" s="436"/>
+      <c r="A12" s="443"/>
+      <c r="B12" s="446"/>
+      <c r="C12" s="443"/>
+      <c r="D12" s="443"/>
+      <c r="E12" s="443"/>
       <c r="F12" s="295" t="s">
         <v>196</v>
       </c>
@@ -8165,11 +8171,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="438"/>
-      <c r="B13" s="439"/>
-      <c r="C13" s="438"/>
-      <c r="D13" s="438"/>
-      <c r="E13" s="438"/>
+      <c r="A13" s="444"/>
+      <c r="B13" s="447"/>
+      <c r="C13" s="444"/>
+      <c r="D13" s="444"/>
+      <c r="E13" s="444"/>
       <c r="F13" s="295" t="s">
         <v>171</v>
       </c>
@@ -8198,17 +8204,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="435">
+      <c r="A14" s="448">
         <v>1231</v>
       </c>
-      <c r="B14" s="432">
+      <c r="B14" s="449">
         <v>44146</v>
       </c>
-      <c r="C14" s="435"/>
-      <c r="D14" s="435" t="s">
+      <c r="C14" s="448"/>
+      <c r="D14" s="448" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="435"/>
+      <c r="E14" s="448"/>
       <c r="F14" s="295" t="s">
         <v>177</v>
       </c>
@@ -8237,11 +8243,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="436"/>
-      <c r="B15" s="433"/>
-      <c r="C15" s="436"/>
-      <c r="D15" s="436"/>
-      <c r="E15" s="436"/>
+      <c r="A15" s="443"/>
+      <c r="B15" s="446"/>
+      <c r="C15" s="443"/>
+      <c r="D15" s="443"/>
+      <c r="E15" s="443"/>
       <c r="F15" s="295" t="s">
         <v>196</v>
       </c>
@@ -8270,11 +8276,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="436"/>
-      <c r="B16" s="433"/>
-      <c r="C16" s="436"/>
-      <c r="D16" s="436"/>
-      <c r="E16" s="436"/>
+      <c r="A16" s="443"/>
+      <c r="B16" s="446"/>
+      <c r="C16" s="443"/>
+      <c r="D16" s="443"/>
+      <c r="E16" s="443"/>
       <c r="F16" s="295" t="s">
         <v>198</v>
       </c>
@@ -8303,11 +8309,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="438"/>
-      <c r="B17" s="439"/>
-      <c r="C17" s="438"/>
-      <c r="D17" s="438"/>
-      <c r="E17" s="438"/>
+      <c r="A17" s="444"/>
+      <c r="B17" s="447"/>
+      <c r="C17" s="444"/>
+      <c r="D17" s="444"/>
+      <c r="E17" s="444"/>
       <c r="F17" s="295" t="s">
         <v>168</v>
       </c>
@@ -8336,19 +8342,19 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="435">
+      <c r="A18" s="448">
         <v>1236</v>
       </c>
-      <c r="B18" s="432">
+      <c r="B18" s="449">
         <v>44152</v>
       </c>
-      <c r="C18" s="435" t="s">
+      <c r="C18" s="448" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="435" t="s">
+      <c r="D18" s="448" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="435"/>
+      <c r="E18" s="448"/>
       <c r="F18" s="295" t="s">
         <v>196</v>
       </c>
@@ -8377,11 +8383,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="436"/>
-      <c r="B19" s="433"/>
-      <c r="C19" s="436"/>
-      <c r="D19" s="436"/>
-      <c r="E19" s="436"/>
+      <c r="A19" s="443"/>
+      <c r="B19" s="446"/>
+      <c r="C19" s="443"/>
+      <c r="D19" s="443"/>
+      <c r="E19" s="443"/>
       <c r="F19" s="295" t="s">
         <v>164</v>
       </c>
@@ -8410,11 +8416,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="438"/>
-      <c r="B20" s="439"/>
-      <c r="C20" s="438"/>
-      <c r="D20" s="438"/>
-      <c r="E20" s="438"/>
+      <c r="A20" s="444"/>
+      <c r="B20" s="447"/>
+      <c r="C20" s="444"/>
+      <c r="D20" s="444"/>
+      <c r="E20" s="444"/>
       <c r="F20" s="295" t="s">
         <v>198</v>
       </c>
@@ -8482,19 +8488,19 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="435">
+      <c r="A22" s="448">
         <v>1241</v>
       </c>
-      <c r="B22" s="432">
+      <c r="B22" s="449">
         <v>44153</v>
       </c>
-      <c r="C22" s="435" t="s">
+      <c r="C22" s="448" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="435" t="s">
+      <c r="D22" s="448" t="s">
         <v>201</v>
       </c>
-      <c r="E22" s="435"/>
+      <c r="E22" s="448"/>
       <c r="F22" s="295" t="s">
         <v>165</v>
       </c>
@@ -8523,11 +8529,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="436"/>
-      <c r="B23" s="433"/>
-      <c r="C23" s="436"/>
-      <c r="D23" s="436"/>
-      <c r="E23" s="436"/>
+      <c r="A23" s="443"/>
+      <c r="B23" s="446"/>
+      <c r="C23" s="443"/>
+      <c r="D23" s="443"/>
+      <c r="E23" s="443"/>
       <c r="F23" s="295" t="s">
         <v>198</v>
       </c>
@@ -8556,11 +8562,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="438"/>
-      <c r="B24" s="439"/>
-      <c r="C24" s="438"/>
-      <c r="D24" s="438"/>
-      <c r="E24" s="438"/>
+      <c r="A24" s="444"/>
+      <c r="B24" s="447"/>
+      <c r="C24" s="444"/>
+      <c r="D24" s="444"/>
+      <c r="E24" s="444"/>
       <c r="F24" s="295" t="s">
         <v>168</v>
       </c>
@@ -8669,19 +8675,19 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="435">
+      <c r="A27" s="448">
         <v>1248</v>
       </c>
-      <c r="B27" s="432">
+      <c r="B27" s="449">
         <v>44155</v>
       </c>
-      <c r="C27" s="435" t="s">
+      <c r="C27" s="448" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="435" t="s">
+      <c r="D27" s="448" t="s">
         <v>213</v>
       </c>
-      <c r="E27" s="435"/>
+      <c r="E27" s="448"/>
       <c r="F27" s="295" t="s">
         <v>198</v>
       </c>
@@ -8710,11 +8716,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="438"/>
-      <c r="B28" s="439"/>
-      <c r="C28" s="438"/>
-      <c r="D28" s="438"/>
-      <c r="E28" s="438"/>
+      <c r="A28" s="444"/>
+      <c r="B28" s="447"/>
+      <c r="C28" s="444"/>
+      <c r="D28" s="444"/>
+      <c r="E28" s="444"/>
       <c r="F28" s="295" t="s">
         <v>168</v>
       </c>
@@ -8743,19 +8749,19 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="435">
+      <c r="A29" s="448">
         <v>1254</v>
       </c>
-      <c r="B29" s="432">
+      <c r="B29" s="449">
         <v>44160</v>
       </c>
-      <c r="C29" s="435" t="s">
+      <c r="C29" s="448" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="435" t="s">
+      <c r="D29" s="448" t="s">
         <v>223</v>
       </c>
-      <c r="E29" s="435"/>
+      <c r="E29" s="448"/>
       <c r="F29" s="295" t="s">
         <v>177</v>
       </c>
@@ -8784,11 +8790,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="438"/>
-      <c r="B30" s="439"/>
-      <c r="C30" s="438"/>
-      <c r="D30" s="438"/>
-      <c r="E30" s="438"/>
+      <c r="A30" s="444"/>
+      <c r="B30" s="447"/>
+      <c r="C30" s="444"/>
+      <c r="D30" s="444"/>
+      <c r="E30" s="444"/>
       <c r="F30" s="295" t="s">
         <v>198</v>
       </c>
@@ -8817,17 +8823,17 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="435">
+      <c r="A31" s="448">
         <v>1256</v>
       </c>
-      <c r="B31" s="432">
+      <c r="B31" s="449">
         <v>44160</v>
       </c>
-      <c r="C31" s="435"/>
-      <c r="D31" s="435" t="s">
+      <c r="C31" s="448"/>
+      <c r="D31" s="448" t="s">
         <v>224</v>
       </c>
-      <c r="E31" s="435"/>
+      <c r="E31" s="448"/>
       <c r="F31" s="295" t="s">
         <v>196</v>
       </c>
@@ -8856,11 +8862,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="436"/>
-      <c r="B32" s="433"/>
-      <c r="C32" s="436"/>
-      <c r="D32" s="436"/>
-      <c r="E32" s="436"/>
+      <c r="A32" s="443"/>
+      <c r="B32" s="446"/>
+      <c r="C32" s="443"/>
+      <c r="D32" s="443"/>
+      <c r="E32" s="443"/>
       <c r="F32" s="295" t="s">
         <v>164</v>
       </c>
@@ -8889,11 +8895,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="436"/>
-      <c r="B33" s="433"/>
-      <c r="C33" s="436"/>
-      <c r="D33" s="436"/>
-      <c r="E33" s="436"/>
+      <c r="A33" s="443"/>
+      <c r="B33" s="446"/>
+      <c r="C33" s="443"/>
+      <c r="D33" s="443"/>
+      <c r="E33" s="443"/>
       <c r="F33" s="295" t="s">
         <v>165</v>
       </c>
@@ -8922,11 +8928,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="437"/>
-      <c r="B34" s="434"/>
-      <c r="C34" s="437"/>
-      <c r="D34" s="437"/>
-      <c r="E34" s="437"/>
+      <c r="A34" s="451"/>
+      <c r="B34" s="450"/>
+      <c r="C34" s="451"/>
+      <c r="D34" s="451"/>
+      <c r="E34" s="451"/>
       <c r="F34" s="301" t="s">
         <v>171</v>
       </c>
@@ -8955,13 +8961,13 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="313" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="440" t="s">
+      <c r="A35" s="432" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="440"/>
-      <c r="C35" s="440"/>
-      <c r="D35" s="440"/>
-      <c r="E35" s="440"/>
+      <c r="B35" s="432"/>
+      <c r="C35" s="432"/>
+      <c r="D35" s="432"/>
+      <c r="E35" s="432"/>
       <c r="F35" s="307"/>
       <c r="G35" s="307">
         <f>SUM(G7:G34)</f>
@@ -9049,6 +9055,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -9065,40 +9105,6 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9560,13 +9566,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="479" t="s">
+      <c r="A1" s="457" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="479"/>
-      <c r="C1" s="479"/>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
+      <c r="B1" s="457"/>
+      <c r="C1" s="457"/>
+      <c r="D1" s="457"/>
+      <c r="E1" s="457"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -9584,119 +9590,119 @@
       <c r="H2" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="480" t="s">
+      <c r="A4" s="458" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="480"/>
-      <c r="C4" s="480"/>
-      <c r="D4" s="480"/>
-      <c r="E4" s="480"/>
-      <c r="F4" s="480"/>
-      <c r="G4" s="480"/>
+      <c r="B4" s="458"/>
+      <c r="C4" s="458"/>
+      <c r="D4" s="458"/>
+      <c r="E4" s="458"/>
+      <c r="F4" s="458"/>
+      <c r="G4" s="458"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="461" t="s">
+      <c r="A6" s="467" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="462"/>
-      <c r="C6" s="462"/>
-      <c r="D6" s="462"/>
-      <c r="E6" s="463"/>
-      <c r="F6" s="481" t="s">
+      <c r="B6" s="468"/>
+      <c r="C6" s="468"/>
+      <c r="D6" s="468"/>
+      <c r="E6" s="469"/>
+      <c r="F6" s="459" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="482"/>
+      <c r="G6" s="460"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="475" t="s">
+      <c r="A7" s="463" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="476"/>
+      <c r="B7" s="464"/>
       <c r="C7" s="323"/>
       <c r="D7" s="260"/>
       <c r="E7" s="329" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="458">
+      <c r="F7" s="461">
         <v>4744538</v>
       </c>
-      <c r="G7" s="458"/>
-      <c r="H7" s="457" t="s">
+      <c r="G7" s="461"/>
+      <c r="H7" s="477" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="477"/>
-      <c r="B8" s="478"/>
+      <c r="A8" s="465"/>
+      <c r="B8" s="466"/>
       <c r="C8" s="323"/>
       <c r="D8" s="260"/>
       <c r="E8" s="330" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="470">
+      <c r="F8" s="462">
         <v>6713000</v>
       </c>
-      <c r="G8" s="470"/>
-      <c r="H8" s="457"/>
+      <c r="G8" s="462"/>
+      <c r="H8" s="477"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="475" t="s">
+      <c r="A9" s="463" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="476"/>
+      <c r="B9" s="464"/>
       <c r="C9" s="327"/>
       <c r="D9" s="328"/>
       <c r="E9" s="331" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="458">
+      <c r="F9" s="461">
         <v>3625000</v>
       </c>
-      <c r="G9" s="458"/>
-      <c r="H9" s="457"/>
+      <c r="G9" s="461"/>
+      <c r="H9" s="477"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="477"/>
-      <c r="B10" s="478"/>
+      <c r="A10" s="465"/>
+      <c r="B10" s="466"/>
       <c r="C10" s="326"/>
       <c r="D10" s="326"/>
       <c r="E10" s="332" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="470">
+      <c r="F10" s="462">
         <v>6576923</v>
       </c>
-      <c r="G10" s="470"/>
-      <c r="H10" s="457"/>
+      <c r="G10" s="462"/>
+      <c r="H10" s="477"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="461" t="s">
+      <c r="A11" s="467" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="462"/>
-      <c r="C11" s="462"/>
-      <c r="D11" s="462"/>
-      <c r="E11" s="463"/>
-      <c r="F11" s="474">
+      <c r="B11" s="468"/>
+      <c r="C11" s="468"/>
+      <c r="D11" s="468"/>
+      <c r="E11" s="469"/>
+      <c r="F11" s="476">
         <f>'Bảng lương'!J12</f>
         <v>6000000</v>
       </c>
-      <c r="G11" s="474"/>
+      <c r="G11" s="476"/>
       <c r="H11" s="333"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="464" t="s">
+      <c r="A12" s="480" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="465"/>
-      <c r="C12" s="465"/>
-      <c r="D12" s="465"/>
-      <c r="E12" s="466"/>
-      <c r="F12" s="459">
+      <c r="B12" s="481"/>
+      <c r="C12" s="481"/>
+      <c r="D12" s="481"/>
+      <c r="E12" s="482"/>
+      <c r="F12" s="478">
         <f>SUM(F7:G11)</f>
         <v>27659461</v>
       </c>
-      <c r="G12" s="460"/>
+      <c r="G12" s="479"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="268" t="s">
@@ -9708,10 +9714,10 @@
       <c r="E14" s="261"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="471">
+      <c r="A15" s="473">
         <v>44106</v>
       </c>
-      <c r="B15" s="472"/>
+      <c r="B15" s="474"/>
       <c r="C15" s="262"/>
       <c r="D15" s="262"/>
       <c r="E15" s="262" t="s">
@@ -9722,10 +9728,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="471">
+      <c r="A16" s="473">
         <v>44116</v>
       </c>
-      <c r="B16" s="472"/>
+      <c r="B16" s="474"/>
       <c r="C16" s="262"/>
       <c r="D16" s="262"/>
       <c r="E16" s="262" t="s">
@@ -9737,10 +9743,10 @@
       <c r="J16" s="267"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="471">
+      <c r="A17" s="473">
         <v>44120</v>
       </c>
-      <c r="B17" s="472"/>
+      <c r="B17" s="474"/>
       <c r="C17" s="262"/>
       <c r="D17" s="262"/>
       <c r="E17" s="262" t="s">
@@ -9751,10 +9757,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="471">
+      <c r="A18" s="473">
         <v>44128</v>
       </c>
-      <c r="B18" s="472"/>
+      <c r="B18" s="474"/>
       <c r="C18" s="262"/>
       <c r="D18" s="262"/>
       <c r="E18" s="262" t="s">
@@ -9766,10 +9772,10 @@
       <c r="J18" s="267"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="471">
+      <c r="A19" s="473">
         <v>44129</v>
       </c>
-      <c r="B19" s="472"/>
+      <c r="B19" s="474"/>
       <c r="C19" s="262"/>
       <c r="D19" s="262"/>
       <c r="E19" s="262" t="s">
@@ -9781,10 +9787,10 @@
       <c r="J19" s="267"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="471">
+      <c r="A20" s="473">
         <v>44131</v>
       </c>
-      <c r="B20" s="472"/>
+      <c r="B20" s="474"/>
       <c r="C20" s="262"/>
       <c r="D20" s="262"/>
       <c r="E20" s="275" t="s">
@@ -9795,10 +9801,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="473">
+      <c r="A21" s="475">
         <v>44140</v>
       </c>
-      <c r="B21" s="473"/>
+      <c r="B21" s="475"/>
       <c r="C21" s="262"/>
       <c r="D21" s="262"/>
       <c r="E21" s="275" t="s">
@@ -9809,10 +9815,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="473">
+      <c r="A22" s="475">
         <v>44150</v>
       </c>
-      <c r="B22" s="473"/>
+      <c r="B22" s="475"/>
       <c r="C22" s="262"/>
       <c r="D22" s="262"/>
       <c r="E22" s="275" t="s">
@@ -9823,13 +9829,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="467" t="s">
+      <c r="A23" s="470" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="468"/>
-      <c r="C23" s="468"/>
-      <c r="D23" s="468"/>
-      <c r="E23" s="469"/>
+      <c r="B23" s="471"/>
+      <c r="C23" s="471"/>
+      <c r="D23" s="471"/>
+      <c r="E23" s="472"/>
       <c r="F23" s="269">
         <f>SUM(F15:F22)</f>
         <v>11558900</v>
@@ -9885,13 +9891,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A15:B15"/>
@@ -9904,11 +9908,13 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="A9:B10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10449,16 +10455,16 @@
       <c r="C1" s="212"/>
       <c r="D1" s="212"/>
       <c r="E1" s="212"/>
-      <c r="Z1" s="488" t="s">
+      <c r="Z1" s="502" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="489"/>
-      <c r="AB1" s="489"/>
-      <c r="AC1" s="489"/>
-      <c r="AD1" s="489"/>
-      <c r="AE1" s="489"/>
-      <c r="AF1" s="489"/>
-      <c r="AG1" s="490"/>
+      <c r="AA1" s="503"/>
+      <c r="AB1" s="503"/>
+      <c r="AC1" s="503"/>
+      <c r="AD1" s="503"/>
+      <c r="AE1" s="503"/>
+      <c r="AF1" s="503"/>
+      <c r="AG1" s="504"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="215" t="s">
@@ -10468,18 +10474,18 @@
       <c r="C2" s="216"/>
       <c r="D2" s="216"/>
       <c r="E2" s="216"/>
-      <c r="Z2" s="483" t="s">
+      <c r="Z2" s="497" t="s">
         <v>102</v>
       </c>
-      <c r="AA2" s="484"/>
-      <c r="AB2" s="484"/>
-      <c r="AC2" s="484"/>
-      <c r="AD2" s="484"/>
-      <c r="AE2" s="485"/>
-      <c r="AF2" s="486" t="s">
+      <c r="AA2" s="498"/>
+      <c r="AB2" s="498"/>
+      <c r="AC2" s="498"/>
+      <c r="AD2" s="498"/>
+      <c r="AE2" s="499"/>
+      <c r="AF2" s="500" t="s">
         <v>103</v>
       </c>
-      <c r="AG2" s="487"/>
+      <c r="AG2" s="501"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="215" t="s">
@@ -10489,18 +10495,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="483" t="s">
+      <c r="Z3" s="497" t="s">
         <v>105</v>
       </c>
-      <c r="AA3" s="484"/>
-      <c r="AB3" s="484"/>
-      <c r="AC3" s="484"/>
-      <c r="AD3" s="484"/>
-      <c r="AE3" s="485"/>
-      <c r="AF3" s="486" t="s">
+      <c r="AA3" s="498"/>
+      <c r="AB3" s="498"/>
+      <c r="AC3" s="498"/>
+      <c r="AD3" s="498"/>
+      <c r="AE3" s="499"/>
+      <c r="AF3" s="500" t="s">
         <v>106</v>
       </c>
-      <c r="AG3" s="487"/>
+      <c r="AG3" s="501"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="215" t="s">
@@ -10513,18 +10519,18 @@
       <c r="T4" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="483" t="s">
+      <c r="Z4" s="497" t="s">
         <v>108</v>
       </c>
-      <c r="AA4" s="484"/>
-      <c r="AB4" s="484"/>
-      <c r="AC4" s="484"/>
-      <c r="AD4" s="484"/>
-      <c r="AE4" s="485"/>
-      <c r="AF4" s="486" t="s">
+      <c r="AA4" s="498"/>
+      <c r="AB4" s="498"/>
+      <c r="AC4" s="498"/>
+      <c r="AD4" s="498"/>
+      <c r="AE4" s="499"/>
+      <c r="AF4" s="500" t="s">
         <v>109</v>
       </c>
-      <c r="AG4" s="487"/>
+      <c r="AG4" s="501"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="215" t="s">
@@ -10534,18 +10540,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="492" t="s">
+      <c r="Z5" s="484" t="s">
         <v>111</v>
       </c>
-      <c r="AA5" s="492"/>
-      <c r="AB5" s="492"/>
-      <c r="AC5" s="492"/>
-      <c r="AD5" s="492"/>
-      <c r="AE5" s="492"/>
-      <c r="AF5" s="493" t="s">
+      <c r="AA5" s="484"/>
+      <c r="AB5" s="484"/>
+      <c r="AC5" s="484"/>
+      <c r="AD5" s="484"/>
+      <c r="AE5" s="484"/>
+      <c r="AF5" s="485" t="s">
         <v>112</v>
       </c>
-      <c r="AG5" s="493"/>
+      <c r="AG5" s="485"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="215"/>
@@ -10553,18 +10559,18 @@
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="Z6" s="483" t="s">
+      <c r="Z6" s="497" t="s">
         <v>294</v>
       </c>
-      <c r="AA6" s="484"/>
-      <c r="AB6" s="484"/>
-      <c r="AC6" s="484"/>
-      <c r="AD6" s="484"/>
-      <c r="AE6" s="485"/>
-      <c r="AF6" s="486" t="s">
+      <c r="AA6" s="498"/>
+      <c r="AB6" s="498"/>
+      <c r="AC6" s="498"/>
+      <c r="AD6" s="498"/>
+      <c r="AE6" s="499"/>
+      <c r="AF6" s="500" t="s">
         <v>148</v>
       </c>
-      <c r="AG6" s="487"/>
+      <c r="AG6" s="501"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="217"/>
@@ -10574,91 +10580,91 @@
       <c r="E7" s="217"/>
     </row>
     <row r="8" spans="1:39" s="220" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="494" t="s">
+      <c r="A8" s="486" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="494"/>
-      <c r="C8" s="494"/>
-      <c r="D8" s="494"/>
-      <c r="E8" s="494"/>
-      <c r="F8" s="494"/>
-      <c r="G8" s="494"/>
-      <c r="H8" s="494"/>
-      <c r="I8" s="494"/>
-      <c r="J8" s="494"/>
-      <c r="K8" s="494"/>
-      <c r="L8" s="494"/>
-      <c r="M8" s="494"/>
-      <c r="N8" s="494"/>
-      <c r="O8" s="494"/>
-      <c r="P8" s="494"/>
-      <c r="Q8" s="494"/>
-      <c r="R8" s="494"/>
-      <c r="S8" s="494"/>
-      <c r="T8" s="494"/>
-      <c r="U8" s="494"/>
-      <c r="V8" s="494"/>
-      <c r="W8" s="494"/>
-      <c r="X8" s="494"/>
-      <c r="Y8" s="494"/>
-      <c r="Z8" s="494"/>
-      <c r="AA8" s="494"/>
-      <c r="AB8" s="494"/>
-      <c r="AC8" s="494"/>
-      <c r="AD8" s="494"/>
-      <c r="AE8" s="494"/>
-      <c r="AF8" s="494"/>
-      <c r="AG8" s="494"/>
-      <c r="AH8" s="494"/>
-      <c r="AI8" s="494"/>
-      <c r="AJ8" s="494"/>
-      <c r="AK8" s="494"/>
-      <c r="AL8" s="494"/>
+      <c r="B8" s="486"/>
+      <c r="C8" s="486"/>
+      <c r="D8" s="486"/>
+      <c r="E8" s="486"/>
+      <c r="F8" s="486"/>
+      <c r="G8" s="486"/>
+      <c r="H8" s="486"/>
+      <c r="I8" s="486"/>
+      <c r="J8" s="486"/>
+      <c r="K8" s="486"/>
+      <c r="L8" s="486"/>
+      <c r="M8" s="486"/>
+      <c r="N8" s="486"/>
+      <c r="O8" s="486"/>
+      <c r="P8" s="486"/>
+      <c r="Q8" s="486"/>
+      <c r="R8" s="486"/>
+      <c r="S8" s="486"/>
+      <c r="T8" s="486"/>
+      <c r="U8" s="486"/>
+      <c r="V8" s="486"/>
+      <c r="W8" s="486"/>
+      <c r="X8" s="486"/>
+      <c r="Y8" s="486"/>
+      <c r="Z8" s="486"/>
+      <c r="AA8" s="486"/>
+      <c r="AB8" s="486"/>
+      <c r="AC8" s="486"/>
+      <c r="AD8" s="486"/>
+      <c r="AE8" s="486"/>
+      <c r="AF8" s="486"/>
+      <c r="AG8" s="486"/>
+      <c r="AH8" s="486"/>
+      <c r="AI8" s="486"/>
+      <c r="AJ8" s="486"/>
+      <c r="AK8" s="486"/>
+      <c r="AL8" s="486"/>
       <c r="AM8" s="219"/>
     </row>
     <row r="10" spans="1:39" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="495" t="s">
+      <c r="A10" s="487" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="495" t="s">
+      <c r="B10" s="487" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="495" t="s">
+      <c r="C10" s="487" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="498" t="s">
+      <c r="D10" s="490" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="499"/>
-      <c r="F10" s="499"/>
-      <c r="G10" s="499"/>
-      <c r="H10" s="499"/>
-      <c r="I10" s="499"/>
-      <c r="J10" s="499"/>
-      <c r="K10" s="499"/>
-      <c r="L10" s="499"/>
-      <c r="M10" s="499"/>
-      <c r="N10" s="499"/>
-      <c r="O10" s="499"/>
-      <c r="P10" s="499"/>
-      <c r="Q10" s="499"/>
-      <c r="R10" s="499"/>
-      <c r="S10" s="499"/>
-      <c r="T10" s="499"/>
-      <c r="U10" s="499"/>
-      <c r="V10" s="499"/>
-      <c r="W10" s="499"/>
-      <c r="X10" s="499"/>
-      <c r="Y10" s="499"/>
-      <c r="Z10" s="499"/>
-      <c r="AA10" s="499"/>
-      <c r="AB10" s="499"/>
-      <c r="AC10" s="499"/>
-      <c r="AD10" s="499"/>
-      <c r="AE10" s="499"/>
-      <c r="AF10" s="499"/>
-      <c r="AG10" s="499"/>
-      <c r="AH10" s="500" t="s">
+      <c r="E10" s="491"/>
+      <c r="F10" s="491"/>
+      <c r="G10" s="491"/>
+      <c r="H10" s="491"/>
+      <c r="I10" s="491"/>
+      <c r="J10" s="491"/>
+      <c r="K10" s="491"/>
+      <c r="L10" s="491"/>
+      <c r="M10" s="491"/>
+      <c r="N10" s="491"/>
+      <c r="O10" s="491"/>
+      <c r="P10" s="491"/>
+      <c r="Q10" s="491"/>
+      <c r="R10" s="491"/>
+      <c r="S10" s="491"/>
+      <c r="T10" s="491"/>
+      <c r="U10" s="491"/>
+      <c r="V10" s="491"/>
+      <c r="W10" s="491"/>
+      <c r="X10" s="491"/>
+      <c r="Y10" s="491"/>
+      <c r="Z10" s="491"/>
+      <c r="AA10" s="491"/>
+      <c r="AB10" s="491"/>
+      <c r="AC10" s="491"/>
+      <c r="AD10" s="491"/>
+      <c r="AE10" s="491"/>
+      <c r="AF10" s="491"/>
+      <c r="AG10" s="491"/>
+      <c r="AH10" s="492" t="s">
         <v>117</v>
       </c>
       <c r="AI10" s="221"/>
@@ -10668,9 +10674,9 @@
       <c r="AM10" s="224"/>
     </row>
     <row r="11" spans="1:39" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="496"/>
-      <c r="B11" s="496"/>
-      <c r="C11" s="496"/>
+      <c r="A11" s="488"/>
+      <c r="B11" s="488"/>
+      <c r="C11" s="488"/>
       <c r="D11" s="226">
         <v>1</v>
       </c>
@@ -10761,7 +10767,7 @@
       <c r="AG11" s="226">
         <v>30</v>
       </c>
-      <c r="AH11" s="500"/>
+      <c r="AH11" s="492"/>
       <c r="AI11" s="227"/>
       <c r="AJ11" s="223"/>
       <c r="AK11" s="223"/>
@@ -10769,9 +10775,9 @@
       <c r="AM11" s="224"/>
     </row>
     <row r="12" spans="1:39" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="497"/>
-      <c r="B12" s="497"/>
-      <c r="C12" s="497"/>
+      <c r="A12" s="489"/>
+      <c r="B12" s="489"/>
+      <c r="C12" s="489"/>
       <c r="D12" s="229" t="s">
         <v>122</v>
       </c>
@@ -10862,7 +10868,7 @@
       <c r="AG12" s="228" t="s">
         <v>123</v>
       </c>
-      <c r="AH12" s="500"/>
+      <c r="AH12" s="492"/>
       <c r="AI12" s="230"/>
       <c r="AM12" s="232"/>
     </row>
@@ -11267,10 +11273,10 @@
       <c r="AM16" s="232"/>
     </row>
     <row r="17" spans="1:39" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="501" t="s">
+      <c r="A17" s="493" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="502"/>
+      <c r="B17" s="494"/>
       <c r="C17" s="238"/>
       <c r="D17" s="238"/>
       <c r="E17" s="239"/>
@@ -11312,46 +11318,46 @@
       <c r="AM17" s="232"/>
     </row>
     <row r="19" spans="1:39" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="503"/>
-      <c r="B19" s="503"/>
-      <c r="C19" s="503"/>
-      <c r="D19" s="503"/>
-      <c r="E19" s="503"/>
-      <c r="F19" s="503"/>
-      <c r="G19" s="503"/>
+      <c r="A19" s="495"/>
+      <c r="B19" s="495"/>
+      <c r="C19" s="495"/>
+      <c r="D19" s="495"/>
+      <c r="E19" s="495"/>
+      <c r="F19" s="495"/>
+      <c r="G19" s="495"/>
       <c r="H19" s="243"/>
-      <c r="I19" s="504"/>
-      <c r="J19" s="504"/>
-      <c r="K19" s="504"/>
-      <c r="L19" s="504"/>
-      <c r="M19" s="504"/>
+      <c r="I19" s="496"/>
+      <c r="J19" s="496"/>
+      <c r="K19" s="496"/>
+      <c r="L19" s="496"/>
+      <c r="M19" s="496"/>
       <c r="N19" s="244"/>
-      <c r="O19" s="504"/>
-      <c r="P19" s="504"/>
-      <c r="Q19" s="504"/>
-      <c r="R19" s="504"/>
-      <c r="S19" s="504"/>
-      <c r="T19" s="504"/>
-      <c r="U19" s="504"/>
-      <c r="V19" s="504"/>
-      <c r="W19" s="504"/>
-      <c r="X19" s="504"/>
-      <c r="Y19" s="504"/>
+      <c r="O19" s="496"/>
+      <c r="P19" s="496"/>
+      <c r="Q19" s="496"/>
+      <c r="R19" s="496"/>
+      <c r="S19" s="496"/>
+      <c r="T19" s="496"/>
+      <c r="U19" s="496"/>
+      <c r="V19" s="496"/>
+      <c r="W19" s="496"/>
+      <c r="X19" s="496"/>
+      <c r="Y19" s="496"/>
       <c r="Z19" s="245"/>
       <c r="AA19" s="254" t="s">
         <v>13</v>
       </c>
       <c r="AB19" s="246"/>
-      <c r="AC19" s="504"/>
-      <c r="AD19" s="504"/>
-      <c r="AE19" s="504"/>
-      <c r="AF19" s="504"/>
-      <c r="AG19" s="504"/>
-      <c r="AH19" s="504"/>
-      <c r="AI19" s="504"/>
-      <c r="AJ19" s="504"/>
-      <c r="AK19" s="504"/>
-      <c r="AL19" s="504"/>
+      <c r="AC19" s="496"/>
+      <c r="AD19" s="496"/>
+      <c r="AE19" s="496"/>
+      <c r="AF19" s="496"/>
+      <c r="AG19" s="496"/>
+      <c r="AH19" s="496"/>
+      <c r="AI19" s="496"/>
+      <c r="AJ19" s="496"/>
+      <c r="AK19" s="496"/>
+      <c r="AL19" s="496"/>
       <c r="AM19" s="247"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
@@ -11390,131 +11396,131 @@
       <c r="AM34" s="252"/>
     </row>
     <row r="35" spans="3:39" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="491"/>
-      <c r="H35" s="491"/>
-      <c r="I35" s="491"/>
-      <c r="J35" s="491"/>
-      <c r="K35" s="491"/>
-      <c r="L35" s="491"/>
-      <c r="M35" s="491"/>
-      <c r="N35" s="491"/>
-      <c r="O35" s="491"/>
-      <c r="P35" s="491"/>
-      <c r="Q35" s="491"/>
-      <c r="R35" s="491"/>
-      <c r="S35" s="491"/>
-      <c r="T35" s="491"/>
-      <c r="U35" s="491"/>
-      <c r="V35" s="491"/>
-      <c r="W35" s="491"/>
-      <c r="X35" s="491"/>
+      <c r="G35" s="483"/>
+      <c r="H35" s="483"/>
+      <c r="I35" s="483"/>
+      <c r="J35" s="483"/>
+      <c r="K35" s="483"/>
+      <c r="L35" s="483"/>
+      <c r="M35" s="483"/>
+      <c r="N35" s="483"/>
+      <c r="O35" s="483"/>
+      <c r="P35" s="483"/>
+      <c r="Q35" s="483"/>
+      <c r="R35" s="483"/>
+      <c r="S35" s="483"/>
+      <c r="T35" s="483"/>
+      <c r="U35" s="483"/>
+      <c r="V35" s="483"/>
+      <c r="W35" s="483"/>
+      <c r="X35" s="483"/>
       <c r="AM35" s="252"/>
     </row>
     <row r="36" spans="3:39" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="491"/>
-      <c r="H36" s="491"/>
-      <c r="I36" s="491"/>
-      <c r="J36" s="491"/>
-      <c r="K36" s="491"/>
-      <c r="L36" s="491"/>
-      <c r="M36" s="491"/>
-      <c r="N36" s="491"/>
-      <c r="O36" s="491"/>
-      <c r="P36" s="491"/>
-      <c r="Q36" s="491"/>
-      <c r="R36" s="491"/>
-      <c r="S36" s="491"/>
-      <c r="T36" s="491"/>
-      <c r="U36" s="491"/>
-      <c r="V36" s="491"/>
-      <c r="W36" s="491"/>
-      <c r="X36" s="491"/>
+      <c r="G36" s="483"/>
+      <c r="H36" s="483"/>
+      <c r="I36" s="483"/>
+      <c r="J36" s="483"/>
+      <c r="K36" s="483"/>
+      <c r="L36" s="483"/>
+      <c r="M36" s="483"/>
+      <c r="N36" s="483"/>
+      <c r="O36" s="483"/>
+      <c r="P36" s="483"/>
+      <c r="Q36" s="483"/>
+      <c r="R36" s="483"/>
+      <c r="S36" s="483"/>
+      <c r="T36" s="483"/>
+      <c r="U36" s="483"/>
+      <c r="V36" s="483"/>
+      <c r="W36" s="483"/>
+      <c r="X36" s="483"/>
       <c r="AM36" s="252"/>
     </row>
     <row r="37" spans="3:39" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="491"/>
-      <c r="H37" s="491"/>
-      <c r="I37" s="491"/>
-      <c r="J37" s="491"/>
-      <c r="K37" s="491"/>
-      <c r="L37" s="491"/>
-      <c r="M37" s="491"/>
-      <c r="N37" s="491"/>
-      <c r="O37" s="491"/>
-      <c r="P37" s="491"/>
-      <c r="Q37" s="491"/>
-      <c r="R37" s="491"/>
-      <c r="S37" s="491"/>
-      <c r="T37" s="491"/>
-      <c r="U37" s="491"/>
-      <c r="V37" s="491"/>
-      <c r="W37" s="491"/>
-      <c r="X37" s="491"/>
+      <c r="G37" s="483"/>
+      <c r="H37" s="483"/>
+      <c r="I37" s="483"/>
+      <c r="J37" s="483"/>
+      <c r="K37" s="483"/>
+      <c r="L37" s="483"/>
+      <c r="M37" s="483"/>
+      <c r="N37" s="483"/>
+      <c r="O37" s="483"/>
+      <c r="P37" s="483"/>
+      <c r="Q37" s="483"/>
+      <c r="R37" s="483"/>
+      <c r="S37" s="483"/>
+      <c r="T37" s="483"/>
+      <c r="U37" s="483"/>
+      <c r="V37" s="483"/>
+      <c r="W37" s="483"/>
+      <c r="X37" s="483"/>
       <c r="AM37" s="252"/>
     </row>
     <row r="38" spans="3:39" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="491"/>
-      <c r="H38" s="491"/>
-      <c r="I38" s="491"/>
-      <c r="J38" s="491"/>
-      <c r="K38" s="491"/>
-      <c r="L38" s="491"/>
-      <c r="M38" s="491"/>
-      <c r="N38" s="491"/>
-      <c r="O38" s="491"/>
-      <c r="P38" s="491"/>
-      <c r="Q38" s="491"/>
-      <c r="R38" s="491"/>
-      <c r="S38" s="491"/>
-      <c r="T38" s="491"/>
-      <c r="U38" s="491"/>
-      <c r="V38" s="491"/>
-      <c r="W38" s="491"/>
-      <c r="X38" s="491"/>
+      <c r="G38" s="483"/>
+      <c r="H38" s="483"/>
+      <c r="I38" s="483"/>
+      <c r="J38" s="483"/>
+      <c r="K38" s="483"/>
+      <c r="L38" s="483"/>
+      <c r="M38" s="483"/>
+      <c r="N38" s="483"/>
+      <c r="O38" s="483"/>
+      <c r="P38" s="483"/>
+      <c r="Q38" s="483"/>
+      <c r="R38" s="483"/>
+      <c r="S38" s="483"/>
+      <c r="T38" s="483"/>
+      <c r="U38" s="483"/>
+      <c r="V38" s="483"/>
+      <c r="W38" s="483"/>
+      <c r="X38" s="483"/>
       <c r="AM38" s="252"/>
     </row>
     <row r="39" spans="3:39" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="491"/>
-      <c r="H39" s="491"/>
-      <c r="I39" s="491"/>
-      <c r="J39" s="491"/>
-      <c r="K39" s="491"/>
-      <c r="L39" s="491"/>
-      <c r="M39" s="491"/>
-      <c r="N39" s="491"/>
-      <c r="O39" s="491"/>
-      <c r="P39" s="491"/>
-      <c r="Q39" s="491"/>
-      <c r="R39" s="491"/>
-      <c r="S39" s="491"/>
-      <c r="T39" s="491"/>
-      <c r="U39" s="491"/>
-      <c r="V39" s="491"/>
-      <c r="W39" s="491"/>
-      <c r="X39" s="491"/>
+      <c r="G39" s="483"/>
+      <c r="H39" s="483"/>
+      <c r="I39" s="483"/>
+      <c r="J39" s="483"/>
+      <c r="K39" s="483"/>
+      <c r="L39" s="483"/>
+      <c r="M39" s="483"/>
+      <c r="N39" s="483"/>
+      <c r="O39" s="483"/>
+      <c r="P39" s="483"/>
+      <c r="Q39" s="483"/>
+      <c r="R39" s="483"/>
+      <c r="S39" s="483"/>
+      <c r="T39" s="483"/>
+      <c r="U39" s="483"/>
+      <c r="V39" s="483"/>
+      <c r="W39" s="483"/>
+      <c r="X39" s="483"/>
       <c r="AM39" s="252"/>
     </row>
     <row r="40" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C40" s="213"/>
       <c r="D40" s="213"/>
-      <c r="G40" s="491"/>
-      <c r="H40" s="491"/>
-      <c r="I40" s="491"/>
-      <c r="J40" s="491"/>
-      <c r="K40" s="491"/>
-      <c r="L40" s="491"/>
-      <c r="M40" s="491"/>
-      <c r="N40" s="491"/>
-      <c r="O40" s="491"/>
-      <c r="P40" s="491"/>
-      <c r="Q40" s="491"/>
-      <c r="R40" s="491"/>
-      <c r="S40" s="491"/>
-      <c r="T40" s="491"/>
-      <c r="U40" s="491"/>
-      <c r="V40" s="491"/>
-      <c r="W40" s="491"/>
-      <c r="X40" s="491"/>
+      <c r="G40" s="483"/>
+      <c r="H40" s="483"/>
+      <c r="I40" s="483"/>
+      <c r="J40" s="483"/>
+      <c r="K40" s="483"/>
+      <c r="L40" s="483"/>
+      <c r="M40" s="483"/>
+      <c r="N40" s="483"/>
+      <c r="O40" s="483"/>
+      <c r="P40" s="483"/>
+      <c r="Q40" s="483"/>
+      <c r="R40" s="483"/>
+      <c r="S40" s="483"/>
+      <c r="T40" s="483"/>
+      <c r="U40" s="483"/>
+      <c r="V40" s="483"/>
+      <c r="W40" s="483"/>
+      <c r="X40" s="483"/>
       <c r="AM40" s="213"/>
     </row>
     <row r="41" spans="3:39" x14ac:dyDescent="0.25">
@@ -11524,6 +11530,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -11540,13 +11553,6 @@
     <mergeCell ref="AC19:AL19"/>
     <mergeCell ref="Z6:AE6"/>
     <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11557,7 +11563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="296">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -314,12 +314,6 @@
     <t>(8) = (2) - (3) - (4) - (5) - (7)</t>
   </si>
   <si>
-    <t>Tháng 10/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Số:102020/BC. MST: 0108806878</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Số:102020/HKT. MST: 0108806878</t>
   </si>
   <si>
@@ -431,9 +425,6 @@
     <t>Như vậy công ty cần thanh toán cho em Hằng số tiền là</t>
   </si>
   <si>
-    <t xml:space="preserve"> Số:H-NNM102020/PKT. MST: 0108806878</t>
-  </si>
-  <si>
     <t>Tiền hàng anh Nam máy tính</t>
   </si>
   <si>
@@ -915,6 +906,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Số:112020/TC. MST: 0108806878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:H-NNM112020/PKT. MST: 0108806878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:112020/BC. MST: 0108806878</t>
   </si>
 </sst>
 </file>
@@ -2518,6 +2515,15 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2525,15 +2531,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2572,6 +2569,18 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2582,18 +2591,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3230,10 +3227,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
@@ -3281,7 +3277,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B2" s="103"/>
       <c r="C2" s="102"/>
@@ -3303,7 +3299,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="385" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B3" s="385"/>
       <c r="C3" s="385"/>
@@ -3344,7 +3340,7 @@
       </c>
       <c r="H4" s="388"/>
     </row>
-    <row r="5" spans="1:17" s="106" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="386"/>
       <c r="B5" s="386"/>
       <c r="C5" s="386"/>
@@ -3362,18 +3358,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="200">
         <v>44136</v>
       </c>
       <c r="B6" s="200" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C6" s="201" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D6" s="202" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E6" s="203"/>
       <c r="F6" s="204"/>
@@ -3382,18 +3378,18 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="200">
         <v>44137</v>
       </c>
       <c r="B7" s="200" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C7" s="201" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D7" s="202" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E7" s="203">
         <v>7000000</v>
@@ -3402,18 +3398,18 @@
       <c r="G7" s="203"/>
       <c r="H7" s="204"/>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="200">
         <v>44136</v>
       </c>
       <c r="B8" s="200" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C8" s="201" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D8" s="202" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E8" s="203">
         <v>20000000</v>
@@ -3422,18 +3418,18 @@
       <c r="G8" s="203"/>
       <c r="H8" s="204"/>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="92">
         <v>44137</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E9" s="95"/>
       <c r="F9" s="108"/>
@@ -3442,18 +3438,18 @@
       </c>
       <c r="H9" s="108"/>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="92">
         <v>44138</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E10" s="95"/>
       <c r="F10" s="108">
@@ -3462,18 +3458,18 @@
       <c r="G10" s="95"/>
       <c r="H10" s="108"/>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="92">
         <v>44139</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E11" s="95"/>
       <c r="F11" s="108">
@@ -3482,18 +3478,18 @@
       <c r="G11" s="95"/>
       <c r="H11" s="108"/>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="343">
         <v>44139</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C12" s="344" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E12" s="95">
         <v>12956400</v>
@@ -3502,18 +3498,18 @@
       <c r="G12" s="95"/>
       <c r="H12" s="108"/>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="343">
         <v>44139</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C13" s="344" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E13" s="95"/>
       <c r="F13" s="108"/>
@@ -3522,18 +3518,18 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="343">
         <v>44140</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C14" s="344" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D14" s="202" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E14" s="203"/>
       <c r="F14" s="204"/>
@@ -3547,13 +3543,13 @@
         <v>44140</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C15" s="344" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D15" s="202" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E15" s="203"/>
       <c r="F15" s="204"/>
@@ -3562,18 +3558,18 @@
       </c>
       <c r="H15" s="204"/>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="343">
         <v>44140</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C16" s="344" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E16" s="95"/>
       <c r="F16" s="108">
@@ -3582,18 +3578,18 @@
       <c r="G16" s="95"/>
       <c r="H16" s="108"/>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="343">
         <v>44141</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C17" s="344" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E17" s="95"/>
       <c r="F17" s="108"/>
@@ -3602,18 +3598,18 @@
       </c>
       <c r="H17" s="108"/>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="343">
         <v>44142</v>
       </c>
       <c r="B18" s="92" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C18" s="344" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D18" s="94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E18" s="95"/>
       <c r="F18" s="108"/>
@@ -3622,18 +3618,18 @@
       </c>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="343">
         <v>44142</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C19" s="344" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D19" s="94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E19" s="95">
         <v>3433800</v>
@@ -3642,18 +3638,18 @@
       <c r="G19" s="95"/>
       <c r="H19" s="110"/>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="343">
         <v>44142</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C20" s="344" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D20" s="94" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E20" s="95"/>
       <c r="F20" s="108"/>
@@ -3664,18 +3660,18 @@
       <c r="K20" s="100"/>
       <c r="L20" s="100"/>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="343">
         <v>44143</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C21" s="344" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E21" s="95">
         <v>1085600</v>
@@ -3686,18 +3682,18 @@
       <c r="K21" s="100"/>
       <c r="L21" s="100"/>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="343">
         <v>44143</v>
       </c>
       <c r="B22" s="92" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C22" s="344" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E22" s="95"/>
       <c r="F22" s="108">
@@ -3708,18 +3704,18 @@
       <c r="K22" s="100"/>
       <c r="L22" s="100"/>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="343">
         <v>44145</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C23" s="344" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E23" s="95"/>
       <c r="F23" s="108"/>
@@ -3730,18 +3726,18 @@
       <c r="K23" s="100"/>
       <c r="L23" s="100"/>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="343">
         <v>44145</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C24" s="344" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D24" s="94" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E24" s="95"/>
       <c r="F24" s="108"/>
@@ -3757,13 +3753,13 @@
         <v>44150</v>
       </c>
       <c r="B25" s="92" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C25" s="93" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E25" s="95"/>
       <c r="F25" s="108"/>
@@ -3779,13 +3775,13 @@
         <v>44150</v>
       </c>
       <c r="B26" s="92" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C26" s="93" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D26" s="94" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E26" s="95"/>
       <c r="F26" s="108"/>
@@ -3795,18 +3791,18 @@
       <c r="H26" s="110"/>
       <c r="N26" s="210"/>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="92">
         <v>44150</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C27" s="93" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D27" s="109" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E27" s="95">
         <v>14779500</v>
@@ -3816,18 +3812,18 @@
       <c r="H27" s="110"/>
       <c r="K27" s="210"/>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="92">
         <v>44150</v>
       </c>
       <c r="B28" s="92" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" s="94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E28" s="95"/>
       <c r="F28" s="108"/>
@@ -3836,18 +3832,18 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="92">
         <v>44152</v>
       </c>
       <c r="B29" s="92" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D29" s="94" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E29" s="95"/>
       <c r="F29" s="108">
@@ -3857,18 +3853,18 @@
       <c r="H29" s="110"/>
       <c r="J29" s="210"/>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="92">
         <v>44152</v>
       </c>
       <c r="B30" s="92" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C30" s="93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D30" s="94" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E30" s="95"/>
       <c r="F30" s="108"/>
@@ -3878,18 +3874,18 @@
       <c r="H30" s="110"/>
       <c r="J30" s="210"/>
     </row>
-    <row r="31" spans="1:14" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="376" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="370">
         <v>44152</v>
       </c>
       <c r="B31" s="370" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C31" s="371" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D31" s="372" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E31" s="373"/>
       <c r="F31" s="374"/>
@@ -3899,18 +3895,18 @@
       </c>
       <c r="J31" s="377"/>
     </row>
-    <row r="32" spans="1:14" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="376" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="370">
         <v>44152</v>
       </c>
       <c r="B32" s="370" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C32" s="371" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D32" s="372" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E32" s="373"/>
       <c r="F32" s="374"/>
@@ -3920,18 +3916,18 @@
       </c>
       <c r="K32" s="377"/>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="92">
         <v>44152</v>
       </c>
       <c r="B33" s="92" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C33" s="93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D33" s="94" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E33" s="95"/>
       <c r="F33" s="108"/>
@@ -3941,18 +3937,18 @@
       <c r="H33" s="110"/>
       <c r="K33" s="210"/>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="92">
         <v>44152</v>
       </c>
       <c r="B34" s="92" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C34" s="93" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D34" s="94" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E34" s="95">
         <v>180000000</v>
@@ -3962,18 +3958,18 @@
       <c r="H34" s="110"/>
       <c r="K34" s="210"/>
     </row>
-    <row r="35" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="370">
         <v>44154</v>
       </c>
       <c r="B35" s="370" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C35" s="371" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D35" s="372" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E35" s="373"/>
       <c r="F35" s="374"/>
@@ -3983,18 +3979,18 @@
       <c r="H35" s="375"/>
       <c r="K35" s="377"/>
     </row>
-    <row r="36" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="370">
         <v>44154</v>
       </c>
       <c r="B36" s="370" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C36" s="371" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D36" s="372" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E36" s="373">
         <v>9142000</v>
@@ -4003,18 +3999,18 @@
       <c r="G36" s="373"/>
       <c r="H36" s="375"/>
     </row>
-    <row r="37" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="370">
         <v>44159</v>
       </c>
       <c r="B37" s="370" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C37" s="371" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D37" s="372" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E37" s="378"/>
       <c r="F37" s="373">
@@ -4023,18 +4019,18 @@
       <c r="G37" s="373"/>
       <c r="H37" s="375"/>
     </row>
-    <row r="38" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="370">
         <v>44160</v>
       </c>
       <c r="B38" s="370" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C38" s="371" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D38" s="372" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E38" s="373"/>
       <c r="F38" s="374">
@@ -4044,18 +4040,18 @@
       <c r="H38" s="375"/>
       <c r="K38" s="378"/>
     </row>
-    <row r="39" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="370">
         <v>44160</v>
       </c>
       <c r="B39" s="370" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C39" s="371" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D39" s="372" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E39" s="373"/>
       <c r="F39" s="374">
@@ -4064,18 +4060,18 @@
       <c r="G39" s="373"/>
       <c r="H39" s="375"/>
     </row>
-    <row r="40" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="370">
         <v>44160</v>
       </c>
       <c r="B40" s="370" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C40" s="371" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D40" s="372" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E40" s="373"/>
       <c r="F40" s="373"/>
@@ -4084,18 +4080,18 @@
       </c>
       <c r="H40" s="375"/>
     </row>
-    <row r="41" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="92">
         <v>44160</v>
       </c>
       <c r="B41" s="92" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C41" s="93" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D41" s="94" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E41" s="95">
         <v>10000000</v>
@@ -4105,18 +4101,18 @@
       <c r="H41" s="110"/>
       <c r="K41" s="210"/>
     </row>
-    <row r="42" spans="1:11" s="376" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="376" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="370">
         <v>44160</v>
       </c>
       <c r="B42" s="370" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C42" s="371" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D42" s="372" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E42" s="373"/>
       <c r="F42" s="374"/>
@@ -4125,18 +4121,18 @@
       </c>
       <c r="H42" s="375"/>
     </row>
-    <row r="43" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="370">
         <v>44163</v>
       </c>
       <c r="B43" s="370" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C43" s="371" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D43" s="372" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E43" s="373"/>
       <c r="F43" s="374"/>
@@ -4145,18 +4141,18 @@
       </c>
       <c r="H43" s="375"/>
     </row>
-    <row r="44" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="370">
         <v>44163</v>
       </c>
       <c r="B44" s="370" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C44" s="371" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D44" s="372" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E44" s="378"/>
       <c r="F44" s="373"/>
@@ -4170,13 +4166,13 @@
         <v>44165</v>
       </c>
       <c r="B45" s="370" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C45" s="371" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D45" s="372" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E45" s="373"/>
       <c r="F45" s="374"/>
@@ -4185,18 +4181,18 @@
       </c>
       <c r="H45" s="375"/>
     </row>
-    <row r="46" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="370">
         <v>44165</v>
       </c>
       <c r="B46" s="370" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C46" s="371" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D46" s="372" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E46" s="374"/>
       <c r="F46" s="378">
@@ -4205,18 +4201,18 @@
       <c r="G46" s="373"/>
       <c r="H46" s="375"/>
     </row>
-    <row r="47" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="370">
         <v>44165</v>
       </c>
       <c r="B47" s="370" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C47" s="371" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D47" s="372" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E47" s="373"/>
       <c r="F47" s="374"/>
@@ -4225,7 +4221,7 @@
         <v>4389000</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="376" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="370"/>
       <c r="B48" s="370"/>
       <c r="C48" s="371"/>
@@ -4235,7 +4231,7 @@
       <c r="G48" s="373"/>
       <c r="H48" s="375"/>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="92"/>
       <c r="B49" s="92"/>
       <c r="C49" s="93"/>
@@ -4244,7 +4240,7 @@
       <c r="G49" s="95"/>
       <c r="H49" s="110"/>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="92"/>
       <c r="B50" s="92"/>
       <c r="C50" s="93"/>
@@ -4254,7 +4250,7 @@
       <c r="G50" s="95"/>
       <c r="H50" s="110"/>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="92"/>
       <c r="B51" s="92"/>
       <c r="C51" s="93"/>
@@ -4264,7 +4260,7 @@
       <c r="G51" s="95"/>
       <c r="H51" s="110"/>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="92"/>
       <c r="B52" s="92"/>
       <c r="C52" s="93"/>
@@ -4274,7 +4270,7 @@
       <c r="G52" s="95"/>
       <c r="H52" s="110"/>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="92"/>
       <c r="B53" s="92"/>
       <c r="C53" s="93"/>
@@ -4284,7 +4280,7 @@
       <c r="G53" s="95"/>
       <c r="H53" s="110"/>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="92"/>
       <c r="B54" s="92"/>
       <c r="C54" s="93"/>
@@ -4294,7 +4290,7 @@
       <c r="G54" s="95"/>
       <c r="H54" s="110"/>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="92"/>
       <c r="B55" s="92"/>
       <c r="C55" s="93"/>
@@ -4304,7 +4300,7 @@
       <c r="G55" s="95"/>
       <c r="H55" s="110"/>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="92"/>
       <c r="B56" s="92"/>
       <c r="C56" s="93"/>
@@ -4314,7 +4310,7 @@
       <c r="G56" s="95"/>
       <c r="H56" s="110"/>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="92"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
@@ -4324,7 +4320,7 @@
       <c r="G57" s="95"/>
       <c r="H57" s="110"/>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="92"/>
       <c r="B58" s="92"/>
       <c r="C58" s="93"/>
@@ -4334,7 +4330,7 @@
       <c r="G58" s="95"/>
       <c r="H58" s="110"/>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="92"/>
       <c r="B59" s="92"/>
       <c r="C59" s="93"/>
@@ -4344,7 +4340,7 @@
       <c r="G59" s="95"/>
       <c r="H59" s="110"/>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="92"/>
       <c r="B60" s="92"/>
       <c r="C60" s="93"/>
@@ -4354,7 +4350,7 @@
       <c r="G60" s="95"/>
       <c r="H60" s="110"/>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="92"/>
       <c r="B61" s="92"/>
       <c r="C61" s="93"/>
@@ -4364,7 +4360,7 @@
       <c r="G61" s="95"/>
       <c r="H61" s="110"/>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="92"/>
       <c r="B62" s="92"/>
       <c r="C62" s="93"/>
@@ -4374,7 +4370,7 @@
       <c r="G62" s="95"/>
       <c r="H62" s="110"/>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="92"/>
       <c r="B63" s="92"/>
       <c r="C63" s="93"/>
@@ -4384,7 +4380,7 @@
       <c r="G63" s="95"/>
       <c r="H63" s="110"/>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="92"/>
       <c r="B64" s="92"/>
       <c r="C64" s="93"/>
@@ -4394,7 +4390,7 @@
       <c r="G64" s="95"/>
       <c r="H64" s="110"/>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="92"/>
       <c r="B65" s="92"/>
       <c r="C65" s="93"/>
@@ -4404,7 +4400,7 @@
       <c r="G65" s="95"/>
       <c r="H65" s="110"/>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="92"/>
       <c r="B66" s="92"/>
       <c r="C66" s="93"/>
@@ -4414,7 +4410,7 @@
       <c r="G66" s="95"/>
       <c r="H66" s="110"/>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="92"/>
       <c r="B67" s="92"/>
       <c r="C67" s="93"/>
@@ -4424,7 +4420,7 @@
       <c r="G67" s="95"/>
       <c r="H67" s="110"/>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="92"/>
       <c r="B68" s="92"/>
       <c r="C68" s="93"/>
@@ -4434,7 +4430,7 @@
       <c r="G68" s="95"/>
       <c r="H68" s="110"/>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="92"/>
       <c r="B69" s="92"/>
       <c r="C69" s="93"/>
@@ -4444,7 +4440,7 @@
       <c r="G69" s="95"/>
       <c r="H69" s="110"/>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="92"/>
       <c r="B70" s="92"/>
       <c r="C70" s="93"/>
@@ -4453,7 +4449,7 @@
       <c r="G70" s="95"/>
       <c r="H70" s="110"/>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="92"/>
       <c r="B71" s="92"/>
       <c r="C71" s="93"/>
@@ -4463,7 +4459,7 @@
       <c r="G71" s="95"/>
       <c r="H71" s="110"/>
     </row>
-    <row r="72" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="92"/>
       <c r="B72" s="92"/>
       <c r="C72" s="93"/>
@@ -4473,7 +4469,7 @@
       <c r="G72" s="95"/>
       <c r="H72" s="110"/>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="92"/>
       <c r="B73" s="92"/>
       <c r="C73" s="93"/>
@@ -4483,7 +4479,7 @@
       <c r="G73" s="95"/>
       <c r="H73" s="110"/>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="92"/>
       <c r="B74" s="92"/>
       <c r="C74" s="93"/>
@@ -4492,7 +4488,7 @@
       <c r="G74" s="95"/>
       <c r="H74" s="110"/>
     </row>
-    <row r="75" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="92"/>
       <c r="B75" s="92"/>
       <c r="C75" s="93"/>
@@ -4502,7 +4498,7 @@
       <c r="G75" s="95"/>
       <c r="H75" s="110"/>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="92"/>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -4512,7 +4508,7 @@
       <c r="G76" s="95"/>
       <c r="H76" s="110"/>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="92"/>
       <c r="B77" s="92"/>
       <c r="C77" s="93"/>
@@ -4522,7 +4518,7 @@
       <c r="G77" s="95"/>
       <c r="H77" s="110"/>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="92"/>
       <c r="B78" s="92"/>
       <c r="C78" s="93"/>
@@ -4532,7 +4528,7 @@
       <c r="G78" s="95"/>
       <c r="H78" s="110"/>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="92"/>
       <c r="B79" s="92"/>
       <c r="C79" s="93"/>
@@ -4542,7 +4538,7 @@
       <c r="G79" s="95"/>
       <c r="H79" s="110"/>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="92"/>
       <c r="B80" s="92"/>
       <c r="C80" s="93"/>
@@ -4552,7 +4548,7 @@
       <c r="G80" s="95"/>
       <c r="H80" s="110"/>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="92"/>
       <c r="B81" s="92"/>
       <c r="C81" s="93"/>
@@ -4562,7 +4558,7 @@
       <c r="G81" s="95"/>
       <c r="H81" s="110"/>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="92"/>
       <c r="B82" s="92"/>
       <c r="C82" s="93"/>
@@ -4572,7 +4568,7 @@
       <c r="G82" s="95"/>
       <c r="H82" s="110"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="92"/>
       <c r="B83" s="92"/>
       <c r="C83" s="93"/>
@@ -4582,7 +4578,7 @@
       <c r="G83" s="95"/>
       <c r="H83" s="110"/>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="92"/>
       <c r="B84" s="92"/>
       <c r="C84" s="93"/>
@@ -4592,7 +4588,7 @@
       <c r="G84" s="95"/>
       <c r="H84" s="110"/>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="92"/>
       <c r="B85" s="92"/>
       <c r="C85" s="93"/>
@@ -4602,7 +4598,7 @@
       <c r="G85" s="95"/>
       <c r="H85" s="110"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="92"/>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -4612,7 +4608,7 @@
       <c r="G86" s="95"/>
       <c r="H86" s="110"/>
     </row>
-    <row r="87" spans="1:10" s="113" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" s="113" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="382" t="s">
         <v>9</v>
       </c>
@@ -4692,11 +4688,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:H87">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Lương, thưởng"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
@@ -4766,7 +4757,7 @@
     </row>
     <row r="2" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="129" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B2" s="129"/>
       <c r="C2" s="129"/>
@@ -4804,7 +4795,7 @@
     </row>
     <row r="4" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="398" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B4" s="398"/>
       <c r="C4" s="398"/>
@@ -4823,19 +4814,19 @@
       <c r="P4" s="398"/>
     </row>
     <row r="5" spans="1:16" s="123" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="412" t="s">
+      <c r="A5" s="408" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="413" t="s">
+      <c r="B5" s="409" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="412" t="s">
+      <c r="C5" s="408" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="412" t="s">
+      <c r="D5" s="408" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="412"/>
+      <c r="E5" s="408"/>
       <c r="F5" s="400" t="s">
         <v>28</v>
       </c>
@@ -4846,7 +4837,7 @@
       <c r="K5" s="400"/>
       <c r="L5" s="400"/>
       <c r="M5" s="399" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N5" s="399"/>
       <c r="O5" s="399"/>
@@ -4855,19 +4846,19 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="123" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="412"/>
-      <c r="B6" s="413"/>
-      <c r="C6" s="412"/>
-      <c r="D6" s="412" t="s">
+      <c r="A6" s="408"/>
+      <c r="B6" s="409"/>
+      <c r="C6" s="408"/>
+      <c r="D6" s="408" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="412" t="s">
+      <c r="E6" s="408" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="412" t="s">
+      <c r="F6" s="408" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="412" t="s">
+      <c r="G6" s="408" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="401" t="s">
@@ -4876,10 +4867,10 @@
       <c r="I6" s="401" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="414" t="s">
+      <c r="J6" s="410" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="414"/>
+      <c r="K6" s="410"/>
       <c r="L6" s="401" t="s">
         <v>43</v>
       </c>
@@ -4895,13 +4886,13 @@
       <c r="P6" s="400"/>
     </row>
     <row r="7" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="412"/>
-      <c r="B7" s="413"/>
-      <c r="C7" s="412"/>
-      <c r="D7" s="412"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="412"/>
-      <c r="G7" s="412"/>
+      <c r="A7" s="408"/>
+      <c r="B7" s="409"/>
+      <c r="C7" s="408"/>
+      <c r="D7" s="408"/>
+      <c r="E7" s="408"/>
+      <c r="F7" s="408"/>
+      <c r="G7" s="408"/>
       <c r="H7" s="401"/>
       <c r="I7" s="401"/>
       <c r="J7" s="206" t="s">
@@ -4917,23 +4908,23 @@
       <c r="P7" s="400"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="389">
+      <c r="A8" s="392">
         <v>1219</v>
       </c>
-      <c r="B8" s="392">
+      <c r="B8" s="389">
         <v>44138</v>
       </c>
-      <c r="C8" s="389" t="s">
+      <c r="C8" s="392" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="392" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="392" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="162" t="s">
         <v>158</v>
-      </c>
-      <c r="D8" s="389" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="389" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="162" t="s">
-        <v>161</v>
       </c>
       <c r="G8" s="162">
         <v>4</v>
@@ -4962,13 +4953,13 @@
       <c r="P8" s="162"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="390"/>
-      <c r="B9" s="393"/>
-      <c r="C9" s="390"/>
-      <c r="D9" s="390"/>
-      <c r="E9" s="390"/>
+      <c r="A9" s="393"/>
+      <c r="B9" s="390"/>
+      <c r="C9" s="393"/>
+      <c r="D9" s="393"/>
+      <c r="E9" s="393"/>
       <c r="F9" s="174" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G9" s="174">
         <v>6</v>
@@ -4997,13 +4988,13 @@
       <c r="P9" s="174"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="390"/>
-      <c r="B10" s="393"/>
-      <c r="C10" s="390"/>
-      <c r="D10" s="390"/>
-      <c r="E10" s="390"/>
+      <c r="A10" s="393"/>
+      <c r="B10" s="390"/>
+      <c r="C10" s="393"/>
+      <c r="D10" s="393"/>
+      <c r="E10" s="393"/>
       <c r="F10" s="174" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G10" s="174">
         <v>3</v>
@@ -5032,13 +5023,13 @@
       <c r="P10" s="174"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="390"/>
-      <c r="B11" s="393"/>
-      <c r="C11" s="390"/>
-      <c r="D11" s="390"/>
-      <c r="E11" s="390"/>
+      <c r="A11" s="393"/>
+      <c r="B11" s="390"/>
+      <c r="C11" s="393"/>
+      <c r="D11" s="393"/>
+      <c r="E11" s="393"/>
       <c r="F11" s="174" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G11" s="174">
         <v>5</v>
@@ -5067,13 +5058,13 @@
       <c r="P11" s="174"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="391"/>
-      <c r="B12" s="394"/>
-      <c r="C12" s="391"/>
-      <c r="D12" s="391"/>
-      <c r="E12" s="391"/>
+      <c r="A12" s="394"/>
+      <c r="B12" s="391"/>
+      <c r="C12" s="394"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="394"/>
       <c r="F12" s="165" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G12" s="165">
         <v>3</v>
@@ -5109,16 +5100,16 @@
         <v>44137</v>
       </c>
       <c r="C13" s="402" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D13" s="402" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E13" s="402" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F13" s="207" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G13" s="207">
         <v>1</v>
@@ -5153,7 +5144,7 @@
       <c r="D14" s="403"/>
       <c r="E14" s="403"/>
       <c r="F14" s="339" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G14" s="339">
         <v>1</v>
@@ -5190,13 +5181,13 @@
       </c>
       <c r="C15" s="193"/>
       <c r="D15" s="193" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E15" s="193" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F15" s="156" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G15" s="156">
         <v>5</v>
@@ -5233,13 +5224,13 @@
       </c>
       <c r="C16" s="403"/>
       <c r="D16" s="403" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E16" s="403" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F16" s="207" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G16" s="207">
         <v>24</v>
@@ -5276,7 +5267,7 @@
       <c r="D17" s="403"/>
       <c r="E17" s="403"/>
       <c r="F17" s="174" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G17" s="174">
         <v>12</v>
@@ -5312,14 +5303,14 @@
         <v>44142</v>
       </c>
       <c r="C18" s="193" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D18" s="193" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E18" s="193"/>
       <c r="F18" s="156" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G18" s="156">
         <v>2</v>
@@ -5355,16 +5346,16 @@
         <v>44142</v>
       </c>
       <c r="C19" s="193" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D19" s="193" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E19" s="193" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F19" s="156" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G19" s="156">
         <v>12</v>
@@ -5400,16 +5391,16 @@
         <v>44143</v>
       </c>
       <c r="C20" s="402" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D20" s="402" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E20" s="402" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F20" s="207" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G20" s="207">
         <v>2</v>
@@ -5444,7 +5435,7 @@
       <c r="D21" s="403"/>
       <c r="E21" s="403"/>
       <c r="F21" s="170" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G21" s="170">
         <v>1</v>
@@ -5479,7 +5470,7 @@
       <c r="D22" s="403"/>
       <c r="E22" s="403"/>
       <c r="F22" s="345" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G22" s="345">
         <v>2</v>
@@ -5515,14 +5506,14 @@
         <v>44143</v>
       </c>
       <c r="C23" s="350" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D23" s="352" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E23" s="350"/>
       <c r="F23" s="350" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G23" s="350">
         <v>2</v>
@@ -5558,16 +5549,16 @@
         <v>44144</v>
       </c>
       <c r="C24" s="350" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D24" s="352" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E24" s="350" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F24" s="350" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G24" s="350">
         <v>2</v>
@@ -5603,16 +5594,16 @@
         <v>44145</v>
       </c>
       <c r="C25" s="402" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="412" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="408" t="s">
-        <v>194</v>
-      </c>
       <c r="E25" s="402" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F25" s="336" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G25" s="336">
         <v>120</v>
@@ -5639,17 +5630,17 @@
         <v>33852000</v>
       </c>
       <c r="P25" s="402" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="403"/>
       <c r="B26" s="405"/>
       <c r="C26" s="403"/>
-      <c r="D26" s="409"/>
+      <c r="D26" s="413"/>
       <c r="E26" s="403"/>
       <c r="F26" s="170" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G26" s="170">
         <v>12</v>
@@ -5681,10 +5672,10 @@
       <c r="A27" s="403"/>
       <c r="B27" s="405"/>
       <c r="C27" s="403"/>
-      <c r="D27" s="409"/>
+      <c r="D27" s="413"/>
       <c r="E27" s="403"/>
       <c r="F27" s="170" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G27" s="170">
         <v>12</v>
@@ -5716,10 +5707,10 @@
       <c r="A28" s="403"/>
       <c r="B28" s="405"/>
       <c r="C28" s="403"/>
-      <c r="D28" s="409"/>
+      <c r="D28" s="413"/>
       <c r="E28" s="403"/>
       <c r="F28" s="174" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G28" s="174">
         <v>72</v>
@@ -5751,10 +5742,10 @@
       <c r="A29" s="403"/>
       <c r="B29" s="405"/>
       <c r="C29" s="403"/>
-      <c r="D29" s="409"/>
+      <c r="D29" s="413"/>
       <c r="E29" s="403"/>
       <c r="F29" s="339" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G29" s="339">
         <v>12</v>
@@ -5790,16 +5781,16 @@
         <v>44146</v>
       </c>
       <c r="C30" s="402" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="402" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="402" t="s">
-        <v>194</v>
-      </c>
       <c r="E30" s="402" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F30" s="162" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G30" s="162">
         <v>120</v>
@@ -5826,7 +5817,7 @@
         <v>16740000</v>
       </c>
       <c r="P30" s="402" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5836,7 +5827,7 @@
       <c r="D31" s="403"/>
       <c r="E31" s="403"/>
       <c r="F31" s="174" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G31" s="174">
         <v>24</v>
@@ -5871,7 +5862,7 @@
       <c r="D32" s="403"/>
       <c r="E32" s="403"/>
       <c r="F32" s="174" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G32" s="174">
         <v>24</v>
@@ -5906,7 +5897,7 @@
       <c r="D33" s="403"/>
       <c r="E33" s="403"/>
       <c r="F33" s="174" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G33" s="174">
         <v>24</v>
@@ -5941,7 +5932,7 @@
       <c r="D34" s="403"/>
       <c r="E34" s="403"/>
       <c r="F34" s="174" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G34" s="174">
         <v>24</v>
@@ -5976,7 +5967,7 @@
       <c r="D35" s="403"/>
       <c r="E35" s="403"/>
       <c r="F35" s="174" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G35" s="174">
         <v>48</v>
@@ -6011,7 +6002,7 @@
       <c r="D36" s="403"/>
       <c r="E36" s="403"/>
       <c r="F36" s="174" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G36" s="174">
         <v>96</v>
@@ -6046,7 +6037,7 @@
       <c r="D37" s="403"/>
       <c r="E37" s="403"/>
       <c r="F37" s="339" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G37" s="339">
         <v>60</v>
@@ -6075,21 +6066,21 @@
       <c r="P37" s="403"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="389">
+      <c r="A38" s="392">
         <v>1233</v>
       </c>
-      <c r="B38" s="392">
+      <c r="B38" s="389">
         <v>44150</v>
       </c>
-      <c r="C38" s="389"/>
-      <c r="D38" s="389" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="389" t="s">
-        <v>176</v>
+      <c r="C38" s="392"/>
+      <c r="D38" s="392" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="392" t="s">
+        <v>173</v>
       </c>
       <c r="F38" s="162" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G38" s="162">
         <v>24</v>
@@ -6120,13 +6111,13 @@
       <c r="P38" s="162"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="390"/>
-      <c r="B39" s="393"/>
-      <c r="C39" s="390"/>
-      <c r="D39" s="390"/>
-      <c r="E39" s="390"/>
+      <c r="A39" s="393"/>
+      <c r="B39" s="390"/>
+      <c r="C39" s="393"/>
+      <c r="D39" s="393"/>
+      <c r="E39" s="393"/>
       <c r="F39" s="174" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G39" s="174">
         <v>24</v>
@@ -6155,13 +6146,13 @@
       <c r="P39" s="174"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="390"/>
-      <c r="B40" s="393"/>
-      <c r="C40" s="390"/>
-      <c r="D40" s="390"/>
-      <c r="E40" s="390"/>
+      <c r="A40" s="393"/>
+      <c r="B40" s="390"/>
+      <c r="C40" s="393"/>
+      <c r="D40" s="393"/>
+      <c r="E40" s="393"/>
       <c r="F40" s="174" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G40" s="174">
         <v>12</v>
@@ -6190,13 +6181,13 @@
       <c r="P40" s="174"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="391"/>
-      <c r="B41" s="394"/>
-      <c r="C41" s="391"/>
-      <c r="D41" s="391"/>
-      <c r="E41" s="391"/>
+      <c r="A41" s="394"/>
+      <c r="B41" s="391"/>
+      <c r="C41" s="394"/>
+      <c r="D41" s="394"/>
+      <c r="E41" s="394"/>
       <c r="F41" s="165" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G41" s="165">
         <v>6</v>
@@ -6232,16 +6223,16 @@
         <v>44150</v>
       </c>
       <c r="C42" s="402" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D42" s="402" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E42" s="402" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F42" s="207" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G42" s="207">
         <v>48</v>
@@ -6276,7 +6267,7 @@
       <c r="D43" s="403"/>
       <c r="E43" s="403"/>
       <c r="F43" s="339" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G43" s="339">
         <v>12</v>
@@ -6312,16 +6303,16 @@
         <v>44150</v>
       </c>
       <c r="C44" s="402" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="412" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="408" t="s">
-        <v>194</v>
-      </c>
       <c r="E44" s="402" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F44" s="162" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G44" s="162">
         <v>36</v>
@@ -6353,10 +6344,10 @@
       <c r="A45" s="403"/>
       <c r="B45" s="405"/>
       <c r="C45" s="403"/>
-      <c r="D45" s="409"/>
+      <c r="D45" s="413"/>
       <c r="E45" s="403"/>
       <c r="F45" s="174" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G45" s="174">
         <v>24</v>
@@ -6386,12 +6377,12 @@
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="406"/>
-      <c r="B46" s="407"/>
+      <c r="B46" s="411"/>
       <c r="C46" s="406"/>
-      <c r="D46" s="410"/>
+      <c r="D46" s="414"/>
       <c r="E46" s="406"/>
       <c r="F46" s="165" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G46" s="165">
         <v>24</v>
@@ -6427,16 +6418,16 @@
         <v>44152</v>
       </c>
       <c r="C47" s="193" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D47" s="193" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E47" s="193" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F47" s="350" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G47" s="350">
         <v>3</v>
@@ -6463,7 +6454,7 @@
       </c>
       <c r="O47" s="353"/>
       <c r="P47" s="169" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -6474,16 +6465,16 @@
         <v>44153</v>
       </c>
       <c r="C48" s="193" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D48" s="193" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E48" s="193" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F48" s="156" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G48" s="156">
         <v>24</v>
@@ -6520,11 +6511,11 @@
       </c>
       <c r="C49" s="403"/>
       <c r="D49" s="403" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E49" s="403"/>
       <c r="F49" s="207" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G49" s="207">
         <v>24</v>
@@ -6559,7 +6550,7 @@
       <c r="D50" s="403"/>
       <c r="E50" s="403"/>
       <c r="F50" s="339" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G50" s="339">
         <v>12</v>
@@ -6588,19 +6579,19 @@
       <c r="P50" s="361"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="389">
+      <c r="A51" s="392">
         <v>1239</v>
       </c>
-      <c r="B51" s="392">
+      <c r="B51" s="389">
         <v>44153</v>
       </c>
-      <c r="C51" s="389"/>
-      <c r="D51" s="389" t="s">
-        <v>207</v>
-      </c>
-      <c r="E51" s="389"/>
+      <c r="C51" s="392"/>
+      <c r="D51" s="392" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" s="392"/>
       <c r="F51" s="162" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G51" s="162">
         <v>36</v>
@@ -6629,13 +6620,13 @@
       <c r="P51" s="362"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="390"/>
-      <c r="B52" s="393"/>
-      <c r="C52" s="390"/>
-      <c r="D52" s="390"/>
-      <c r="E52" s="390"/>
+      <c r="A52" s="393"/>
+      <c r="B52" s="390"/>
+      <c r="C52" s="393"/>
+      <c r="D52" s="393"/>
+      <c r="E52" s="393"/>
       <c r="F52" s="174" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G52" s="174">
         <v>12</v>
@@ -6664,13 +6655,13 @@
       <c r="P52" s="199"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="390"/>
-      <c r="B53" s="393"/>
-      <c r="C53" s="390"/>
-      <c r="D53" s="390"/>
-      <c r="E53" s="390"/>
+      <c r="A53" s="393"/>
+      <c r="B53" s="390"/>
+      <c r="C53" s="393"/>
+      <c r="D53" s="393"/>
+      <c r="E53" s="393"/>
       <c r="F53" s="174" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G53" s="174">
         <v>20</v>
@@ -6699,13 +6690,13 @@
       <c r="P53" s="174"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="391"/>
-      <c r="B54" s="394"/>
-      <c r="C54" s="391"/>
-      <c r="D54" s="391"/>
-      <c r="E54" s="391"/>
+      <c r="A54" s="394"/>
+      <c r="B54" s="391"/>
+      <c r="C54" s="394"/>
+      <c r="D54" s="394"/>
+      <c r="E54" s="394"/>
       <c r="F54" s="165" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G54" s="165">
         <v>24</v>
@@ -6734,21 +6725,21 @@
       <c r="P54" s="165"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="389">
+      <c r="A55" s="392">
         <v>1242</v>
       </c>
-      <c r="B55" s="392">
+      <c r="B55" s="389">
         <v>44154</v>
       </c>
-      <c r="C55" s="389" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" s="389" t="s">
-        <v>209</v>
-      </c>
-      <c r="E55" s="389"/>
+      <c r="C55" s="392" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="392" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="392"/>
       <c r="F55" s="162" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G55" s="162">
         <v>16</v>
@@ -6777,13 +6768,13 @@
       <c r="P55" s="162"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="390"/>
-      <c r="B56" s="393"/>
-      <c r="C56" s="390"/>
-      <c r="D56" s="390"/>
-      <c r="E56" s="390"/>
+      <c r="A56" s="393"/>
+      <c r="B56" s="390"/>
+      <c r="C56" s="393"/>
+      <c r="D56" s="393"/>
+      <c r="E56" s="393"/>
       <c r="F56" s="174" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G56" s="174">
         <v>1</v>
@@ -6812,13 +6803,13 @@
       <c r="P56" s="174"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="391"/>
-      <c r="B57" s="394"/>
-      <c r="C57" s="391"/>
-      <c r="D57" s="391"/>
-      <c r="E57" s="391"/>
+      <c r="A57" s="394"/>
+      <c r="B57" s="391"/>
+      <c r="C57" s="394"/>
+      <c r="D57" s="394"/>
+      <c r="E57" s="394"/>
       <c r="F57" s="165" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G57" s="165">
         <v>16</v>
@@ -6855,11 +6846,11 @@
       </c>
       <c r="C58" s="359"/>
       <c r="D58" s="359" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E58" s="359"/>
       <c r="F58" s="207" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G58" s="207">
         <v>24</v>
@@ -6896,11 +6887,11 @@
       </c>
       <c r="C59" s="170"/>
       <c r="D59" s="170" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E59" s="170"/>
       <c r="F59" s="174" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G59" s="174">
         <v>24</v>
@@ -6936,14 +6927,14 @@
         <v>44155</v>
       </c>
       <c r="C60" s="415" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D60" s="415" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E60" s="415"/>
       <c r="F60" s="174" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G60" s="174">
         <v>24</v>
@@ -6978,7 +6969,7 @@
       <c r="D61" s="416"/>
       <c r="E61" s="416"/>
       <c r="F61" s="174" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G61" s="174">
         <v>24</v>
@@ -7014,14 +7005,14 @@
         <v>44155</v>
       </c>
       <c r="C62" s="415" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D62" s="415" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E62" s="415"/>
       <c r="F62" s="174" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G62" s="174">
         <v>24</v>
@@ -7056,7 +7047,7 @@
       <c r="D63" s="416"/>
       <c r="E63" s="416"/>
       <c r="F63" s="174" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G63" s="174">
         <v>8</v>
@@ -7092,14 +7083,14 @@
         <v>44159</v>
       </c>
       <c r="C64" s="170" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D64" s="170" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E64" s="170"/>
       <c r="F64" s="174" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G64" s="174">
         <v>12</v>
@@ -7135,16 +7126,16 @@
         <v>44160</v>
       </c>
       <c r="C65" s="170" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D65" s="170" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E65" s="170" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F65" s="174" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G65" s="174">
         <v>2</v>
@@ -7180,16 +7171,16 @@
         <v>44160</v>
       </c>
       <c r="C66" s="415" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="415" t="s">
+        <v>216</v>
+      </c>
+      <c r="E66" s="415" t="s">
+        <v>217</v>
+      </c>
+      <c r="F66" s="174" t="s">
         <v>158</v>
-      </c>
-      <c r="D66" s="415" t="s">
-        <v>219</v>
-      </c>
-      <c r="E66" s="415" t="s">
-        <v>220</v>
-      </c>
-      <c r="F66" s="174" t="s">
-        <v>161</v>
       </c>
       <c r="G66" s="174">
         <v>2</v>
@@ -7216,7 +7207,7 @@
       <c r="N66" s="175"/>
       <c r="O66" s="175"/>
       <c r="P66" s="419" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7226,7 +7217,7 @@
       <c r="D67" s="416"/>
       <c r="E67" s="416"/>
       <c r="F67" s="174" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G67" s="174">
         <v>3</v>
@@ -7263,11 +7254,11 @@
       </c>
       <c r="C68" s="415"/>
       <c r="D68" s="430" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E68" s="415"/>
       <c r="F68" s="174" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G68" s="174">
         <v>3</v>
@@ -7299,10 +7290,10 @@
       <c r="A69" s="403"/>
       <c r="B69" s="405"/>
       <c r="C69" s="403"/>
-      <c r="D69" s="409"/>
+      <c r="D69" s="413"/>
       <c r="E69" s="403"/>
       <c r="F69" s="174" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G69" s="174">
         <v>5</v>
@@ -7326,10 +7317,10 @@
       <c r="A70" s="403"/>
       <c r="B70" s="405"/>
       <c r="C70" s="403"/>
-      <c r="D70" s="409"/>
+      <c r="D70" s="413"/>
       <c r="E70" s="403"/>
       <c r="F70" s="174" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G70" s="174">
         <v>4</v>
@@ -7353,10 +7344,10 @@
       <c r="A71" s="403"/>
       <c r="B71" s="405"/>
       <c r="C71" s="403"/>
-      <c r="D71" s="409"/>
+      <c r="D71" s="413"/>
       <c r="E71" s="403"/>
       <c r="F71" s="174" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G71" s="174">
         <v>5</v>
@@ -7380,10 +7371,10 @@
       <c r="A72" s="403"/>
       <c r="B72" s="405"/>
       <c r="C72" s="403"/>
-      <c r="D72" s="409"/>
+      <c r="D72" s="413"/>
       <c r="E72" s="403"/>
       <c r="F72" s="174" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G72" s="174">
         <v>2</v>
@@ -7407,10 +7398,10 @@
       <c r="A73" s="403"/>
       <c r="B73" s="405"/>
       <c r="C73" s="403"/>
-      <c r="D73" s="409"/>
+      <c r="D73" s="413"/>
       <c r="E73" s="403"/>
       <c r="F73" s="174" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G73" s="174">
         <v>4</v>
@@ -7437,7 +7428,7 @@
       <c r="D74" s="431"/>
       <c r="E74" s="416"/>
       <c r="F74" s="174" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G74" s="174">
         <v>2</v>
@@ -7512,14 +7503,14 @@
       <c r="P77" s="165"/>
     </row>
     <row r="78" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="411" t="s">
+      <c r="A78" s="407" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="411"/>
-      <c r="C78" s="411"/>
-      <c r="D78" s="411"/>
-      <c r="E78" s="411"/>
-      <c r="F78" s="411"/>
+      <c r="B78" s="407"/>
+      <c r="C78" s="407"/>
+      <c r="D78" s="407"/>
+      <c r="E78" s="407"/>
+      <c r="F78" s="407"/>
       <c r="G78" s="131">
         <f>SUM(G8:G77)</f>
         <v>1305</v>
@@ -7543,7 +7534,7 @@
     </row>
     <row r="79" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="396" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B79" s="396"/>
       <c r="C79" s="396"/>
@@ -7752,9 +7743,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="A20:A22"/>
@@ -7764,8 +7752,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="D51:D54"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A78:F78"/>
@@ -7788,6 +7774,8 @@
     <mergeCell ref="D55:D57"/>
     <mergeCell ref="E55:E57"/>
     <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="Q78:Q79"/>
@@ -7809,6 +7797,9 @@
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="A44:A46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7819,8 +7810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7849,7 +7840,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="281" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7872,7 +7863,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="435" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="B4" s="435"/>
       <c r="C4" s="435"/>
@@ -7890,7 +7881,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="437" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B5" s="438" t="s">
         <v>26</v>
@@ -7963,11 +7954,11 @@
       </c>
       <c r="C7" s="442"/>
       <c r="D7" s="442" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E7" s="442"/>
       <c r="F7" s="290" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G7" s="290">
         <v>3</v>
@@ -8000,7 +7991,7 @@
       <c r="D8" s="443"/>
       <c r="E8" s="443"/>
       <c r="F8" s="295" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G8" s="295">
         <v>2</v>
@@ -8033,7 +8024,7 @@
       <c r="D9" s="444"/>
       <c r="E9" s="444"/>
       <c r="F9" s="295" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G9" s="295">
         <v>12</v>
@@ -8068,11 +8059,11 @@
       </c>
       <c r="C10" s="295"/>
       <c r="D10" s="295" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E10" s="295"/>
       <c r="F10" s="295" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G10" s="295">
         <v>1</v>
@@ -8107,11 +8098,11 @@
       </c>
       <c r="C11" s="448"/>
       <c r="D11" s="448" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E11" s="448"/>
       <c r="F11" s="295" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G11" s="295">
         <v>12</v>
@@ -8144,7 +8135,7 @@
       <c r="D12" s="443"/>
       <c r="E12" s="443"/>
       <c r="F12" s="295" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G12" s="295">
         <v>12</v>
@@ -8177,7 +8168,7 @@
       <c r="D13" s="444"/>
       <c r="E13" s="444"/>
       <c r="F13" s="295" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G13" s="295">
         <v>12</v>
@@ -8212,11 +8203,11 @@
       </c>
       <c r="C14" s="448"/>
       <c r="D14" s="448" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E14" s="448"/>
       <c r="F14" s="295" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G14" s="295">
         <v>24</v>
@@ -8249,7 +8240,7 @@
       <c r="D15" s="443"/>
       <c r="E15" s="443"/>
       <c r="F15" s="295" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G15" s="295">
         <v>24</v>
@@ -8282,7 +8273,7 @@
       <c r="D16" s="443"/>
       <c r="E16" s="443"/>
       <c r="F16" s="295" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G16" s="295">
         <v>48</v>
@@ -8315,7 +8306,7 @@
       <c r="D17" s="444"/>
       <c r="E17" s="444"/>
       <c r="F17" s="295" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G17" s="295">
         <v>24</v>
@@ -8349,14 +8340,14 @@
         <v>44152</v>
       </c>
       <c r="C18" s="448" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="448" t="s">
         <v>191</v>
-      </c>
-      <c r="D18" s="448" t="s">
-        <v>194</v>
       </c>
       <c r="E18" s="448"/>
       <c r="F18" s="295" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G18" s="295">
         <v>36</v>
@@ -8389,7 +8380,7 @@
       <c r="D19" s="443"/>
       <c r="E19" s="443"/>
       <c r="F19" s="295" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G19" s="295">
         <v>24</v>
@@ -8422,7 +8413,7 @@
       <c r="D20" s="444"/>
       <c r="E20" s="444"/>
       <c r="F20" s="295" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G20" s="295">
         <v>20</v>
@@ -8457,11 +8448,11 @@
       </c>
       <c r="C21" s="324"/>
       <c r="D21" s="324" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E21" s="324"/>
       <c r="F21" s="295" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G21" s="295">
         <v>24</v>
@@ -8495,14 +8486,14 @@
         <v>44153</v>
       </c>
       <c r="C22" s="448" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D22" s="448" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E22" s="448"/>
       <c r="F22" s="295" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G22" s="295">
         <v>12</v>
@@ -8535,7 +8526,7 @@
       <c r="D23" s="443"/>
       <c r="E23" s="443"/>
       <c r="F23" s="295" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G23" s="295">
         <v>19</v>
@@ -8568,7 +8559,7 @@
       <c r="D24" s="444"/>
       <c r="E24" s="444"/>
       <c r="F24" s="295" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G24" s="295">
         <v>36</v>
@@ -8603,11 +8594,11 @@
       </c>
       <c r="C25" s="295"/>
       <c r="D25" s="295" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E25" s="295"/>
       <c r="F25" s="295" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G25" s="295">
         <v>24</v>
@@ -8641,14 +8632,14 @@
         <v>44155</v>
       </c>
       <c r="C26" s="295" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D26" s="295" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E26" s="295"/>
       <c r="F26" s="295" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G26" s="295">
         <v>2</v>
@@ -8682,14 +8673,14 @@
         <v>44155</v>
       </c>
       <c r="C27" s="448" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D27" s="448" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E27" s="448"/>
       <c r="F27" s="295" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G27" s="295">
         <v>44</v>
@@ -8722,7 +8713,7 @@
       <c r="D28" s="444"/>
       <c r="E28" s="444"/>
       <c r="F28" s="295" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G28" s="295">
         <v>36</v>
@@ -8756,14 +8747,14 @@
         <v>44160</v>
       </c>
       <c r="C29" s="448" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D29" s="448" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E29" s="448"/>
       <c r="F29" s="295" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G29" s="295">
         <v>2</v>
@@ -8796,7 +8787,7 @@
       <c r="D30" s="444"/>
       <c r="E30" s="444"/>
       <c r="F30" s="295" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G30" s="295">
         <v>5</v>
@@ -8831,11 +8822,11 @@
       </c>
       <c r="C31" s="448"/>
       <c r="D31" s="448" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E31" s="448"/>
       <c r="F31" s="295" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G31" s="295">
         <v>46</v>
@@ -8868,7 +8859,7 @@
       <c r="D32" s="443"/>
       <c r="E32" s="443"/>
       <c r="F32" s="295" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G32" s="295">
         <v>17</v>
@@ -8901,7 +8892,7 @@
       <c r="D33" s="443"/>
       <c r="E33" s="443"/>
       <c r="F33" s="295" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G33" s="295">
         <v>43</v>
@@ -8934,7 +8925,7 @@
       <c r="D34" s="451"/>
       <c r="E34" s="451"/>
       <c r="F34" s="301" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G34" s="301">
         <v>12</v>
@@ -9115,8 +9106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9144,7 +9135,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>97</v>
+        <v>295</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -9177,7 +9168,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="453" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="B5" s="453"/>
       <c r="C5" s="453"/>
@@ -9546,8 +9537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9579,7 +9570,7 @@
     </row>
     <row r="2" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="253" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="B2" s="253"/>
       <c r="C2" s="253"/>
@@ -9591,7 +9582,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="458" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B4" s="458"/>
       <c r="C4" s="458"/>
@@ -9602,7 +9593,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="467" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="468"/>
       <c r="C6" s="468"/>
@@ -9615,20 +9606,20 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="463" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="464"/>
       <c r="C7" s="323"/>
       <c r="D7" s="260"/>
       <c r="E7" s="329" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" s="461">
         <v>4744538</v>
       </c>
       <c r="G7" s="461"/>
       <c r="H7" s="477" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -9637,7 +9628,7 @@
       <c r="C8" s="323"/>
       <c r="D8" s="260"/>
       <c r="E8" s="330" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F8" s="462">
         <v>6713000</v>
@@ -9647,13 +9638,13 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="463" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B9" s="464"/>
       <c r="C9" s="327"/>
       <c r="D9" s="328"/>
       <c r="E9" s="331" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F9" s="461">
         <v>3625000</v>
@@ -9667,7 +9658,7 @@
       <c r="C10" s="326"/>
       <c r="D10" s="326"/>
       <c r="E10" s="332" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F10" s="462">
         <v>6576923</v>
@@ -9677,7 +9668,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="467" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B11" s="468"/>
       <c r="C11" s="468"/>
@@ -9706,7 +9697,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="268" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" s="261"/>
       <c r="C14" s="261"/>
@@ -9721,7 +9712,7 @@
       <c r="C15" s="262"/>
       <c r="D15" s="262"/>
       <c r="E15" s="262" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F15" s="263">
         <v>455000</v>
@@ -9735,7 +9726,7 @@
       <c r="C16" s="262"/>
       <c r="D16" s="262"/>
       <c r="E16" s="262" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F16" s="263">
         <v>2000000</v>
@@ -9750,7 +9741,7 @@
       <c r="C17" s="262"/>
       <c r="D17" s="262"/>
       <c r="E17" s="262" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F17" s="263">
         <v>2000000</v>
@@ -9764,7 +9755,7 @@
       <c r="C18" s="262"/>
       <c r="D18" s="262"/>
       <c r="E18" s="262" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F18" s="263">
         <v>2200000</v>
@@ -9779,7 +9770,7 @@
       <c r="C19" s="262"/>
       <c r="D19" s="262"/>
       <c r="E19" s="262" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F19" s="263">
         <v>418900</v>
@@ -9794,7 +9785,7 @@
       <c r="C20" s="262"/>
       <c r="D20" s="262"/>
       <c r="E20" s="275" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F20" s="263">
         <v>485000</v>
@@ -9808,7 +9799,7 @@
       <c r="C21" s="262"/>
       <c r="D21" s="262"/>
       <c r="E21" s="275" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F21" s="263">
         <v>1000000</v>
@@ -9822,7 +9813,7 @@
       <c r="C22" s="262"/>
       <c r="D22" s="262"/>
       <c r="E22" s="275" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F22" s="263">
         <v>3000000</v>
@@ -9850,7 +9841,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="271" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" s="272"/>
       <c r="C25" s="273"/>
@@ -10468,14 +10459,14 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="215" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="215"/>
       <c r="C2" s="216"/>
       <c r="D2" s="216"/>
       <c r="E2" s="216"/>
       <c r="Z2" s="497" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA2" s="498"/>
       <c r="AB2" s="498"/>
@@ -10483,20 +10474,20 @@
       <c r="AD2" s="498"/>
       <c r="AE2" s="499"/>
       <c r="AF2" s="500" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG2" s="501"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="215" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
       <c r="Z3" s="497" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA3" s="498"/>
       <c r="AB3" s="498"/>
@@ -10504,13 +10495,13 @@
       <c r="AD3" s="498"/>
       <c r="AE3" s="499"/>
       <c r="AF3" s="500" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="501"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="215" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -10520,7 +10511,7 @@
         <v>45</v>
       </c>
       <c r="Z4" s="497" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA4" s="498"/>
       <c r="AB4" s="498"/>
@@ -10528,20 +10519,20 @@
       <c r="AD4" s="498"/>
       <c r="AE4" s="499"/>
       <c r="AF4" s="500" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AG4" s="501"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="215" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
       <c r="Z5" s="484" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AA5" s="484"/>
       <c r="AB5" s="484"/>
@@ -10549,7 +10540,7 @@
       <c r="AD5" s="484"/>
       <c r="AE5" s="484"/>
       <c r="AF5" s="485" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG5" s="485"/>
     </row>
@@ -10560,7 +10551,7 @@
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
       <c r="Z6" s="497" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AA6" s="498"/>
       <c r="AB6" s="498"/>
@@ -10568,7 +10559,7 @@
       <c r="AD6" s="498"/>
       <c r="AE6" s="499"/>
       <c r="AF6" s="500" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AG6" s="501"/>
     </row>
@@ -10581,7 +10572,7 @@
     </row>
     <row r="8" spans="1:39" s="220" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="486" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B8" s="486"/>
       <c r="C8" s="486"/>
@@ -10624,16 +10615,16 @@
     </row>
     <row r="10" spans="1:39" s="225" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="487" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="487" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="487" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="487" t="s">
+      <c r="D10" s="490" t="s">
         <v>114</v>
-      </c>
-      <c r="C10" s="487" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="490" t="s">
-        <v>116</v>
       </c>
       <c r="E10" s="491"/>
       <c r="F10" s="491"/>
@@ -10665,7 +10656,7 @@
       <c r="AF10" s="491"/>
       <c r="AG10" s="491"/>
       <c r="AH10" s="492" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AI10" s="221"/>
       <c r="AJ10" s="222"/>
@@ -10779,94 +10770,94 @@
       <c r="B12" s="489"/>
       <c r="C12" s="489"/>
       <c r="D12" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="228" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="228" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="228" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="228" t="s">
-        <v>124</v>
-      </c>
       <c r="G12" s="226" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="228" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="228" t="s">
+      <c r="J12" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="226" t="s">
+      <c r="K12" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="228" t="s">
+      <c r="L12" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="229" t="s">
+      <c r="M12" s="228" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="228" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="228" t="s">
-        <v>124</v>
-      </c>
       <c r="N12" s="226" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="228" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="O12" s="228" t="s">
+      <c r="Q12" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="P12" s="226" t="s">
+      <c r="R12" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="Q12" s="228" t="s">
+      <c r="S12" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="229" t="s">
+      <c r="T12" s="226" t="s">
         <v>122</v>
       </c>
-      <c r="S12" s="228" t="s">
-        <v>123</v>
-      </c>
-      <c r="T12" s="226" t="s">
-        <v>124</v>
-      </c>
       <c r="U12" s="228" t="s">
+        <v>116</v>
+      </c>
+      <c r="V12" s="228" t="s">
+        <v>117</v>
+      </c>
+      <c r="W12" s="228" t="s">
         <v>118</v>
       </c>
-      <c r="V12" s="228" t="s">
+      <c r="X12" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="W12" s="228" t="s">
+      <c r="Y12" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="X12" s="228" t="s">
+      <c r="Z12" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="Y12" s="229" t="s">
+      <c r="AA12" s="226" t="s">
         <v>122</v>
       </c>
-      <c r="Z12" s="228" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA12" s="226" t="s">
-        <v>124</v>
-      </c>
       <c r="AB12" s="228" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC12" s="228" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD12" s="228" t="s">
         <v>118</v>
       </c>
-      <c r="AC12" s="228" t="s">
+      <c r="AE12" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="AD12" s="228" t="s">
+      <c r="AF12" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="AE12" s="228" t="s">
+      <c r="AG12" s="228" t="s">
         <v>121</v>
-      </c>
-      <c r="AF12" s="229" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG12" s="228" t="s">
-        <v>123</v>
       </c>
       <c r="AH12" s="492"/>
       <c r="AI12" s="230"/>
@@ -10884,85 +10875,85 @@
       </c>
       <c r="D13" s="234"/>
       <c r="E13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K13" s="234" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R13" s="234"/>
       <c r="S13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="W13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Y13" s="234"/>
       <c r="Z13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AA13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AC13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AD13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF13" s="234"/>
       <c r="AG13" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AH13" s="235">
         <f>COUNTIF(D13:AG13,"x")+ COUNTIF(D13:AG13,"x/2")/2+COUNTIF(D13:AG13,"CT")+COUNTIF(D13:AG13,"TT")+COUNTIF(D13:AG13,"P")</f>
@@ -10983,87 +10974,87 @@
       </c>
       <c r="D14" s="234"/>
       <c r="E14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K14" s="234" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O14" s="228" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R14" s="234" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="W14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X14" s="228" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y14" s="234"/>
       <c r="Z14" s="228" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AA14" s="228" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AB14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AC14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AD14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF14" s="234"/>
       <c r="AG14" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AH14" s="235">
         <f>COUNTIF(D14:AG14,"x")+ COUNTIF(D14:AG14,"x/2")/2+COUNTIF(D14:AG14,"CT")+COUNTIF(D14:AG14,"TT")+COUNTIF(D14:AG14,"P")</f>
@@ -11084,85 +11075,85 @@
       </c>
       <c r="D15" s="234"/>
       <c r="E15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K15" s="234" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R15" s="234"/>
       <c r="S15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="W15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Y15" s="234"/>
       <c r="Z15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AA15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AC15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AD15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF15" s="234"/>
       <c r="AG15" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AH15" s="235">
         <f>COUNTIF(D15:AG15,"x")+ COUNTIF(D15:AG15,"x/2")/2+COUNTIF(D15:AG15,"CT")+COUNTIF(D15:AG15,"TT")+COUNTIF(D15:AG15,"P")</f>
@@ -11176,94 +11167,94 @@
         <v>4</v>
       </c>
       <c r="B16" s="233" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="237" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16" s="234" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K16" s="234" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R16" s="234" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="W16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Y16" s="234"/>
       <c r="Z16" s="228"/>
       <c r="AA16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AC16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AD16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF16" s="234"/>
       <c r="AG16" s="228" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AH16" s="235">
         <f>COUNTIF(D16:AG16,"x")+ COUNTIF(D16:AG16,"x/2")/2+COUNTIF(D16:AG16,"CT")+COUNTIF(D16:AG16,"TT")+COUNTIF(D16:AG16,"P")</f>
@@ -11274,7 +11265,7 @@
     </row>
     <row r="17" spans="1:39" s="231" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="493" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B17" s="494"/>
       <c r="C17" s="238"/>
@@ -11563,7 +11554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -12421,7 +12412,7 @@
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="515" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B2" s="515"/>
       <c r="C2" s="515"/>
@@ -12464,7 +12455,7 @@
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="518" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B5" s="518"/>
       <c r="C5" s="518"/>
@@ -12505,13 +12496,13 @@
         <v>62</v>
       </c>
       <c r="G7" s="146" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H7" s="146" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I7" s="146" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J7" s="146" t="s">
         <v>63</v>
@@ -12713,10 +12704,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="56">
         <v>3500000</v>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="3"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -2515,6 +2515,66 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2533,12 +2593,48 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2548,101 +2644,29 @@
     <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2677,31 +2701,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="22" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2719,6 +2719,72 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2731,70 +2797,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2838,30 +2862,6 @@
     </xf>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4712,9 +4712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4738,13 +4738,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="397" t="s">
+      <c r="A1" s="429" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
       <c r="H1" s="124"/>
       <c r="I1" s="124"/>
       <c r="J1" s="124"/>
@@ -4774,153 +4774,153 @@
       <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="398" t="s">
+      <c r="A3" s="430" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="398"/>
-      <c r="C3" s="398"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
-      <c r="G3" s="398"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="398"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
-      <c r="N3" s="398"/>
-      <c r="O3" s="398"/>
-      <c r="P3" s="398"/>
+      <c r="B3" s="430"/>
+      <c r="C3" s="430"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="430"/>
+      <c r="F3" s="430"/>
+      <c r="G3" s="430"/>
+      <c r="H3" s="430"/>
+      <c r="I3" s="430"/>
+      <c r="J3" s="430"/>
+      <c r="K3" s="430"/>
+      <c r="L3" s="430"/>
+      <c r="M3" s="430"/>
+      <c r="N3" s="430"/>
+      <c r="O3" s="430"/>
+      <c r="P3" s="430"/>
     </row>
     <row r="4" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="398" t="s">
+      <c r="A4" s="430" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="398"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
-      <c r="F4" s="398"/>
-      <c r="G4" s="398"/>
-      <c r="H4" s="398"/>
-      <c r="I4" s="398"/>
-      <c r="J4" s="398"/>
-      <c r="K4" s="398"/>
-      <c r="L4" s="398"/>
-      <c r="M4" s="398"/>
-      <c r="N4" s="398"/>
-      <c r="O4" s="398"/>
-      <c r="P4" s="398"/>
+      <c r="B4" s="430"/>
+      <c r="C4" s="430"/>
+      <c r="D4" s="430"/>
+      <c r="E4" s="430"/>
+      <c r="F4" s="430"/>
+      <c r="G4" s="430"/>
+      <c r="H4" s="430"/>
+      <c r="I4" s="430"/>
+      <c r="J4" s="430"/>
+      <c r="K4" s="430"/>
+      <c r="L4" s="430"/>
+      <c r="M4" s="430"/>
+      <c r="N4" s="430"/>
+      <c r="O4" s="430"/>
+      <c r="P4" s="430"/>
     </row>
     <row r="5" spans="1:16" s="123" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="408" t="s">
+      <c r="A5" s="423" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="409" t="s">
+      <c r="B5" s="424" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="408" t="s">
+      <c r="C5" s="423" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="408" t="s">
+      <c r="D5" s="423" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="408"/>
-      <c r="F5" s="400" t="s">
+      <c r="E5" s="423"/>
+      <c r="F5" s="425" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="400"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="400"/>
-      <c r="J5" s="400"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="400"/>
-      <c r="M5" s="399" t="s">
+      <c r="G5" s="425"/>
+      <c r="H5" s="425"/>
+      <c r="I5" s="425"/>
+      <c r="J5" s="425"/>
+      <c r="K5" s="425"/>
+      <c r="L5" s="425"/>
+      <c r="M5" s="431" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="399"/>
-      <c r="O5" s="399"/>
-      <c r="P5" s="400" t="s">
+      <c r="N5" s="431"/>
+      <c r="O5" s="431"/>
+      <c r="P5" s="425" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="123" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="408"/>
-      <c r="B6" s="409"/>
-      <c r="C6" s="408"/>
-      <c r="D6" s="408" t="s">
+      <c r="A6" s="423"/>
+      <c r="B6" s="424"/>
+      <c r="C6" s="423"/>
+      <c r="D6" s="423" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="408" t="s">
+      <c r="E6" s="423" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="408" t="s">
+      <c r="F6" s="423" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="408" t="s">
+      <c r="G6" s="423" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="401" t="s">
+      <c r="H6" s="426" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="401" t="s">
+      <c r="I6" s="426" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="410" t="s">
+      <c r="J6" s="427" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="410"/>
-      <c r="L6" s="401" t="s">
+      <c r="K6" s="427"/>
+      <c r="L6" s="426" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="401" t="s">
+      <c r="M6" s="426" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="401" t="s">
+      <c r="N6" s="426" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="401" t="s">
+      <c r="O6" s="426" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="400"/>
+      <c r="P6" s="425"/>
     </row>
     <row r="7" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="408"/>
-      <c r="B7" s="409"/>
-      <c r="C7" s="408"/>
-      <c r="D7" s="408"/>
-      <c r="E7" s="408"/>
-      <c r="F7" s="408"/>
-      <c r="G7" s="408"/>
-      <c r="H7" s="401"/>
-      <c r="I7" s="401"/>
+      <c r="A7" s="423"/>
+      <c r="B7" s="424"/>
+      <c r="C7" s="423"/>
+      <c r="D7" s="423"/>
+      <c r="E7" s="423"/>
+      <c r="F7" s="423"/>
+      <c r="G7" s="423"/>
+      <c r="H7" s="426"/>
+      <c r="I7" s="426"/>
       <c r="J7" s="206" t="s">
         <v>83</v>
       </c>
       <c r="K7" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="401"/>
-      <c r="M7" s="401"/>
-      <c r="N7" s="401"/>
-      <c r="O7" s="401"/>
-      <c r="P7" s="400"/>
+      <c r="L7" s="426"/>
+      <c r="M7" s="426"/>
+      <c r="N7" s="426"/>
+      <c r="O7" s="426"/>
+      <c r="P7" s="425"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="392">
+      <c r="A8" s="412">
         <v>1219</v>
       </c>
-      <c r="B8" s="389">
+      <c r="B8" s="409">
         <v>44138</v>
       </c>
-      <c r="C8" s="392" t="s">
+      <c r="C8" s="412" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="392" t="s">
+      <c r="D8" s="412" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="392" t="s">
+      <c r="E8" s="412" t="s">
         <v>157</v>
       </c>
       <c r="F8" s="162" t="s">
@@ -4953,11 +4953,11 @@
       <c r="P8" s="162"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="393"/>
-      <c r="B9" s="390"/>
-      <c r="C9" s="393"/>
-      <c r="D9" s="393"/>
-      <c r="E9" s="393"/>
+      <c r="A9" s="413"/>
+      <c r="B9" s="410"/>
+      <c r="C9" s="413"/>
+      <c r="D9" s="413"/>
+      <c r="E9" s="413"/>
       <c r="F9" s="174" t="s">
         <v>159</v>
       </c>
@@ -4988,11 +4988,11 @@
       <c r="P9" s="174"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="393"/>
-      <c r="B10" s="390"/>
-      <c r="C10" s="393"/>
-      <c r="D10" s="393"/>
-      <c r="E10" s="393"/>
+      <c r="A10" s="413"/>
+      <c r="B10" s="410"/>
+      <c r="C10" s="413"/>
+      <c r="D10" s="413"/>
+      <c r="E10" s="413"/>
       <c r="F10" s="174" t="s">
         <v>160</v>
       </c>
@@ -5023,11 +5023,11 @@
       <c r="P10" s="174"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="393"/>
-      <c r="B11" s="390"/>
-      <c r="C11" s="393"/>
-      <c r="D11" s="393"/>
-      <c r="E11" s="393"/>
+      <c r="A11" s="413"/>
+      <c r="B11" s="410"/>
+      <c r="C11" s="413"/>
+      <c r="D11" s="413"/>
+      <c r="E11" s="413"/>
       <c r="F11" s="174" t="s">
         <v>161</v>
       </c>
@@ -5058,11 +5058,11 @@
       <c r="P11" s="174"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="394"/>
-      <c r="B12" s="391"/>
-      <c r="C12" s="394"/>
-      <c r="D12" s="394"/>
-      <c r="E12" s="394"/>
+      <c r="A12" s="414"/>
+      <c r="B12" s="411"/>
+      <c r="C12" s="414"/>
+      <c r="D12" s="414"/>
+      <c r="E12" s="414"/>
       <c r="F12" s="165" t="s">
         <v>162</v>
       </c>
@@ -5093,19 +5093,19 @@
       <c r="P12" s="168"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="402">
+      <c r="A13" s="415">
         <v>1216</v>
       </c>
-      <c r="B13" s="404">
+      <c r="B13" s="417">
         <v>44137</v>
       </c>
-      <c r="C13" s="402" t="s">
+      <c r="C13" s="415" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="402" t="s">
+      <c r="D13" s="415" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="402" t="s">
+      <c r="E13" s="415" t="s">
         <v>164</v>
       </c>
       <c r="F13" s="207" t="s">
@@ -5138,11 +5138,11 @@
       <c r="P13" s="337"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="403"/>
+      <c r="A14" s="390"/>
       <c r="B14" s="405"/>
-      <c r="C14" s="403"/>
-      <c r="D14" s="403"/>
-      <c r="E14" s="403"/>
+      <c r="C14" s="390"/>
+      <c r="D14" s="390"/>
+      <c r="E14" s="390"/>
       <c r="F14" s="339" t="s">
         <v>165</v>
       </c>
@@ -5216,17 +5216,17 @@
       <c r="P15" s="169"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="403">
+      <c r="A16" s="390">
         <v>1221</v>
       </c>
       <c r="B16" s="405">
         <v>44139</v>
       </c>
-      <c r="C16" s="403"/>
-      <c r="D16" s="403" t="s">
+      <c r="C16" s="390"/>
+      <c r="D16" s="390" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="403" t="s">
+      <c r="E16" s="390" t="s">
         <v>173</v>
       </c>
       <c r="F16" s="207" t="s">
@@ -5261,11 +5261,11 @@
       <c r="P16" s="207"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="403"/>
+      <c r="A17" s="390"/>
       <c r="B17" s="405"/>
-      <c r="C17" s="403"/>
-      <c r="D17" s="403"/>
-      <c r="E17" s="403"/>
+      <c r="C17" s="390"/>
+      <c r="D17" s="390"/>
+      <c r="E17" s="390"/>
       <c r="F17" s="174" t="s">
         <v>174</v>
       </c>
@@ -5384,19 +5384,19 @@
       <c r="P19" s="156"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="402">
+      <c r="A20" s="415">
         <v>1225</v>
       </c>
-      <c r="B20" s="404">
+      <c r="B20" s="417">
         <v>44143</v>
       </c>
-      <c r="C20" s="402" t="s">
+      <c r="C20" s="415" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="402" t="s">
+      <c r="D20" s="415" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="402" t="s">
+      <c r="E20" s="415" t="s">
         <v>185</v>
       </c>
       <c r="F20" s="207" t="s">
@@ -5429,11 +5429,11 @@
       <c r="P20" s="207"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="403"/>
+      <c r="A21" s="390"/>
       <c r="B21" s="405"/>
-      <c r="C21" s="403"/>
-      <c r="D21" s="403"/>
-      <c r="E21" s="403"/>
+      <c r="C21" s="390"/>
+      <c r="D21" s="390"/>
+      <c r="E21" s="390"/>
       <c r="F21" s="170" t="s">
         <v>186</v>
       </c>
@@ -5464,11 +5464,11 @@
       <c r="P21" s="170"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="403"/>
+      <c r="A22" s="390"/>
       <c r="B22" s="405"/>
-      <c r="C22" s="403"/>
-      <c r="D22" s="403"/>
-      <c r="E22" s="403"/>
+      <c r="C22" s="390"/>
+      <c r="D22" s="390"/>
+      <c r="E22" s="390"/>
       <c r="F22" s="345" t="s">
         <v>165</v>
       </c>
@@ -5587,19 +5587,19 @@
       <c r="P24" s="350"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="402">
+      <c r="A25" s="415">
         <v>1228</v>
       </c>
-      <c r="B25" s="404">
+      <c r="B25" s="417">
         <v>44145</v>
       </c>
-      <c r="C25" s="402" t="s">
+      <c r="C25" s="415" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="412" t="s">
+      <c r="D25" s="418" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="402" t="s">
+      <c r="E25" s="415" t="s">
         <v>192</v>
       </c>
       <c r="F25" s="336" t="s">
@@ -5629,16 +5629,16 @@
         <f t="shared" si="4"/>
         <v>33852000</v>
       </c>
-      <c r="P25" s="402" t="s">
+      <c r="P25" s="415" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="403"/>
+      <c r="A26" s="390"/>
       <c r="B26" s="405"/>
-      <c r="C26" s="403"/>
-      <c r="D26" s="413"/>
-      <c r="E26" s="403"/>
+      <c r="C26" s="390"/>
+      <c r="D26" s="402"/>
+      <c r="E26" s="390"/>
       <c r="F26" s="170" t="s">
         <v>174</v>
       </c>
@@ -5666,14 +5666,14 @@
         <f t="shared" si="4"/>
         <v>3459600</v>
       </c>
-      <c r="P26" s="403"/>
+      <c r="P26" s="390"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="403"/>
+      <c r="A27" s="390"/>
       <c r="B27" s="405"/>
-      <c r="C27" s="403"/>
-      <c r="D27" s="413"/>
-      <c r="E27" s="403"/>
+      <c r="C27" s="390"/>
+      <c r="D27" s="402"/>
+      <c r="E27" s="390"/>
       <c r="F27" s="170" t="s">
         <v>193</v>
       </c>
@@ -5701,14 +5701,14 @@
         <f t="shared" si="4"/>
         <v>3534000</v>
       </c>
-      <c r="P27" s="403"/>
+      <c r="P27" s="390"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="403"/>
+      <c r="A28" s="390"/>
       <c r="B28" s="405"/>
-      <c r="C28" s="403"/>
-      <c r="D28" s="413"/>
-      <c r="E28" s="403"/>
+      <c r="C28" s="390"/>
+      <c r="D28" s="402"/>
+      <c r="E28" s="390"/>
       <c r="F28" s="174" t="s">
         <v>161</v>
       </c>
@@ -5736,14 +5736,14 @@
         <f t="shared" si="4"/>
         <v>21650400</v>
       </c>
-      <c r="P28" s="403"/>
+      <c r="P28" s="390"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="403"/>
+      <c r="A29" s="390"/>
       <c r="B29" s="405"/>
-      <c r="C29" s="403"/>
-      <c r="D29" s="413"/>
-      <c r="E29" s="403"/>
+      <c r="C29" s="390"/>
+      <c r="D29" s="402"/>
+      <c r="E29" s="390"/>
       <c r="F29" s="339" t="s">
         <v>168</v>
       </c>
@@ -5771,22 +5771,22 @@
         <f t="shared" si="4"/>
         <v>3385200</v>
       </c>
-      <c r="P29" s="406"/>
+      <c r="P29" s="416"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="402">
+      <c r="A30" s="415">
         <v>1230</v>
       </c>
-      <c r="B30" s="404">
+      <c r="B30" s="417">
         <v>44146</v>
       </c>
-      <c r="C30" s="402" t="s">
+      <c r="C30" s="415" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="402" t="s">
+      <c r="D30" s="415" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="402" t="s">
+      <c r="E30" s="415" t="s">
         <v>192</v>
       </c>
       <c r="F30" s="162" t="s">
@@ -5816,16 +5816,16 @@
         <f t="shared" si="4"/>
         <v>16740000</v>
       </c>
-      <c r="P30" s="402" t="s">
+      <c r="P30" s="415" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="403"/>
+      <c r="A31" s="390"/>
       <c r="B31" s="405"/>
-      <c r="C31" s="403"/>
-      <c r="D31" s="403"/>
-      <c r="E31" s="403"/>
+      <c r="C31" s="390"/>
+      <c r="D31" s="390"/>
+      <c r="E31" s="390"/>
       <c r="F31" s="174" t="s">
         <v>159</v>
       </c>
@@ -5853,14 +5853,14 @@
         <f t="shared" si="4"/>
         <v>6770400</v>
       </c>
-      <c r="P31" s="403"/>
+      <c r="P31" s="390"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="403"/>
+      <c r="A32" s="390"/>
       <c r="B32" s="405"/>
-      <c r="C32" s="403"/>
-      <c r="D32" s="403"/>
-      <c r="E32" s="403"/>
+      <c r="C32" s="390"/>
+      <c r="D32" s="390"/>
+      <c r="E32" s="390"/>
       <c r="F32" s="174" t="s">
         <v>174</v>
       </c>
@@ -5888,14 +5888,14 @@
         <f t="shared" si="4"/>
         <v>6919200</v>
       </c>
-      <c r="P32" s="403"/>
+      <c r="P32" s="390"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="403"/>
+      <c r="A33" s="390"/>
       <c r="B33" s="405"/>
-      <c r="C33" s="403"/>
-      <c r="D33" s="403"/>
-      <c r="E33" s="403"/>
+      <c r="C33" s="390"/>
+      <c r="D33" s="390"/>
+      <c r="E33" s="390"/>
       <c r="F33" s="174" t="s">
         <v>193</v>
       </c>
@@ -5923,14 +5923,14 @@
         <f t="shared" si="4"/>
         <v>7068000</v>
       </c>
-      <c r="P33" s="403"/>
+      <c r="P33" s="390"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="403"/>
+      <c r="A34" s="390"/>
       <c r="B34" s="405"/>
-      <c r="C34" s="403"/>
-      <c r="D34" s="403"/>
-      <c r="E34" s="403"/>
+      <c r="C34" s="390"/>
+      <c r="D34" s="390"/>
+      <c r="E34" s="390"/>
       <c r="F34" s="174" t="s">
         <v>194</v>
       </c>
@@ -5958,14 +5958,14 @@
         <f t="shared" si="4"/>
         <v>3794400</v>
       </c>
-      <c r="P34" s="403"/>
+      <c r="P34" s="390"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="403"/>
+      <c r="A35" s="390"/>
       <c r="B35" s="405"/>
-      <c r="C35" s="403"/>
-      <c r="D35" s="403"/>
-      <c r="E35" s="403"/>
+      <c r="C35" s="390"/>
+      <c r="D35" s="390"/>
+      <c r="E35" s="390"/>
       <c r="F35" s="174" t="s">
         <v>161</v>
       </c>
@@ -5993,14 +5993,14 @@
         <f t="shared" si="4"/>
         <v>14433600</v>
       </c>
-      <c r="P35" s="403"/>
+      <c r="P35" s="390"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="403"/>
+      <c r="A36" s="390"/>
       <c r="B36" s="405"/>
-      <c r="C36" s="403"/>
-      <c r="D36" s="403"/>
-      <c r="E36" s="403"/>
+      <c r="C36" s="390"/>
+      <c r="D36" s="390"/>
+      <c r="E36" s="390"/>
       <c r="F36" s="174" t="s">
         <v>195</v>
       </c>
@@ -6028,14 +6028,14 @@
         <f t="shared" si="4"/>
         <v>32736000</v>
       </c>
-      <c r="P36" s="403"/>
+      <c r="P36" s="390"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="403"/>
+      <c r="A37" s="390"/>
       <c r="B37" s="405"/>
-      <c r="C37" s="403"/>
-      <c r="D37" s="403"/>
-      <c r="E37" s="403"/>
+      <c r="C37" s="390"/>
+      <c r="D37" s="390"/>
+      <c r="E37" s="390"/>
       <c r="F37" s="339" t="s">
         <v>165</v>
       </c>
@@ -6063,20 +6063,20 @@
         <f t="shared" si="4"/>
         <v>16926000</v>
       </c>
-      <c r="P37" s="403"/>
+      <c r="P37" s="390"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="392">
+      <c r="A38" s="412">
         <v>1233</v>
       </c>
-      <c r="B38" s="389">
+      <c r="B38" s="409">
         <v>44150</v>
       </c>
-      <c r="C38" s="392"/>
-      <c r="D38" s="392" t="s">
+      <c r="C38" s="412"/>
+      <c r="D38" s="412" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="392" t="s">
+      <c r="E38" s="412" t="s">
         <v>173</v>
       </c>
       <c r="F38" s="162" t="s">
@@ -6111,11 +6111,11 @@
       <c r="P38" s="162"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="393"/>
-      <c r="B39" s="390"/>
-      <c r="C39" s="393"/>
-      <c r="D39" s="393"/>
-      <c r="E39" s="393"/>
+      <c r="A39" s="413"/>
+      <c r="B39" s="410"/>
+      <c r="C39" s="413"/>
+      <c r="D39" s="413"/>
+      <c r="E39" s="413"/>
       <c r="F39" s="174" t="s">
         <v>159</v>
       </c>
@@ -6146,11 +6146,11 @@
       <c r="P39" s="174"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="393"/>
-      <c r="B40" s="390"/>
-      <c r="C40" s="393"/>
-      <c r="D40" s="393"/>
-      <c r="E40" s="393"/>
+      <c r="A40" s="413"/>
+      <c r="B40" s="410"/>
+      <c r="C40" s="413"/>
+      <c r="D40" s="413"/>
+      <c r="E40" s="413"/>
       <c r="F40" s="174" t="s">
         <v>161</v>
       </c>
@@ -6181,11 +6181,11 @@
       <c r="P40" s="174"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="394"/>
-      <c r="B41" s="391"/>
-      <c r="C41" s="394"/>
-      <c r="D41" s="394"/>
-      <c r="E41" s="394"/>
+      <c r="A41" s="414"/>
+      <c r="B41" s="411"/>
+      <c r="C41" s="414"/>
+      <c r="D41" s="414"/>
+      <c r="E41" s="414"/>
       <c r="F41" s="165" t="s">
         <v>162</v>
       </c>
@@ -6216,19 +6216,19 @@
       <c r="P41" s="356"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="402">
+      <c r="A42" s="415">
         <v>1234</v>
       </c>
-      <c r="B42" s="404">
+      <c r="B42" s="417">
         <v>44150</v>
       </c>
-      <c r="C42" s="402" t="s">
+      <c r="C42" s="415" t="s">
         <v>188</v>
       </c>
-      <c r="D42" s="402" t="s">
+      <c r="D42" s="415" t="s">
         <v>198</v>
       </c>
-      <c r="E42" s="402" t="s">
+      <c r="E42" s="415" t="s">
         <v>199</v>
       </c>
       <c r="F42" s="207" t="s">
@@ -6261,11 +6261,11 @@
       <c r="P42" s="355"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="403"/>
+      <c r="A43" s="390"/>
       <c r="B43" s="405"/>
-      <c r="C43" s="403"/>
-      <c r="D43" s="403"/>
-      <c r="E43" s="403"/>
+      <c r="C43" s="390"/>
+      <c r="D43" s="390"/>
+      <c r="E43" s="390"/>
       <c r="F43" s="339" t="s">
         <v>161</v>
       </c>
@@ -6296,19 +6296,19 @@
       <c r="P43" s="361"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="402">
+      <c r="A44" s="415">
         <v>1235</v>
       </c>
-      <c r="B44" s="404">
+      <c r="B44" s="417">
         <v>44150</v>
       </c>
-      <c r="C44" s="402" t="s">
+      <c r="C44" s="415" t="s">
         <v>188</v>
       </c>
-      <c r="D44" s="412" t="s">
+      <c r="D44" s="418" t="s">
         <v>191</v>
       </c>
-      <c r="E44" s="402" t="s">
+      <c r="E44" s="415" t="s">
         <v>192</v>
       </c>
       <c r="F44" s="162" t="s">
@@ -6341,11 +6341,11 @@
       <c r="P44" s="362"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="403"/>
+      <c r="A45" s="390"/>
       <c r="B45" s="405"/>
-      <c r="C45" s="403"/>
-      <c r="D45" s="413"/>
-      <c r="E45" s="403"/>
+      <c r="C45" s="390"/>
+      <c r="D45" s="402"/>
+      <c r="E45" s="390"/>
       <c r="F45" s="174" t="s">
         <v>162</v>
       </c>
@@ -6376,11 +6376,11 @@
       <c r="P45" s="199"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="406"/>
-      <c r="B46" s="411"/>
-      <c r="C46" s="406"/>
-      <c r="D46" s="414"/>
-      <c r="E46" s="406"/>
+      <c r="A46" s="416"/>
+      <c r="B46" s="419"/>
+      <c r="C46" s="416"/>
+      <c r="D46" s="420"/>
+      <c r="E46" s="416"/>
       <c r="F46" s="165" t="s">
         <v>168</v>
       </c>
@@ -6503,17 +6503,17 @@
       <c r="P48" s="156"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="403">
+      <c r="A49" s="390">
         <v>1238</v>
       </c>
       <c r="B49" s="405">
         <v>44153</v>
       </c>
-      <c r="C49" s="403"/>
-      <c r="D49" s="403" t="s">
+      <c r="C49" s="390"/>
+      <c r="D49" s="390" t="s">
         <v>203</v>
       </c>
-      <c r="E49" s="403"/>
+      <c r="E49" s="390"/>
       <c r="F49" s="207" t="s">
         <v>159</v>
       </c>
@@ -6544,11 +6544,11 @@
       <c r="P49" s="355"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="403"/>
+      <c r="A50" s="390"/>
       <c r="B50" s="405"/>
-      <c r="C50" s="403"/>
-      <c r="D50" s="403"/>
-      <c r="E50" s="403"/>
+      <c r="C50" s="390"/>
+      <c r="D50" s="390"/>
+      <c r="E50" s="390"/>
       <c r="F50" s="339" t="s">
         <v>161</v>
       </c>
@@ -6579,17 +6579,17 @@
       <c r="P50" s="361"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="392">
+      <c r="A51" s="412">
         <v>1239</v>
       </c>
-      <c r="B51" s="389">
+      <c r="B51" s="409">
         <v>44153</v>
       </c>
-      <c r="C51" s="392"/>
-      <c r="D51" s="392" t="s">
+      <c r="C51" s="412"/>
+      <c r="D51" s="412" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="392"/>
+      <c r="E51" s="412"/>
       <c r="F51" s="162" t="s">
         <v>193</v>
       </c>
@@ -6620,11 +6620,11 @@
       <c r="P51" s="362"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="393"/>
-      <c r="B52" s="390"/>
-      <c r="C52" s="393"/>
-      <c r="D52" s="393"/>
-      <c r="E52" s="393"/>
+      <c r="A52" s="413"/>
+      <c r="B52" s="410"/>
+      <c r="C52" s="413"/>
+      <c r="D52" s="413"/>
+      <c r="E52" s="413"/>
       <c r="F52" s="174" t="s">
         <v>161</v>
       </c>
@@ -6655,11 +6655,11 @@
       <c r="P52" s="199"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="393"/>
-      <c r="B53" s="390"/>
-      <c r="C53" s="393"/>
-      <c r="D53" s="393"/>
-      <c r="E53" s="393"/>
+      <c r="A53" s="413"/>
+      <c r="B53" s="410"/>
+      <c r="C53" s="413"/>
+      <c r="D53" s="413"/>
+      <c r="E53" s="413"/>
       <c r="F53" s="174" t="s">
         <v>195</v>
       </c>
@@ -6690,11 +6690,11 @@
       <c r="P53" s="174"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="394"/>
-      <c r="B54" s="391"/>
-      <c r="C54" s="394"/>
-      <c r="D54" s="394"/>
-      <c r="E54" s="394"/>
+      <c r="A54" s="414"/>
+      <c r="B54" s="411"/>
+      <c r="C54" s="414"/>
+      <c r="D54" s="414"/>
+      <c r="E54" s="414"/>
       <c r="F54" s="165" t="s">
         <v>165</v>
       </c>
@@ -6725,19 +6725,19 @@
       <c r="P54" s="165"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="392">
+      <c r="A55" s="412">
         <v>1242</v>
       </c>
-      <c r="B55" s="389">
+      <c r="B55" s="409">
         <v>44154</v>
       </c>
-      <c r="C55" s="392" t="s">
+      <c r="C55" s="412" t="s">
         <v>205</v>
       </c>
-      <c r="D55" s="392" t="s">
+      <c r="D55" s="412" t="s">
         <v>206</v>
       </c>
-      <c r="E55" s="392"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="162" t="s">
         <v>161</v>
       </c>
@@ -6768,11 +6768,11 @@
       <c r="P55" s="162"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="393"/>
-      <c r="B56" s="390"/>
-      <c r="C56" s="393"/>
-      <c r="D56" s="393"/>
-      <c r="E56" s="393"/>
+      <c r="A56" s="413"/>
+      <c r="B56" s="410"/>
+      <c r="C56" s="413"/>
+      <c r="D56" s="413"/>
+      <c r="E56" s="413"/>
       <c r="F56" s="174" t="s">
         <v>165</v>
       </c>
@@ -6803,11 +6803,11 @@
       <c r="P56" s="174"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="394"/>
-      <c r="B57" s="391"/>
-      <c r="C57" s="394"/>
-      <c r="D57" s="394"/>
-      <c r="E57" s="394"/>
+      <c r="A57" s="414"/>
+      <c r="B57" s="411"/>
+      <c r="C57" s="414"/>
+      <c r="D57" s="414"/>
+      <c r="E57" s="414"/>
       <c r="F57" s="165" t="s">
         <v>168</v>
       </c>
@@ -6920,19 +6920,19 @@
       <c r="P59" s="174"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="415">
+      <c r="A60" s="389">
         <v>1247</v>
       </c>
-      <c r="B60" s="417">
+      <c r="B60" s="404">
         <v>44155</v>
       </c>
-      <c r="C60" s="415" t="s">
+      <c r="C60" s="389" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="415" t="s">
+      <c r="D60" s="389" t="s">
         <v>210</v>
       </c>
-      <c r="E60" s="415"/>
+      <c r="E60" s="389"/>
       <c r="F60" s="174" t="s">
         <v>208</v>
       </c>
@@ -6963,11 +6963,11 @@
       <c r="P60" s="174"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="416"/>
-      <c r="B61" s="418"/>
-      <c r="C61" s="416"/>
-      <c r="D61" s="416"/>
-      <c r="E61" s="416"/>
+      <c r="A61" s="391"/>
+      <c r="B61" s="406"/>
+      <c r="C61" s="391"/>
+      <c r="D61" s="391"/>
+      <c r="E61" s="391"/>
       <c r="F61" s="174" t="s">
         <v>162</v>
       </c>
@@ -6998,19 +6998,19 @@
       <c r="P61" s="174"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="415">
+      <c r="A62" s="389">
         <v>1249</v>
       </c>
-      <c r="B62" s="417">
+      <c r="B62" s="404">
         <v>44155</v>
       </c>
-      <c r="C62" s="415" t="s">
+      <c r="C62" s="389" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="415" t="s">
+      <c r="D62" s="389" t="s">
         <v>188</v>
       </c>
-      <c r="E62" s="415"/>
+      <c r="E62" s="389"/>
       <c r="F62" s="174" t="s">
         <v>160</v>
       </c>
@@ -7041,11 +7041,11 @@
       <c r="P62" s="174"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="416"/>
-      <c r="B63" s="418"/>
-      <c r="C63" s="416"/>
-      <c r="D63" s="416"/>
-      <c r="E63" s="416"/>
+      <c r="A63" s="391"/>
+      <c r="B63" s="406"/>
+      <c r="C63" s="391"/>
+      <c r="D63" s="391"/>
+      <c r="E63" s="391"/>
       <c r="F63" s="174" t="s">
         <v>174</v>
       </c>
@@ -7164,19 +7164,19 @@
       <c r="P65" s="174"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="415">
+      <c r="A66" s="389">
         <v>1255</v>
       </c>
-      <c r="B66" s="417">
+      <c r="B66" s="404">
         <v>44160</v>
       </c>
-      <c r="C66" s="415" t="s">
+      <c r="C66" s="389" t="s">
         <v>155</v>
       </c>
-      <c r="D66" s="415" t="s">
+      <c r="D66" s="389" t="s">
         <v>216</v>
       </c>
-      <c r="E66" s="415" t="s">
+      <c r="E66" s="389" t="s">
         <v>217</v>
       </c>
       <c r="F66" s="174" t="s">
@@ -7206,16 +7206,16 @@
       </c>
       <c r="N66" s="175"/>
       <c r="O66" s="175"/>
-      <c r="P66" s="419" t="s">
+      <c r="P66" s="407" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="416"/>
-      <c r="B67" s="418"/>
-      <c r="C67" s="416"/>
-      <c r="D67" s="416"/>
-      <c r="E67" s="416"/>
+      <c r="A67" s="391"/>
+      <c r="B67" s="406"/>
+      <c r="C67" s="391"/>
+      <c r="D67" s="391"/>
+      <c r="E67" s="391"/>
       <c r="F67" s="174" t="s">
         <v>159</v>
       </c>
@@ -7243,20 +7243,20 @@
       </c>
       <c r="N67" s="175"/>
       <c r="O67" s="175"/>
-      <c r="P67" s="420"/>
+      <c r="P67" s="408"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="415">
+      <c r="A68" s="389">
         <v>1266</v>
       </c>
-      <c r="B68" s="417">
+      <c r="B68" s="404">
         <v>44165</v>
       </c>
-      <c r="C68" s="415"/>
-      <c r="D68" s="430" t="s">
+      <c r="C68" s="389"/>
+      <c r="D68" s="401" t="s">
         <v>262</v>
       </c>
-      <c r="E68" s="415"/>
+      <c r="E68" s="389"/>
       <c r="F68" s="174" t="s">
         <v>158</v>
       </c>
@@ -7270,15 +7270,15 @@
         <f t="shared" si="0"/>
         <v>675000</v>
       </c>
-      <c r="J68" s="421">
+      <c r="J68" s="392">
         <v>1619000</v>
       </c>
-      <c r="K68" s="424"/>
-      <c r="L68" s="427">
+      <c r="K68" s="395"/>
+      <c r="L68" s="398">
         <f>SUM(I68:I74)-J68</f>
         <v>8546000</v>
       </c>
-      <c r="M68" s="427">
+      <c r="M68" s="398">
         <f>L68</f>
         <v>8546000</v>
       </c>
@@ -7287,11 +7287,11 @@
       <c r="P68" s="174"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="403"/>
+      <c r="A69" s="390"/>
       <c r="B69" s="405"/>
-      <c r="C69" s="403"/>
-      <c r="D69" s="413"/>
-      <c r="E69" s="403"/>
+      <c r="C69" s="390"/>
+      <c r="D69" s="402"/>
+      <c r="E69" s="390"/>
       <c r="F69" s="174" t="s">
         <v>159</v>
       </c>
@@ -7305,20 +7305,20 @@
         <f t="shared" si="0"/>
         <v>2275000</v>
       </c>
-      <c r="J69" s="422"/>
-      <c r="K69" s="425"/>
-      <c r="L69" s="428"/>
-      <c r="M69" s="428"/>
+      <c r="J69" s="393"/>
+      <c r="K69" s="396"/>
+      <c r="L69" s="399"/>
+      <c r="M69" s="399"/>
       <c r="N69" s="175"/>
       <c r="O69" s="175"/>
       <c r="P69" s="174"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="403"/>
+      <c r="A70" s="390"/>
       <c r="B70" s="405"/>
-      <c r="C70" s="403"/>
-      <c r="D70" s="413"/>
-      <c r="E70" s="403"/>
+      <c r="C70" s="390"/>
+      <c r="D70" s="402"/>
+      <c r="E70" s="390"/>
       <c r="F70" s="174" t="s">
         <v>174</v>
       </c>
@@ -7332,20 +7332,20 @@
         <f t="shared" si="0"/>
         <v>1860000</v>
       </c>
-      <c r="J70" s="422"/>
-      <c r="K70" s="425"/>
-      <c r="L70" s="428"/>
-      <c r="M70" s="428"/>
+      <c r="J70" s="393"/>
+      <c r="K70" s="396"/>
+      <c r="L70" s="399"/>
+      <c r="M70" s="399"/>
       <c r="N70" s="175"/>
       <c r="O70" s="175"/>
       <c r="P70" s="174"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="403"/>
+      <c r="A71" s="390"/>
       <c r="B71" s="405"/>
-      <c r="C71" s="403"/>
-      <c r="D71" s="413"/>
-      <c r="E71" s="403"/>
+      <c r="C71" s="390"/>
+      <c r="D71" s="402"/>
+      <c r="E71" s="390"/>
       <c r="F71" s="174" t="s">
         <v>194</v>
       </c>
@@ -7359,20 +7359,20 @@
         <f t="shared" si="0"/>
         <v>1275000</v>
       </c>
-      <c r="J71" s="422"/>
-      <c r="K71" s="425"/>
-      <c r="L71" s="428"/>
-      <c r="M71" s="428"/>
+      <c r="J71" s="393"/>
+      <c r="K71" s="396"/>
+      <c r="L71" s="399"/>
+      <c r="M71" s="399"/>
       <c r="N71" s="175"/>
       <c r="O71" s="175"/>
       <c r="P71" s="174"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="403"/>
+      <c r="A72" s="390"/>
       <c r="B72" s="405"/>
-      <c r="C72" s="403"/>
-      <c r="D72" s="413"/>
-      <c r="E72" s="403"/>
+      <c r="C72" s="390"/>
+      <c r="D72" s="402"/>
+      <c r="E72" s="390"/>
       <c r="F72" s="174" t="s">
         <v>161</v>
       </c>
@@ -7386,20 +7386,20 @@
         <f t="shared" si="0"/>
         <v>970000</v>
       </c>
-      <c r="J72" s="422"/>
-      <c r="K72" s="425"/>
-      <c r="L72" s="428"/>
-      <c r="M72" s="428"/>
+      <c r="J72" s="393"/>
+      <c r="K72" s="396"/>
+      <c r="L72" s="399"/>
+      <c r="M72" s="399"/>
       <c r="N72" s="175"/>
       <c r="O72" s="175"/>
       <c r="P72" s="174"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="403"/>
+      <c r="A73" s="390"/>
       <c r="B73" s="405"/>
-      <c r="C73" s="403"/>
-      <c r="D73" s="413"/>
-      <c r="E73" s="403"/>
+      <c r="C73" s="390"/>
+      <c r="D73" s="402"/>
+      <c r="E73" s="390"/>
       <c r="F73" s="174" t="s">
         <v>195</v>
       </c>
@@ -7413,20 +7413,20 @@
         <f t="shared" si="0"/>
         <v>2200000</v>
       </c>
-      <c r="J73" s="422"/>
-      <c r="K73" s="425"/>
-      <c r="L73" s="428"/>
-      <c r="M73" s="428"/>
+      <c r="J73" s="393"/>
+      <c r="K73" s="396"/>
+      <c r="L73" s="399"/>
+      <c r="M73" s="399"/>
       <c r="N73" s="175"/>
       <c r="O73" s="175"/>
       <c r="P73" s="174"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="416"/>
-      <c r="B74" s="418"/>
-      <c r="C74" s="416"/>
-      <c r="D74" s="431"/>
-      <c r="E74" s="416"/>
+      <c r="A74" s="391"/>
+      <c r="B74" s="406"/>
+      <c r="C74" s="391"/>
+      <c r="D74" s="403"/>
+      <c r="E74" s="391"/>
       <c r="F74" s="174" t="s">
         <v>168</v>
       </c>
@@ -7440,10 +7440,10 @@
         <f t="shared" si="0"/>
         <v>910000</v>
       </c>
-      <c r="J74" s="423"/>
-      <c r="K74" s="426"/>
-      <c r="L74" s="429"/>
-      <c r="M74" s="429"/>
+      <c r="J74" s="394"/>
+      <c r="K74" s="397"/>
+      <c r="L74" s="400"/>
+      <c r="M74" s="400"/>
       <c r="N74" s="175"/>
       <c r="O74" s="175"/>
       <c r="P74" s="199"/>
@@ -7503,14 +7503,14 @@
       <c r="P77" s="165"/>
     </row>
     <row r="78" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="407" t="s">
+      <c r="A78" s="422" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="407"/>
-      <c r="C78" s="407"/>
-      <c r="D78" s="407"/>
-      <c r="E78" s="407"/>
-      <c r="F78" s="407"/>
+      <c r="B78" s="422"/>
+      <c r="C78" s="422"/>
+      <c r="D78" s="422"/>
+      <c r="E78" s="422"/>
+      <c r="F78" s="422"/>
       <c r="G78" s="131">
         <f>SUM(G8:G77)</f>
         <v>1305</v>
@@ -7530,17 +7530,17 @@
       <c r="N78" s="132"/>
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
-      <c r="Q78" s="395"/>
+      <c r="Q78" s="428"/>
     </row>
     <row r="79" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="396" t="s">
+      <c r="A79" s="421" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="396"/>
-      <c r="C79" s="396"/>
-      <c r="D79" s="396"/>
-      <c r="E79" s="396"/>
-      <c r="F79" s="396"/>
+      <c r="B79" s="421"/>
+      <c r="C79" s="421"/>
+      <c r="D79" s="421"/>
+      <c r="E79" s="421"/>
+      <c r="F79" s="421"/>
       <c r="G79" s="131">
         <f>G78</f>
         <v>1305</v>
@@ -7557,17 +7557,17 @@
       <c r="N79" s="136"/>
       <c r="O79" s="136"/>
       <c r="P79" s="136"/>
-      <c r="Q79" s="395"/>
+      <c r="Q79" s="428"/>
     </row>
     <row r="80" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="396" t="s">
+      <c r="A80" s="421" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="396"/>
-      <c r="C80" s="396"/>
-      <c r="D80" s="396"/>
-      <c r="E80" s="396"/>
-      <c r="F80" s="396"/>
+      <c r="B80" s="421"/>
+      <c r="C80" s="421"/>
+      <c r="D80" s="421"/>
+      <c r="E80" s="421"/>
+      <c r="F80" s="421"/>
       <c r="G80" s="137" t="s">
         <v>45</v>
       </c>
@@ -7585,14 +7585,14 @@
       <c r="P80" s="138"/>
     </row>
     <row r="81" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="396" t="s">
+      <c r="A81" s="421" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="396"/>
-      <c r="C81" s="396"/>
-      <c r="D81" s="396"/>
-      <c r="E81" s="396"/>
-      <c r="F81" s="396"/>
+      <c r="B81" s="421"/>
+      <c r="C81" s="421"/>
+      <c r="D81" s="421"/>
+      <c r="E81" s="421"/>
+      <c r="F81" s="421"/>
       <c r="G81" s="136"/>
       <c r="H81" s="136"/>
       <c r="I81" s="132"/>
@@ -7608,14 +7608,14 @@
       <c r="P81" s="138"/>
     </row>
     <row r="82" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="396" t="s">
+      <c r="A82" s="421" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="396"/>
-      <c r="C82" s="396"/>
-      <c r="D82" s="396"/>
-      <c r="E82" s="396"/>
-      <c r="F82" s="396"/>
+      <c r="B82" s="421"/>
+      <c r="C82" s="421"/>
+      <c r="D82" s="421"/>
+      <c r="E82" s="421"/>
+      <c r="F82" s="421"/>
       <c r="G82" s="136"/>
       <c r="H82" s="136"/>
       <c r="I82" s="132"/>
@@ -7686,25 +7686,77 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="114">
-    <mergeCell ref="E68:E74"/>
-    <mergeCell ref="J68:J74"/>
-    <mergeCell ref="K68:K74"/>
-    <mergeCell ref="L68:L74"/>
-    <mergeCell ref="M68:M74"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D68:D74"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="C68:C74"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="D60:D61"/>
@@ -7729,77 +7781,25 @@
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E68:E74"/>
+    <mergeCell ref="J68:J74"/>
+    <mergeCell ref="K68:K74"/>
+    <mergeCell ref="L68:L74"/>
+    <mergeCell ref="M68:M74"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D68:D74"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="A68:A74"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7844,75 +7844,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="442" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="434"/>
-      <c r="C3" s="434"/>
-      <c r="D3" s="434"/>
-      <c r="E3" s="434"/>
-      <c r="F3" s="434"/>
-      <c r="G3" s="434"/>
-      <c r="H3" s="434"/>
-      <c r="I3" s="434"/>
-      <c r="J3" s="434"/>
-      <c r="K3" s="434"/>
+      <c r="B3" s="442"/>
+      <c r="C3" s="442"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="442"/>
+      <c r="F3" s="442"/>
+      <c r="G3" s="442"/>
+      <c r="H3" s="442"/>
+      <c r="I3" s="442"/>
+      <c r="J3" s="442"/>
+      <c r="K3" s="442"/>
       <c r="L3" s="282"/>
       <c r="M3" s="282"/>
       <c r="N3" s="282"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="435" t="s">
+      <c r="A4" s="443" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="435"/>
-      <c r="C4" s="435"/>
-      <c r="D4" s="435"/>
-      <c r="E4" s="435"/>
-      <c r="F4" s="435"/>
-      <c r="G4" s="435"/>
-      <c r="H4" s="435"/>
-      <c r="I4" s="435"/>
-      <c r="J4" s="436"/>
-      <c r="K4" s="435"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="443"/>
+      <c r="D4" s="443"/>
+      <c r="E4" s="443"/>
+      <c r="F4" s="443"/>
+      <c r="G4" s="443"/>
+      <c r="H4" s="443"/>
+      <c r="I4" s="443"/>
+      <c r="J4" s="444"/>
+      <c r="K4" s="443"/>
       <c r="L4" s="283"/>
       <c r="M4" s="283"/>
       <c r="N4" s="283"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="437" t="s">
+      <c r="A5" s="445" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="438" t="s">
+      <c r="B5" s="446" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="437" t="s">
+      <c r="C5" s="445" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="437" t="s">
+      <c r="D5" s="445" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="437"/>
-      <c r="F5" s="439" t="s">
+      <c r="E5" s="445"/>
+      <c r="F5" s="447" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="439"/>
-      <c r="H5" s="439"/>
-      <c r="I5" s="439"/>
-      <c r="J5" s="440"/>
-      <c r="K5" s="441" t="s">
+      <c r="G5" s="447"/>
+      <c r="H5" s="447"/>
+      <c r="I5" s="447"/>
+      <c r="J5" s="448"/>
+      <c r="K5" s="449" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="433" t="s">
+      <c r="L5" s="441" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="433"/>
-      <c r="N5" s="433"/>
+      <c r="M5" s="441"/>
+      <c r="N5" s="441"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="437"/>
-      <c r="B6" s="438"/>
-      <c r="C6" s="437"/>
+      <c r="A6" s="445"/>
+      <c r="B6" s="446"/>
+      <c r="C6" s="445"/>
       <c r="D6" s="284" t="s">
         <v>40</v>
       </c>
@@ -7934,7 +7934,7 @@
       <c r="J6" s="288" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="441"/>
+      <c r="K6" s="449"/>
       <c r="L6" s="289" t="s">
         <v>52</v>
       </c>
@@ -7946,17 +7946,17 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="442">
+      <c r="A7" s="450">
         <v>1220</v>
       </c>
-      <c r="B7" s="445">
+      <c r="B7" s="451">
         <v>44139</v>
       </c>
-      <c r="C7" s="442"/>
-      <c r="D7" s="442" t="s">
+      <c r="C7" s="450"/>
+      <c r="D7" s="450" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="442"/>
+      <c r="E7" s="450"/>
       <c r="F7" s="290" t="s">
         <v>160</v>
       </c>
@@ -7985,11 +7985,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="443"/>
-      <c r="B8" s="446"/>
-      <c r="C8" s="443"/>
-      <c r="D8" s="443"/>
-      <c r="E8" s="443"/>
+      <c r="A8" s="436"/>
+      <c r="B8" s="433"/>
+      <c r="C8" s="436"/>
+      <c r="D8" s="436"/>
+      <c r="E8" s="436"/>
       <c r="F8" s="295" t="s">
         <v>162</v>
       </c>
@@ -8018,11 +8018,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="444"/>
-      <c r="B9" s="447"/>
-      <c r="C9" s="444"/>
-      <c r="D9" s="444"/>
-      <c r="E9" s="444"/>
+      <c r="A9" s="438"/>
+      <c r="B9" s="439"/>
+      <c r="C9" s="438"/>
+      <c r="D9" s="438"/>
+      <c r="E9" s="438"/>
       <c r="F9" s="295" t="s">
         <v>168</v>
       </c>
@@ -8090,17 +8090,17 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="448">
+      <c r="A11" s="435">
         <v>1229</v>
       </c>
-      <c r="B11" s="449">
+      <c r="B11" s="432">
         <v>44145</v>
       </c>
-      <c r="C11" s="448"/>
-      <c r="D11" s="448" t="s">
+      <c r="C11" s="435"/>
+      <c r="D11" s="435" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="448"/>
+      <c r="E11" s="435"/>
       <c r="F11" s="295" t="s">
         <v>174</v>
       </c>
@@ -8129,11 +8129,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="443"/>
-      <c r="B12" s="446"/>
-      <c r="C12" s="443"/>
-      <c r="D12" s="443"/>
-      <c r="E12" s="443"/>
+      <c r="A12" s="436"/>
+      <c r="B12" s="433"/>
+      <c r="C12" s="436"/>
+      <c r="D12" s="436"/>
+      <c r="E12" s="436"/>
       <c r="F12" s="295" t="s">
         <v>193</v>
       </c>
@@ -8162,11 +8162,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="444"/>
-      <c r="B13" s="447"/>
-      <c r="C13" s="444"/>
-      <c r="D13" s="444"/>
-      <c r="E13" s="444"/>
+      <c r="A13" s="438"/>
+      <c r="B13" s="439"/>
+      <c r="C13" s="438"/>
+      <c r="D13" s="438"/>
+      <c r="E13" s="438"/>
       <c r="F13" s="295" t="s">
         <v>168</v>
       </c>
@@ -8195,17 +8195,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="448">
+      <c r="A14" s="435">
         <v>1231</v>
       </c>
-      <c r="B14" s="449">
+      <c r="B14" s="432">
         <v>44146</v>
       </c>
-      <c r="C14" s="448"/>
-      <c r="D14" s="448" t="s">
+      <c r="C14" s="435"/>
+      <c r="D14" s="435" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="448"/>
+      <c r="E14" s="435"/>
       <c r="F14" s="295" t="s">
         <v>174</v>
       </c>
@@ -8234,11 +8234,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="443"/>
-      <c r="B15" s="446"/>
-      <c r="C15" s="443"/>
-      <c r="D15" s="443"/>
-      <c r="E15" s="443"/>
+      <c r="A15" s="436"/>
+      <c r="B15" s="433"/>
+      <c r="C15" s="436"/>
+      <c r="D15" s="436"/>
+      <c r="E15" s="436"/>
       <c r="F15" s="295" t="s">
         <v>193</v>
       </c>
@@ -8267,11 +8267,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="443"/>
-      <c r="B16" s="446"/>
-      <c r="C16" s="443"/>
-      <c r="D16" s="443"/>
-      <c r="E16" s="443"/>
+      <c r="A16" s="436"/>
+      <c r="B16" s="433"/>
+      <c r="C16" s="436"/>
+      <c r="D16" s="436"/>
+      <c r="E16" s="436"/>
       <c r="F16" s="295" t="s">
         <v>195</v>
       </c>
@@ -8300,11 +8300,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="444"/>
-      <c r="B17" s="447"/>
-      <c r="C17" s="444"/>
-      <c r="D17" s="444"/>
-      <c r="E17" s="444"/>
+      <c r="A17" s="438"/>
+      <c r="B17" s="439"/>
+      <c r="C17" s="438"/>
+      <c r="D17" s="438"/>
+      <c r="E17" s="438"/>
       <c r="F17" s="295" t="s">
         <v>165</v>
       </c>
@@ -8333,19 +8333,19 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="448">
+      <c r="A18" s="435">
         <v>1236</v>
       </c>
-      <c r="B18" s="449">
+      <c r="B18" s="432">
         <v>44152</v>
       </c>
-      <c r="C18" s="448" t="s">
+      <c r="C18" s="435" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="448" t="s">
+      <c r="D18" s="435" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="448"/>
+      <c r="E18" s="435"/>
       <c r="F18" s="295" t="s">
         <v>193</v>
       </c>
@@ -8374,11 +8374,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="443"/>
-      <c r="B19" s="446"/>
-      <c r="C19" s="443"/>
-      <c r="D19" s="443"/>
-      <c r="E19" s="443"/>
+      <c r="A19" s="436"/>
+      <c r="B19" s="433"/>
+      <c r="C19" s="436"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="436"/>
       <c r="F19" s="295" t="s">
         <v>161</v>
       </c>
@@ -8407,11 +8407,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="444"/>
-      <c r="B20" s="447"/>
-      <c r="C20" s="444"/>
-      <c r="D20" s="444"/>
-      <c r="E20" s="444"/>
+      <c r="A20" s="438"/>
+      <c r="B20" s="439"/>
+      <c r="C20" s="438"/>
+      <c r="D20" s="438"/>
+      <c r="E20" s="438"/>
       <c r="F20" s="295" t="s">
         <v>195</v>
       </c>
@@ -8479,19 +8479,19 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="448">
+      <c r="A22" s="435">
         <v>1241</v>
       </c>
-      <c r="B22" s="449">
+      <c r="B22" s="432">
         <v>44153</v>
       </c>
-      <c r="C22" s="448" t="s">
+      <c r="C22" s="435" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="448" t="s">
+      <c r="D22" s="435" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="448"/>
+      <c r="E22" s="435"/>
       <c r="F22" s="295" t="s">
         <v>162</v>
       </c>
@@ -8520,11 +8520,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="443"/>
-      <c r="B23" s="446"/>
-      <c r="C23" s="443"/>
-      <c r="D23" s="443"/>
-      <c r="E23" s="443"/>
+      <c r="A23" s="436"/>
+      <c r="B23" s="433"/>
+      <c r="C23" s="436"/>
+      <c r="D23" s="436"/>
+      <c r="E23" s="436"/>
       <c r="F23" s="295" t="s">
         <v>195</v>
       </c>
@@ -8553,11 +8553,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="444"/>
-      <c r="B24" s="447"/>
-      <c r="C24" s="444"/>
-      <c r="D24" s="444"/>
-      <c r="E24" s="444"/>
+      <c r="A24" s="438"/>
+      <c r="B24" s="439"/>
+      <c r="C24" s="438"/>
+      <c r="D24" s="438"/>
+      <c r="E24" s="438"/>
       <c r="F24" s="295" t="s">
         <v>165</v>
       </c>
@@ -8666,19 +8666,19 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="448">
+      <c r="A27" s="435">
         <v>1248</v>
       </c>
-      <c r="B27" s="449">
+      <c r="B27" s="432">
         <v>44155</v>
       </c>
-      <c r="C27" s="448" t="s">
+      <c r="C27" s="435" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="448" t="s">
+      <c r="D27" s="435" t="s">
         <v>210</v>
       </c>
-      <c r="E27" s="448"/>
+      <c r="E27" s="435"/>
       <c r="F27" s="295" t="s">
         <v>195</v>
       </c>
@@ -8707,11 +8707,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="444"/>
-      <c r="B28" s="447"/>
-      <c r="C28" s="444"/>
-      <c r="D28" s="444"/>
-      <c r="E28" s="444"/>
+      <c r="A28" s="438"/>
+      <c r="B28" s="439"/>
+      <c r="C28" s="438"/>
+      <c r="D28" s="438"/>
+      <c r="E28" s="438"/>
       <c r="F28" s="295" t="s">
         <v>165</v>
       </c>
@@ -8740,19 +8740,19 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="448">
+      <c r="A29" s="435">
         <v>1254</v>
       </c>
-      <c r="B29" s="449">
+      <c r="B29" s="432">
         <v>44160</v>
       </c>
-      <c r="C29" s="448" t="s">
+      <c r="C29" s="435" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="448" t="s">
+      <c r="D29" s="435" t="s">
         <v>220</v>
       </c>
-      <c r="E29" s="448"/>
+      <c r="E29" s="435"/>
       <c r="F29" s="295" t="s">
         <v>174</v>
       </c>
@@ -8781,11 +8781,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="444"/>
-      <c r="B30" s="447"/>
-      <c r="C30" s="444"/>
-      <c r="D30" s="444"/>
-      <c r="E30" s="444"/>
+      <c r="A30" s="438"/>
+      <c r="B30" s="439"/>
+      <c r="C30" s="438"/>
+      <c r="D30" s="438"/>
+      <c r="E30" s="438"/>
       <c r="F30" s="295" t="s">
         <v>195</v>
       </c>
@@ -8814,17 +8814,17 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="448">
+      <c r="A31" s="435">
         <v>1256</v>
       </c>
-      <c r="B31" s="449">
+      <c r="B31" s="432">
         <v>44160</v>
       </c>
-      <c r="C31" s="448"/>
-      <c r="D31" s="448" t="s">
+      <c r="C31" s="435"/>
+      <c r="D31" s="435" t="s">
         <v>221</v>
       </c>
-      <c r="E31" s="448"/>
+      <c r="E31" s="435"/>
       <c r="F31" s="295" t="s">
         <v>193</v>
       </c>
@@ -8853,11 +8853,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="443"/>
-      <c r="B32" s="446"/>
-      <c r="C32" s="443"/>
-      <c r="D32" s="443"/>
-      <c r="E32" s="443"/>
+      <c r="A32" s="436"/>
+      <c r="B32" s="433"/>
+      <c r="C32" s="436"/>
+      <c r="D32" s="436"/>
+      <c r="E32" s="436"/>
       <c r="F32" s="295" t="s">
         <v>161</v>
       </c>
@@ -8886,11 +8886,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="443"/>
-      <c r="B33" s="446"/>
-      <c r="C33" s="443"/>
-      <c r="D33" s="443"/>
-      <c r="E33" s="443"/>
+      <c r="A33" s="436"/>
+      <c r="B33" s="433"/>
+      <c r="C33" s="436"/>
+      <c r="D33" s="436"/>
+      <c r="E33" s="436"/>
       <c r="F33" s="295" t="s">
         <v>162</v>
       </c>
@@ -8919,11 +8919,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="451"/>
-      <c r="B34" s="450"/>
-      <c r="C34" s="451"/>
-      <c r="D34" s="451"/>
-      <c r="E34" s="451"/>
+      <c r="A34" s="437"/>
+      <c r="B34" s="434"/>
+      <c r="C34" s="437"/>
+      <c r="D34" s="437"/>
+      <c r="E34" s="437"/>
       <c r="F34" s="301" t="s">
         <v>168</v>
       </c>
@@ -8952,13 +8952,13 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="313" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="432" t="s">
+      <c r="A35" s="440" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="432"/>
-      <c r="C35" s="432"/>
-      <c r="D35" s="432"/>
-      <c r="E35" s="432"/>
+      <c r="B35" s="440"/>
+      <c r="C35" s="440"/>
+      <c r="D35" s="440"/>
+      <c r="E35" s="440"/>
       <c r="F35" s="307"/>
       <c r="G35" s="307">
         <f>SUM(G7:G34)</f>
@@ -9046,40 +9046,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -9096,6 +9062,40 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9106,7 +9106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -9557,13 +9557,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="479" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
+      <c r="B1" s="479"/>
+      <c r="C1" s="479"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -9581,119 +9581,119 @@
       <c r="H2" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="480" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="458"/>
-      <c r="C4" s="458"/>
-      <c r="D4" s="458"/>
-      <c r="E4" s="458"/>
-      <c r="F4" s="458"/>
-      <c r="G4" s="458"/>
+      <c r="B4" s="480"/>
+      <c r="C4" s="480"/>
+      <c r="D4" s="480"/>
+      <c r="E4" s="480"/>
+      <c r="F4" s="480"/>
+      <c r="G4" s="480"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="467" t="s">
+      <c r="A6" s="461" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="468"/>
-      <c r="C6" s="468"/>
-      <c r="D6" s="468"/>
-      <c r="E6" s="469"/>
-      <c r="F6" s="459" t="s">
+      <c r="B6" s="462"/>
+      <c r="C6" s="462"/>
+      <c r="D6" s="462"/>
+      <c r="E6" s="463"/>
+      <c r="F6" s="481" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="460"/>
+      <c r="G6" s="482"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="475" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="464"/>
+      <c r="B7" s="476"/>
       <c r="C7" s="323"/>
       <c r="D7" s="260"/>
       <c r="E7" s="329" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="461">
+      <c r="F7" s="458">
         <v>4744538</v>
       </c>
-      <c r="G7" s="461"/>
-      <c r="H7" s="477" t="s">
+      <c r="G7" s="458"/>
+      <c r="H7" s="457" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="465"/>
-      <c r="B8" s="466"/>
+      <c r="A8" s="477"/>
+      <c r="B8" s="478"/>
       <c r="C8" s="323"/>
       <c r="D8" s="260"/>
       <c r="E8" s="330" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="462">
+      <c r="F8" s="470">
         <v>6713000</v>
       </c>
-      <c r="G8" s="462"/>
-      <c r="H8" s="477"/>
+      <c r="G8" s="470"/>
+      <c r="H8" s="457"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="463" t="s">
+      <c r="A9" s="475" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="464"/>
+      <c r="B9" s="476"/>
       <c r="C9" s="327"/>
       <c r="D9" s="328"/>
       <c r="E9" s="331" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="461">
+      <c r="F9" s="458">
         <v>3625000</v>
       </c>
-      <c r="G9" s="461"/>
-      <c r="H9" s="477"/>
+      <c r="G9" s="458"/>
+      <c r="H9" s="457"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="465"/>
-      <c r="B10" s="466"/>
+      <c r="A10" s="477"/>
+      <c r="B10" s="478"/>
       <c r="C10" s="326"/>
       <c r="D10" s="326"/>
       <c r="E10" s="332" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="462">
+      <c r="F10" s="470">
         <v>6576923</v>
       </c>
-      <c r="G10" s="462"/>
-      <c r="H10" s="477"/>
+      <c r="G10" s="470"/>
+      <c r="H10" s="457"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="467" t="s">
+      <c r="A11" s="461" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="468"/>
-      <c r="C11" s="468"/>
-      <c r="D11" s="468"/>
-      <c r="E11" s="469"/>
-      <c r="F11" s="476">
+      <c r="B11" s="462"/>
+      <c r="C11" s="462"/>
+      <c r="D11" s="462"/>
+      <c r="E11" s="463"/>
+      <c r="F11" s="474">
         <f>'Bảng lương'!J12</f>
         <v>6000000</v>
       </c>
-      <c r="G11" s="476"/>
+      <c r="G11" s="474"/>
       <c r="H11" s="333"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="480" t="s">
+      <c r="A12" s="464" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="481"/>
-      <c r="C12" s="481"/>
-      <c r="D12" s="481"/>
-      <c r="E12" s="482"/>
-      <c r="F12" s="478">
+      <c r="B12" s="465"/>
+      <c r="C12" s="465"/>
+      <c r="D12" s="465"/>
+      <c r="E12" s="466"/>
+      <c r="F12" s="459">
         <f>SUM(F7:G11)</f>
         <v>27659461</v>
       </c>
-      <c r="G12" s="479"/>
+      <c r="G12" s="460"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="268" t="s">
@@ -9705,10 +9705,10 @@
       <c r="E14" s="261"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="473">
+      <c r="A15" s="471">
         <v>44106</v>
       </c>
-      <c r="B15" s="474"/>
+      <c r="B15" s="472"/>
       <c r="C15" s="262"/>
       <c r="D15" s="262"/>
       <c r="E15" s="262" t="s">
@@ -9719,10 +9719,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="473">
+      <c r="A16" s="471">
         <v>44116</v>
       </c>
-      <c r="B16" s="474"/>
+      <c r="B16" s="472"/>
       <c r="C16" s="262"/>
       <c r="D16" s="262"/>
       <c r="E16" s="262" t="s">
@@ -9734,10 +9734,10 @@
       <c r="J16" s="267"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="473">
+      <c r="A17" s="471">
         <v>44120</v>
       </c>
-      <c r="B17" s="474"/>
+      <c r="B17" s="472"/>
       <c r="C17" s="262"/>
       <c r="D17" s="262"/>
       <c r="E17" s="262" t="s">
@@ -9748,10 +9748,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="473">
+      <c r="A18" s="471">
         <v>44128</v>
       </c>
-      <c r="B18" s="474"/>
+      <c r="B18" s="472"/>
       <c r="C18" s="262"/>
       <c r="D18" s="262"/>
       <c r="E18" s="262" t="s">
@@ -9763,10 +9763,10 @@
       <c r="J18" s="267"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="473">
+      <c r="A19" s="471">
         <v>44129</v>
       </c>
-      <c r="B19" s="474"/>
+      <c r="B19" s="472"/>
       <c r="C19" s="262"/>
       <c r="D19" s="262"/>
       <c r="E19" s="262" t="s">
@@ -9778,10 +9778,10 @@
       <c r="J19" s="267"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="473">
+      <c r="A20" s="471">
         <v>44131</v>
       </c>
-      <c r="B20" s="474"/>
+      <c r="B20" s="472"/>
       <c r="C20" s="262"/>
       <c r="D20" s="262"/>
       <c r="E20" s="275" t="s">
@@ -9792,10 +9792,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="475">
+      <c r="A21" s="473">
         <v>44140</v>
       </c>
-      <c r="B21" s="475"/>
+      <c r="B21" s="473"/>
       <c r="C21" s="262"/>
       <c r="D21" s="262"/>
       <c r="E21" s="275" t="s">
@@ -9806,10 +9806,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="475">
+      <c r="A22" s="473">
         <v>44150</v>
       </c>
-      <c r="B22" s="475"/>
+      <c r="B22" s="473"/>
       <c r="C22" s="262"/>
       <c r="D22" s="262"/>
       <c r="E22" s="275" t="s">
@@ -9820,13 +9820,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="470" t="s">
+      <c r="A23" s="467" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="471"/>
-      <c r="C23" s="471"/>
-      <c r="D23" s="471"/>
-      <c r="E23" s="472"/>
+      <c r="B23" s="468"/>
+      <c r="C23" s="468"/>
+      <c r="D23" s="468"/>
+      <c r="E23" s="469"/>
       <c r="F23" s="269">
         <f>SUM(F15:F22)</f>
         <v>11558900</v>
@@ -9882,11 +9882,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A15:B15"/>
@@ -9899,13 +9901,11 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10446,16 +10446,16 @@
       <c r="C1" s="212"/>
       <c r="D1" s="212"/>
       <c r="E1" s="212"/>
-      <c r="Z1" s="502" t="s">
+      <c r="Z1" s="488" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="503"/>
-      <c r="AB1" s="503"/>
-      <c r="AC1" s="503"/>
-      <c r="AD1" s="503"/>
-      <c r="AE1" s="503"/>
-      <c r="AF1" s="503"/>
-      <c r="AG1" s="504"/>
+      <c r="AA1" s="489"/>
+      <c r="AB1" s="489"/>
+      <c r="AC1" s="489"/>
+      <c r="AD1" s="489"/>
+      <c r="AE1" s="489"/>
+      <c r="AF1" s="489"/>
+      <c r="AG1" s="490"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="215" t="s">
@@ -10465,18 +10465,18 @@
       <c r="C2" s="216"/>
       <c r="D2" s="216"/>
       <c r="E2" s="216"/>
-      <c r="Z2" s="497" t="s">
+      <c r="Z2" s="483" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" s="498"/>
-      <c r="AB2" s="498"/>
-      <c r="AC2" s="498"/>
-      <c r="AD2" s="498"/>
-      <c r="AE2" s="499"/>
-      <c r="AF2" s="500" t="s">
+      <c r="AA2" s="484"/>
+      <c r="AB2" s="484"/>
+      <c r="AC2" s="484"/>
+      <c r="AD2" s="484"/>
+      <c r="AE2" s="485"/>
+      <c r="AF2" s="486" t="s">
         <v>101</v>
       </c>
-      <c r="AG2" s="501"/>
+      <c r="AG2" s="487"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="215" t="s">
@@ -10486,18 +10486,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="497" t="s">
+      <c r="Z3" s="483" t="s">
         <v>103</v>
       </c>
-      <c r="AA3" s="498"/>
-      <c r="AB3" s="498"/>
-      <c r="AC3" s="498"/>
-      <c r="AD3" s="498"/>
-      <c r="AE3" s="499"/>
-      <c r="AF3" s="500" t="s">
+      <c r="AA3" s="484"/>
+      <c r="AB3" s="484"/>
+      <c r="AC3" s="484"/>
+      <c r="AD3" s="484"/>
+      <c r="AE3" s="485"/>
+      <c r="AF3" s="486" t="s">
         <v>104</v>
       </c>
-      <c r="AG3" s="501"/>
+      <c r="AG3" s="487"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="215" t="s">
@@ -10510,18 +10510,18 @@
       <c r="T4" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="497" t="s">
+      <c r="Z4" s="483" t="s">
         <v>106</v>
       </c>
-      <c r="AA4" s="498"/>
-      <c r="AB4" s="498"/>
-      <c r="AC4" s="498"/>
-      <c r="AD4" s="498"/>
-      <c r="AE4" s="499"/>
-      <c r="AF4" s="500" t="s">
+      <c r="AA4" s="484"/>
+      <c r="AB4" s="484"/>
+      <c r="AC4" s="484"/>
+      <c r="AD4" s="484"/>
+      <c r="AE4" s="485"/>
+      <c r="AF4" s="486" t="s">
         <v>107</v>
       </c>
-      <c r="AG4" s="501"/>
+      <c r="AG4" s="487"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="215" t="s">
@@ -10531,18 +10531,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="484" t="s">
+      <c r="Z5" s="492" t="s">
         <v>109</v>
       </c>
-      <c r="AA5" s="484"/>
-      <c r="AB5" s="484"/>
-      <c r="AC5" s="484"/>
-      <c r="AD5" s="484"/>
-      <c r="AE5" s="484"/>
-      <c r="AF5" s="485" t="s">
+      <c r="AA5" s="492"/>
+      <c r="AB5" s="492"/>
+      <c r="AC5" s="492"/>
+      <c r="AD5" s="492"/>
+      <c r="AE5" s="492"/>
+      <c r="AF5" s="493" t="s">
         <v>110</v>
       </c>
-      <c r="AG5" s="485"/>
+      <c r="AG5" s="493"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="215"/>
@@ -10550,18 +10550,18 @@
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="Z6" s="497" t="s">
+      <c r="Z6" s="483" t="s">
         <v>291</v>
       </c>
-      <c r="AA6" s="498"/>
-      <c r="AB6" s="498"/>
-      <c r="AC6" s="498"/>
-      <c r="AD6" s="498"/>
-      <c r="AE6" s="499"/>
-      <c r="AF6" s="500" t="s">
+      <c r="AA6" s="484"/>
+      <c r="AB6" s="484"/>
+      <c r="AC6" s="484"/>
+      <c r="AD6" s="484"/>
+      <c r="AE6" s="485"/>
+      <c r="AF6" s="486" t="s">
         <v>145</v>
       </c>
-      <c r="AG6" s="501"/>
+      <c r="AG6" s="487"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="217"/>
@@ -10571,91 +10571,91 @@
       <c r="E7" s="217"/>
     </row>
     <row r="8" spans="1:39" s="220" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="486" t="s">
+      <c r="A8" s="494" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="486"/>
-      <c r="C8" s="486"/>
-      <c r="D8" s="486"/>
-      <c r="E8" s="486"/>
-      <c r="F8" s="486"/>
-      <c r="G8" s="486"/>
-      <c r="H8" s="486"/>
-      <c r="I8" s="486"/>
-      <c r="J8" s="486"/>
-      <c r="K8" s="486"/>
-      <c r="L8" s="486"/>
-      <c r="M8" s="486"/>
-      <c r="N8" s="486"/>
-      <c r="O8" s="486"/>
-      <c r="P8" s="486"/>
-      <c r="Q8" s="486"/>
-      <c r="R8" s="486"/>
-      <c r="S8" s="486"/>
-      <c r="T8" s="486"/>
-      <c r="U8" s="486"/>
-      <c r="V8" s="486"/>
-      <c r="W8" s="486"/>
-      <c r="X8" s="486"/>
-      <c r="Y8" s="486"/>
-      <c r="Z8" s="486"/>
-      <c r="AA8" s="486"/>
-      <c r="AB8" s="486"/>
-      <c r="AC8" s="486"/>
-      <c r="AD8" s="486"/>
-      <c r="AE8" s="486"/>
-      <c r="AF8" s="486"/>
-      <c r="AG8" s="486"/>
-      <c r="AH8" s="486"/>
-      <c r="AI8" s="486"/>
-      <c r="AJ8" s="486"/>
-      <c r="AK8" s="486"/>
-      <c r="AL8" s="486"/>
+      <c r="B8" s="494"/>
+      <c r="C8" s="494"/>
+      <c r="D8" s="494"/>
+      <c r="E8" s="494"/>
+      <c r="F8" s="494"/>
+      <c r="G8" s="494"/>
+      <c r="H8" s="494"/>
+      <c r="I8" s="494"/>
+      <c r="J8" s="494"/>
+      <c r="K8" s="494"/>
+      <c r="L8" s="494"/>
+      <c r="M8" s="494"/>
+      <c r="N8" s="494"/>
+      <c r="O8" s="494"/>
+      <c r="P8" s="494"/>
+      <c r="Q8" s="494"/>
+      <c r="R8" s="494"/>
+      <c r="S8" s="494"/>
+      <c r="T8" s="494"/>
+      <c r="U8" s="494"/>
+      <c r="V8" s="494"/>
+      <c r="W8" s="494"/>
+      <c r="X8" s="494"/>
+      <c r="Y8" s="494"/>
+      <c r="Z8" s="494"/>
+      <c r="AA8" s="494"/>
+      <c r="AB8" s="494"/>
+      <c r="AC8" s="494"/>
+      <c r="AD8" s="494"/>
+      <c r="AE8" s="494"/>
+      <c r="AF8" s="494"/>
+      <c r="AG8" s="494"/>
+      <c r="AH8" s="494"/>
+      <c r="AI8" s="494"/>
+      <c r="AJ8" s="494"/>
+      <c r="AK8" s="494"/>
+      <c r="AL8" s="494"/>
       <c r="AM8" s="219"/>
     </row>
     <row r="10" spans="1:39" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="487" t="s">
+      <c r="A10" s="495" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="487" t="s">
+      <c r="B10" s="495" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="487" t="s">
+      <c r="C10" s="495" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="490" t="s">
+      <c r="D10" s="498" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="491"/>
-      <c r="F10" s="491"/>
-      <c r="G10" s="491"/>
-      <c r="H10" s="491"/>
-      <c r="I10" s="491"/>
-      <c r="J10" s="491"/>
-      <c r="K10" s="491"/>
-      <c r="L10" s="491"/>
-      <c r="M10" s="491"/>
-      <c r="N10" s="491"/>
-      <c r="O10" s="491"/>
-      <c r="P10" s="491"/>
-      <c r="Q10" s="491"/>
-      <c r="R10" s="491"/>
-      <c r="S10" s="491"/>
-      <c r="T10" s="491"/>
-      <c r="U10" s="491"/>
-      <c r="V10" s="491"/>
-      <c r="W10" s="491"/>
-      <c r="X10" s="491"/>
-      <c r="Y10" s="491"/>
-      <c r="Z10" s="491"/>
-      <c r="AA10" s="491"/>
-      <c r="AB10" s="491"/>
-      <c r="AC10" s="491"/>
-      <c r="AD10" s="491"/>
-      <c r="AE10" s="491"/>
-      <c r="AF10" s="491"/>
-      <c r="AG10" s="491"/>
-      <c r="AH10" s="492" t="s">
+      <c r="E10" s="499"/>
+      <c r="F10" s="499"/>
+      <c r="G10" s="499"/>
+      <c r="H10" s="499"/>
+      <c r="I10" s="499"/>
+      <c r="J10" s="499"/>
+      <c r="K10" s="499"/>
+      <c r="L10" s="499"/>
+      <c r="M10" s="499"/>
+      <c r="N10" s="499"/>
+      <c r="O10" s="499"/>
+      <c r="P10" s="499"/>
+      <c r="Q10" s="499"/>
+      <c r="R10" s="499"/>
+      <c r="S10" s="499"/>
+      <c r="T10" s="499"/>
+      <c r="U10" s="499"/>
+      <c r="V10" s="499"/>
+      <c r="W10" s="499"/>
+      <c r="X10" s="499"/>
+      <c r="Y10" s="499"/>
+      <c r="Z10" s="499"/>
+      <c r="AA10" s="499"/>
+      <c r="AB10" s="499"/>
+      <c r="AC10" s="499"/>
+      <c r="AD10" s="499"/>
+      <c r="AE10" s="499"/>
+      <c r="AF10" s="499"/>
+      <c r="AG10" s="499"/>
+      <c r="AH10" s="500" t="s">
         <v>115</v>
       </c>
       <c r="AI10" s="221"/>
@@ -10665,9 +10665,9 @@
       <c r="AM10" s="224"/>
     </row>
     <row r="11" spans="1:39" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="488"/>
-      <c r="B11" s="488"/>
-      <c r="C11" s="488"/>
+      <c r="A11" s="496"/>
+      <c r="B11" s="496"/>
+      <c r="C11" s="496"/>
       <c r="D11" s="226">
         <v>1</v>
       </c>
@@ -10758,7 +10758,7 @@
       <c r="AG11" s="226">
         <v>30</v>
       </c>
-      <c r="AH11" s="492"/>
+      <c r="AH11" s="500"/>
       <c r="AI11" s="227"/>
       <c r="AJ11" s="223"/>
       <c r="AK11" s="223"/>
@@ -10766,9 +10766,9 @@
       <c r="AM11" s="224"/>
     </row>
     <row r="12" spans="1:39" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="489"/>
-      <c r="B12" s="489"/>
-      <c r="C12" s="489"/>
+      <c r="A12" s="497"/>
+      <c r="B12" s="497"/>
+      <c r="C12" s="497"/>
       <c r="D12" s="229" t="s">
         <v>120</v>
       </c>
@@ -10859,7 +10859,7 @@
       <c r="AG12" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="AH12" s="492"/>
+      <c r="AH12" s="500"/>
       <c r="AI12" s="230"/>
       <c r="AM12" s="232"/>
     </row>
@@ -11264,10 +11264,10 @@
       <c r="AM16" s="232"/>
     </row>
     <row r="17" spans="1:39" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="493" t="s">
+      <c r="A17" s="501" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="494"/>
+      <c r="B17" s="502"/>
       <c r="C17" s="238"/>
       <c r="D17" s="238"/>
       <c r="E17" s="239"/>
@@ -11309,46 +11309,46 @@
       <c r="AM17" s="232"/>
     </row>
     <row r="19" spans="1:39" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="495"/>
-      <c r="B19" s="495"/>
-      <c r="C19" s="495"/>
-      <c r="D19" s="495"/>
-      <c r="E19" s="495"/>
-      <c r="F19" s="495"/>
-      <c r="G19" s="495"/>
+      <c r="A19" s="503"/>
+      <c r="B19" s="503"/>
+      <c r="C19" s="503"/>
+      <c r="D19" s="503"/>
+      <c r="E19" s="503"/>
+      <c r="F19" s="503"/>
+      <c r="G19" s="503"/>
       <c r="H19" s="243"/>
-      <c r="I19" s="496"/>
-      <c r="J19" s="496"/>
-      <c r="K19" s="496"/>
-      <c r="L19" s="496"/>
-      <c r="M19" s="496"/>
+      <c r="I19" s="504"/>
+      <c r="J19" s="504"/>
+      <c r="K19" s="504"/>
+      <c r="L19" s="504"/>
+      <c r="M19" s="504"/>
       <c r="N19" s="244"/>
-      <c r="O19" s="496"/>
-      <c r="P19" s="496"/>
-      <c r="Q19" s="496"/>
-      <c r="R19" s="496"/>
-      <c r="S19" s="496"/>
-      <c r="T19" s="496"/>
-      <c r="U19" s="496"/>
-      <c r="V19" s="496"/>
-      <c r="W19" s="496"/>
-      <c r="X19" s="496"/>
-      <c r="Y19" s="496"/>
+      <c r="O19" s="504"/>
+      <c r="P19" s="504"/>
+      <c r="Q19" s="504"/>
+      <c r="R19" s="504"/>
+      <c r="S19" s="504"/>
+      <c r="T19" s="504"/>
+      <c r="U19" s="504"/>
+      <c r="V19" s="504"/>
+      <c r="W19" s="504"/>
+      <c r="X19" s="504"/>
+      <c r="Y19" s="504"/>
       <c r="Z19" s="245"/>
       <c r="AA19" s="254" t="s">
         <v>13</v>
       </c>
       <c r="AB19" s="246"/>
-      <c r="AC19" s="496"/>
-      <c r="AD19" s="496"/>
-      <c r="AE19" s="496"/>
-      <c r="AF19" s="496"/>
-      <c r="AG19" s="496"/>
-      <c r="AH19" s="496"/>
-      <c r="AI19" s="496"/>
-      <c r="AJ19" s="496"/>
-      <c r="AK19" s="496"/>
-      <c r="AL19" s="496"/>
+      <c r="AC19" s="504"/>
+      <c r="AD19" s="504"/>
+      <c r="AE19" s="504"/>
+      <c r="AF19" s="504"/>
+      <c r="AG19" s="504"/>
+      <c r="AH19" s="504"/>
+      <c r="AI19" s="504"/>
+      <c r="AJ19" s="504"/>
+      <c r="AK19" s="504"/>
+      <c r="AL19" s="504"/>
       <c r="AM19" s="247"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
@@ -11387,131 +11387,131 @@
       <c r="AM34" s="252"/>
     </row>
     <row r="35" spans="3:39" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="483"/>
-      <c r="H35" s="483"/>
-      <c r="I35" s="483"/>
-      <c r="J35" s="483"/>
-      <c r="K35" s="483"/>
-      <c r="L35" s="483"/>
-      <c r="M35" s="483"/>
-      <c r="N35" s="483"/>
-      <c r="O35" s="483"/>
-      <c r="P35" s="483"/>
-      <c r="Q35" s="483"/>
-      <c r="R35" s="483"/>
-      <c r="S35" s="483"/>
-      <c r="T35" s="483"/>
-      <c r="U35" s="483"/>
-      <c r="V35" s="483"/>
-      <c r="W35" s="483"/>
-      <c r="X35" s="483"/>
+      <c r="G35" s="491"/>
+      <c r="H35" s="491"/>
+      <c r="I35" s="491"/>
+      <c r="J35" s="491"/>
+      <c r="K35" s="491"/>
+      <c r="L35" s="491"/>
+      <c r="M35" s="491"/>
+      <c r="N35" s="491"/>
+      <c r="O35" s="491"/>
+      <c r="P35" s="491"/>
+      <c r="Q35" s="491"/>
+      <c r="R35" s="491"/>
+      <c r="S35" s="491"/>
+      <c r="T35" s="491"/>
+      <c r="U35" s="491"/>
+      <c r="V35" s="491"/>
+      <c r="W35" s="491"/>
+      <c r="X35" s="491"/>
       <c r="AM35" s="252"/>
     </row>
     <row r="36" spans="3:39" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="483"/>
-      <c r="H36" s="483"/>
-      <c r="I36" s="483"/>
-      <c r="J36" s="483"/>
-      <c r="K36" s="483"/>
-      <c r="L36" s="483"/>
-      <c r="M36" s="483"/>
-      <c r="N36" s="483"/>
-      <c r="O36" s="483"/>
-      <c r="P36" s="483"/>
-      <c r="Q36" s="483"/>
-      <c r="R36" s="483"/>
-      <c r="S36" s="483"/>
-      <c r="T36" s="483"/>
-      <c r="U36" s="483"/>
-      <c r="V36" s="483"/>
-      <c r="W36" s="483"/>
-      <c r="X36" s="483"/>
+      <c r="G36" s="491"/>
+      <c r="H36" s="491"/>
+      <c r="I36" s="491"/>
+      <c r="J36" s="491"/>
+      <c r="K36" s="491"/>
+      <c r="L36" s="491"/>
+      <c r="M36" s="491"/>
+      <c r="N36" s="491"/>
+      <c r="O36" s="491"/>
+      <c r="P36" s="491"/>
+      <c r="Q36" s="491"/>
+      <c r="R36" s="491"/>
+      <c r="S36" s="491"/>
+      <c r="T36" s="491"/>
+      <c r="U36" s="491"/>
+      <c r="V36" s="491"/>
+      <c r="W36" s="491"/>
+      <c r="X36" s="491"/>
       <c r="AM36" s="252"/>
     </row>
     <row r="37" spans="3:39" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="483"/>
-      <c r="H37" s="483"/>
-      <c r="I37" s="483"/>
-      <c r="J37" s="483"/>
-      <c r="K37" s="483"/>
-      <c r="L37" s="483"/>
-      <c r="M37" s="483"/>
-      <c r="N37" s="483"/>
-      <c r="O37" s="483"/>
-      <c r="P37" s="483"/>
-      <c r="Q37" s="483"/>
-      <c r="R37" s="483"/>
-      <c r="S37" s="483"/>
-      <c r="T37" s="483"/>
-      <c r="U37" s="483"/>
-      <c r="V37" s="483"/>
-      <c r="W37" s="483"/>
-      <c r="X37" s="483"/>
+      <c r="G37" s="491"/>
+      <c r="H37" s="491"/>
+      <c r="I37" s="491"/>
+      <c r="J37" s="491"/>
+      <c r="K37" s="491"/>
+      <c r="L37" s="491"/>
+      <c r="M37" s="491"/>
+      <c r="N37" s="491"/>
+      <c r="O37" s="491"/>
+      <c r="P37" s="491"/>
+      <c r="Q37" s="491"/>
+      <c r="R37" s="491"/>
+      <c r="S37" s="491"/>
+      <c r="T37" s="491"/>
+      <c r="U37" s="491"/>
+      <c r="V37" s="491"/>
+      <c r="W37" s="491"/>
+      <c r="X37" s="491"/>
       <c r="AM37" s="252"/>
     </row>
     <row r="38" spans="3:39" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="483"/>
-      <c r="H38" s="483"/>
-      <c r="I38" s="483"/>
-      <c r="J38" s="483"/>
-      <c r="K38" s="483"/>
-      <c r="L38" s="483"/>
-      <c r="M38" s="483"/>
-      <c r="N38" s="483"/>
-      <c r="O38" s="483"/>
-      <c r="P38" s="483"/>
-      <c r="Q38" s="483"/>
-      <c r="R38" s="483"/>
-      <c r="S38" s="483"/>
-      <c r="T38" s="483"/>
-      <c r="U38" s="483"/>
-      <c r="V38" s="483"/>
-      <c r="W38" s="483"/>
-      <c r="X38" s="483"/>
+      <c r="G38" s="491"/>
+      <c r="H38" s="491"/>
+      <c r="I38" s="491"/>
+      <c r="J38" s="491"/>
+      <c r="K38" s="491"/>
+      <c r="L38" s="491"/>
+      <c r="M38" s="491"/>
+      <c r="N38" s="491"/>
+      <c r="O38" s="491"/>
+      <c r="P38" s="491"/>
+      <c r="Q38" s="491"/>
+      <c r="R38" s="491"/>
+      <c r="S38" s="491"/>
+      <c r="T38" s="491"/>
+      <c r="U38" s="491"/>
+      <c r="V38" s="491"/>
+      <c r="W38" s="491"/>
+      <c r="X38" s="491"/>
       <c r="AM38" s="252"/>
     </row>
     <row r="39" spans="3:39" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="483"/>
-      <c r="H39" s="483"/>
-      <c r="I39" s="483"/>
-      <c r="J39" s="483"/>
-      <c r="K39" s="483"/>
-      <c r="L39" s="483"/>
-      <c r="M39" s="483"/>
-      <c r="N39" s="483"/>
-      <c r="O39" s="483"/>
-      <c r="P39" s="483"/>
-      <c r="Q39" s="483"/>
-      <c r="R39" s="483"/>
-      <c r="S39" s="483"/>
-      <c r="T39" s="483"/>
-      <c r="U39" s="483"/>
-      <c r="V39" s="483"/>
-      <c r="W39" s="483"/>
-      <c r="X39" s="483"/>
+      <c r="G39" s="491"/>
+      <c r="H39" s="491"/>
+      <c r="I39" s="491"/>
+      <c r="J39" s="491"/>
+      <c r="K39" s="491"/>
+      <c r="L39" s="491"/>
+      <c r="M39" s="491"/>
+      <c r="N39" s="491"/>
+      <c r="O39" s="491"/>
+      <c r="P39" s="491"/>
+      <c r="Q39" s="491"/>
+      <c r="R39" s="491"/>
+      <c r="S39" s="491"/>
+      <c r="T39" s="491"/>
+      <c r="U39" s="491"/>
+      <c r="V39" s="491"/>
+      <c r="W39" s="491"/>
+      <c r="X39" s="491"/>
       <c r="AM39" s="252"/>
     </row>
     <row r="40" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C40" s="213"/>
       <c r="D40" s="213"/>
-      <c r="G40" s="483"/>
-      <c r="H40" s="483"/>
-      <c r="I40" s="483"/>
-      <c r="J40" s="483"/>
-      <c r="K40" s="483"/>
-      <c r="L40" s="483"/>
-      <c r="M40" s="483"/>
-      <c r="N40" s="483"/>
-      <c r="O40" s="483"/>
-      <c r="P40" s="483"/>
-      <c r="Q40" s="483"/>
-      <c r="R40" s="483"/>
-      <c r="S40" s="483"/>
-      <c r="T40" s="483"/>
-      <c r="U40" s="483"/>
-      <c r="V40" s="483"/>
-      <c r="W40" s="483"/>
-      <c r="X40" s="483"/>
+      <c r="G40" s="491"/>
+      <c r="H40" s="491"/>
+      <c r="I40" s="491"/>
+      <c r="J40" s="491"/>
+      <c r="K40" s="491"/>
+      <c r="L40" s="491"/>
+      <c r="M40" s="491"/>
+      <c r="N40" s="491"/>
+      <c r="O40" s="491"/>
+      <c r="P40" s="491"/>
+      <c r="Q40" s="491"/>
+      <c r="R40" s="491"/>
+      <c r="S40" s="491"/>
+      <c r="T40" s="491"/>
+      <c r="U40" s="491"/>
+      <c r="V40" s="491"/>
+      <c r="W40" s="491"/>
+      <c r="X40" s="491"/>
       <c r="AM40" s="213"/>
     </row>
     <row r="41" spans="3:39" x14ac:dyDescent="0.25">
@@ -11521,13 +11521,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -11544,6 +11537,13 @@
     <mergeCell ref="AC19:AL19"/>
     <mergeCell ref="Z6:AE6"/>
     <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 11_2020.xlsx
@@ -919,13 +919,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="51" x14ac:knownFonts="1">
     <font>
@@ -1556,9 +1556,9 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -1602,7 +1602,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1616,14 +1616,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1635,15 +1635,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1675,10 +1675,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1690,10 +1690,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1702,16 +1702,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1726,7 +1726,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1736,12 +1736,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1750,7 +1750,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1765,50 +1765,50 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1816,10 +1816,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1828,25 +1828,25 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1854,24 +1854,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1880,13 +1880,13 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="29" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1898,10 +1898,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1929,38 +1929,38 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1970,7 +1970,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1981,7 +1981,7 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -2004,12 +2004,12 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2018,36 +2018,36 @@
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2120,7 +2120,7 @@
     <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="41" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2129,19 +2129,19 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="41" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="39" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="39" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="41" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2153,7 +2153,7 @@
     <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2181,27 +2181,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2209,7 +2209,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2222,7 +2222,7 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2243,7 +2243,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2258,7 +2258,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2267,13 +2267,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2282,46 +2282,46 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2340,8 +2340,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="24" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2350,7 +2350,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2377,22 +2377,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2401,13 +2401,13 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2416,13 +2416,13 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2443,7 +2443,7 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2461,30 +2461,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2511,16 +2514,76 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2532,116 +2595,80 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2661,7 +2688,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2670,37 +2697,13 @@
     <xf numFmtId="9" fontId="23" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2709,10 +2712,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2727,70 +2796,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2835,30 +2862,6 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2912,9 +2915,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3229,7 +3229,7 @@
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -3297,16 +3297,16 @@
       <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="384" t="s">
+      <c r="A3" s="385" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="384"/>
-      <c r="C3" s="384"/>
-      <c r="D3" s="384"/>
-      <c r="E3" s="384"/>
-      <c r="F3" s="384"/>
-      <c r="G3" s="384"/>
-      <c r="H3" s="384"/>
+      <c r="B3" s="385"/>
+      <c r="C3" s="385"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="385"/>
+      <c r="F3" s="385"/>
+      <c r="G3" s="385"/>
+      <c r="H3" s="385"/>
       <c r="I3" s="107"/>
       <c r="J3" s="107"/>
       <c r="K3" s="107"/>
@@ -3318,32 +3318,32 @@
       <c r="Q3" s="107"/>
     </row>
     <row r="4" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="385" t="s">
+      <c r="A4" s="386" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="385" t="s">
+      <c r="B4" s="386" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="385" t="s">
+      <c r="C4" s="386" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="386" t="s">
+      <c r="D4" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="387" t="s">
+      <c r="E4" s="388" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="387"/>
-      <c r="G4" s="387" t="s">
+      <c r="F4" s="388"/>
+      <c r="G4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="387"/>
+      <c r="H4" s="388"/>
     </row>
     <row r="5" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="385"/>
-      <c r="B5" s="385"/>
-      <c r="C5" s="385"/>
-      <c r="D5" s="386"/>
+      <c r="A5" s="386"/>
+      <c r="B5" s="386"/>
+      <c r="C5" s="386"/>
+      <c r="D5" s="387"/>
       <c r="E5" s="204" t="s">
         <v>80</v>
       </c>
@@ -3766,8 +3766,8 @@
         <v>3000000</v>
       </c>
       <c r="H25" s="110"/>
-      <c r="K25" s="378"/>
-      <c r="L25" s="379"/>
+      <c r="K25" s="379"/>
+      <c r="L25" s="380"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="92">
@@ -4608,12 +4608,12 @@
       <c r="H86" s="110"/>
     </row>
     <row r="87" spans="1:10" s="113" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="381" t="s">
+      <c r="A87" s="382" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="382"/>
-      <c r="C87" s="382"/>
-      <c r="D87" s="383"/>
+      <c r="B87" s="383"/>
+      <c r="C87" s="383"/>
+      <c r="D87" s="384"/>
       <c r="E87" s="112">
         <f>SUM(E9:E86)</f>
         <v>231397300</v>
@@ -4644,11 +4644,11 @@
       <c r="J88" s="114"/>
     </row>
     <row r="89" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="380" t="s">
+      <c r="A89" s="381" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="380"/>
-      <c r="C89" s="380"/>
+      <c r="B89" s="381"/>
+      <c r="C89" s="381"/>
       <c r="D89" s="115"/>
       <c r="E89" s="116"/>
       <c r="F89" s="116"/>
@@ -4737,13 +4737,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="396" t="s">
+      <c r="A1" s="429" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
-      <c r="E1" s="396"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
       <c r="H1" s="124"/>
       <c r="I1" s="124"/>
       <c r="J1" s="124"/>
@@ -4773,153 +4773,153 @@
       <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="397" t="s">
+      <c r="A3" s="430" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="397"/>
-      <c r="C3" s="397"/>
-      <c r="D3" s="397"/>
-      <c r="E3" s="397"/>
-      <c r="F3" s="397"/>
-      <c r="G3" s="397"/>
-      <c r="H3" s="397"/>
-      <c r="I3" s="397"/>
-      <c r="J3" s="397"/>
-      <c r="K3" s="397"/>
-      <c r="L3" s="397"/>
-      <c r="M3" s="397"/>
-      <c r="N3" s="397"/>
-      <c r="O3" s="397"/>
-      <c r="P3" s="397"/>
+      <c r="B3" s="430"/>
+      <c r="C3" s="430"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="430"/>
+      <c r="F3" s="430"/>
+      <c r="G3" s="430"/>
+      <c r="H3" s="430"/>
+      <c r="I3" s="430"/>
+      <c r="J3" s="430"/>
+      <c r="K3" s="430"/>
+      <c r="L3" s="430"/>
+      <c r="M3" s="430"/>
+      <c r="N3" s="430"/>
+      <c r="O3" s="430"/>
+      <c r="P3" s="430"/>
     </row>
     <row r="4" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="397" t="s">
+      <c r="A4" s="430" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="397"/>
-      <c r="C4" s="397"/>
-      <c r="D4" s="397"/>
-      <c r="E4" s="397"/>
-      <c r="F4" s="397"/>
-      <c r="G4" s="397"/>
-      <c r="H4" s="397"/>
-      <c r="I4" s="397"/>
-      <c r="J4" s="397"/>
-      <c r="K4" s="397"/>
-      <c r="L4" s="397"/>
-      <c r="M4" s="397"/>
-      <c r="N4" s="397"/>
-      <c r="O4" s="397"/>
-      <c r="P4" s="397"/>
+      <c r="B4" s="430"/>
+      <c r="C4" s="430"/>
+      <c r="D4" s="430"/>
+      <c r="E4" s="430"/>
+      <c r="F4" s="430"/>
+      <c r="G4" s="430"/>
+      <c r="H4" s="430"/>
+      <c r="I4" s="430"/>
+      <c r="J4" s="430"/>
+      <c r="K4" s="430"/>
+      <c r="L4" s="430"/>
+      <c r="M4" s="430"/>
+      <c r="N4" s="430"/>
+      <c r="O4" s="430"/>
+      <c r="P4" s="430"/>
     </row>
     <row r="5" spans="1:16" s="123" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="407" t="s">
+      <c r="A5" s="423" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="408" t="s">
+      <c r="B5" s="424" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="407" t="s">
+      <c r="C5" s="423" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="407" t="s">
+      <c r="D5" s="423" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="407"/>
-      <c r="F5" s="399" t="s">
+      <c r="E5" s="423"/>
+      <c r="F5" s="425" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="399"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="399"/>
-      <c r="J5" s="399"/>
-      <c r="K5" s="399"/>
-      <c r="L5" s="399"/>
-      <c r="M5" s="398" t="s">
+      <c r="G5" s="425"/>
+      <c r="H5" s="425"/>
+      <c r="I5" s="425"/>
+      <c r="J5" s="425"/>
+      <c r="K5" s="425"/>
+      <c r="L5" s="425"/>
+      <c r="M5" s="431" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="398"/>
-      <c r="O5" s="398"/>
-      <c r="P5" s="399" t="s">
+      <c r="N5" s="431"/>
+      <c r="O5" s="431"/>
+      <c r="P5" s="425" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="123" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="407"/>
-      <c r="B6" s="408"/>
-      <c r="C6" s="407"/>
-      <c r="D6" s="407" t="s">
+      <c r="A6" s="423"/>
+      <c r="B6" s="424"/>
+      <c r="C6" s="423"/>
+      <c r="D6" s="423" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="407" t="s">
+      <c r="E6" s="423" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="407" t="s">
+      <c r="F6" s="423" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="407" t="s">
+      <c r="G6" s="423" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="400" t="s">
+      <c r="H6" s="426" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="400" t="s">
+      <c r="I6" s="426" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="409" t="s">
+      <c r="J6" s="427" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="409"/>
-      <c r="L6" s="400" t="s">
+      <c r="K6" s="427"/>
+      <c r="L6" s="426" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="400" t="s">
+      <c r="M6" s="426" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="400" t="s">
+      <c r="N6" s="426" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="400" t="s">
+      <c r="O6" s="426" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="399"/>
+      <c r="P6" s="425"/>
     </row>
     <row r="7" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="407"/>
-      <c r="B7" s="408"/>
-      <c r="C7" s="407"/>
-      <c r="D7" s="407"/>
-      <c r="E7" s="407"/>
-      <c r="F7" s="407"/>
-      <c r="G7" s="407"/>
-      <c r="H7" s="400"/>
-      <c r="I7" s="400"/>
+      <c r="A7" s="423"/>
+      <c r="B7" s="424"/>
+      <c r="C7" s="423"/>
+      <c r="D7" s="423"/>
+      <c r="E7" s="423"/>
+      <c r="F7" s="423"/>
+      <c r="G7" s="423"/>
+      <c r="H7" s="426"/>
+      <c r="I7" s="426"/>
       <c r="J7" s="205" t="s">
         <v>83</v>
       </c>
       <c r="K7" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="400"/>
-      <c r="M7" s="400"/>
-      <c r="N7" s="400"/>
-      <c r="O7" s="400"/>
-      <c r="P7" s="399"/>
+      <c r="L7" s="426"/>
+      <c r="M7" s="426"/>
+      <c r="N7" s="426"/>
+      <c r="O7" s="426"/>
+      <c r="P7" s="425"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="391">
+      <c r="A8" s="412">
         <v>1219</v>
       </c>
-      <c r="B8" s="388">
+      <c r="B8" s="409">
         <v>44138</v>
       </c>
-      <c r="C8" s="391" t="s">
+      <c r="C8" s="412" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="391" t="s">
+      <c r="D8" s="412" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="391" t="s">
+      <c r="E8" s="412" t="s">
         <v>157</v>
       </c>
       <c r="F8" s="161" t="s">
@@ -4952,11 +4952,11 @@
       <c r="P8" s="161"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="392"/>
-      <c r="B9" s="389"/>
-      <c r="C9" s="392"/>
-      <c r="D9" s="392"/>
-      <c r="E9" s="392"/>
+      <c r="A9" s="413"/>
+      <c r="B9" s="410"/>
+      <c r="C9" s="413"/>
+      <c r="D9" s="413"/>
+      <c r="E9" s="413"/>
       <c r="F9" s="173" t="s">
         <v>159</v>
       </c>
@@ -4987,11 +4987,11 @@
       <c r="P9" s="173"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="392"/>
-      <c r="B10" s="389"/>
-      <c r="C10" s="392"/>
-      <c r="D10" s="392"/>
-      <c r="E10" s="392"/>
+      <c r="A10" s="413"/>
+      <c r="B10" s="410"/>
+      <c r="C10" s="413"/>
+      <c r="D10" s="413"/>
+      <c r="E10" s="413"/>
       <c r="F10" s="173" t="s">
         <v>160</v>
       </c>
@@ -5022,11 +5022,11 @@
       <c r="P10" s="173"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="392"/>
-      <c r="B11" s="389"/>
-      <c r="C11" s="392"/>
-      <c r="D11" s="392"/>
-      <c r="E11" s="392"/>
+      <c r="A11" s="413"/>
+      <c r="B11" s="410"/>
+      <c r="C11" s="413"/>
+      <c r="D11" s="413"/>
+      <c r="E11" s="413"/>
       <c r="F11" s="173" t="s">
         <v>161</v>
       </c>
@@ -5057,11 +5057,11 @@
       <c r="P11" s="173"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="393"/>
-      <c r="B12" s="390"/>
-      <c r="C12" s="393"/>
-      <c r="D12" s="393"/>
-      <c r="E12" s="393"/>
+      <c r="A12" s="414"/>
+      <c r="B12" s="411"/>
+      <c r="C12" s="414"/>
+      <c r="D12" s="414"/>
+      <c r="E12" s="414"/>
       <c r="F12" s="164" t="s">
         <v>162</v>
       </c>
@@ -5092,19 +5092,19 @@
       <c r="P12" s="167"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="401">
+      <c r="A13" s="415">
         <v>1216</v>
       </c>
-      <c r="B13" s="403">
+      <c r="B13" s="417">
         <v>44137</v>
       </c>
-      <c r="C13" s="401" t="s">
+      <c r="C13" s="415" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="401" t="s">
+      <c r="D13" s="415" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="401" t="s">
+      <c r="E13" s="415" t="s">
         <v>164</v>
       </c>
       <c r="F13" s="206" t="s">
@@ -5137,11 +5137,11 @@
       <c r="P13" s="336"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="402"/>
-      <c r="B14" s="404"/>
-      <c r="C14" s="402"/>
-      <c r="D14" s="402"/>
-      <c r="E14" s="402"/>
+      <c r="A14" s="390"/>
+      <c r="B14" s="405"/>
+      <c r="C14" s="390"/>
+      <c r="D14" s="390"/>
+      <c r="E14" s="390"/>
       <c r="F14" s="338" t="s">
         <v>165</v>
       </c>
@@ -5215,17 +5215,17 @@
       <c r="P15" s="168"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="402">
+      <c r="A16" s="390">
         <v>1221</v>
       </c>
-      <c r="B16" s="404">
+      <c r="B16" s="405">
         <v>44139</v>
       </c>
-      <c r="C16" s="402"/>
-      <c r="D16" s="402" t="s">
+      <c r="C16" s="390"/>
+      <c r="D16" s="390" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="402" t="s">
+      <c r="E16" s="390" t="s">
         <v>173</v>
       </c>
       <c r="F16" s="206" t="s">
@@ -5260,11 +5260,11 @@
       <c r="P16" s="206"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="402"/>
-      <c r="B17" s="404"/>
-      <c r="C17" s="402"/>
-      <c r="D17" s="402"/>
-      <c r="E17" s="402"/>
+      <c r="A17" s="390"/>
+      <c r="B17" s="405"/>
+      <c r="C17" s="390"/>
+      <c r="D17" s="390"/>
+      <c r="E17" s="390"/>
       <c r="F17" s="173" t="s">
         <v>174</v>
       </c>
@@ -5383,19 +5383,19 @@
       <c r="P19" s="155"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="401">
+      <c r="A20" s="415">
         <v>1225</v>
       </c>
-      <c r="B20" s="403">
+      <c r="B20" s="417">
         <v>44143</v>
       </c>
-      <c r="C20" s="401" t="s">
+      <c r="C20" s="415" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="401" t="s">
+      <c r="D20" s="415" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="401" t="s">
+      <c r="E20" s="415" t="s">
         <v>185</v>
       </c>
       <c r="F20" s="206" t="s">
@@ -5428,11 +5428,11 @@
       <c r="P20" s="206"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="402"/>
-      <c r="B21" s="404"/>
-      <c r="C21" s="402"/>
-      <c r="D21" s="402"/>
-      <c r="E21" s="402"/>
+      <c r="A21" s="390"/>
+      <c r="B21" s="405"/>
+      <c r="C21" s="390"/>
+      <c r="D21" s="390"/>
+      <c r="E21" s="390"/>
       <c r="F21" s="169" t="s">
         <v>186</v>
       </c>
@@ -5463,11 +5463,11 @@
       <c r="P21" s="169"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="402"/>
-      <c r="B22" s="404"/>
-      <c r="C22" s="402"/>
-      <c r="D22" s="402"/>
-      <c r="E22" s="402"/>
+      <c r="A22" s="390"/>
+      <c r="B22" s="405"/>
+      <c r="C22" s="390"/>
+      <c r="D22" s="390"/>
+      <c r="E22" s="390"/>
       <c r="F22" s="344" t="s">
         <v>165</v>
       </c>
@@ -5586,19 +5586,19 @@
       <c r="P24" s="349"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="401">
+      <c r="A25" s="415">
         <v>1228</v>
       </c>
-      <c r="B25" s="403">
+      <c r="B25" s="417">
         <v>44145</v>
       </c>
-      <c r="C25" s="401" t="s">
+      <c r="C25" s="415" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="411" t="s">
+      <c r="D25" s="418" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="401" t="s">
+      <c r="E25" s="415" t="s">
         <v>192</v>
       </c>
       <c r="F25" s="335" t="s">
@@ -5628,16 +5628,16 @@
         <f t="shared" si="4"/>
         <v>33852000</v>
       </c>
-      <c r="P25" s="401" t="s">
+      <c r="P25" s="415" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="402"/>
-      <c r="B26" s="404"/>
-      <c r="C26" s="402"/>
-      <c r="D26" s="412"/>
-      <c r="E26" s="402"/>
+      <c r="A26" s="390"/>
+      <c r="B26" s="405"/>
+      <c r="C26" s="390"/>
+      <c r="D26" s="402"/>
+      <c r="E26" s="390"/>
       <c r="F26" s="169" t="s">
         <v>174</v>
       </c>
@@ -5665,14 +5665,14 @@
         <f t="shared" si="4"/>
         <v>3459600</v>
       </c>
-      <c r="P26" s="402"/>
+      <c r="P26" s="390"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="402"/>
-      <c r="B27" s="404"/>
-      <c r="C27" s="402"/>
-      <c r="D27" s="412"/>
-      <c r="E27" s="402"/>
+      <c r="A27" s="390"/>
+      <c r="B27" s="405"/>
+      <c r="C27" s="390"/>
+      <c r="D27" s="402"/>
+      <c r="E27" s="390"/>
       <c r="F27" s="169" t="s">
         <v>193</v>
       </c>
@@ -5700,14 +5700,14 @@
         <f t="shared" si="4"/>
         <v>3534000</v>
       </c>
-      <c r="P27" s="402"/>
+      <c r="P27" s="390"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="402"/>
-      <c r="B28" s="404"/>
-      <c r="C28" s="402"/>
-      <c r="D28" s="412"/>
-      <c r="E28" s="402"/>
+      <c r="A28" s="390"/>
+      <c r="B28" s="405"/>
+      <c r="C28" s="390"/>
+      <c r="D28" s="402"/>
+      <c r="E28" s="390"/>
       <c r="F28" s="173" t="s">
         <v>161</v>
       </c>
@@ -5735,14 +5735,14 @@
         <f t="shared" si="4"/>
         <v>21650400</v>
       </c>
-      <c r="P28" s="402"/>
+      <c r="P28" s="390"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="402"/>
-      <c r="B29" s="404"/>
-      <c r="C29" s="402"/>
-      <c r="D29" s="412"/>
-      <c r="E29" s="402"/>
+      <c r="A29" s="390"/>
+      <c r="B29" s="405"/>
+      <c r="C29" s="390"/>
+      <c r="D29" s="402"/>
+      <c r="E29" s="390"/>
       <c r="F29" s="338" t="s">
         <v>168</v>
       </c>
@@ -5770,22 +5770,22 @@
         <f t="shared" si="4"/>
         <v>3385200</v>
       </c>
-      <c r="P29" s="405"/>
+      <c r="P29" s="416"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="401">
+      <c r="A30" s="415">
         <v>1230</v>
       </c>
-      <c r="B30" s="403">
+      <c r="B30" s="417">
         <v>44146</v>
       </c>
-      <c r="C30" s="401" t="s">
+      <c r="C30" s="415" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="401" t="s">
+      <c r="D30" s="415" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="401" t="s">
+      <c r="E30" s="415" t="s">
         <v>192</v>
       </c>
       <c r="F30" s="161" t="s">
@@ -5815,16 +5815,16 @@
         <f t="shared" si="4"/>
         <v>16740000</v>
       </c>
-      <c r="P30" s="401" t="s">
+      <c r="P30" s="415" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="402"/>
-      <c r="B31" s="404"/>
-      <c r="C31" s="402"/>
-      <c r="D31" s="402"/>
-      <c r="E31" s="402"/>
+      <c r="A31" s="390"/>
+      <c r="B31" s="405"/>
+      <c r="C31" s="390"/>
+      <c r="D31" s="390"/>
+      <c r="E31" s="390"/>
       <c r="F31" s="173" t="s">
         <v>159</v>
       </c>
@@ -5852,14 +5852,14 @@
         <f t="shared" si="4"/>
         <v>6770400</v>
       </c>
-      <c r="P31" s="402"/>
+      <c r="P31" s="390"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="402"/>
-      <c r="B32" s="404"/>
-      <c r="C32" s="402"/>
-      <c r="D32" s="402"/>
-      <c r="E32" s="402"/>
+      <c r="A32" s="390"/>
+      <c r="B32" s="405"/>
+      <c r="C32" s="390"/>
+      <c r="D32" s="390"/>
+      <c r="E32" s="390"/>
       <c r="F32" s="173" t="s">
         <v>174</v>
       </c>
@@ -5887,14 +5887,14 @@
         <f t="shared" si="4"/>
         <v>6919200</v>
       </c>
-      <c r="P32" s="402"/>
+      <c r="P32" s="390"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="402"/>
-      <c r="B33" s="404"/>
-      <c r="C33" s="402"/>
-      <c r="D33" s="402"/>
-      <c r="E33" s="402"/>
+      <c r="A33" s="390"/>
+      <c r="B33" s="405"/>
+      <c r="C33" s="390"/>
+      <c r="D33" s="390"/>
+      <c r="E33" s="390"/>
       <c r="F33" s="173" t="s">
         <v>193</v>
       </c>
@@ -5922,14 +5922,14 @@
         <f t="shared" si="4"/>
         <v>7068000</v>
       </c>
-      <c r="P33" s="402"/>
+      <c r="P33" s="390"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="402"/>
-      <c r="B34" s="404"/>
-      <c r="C34" s="402"/>
-      <c r="D34" s="402"/>
-      <c r="E34" s="402"/>
+      <c r="A34" s="390"/>
+      <c r="B34" s="405"/>
+      <c r="C34" s="390"/>
+      <c r="D34" s="390"/>
+      <c r="E34" s="390"/>
       <c r="F34" s="173" t="s">
         <v>194</v>
       </c>
@@ -5957,14 +5957,14 @@
         <f t="shared" si="4"/>
         <v>3794400</v>
       </c>
-      <c r="P34" s="402"/>
+      <c r="P34" s="390"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="402"/>
-      <c r="B35" s="404"/>
-      <c r="C35" s="402"/>
-      <c r="D35" s="402"/>
-      <c r="E35" s="402"/>
+      <c r="A35" s="390"/>
+      <c r="B35" s="405"/>
+      <c r="C35" s="390"/>
+      <c r="D35" s="390"/>
+      <c r="E35" s="390"/>
       <c r="F35" s="173" t="s">
         <v>161</v>
       </c>
@@ -5992,14 +5992,14 @@
         <f t="shared" si="4"/>
         <v>14433600</v>
       </c>
-      <c r="P35" s="402"/>
+      <c r="P35" s="390"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="402"/>
-      <c r="B36" s="404"/>
-      <c r="C36" s="402"/>
-      <c r="D36" s="402"/>
-      <c r="E36" s="402"/>
+      <c r="A36" s="390"/>
+      <c r="B36" s="405"/>
+      <c r="C36" s="390"/>
+      <c r="D36" s="390"/>
+      <c r="E36" s="390"/>
       <c r="F36" s="173" t="s">
         <v>195</v>
       </c>
@@ -6027,14 +6027,14 @@
         <f t="shared" si="4"/>
         <v>32736000</v>
       </c>
-      <c r="P36" s="402"/>
+      <c r="P36" s="390"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="402"/>
-      <c r="B37" s="404"/>
-      <c r="C37" s="402"/>
-      <c r="D37" s="402"/>
-      <c r="E37" s="402"/>
+      <c r="A37" s="390"/>
+      <c r="B37" s="405"/>
+      <c r="C37" s="390"/>
+      <c r="D37" s="390"/>
+      <c r="E37" s="390"/>
       <c r="F37" s="338" t="s">
         <v>165</v>
       </c>
@@ -6062,20 +6062,20 @@
         <f t="shared" si="4"/>
         <v>16926000</v>
       </c>
-      <c r="P37" s="402"/>
+      <c r="P37" s="390"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="391">
+      <c r="A38" s="412">
         <v>1233</v>
       </c>
-      <c r="B38" s="388">
+      <c r="B38" s="409">
         <v>44150</v>
       </c>
-      <c r="C38" s="391"/>
-      <c r="D38" s="391" t="s">
+      <c r="C38" s="412"/>
+      <c r="D38" s="412" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="391" t="s">
+      <c r="E38" s="412" t="s">
         <v>173</v>
       </c>
       <c r="F38" s="161" t="s">
@@ -6110,11 +6110,11 @@
       <c r="P38" s="161"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="392"/>
-      <c r="B39" s="389"/>
-      <c r="C39" s="392"/>
-      <c r="D39" s="392"/>
-      <c r="E39" s="392"/>
+      <c r="A39" s="413"/>
+      <c r="B39" s="410"/>
+      <c r="C39" s="413"/>
+      <c r="D39" s="413"/>
+      <c r="E39" s="413"/>
       <c r="F39" s="173" t="s">
         <v>159</v>
       </c>
@@ -6145,11 +6145,11 @@
       <c r="P39" s="173"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="392"/>
-      <c r="B40" s="389"/>
-      <c r="C40" s="392"/>
-      <c r="D40" s="392"/>
-      <c r="E40" s="392"/>
+      <c r="A40" s="413"/>
+      <c r="B40" s="410"/>
+      <c r="C40" s="413"/>
+      <c r="D40" s="413"/>
+      <c r="E40" s="413"/>
       <c r="F40" s="173" t="s">
         <v>161</v>
       </c>
@@ -6180,11 +6180,11 @@
       <c r="P40" s="173"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="393"/>
-      <c r="B41" s="390"/>
-      <c r="C41" s="393"/>
-      <c r="D41" s="393"/>
-      <c r="E41" s="393"/>
+      <c r="A41" s="414"/>
+      <c r="B41" s="411"/>
+      <c r="C41" s="414"/>
+      <c r="D41" s="414"/>
+      <c r="E41" s="414"/>
       <c r="F41" s="164" t="s">
         <v>162</v>
       </c>
@@ -6215,19 +6215,19 @@
       <c r="P41" s="355"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="401">
+      <c r="A42" s="415">
         <v>1234</v>
       </c>
-      <c r="B42" s="403">
+      <c r="B42" s="417">
         <v>44150</v>
       </c>
-      <c r="C42" s="401" t="s">
+      <c r="C42" s="415" t="s">
         <v>188</v>
       </c>
-      <c r="D42" s="401" t="s">
+      <c r="D42" s="415" t="s">
         <v>198</v>
       </c>
-      <c r="E42" s="401" t="s">
+      <c r="E42" s="415" t="s">
         <v>199</v>
       </c>
       <c r="F42" s="206" t="s">
@@ -6260,11 +6260,11 @@
       <c r="P42" s="354"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="402"/>
-      <c r="B43" s="404"/>
-      <c r="C43" s="402"/>
-      <c r="D43" s="402"/>
-      <c r="E43" s="402"/>
+      <c r="A43" s="390"/>
+      <c r="B43" s="405"/>
+      <c r="C43" s="390"/>
+      <c r="D43" s="390"/>
+      <c r="E43" s="390"/>
       <c r="F43" s="338" t="s">
         <v>161</v>
       </c>
@@ -6295,19 +6295,19 @@
       <c r="P43" s="360"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="401">
+      <c r="A44" s="415">
         <v>1235</v>
       </c>
-      <c r="B44" s="403">
+      <c r="B44" s="417">
         <v>44150</v>
       </c>
-      <c r="C44" s="401" t="s">
+      <c r="C44" s="415" t="s">
         <v>188</v>
       </c>
-      <c r="D44" s="411" t="s">
+      <c r="D44" s="418" t="s">
         <v>191</v>
       </c>
-      <c r="E44" s="401" t="s">
+      <c r="E44" s="415" t="s">
         <v>192</v>
       </c>
       <c r="F44" s="161" t="s">
@@ -6340,11 +6340,11 @@
       <c r="P44" s="361"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="402"/>
-      <c r="B45" s="404"/>
-      <c r="C45" s="402"/>
-      <c r="D45" s="412"/>
-      <c r="E45" s="402"/>
+      <c r="A45" s="390"/>
+      <c r="B45" s="405"/>
+      <c r="C45" s="390"/>
+      <c r="D45" s="402"/>
+      <c r="E45" s="390"/>
       <c r="F45" s="173" t="s">
         <v>162</v>
       </c>
@@ -6375,11 +6375,11 @@
       <c r="P45" s="198"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="405"/>
-      <c r="B46" s="410"/>
-      <c r="C46" s="405"/>
-      <c r="D46" s="413"/>
-      <c r="E46" s="405"/>
+      <c r="A46" s="416"/>
+      <c r="B46" s="419"/>
+      <c r="C46" s="416"/>
+      <c r="D46" s="420"/>
+      <c r="E46" s="416"/>
       <c r="F46" s="164" t="s">
         <v>168</v>
       </c>
@@ -6502,17 +6502,17 @@
       <c r="P48" s="155"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="402">
+      <c r="A49" s="390">
         <v>1238</v>
       </c>
-      <c r="B49" s="404">
+      <c r="B49" s="405">
         <v>44153</v>
       </c>
-      <c r="C49" s="402"/>
-      <c r="D49" s="402" t="s">
+      <c r="C49" s="390"/>
+      <c r="D49" s="390" t="s">
         <v>203</v>
       </c>
-      <c r="E49" s="402"/>
+      <c r="E49" s="390"/>
       <c r="F49" s="206" t="s">
         <v>159</v>
       </c>
@@ -6543,11 +6543,11 @@
       <c r="P49" s="354"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="402"/>
-      <c r="B50" s="404"/>
-      <c r="C50" s="402"/>
-      <c r="D50" s="402"/>
-      <c r="E50" s="402"/>
+      <c r="A50" s="390"/>
+      <c r="B50" s="405"/>
+      <c r="C50" s="390"/>
+      <c r="D50" s="390"/>
+      <c r="E50" s="390"/>
       <c r="F50" s="338" t="s">
         <v>161</v>
       </c>
@@ -6578,17 +6578,17 @@
       <c r="P50" s="360"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="391">
+      <c r="A51" s="412">
         <v>1239</v>
       </c>
-      <c r="B51" s="388">
+      <c r="B51" s="409">
         <v>44153</v>
       </c>
-      <c r="C51" s="391"/>
-      <c r="D51" s="391" t="s">
+      <c r="C51" s="412"/>
+      <c r="D51" s="412" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="391"/>
+      <c r="E51" s="412"/>
       <c r="F51" s="161" t="s">
         <v>193</v>
       </c>
@@ -6619,11 +6619,11 @@
       <c r="P51" s="361"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="392"/>
-      <c r="B52" s="389"/>
-      <c r="C52" s="392"/>
-      <c r="D52" s="392"/>
-      <c r="E52" s="392"/>
+      <c r="A52" s="413"/>
+      <c r="B52" s="410"/>
+      <c r="C52" s="413"/>
+      <c r="D52" s="413"/>
+      <c r="E52" s="413"/>
       <c r="F52" s="173" t="s">
         <v>161</v>
       </c>
@@ -6654,11 +6654,11 @@
       <c r="P52" s="198"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="392"/>
-      <c r="B53" s="389"/>
-      <c r="C53" s="392"/>
-      <c r="D53" s="392"/>
-      <c r="E53" s="392"/>
+      <c r="A53" s="413"/>
+      <c r="B53" s="410"/>
+      <c r="C53" s="413"/>
+      <c r="D53" s="413"/>
+      <c r="E53" s="413"/>
       <c r="F53" s="173" t="s">
         <v>195</v>
       </c>
@@ -6689,11 +6689,11 @@
       <c r="P53" s="173"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="393"/>
-      <c r="B54" s="390"/>
-      <c r="C54" s="393"/>
-      <c r="D54" s="393"/>
-      <c r="E54" s="393"/>
+      <c r="A54" s="414"/>
+      <c r="B54" s="411"/>
+      <c r="C54" s="414"/>
+      <c r="D54" s="414"/>
+      <c r="E54" s="414"/>
       <c r="F54" s="164" t="s">
         <v>165</v>
       </c>
@@ -6724,19 +6724,19 @@
       <c r="P54" s="164"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="391">
+      <c r="A55" s="412">
         <v>1242</v>
       </c>
-      <c r="B55" s="388">
+      <c r="B55" s="409">
         <v>44154</v>
       </c>
-      <c r="C55" s="391" t="s">
+      <c r="C55" s="412" t="s">
         <v>205</v>
       </c>
-      <c r="D55" s="391" t="s">
+      <c r="D55" s="412" t="s">
         <v>206</v>
       </c>
-      <c r="E55" s="391"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="161" t="s">
         <v>161</v>
       </c>
@@ -6767,11 +6767,11 @@
       <c r="P55" s="161"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="392"/>
-      <c r="B56" s="389"/>
-      <c r="C56" s="392"/>
-      <c r="D56" s="392"/>
-      <c r="E56" s="392"/>
+      <c r="A56" s="413"/>
+      <c r="B56" s="410"/>
+      <c r="C56" s="413"/>
+      <c r="D56" s="413"/>
+      <c r="E56" s="413"/>
       <c r="F56" s="173" t="s">
         <v>165</v>
       </c>
@@ -6802,11 +6802,11 @@
       <c r="P56" s="173"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="393"/>
-      <c r="B57" s="390"/>
-      <c r="C57" s="393"/>
-      <c r="D57" s="393"/>
-      <c r="E57" s="393"/>
+      <c r="A57" s="414"/>
+      <c r="B57" s="411"/>
+      <c r="C57" s="414"/>
+      <c r="D57" s="414"/>
+      <c r="E57" s="414"/>
       <c r="F57" s="164" t="s">
         <v>168</v>
       </c>
@@ -6919,19 +6919,19 @@
       <c r="P59" s="173"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="414">
+      <c r="A60" s="389">
         <v>1247</v>
       </c>
-      <c r="B60" s="416">
+      <c r="B60" s="404">
         <v>44155</v>
       </c>
-      <c r="C60" s="414" t="s">
+      <c r="C60" s="389" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="414" t="s">
+      <c r="D60" s="389" t="s">
         <v>210</v>
       </c>
-      <c r="E60" s="414"/>
+      <c r="E60" s="389"/>
       <c r="F60" s="173" t="s">
         <v>208</v>
       </c>
@@ -6962,11 +6962,11 @@
       <c r="P60" s="173"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="415"/>
-      <c r="B61" s="417"/>
-      <c r="C61" s="415"/>
-      <c r="D61" s="415"/>
-      <c r="E61" s="415"/>
+      <c r="A61" s="391"/>
+      <c r="B61" s="406"/>
+      <c r="C61" s="391"/>
+      <c r="D61" s="391"/>
+      <c r="E61" s="391"/>
       <c r="F61" s="173" t="s">
         <v>162</v>
       </c>
@@ -6997,19 +6997,19 @@
       <c r="P61" s="173"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="414">
+      <c r="A62" s="389">
         <v>1249</v>
       </c>
-      <c r="B62" s="416">
+      <c r="B62" s="404">
         <v>44155</v>
       </c>
-      <c r="C62" s="414" t="s">
+      <c r="C62" s="389" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="414" t="s">
+      <c r="D62" s="389" t="s">
         <v>188</v>
       </c>
-      <c r="E62" s="414"/>
+      <c r="E62" s="389"/>
       <c r="F62" s="173" t="s">
         <v>160</v>
       </c>
@@ -7040,11 +7040,11 @@
       <c r="P62" s="173"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="415"/>
-      <c r="B63" s="417"/>
-      <c r="C63" s="415"/>
-      <c r="D63" s="415"/>
-      <c r="E63" s="415"/>
+      <c r="A63" s="391"/>
+      <c r="B63" s="406"/>
+      <c r="C63" s="391"/>
+      <c r="D63" s="391"/>
+      <c r="E63" s="391"/>
       <c r="F63" s="173" t="s">
         <v>174</v>
       </c>
@@ -7163,19 +7163,19 @@
       <c r="P65" s="173"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="414">
+      <c r="A66" s="389">
         <v>1255</v>
       </c>
-      <c r="B66" s="416">
+      <c r="B66" s="404">
         <v>44160</v>
       </c>
-      <c r="C66" s="414" t="s">
+      <c r="C66" s="389" t="s">
         <v>155</v>
       </c>
-      <c r="D66" s="414" t="s">
+      <c r="D66" s="389" t="s">
         <v>216</v>
       </c>
-      <c r="E66" s="414" t="s">
+      <c r="E66" s="389" t="s">
         <v>217</v>
       </c>
       <c r="F66" s="173" t="s">
@@ -7205,16 +7205,16 @@
       </c>
       <c r="N66" s="174"/>
       <c r="O66" s="174"/>
-      <c r="P66" s="418" t="s">
+      <c r="P66" s="407" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="415"/>
-      <c r="B67" s="417"/>
-      <c r="C67" s="415"/>
-      <c r="D67" s="415"/>
-      <c r="E67" s="415"/>
+      <c r="A67" s="391"/>
+      <c r="B67" s="406"/>
+      <c r="C67" s="391"/>
+      <c r="D67" s="391"/>
+      <c r="E67" s="391"/>
       <c r="F67" s="173" t="s">
         <v>159</v>
       </c>
@@ -7242,20 +7242,20 @@
       </c>
       <c r="N67" s="174"/>
       <c r="O67" s="174"/>
-      <c r="P67" s="419"/>
+      <c r="P67" s="408"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="414">
+      <c r="A68" s="389">
         <v>1266</v>
       </c>
-      <c r="B68" s="416">
+      <c r="B68" s="404">
         <v>44165</v>
       </c>
-      <c r="C68" s="414"/>
-      <c r="D68" s="429" t="s">
+      <c r="C68" s="389"/>
+      <c r="D68" s="401" t="s">
         <v>262</v>
       </c>
-      <c r="E68" s="414"/>
+      <c r="E68" s="389"/>
       <c r="F68" s="173" t="s">
         <v>158</v>
       </c>
@@ -7269,15 +7269,15 @@
         <f t="shared" si="0"/>
         <v>675000</v>
       </c>
-      <c r="J68" s="420">
+      <c r="J68" s="392">
         <v>1619000</v>
       </c>
-      <c r="K68" s="423"/>
-      <c r="L68" s="426">
+      <c r="K68" s="395"/>
+      <c r="L68" s="398">
         <f>SUM(I68:I74)-J68</f>
         <v>8546000</v>
       </c>
-      <c r="M68" s="426">
+      <c r="M68" s="398">
         <f>L68</f>
         <v>8546000</v>
       </c>
@@ -7286,11 +7286,11 @@
       <c r="P68" s="173"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="402"/>
-      <c r="B69" s="404"/>
-      <c r="C69" s="402"/>
-      <c r="D69" s="412"/>
-      <c r="E69" s="402"/>
+      <c r="A69" s="390"/>
+      <c r="B69" s="405"/>
+      <c r="C69" s="390"/>
+      <c r="D69" s="402"/>
+      <c r="E69" s="390"/>
       <c r="F69" s="173" t="s">
         <v>159</v>
       </c>
@@ -7304,20 +7304,20 @@
         <f t="shared" si="0"/>
         <v>2275000</v>
       </c>
-      <c r="J69" s="421"/>
-      <c r="K69" s="424"/>
-      <c r="L69" s="427"/>
-      <c r="M69" s="427"/>
+      <c r="J69" s="393"/>
+      <c r="K69" s="396"/>
+      <c r="L69" s="399"/>
+      <c r="M69" s="399"/>
       <c r="N69" s="174"/>
       <c r="O69" s="174"/>
       <c r="P69" s="173"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="402"/>
-      <c r="B70" s="404"/>
-      <c r="C70" s="402"/>
-      <c r="D70" s="412"/>
-      <c r="E70" s="402"/>
+      <c r="A70" s="390"/>
+      <c r="B70" s="405"/>
+      <c r="C70" s="390"/>
+      <c r="D70" s="402"/>
+      <c r="E70" s="390"/>
       <c r="F70" s="173" t="s">
         <v>174</v>
       </c>
@@ -7331,20 +7331,20 @@
         <f t="shared" si="0"/>
         <v>1860000</v>
       </c>
-      <c r="J70" s="421"/>
-      <c r="K70" s="424"/>
-      <c r="L70" s="427"/>
-      <c r="M70" s="427"/>
+      <c r="J70" s="393"/>
+      <c r="K70" s="396"/>
+      <c r="L70" s="399"/>
+      <c r="M70" s="399"/>
       <c r="N70" s="174"/>
       <c r="O70" s="174"/>
       <c r="P70" s="173"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="402"/>
-      <c r="B71" s="404"/>
-      <c r="C71" s="402"/>
-      <c r="D71" s="412"/>
-      <c r="E71" s="402"/>
+      <c r="A71" s="390"/>
+      <c r="B71" s="405"/>
+      <c r="C71" s="390"/>
+      <c r="D71" s="402"/>
+      <c r="E71" s="390"/>
       <c r="F71" s="173" t="s">
         <v>194</v>
       </c>
@@ -7358,20 +7358,20 @@
         <f t="shared" si="0"/>
         <v>1275000</v>
       </c>
-      <c r="J71" s="421"/>
-      <c r="K71" s="424"/>
-      <c r="L71" s="427"/>
-      <c r="M71" s="427"/>
+      <c r="J71" s="393"/>
+      <c r="K71" s="396"/>
+      <c r="L71" s="399"/>
+      <c r="M71" s="399"/>
       <c r="N71" s="174"/>
       <c r="O71" s="174"/>
       <c r="P71" s="173"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="402"/>
-      <c r="B72" s="404"/>
-      <c r="C72" s="402"/>
-      <c r="D72" s="412"/>
-      <c r="E72" s="402"/>
+      <c r="A72" s="390"/>
+      <c r="B72" s="405"/>
+      <c r="C72" s="390"/>
+      <c r="D72" s="402"/>
+      <c r="E72" s="390"/>
       <c r="F72" s="173" t="s">
         <v>161</v>
       </c>
@@ -7385,20 +7385,20 @@
         <f t="shared" si="0"/>
         <v>970000</v>
       </c>
-      <c r="J72" s="421"/>
-      <c r="K72" s="424"/>
-      <c r="L72" s="427"/>
-      <c r="M72" s="427"/>
+      <c r="J72" s="393"/>
+      <c r="K72" s="396"/>
+      <c r="L72" s="399"/>
+      <c r="M72" s="399"/>
       <c r="N72" s="174"/>
       <c r="O72" s="174"/>
       <c r="P72" s="173"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="402"/>
-      <c r="B73" s="404"/>
-      <c r="C73" s="402"/>
-      <c r="D73" s="412"/>
-      <c r="E73" s="402"/>
+      <c r="A73" s="390"/>
+      <c r="B73" s="405"/>
+      <c r="C73" s="390"/>
+      <c r="D73" s="402"/>
+      <c r="E73" s="390"/>
       <c r="F73" s="173" t="s">
         <v>195</v>
       </c>
@@ -7412,20 +7412,20 @@
         <f t="shared" si="0"/>
         <v>2200000</v>
       </c>
-      <c r="J73" s="421"/>
-      <c r="K73" s="424"/>
-      <c r="L73" s="427"/>
-      <c r="M73" s="427"/>
+      <c r="J73" s="393"/>
+      <c r="K73" s="396"/>
+      <c r="L73" s="399"/>
+      <c r="M73" s="399"/>
       <c r="N73" s="174"/>
       <c r="O73" s="174"/>
       <c r="P73" s="173"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="415"/>
-      <c r="B74" s="417"/>
-      <c r="C74" s="415"/>
-      <c r="D74" s="430"/>
-      <c r="E74" s="415"/>
+      <c r="A74" s="391"/>
+      <c r="B74" s="406"/>
+      <c r="C74" s="391"/>
+      <c r="D74" s="403"/>
+      <c r="E74" s="391"/>
       <c r="F74" s="173" t="s">
         <v>168</v>
       </c>
@@ -7439,10 +7439,10 @@
         <f t="shared" si="0"/>
         <v>910000</v>
       </c>
-      <c r="J74" s="422"/>
-      <c r="K74" s="425"/>
-      <c r="L74" s="428"/>
-      <c r="M74" s="428"/>
+      <c r="J74" s="394"/>
+      <c r="K74" s="397"/>
+      <c r="L74" s="400"/>
+      <c r="M74" s="400"/>
       <c r="N74" s="174"/>
       <c r="O74" s="174"/>
       <c r="P74" s="198"/>
@@ -7502,14 +7502,14 @@
       <c r="P77" s="164"/>
     </row>
     <row r="78" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="406" t="s">
+      <c r="A78" s="422" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="406"/>
-      <c r="C78" s="406"/>
-      <c r="D78" s="406"/>
-      <c r="E78" s="406"/>
-      <c r="F78" s="406"/>
+      <c r="B78" s="422"/>
+      <c r="C78" s="422"/>
+      <c r="D78" s="422"/>
+      <c r="E78" s="422"/>
+      <c r="F78" s="422"/>
       <c r="G78" s="131">
         <f>SUM(G8:G77)</f>
         <v>1305</v>
@@ -7529,17 +7529,17 @@
       <c r="N78" s="132"/>
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
-      <c r="Q78" s="394"/>
+      <c r="Q78" s="428"/>
     </row>
     <row r="79" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="395" t="s">
+      <c r="A79" s="421" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="395"/>
-      <c r="C79" s="395"/>
-      <c r="D79" s="395"/>
-      <c r="E79" s="395"/>
-      <c r="F79" s="395"/>
+      <c r="B79" s="421"/>
+      <c r="C79" s="421"/>
+      <c r="D79" s="421"/>
+      <c r="E79" s="421"/>
+      <c r="F79" s="421"/>
       <c r="G79" s="131">
         <f>G78</f>
         <v>1305</v>
@@ -7556,17 +7556,17 @@
       <c r="N79" s="136"/>
       <c r="O79" s="136"/>
       <c r="P79" s="136"/>
-      <c r="Q79" s="394"/>
+      <c r="Q79" s="428"/>
     </row>
     <row r="80" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="395" t="s">
+      <c r="A80" s="421" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="395"/>
-      <c r="C80" s="395"/>
-      <c r="D80" s="395"/>
-      <c r="E80" s="395"/>
-      <c r="F80" s="395"/>
+      <c r="B80" s="421"/>
+      <c r="C80" s="421"/>
+      <c r="D80" s="421"/>
+      <c r="E80" s="421"/>
+      <c r="F80" s="421"/>
       <c r="G80" s="137" t="s">
         <v>45</v>
       </c>
@@ -7584,14 +7584,14 @@
       <c r="P80" s="138"/>
     </row>
     <row r="81" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="395" t="s">
+      <c r="A81" s="421" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="395"/>
-      <c r="C81" s="395"/>
-      <c r="D81" s="395"/>
-      <c r="E81" s="395"/>
-      <c r="F81" s="395"/>
+      <c r="B81" s="421"/>
+      <c r="C81" s="421"/>
+      <c r="D81" s="421"/>
+      <c r="E81" s="421"/>
+      <c r="F81" s="421"/>
       <c r="G81" s="136"/>
       <c r="H81" s="136"/>
       <c r="I81" s="132"/>
@@ -7607,14 +7607,14 @@
       <c r="P81" s="138"/>
     </row>
     <row r="82" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="395" t="s">
+      <c r="A82" s="421" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="395"/>
-      <c r="C82" s="395"/>
-      <c r="D82" s="395"/>
-      <c r="E82" s="395"/>
-      <c r="F82" s="395"/>
+      <c r="B82" s="421"/>
+      <c r="C82" s="421"/>
+      <c r="D82" s="421"/>
+      <c r="E82" s="421"/>
+      <c r="F82" s="421"/>
       <c r="G82" s="136"/>
       <c r="H82" s="136"/>
       <c r="I82" s="132"/>
@@ -7685,25 +7685,77 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="114">
-    <mergeCell ref="E68:E74"/>
-    <mergeCell ref="J68:J74"/>
-    <mergeCell ref="K68:K74"/>
-    <mergeCell ref="L68:L74"/>
-    <mergeCell ref="M68:M74"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D68:D74"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="C68:C74"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="D60:D61"/>
@@ -7728,77 +7780,25 @@
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E68:E74"/>
+    <mergeCell ref="J68:J74"/>
+    <mergeCell ref="K68:K74"/>
+    <mergeCell ref="L68:L74"/>
+    <mergeCell ref="M68:M74"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D68:D74"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="A68:A74"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7843,75 +7843,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="433" t="s">
+      <c r="A3" s="442" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="433"/>
-      <c r="C3" s="433"/>
-      <c r="D3" s="433"/>
-      <c r="E3" s="433"/>
-      <c r="F3" s="433"/>
-      <c r="G3" s="433"/>
-      <c r="H3" s="433"/>
-      <c r="I3" s="433"/>
-      <c r="J3" s="433"/>
-      <c r="K3" s="433"/>
+      <c r="B3" s="442"/>
+      <c r="C3" s="442"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="442"/>
+      <c r="F3" s="442"/>
+      <c r="G3" s="442"/>
+      <c r="H3" s="442"/>
+      <c r="I3" s="442"/>
+      <c r="J3" s="442"/>
+      <c r="K3" s="442"/>
       <c r="L3" s="281"/>
       <c r="M3" s="281"/>
       <c r="N3" s="281"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="434" t="s">
+      <c r="A4" s="443" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="434"/>
-      <c r="C4" s="434"/>
-      <c r="D4" s="434"/>
-      <c r="E4" s="434"/>
-      <c r="F4" s="434"/>
-      <c r="G4" s="434"/>
-      <c r="H4" s="434"/>
-      <c r="I4" s="434"/>
-      <c r="J4" s="435"/>
-      <c r="K4" s="434"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="443"/>
+      <c r="D4" s="443"/>
+      <c r="E4" s="443"/>
+      <c r="F4" s="443"/>
+      <c r="G4" s="443"/>
+      <c r="H4" s="443"/>
+      <c r="I4" s="443"/>
+      <c r="J4" s="444"/>
+      <c r="K4" s="443"/>
       <c r="L4" s="282"/>
       <c r="M4" s="282"/>
       <c r="N4" s="282"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="436" t="s">
+      <c r="A5" s="445" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="446" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="436" t="s">
+      <c r="C5" s="445" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="436" t="s">
+      <c r="D5" s="445" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="436"/>
-      <c r="F5" s="438" t="s">
+      <c r="E5" s="445"/>
+      <c r="F5" s="447" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="438"/>
-      <c r="H5" s="438"/>
-      <c r="I5" s="438"/>
-      <c r="J5" s="439"/>
-      <c r="K5" s="440" t="s">
+      <c r="G5" s="447"/>
+      <c r="H5" s="447"/>
+      <c r="I5" s="447"/>
+      <c r="J5" s="448"/>
+      <c r="K5" s="449" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="432" t="s">
+      <c r="L5" s="441" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="432"/>
-      <c r="N5" s="432"/>
+      <c r="M5" s="441"/>
+      <c r="N5" s="441"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="436"/>
-      <c r="B6" s="437"/>
-      <c r="C6" s="436"/>
+      <c r="A6" s="445"/>
+      <c r="B6" s="446"/>
+      <c r="C6" s="445"/>
       <c r="D6" s="283" t="s">
         <v>40</v>
       </c>
@@ -7933,7 +7933,7 @@
       <c r="J6" s="287" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="440"/>
+      <c r="K6" s="449"/>
       <c r="L6" s="288" t="s">
         <v>52</v>
       </c>
@@ -7945,17 +7945,17 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="441">
+      <c r="A7" s="450">
         <v>1220</v>
       </c>
-      <c r="B7" s="444">
+      <c r="B7" s="451">
         <v>44139</v>
       </c>
-      <c r="C7" s="441"/>
-      <c r="D7" s="441" t="s">
+      <c r="C7" s="450"/>
+      <c r="D7" s="450" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="441"/>
+      <c r="E7" s="450"/>
       <c r="F7" s="289" t="s">
         <v>160</v>
       </c>
@@ -7984,11 +7984,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="442"/>
-      <c r="B8" s="445"/>
-      <c r="C8" s="442"/>
-      <c r="D8" s="442"/>
-      <c r="E8" s="442"/>
+      <c r="A8" s="436"/>
+      <c r="B8" s="433"/>
+      <c r="C8" s="436"/>
+      <c r="D8" s="436"/>
+      <c r="E8" s="436"/>
       <c r="F8" s="294" t="s">
         <v>162</v>
       </c>
@@ -8017,11 +8017,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="443"/>
-      <c r="B9" s="446"/>
-      <c r="C9" s="443"/>
-      <c r="D9" s="443"/>
-      <c r="E9" s="443"/>
+      <c r="A9" s="438"/>
+      <c r="B9" s="439"/>
+      <c r="C9" s="438"/>
+      <c r="D9" s="438"/>
+      <c r="E9" s="438"/>
       <c r="F9" s="294" t="s">
         <v>168</v>
       </c>
@@ -8089,17 +8089,17 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="447">
+      <c r="A11" s="435">
         <v>1229</v>
       </c>
-      <c r="B11" s="448">
+      <c r="B11" s="432">
         <v>44145</v>
       </c>
-      <c r="C11" s="447"/>
-      <c r="D11" s="447" t="s">
+      <c r="C11" s="435"/>
+      <c r="D11" s="435" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="447"/>
+      <c r="E11" s="435"/>
       <c r="F11" s="294" t="s">
         <v>174</v>
       </c>
@@ -8128,11 +8128,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="442"/>
-      <c r="B12" s="445"/>
-      <c r="C12" s="442"/>
-      <c r="D12" s="442"/>
-      <c r="E12" s="442"/>
+      <c r="A12" s="436"/>
+      <c r="B12" s="433"/>
+      <c r="C12" s="436"/>
+      <c r="D12" s="436"/>
+      <c r="E12" s="436"/>
       <c r="F12" s="294" t="s">
         <v>193</v>
       </c>
@@ -8161,11 +8161,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="443"/>
-      <c r="B13" s="446"/>
-      <c r="C13" s="443"/>
-      <c r="D13" s="443"/>
-      <c r="E13" s="443"/>
+      <c r="A13" s="438"/>
+      <c r="B13" s="439"/>
+      <c r="C13" s="438"/>
+      <c r="D13" s="438"/>
+      <c r="E13" s="438"/>
       <c r="F13" s="294" t="s">
         <v>168</v>
       </c>
@@ -8194,17 +8194,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="447">
+      <c r="A14" s="435">
         <v>1231</v>
       </c>
-      <c r="B14" s="448">
+      <c r="B14" s="432">
         <v>44146</v>
       </c>
-      <c r="C14" s="447"/>
-      <c r="D14" s="447" t="s">
+      <c r="C14" s="435"/>
+      <c r="D14" s="435" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="447"/>
+      <c r="E14" s="435"/>
       <c r="F14" s="294" t="s">
         <v>174</v>
       </c>
@@ -8233,11 +8233,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="442"/>
-      <c r="B15" s="445"/>
-      <c r="C15" s="442"/>
-      <c r="D15" s="442"/>
-      <c r="E15" s="442"/>
+      <c r="A15" s="436"/>
+      <c r="B15" s="433"/>
+      <c r="C15" s="436"/>
+      <c r="D15" s="436"/>
+      <c r="E15" s="436"/>
       <c r="F15" s="294" t="s">
         <v>193</v>
       </c>
@@ -8266,11 +8266,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="442"/>
-      <c r="B16" s="445"/>
-      <c r="C16" s="442"/>
-      <c r="D16" s="442"/>
-      <c r="E16" s="442"/>
+      <c r="A16" s="436"/>
+      <c r="B16" s="433"/>
+      <c r="C16" s="436"/>
+      <c r="D16" s="436"/>
+      <c r="E16" s="436"/>
       <c r="F16" s="294" t="s">
         <v>195</v>
       </c>
@@ -8299,11 +8299,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="443"/>
-      <c r="B17" s="446"/>
-      <c r="C17" s="443"/>
-      <c r="D17" s="443"/>
-      <c r="E17" s="443"/>
+      <c r="A17" s="438"/>
+      <c r="B17" s="439"/>
+      <c r="C17" s="438"/>
+      <c r="D17" s="438"/>
+      <c r="E17" s="438"/>
       <c r="F17" s="294" t="s">
         <v>165</v>
       </c>
@@ -8332,19 +8332,19 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="447">
+      <c r="A18" s="435">
         <v>1236</v>
       </c>
-      <c r="B18" s="448">
+      <c r="B18" s="432">
         <v>44152</v>
       </c>
-      <c r="C18" s="447" t="s">
+      <c r="C18" s="435" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="447" t="s">
+      <c r="D18" s="435" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="447"/>
+      <c r="E18" s="435"/>
       <c r="F18" s="294" t="s">
         <v>193</v>
       </c>
@@ -8373,11 +8373,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="442"/>
-      <c r="B19" s="445"/>
-      <c r="C19" s="442"/>
-      <c r="D19" s="442"/>
-      <c r="E19" s="442"/>
+      <c r="A19" s="436"/>
+      <c r="B19" s="433"/>
+      <c r="C19" s="436"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="436"/>
       <c r="F19" s="294" t="s">
         <v>161</v>
       </c>
@@ -8406,11 +8406,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="443"/>
-      <c r="B20" s="446"/>
-      <c r="C20" s="443"/>
-      <c r="D20" s="443"/>
-      <c r="E20" s="443"/>
+      <c r="A20" s="438"/>
+      <c r="B20" s="439"/>
+      <c r="C20" s="438"/>
+      <c r="D20" s="438"/>
+      <c r="E20" s="438"/>
       <c r="F20" s="294" t="s">
         <v>195</v>
       </c>
@@ -8478,19 +8478,19 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="447">
+      <c r="A22" s="435">
         <v>1241</v>
       </c>
-      <c r="B22" s="448">
+      <c r="B22" s="432">
         <v>44153</v>
       </c>
-      <c r="C22" s="447" t="s">
+      <c r="C22" s="435" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="447" t="s">
+      <c r="D22" s="435" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="447"/>
+      <c r="E22" s="435"/>
       <c r="F22" s="294" t="s">
         <v>162</v>
       </c>
@@ -8519,11 +8519,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="442"/>
-      <c r="B23" s="445"/>
-      <c r="C23" s="442"/>
-      <c r="D23" s="442"/>
-      <c r="E23" s="442"/>
+      <c r="A23" s="436"/>
+      <c r="B23" s="433"/>
+      <c r="C23" s="436"/>
+      <c r="D23" s="436"/>
+      <c r="E23" s="436"/>
       <c r="F23" s="294" t="s">
         <v>195</v>
       </c>
@@ -8552,11 +8552,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="443"/>
-      <c r="B24" s="446"/>
-      <c r="C24" s="443"/>
-      <c r="D24" s="443"/>
-      <c r="E24" s="443"/>
+      <c r="A24" s="438"/>
+      <c r="B24" s="439"/>
+      <c r="C24" s="438"/>
+      <c r="D24" s="438"/>
+      <c r="E24" s="438"/>
       <c r="F24" s="294" t="s">
         <v>165</v>
       </c>
@@ -8665,19 +8665,19 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="447">
+      <c r="A27" s="435">
         <v>1248</v>
       </c>
-      <c r="B27" s="448">
+      <c r="B27" s="432">
         <v>44155</v>
       </c>
-      <c r="C27" s="447" t="s">
+      <c r="C27" s="435" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="447" t="s">
+      <c r="D27" s="435" t="s">
         <v>210</v>
       </c>
-      <c r="E27" s="447"/>
+      <c r="E27" s="435"/>
       <c r="F27" s="294" t="s">
         <v>195</v>
       </c>
@@ -8706,11 +8706,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="443"/>
-      <c r="B28" s="446"/>
-      <c r="C28" s="443"/>
-      <c r="D28" s="443"/>
-      <c r="E28" s="443"/>
+      <c r="A28" s="438"/>
+      <c r="B28" s="439"/>
+      <c r="C28" s="438"/>
+      <c r="D28" s="438"/>
+      <c r="E28" s="438"/>
       <c r="F28" s="294" t="s">
         <v>165</v>
       </c>
@@ -8739,19 +8739,19 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="447">
+      <c r="A29" s="435">
         <v>1254</v>
       </c>
-      <c r="B29" s="448">
+      <c r="B29" s="432">
         <v>44160</v>
       </c>
-      <c r="C29" s="447" t="s">
+      <c r="C29" s="435" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="447" t="s">
+      <c r="D29" s="435" t="s">
         <v>220</v>
       </c>
-      <c r="E29" s="447"/>
+      <c r="E29" s="435"/>
       <c r="F29" s="294" t="s">
         <v>174</v>
       </c>
@@ -8780,11 +8780,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="443"/>
-      <c r="B30" s="446"/>
-      <c r="C30" s="443"/>
-      <c r="D30" s="443"/>
-      <c r="E30" s="443"/>
+      <c r="A30" s="438"/>
+      <c r="B30" s="439"/>
+      <c r="C30" s="438"/>
+      <c r="D30" s="438"/>
+      <c r="E30" s="438"/>
       <c r="F30" s="294" t="s">
         <v>195</v>
       </c>
@@ -8813,17 +8813,17 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="447">
+      <c r="A31" s="435">
         <v>1256</v>
       </c>
-      <c r="B31" s="448">
+      <c r="B31" s="432">
         <v>44160</v>
       </c>
-      <c r="C31" s="447"/>
-      <c r="D31" s="447" t="s">
+      <c r="C31" s="435"/>
+      <c r="D31" s="435" t="s">
         <v>221</v>
       </c>
-      <c r="E31" s="447"/>
+      <c r="E31" s="435"/>
       <c r="F31" s="294" t="s">
         <v>193</v>
       </c>
@@ -8852,11 +8852,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="442"/>
-      <c r="B32" s="445"/>
-      <c r="C32" s="442"/>
-      <c r="D32" s="442"/>
-      <c r="E32" s="442"/>
+      <c r="A32" s="436"/>
+      <c r="B32" s="433"/>
+      <c r="C32" s="436"/>
+      <c r="D32" s="436"/>
+      <c r="E32" s="436"/>
       <c r="F32" s="294" t="s">
         <v>161</v>
       </c>
@@ -8885,11 +8885,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="442"/>
-      <c r="B33" s="445"/>
-      <c r="C33" s="442"/>
-      <c r="D33" s="442"/>
-      <c r="E33" s="442"/>
+      <c r="A33" s="436"/>
+      <c r="B33" s="433"/>
+      <c r="C33" s="436"/>
+      <c r="D33" s="436"/>
+      <c r="E33" s="436"/>
       <c r="F33" s="294" t="s">
         <v>162</v>
       </c>
@@ -8918,11 +8918,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="450"/>
-      <c r="B34" s="449"/>
-      <c r="C34" s="450"/>
-      <c r="D34" s="450"/>
-      <c r="E34" s="450"/>
+      <c r="A34" s="437"/>
+      <c r="B34" s="434"/>
+      <c r="C34" s="437"/>
+      <c r="D34" s="437"/>
+      <c r="E34" s="437"/>
       <c r="F34" s="300" t="s">
         <v>168</v>
       </c>
@@ -8951,13 +8951,13 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="312" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="431" t="s">
+      <c r="A35" s="440" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="431"/>
-      <c r="C35" s="431"/>
-      <c r="D35" s="431"/>
-      <c r="E35" s="431"/>
+      <c r="B35" s="440"/>
+      <c r="C35" s="440"/>
+      <c r="D35" s="440"/>
+      <c r="E35" s="440"/>
       <c r="F35" s="306"/>
       <c r="G35" s="306">
         <f>SUM(G7:G34)</f>
@@ -9045,40 +9045,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -9095,6 +9061,40 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9155,24 +9155,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="451" t="s">
+      <c r="A4" s="452" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="451"/>
-      <c r="C4" s="451"/>
-      <c r="D4" s="451"/>
-      <c r="E4" s="451"/>
+      <c r="B4" s="452"/>
+      <c r="C4" s="452"/>
+      <c r="D4" s="452"/>
+      <c r="E4" s="452"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="452" t="s">
+      <c r="A5" s="453" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="452"/>
-      <c r="C5" s="452"/>
-      <c r="D5" s="452"/>
-      <c r="E5" s="452"/>
+      <c r="B5" s="453"/>
+      <c r="C5" s="453"/>
+      <c r="D5" s="453"/>
+      <c r="E5" s="453"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -9251,7 +9251,7 @@
         <f>'DOANH THU'!L80</f>
         <v>21216250</v>
       </c>
-      <c r="E10" s="453"/>
+      <c r="E10" s="454"/>
       <c r="F10" s="61"/>
       <c r="G10" s="61"/>
     </row>
@@ -9267,7 +9267,7 @@
         <f>'DOANH THU'!L81</f>
         <v>39339950.000000007</v>
       </c>
-      <c r="E11" s="454"/>
+      <c r="E11" s="455"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -9276,7 +9276,7 @@
       <c r="B12" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="521">
+      <c r="C12" s="378">
         <f>'Hàng khách trả'!G35</f>
         <v>576</v>
       </c>
@@ -9539,13 +9539,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="455" t="s">
+      <c r="A1" s="478" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="455"/>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -9563,119 +9563,119 @@
       <c r="H2" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="456" t="s">
+      <c r="A4" s="479" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="456"/>
-      <c r="C4" s="456"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="456"/>
-      <c r="F4" s="456"/>
-      <c r="G4" s="456"/>
+      <c r="B4" s="479"/>
+      <c r="C4" s="479"/>
+      <c r="D4" s="479"/>
+      <c r="E4" s="479"/>
+      <c r="F4" s="479"/>
+      <c r="G4" s="479"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="465" t="s">
+      <c r="A6" s="460" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="466"/>
-      <c r="C6" s="466"/>
-      <c r="D6" s="466"/>
-      <c r="E6" s="467"/>
-      <c r="F6" s="457" t="s">
+      <c r="B6" s="461"/>
+      <c r="C6" s="461"/>
+      <c r="D6" s="461"/>
+      <c r="E6" s="462"/>
+      <c r="F6" s="480" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="458"/>
+      <c r="G6" s="481"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="461" t="s">
+      <c r="A7" s="474" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="462"/>
+      <c r="B7" s="475"/>
       <c r="C7" s="322"/>
       <c r="D7" s="259"/>
       <c r="E7" s="328" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="459">
+      <c r="F7" s="457">
         <v>4744538</v>
       </c>
-      <c r="G7" s="459"/>
-      <c r="H7" s="475" t="s">
+      <c r="G7" s="457"/>
+      <c r="H7" s="456" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="463"/>
-      <c r="B8" s="464"/>
+      <c r="A8" s="476"/>
+      <c r="B8" s="477"/>
       <c r="C8" s="322"/>
       <c r="D8" s="259"/>
       <c r="E8" s="329" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="460">
+      <c r="F8" s="469">
         <v>6713000</v>
       </c>
-      <c r="G8" s="460"/>
-      <c r="H8" s="475"/>
+      <c r="G8" s="469"/>
+      <c r="H8" s="456"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="461" t="s">
+      <c r="A9" s="474" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="462"/>
+      <c r="B9" s="475"/>
       <c r="C9" s="326"/>
       <c r="D9" s="327"/>
       <c r="E9" s="330" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="459">
+      <c r="F9" s="457">
         <v>3625000</v>
       </c>
-      <c r="G9" s="459"/>
-      <c r="H9" s="475"/>
+      <c r="G9" s="457"/>
+      <c r="H9" s="456"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="463"/>
-      <c r="B10" s="464"/>
+      <c r="A10" s="476"/>
+      <c r="B10" s="477"/>
       <c r="C10" s="325"/>
       <c r="D10" s="325"/>
       <c r="E10" s="331" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="460">
+      <c r="F10" s="469">
         <v>6576923</v>
       </c>
-      <c r="G10" s="460"/>
-      <c r="H10" s="475"/>
+      <c r="G10" s="469"/>
+      <c r="H10" s="456"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="465" t="s">
+      <c r="A11" s="460" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="466"/>
-      <c r="C11" s="466"/>
-      <c r="D11" s="466"/>
-      <c r="E11" s="467"/>
-      <c r="F11" s="474">
+      <c r="B11" s="461"/>
+      <c r="C11" s="461"/>
+      <c r="D11" s="461"/>
+      <c r="E11" s="462"/>
+      <c r="F11" s="473">
         <f>'Bảng lương'!J12</f>
         <v>6000000</v>
       </c>
-      <c r="G11" s="474"/>
+      <c r="G11" s="473"/>
       <c r="H11" s="332"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="478" t="s">
+      <c r="A12" s="463" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="479"/>
-      <c r="C12" s="479"/>
-      <c r="D12" s="479"/>
-      <c r="E12" s="480"/>
-      <c r="F12" s="476">
+      <c r="B12" s="464"/>
+      <c r="C12" s="464"/>
+      <c r="D12" s="464"/>
+      <c r="E12" s="465"/>
+      <c r="F12" s="458">
         <f>SUM(F7:G11)</f>
         <v>27659461</v>
       </c>
-      <c r="G12" s="477"/>
+      <c r="G12" s="459"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="267" t="s">
@@ -9687,10 +9687,10 @@
       <c r="E14" s="260"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="471">
+      <c r="A15" s="470">
         <v>44106</v>
       </c>
-      <c r="B15" s="472"/>
+      <c r="B15" s="471"/>
       <c r="C15" s="261"/>
       <c r="D15" s="261"/>
       <c r="E15" s="261" t="s">
@@ -9701,10 +9701,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="471">
+      <c r="A16" s="470">
         <v>44116</v>
       </c>
-      <c r="B16" s="472"/>
+      <c r="B16" s="471"/>
       <c r="C16" s="261"/>
       <c r="D16" s="261"/>
       <c r="E16" s="261" t="s">
@@ -9716,10 +9716,10 @@
       <c r="J16" s="266"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="471">
+      <c r="A17" s="470">
         <v>44120</v>
       </c>
-      <c r="B17" s="472"/>
+      <c r="B17" s="471"/>
       <c r="C17" s="261"/>
       <c r="D17" s="261"/>
       <c r="E17" s="261" t="s">
@@ -9730,10 +9730,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="471">
+      <c r="A18" s="470">
         <v>44128</v>
       </c>
-      <c r="B18" s="472"/>
+      <c r="B18" s="471"/>
       <c r="C18" s="261"/>
       <c r="D18" s="261"/>
       <c r="E18" s="261" t="s">
@@ -9745,10 +9745,10 @@
       <c r="J18" s="266"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="471">
+      <c r="A19" s="470">
         <v>44129</v>
       </c>
-      <c r="B19" s="472"/>
+      <c r="B19" s="471"/>
       <c r="C19" s="261"/>
       <c r="D19" s="261"/>
       <c r="E19" s="261" t="s">
@@ -9760,10 +9760,10 @@
       <c r="J19" s="266"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="471">
+      <c r="A20" s="470">
         <v>44131</v>
       </c>
-      <c r="B20" s="472"/>
+      <c r="B20" s="471"/>
       <c r="C20" s="261"/>
       <c r="D20" s="261"/>
       <c r="E20" s="274" t="s">
@@ -9774,10 +9774,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="473">
+      <c r="A21" s="472">
         <v>44140</v>
       </c>
-      <c r="B21" s="473"/>
+      <c r="B21" s="472"/>
       <c r="C21" s="261"/>
       <c r="D21" s="261"/>
       <c r="E21" s="274" t="s">
@@ -9788,10 +9788,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="473">
+      <c r="A22" s="472">
         <v>44150</v>
       </c>
-      <c r="B22" s="473"/>
+      <c r="B22" s="472"/>
       <c r="C22" s="261"/>
       <c r="D22" s="261"/>
       <c r="E22" s="274" t="s">
@@ -9802,13 +9802,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="468" t="s">
+      <c r="A23" s="466" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="469"/>
-      <c r="C23" s="469"/>
-      <c r="D23" s="469"/>
-      <c r="E23" s="470"/>
+      <c r="B23" s="467"/>
+      <c r="C23" s="467"/>
+      <c r="D23" s="467"/>
+      <c r="E23" s="468"/>
       <c r="F23" s="268">
         <f>SUM(F15:F22)</f>
         <v>11558900</v>
@@ -9864,11 +9864,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A15:B15"/>
@@ -9881,13 +9883,11 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10428,16 +10428,16 @@
       <c r="C1" s="211"/>
       <c r="D1" s="211"/>
       <c r="E1" s="211"/>
-      <c r="Z1" s="500" t="s">
+      <c r="Z1" s="487" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="501"/>
-      <c r="AB1" s="501"/>
-      <c r="AC1" s="501"/>
-      <c r="AD1" s="501"/>
-      <c r="AE1" s="501"/>
-      <c r="AF1" s="501"/>
-      <c r="AG1" s="502"/>
+      <c r="AA1" s="488"/>
+      <c r="AB1" s="488"/>
+      <c r="AC1" s="488"/>
+      <c r="AD1" s="488"/>
+      <c r="AE1" s="488"/>
+      <c r="AF1" s="488"/>
+      <c r="AG1" s="489"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="214" t="s">
@@ -10447,18 +10447,18 @@
       <c r="C2" s="215"/>
       <c r="D2" s="215"/>
       <c r="E2" s="215"/>
-      <c r="Z2" s="495" t="s">
+      <c r="Z2" s="482" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" s="496"/>
-      <c r="AB2" s="496"/>
-      <c r="AC2" s="496"/>
-      <c r="AD2" s="496"/>
-      <c r="AE2" s="497"/>
-      <c r="AF2" s="498" t="s">
+      <c r="AA2" s="483"/>
+      <c r="AB2" s="483"/>
+      <c r="AC2" s="483"/>
+      <c r="AD2" s="483"/>
+      <c r="AE2" s="484"/>
+      <c r="AF2" s="485" t="s">
         <v>101</v>
       </c>
-      <c r="AG2" s="499"/>
+      <c r="AG2" s="486"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="214" t="s">
@@ -10468,18 +10468,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="495" t="s">
+      <c r="Z3" s="482" t="s">
         <v>103</v>
       </c>
-      <c r="AA3" s="496"/>
-      <c r="AB3" s="496"/>
-      <c r="AC3" s="496"/>
-      <c r="AD3" s="496"/>
-      <c r="AE3" s="497"/>
-      <c r="AF3" s="498" t="s">
+      <c r="AA3" s="483"/>
+      <c r="AB3" s="483"/>
+      <c r="AC3" s="483"/>
+      <c r="AD3" s="483"/>
+      <c r="AE3" s="484"/>
+      <c r="AF3" s="485" t="s">
         <v>104</v>
       </c>
-      <c r="AG3" s="499"/>
+      <c r="AG3" s="486"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="214" t="s">
@@ -10492,18 +10492,18 @@
       <c r="T4" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="495" t="s">
+      <c r="Z4" s="482" t="s">
         <v>106</v>
       </c>
-      <c r="AA4" s="496"/>
-      <c r="AB4" s="496"/>
-      <c r="AC4" s="496"/>
-      <c r="AD4" s="496"/>
-      <c r="AE4" s="497"/>
-      <c r="AF4" s="498" t="s">
+      <c r="AA4" s="483"/>
+      <c r="AB4" s="483"/>
+      <c r="AC4" s="483"/>
+      <c r="AD4" s="483"/>
+      <c r="AE4" s="484"/>
+      <c r="AF4" s="485" t="s">
         <v>107</v>
       </c>
-      <c r="AG4" s="499"/>
+      <c r="AG4" s="486"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="214" t="s">
@@ -10513,18 +10513,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="482" t="s">
+      <c r="Z5" s="491" t="s">
         <v>109</v>
       </c>
-      <c r="AA5" s="482"/>
-      <c r="AB5" s="482"/>
-      <c r="AC5" s="482"/>
-      <c r="AD5" s="482"/>
-      <c r="AE5" s="482"/>
-      <c r="AF5" s="483" t="s">
+      <c r="AA5" s="491"/>
+      <c r="AB5" s="491"/>
+      <c r="AC5" s="491"/>
+      <c r="AD5" s="491"/>
+      <c r="AE5" s="491"/>
+      <c r="AF5" s="492" t="s">
         <v>110</v>
       </c>
-      <c r="AG5" s="483"/>
+      <c r="AG5" s="492"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="214"/>
@@ -10532,18 +10532,18 @@
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="Z6" s="495" t="s">
+      <c r="Z6" s="482" t="s">
         <v>291</v>
       </c>
-      <c r="AA6" s="496"/>
-      <c r="AB6" s="496"/>
-      <c r="AC6" s="496"/>
-      <c r="AD6" s="496"/>
-      <c r="AE6" s="497"/>
-      <c r="AF6" s="498" t="s">
+      <c r="AA6" s="483"/>
+      <c r="AB6" s="483"/>
+      <c r="AC6" s="483"/>
+      <c r="AD6" s="483"/>
+      <c r="AE6" s="484"/>
+      <c r="AF6" s="485" t="s">
         <v>145</v>
       </c>
-      <c r="AG6" s="499"/>
+      <c r="AG6" s="486"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="216"/>
@@ -10553,91 +10553,91 @@
       <c r="E7" s="216"/>
     </row>
     <row r="8" spans="1:39" s="219" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="484" t="s">
+      <c r="A8" s="493" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="484"/>
-      <c r="C8" s="484"/>
-      <c r="D8" s="484"/>
-      <c r="E8" s="484"/>
-      <c r="F8" s="484"/>
-      <c r="G8" s="484"/>
-      <c r="H8" s="484"/>
-      <c r="I8" s="484"/>
-      <c r="J8" s="484"/>
-      <c r="K8" s="484"/>
-      <c r="L8" s="484"/>
-      <c r="M8" s="484"/>
-      <c r="N8" s="484"/>
-      <c r="O8" s="484"/>
-      <c r="P8" s="484"/>
-      <c r="Q8" s="484"/>
-      <c r="R8" s="484"/>
-      <c r="S8" s="484"/>
-      <c r="T8" s="484"/>
-      <c r="U8" s="484"/>
-      <c r="V8" s="484"/>
-      <c r="W8" s="484"/>
-      <c r="X8" s="484"/>
-      <c r="Y8" s="484"/>
-      <c r="Z8" s="484"/>
-      <c r="AA8" s="484"/>
-      <c r="AB8" s="484"/>
-      <c r="AC8" s="484"/>
-      <c r="AD8" s="484"/>
-      <c r="AE8" s="484"/>
-      <c r="AF8" s="484"/>
-      <c r="AG8" s="484"/>
-      <c r="AH8" s="484"/>
-      <c r="AI8" s="484"/>
-      <c r="AJ8" s="484"/>
-      <c r="AK8" s="484"/>
-      <c r="AL8" s="484"/>
+      <c r="B8" s="493"/>
+      <c r="C8" s="493"/>
+      <c r="D8" s="493"/>
+      <c r="E8" s="493"/>
+      <c r="F8" s="493"/>
+      <c r="G8" s="493"/>
+      <c r="H8" s="493"/>
+      <c r="I8" s="493"/>
+      <c r="J8" s="493"/>
+      <c r="K8" s="493"/>
+      <c r="L8" s="493"/>
+      <c r="M8" s="493"/>
+      <c r="N8" s="493"/>
+      <c r="O8" s="493"/>
+      <c r="P8" s="493"/>
+      <c r="Q8" s="493"/>
+      <c r="R8" s="493"/>
+      <c r="S8" s="493"/>
+      <c r="T8" s="493"/>
+      <c r="U8" s="493"/>
+      <c r="V8" s="493"/>
+      <c r="W8" s="493"/>
+      <c r="X8" s="493"/>
+      <c r="Y8" s="493"/>
+      <c r="Z8" s="493"/>
+      <c r="AA8" s="493"/>
+      <c r="AB8" s="493"/>
+      <c r="AC8" s="493"/>
+      <c r="AD8" s="493"/>
+      <c r="AE8" s="493"/>
+      <c r="AF8" s="493"/>
+      <c r="AG8" s="493"/>
+      <c r="AH8" s="493"/>
+      <c r="AI8" s="493"/>
+      <c r="AJ8" s="493"/>
+      <c r="AK8" s="493"/>
+      <c r="AL8" s="493"/>
       <c r="AM8" s="218"/>
     </row>
     <row r="10" spans="1:39" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="485" t="s">
+      <c r="A10" s="494" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="485" t="s">
+      <c r="B10" s="494" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="485" t="s">
+      <c r="C10" s="494" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="488" t="s">
+      <c r="D10" s="497" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="489"/>
-      <c r="F10" s="489"/>
-      <c r="G10" s="489"/>
-      <c r="H10" s="489"/>
-      <c r="I10" s="489"/>
-      <c r="J10" s="489"/>
-      <c r="K10" s="489"/>
-      <c r="L10" s="489"/>
-      <c r="M10" s="489"/>
-      <c r="N10" s="489"/>
-      <c r="O10" s="489"/>
-      <c r="P10" s="489"/>
-      <c r="Q10" s="489"/>
-      <c r="R10" s="489"/>
-      <c r="S10" s="489"/>
-      <c r="T10" s="489"/>
-      <c r="U10" s="489"/>
-      <c r="V10" s="489"/>
-      <c r="W10" s="489"/>
-      <c r="X10" s="489"/>
-      <c r="Y10" s="489"/>
-      <c r="Z10" s="489"/>
-      <c r="AA10" s="489"/>
-      <c r="AB10" s="489"/>
-      <c r="AC10" s="489"/>
-      <c r="AD10" s="489"/>
-      <c r="AE10" s="489"/>
-      <c r="AF10" s="489"/>
-      <c r="AG10" s="489"/>
-      <c r="AH10" s="490" t="s">
+      <c r="E10" s="498"/>
+      <c r="F10" s="498"/>
+      <c r="G10" s="498"/>
+      <c r="H10" s="498"/>
+      <c r="I10" s="498"/>
+      <c r="J10" s="498"/>
+      <c r="K10" s="498"/>
+      <c r="L10" s="498"/>
+      <c r="M10" s="498"/>
+      <c r="N10" s="498"/>
+      <c r="O10" s="498"/>
+      <c r="P10" s="498"/>
+      <c r="Q10" s="498"/>
+      <c r="R10" s="498"/>
+      <c r="S10" s="498"/>
+      <c r="T10" s="498"/>
+      <c r="U10" s="498"/>
+      <c r="V10" s="498"/>
+      <c r="W10" s="498"/>
+      <c r="X10" s="498"/>
+      <c r="Y10" s="498"/>
+      <c r="Z10" s="498"/>
+      <c r="AA10" s="498"/>
+      <c r="AB10" s="498"/>
+      <c r="AC10" s="498"/>
+      <c r="AD10" s="498"/>
+      <c r="AE10" s="498"/>
+      <c r="AF10" s="498"/>
+      <c r="AG10" s="498"/>
+      <c r="AH10" s="499" t="s">
         <v>115</v>
       </c>
       <c r="AI10" s="220"/>
@@ -10647,9 +10647,9 @@
       <c r="AM10" s="223"/>
     </row>
     <row r="11" spans="1:39" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="486"/>
-      <c r="B11" s="486"/>
-      <c r="C11" s="486"/>
+      <c r="A11" s="495"/>
+      <c r="B11" s="495"/>
+      <c r="C11" s="495"/>
       <c r="D11" s="225">
         <v>1</v>
       </c>
@@ -10740,7 +10740,7 @@
       <c r="AG11" s="225">
         <v>30</v>
       </c>
-      <c r="AH11" s="490"/>
+      <c r="AH11" s="499"/>
       <c r="AI11" s="226"/>
       <c r="AJ11" s="222"/>
       <c r="AK11" s="222"/>
@@ -10748,9 +10748,9 @@
       <c r="AM11" s="223"/>
     </row>
     <row r="12" spans="1:39" s="230" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="487"/>
-      <c r="B12" s="487"/>
-      <c r="C12" s="487"/>
+      <c r="A12" s="496"/>
+      <c r="B12" s="496"/>
+      <c r="C12" s="496"/>
       <c r="D12" s="228" t="s">
         <v>120</v>
       </c>
@@ -10841,7 +10841,7 @@
       <c r="AG12" s="227" t="s">
         <v>121</v>
       </c>
-      <c r="AH12" s="490"/>
+      <c r="AH12" s="499"/>
       <c r="AI12" s="229"/>
       <c r="AM12" s="231"/>
     </row>
@@ -11246,10 +11246,10 @@
       <c r="AM16" s="231"/>
     </row>
     <row r="17" spans="1:39" s="230" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="491" t="s">
+      <c r="A17" s="500" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="492"/>
+      <c r="B17" s="501"/>
       <c r="C17" s="237"/>
       <c r="D17" s="237"/>
       <c r="E17" s="238"/>
@@ -11291,46 +11291,46 @@
       <c r="AM17" s="231"/>
     </row>
     <row r="19" spans="1:39" s="247" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="493"/>
-      <c r="B19" s="493"/>
-      <c r="C19" s="493"/>
-      <c r="D19" s="493"/>
-      <c r="E19" s="493"/>
-      <c r="F19" s="493"/>
-      <c r="G19" s="493"/>
+      <c r="A19" s="502"/>
+      <c r="B19" s="502"/>
+      <c r="C19" s="502"/>
+      <c r="D19" s="502"/>
+      <c r="E19" s="502"/>
+      <c r="F19" s="502"/>
+      <c r="G19" s="502"/>
       <c r="H19" s="242"/>
-      <c r="I19" s="494"/>
-      <c r="J19" s="494"/>
-      <c r="K19" s="494"/>
-      <c r="L19" s="494"/>
-      <c r="M19" s="494"/>
+      <c r="I19" s="503"/>
+      <c r="J19" s="503"/>
+      <c r="K19" s="503"/>
+      <c r="L19" s="503"/>
+      <c r="M19" s="503"/>
       <c r="N19" s="243"/>
-      <c r="O19" s="494"/>
-      <c r="P19" s="494"/>
-      <c r="Q19" s="494"/>
-      <c r="R19" s="494"/>
-      <c r="S19" s="494"/>
-      <c r="T19" s="494"/>
-      <c r="U19" s="494"/>
-      <c r="V19" s="494"/>
-      <c r="W19" s="494"/>
-      <c r="X19" s="494"/>
-      <c r="Y19" s="494"/>
+      <c r="O19" s="503"/>
+      <c r="P19" s="503"/>
+      <c r="Q19" s="503"/>
+      <c r="R19" s="503"/>
+      <c r="S19" s="503"/>
+      <c r="T19" s="503"/>
+      <c r="U19" s="503"/>
+      <c r="V19" s="503"/>
+      <c r="W19" s="503"/>
+      <c r="X19" s="503"/>
+      <c r="Y19" s="503"/>
       <c r="Z19" s="244"/>
       <c r="AA19" s="253" t="s">
         <v>13</v>
       </c>
       <c r="AB19" s="245"/>
-      <c r="AC19" s="494"/>
-      <c r="AD19" s="494"/>
-      <c r="AE19" s="494"/>
-      <c r="AF19" s="494"/>
-      <c r="AG19" s="494"/>
-      <c r="AH19" s="494"/>
-      <c r="AI19" s="494"/>
-      <c r="AJ19" s="494"/>
-      <c r="AK19" s="494"/>
-      <c r="AL19" s="494"/>
+      <c r="AC19" s="503"/>
+      <c r="AD19" s="503"/>
+      <c r="AE19" s="503"/>
+      <c r="AF19" s="503"/>
+      <c r="AG19" s="503"/>
+      <c r="AH19" s="503"/>
+      <c r="AI19" s="503"/>
+      <c r="AJ19" s="503"/>
+      <c r="AK19" s="503"/>
+      <c r="AL19" s="503"/>
       <c r="AM19" s="246"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
@@ -11369,131 +11369,131 @@
       <c r="AM34" s="251"/>
     </row>
     <row r="35" spans="3:39" s="250" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="481"/>
-      <c r="H35" s="481"/>
-      <c r="I35" s="481"/>
-      <c r="J35" s="481"/>
-      <c r="K35" s="481"/>
-      <c r="L35" s="481"/>
-      <c r="M35" s="481"/>
-      <c r="N35" s="481"/>
-      <c r="O35" s="481"/>
-      <c r="P35" s="481"/>
-      <c r="Q35" s="481"/>
-      <c r="R35" s="481"/>
-      <c r="S35" s="481"/>
-      <c r="T35" s="481"/>
-      <c r="U35" s="481"/>
-      <c r="V35" s="481"/>
-      <c r="W35" s="481"/>
-      <c r="X35" s="481"/>
+      <c r="G35" s="490"/>
+      <c r="H35" s="490"/>
+      <c r="I35" s="490"/>
+      <c r="J35" s="490"/>
+      <c r="K35" s="490"/>
+      <c r="L35" s="490"/>
+      <c r="M35" s="490"/>
+      <c r="N35" s="490"/>
+      <c r="O35" s="490"/>
+      <c r="P35" s="490"/>
+      <c r="Q35" s="490"/>
+      <c r="R35" s="490"/>
+      <c r="S35" s="490"/>
+      <c r="T35" s="490"/>
+      <c r="U35" s="490"/>
+      <c r="V35" s="490"/>
+      <c r="W35" s="490"/>
+      <c r="X35" s="490"/>
       <c r="AM35" s="251"/>
     </row>
     <row r="36" spans="3:39" s="250" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="481"/>
-      <c r="H36" s="481"/>
-      <c r="I36" s="481"/>
-      <c r="J36" s="481"/>
-      <c r="K36" s="481"/>
-      <c r="L36" s="481"/>
-      <c r="M36" s="481"/>
-      <c r="N36" s="481"/>
-      <c r="O36" s="481"/>
-      <c r="P36" s="481"/>
-      <c r="Q36" s="481"/>
-      <c r="R36" s="481"/>
-      <c r="S36" s="481"/>
-      <c r="T36" s="481"/>
-      <c r="U36" s="481"/>
-      <c r="V36" s="481"/>
-      <c r="W36" s="481"/>
-      <c r="X36" s="481"/>
+      <c r="G36" s="490"/>
+      <c r="H36" s="490"/>
+      <c r="I36" s="490"/>
+      <c r="J36" s="490"/>
+      <c r="K36" s="490"/>
+      <c r="L36" s="490"/>
+      <c r="M36" s="490"/>
+      <c r="N36" s="490"/>
+      <c r="O36" s="490"/>
+      <c r="P36" s="490"/>
+      <c r="Q36" s="490"/>
+      <c r="R36" s="490"/>
+      <c r="S36" s="490"/>
+      <c r="T36" s="490"/>
+      <c r="U36" s="490"/>
+      <c r="V36" s="490"/>
+      <c r="W36" s="490"/>
+      <c r="X36" s="490"/>
       <c r="AM36" s="251"/>
     </row>
     <row r="37" spans="3:39" s="250" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="481"/>
-      <c r="H37" s="481"/>
-      <c r="I37" s="481"/>
-      <c r="J37" s="481"/>
-      <c r="K37" s="481"/>
-      <c r="L37" s="481"/>
-      <c r="M37" s="481"/>
-      <c r="N37" s="481"/>
-      <c r="O37" s="481"/>
-      <c r="P37" s="481"/>
-      <c r="Q37" s="481"/>
-      <c r="R37" s="481"/>
-      <c r="S37" s="481"/>
-      <c r="T37" s="481"/>
-      <c r="U37" s="481"/>
-      <c r="V37" s="481"/>
-      <c r="W37" s="481"/>
-      <c r="X37" s="481"/>
+      <c r="G37" s="490"/>
+      <c r="H37" s="490"/>
+      <c r="I37" s="490"/>
+      <c r="J37" s="490"/>
+      <c r="K37" s="490"/>
+      <c r="L37" s="490"/>
+      <c r="M37" s="490"/>
+      <c r="N37" s="490"/>
+      <c r="O37" s="490"/>
+      <c r="P37" s="490"/>
+      <c r="Q37" s="490"/>
+      <c r="R37" s="490"/>
+      <c r="S37" s="490"/>
+      <c r="T37" s="490"/>
+      <c r="U37" s="490"/>
+      <c r="V37" s="490"/>
+      <c r="W37" s="490"/>
+      <c r="X37" s="490"/>
       <c r="AM37" s="251"/>
     </row>
     <row r="38" spans="3:39" s="250" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="481"/>
-      <c r="H38" s="481"/>
-      <c r="I38" s="481"/>
-      <c r="J38" s="481"/>
-      <c r="K38" s="481"/>
-      <c r="L38" s="481"/>
-      <c r="M38" s="481"/>
-      <c r="N38" s="481"/>
-      <c r="O38" s="481"/>
-      <c r="P38" s="481"/>
-      <c r="Q38" s="481"/>
-      <c r="R38" s="481"/>
-      <c r="S38" s="481"/>
-      <c r="T38" s="481"/>
-      <c r="U38" s="481"/>
-      <c r="V38" s="481"/>
-      <c r="W38" s="481"/>
-      <c r="X38" s="481"/>
+      <c r="G38" s="490"/>
+      <c r="H38" s="490"/>
+      <c r="I38" s="490"/>
+      <c r="J38" s="490"/>
+      <c r="K38" s="490"/>
+      <c r="L38" s="490"/>
+      <c r="M38" s="490"/>
+      <c r="N38" s="490"/>
+      <c r="O38" s="490"/>
+      <c r="P38" s="490"/>
+      <c r="Q38" s="490"/>
+      <c r="R38" s="490"/>
+      <c r="S38" s="490"/>
+      <c r="T38" s="490"/>
+      <c r="U38" s="490"/>
+      <c r="V38" s="490"/>
+      <c r="W38" s="490"/>
+      <c r="X38" s="490"/>
       <c r="AM38" s="251"/>
     </row>
     <row r="39" spans="3:39" s="250" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="481"/>
-      <c r="H39" s="481"/>
-      <c r="I39" s="481"/>
-      <c r="J39" s="481"/>
-      <c r="K39" s="481"/>
-      <c r="L39" s="481"/>
-      <c r="M39" s="481"/>
-      <c r="N39" s="481"/>
-      <c r="O39" s="481"/>
-      <c r="P39" s="481"/>
-      <c r="Q39" s="481"/>
-      <c r="R39" s="481"/>
-      <c r="S39" s="481"/>
-      <c r="T39" s="481"/>
-      <c r="U39" s="481"/>
-      <c r="V39" s="481"/>
-      <c r="W39" s="481"/>
-      <c r="X39" s="481"/>
+      <c r="G39" s="490"/>
+      <c r="H39" s="490"/>
+      <c r="I39" s="490"/>
+      <c r="J39" s="490"/>
+      <c r="K39" s="490"/>
+      <c r="L39" s="490"/>
+      <c r="M39" s="490"/>
+      <c r="N39" s="490"/>
+      <c r="O39" s="490"/>
+      <c r="P39" s="490"/>
+      <c r="Q39" s="490"/>
+      <c r="R39" s="490"/>
+      <c r="S39" s="490"/>
+      <c r="T39" s="490"/>
+      <c r="U39" s="490"/>
+      <c r="V39" s="490"/>
+      <c r="W39" s="490"/>
+      <c r="X39" s="490"/>
       <c r="AM39" s="251"/>
     </row>
     <row r="40" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C40" s="212"/>
       <c r="D40" s="212"/>
-      <c r="G40" s="481"/>
-      <c r="H40" s="481"/>
-      <c r="I40" s="481"/>
-      <c r="J40" s="481"/>
-      <c r="K40" s="481"/>
-      <c r="L40" s="481"/>
-      <c r="M40" s="481"/>
-      <c r="N40" s="481"/>
-      <c r="O40" s="481"/>
-      <c r="P40" s="481"/>
-      <c r="Q40" s="481"/>
-      <c r="R40" s="481"/>
-      <c r="S40" s="481"/>
-      <c r="T40" s="481"/>
-      <c r="U40" s="481"/>
-      <c r="V40" s="481"/>
-      <c r="W40" s="481"/>
-      <c r="X40" s="481"/>
+      <c r="G40" s="490"/>
+      <c r="H40" s="490"/>
+      <c r="I40" s="490"/>
+      <c r="J40" s="490"/>
+      <c r="K40" s="490"/>
+      <c r="L40" s="490"/>
+      <c r="M40" s="490"/>
+      <c r="N40" s="490"/>
+      <c r="O40" s="490"/>
+      <c r="P40" s="490"/>
+      <c r="Q40" s="490"/>
+      <c r="R40" s="490"/>
+      <c r="S40" s="490"/>
+      <c r="T40" s="490"/>
+      <c r="U40" s="490"/>
+      <c r="V40" s="490"/>
+      <c r="W40" s="490"/>
+      <c r="X40" s="490"/>
       <c r="AM40" s="212"/>
     </row>
     <row r="41" spans="3:39" x14ac:dyDescent="0.25">
@@ -11503,13 +11503,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -11526,6 +11519,13 @@
     <mergeCell ref="AC19:AL19"/>
     <mergeCell ref="Z6:AE6"/>
     <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12376,38 +12376,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="511" t="s">
+      <c r="A1" s="512" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="511"/>
-      <c r="C1" s="511"/>
-      <c r="D1" s="511"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="512" t="s">
+      <c r="F1" s="513" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
-      <c r="K1" s="512"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
+      <c r="K1" s="513"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="513" t="s">
+      <c r="A2" s="514" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="513"/>
-      <c r="C2" s="513"/>
-      <c r="D2" s="513"/>
+      <c r="B2" s="514"/>
+      <c r="C2" s="514"/>
+      <c r="D2" s="514"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="514" t="s">
+      <c r="F2" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="514"/>
-      <c r="H2" s="514"/>
-      <c r="I2" s="514"/>
-      <c r="J2" s="514"/>
-      <c r="K2" s="514"/>
+      <c r="G2" s="515"/>
+      <c r="H2" s="515"/>
+      <c r="I2" s="515"/>
+      <c r="J2" s="515"/>
+      <c r="K2" s="515"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -12420,43 +12420,43 @@
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="515" t="s">
+      <c r="A4" s="516" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="515"/>
-      <c r="C4" s="515"/>
-      <c r="D4" s="515"/>
-      <c r="E4" s="515"/>
-      <c r="F4" s="515"/>
-      <c r="G4" s="515"/>
-      <c r="H4" s="515"/>
-      <c r="I4" s="515"/>
-      <c r="J4" s="515"/>
-      <c r="K4" s="515"/>
-      <c r="L4" s="515"/>
+      <c r="B4" s="516"/>
+      <c r="C4" s="516"/>
+      <c r="D4" s="516"/>
+      <c r="E4" s="516"/>
+      <c r="F4" s="516"/>
+      <c r="G4" s="516"/>
+      <c r="H4" s="516"/>
+      <c r="I4" s="516"/>
+      <c r="J4" s="516"/>
+      <c r="K4" s="516"/>
+      <c r="L4" s="516"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="516" t="s">
+      <c r="A5" s="517" t="s">
         <v>289</v>
       </c>
-      <c r="B5" s="516"/>
-      <c r="C5" s="516"/>
-      <c r="D5" s="516"/>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="516"/>
-      <c r="J5" s="516"/>
-      <c r="K5" s="516"/>
-      <c r="L5" s="516"/>
+      <c r="B5" s="517"/>
+      <c r="C5" s="517"/>
+      <c r="D5" s="517"/>
+      <c r="E5" s="517"/>
+      <c r="F5" s="517"/>
+      <c r="G5" s="517"/>
+      <c r="H5" s="517"/>
+      <c r="I5" s="517"/>
+      <c r="J5" s="517"/>
+      <c r="K5" s="517"/>
+      <c r="L5" s="517"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="517" t="s">
+      <c r="J6" s="518" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="517"/>
-      <c r="L6" s="517"/>
+      <c r="K6" s="518"/>
+      <c r="L6" s="518"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="145" t="s">
@@ -12523,12 +12523,12 @@
       <c r="L8" s="145"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="508" t="s">
+      <c r="A9" s="509" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="509"/>
-      <c r="C9" s="509"/>
-      <c r="D9" s="510"/>
+      <c r="B9" s="510"/>
+      <c r="C9" s="510"/>
+      <c r="D9" s="511"/>
       <c r="E9" s="147"/>
       <c r="F9" s="151">
         <f>SUM(F10:F12)</f>
@@ -12651,12 +12651,12 @@
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="505" t="s">
+      <c r="A13" s="506" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="506"/>
-      <c r="C13" s="506"/>
-      <c r="D13" s="507"/>
+      <c r="B13" s="507"/>
+      <c r="C13" s="507"/>
+      <c r="D13" s="508"/>
       <c r="E13" s="89"/>
       <c r="F13" s="151">
         <f>SUM(F14:F14)</f>
@@ -12718,11 +12718,11 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="518" t="s">
+      <c r="A15" s="519" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="519"/>
-      <c r="C15" s="520"/>
+      <c r="B15" s="520"/>
+      <c r="C15" s="521"/>
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86">
@@ -12749,14 +12749,14 @@
       <c r="L15" s="85"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="503"/>
-      <c r="C17" s="503"/>
-      <c r="D17" s="503"/>
+      <c r="B17" s="504"/>
+      <c r="C17" s="504"/>
+      <c r="D17" s="504"/>
       <c r="E17" s="82"/>
-      <c r="H17" s="503"/>
-      <c r="I17" s="503"/>
-      <c r="J17" s="503"/>
-      <c r="K17" s="503"/>
+      <c r="H17" s="504"/>
+      <c r="I17" s="504"/>
+      <c r="J17" s="504"/>
+      <c r="K17" s="504"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="142" t="s">
@@ -12768,12 +12768,12 @@
         <v>84</v>
       </c>
       <c r="G18" s="142"/>
-      <c r="H18" s="503" t="s">
+      <c r="H18" s="504" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="503"/>
-      <c r="J18" s="503"/>
-      <c r="K18" s="503"/>
+      <c r="I18" s="504"/>
+      <c r="J18" s="504"/>
+      <c r="K18" s="504"/>
     </row>
     <row r="19" spans="2:11" s="143" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="144" t="s">
@@ -12785,12 +12785,12 @@
         <v>91</v>
       </c>
       <c r="G19" s="144"/>
-      <c r="H19" s="504" t="s">
+      <c r="H19" s="505" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="504"/>
-      <c r="J19" s="504"/>
-      <c r="K19" s="504"/>
+      <c r="I19" s="505"/>
+      <c r="J19" s="505"/>
+      <c r="K19" s="505"/>
     </row>
     <row r="22" spans="2:11" s="96" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>
